--- a/test_review/06-06.xlsx
+++ b/test_review/06-06.xlsx
@@ -8,6 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="new_topics" sheetId="2" r:id="rId4"/>
+    <sheet name="last_hot_topics" sheetId="3" r:id="rId5"/>
+    <sheet name="append_to_last_topics" sheetId="4" r:id="rId6"/>
+    <sheet name="remove_from_last_topics" sheetId="5" r:id="rId7"/>
+    <sheet name="unchanged_topics" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -319,4 +324,54 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData/>
+</worksheet>
 </file>
--- a/test_review/06-06.xlsx
+++ b/test_review/06-06.xlsx
@@ -7,15 +7,1852 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="new_topics" sheetId="2" r:id="rId4"/>
-    <sheet name="last_hot_topics" sheetId="3" r:id="rId5"/>
-    <sheet name="append_to_last_topics" sheetId="4" r:id="rId6"/>
-    <sheet name="remove_from_last_topics" sheetId="5" r:id="rId7"/>
+    <sheet name="last_hot_topics" sheetId="2" r:id="rId4"/>
+    <sheet name="new_topics" sheetId="3" r:id="rId5"/>
+    <sheet name="append_to_last_discarded" sheetId="4" r:id="rId6"/>
+    <sheet name="remove_from_last_discarded" sheetId="5" r:id="rId7"/>
     <sheet name="unchanged_topics" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="611">
+  <si>
+    <t>话题描述</t>
+  </si>
+  <si>
+    <t>开发者需要解决Conan仓库配置异常、代码生成依赖混淆、构建签名中断及调试组件集成等共性问题。</t>
+  </si>
+  <si>
+    <t>相关讨论源（title&amp;url）</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>支持telnetd以及i2c_tools等工具</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/conan_index/issues/2</t>
+  </si>
+  <si>
+    <t>fructrl的历史提交全清了，导致manifest构建失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/340/1</t>
+  </si>
+  <si>
+    <t>Jfrog绑定新的社区conan仓地址无效</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/500/1</t>
+  </si>
+  <si>
+    <t>bingo build -b openUBMC -r openubmc_dev报错签名失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1056/1</t>
+  </si>
+  <si>
+    <t>openUBMC调试工具安装指导</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/415/1</t>
+  </si>
+  <si>
+    <t>busybox作为conan组件编入openUBMC实践分享</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/406/1</t>
+  </si>
+  <si>
+    <t>Q1 main分支f8acc985 bmcgo 构建失败：not found in ibmc_dev</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/848/1</t>
+  </si>
+  <si>
+    <t>openubmc社区conan仓使用指导</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/186/1</t>
+  </si>
+  <si>
+    <t>conan仓remote地址不能被Jfrog聚合</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/infrastructure/issues/24</t>
+  </si>
+  <si>
+    <t>bingo gen 代码生成问题咨询</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1074/1</t>
+  </si>
+  <si>
+    <t>社区conan仓无法在虚拟仓配置中使用</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/705/1</t>
+  </si>
+  <si>
+    <t>不指定远端conan仓编译失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/970/1</t>
+  </si>
+  <si>
+    <t>历史提交全清导致历史版本无法源码构建</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/fructrl/issues/1</t>
+  </si>
+  <si>
+    <t>25.03 fructrl源码构建时出文件找不到的错</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/510/1</t>
+  </si>
+  <si>
+    <t>社区conan仓库不通</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/339/1</t>
+  </si>
+  <si>
+    <t>conan 远端仓访问出错</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/467/1</t>
+  </si>
+  <si>
+    <t>manufacture 代码仓 bingo gen</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/978/1</t>
+  </si>
+  <si>
+    <t>open-repo仓dev_tools_with_bmcgo.zip提供的bingo工具问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/701/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何验证QEMU网络参数及IPMI配置与固件网卡的适配性</t>
+  </si>
+  <si>
+    <t>如何快速启动Qemu</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/544/1</t>
+  </si>
+  <si>
+    <t>Qemu使用指南</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/636/1</t>
+  </si>
+  <si>
+    <t>Qemu常见问题归纳</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/726/1</t>
+  </si>
+  <si>
+    <t>qemu启动之后，ssh可以访问，但是web和ipmi都无法访问</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/718/1</t>
+  </si>
+  <si>
+    <t>openUBMC怎么使用qemu运行</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/227/1</t>
+  </si>
+  <si>
+    <t>Qemu运行跑起固件后SSH、web、ipmi不通的问题求助</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/661/1</t>
+  </si>
+  <si>
+    <t>社区镜像中BMC工具QEMU与Bingo的一键部署配置</t>
+  </si>
+  <si>
+    <t>社区镜像支持集成Qemu工具和仿真镜像</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/infrastructure/issues/9</t>
+  </si>
+  <si>
+    <t>支持Qemu工具和仿真镜像的本地一键部署</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/qemu/issues/2</t>
+  </si>
+  <si>
+    <t>社区镜像支持集成BMCStudio和Bingo工具</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/13</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/9</t>
+  </si>
+  <si>
+    <t>社区镜像支持集成BMCStudio和Bingo及工具依赖</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/infrastructure/issues/1</t>
+  </si>
+  <si>
+    <t>OpenUBMC25 06版本需通过QEMU实现板卡器件多路转换器及EEPROM仿真读写功能，依托i2c总线与hi1711 soc能力完成硬件解耦验证</t>
+  </si>
+  <si>
+    <t>【需求】支持板卡多路转换器的设备仿真</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/qemu/issues/10</t>
+  </si>
+  <si>
+    <t>【需求】支持板卡寄存器的设备仿真</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/qemu/issues/11</t>
+  </si>
+  <si>
+    <t>【需求】支持eeprom器件功能仿真和验证</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/qemu/issues/13</t>
+  </si>
+  <si>
+    <t>实现BMC对多型号网卡的CSR适配、带内外信息采集及Redfish/Web/SNMP接口集成，确保告警配置验证与调速功能兼容性</t>
+  </si>
+  <si>
+    <t>【需求】支持管理网卡MCX512A-ACUT</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/24</t>
+  </si>
+  <si>
+    <t>【需求】支持管理网卡SF200HT</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/39</t>
+  </si>
+  <si>
+    <t>【需求】支持管理网卡QLE2742</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/40</t>
+  </si>
+  <si>
+    <t>【需求】支持管理网卡MCX512A-ACAT</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/41</t>
+  </si>
+  <si>
+    <t>【需求】支持管理网卡MCX631102AN-ADAT的能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/23</t>
+  </si>
+  <si>
+    <t>【需求】支持管理网卡MCX755106AS-HEAT</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/33</t>
+  </si>
+  <si>
+    <t>【需求】支持管理网卡SF223D-H</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/37</t>
+  </si>
+  <si>
+    <t>【需求】支持管理网卡SF400HT</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/38</t>
+  </si>
+  <si>
+    <t>【需求】支持管理网卡MCX631432AN-ADAB的能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/22</t>
+  </si>
+  <si>
+    <t>【需求】支持管理网卡SF221Q</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/35</t>
+  </si>
+  <si>
+    <t>【需求】支持管理网卡SP680</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/34</t>
+  </si>
+  <si>
+    <t>【需求】支持管理网卡SP625D</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/36</t>
+  </si>
+  <si>
+    <t>【需求】支持管理网卡SWIFT-2200N</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/31</t>
+  </si>
+  <si>
+    <t>BMC固件开发中如何实现风扇模式切换与持久化兼容性</t>
+  </si>
+  <si>
+    <t>【需求】支持设置风扇手自动控制模式原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/19</t>
+  </si>
+  <si>
+    <t>【需求】新增设置/查询风扇控制模式持久化属性/方法</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/26</t>
+  </si>
+  <si>
+    <t>【需求】支持查询风扇手自动控制模式原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/18</t>
+  </si>
+  <si>
+    <t>BMC开发者如何验证双CPLD硬盘背板的I2C配置与独立控制能力</t>
+  </si>
+  <si>
+    <t>硬盘背板CSR配置疑问</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/756/1</t>
+  </si>
+  <si>
+    <t>双CPLD硬盘背板疑问</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/688/1</t>
+  </si>
+  <si>
+    <t>新增OCP卡调速策略时如何确保CoolingPolicy的ID唯一性与正确关联</t>
+  </si>
+  <si>
+    <t>板卡的环温调速配置</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/326/1</t>
+  </si>
+  <si>
+    <t>调速配置求助</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/317/1</t>
+  </si>
+  <si>
+    <t>BMC固件如何实现国密证书管理接口与HTTPS兼容优化</t>
+  </si>
+  <si>
+    <t>【需求】支持国密证书管理的接口优化</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/43</t>
+  </si>
+  <si>
+    <t>【需求】支持国密证书管理的北向接口配置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/23</t>
+  </si>
+  <si>
+    <t>BMC如何实现CSR文件损坏检测与自修复机制</t>
+  </si>
+  <si>
+    <t>CSR文件损坏之后的恢复能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/4</t>
+  </si>
+  <si>
+    <t>CSR文件损坏恢复能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/9</t>
+  </si>
+  <si>
+    <t>如何通过原子能力实现电源冗余模式配置与功率封顶参数管理</t>
+  </si>
+  <si>
+    <t>【需求】支持设置功率封顶参数原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/24</t>
+  </si>
+  <si>
+    <t>【需求】支持查询电源模块信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/28</t>
+  </si>
+  <si>
+    <t>【需求】支持查询功率封顶参数原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/21</t>
+  </si>
+  <si>
+    <t>【需求】支持查询指定机箱电源信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/23</t>
+  </si>
+  <si>
+    <t>【需求】支持监控电源不匹配检测原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/36</t>
+  </si>
+  <si>
+    <t>【需求】支持设置冗余供电模式能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/26</t>
+  </si>
+  <si>
+    <t>【需求】支持Power资源新增修改电源冗余模式</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/31</t>
+  </si>
+  <si>
+    <t>【需求】支持查询系统供电信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/29</t>
+  </si>
+  <si>
+    <t>【需求】支持功率采集及查询原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/37</t>
+  </si>
+  <si>
+    <t>【需求】支持查询功耗过高告警阈值原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/20</t>
+  </si>
+  <si>
+    <t>【需求】支持查询历史系统功率信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/30</t>
+  </si>
+  <si>
+    <t>【需求】支持设置功耗过高告警阈值原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/25</t>
+  </si>
+  <si>
+    <t>【需求】支持查询风扇信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/16</t>
+  </si>
+  <si>
+    <t>【需求】支持采集电源FRU信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/34</t>
+  </si>
+  <si>
+    <t>【需求】支持查询最大风扇&amp;电源个数信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/14</t>
+  </si>
+  <si>
+    <t>【需求】支持查询电源FRU信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/22</t>
+  </si>
+  <si>
+    <t>【需求】支持查询冗余供电信息能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/27</t>
+  </si>
+  <si>
+    <t>【需求】支持温度采集及查询原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/20</t>
+  </si>
+  <si>
+    <t>【需求】支持查询温度信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/15</t>
+  </si>
+  <si>
+    <t>【需求】支持优化供电模式切换特性</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/9</t>
+  </si>
+  <si>
+    <t>【需求】支持查询进风口历史温度信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/17</t>
+  </si>
+  <si>
+    <t>kptest框架屏蔽硬件差异时如何保持BMC测试用例兼容性</t>
+  </si>
+  <si>
+    <t>kptest框架与KPTestOpenFramework工程、iTestSmart工具介绍</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/832/1</t>
+  </si>
+  <si>
+    <t>怎么申请使用kptest框架和itestsmart工具呢</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/665/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现Redfish与REST接口遥测配置的参数管理和测试验证</t>
+  </si>
+  <si>
+    <t>支持遥测上报配置管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/16</t>
+  </si>
+  <si>
+    <t>【需求】 支持遥测上报配置管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/37</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/12</t>
+  </si>
+  <si>
+    <t>【需求】可观测新增redfish、web接口及属性</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/29</t>
+  </si>
+  <si>
+    <t>BIOS生效流程图步骤顺序及逻辑错误需修正</t>
+  </si>
+  <si>
+    <t>bios组件生效流程流程图错误</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/19</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/17</t>
+  </si>
+  <si>
+    <t>支持华为自定义SMART的NVMe SSD盘在直通架构下的带内冗余块监控和寿命计算参数扩展</t>
+  </si>
+  <si>
+    <t>【需求】支持自定义的SMART NVMe SSD盘亚健康检测</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/23</t>
+  </si>
+  <si>
+    <t>【需求】支持自定义SMART信息的NVMe SSD盘写放大监控</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/28</t>
+  </si>
+  <si>
+    <t>【需求】支持获取NVMe SSD盘自定义SMART信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/27</t>
+  </si>
+  <si>
+    <t>【需求】支持自定义SMART信息的NVMe SSD盘预估寿命新增计算参数</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/25</t>
+  </si>
+  <si>
+    <t>【需求】支持从带内获取厂商SMART NVMe SSD盘冗余块信息并监控</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/10</t>
+  </si>
+  <si>
+    <t>【需求】支持从带内获取SMART NVMe SSD盘冗余块信息并监控</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/24</t>
+  </si>
+  <si>
+    <t>BMC固件中如何新增电链路数据采集接口实现NPU参数面扩展</t>
+  </si>
+  <si>
+    <t>【需求】支持NPU参数面光模块数据采集接口增加电链路数据</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/7</t>
+  </si>
+  <si>
+    <t>【需求】支持NPU参数面端口电链路数据采集</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/8</t>
+  </si>
+  <si>
+    <t>如何高效优化BMC日志、跟踪及度量数据的采集存储机制以满足开发需求？</t>
+  </si>
+  <si>
+    <t>提供跟踪数据采集和存储能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/4</t>
+  </si>
+  <si>
+    <t>提供度量数据采集和存储能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/2</t>
+  </si>
+  <si>
+    <t>提供日志数据采集和存储能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/5</t>
+  </si>
+  <si>
+    <t>BMC集成OpenTelemetry及开源依赖API时面临兼容性与依赖管理难题</t>
+  </si>
+  <si>
+    <t>提供openTelemetry及依赖开源软件API能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/conan_index/issues/3</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/3</t>
+  </si>
+  <si>
+    <t>解决BIOS高可用环境配置与test流程兼容性问题</t>
+  </si>
+  <si>
+    <t>高可用环境BIOS执行test失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/800/1</t>
+  </si>
+  <si>
+    <t>组件内执行bingo test显示测试失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/594/1</t>
+  </si>
+  <si>
+    <t>定制后BIOS在PXE阶段POST未完成触发BMC重启限制的处理方法</t>
+  </si>
+  <si>
+    <t>【问题单】定制后bios处于PXE阶段时重启BMC失败</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/19</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/sensor/issues/10</t>
+  </si>
+  <si>
+    <t>openUBMC固件升级时多签名机制验证冲突解决方案</t>
+  </si>
+  <si>
+    <t>能否实现伙伴签名的openUBMC版本直接升级华为签名的各种固件？</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/335/1</t>
+  </si>
+  <si>
+    <t>伙伴openubmc版本如何支持升级华为签名固件版本和伙伴自己签名的固件版本均能成功？</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1083/1</t>
+  </si>
+  <si>
+    <t>使用openubmc进行bios固件升级，提示无效的升级包</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/182/1</t>
+  </si>
+  <si>
+    <t>刷了华为根的机器是否可以直接刷伙伴根</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/933/1</t>
+  </si>
+  <si>
+    <t>如何验证Thermal/Power资源对Redfish新标准接口的完整兼容性及运维场景可行性</t>
+  </si>
+  <si>
+    <t>【需求】Power相关资源支持redfish新标准</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/19</t>
+  </si>
+  <si>
+    <t>【需求】Thermal相关资源支持redfish新标准</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/13</t>
+  </si>
+  <si>
+    <t>openUBMC应用框架开发中如何确保BMC兼容性</t>
+  </si>
+  <si>
+    <t>提供应用框架开发指导</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/15</t>
+  </si>
+  <si>
+    <t>【需求】社区提供开源项目开发者指南</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/webui/issues/19</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现Redfish API查询指定处理器的分类属性及状态验证</t>
+  </si>
+  <si>
+    <t>【需求】支持查询指定处理器资源信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/33</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/53</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/47</t>
+  </si>
+  <si>
+    <t>BMC开发者如何新增3000W电源资源树属性并配置PMbus告警</t>
+  </si>
+  <si>
+    <t>【需求】支持3000W电源管理，新增资源树私有属性CurrentModeLogic</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/account/issues/13</t>
+  </si>
+  <si>
+    <t>【需求】支持3000W电源管理，新增资源树bmc.kepler.Systems.PowerMgmt.OnePower.Status属性CMLStatus</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/44</t>
+  </si>
+  <si>
+    <t>【需求】支持电源继电器状态管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/45</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现并行升级总线互斥锁及日志追踪超时释放</t>
+  </si>
+  <si>
+    <t>【需求】支持固件升级流程总线互斥</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/21</t>
+  </si>
+  <si>
+    <t>固件升级流程总线互斥</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/10</t>
+  </si>
+  <si>
+    <t>【需求】能效管理固件升级流程总线互斥</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/11</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/11</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现IPMI2.0的SystemInfoTable私有属性掉电持久化及广播参数配置</t>
+  </si>
+  <si>
+    <t>IPMI2.0标准接口能力新增私有属性保存system info信息</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1100/1</t>
+  </si>
+  <si>
+    <t>【需求】支持Get System Info标准命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/12</t>
+  </si>
+  <si>
+    <t>【需求】支持Set System Info标准命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/13</t>
+  </si>
+  <si>
+    <t>BMC固件解析SMBIOS 04Type时越界保护失效，需验证结构体长度处理修正</t>
+  </si>
+  <si>
+    <t>解析SMBIOS协议04Type时出现异常</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/363/1</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何通过VPD直通实现华为/Memblaze多容量NVMe盘兼容纳管并展示信息</t>
+  </si>
+  <si>
+    <t>【需求】支持新增Memblaze厂商NVMe盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/44</t>
+  </si>
+  <si>
+    <t>【需求】支持新增华为厂商NVMe盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/41</t>
+  </si>
+  <si>
+    <t>BMC开发者如何通过Web触发RAID卡固件日志导出并满足脱敏、时延及兼容性要求</t>
+  </si>
+  <si>
+    <t>【需求】支持一键搜集日志导出raid卡固件日志</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/31</t>
+  </si>
+  <si>
+    <t>【需求】支持收集raid卡文本格式日志</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/32</t>
+  </si>
+  <si>
+    <t>BMC构建工具如何设计版本联动策略确保SDK与包的兼容性</t>
+  </si>
+  <si>
+    <t>应支持bingo、构建工具、sdk之间的版本配套</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/414/1</t>
+  </si>
+  <si>
+    <t>【需求】bingo支持组件的全量二进制构建</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bingo/issues/12</t>
+  </si>
+  <si>
+    <t>如何在BMC中实现运维CLI触发NPU/CPU DFX日志收集任务的并发控制与存储路径管理</t>
+  </si>
+  <si>
+    <t>【需求】 支持CLI导出NPU DFX日志</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/48</t>
+  </si>
+  <si>
+    <t>【需求】支持CLI导出CPU DFX日志</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/46</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现能效子系统自定义调试命令注册与单组件绑定执行</t>
+  </si>
+  <si>
+    <t>【需求】支持能效管理子系统组件自定义命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/7</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/17</t>
+  </si>
+  <si>
+    <t>【需求】支持组件自定义命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/21</t>
+  </si>
+  <si>
+    <t>BMC出厂配置导出需增加产品类别和版本字段兼容性适配</t>
+  </si>
+  <si>
+    <t>配置导出项新增BMC软件版本信息和产品类别信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/13</t>
+  </si>
+  <si>
+    <t>配置导入导出新增产品类别信息和BMC软件版本信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/profile_schema/issues/2</t>
+  </si>
+  <si>
+    <t>提供BMC出厂配置定制指导</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/16</t>
+  </si>
+  <si>
+    <t>软件中心需要添加BMCStudio描述和下载页</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/software-center-config/issues/3</t>
+  </si>
+  <si>
+    <t>BMC开发者如何修复Vite组件中未授权文件访问漏洞防止敏感文件泄露</t>
+  </si>
+  <si>
+    <t>CVE-2025-46565</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/21</t>
+  </si>
+  <si>
+    <t>CVE-2025-30208</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/16</t>
+  </si>
+  <si>
+    <t>CVE-2025-31486</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/18</t>
+  </si>
+  <si>
+    <t>CVE-2025-31125</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/17</t>
+  </si>
+  <si>
+    <t>CVE-2025-32395</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/19</t>
+  </si>
+  <si>
+    <t>BMC Studio需补全文档示例并优化接口校验规则</t>
+  </si>
+  <si>
+    <t>BMC Studio工具使用反馈</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/714/1</t>
+  </si>
+  <si>
+    <t>[WIP]BMC Studio用户指南</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/221/1</t>
+  </si>
+  <si>
+    <t>BMC固件升级后证书校验失败致启动异常及回滚机制失效</t>
+  </si>
+  <si>
+    <t>最新 source 包烧录异常问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/173/1</t>
+  </si>
+  <si>
+    <t>使用社区最新出包，升级hpm失败，查看m3log get cert fail!</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/498/1</t>
+  </si>
+  <si>
+    <t>BMC固件如何适配BlueField硬件不同版本及其四元组的调速策略需求</t>
+  </si>
+  <si>
+    <t>【需求】支持BlueField-3（B3220）的调速策略配置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/17</t>
+  </si>
+  <si>
+    <t>【需求】支持BlueField-2（332A）的调速策略</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/18</t>
+  </si>
+  <si>
+    <t>BMC恢复出厂后固件升级验证失败与权限异常排查</t>
+  </si>
+  <si>
+    <t>恢复出厂设置后，BMC升级失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1065/1</t>
+  </si>
+  <si>
+    <t>BMC恢复出厂设置之后无法更新固件</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/831/1</t>
+  </si>
+  <si>
+    <t>恢复出厂设置时无法升级</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/11</t>
+  </si>
+  <si>
+    <t>BMC开发者如何修正openUBMC交叉编译中的头文件缺失与依赖冲突</t>
+  </si>
+  <si>
+    <t>社区lsw编译不过</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/979/1</t>
+  </si>
+  <si>
+    <t>开源首版本编译不过</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/lsw/issues/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何确保PCIe组件初始化期间的IPMI命令正确注册</t>
+  </si>
+  <si>
+    <t>非天池组件加载方式</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/610/1</t>
+  </si>
+  <si>
+    <t>pcie_device新增IPMI命令导致组件异常问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/595/1</t>
+  </si>
+  <si>
+    <t>如何实现PLDM协议支持网卡芯片温度及固件版本采集并兼容北向接口</t>
+  </si>
+  <si>
+    <t>【需求】支持使用pldm协议获取网卡相关信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/20</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/19</t>
+  </si>
+  <si>
+    <t>NCSI边带管理功能如何通过Lua开发实现协议封装解析，并取消SO依赖适配openUBMC 25.1.0版本</t>
+  </si>
+  <si>
+    <t>【需求】支持NCSI边带管理功能</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/16</t>
+  </si>
+  <si>
+    <t>【需求】开源社区支持NCSI边带管理功能</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/5</t>
+  </si>
+  <si>
+    <t>BMC开发者需文档化一键导出板卡MCU信息功能的存储路径及命名规范</t>
+  </si>
+  <si>
+    <t>【已评审】支持一键收集导出板卡信息，mcu信息</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/628/1</t>
+  </si>
+  <si>
+    <t>【问题单】支持一键收集导出板卡信息，mcu信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/10</t>
+  </si>
+  <si>
+    <t>【需求】支持一键收集通用硬件信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/34</t>
+  </si>
+  <si>
+    <t>openUBMC一键收集介绍</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/290/1</t>
+  </si>
+  <si>
+    <t>【需求】支持板卡硬件管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/15</t>
+  </si>
+  <si>
+    <t>基础通用问题FAQ</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/292/1</t>
+  </si>
+  <si>
+    <t>bmc-core SIG 入门指南</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/167/1</t>
+  </si>
+  <si>
+    <t>openUBMC各sig组本周(2025-0421-2025-0427)关闭issue统计</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/672/1</t>
+  </si>
+  <si>
+    <t>openUBMC各sig组本周(2025-0428~2025-0505)关闭issue统计</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/733/1</t>
+  </si>
+  <si>
+    <t>openUBMC品牌包定制指南</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/355/1</t>
+  </si>
+  <si>
+    <t>openUBMC各sig组本周(2025-0506~2025-0511)关闭issue统计</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/876/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现NVMe-MI over MCTP协议解析及兼容可靠处理</t>
+  </si>
+  <si>
+    <t>【需求】支持NVMe-mi over mctp的协议解析</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/33</t>
+  </si>
+  <si>
+    <t>【需求】支持解析nvme mi协议响应码信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/8</t>
+  </si>
+  <si>
+    <t>OpenUBMC社区如何实现QEMU工具链与仿真镜像的高效集成构建及发布流程适配性问题亟待解决</t>
+  </si>
+  <si>
+    <t>OpenUBMC社区支持Qemu工具的构建与发布</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/qemu/issues/3</t>
+  </si>
+  <si>
+    <t>OpenUBMC社区支持仿真镜像的构建与发布</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/qemu/issues/5</t>
+  </si>
+  <si>
+    <t>OpenUBMC社区支持仿真数据的发布</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/qemu/issues/4</t>
+  </si>
+  <si>
+    <t>BMC开发中如何定义FPGA周期自检失败告警并关联CSR配置</t>
+  </si>
+  <si>
+    <t>【需求】支持FPGA固件周期自检失败的告警</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/30</t>
+  </si>
+  <si>
+    <t>支持FPGA固件周期自检失败的告警</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/45</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/84</t>
+  </si>
+  <si>
+    <t>BMC开发中如何适配Redfish接口权限变更引发的调用限制</t>
+  </si>
+  <si>
+    <t>【变更声明】Redfish升级接口权限变更</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/732/1</t>
+  </si>
+  <si>
+    <t>Redfish 升级接口 SimpleUpdate 关于在支持升级之后清除配置功能接口变更</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/32</t>
+  </si>
+  <si>
+    <t>BMC开发者如何修正VPD仓库platform sr png文件position指标映射错误</t>
+  </si>
+  <si>
+    <t>vpd仓库platform.sr.png描述有误</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/2</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/360/1</t>
+  </si>
+  <si>
+    <t>BMC固件开发需支持BIOS启动禁用KVM/VNC键盘输入</t>
+  </si>
+  <si>
+    <t>支持BIOS启动过程禁止KVM/VNC键盘输入</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/19</t>
+  </si>
+  <si>
+    <t>支持BIOS在启动阶段禁用键盘</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/20</t>
+  </si>
+  <si>
+    <t>BMC升级接口参数扩展如何支持多组件并行适配</t>
+  </si>
+  <si>
+    <t>【需求】power_mgmt组件适配升级接口参数扩展</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/10</t>
+  </si>
+  <si>
+    <t>general_hardware组件适配升级接口参数</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/11</t>
+  </si>
+  <si>
+    <t>能效管理适配升级接口参数扩展</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/5</t>
+  </si>
+  <si>
+    <t>【需求】bios组件适配升级接口参数扩展</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/10</t>
+  </si>
+  <si>
+    <t>BMC中如何实现日志存储隔离的配置迁移与统一管理</t>
+  </si>
+  <si>
+    <t>支持日志存放位置隔离</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/23</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rootfs_user/issues/2</t>
+  </si>
+  <si>
+    <t>BMC开发者如何通过MCTP Over PCIe实时获取并记录DPU网卡启动标识</t>
+  </si>
+  <si>
+    <t>【需求】支持DPU网卡启动完成标识记录</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/15</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/28</t>
+  </si>
+  <si>
+    <t>BMC网卡适配组件如何兼容历史功能及设备树驱动接口</t>
+  </si>
+  <si>
+    <t>【需求】网卡适配组件兼容历史网卡功能</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/6</t>
+  </si>
+  <si>
+    <t>【需求】网卡支持南向部件驱动接口</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/17</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/18</t>
+  </si>
+  <si>
+    <t>电源适配中如何显式声明设备树引用字段以避免nil调用</t>
+  </si>
+  <si>
+    <t>pmbus CRPS电源适配</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/240/1</t>
+  </si>
+  <si>
+    <t>电源适配指导</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1101/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现Redfish接口OEM扩展并处理存储控制器属性异常</t>
+  </si>
+  <si>
+    <t>【需求】支持厂商定制化显示存储控制器端口数</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/67</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish接口oem定制查询指定存储资源信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rack_mgmt/issues/2</t>
+  </si>
+  <si>
+    <t>BMC CPU的ProcessorID属性类型为U32，与SMBIOS协议QWORD范围不匹配引发存储解析失败。</t>
+  </si>
+  <si>
+    <t>【问题单】CPU的ProcessorID属性定义与SMBIOS协议规定不符</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/75</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/47</t>
+  </si>
+  <si>
+    <t>bmc.kepler.Systems.Processor.CPU的ProcessorID为U32类型，与SMBIOS协议不一致</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/30</t>
+  </si>
+  <si>
+    <t>CPU类的ProcessorID属性定义为U32类型，与SMBIOS协议范围（QWORD）不一致</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/362/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现光模块老化预测功能开关的Redfish接口支持</t>
+  </si>
+  <si>
+    <t>【需求】支持光模块老化故障预测功能开关</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/52</t>
+  </si>
+  <si>
+    <t>【修改描述】支持光模块老化预测功能开关使能</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/31</t>
+  </si>
+  <si>
+    <t>BMC开发中如何通过REDfish协议实现PrivilegeMap配置同步与用户校验提示优化</t>
+  </si>
+  <si>
+    <t>【需求】RAS接口支持配置PrivilegeMap信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/53</t>
+  </si>
+  <si>
+    <t>支持配置PrivilegeMap信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/account/issues/12</t>
+  </si>
+  <si>
+    <t>支持用户名校验定制后的用户提示优化</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/account/issues/5</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/31</t>
+  </si>
+  <si>
+    <t>支持节点模式设置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/5</t>
+  </si>
+  <si>
+    <t>文档描述优化</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/6</t>
+  </si>
+  <si>
+    <t>电源信息获取优化</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/4</t>
+  </si>
+  <si>
+    <t>支持新增自定义用户组设置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/account/issues/11</t>
+  </si>
+  <si>
+    <t>文档持续更新</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/1</t>
+  </si>
+  <si>
+    <t>电源转化器型号显示修改</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/3</t>
+  </si>
+  <si>
+    <t>BMC开发者如何确定PCIe Switch加载PCIe卡及Flash升级是否适用general hardware组件及实现接口扩展</t>
+  </si>
+  <si>
+    <t>【讨论】PCIe Switch场景下如何加载PCIe卡</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/722/1</t>
+  </si>
+  <si>
+    <t>PCIe Switch 芯片的Flash升级</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/721/1</t>
+  </si>
+  <si>
+    <t>需解决BMC在Redfish/Web/IPMI接口下存储介质实时监控与网络设备数据兼容的设计问题</t>
+  </si>
+  <si>
+    <t>【需求】支持存储管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/35</t>
+  </si>
+  <si>
+    <t>【需求】支持硬盘诊断功能控制</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/7</t>
+  </si>
+  <si>
+    <t>【需求】支持服务器网络管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/25</t>
+  </si>
+  <si>
+    <t>【需求】支持存储管理能力基线</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/30</t>
+  </si>
+  <si>
+    <t>BMC开发者如何确保Redfish EthernetInterfaces兼容标准属性</t>
+  </si>
+  <si>
+    <t>支持Redfish接口EthernetInterfaces资源下Links等标准属性</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/37</t>
+  </si>
+  <si>
+    <t>支持查询 BMC 网口资源详细信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/38</t>
+  </si>
+  <si>
+    <t>BMC Studio工作空间一键部署缺失Conan依赖配置导致组件获取失败且无完成状态反馈</t>
+  </si>
+  <si>
+    <t>bmc studio使用问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1012/1</t>
+  </si>
+  <si>
+    <t>BMC_STUDIO仓库一键部署，丢失响应，无成功，无失败反馈</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/962/1</t>
+  </si>
+  <si>
+    <t>使用bmc_studio遇到的问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/925/1</t>
+  </si>
+  <si>
+    <t>BMC Studio问题反馈</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/707/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何解决25.03构建中的Manifest签名链校验异常及dockerfile安装超时问题？</t>
+  </si>
+  <si>
+    <t>25.03构建出包以及伙伴签名问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/390/1</t>
+  </si>
+  <si>
+    <t>25.03版本的构建环境搭建：dockerfile创建镜像失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/409/1</t>
+  </si>
+  <si>
+    <t>制作反向过渡包时碰到的疑问</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/723/1</t>
+  </si>
+  <si>
+    <t>如何通过动态插桩生成覆盖全场景的BMC组件命令白名单</t>
+  </si>
+  <si>
+    <t>【需求】基于动态插桩拦截风险接口调用日志，形成通用化命令的白名单配置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/15</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/pcie_device/issues/4</t>
+  </si>
+  <si>
+    <t>BMC开发者如何建立SATA硬盘兼容纳管策略以实现不同厂商及型号前盘信息在RAID/直通场景下的统一展示</t>
+  </si>
+  <si>
+    <t>【需求】支持新增希捷SATA盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/42</t>
+  </si>
+  <si>
+    <t>【需求】支持新增东芝SATA盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/45</t>
+  </si>
+  <si>
+    <t>【需求】支持新增西数SATA盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/43</t>
+  </si>
+  <si>
+    <t>BMC开发者如何确保测试贡献符合openUBMC社区质量标准？</t>
+  </si>
+  <si>
+    <t>openUBMC社区测试贡献规划</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/592/1</t>
+  </si>
+  <si>
+    <t>openUBMC社区QA SIG运作</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/593/1</t>
+  </si>
+  <si>
+    <t>QA 运作规则讨论</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/209/1</t>
+  </si>
+  <si>
+    <t>BMC开发者需明确thermal和power管理组件业务场景白名单配置并建立基线</t>
+  </si>
+  <si>
+    <t>【需求】power_mgmt组件明确业务场景下的白名单化配置并形成基线</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/45</t>
+  </si>
+  <si>
+    <t>【需求】thermal_mgmt组件明确业务场景下的白名单化配置并形成基线</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/25</t>
+  </si>
+  <si>
+    <t>BMC开发者如何设计兼容通用及异构硬件的固件架构</t>
+  </si>
+  <si>
+    <t>【需求】社区更新通用硬件相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/19</t>
+  </si>
+  <si>
+    <t>【需求】社区补齐异构硬件相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/17</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/13</t>
+  </si>
+  <si>
+    <t>【需求】社区更新能效管理相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/16</t>
+  </si>
+  <si>
+    <t>【需求】社区更新设备管理规范相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/14</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/20</t>
+  </si>
+  <si>
+    <t>BMC如何通过Redfish接口实现指定PCIe设备信息查询</t>
+  </si>
+  <si>
+    <t>【需求】支持查询指定PCIEDevices资源信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/pcie_device/issues/5</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/16</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现Redfish Drive资源OEM接口适配NVMe MI协议的SMART日志获取、识别数据解析及命令封装传输</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetTelemetryData请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/36</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetSmartInfo请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/38</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetAddSmartInfo请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/37</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制SendNvmeMICommand请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/40</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/13</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetIdentifyData请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/39</t>
+  </si>
+  <si>
+    <t>BMC开发者需解决多厂商CPLD模块MIXED模式分组升级兼容性及多重校验逻辑适配难题</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组CPLD固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/25</t>
+  </si>
+  <si>
+    <t>CPLD 升级 MultipleSuppliersMode MIXED Mode 功能背景了解</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/886/1</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组MCU固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/27</t>
+  </si>
+  <si>
+    <t>【需求】支持MCU子固件升级时版本号校验</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/23</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组CSR固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/24</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组VRD固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/26</t>
+  </si>
+  <si>
+    <t>规范thermal资源树接口关键字以消除组件属性约束冲突并防止内部暴露</t>
+  </si>
+  <si>
+    <t>资源树协作接口关键字满足使用原则和规范</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/6</t>
+  </si>
+  <si>
+    <t>支持基础服务满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/32</t>
+  </si>
+  <si>
+    <t>【需求】thermal_mgmt组件满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/24</t>
+  </si>
+  <si>
+    <t>支持安全管理满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/account/issues/6</t>
+  </si>
+  <si>
+    <t>【需求】支持通用硬件满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/chassis/issues/3</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/12</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/17</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/22</t>
+  </si>
+  <si>
+    <t>【需求】支持异构算力满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/pcie_device/issues/7</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/22</t>
+  </si>
+  <si>
+    <t>支持框架资源树协作接口满足关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/38</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manufacture/issues/2</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/lsw/issues/2</t>
+  </si>
+  <si>
+    <t>【需求】支持能效管理满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/13</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/12</t>
+  </si>
+  <si>
+    <t>【需求】thermal_mgmt组件接口支持配置PrivilegeMap信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/27</t>
+  </si>
+  <si>
+    <t>【需求】power_mgmt组件接口支持配置PrivilegeMap信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/44</t>
+  </si>
+  <si>
+    <t>BMC开发者在支持Localbus与Hisport总线仿真中需解决协议交互及性能兼容性等问题</t>
+  </si>
+  <si>
+    <t>【需求】支持板卡Localbus总线的仿真</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/qemu/issues/7</t>
+  </si>
+  <si>
+    <t>【需求】支持板卡Hisport总线的仿真</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/qemu/issues/9</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -315,24 +2152,730 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" t="s">
+        <v>98</v>
+      </c>
+      <c r="C63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" t="s">
+        <v>100</v>
+      </c>
+      <c r="C64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>102</v>
+      </c>
+      <c r="C65" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="C66"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" t="s">
+        <v>105</v>
+      </c>
+      <c r="C69" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" t="s">
+        <v>107</v>
+      </c>
+      <c r="C70" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71"/>
+      <c r="B71"/>
+      <c r="C71"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" t="s">
+        <v>110</v>
+      </c>
+      <c r="C74" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" t="s">
+        <v>112</v>
+      </c>
+      <c r="C75" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76"/>
+      <c r="B76"/>
+      <c r="C76"/>
+    </row>
+  </sheetData>
 </worksheet>
 </file>
 
@@ -372,6 +2915,3725 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>173</v>
+      </c>
+      <c r="C42" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>173</v>
+      </c>
+      <c r="C44" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>178</v>
+      </c>
+      <c r="C45" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>181</v>
+      </c>
+      <c r="C49" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>181</v>
+      </c>
+      <c r="C50" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
+        <v>185</v>
+      </c>
+      <c r="C54" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s">
+        <v>187</v>
+      </c>
+      <c r="C55" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
+        <v>189</v>
+      </c>
+      <c r="C56" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
+        <v>191</v>
+      </c>
+      <c r="C57" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
+        <v>193</v>
+      </c>
+      <c r="C58" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s">
+        <v>195</v>
+      </c>
+      <c r="C59" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" t="s">
+        <v>198</v>
+      </c>
+      <c r="C63" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" t="s">
+        <v>200</v>
+      </c>
+      <c r="C64" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65"/>
+      <c r="B65"/>
+      <c r="C65"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s">
+        <v>203</v>
+      </c>
+      <c r="C68" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" t="s">
+        <v>205</v>
+      </c>
+      <c r="C69" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" t="s">
+        <v>207</v>
+      </c>
+      <c r="C70" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71"/>
+      <c r="B71"/>
+      <c r="C71"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" t="s">
+        <v>210</v>
+      </c>
+      <c r="C74" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" t="s">
+        <v>210</v>
+      </c>
+      <c r="C75" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76"/>
+      <c r="B76"/>
+      <c r="C76"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" t="s">
+        <v>214</v>
+      </c>
+      <c r="C79" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" t="s">
+        <v>216</v>
+      </c>
+      <c r="C80" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81"/>
+      <c r="B81"/>
+      <c r="C81"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" t="s">
+        <v>219</v>
+      </c>
+      <c r="C84" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
+        <v>219</v>
+      </c>
+      <c r="C85" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="C86"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" t="s">
+        <v>223</v>
+      </c>
+      <c r="C89" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" t="s">
+        <v>225</v>
+      </c>
+      <c r="C90" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" t="s">
+        <v>227</v>
+      </c>
+      <c r="C91" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" t="s">
+        <v>229</v>
+      </c>
+      <c r="C92" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93"/>
+      <c r="B93"/>
+      <c r="C93"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" t="s">
+        <v>232</v>
+      </c>
+      <c r="C96" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" t="s">
+        <v>234</v>
+      </c>
+      <c r="C97" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98"/>
+      <c r="B98"/>
+      <c r="C98"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" t="s">
+        <v>237</v>
+      </c>
+      <c r="C101" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" t="s">
+        <v>239</v>
+      </c>
+      <c r="C102" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103"/>
+      <c r="B103"/>
+      <c r="C103"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106" t="s">
+        <v>242</v>
+      </c>
+      <c r="C106" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" t="s">
+        <v>242</v>
+      </c>
+      <c r="C107" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" t="s">
+        <v>242</v>
+      </c>
+      <c r="C108" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109"/>
+      <c r="B109"/>
+      <c r="C109"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>3</v>
+      </c>
+      <c r="B112" t="s">
+        <v>247</v>
+      </c>
+      <c r="C112" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113" t="s">
+        <v>249</v>
+      </c>
+      <c r="C113" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>3</v>
+      </c>
+      <c r="B114" t="s">
+        <v>251</v>
+      </c>
+      <c r="C114" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115"/>
+      <c r="B115"/>
+      <c r="C115"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>3</v>
+      </c>
+      <c r="B118" t="s">
+        <v>254</v>
+      </c>
+      <c r="C118" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>3</v>
+      </c>
+      <c r="B119" t="s">
+        <v>256</v>
+      </c>
+      <c r="C119" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>3</v>
+      </c>
+      <c r="B120" t="s">
+        <v>258</v>
+      </c>
+      <c r="C120" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>3</v>
+      </c>
+      <c r="B121" t="s">
+        <v>258</v>
+      </c>
+      <c r="C121" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122"/>
+      <c r="B122"/>
+      <c r="C122"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>3</v>
+      </c>
+      <c r="B125" t="s">
+        <v>262</v>
+      </c>
+      <c r="C125" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>3</v>
+      </c>
+      <c r="B126" t="s">
+        <v>264</v>
+      </c>
+      <c r="C126" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>3</v>
+      </c>
+      <c r="B127" t="s">
+        <v>266</v>
+      </c>
+      <c r="C127" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128"/>
+      <c r="B128"/>
+      <c r="C128"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>3</v>
+      </c>
+      <c r="B131" t="s">
+        <v>269</v>
+      </c>
+      <c r="C131" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132" t="s">
+        <v>269</v>
+      </c>
+      <c r="C132" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133"/>
+      <c r="B133"/>
+      <c r="C133"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>3</v>
+      </c>
+      <c r="B136" t="s">
+        <v>273</v>
+      </c>
+      <c r="C136" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>3</v>
+      </c>
+      <c r="B137" t="s">
+        <v>275</v>
+      </c>
+      <c r="C137" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138"/>
+      <c r="B138"/>
+      <c r="C138"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>3</v>
+      </c>
+      <c r="B141" t="s">
+        <v>278</v>
+      </c>
+      <c r="C141" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>3</v>
+      </c>
+      <c r="B142" t="s">
+        <v>280</v>
+      </c>
+      <c r="C142" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143"/>
+      <c r="B143"/>
+      <c r="C143"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>3</v>
+      </c>
+      <c r="B146" t="s">
+        <v>283</v>
+      </c>
+      <c r="C146" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>3</v>
+      </c>
+      <c r="B147" t="s">
+        <v>285</v>
+      </c>
+      <c r="C147" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148"/>
+      <c r="B148"/>
+      <c r="C148"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>3</v>
+      </c>
+      <c r="B151" t="s">
+        <v>288</v>
+      </c>
+      <c r="C151" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>3</v>
+      </c>
+      <c r="B152" t="s">
+        <v>290</v>
+      </c>
+      <c r="C152" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153"/>
+      <c r="B153"/>
+      <c r="C153"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>0</v>
+      </c>
+      <c r="B154" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>3</v>
+      </c>
+      <c r="B156" t="s">
+        <v>293</v>
+      </c>
+      <c r="C156" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>3</v>
+      </c>
+      <c r="B157" t="s">
+        <v>293</v>
+      </c>
+      <c r="C157" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>3</v>
+      </c>
+      <c r="B158" t="s">
+        <v>296</v>
+      </c>
+      <c r="C158" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159"/>
+      <c r="B159"/>
+      <c r="C159"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>0</v>
+      </c>
+      <c r="B160" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>3</v>
+      </c>
+      <c r="B162" t="s">
+        <v>299</v>
+      </c>
+      <c r="C162" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>3</v>
+      </c>
+      <c r="B163" t="s">
+        <v>301</v>
+      </c>
+      <c r="C163" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>3</v>
+      </c>
+      <c r="B164" t="s">
+        <v>303</v>
+      </c>
+      <c r="C164" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>3</v>
+      </c>
+      <c r="B165" t="s">
+        <v>305</v>
+      </c>
+      <c r="C165" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166"/>
+      <c r="B166"/>
+      <c r="C166"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>3</v>
+      </c>
+      <c r="B169" t="s">
+        <v>308</v>
+      </c>
+      <c r="C169" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>3</v>
+      </c>
+      <c r="B170" t="s">
+        <v>310</v>
+      </c>
+      <c r="C170" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>3</v>
+      </c>
+      <c r="B171" t="s">
+        <v>312</v>
+      </c>
+      <c r="C171" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>3</v>
+      </c>
+      <c r="B172" t="s">
+        <v>314</v>
+      </c>
+      <c r="C172" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>3</v>
+      </c>
+      <c r="B173" t="s">
+        <v>316</v>
+      </c>
+      <c r="C173" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174"/>
+      <c r="B174"/>
+      <c r="C174"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>0</v>
+      </c>
+      <c r="B175" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>3</v>
+      </c>
+      <c r="B177" t="s">
+        <v>319</v>
+      </c>
+      <c r="C177" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>3</v>
+      </c>
+      <c r="B178" t="s">
+        <v>321</v>
+      </c>
+      <c r="C178" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179"/>
+      <c r="B179"/>
+      <c r="C179"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B180" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>3</v>
+      </c>
+      <c r="B182" t="s">
+        <v>324</v>
+      </c>
+      <c r="C182" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>3</v>
+      </c>
+      <c r="B183" t="s">
+        <v>326</v>
+      </c>
+      <c r="C183" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184"/>
+      <c r="B184"/>
+      <c r="C184"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>0</v>
+      </c>
+      <c r="B185" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>3</v>
+      </c>
+      <c r="B187" t="s">
+        <v>329</v>
+      </c>
+      <c r="C187" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>3</v>
+      </c>
+      <c r="B188" t="s">
+        <v>331</v>
+      </c>
+      <c r="C188" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189"/>
+      <c r="B189"/>
+      <c r="C189"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>0</v>
+      </c>
+      <c r="B190" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>3</v>
+      </c>
+      <c r="B192" t="s">
+        <v>334</v>
+      </c>
+      <c r="C192" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>3</v>
+      </c>
+      <c r="B193" t="s">
+        <v>336</v>
+      </c>
+      <c r="C193" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>3</v>
+      </c>
+      <c r="B194" t="s">
+        <v>338</v>
+      </c>
+      <c r="C194" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195"/>
+      <c r="B195"/>
+      <c r="C195"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>3</v>
+      </c>
+      <c r="B198" t="s">
+        <v>341</v>
+      </c>
+      <c r="C198" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>3</v>
+      </c>
+      <c r="B199" t="s">
+        <v>343</v>
+      </c>
+      <c r="C199" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200"/>
+      <c r="B200"/>
+      <c r="C200"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B201" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>3</v>
+      </c>
+      <c r="B203" t="s">
+        <v>346</v>
+      </c>
+      <c r="C203" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>3</v>
+      </c>
+      <c r="B204" t="s">
+        <v>348</v>
+      </c>
+      <c r="C204" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205"/>
+      <c r="B205"/>
+      <c r="C205"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>0</v>
+      </c>
+      <c r="B206" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>3</v>
+      </c>
+      <c r="B208" t="s">
+        <v>351</v>
+      </c>
+      <c r="C208" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>3</v>
+      </c>
+      <c r="B209" t="s">
+        <v>351</v>
+      </c>
+      <c r="C209" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210"/>
+      <c r="B210"/>
+      <c r="C210"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>0</v>
+      </c>
+      <c r="B211" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>3</v>
+      </c>
+      <c r="B213" t="s">
+        <v>355</v>
+      </c>
+      <c r="C213" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>3</v>
+      </c>
+      <c r="B214" t="s">
+        <v>357</v>
+      </c>
+      <c r="C214" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215"/>
+      <c r="B215"/>
+      <c r="C215"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>0</v>
+      </c>
+      <c r="B216" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>3</v>
+      </c>
+      <c r="B218" t="s">
+        <v>360</v>
+      </c>
+      <c r="C218" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>3</v>
+      </c>
+      <c r="B219" t="s">
+        <v>362</v>
+      </c>
+      <c r="C219" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>3</v>
+      </c>
+      <c r="B220" t="s">
+        <v>364</v>
+      </c>
+      <c r="C220" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>3</v>
+      </c>
+      <c r="B221" t="s">
+        <v>366</v>
+      </c>
+      <c r="C221" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>3</v>
+      </c>
+      <c r="B222" t="s">
+        <v>368</v>
+      </c>
+      <c r="C222" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>3</v>
+      </c>
+      <c r="B223" t="s">
+        <v>370</v>
+      </c>
+      <c r="C223" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>3</v>
+      </c>
+      <c r="B224" t="s">
+        <v>372</v>
+      </c>
+      <c r="C224" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>3</v>
+      </c>
+      <c r="B225" t="s">
+        <v>374</v>
+      </c>
+      <c r="C225" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>3</v>
+      </c>
+      <c r="B226" t="s">
+        <v>376</v>
+      </c>
+      <c r="C226" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>3</v>
+      </c>
+      <c r="B227" t="s">
+        <v>378</v>
+      </c>
+      <c r="C227" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>3</v>
+      </c>
+      <c r="B228" t="s">
+        <v>380</v>
+      </c>
+      <c r="C228" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229"/>
+      <c r="B229"/>
+      <c r="C229"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>0</v>
+      </c>
+      <c r="B230" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>3</v>
+      </c>
+      <c r="B232" t="s">
+        <v>383</v>
+      </c>
+      <c r="C232" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>3</v>
+      </c>
+      <c r="B233" t="s">
+        <v>385</v>
+      </c>
+      <c r="C233" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234"/>
+      <c r="B234"/>
+      <c r="C234"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>0</v>
+      </c>
+      <c r="B235" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>3</v>
+      </c>
+      <c r="B237" t="s">
+        <v>388</v>
+      </c>
+      <c r="C237" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>3</v>
+      </c>
+      <c r="B238" t="s">
+        <v>390</v>
+      </c>
+      <c r="C238" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>3</v>
+      </c>
+      <c r="B239" t="s">
+        <v>392</v>
+      </c>
+      <c r="C239" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240"/>
+      <c r="B240"/>
+      <c r="C240"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>0</v>
+      </c>
+      <c r="B241" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>3</v>
+      </c>
+      <c r="B243" t="s">
+        <v>395</v>
+      </c>
+      <c r="C243" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>3</v>
+      </c>
+      <c r="B244" t="s">
+        <v>397</v>
+      </c>
+      <c r="C244" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>3</v>
+      </c>
+      <c r="B245" t="s">
+        <v>395</v>
+      </c>
+      <c r="C245" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246"/>
+      <c r="B246"/>
+      <c r="C246"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>0</v>
+      </c>
+      <c r="B247" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>3</v>
+      </c>
+      <c r="B249" t="s">
+        <v>401</v>
+      </c>
+      <c r="C249" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>3</v>
+      </c>
+      <c r="B250" t="s">
+        <v>403</v>
+      </c>
+      <c r="C250" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251"/>
+      <c r="B251"/>
+      <c r="C251"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>0</v>
+      </c>
+      <c r="B252" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>3</v>
+      </c>
+      <c r="B254" t="s">
+        <v>406</v>
+      </c>
+      <c r="C254" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>3</v>
+      </c>
+      <c r="B255" t="s">
+        <v>406</v>
+      </c>
+      <c r="C255" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256"/>
+      <c r="B256"/>
+      <c r="C256"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>0</v>
+      </c>
+      <c r="B257" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>3</v>
+      </c>
+      <c r="B259" t="s">
+        <v>410</v>
+      </c>
+      <c r="C259" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>3</v>
+      </c>
+      <c r="B260" t="s">
+        <v>412</v>
+      </c>
+      <c r="C260" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261"/>
+      <c r="B261"/>
+      <c r="C261"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>0</v>
+      </c>
+      <c r="B262" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>3</v>
+      </c>
+      <c r="B264" t="s">
+        <v>415</v>
+      </c>
+      <c r="C264" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>3</v>
+      </c>
+      <c r="B265" t="s">
+        <v>417</v>
+      </c>
+      <c r="C265" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>3</v>
+      </c>
+      <c r="B266" t="s">
+        <v>419</v>
+      </c>
+      <c r="C266" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>3</v>
+      </c>
+      <c r="B267" t="s">
+        <v>421</v>
+      </c>
+      <c r="C267" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268"/>
+      <c r="B268"/>
+      <c r="C268"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>0</v>
+      </c>
+      <c r="B269" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>3</v>
+      </c>
+      <c r="B271" t="s">
+        <v>424</v>
+      </c>
+      <c r="C271" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>3</v>
+      </c>
+      <c r="B272" t="s">
+        <v>424</v>
+      </c>
+      <c r="C272" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273"/>
+      <c r="B273"/>
+      <c r="C273"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>0</v>
+      </c>
+      <c r="B274" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>3</v>
+      </c>
+      <c r="B276" t="s">
+        <v>428</v>
+      </c>
+      <c r="C276" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>3</v>
+      </c>
+      <c r="B277" t="s">
+        <v>428</v>
+      </c>
+      <c r="C277" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278"/>
+      <c r="B278"/>
+      <c r="C278"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>0</v>
+      </c>
+      <c r="B279" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>3</v>
+      </c>
+      <c r="B281" t="s">
+        <v>432</v>
+      </c>
+      <c r="C281" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>3</v>
+      </c>
+      <c r="B282" t="s">
+        <v>434</v>
+      </c>
+      <c r="C282" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>3</v>
+      </c>
+      <c r="B283" t="s">
+        <v>434</v>
+      </c>
+      <c r="C283" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284"/>
+      <c r="B284"/>
+      <c r="C284"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>0</v>
+      </c>
+      <c r="B285" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>3</v>
+      </c>
+      <c r="B287" t="s">
+        <v>438</v>
+      </c>
+      <c r="C287" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>3</v>
+      </c>
+      <c r="B288" t="s">
+        <v>440</v>
+      </c>
+      <c r="C288" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289"/>
+      <c r="B289"/>
+      <c r="C289"/>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>0</v>
+      </c>
+      <c r="B290" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>3</v>
+      </c>
+      <c r="B292" t="s">
+        <v>443</v>
+      </c>
+      <c r="C292" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>3</v>
+      </c>
+      <c r="B293" t="s">
+        <v>445</v>
+      </c>
+      <c r="C293" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294"/>
+      <c r="B294"/>
+      <c r="C294"/>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>0</v>
+      </c>
+      <c r="B295" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>3</v>
+      </c>
+      <c r="B297" t="s">
+        <v>448</v>
+      </c>
+      <c r="C297" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>3</v>
+      </c>
+      <c r="B298" t="s">
+        <v>448</v>
+      </c>
+      <c r="C298" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>3</v>
+      </c>
+      <c r="B299" t="s">
+        <v>451</v>
+      </c>
+      <c r="C299" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>3</v>
+      </c>
+      <c r="B300" t="s">
+        <v>453</v>
+      </c>
+      <c r="C300" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301"/>
+      <c r="B301"/>
+      <c r="C301"/>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>0</v>
+      </c>
+      <c r="B302" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>3</v>
+      </c>
+      <c r="B304" t="s">
+        <v>456</v>
+      </c>
+      <c r="C304" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>3</v>
+      </c>
+      <c r="B305" t="s">
+        <v>458</v>
+      </c>
+      <c r="C305" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306"/>
+      <c r="B306"/>
+      <c r="C306"/>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>0</v>
+      </c>
+      <c r="B307" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>3</v>
+      </c>
+      <c r="B309" t="s">
+        <v>461</v>
+      </c>
+      <c r="C309" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>3</v>
+      </c>
+      <c r="B310" t="s">
+        <v>463</v>
+      </c>
+      <c r="C310" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>3</v>
+      </c>
+      <c r="B311" t="s">
+        <v>465</v>
+      </c>
+      <c r="C311" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>3</v>
+      </c>
+      <c r="B312" t="s">
+        <v>465</v>
+      </c>
+      <c r="C312" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>3</v>
+      </c>
+      <c r="B313" t="s">
+        <v>468</v>
+      </c>
+      <c r="C313" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>3</v>
+      </c>
+      <c r="B314" t="s">
+        <v>470</v>
+      </c>
+      <c r="C314" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>3</v>
+      </c>
+      <c r="B315" t="s">
+        <v>472</v>
+      </c>
+      <c r="C315" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>3</v>
+      </c>
+      <c r="B316" t="s">
+        <v>474</v>
+      </c>
+      <c r="C316" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>3</v>
+      </c>
+      <c r="B317" t="s">
+        <v>476</v>
+      </c>
+      <c r="C317" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>3</v>
+      </c>
+      <c r="B318" t="s">
+        <v>478</v>
+      </c>
+      <c r="C318" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319"/>
+      <c r="B319"/>
+      <c r="C319"/>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>0</v>
+      </c>
+      <c r="B320" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>3</v>
+      </c>
+      <c r="B322" t="s">
+        <v>481</v>
+      </c>
+      <c r="C322" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>3</v>
+      </c>
+      <c r="B323" t="s">
+        <v>483</v>
+      </c>
+      <c r="C323" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324"/>
+      <c r="B324"/>
+      <c r="C324"/>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>0</v>
+      </c>
+      <c r="B325" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>3</v>
+      </c>
+      <c r="B327" t="s">
+        <v>486</v>
+      </c>
+      <c r="C327" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>3</v>
+      </c>
+      <c r="B328" t="s">
+        <v>488</v>
+      </c>
+      <c r="C328" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>3</v>
+      </c>
+      <c r="B329" t="s">
+        <v>490</v>
+      </c>
+      <c r="C329" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>3</v>
+      </c>
+      <c r="B330" t="s">
+        <v>492</v>
+      </c>
+      <c r="C330" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331"/>
+      <c r="B331"/>
+      <c r="C331"/>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>0</v>
+      </c>
+      <c r="B332" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>3</v>
+      </c>
+      <c r="B334" t="s">
+        <v>495</v>
+      </c>
+      <c r="C334" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>3</v>
+      </c>
+      <c r="B335" t="s">
+        <v>497</v>
+      </c>
+      <c r="C335" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336"/>
+      <c r="B336"/>
+      <c r="C336"/>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>0</v>
+      </c>
+      <c r="B337" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>3</v>
+      </c>
+      <c r="B339" t="s">
+        <v>500</v>
+      </c>
+      <c r="C339" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>3</v>
+      </c>
+      <c r="B340" t="s">
+        <v>502</v>
+      </c>
+      <c r="C340" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>3</v>
+      </c>
+      <c r="B341" t="s">
+        <v>504</v>
+      </c>
+      <c r="C341" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>3</v>
+      </c>
+      <c r="B342" t="s">
+        <v>506</v>
+      </c>
+      <c r="C342" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343"/>
+      <c r="B343"/>
+      <c r="C343"/>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>0</v>
+      </c>
+      <c r="B344" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>3</v>
+      </c>
+      <c r="B346" t="s">
+        <v>509</v>
+      </c>
+      <c r="C346" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>3</v>
+      </c>
+      <c r="B347" t="s">
+        <v>511</v>
+      </c>
+      <c r="C347" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>3</v>
+      </c>
+      <c r="B348" t="s">
+        <v>513</v>
+      </c>
+      <c r="C348" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349"/>
+      <c r="B349"/>
+      <c r="C349"/>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>0</v>
+      </c>
+      <c r="B350" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>3</v>
+      </c>
+      <c r="B352" t="s">
+        <v>516</v>
+      </c>
+      <c r="C352" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>3</v>
+      </c>
+      <c r="B353" t="s">
+        <v>516</v>
+      </c>
+      <c r="C353" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354"/>
+      <c r="B354"/>
+      <c r="C354"/>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>0</v>
+      </c>
+      <c r="B355" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>3</v>
+      </c>
+      <c r="B357" t="s">
+        <v>520</v>
+      </c>
+      <c r="C357" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>3</v>
+      </c>
+      <c r="B358" t="s">
+        <v>522</v>
+      </c>
+      <c r="C358" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>3</v>
+      </c>
+      <c r="B359" t="s">
+        <v>524</v>
+      </c>
+      <c r="C359" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360"/>
+      <c r="B360"/>
+      <c r="C360"/>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>0</v>
+      </c>
+      <c r="B361" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>3</v>
+      </c>
+      <c r="B363" t="s">
+        <v>527</v>
+      </c>
+      <c r="C363" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>3</v>
+      </c>
+      <c r="B364" t="s">
+        <v>529</v>
+      </c>
+      <c r="C364" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>3</v>
+      </c>
+      <c r="B365" t="s">
+        <v>531</v>
+      </c>
+      <c r="C365" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366"/>
+      <c r="B366"/>
+      <c r="C366"/>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>0</v>
+      </c>
+      <c r="B367" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>3</v>
+      </c>
+      <c r="B369" t="s">
+        <v>534</v>
+      </c>
+      <c r="C369" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>3</v>
+      </c>
+      <c r="B370" t="s">
+        <v>536</v>
+      </c>
+      <c r="C370" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371"/>
+      <c r="B371"/>
+      <c r="C371"/>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>0</v>
+      </c>
+      <c r="B372" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>3</v>
+      </c>
+      <c r="B374" t="s">
+        <v>539</v>
+      </c>
+      <c r="C374" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>3</v>
+      </c>
+      <c r="B375" t="s">
+        <v>541</v>
+      </c>
+      <c r="C375" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>3</v>
+      </c>
+      <c r="B376" t="s">
+        <v>539</v>
+      </c>
+      <c r="C376" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>3</v>
+      </c>
+      <c r="B377" t="s">
+        <v>544</v>
+      </c>
+      <c r="C377" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>3</v>
+      </c>
+      <c r="B378" t="s">
+        <v>546</v>
+      </c>
+      <c r="C378" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>3</v>
+      </c>
+      <c r="B379" t="s">
+        <v>546</v>
+      </c>
+      <c r="C379" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380"/>
+      <c r="B380"/>
+      <c r="C380"/>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>0</v>
+      </c>
+      <c r="B381" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>3</v>
+      </c>
+      <c r="B383" t="s">
+        <v>550</v>
+      </c>
+      <c r="C383" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>3</v>
+      </c>
+      <c r="B384" t="s">
+        <v>550</v>
+      </c>
+      <c r="C384" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385"/>
+      <c r="B385"/>
+      <c r="C385"/>
+    </row>
+    <row r="386">
+      <c r="A386" t="s">
+        <v>0</v>
+      </c>
+      <c r="B386" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>3</v>
+      </c>
+      <c r="B388" t="s">
+        <v>554</v>
+      </c>
+      <c r="C388" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>3</v>
+      </c>
+      <c r="B389" t="s">
+        <v>556</v>
+      </c>
+      <c r="C389" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>3</v>
+      </c>
+      <c r="B390" t="s">
+        <v>558</v>
+      </c>
+      <c r="C390" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>3</v>
+      </c>
+      <c r="B391" t="s">
+        <v>560</v>
+      </c>
+      <c r="C391" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s">
+        <v>3</v>
+      </c>
+      <c r="B392" t="s">
+        <v>554</v>
+      </c>
+      <c r="C392" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s">
+        <v>3</v>
+      </c>
+      <c r="B393" t="s">
+        <v>563</v>
+      </c>
+      <c r="C393" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394"/>
+      <c r="B394"/>
+      <c r="C394"/>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>0</v>
+      </c>
+      <c r="B395" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>3</v>
+      </c>
+      <c r="B397" t="s">
+        <v>566</v>
+      </c>
+      <c r="C397" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>3</v>
+      </c>
+      <c r="B398" t="s">
+        <v>568</v>
+      </c>
+      <c r="C398" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>3</v>
+      </c>
+      <c r="B399" t="s">
+        <v>570</v>
+      </c>
+      <c r="C399" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>3</v>
+      </c>
+      <c r="B400" t="s">
+        <v>572</v>
+      </c>
+      <c r="C400" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>3</v>
+      </c>
+      <c r="B401" t="s">
+        <v>574</v>
+      </c>
+      <c r="C401" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>3</v>
+      </c>
+      <c r="B402" t="s">
+        <v>576</v>
+      </c>
+      <c r="C402" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403"/>
+      <c r="B403"/>
+      <c r="C403"/>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>0</v>
+      </c>
+      <c r="B404" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>3</v>
+      </c>
+      <c r="B406" t="s">
+        <v>579</v>
+      </c>
+      <c r="C406" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>3</v>
+      </c>
+      <c r="B407" t="s">
+        <v>581</v>
+      </c>
+      <c r="C407" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s">
+        <v>3</v>
+      </c>
+      <c r="B408" t="s">
+        <v>583</v>
+      </c>
+      <c r="C408" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s">
+        <v>3</v>
+      </c>
+      <c r="B409" t="s">
+        <v>585</v>
+      </c>
+      <c r="C409" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s">
+        <v>3</v>
+      </c>
+      <c r="B410" t="s">
+        <v>587</v>
+      </c>
+      <c r="C410" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s">
+        <v>3</v>
+      </c>
+      <c r="B411" t="s">
+        <v>587</v>
+      </c>
+      <c r="C411" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>3</v>
+      </c>
+      <c r="B412" t="s">
+        <v>587</v>
+      </c>
+      <c r="C412" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>3</v>
+      </c>
+      <c r="B413" t="s">
+        <v>587</v>
+      </c>
+      <c r="C413" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s">
+        <v>3</v>
+      </c>
+      <c r="B414" t="s">
+        <v>592</v>
+      </c>
+      <c r="C414" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s">
+        <v>3</v>
+      </c>
+      <c r="B415" t="s">
+        <v>592</v>
+      </c>
+      <c r="C415" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s">
+        <v>3</v>
+      </c>
+      <c r="B416" t="s">
+        <v>595</v>
+      </c>
+      <c r="C416" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s">
+        <v>3</v>
+      </c>
+      <c r="B417" t="s">
+        <v>592</v>
+      </c>
+      <c r="C417" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s">
+        <v>3</v>
+      </c>
+      <c r="B418" t="s">
+        <v>592</v>
+      </c>
+      <c r="C418" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s">
+        <v>3</v>
+      </c>
+      <c r="B419" t="s">
+        <v>599</v>
+      </c>
+      <c r="C419" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s">
+        <v>3</v>
+      </c>
+      <c r="B420" t="s">
+        <v>599</v>
+      </c>
+      <c r="C420" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s">
+        <v>3</v>
+      </c>
+      <c r="B421" t="s">
+        <v>602</v>
+      </c>
+      <c r="C421" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s">
+        <v>3</v>
+      </c>
+      <c r="B422" t="s">
+        <v>604</v>
+      </c>
+      <c r="C422" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423"/>
+      <c r="B423"/>
+      <c r="C423"/>
+    </row>
+    <row r="424">
+      <c r="A424" t="s">
+        <v>0</v>
+      </c>
+      <c r="B424" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s">
+        <v>3</v>
+      </c>
+      <c r="B426" t="s">
+        <v>607</v>
+      </c>
+      <c r="C426" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s">
+        <v>3</v>
+      </c>
+      <c r="B427" t="s">
+        <v>609</v>
+      </c>
+      <c r="C427" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428"/>
+      <c r="B428"/>
+      <c r="C428"/>
+    </row>
+  </sheetData>
 </worksheet>
 </file>
--- a/test_review/06-06.xlsx
+++ b/test_review/06-06.xlsx
@@ -362,6 +362,1467 @@
     <t>https://discuss.openubmc.cn//t/topic/317/1</t>
   </si>
   <si>
+    <t>BMC开发者如何通过Web触发RAID卡固件日志导出并满足脱敏、时延及兼容性要求</t>
+  </si>
+  <si>
+    <t>【需求】支持一键搜集日志导出raid卡固件日志</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/31</t>
+  </si>
+  <si>
+    <t>【需求】支持收集raid卡文本格式日志</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/32</t>
+  </si>
+  <si>
+    <t>需解决BMC在Redfish/Web/IPMI接口下存储介质实时监控与网络设备数据兼容的设计问题</t>
+  </si>
+  <si>
+    <t>【需求】支持存储管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/35</t>
+  </si>
+  <si>
+    <t>【需求】支持硬盘诊断功能控制</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/7</t>
+  </si>
+  <si>
+    <t>【需求】支持服务器网络管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/25</t>
+  </si>
+  <si>
+    <t>【需求】支持存储管理能力基线</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/30</t>
+  </si>
+  <si>
+    <t>openUBMC应用框架开发中如何确保BMC兼容性</t>
+  </si>
+  <si>
+    <t>提供应用框架开发指导</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/15</t>
+  </si>
+  <si>
+    <t>【需求】社区提供开源项目开发者指南</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/webui/issues/19</t>
+  </si>
+  <si>
+    <t>BMC开发者如何确保Redfish EthernetInterfaces兼容标准属性</t>
+  </si>
+  <si>
+    <t>支持Redfish接口EthernetInterfaces资源下Links等标准属性</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/37</t>
+  </si>
+  <si>
+    <t>支持查询 BMC 网口资源详细信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/38</t>
+  </si>
+  <si>
+    <t>BMC升级接口参数扩展如何支持多组件并行适配</t>
+  </si>
+  <si>
+    <t>【需求】power_mgmt组件适配升级接口参数扩展</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/10</t>
+  </si>
+  <si>
+    <t>general_hardware组件适配升级接口参数</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/11</t>
+  </si>
+  <si>
+    <t>能效管理适配升级接口参数扩展</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/5</t>
+  </si>
+  <si>
+    <t>【需求】bios组件适配升级接口参数扩展</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/10</t>
+  </si>
+  <si>
+    <t>如何在BMC中实现运维CLI触发NPU/CPU DFX日志收集任务的并发控制与存储路径管理</t>
+  </si>
+  <si>
+    <t>【需求】 支持CLI导出NPU DFX日志</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/48</t>
+  </si>
+  <si>
+    <t>【需求】支持CLI导出CPU DFX日志</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/46</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现Redfish与REST接口遥测配置的参数管理和测试验证</t>
+  </si>
+  <si>
+    <t>支持遥测上报配置管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/16</t>
+  </si>
+  <si>
+    <t>【需求】 支持遥测上报配置管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/37</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/12</t>
+  </si>
+  <si>
+    <t>【需求】可观测新增redfish、web接口及属性</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/29</t>
+  </si>
+  <si>
+    <t>BMC开发者如何修复Vite组件中未授权文件访问漏洞防止敏感文件泄露</t>
+  </si>
+  <si>
+    <t>CVE-2025-46565</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/21</t>
+  </si>
+  <si>
+    <t>CVE-2025-30208</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/16</t>
+  </si>
+  <si>
+    <t>CVE-2025-31486</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/18</t>
+  </si>
+  <si>
+    <t>CVE-2025-31125</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/17</t>
+  </si>
+  <si>
+    <t>CVE-2025-32395</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/19</t>
+  </si>
+  <si>
+    <t>BMC构建工具如何设计版本联动策略确保SDK与包的兼容性</t>
+  </si>
+  <si>
+    <t>应支持bingo、构建工具、sdk之间的版本配套</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/414/1</t>
+  </si>
+  <si>
+    <t>【需求】bingo支持组件的全量二进制构建</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bingo/issues/12</t>
+  </si>
+  <si>
+    <t>BMC开发者需解决多厂商CPLD模块MIXED模式分组升级兼容性及多重校验逻辑适配难题</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组CPLD固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/25</t>
+  </si>
+  <si>
+    <t>CPLD 升级 MultipleSuppliersMode MIXED Mode 功能背景了解</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/886/1</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组MCU固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/27</t>
+  </si>
+  <si>
+    <t>【需求】支持MCU子固件升级时版本号校验</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/23</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组CSR固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/24</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组VRD固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/26</t>
+  </si>
+  <si>
+    <t>BMC中如何实现日志存储隔离的配置迁移与统一管理</t>
+  </si>
+  <si>
+    <t>支持日志存放位置隔离</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/23</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rootfs_user/issues/2</t>
+  </si>
+  <si>
+    <t>BMC开发者如何确保PCIe组件初始化期间的IPMI命令正确注册</t>
+  </si>
+  <si>
+    <t>非天池组件加载方式</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/610/1</t>
+  </si>
+  <si>
+    <t>pcie_device新增IPMI命令导致组件异常问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/595/1</t>
+  </si>
+  <si>
+    <t>电源适配中如何显式声明设备树引用字段以避免nil调用</t>
+  </si>
+  <si>
+    <t>pmbus CRPS电源适配</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/240/1</t>
+  </si>
+  <si>
+    <t>电源适配指导</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1101/1</t>
+  </si>
+  <si>
+    <t>BMC CPU的ProcessorID属性类型为U32，与SMBIOS协议QWORD范围不匹配引发存储解析失败。</t>
+  </si>
+  <si>
+    <t>【问题单】CPU的ProcessorID属性定义与SMBIOS协议规定不符</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/75</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/47</t>
+  </si>
+  <si>
+    <t>bmc.kepler.Systems.Processor.CPU的ProcessorID为U32类型，与SMBIOS协议不一致</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/30</t>
+  </si>
+  <si>
+    <t>CPU类的ProcessorID属性定义为U32类型，与SMBIOS协议范围（QWORD）不一致</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/362/1</t>
+  </si>
+  <si>
+    <t>BMC固件如何适配BlueField硬件不同版本及其四元组的调速策略需求</t>
+  </si>
+  <si>
+    <t>【需求】支持BlueField-3（B3220）的调速策略配置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/17</t>
+  </si>
+  <si>
+    <t>【需求】支持BlueField-2（332A）的调速策略</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/18</t>
+  </si>
+  <si>
+    <t>BMC开发者如何通过VPD直通实现华为/Memblaze多容量NVMe盘兼容纳管并展示信息</t>
+  </si>
+  <si>
+    <t>【需求】支持新增Memblaze厂商NVMe盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/44</t>
+  </si>
+  <si>
+    <t>【需求】支持新增华为厂商NVMe盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/41</t>
+  </si>
+  <si>
+    <t>BMC Studio工作空间一键部署缺失Conan依赖配置导致组件获取失败且无完成状态反馈</t>
+  </si>
+  <si>
+    <t>bmc studio使用问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1012/1</t>
+  </si>
+  <si>
+    <t>BMC_STUDIO仓库一键部署，丢失响应，无成功，无失败反馈</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/962/1</t>
+  </si>
+  <si>
+    <t>使用bmc_studio遇到的问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/925/1</t>
+  </si>
+  <si>
+    <t>BMC Studio问题反馈</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/707/1</t>
+  </si>
+  <si>
+    <t>BMC恢复出厂后固件升级验证失败与权限异常排查</t>
+  </si>
+  <si>
+    <t>恢复出厂设置后，BMC升级失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1065/1</t>
+  </si>
+  <si>
+    <t>BMC恢复出厂设置之后无法更新固件</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/831/1</t>
+  </si>
+  <si>
+    <t>恢复出厂设置时无法升级</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/11</t>
+  </si>
+  <si>
+    <t>BMC开发者需文档化一键导出板卡MCU信息功能的存储路径及命名规范</t>
+  </si>
+  <si>
+    <t>【已评审】支持一键收集导出板卡信息，mcu信息</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/628/1</t>
+  </si>
+  <si>
+    <t>【问题单】支持一键收集导出板卡信息，mcu信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/10</t>
+  </si>
+  <si>
+    <t>【需求】支持一键收集通用硬件信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/34</t>
+  </si>
+  <si>
+    <t>openUBMC一键收集介绍</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/290/1</t>
+  </si>
+  <si>
+    <t>【需求】支持板卡硬件管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/15</t>
+  </si>
+  <si>
+    <t>基础通用问题FAQ</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/292/1</t>
+  </si>
+  <si>
+    <t>bmc-core SIG 入门指南</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/167/1</t>
+  </si>
+  <si>
+    <t>openUBMC各sig组本周(2025-0421-2025-0427)关闭issue统计</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/672/1</t>
+  </si>
+  <si>
+    <t>openUBMC各sig组本周(2025-0428~2025-0505)关闭issue统计</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/733/1</t>
+  </si>
+  <si>
+    <t>openUBMC品牌包定制指南</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/355/1</t>
+  </si>
+  <si>
+    <t>openUBMC各sig组本周(2025-0506~2025-0511)关闭issue统计</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/876/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何解决25.03构建中的Manifest签名链校验异常及dockerfile安装超时问题？</t>
+  </si>
+  <si>
+    <t>25.03构建出包以及伙伴签名问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/390/1</t>
+  </si>
+  <si>
+    <t>25.03版本的构建环境搭建：dockerfile创建镜像失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/409/1</t>
+  </si>
+  <si>
+    <t>制作反向过渡包时碰到的疑问</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/723/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何确定PCIe Switch加载PCIe卡及Flash升级是否适用general hardware组件及实现接口扩展</t>
+  </si>
+  <si>
+    <t>【讨论】PCIe Switch场景下如何加载PCIe卡</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/722/1</t>
+  </si>
+  <si>
+    <t>PCIe Switch 芯片的Flash升级</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/721/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何建立SATA硬盘兼容纳管策略以实现不同厂商及型号前盘信息在RAID/直通场景下的统一展示</t>
+  </si>
+  <si>
+    <t>【需求】支持新增希捷SATA盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/42</t>
+  </si>
+  <si>
+    <t>【需求】支持新增东芝SATA盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/45</t>
+  </si>
+  <si>
+    <t>【需求】支持新增西数SATA盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/43</t>
+  </si>
+  <si>
+    <t>BMC固件解析SMBIOS 04Type时越界保护失效，需验证结构体长度处理修正</t>
+  </si>
+  <si>
+    <t>解析SMBIOS协议04Type时出现异常</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/363/1</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现Redfish Drive资源OEM接口适配NVMe MI协议的SMART日志获取、识别数据解析及命令封装传输</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetTelemetryData请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/36</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetSmartInfo请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/38</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetAddSmartInfo请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/37</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制SendNvmeMICommand请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/40</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/13</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetIdentifyData请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/39</t>
+  </si>
+  <si>
+    <t>BMC开发中如何通过REDfish协议实现PrivilegeMap配置同步与用户校验提示优化</t>
+  </si>
+  <si>
+    <t>【需求】RAS接口支持配置PrivilegeMap信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/53</t>
+  </si>
+  <si>
+    <t>支持配置PrivilegeMap信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/account/issues/12</t>
+  </si>
+  <si>
+    <t>支持用户名校验定制后的用户提示优化</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/account/issues/5</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/31</t>
+  </si>
+  <si>
+    <t>支持节点模式设置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/5</t>
+  </si>
+  <si>
+    <t>文档描述优化</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/6</t>
+  </si>
+  <si>
+    <t>电源信息获取优化</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/4</t>
+  </si>
+  <si>
+    <t>支持新增自定义用户组设置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/account/issues/11</t>
+  </si>
+  <si>
+    <t>文档持续更新</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/1</t>
+  </si>
+  <si>
+    <t>电源转化器型号显示修改</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/3</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现能效子系统自定义调试命令注册与单组件绑定执行</t>
+  </si>
+  <si>
+    <t>【需求】支持能效管理子系统组件自定义命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/7</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/17</t>
+  </si>
+  <si>
+    <t>【需求】支持组件自定义命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/21</t>
+  </si>
+  <si>
+    <t>BMC网卡适配组件如何兼容历史功能及设备树驱动接口</t>
+  </si>
+  <si>
+    <t>【需求】网卡适配组件兼容历史网卡功能</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/6</t>
+  </si>
+  <si>
+    <t>【需求】网卡支持南向部件驱动接口</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/17</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/18</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现Redfish接口OEM扩展并处理存储控制器属性异常</t>
+  </si>
+  <si>
+    <t>【需求】支持厂商定制化显示存储控制器端口数</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/67</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish接口oem定制查询指定存储资源信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rack_mgmt/issues/2</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现并行升级总线互斥锁及日志追踪超时释放</t>
+  </si>
+  <si>
+    <t>【需求】支持固件升级流程总线互斥</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/21</t>
+  </si>
+  <si>
+    <t>固件升级流程总线互斥</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/10</t>
+  </si>
+  <si>
+    <t>【需求】能效管理固件升级流程总线互斥</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/11</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/11</t>
+  </si>
+  <si>
+    <t>BMC开发者如何确保测试贡献符合openUBMC社区质量标准？</t>
+  </si>
+  <si>
+    <t>openUBMC社区测试贡献规划</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/592/1</t>
+  </si>
+  <si>
+    <t>openUBMC社区QA SIG运作</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/593/1</t>
+  </si>
+  <si>
+    <t>QA 运作规则讨论</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/209/1</t>
+  </si>
+  <si>
+    <t>openUBMC固件升级时多签名机制验证冲突解决方案</t>
+  </si>
+  <si>
+    <t>能否实现伙伴签名的openUBMC版本直接升级华为签名的各种固件？</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/335/1</t>
+  </si>
+  <si>
+    <t>伙伴openubmc版本如何支持升级华为签名固件版本和伙伴自己签名的固件版本均能成功？</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1083/1</t>
+  </si>
+  <si>
+    <t>使用openubmc进行bios固件升级，提示无效的升级包</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/182/1</t>
+  </si>
+  <si>
+    <t>刷了华为根的机器是否可以直接刷伙伴根</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/933/1</t>
+  </si>
+  <si>
+    <t>BIOS生效流程图步骤顺序及逻辑错误需修正</t>
+  </si>
+  <si>
+    <t>bios组件生效流程流程图错误</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/19</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/17</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现光模块老化预测功能开关的Redfish接口支持</t>
+  </si>
+  <si>
+    <t>【需求】支持光模块老化故障预测功能开关</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/52</t>
+  </si>
+  <si>
+    <t>【修改描述】支持光模块老化预测功能开关使能</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/31</t>
+  </si>
+  <si>
+    <t>BMC固件开发需支持BIOS启动禁用KVM/VNC键盘输入</t>
+  </si>
+  <si>
+    <t>支持BIOS启动过程禁止KVM/VNC键盘输入</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/19</t>
+  </si>
+  <si>
+    <t>支持BIOS在启动阶段禁用键盘</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/20</t>
+  </si>
+  <si>
+    <t>支持华为自定义SMART的NVMe SSD盘在直通架构下的带内冗余块监控和寿命计算参数扩展</t>
+  </si>
+  <si>
+    <t>【需求】支持自定义的SMART NVMe SSD盘亚健康检测</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/23</t>
+  </si>
+  <si>
+    <t>【需求】支持自定义SMART信息的NVMe SSD盘写放大监控</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/28</t>
+  </si>
+  <si>
+    <t>【需求】支持获取NVMe SSD盘自定义SMART信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/27</t>
+  </si>
+  <si>
+    <t>【需求】支持自定义SMART信息的NVMe SSD盘预估寿命新增计算参数</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/25</t>
+  </si>
+  <si>
+    <t>【需求】支持从带内获取厂商SMART NVMe SSD盘冗余块信息并监控</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/10</t>
+  </si>
+  <si>
+    <t>【需求】支持从带内获取SMART NVMe SSD盘冗余块信息并监控</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/24</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现Redfish API查询指定处理器的分类属性及状态验证</t>
+  </si>
+  <si>
+    <t>【需求】支持查询指定处理器资源信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/33</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/53</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/47</t>
+  </si>
+  <si>
+    <t>BMC固件中如何新增电链路数据采集接口实现NPU参数面扩展</t>
+  </si>
+  <si>
+    <t>【需求】支持NPU参数面光模块数据采集接口增加电链路数据</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/7</t>
+  </si>
+  <si>
+    <t>【需求】支持NPU参数面端口电链路数据采集</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/8</t>
+  </si>
+  <si>
+    <t>BMC开发者需明确thermal和power管理组件业务场景白名单配置并建立基线</t>
+  </si>
+  <si>
+    <t>【需求】power_mgmt组件明确业务场景下的白名单化配置并形成基线</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/45</t>
+  </si>
+  <si>
+    <t>【需求】thermal_mgmt组件明确业务场景下的白名单化配置并形成基线</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/25</t>
+  </si>
+  <si>
+    <t>BMC Studio需补全文档示例并优化接口校验规则</t>
+  </si>
+  <si>
+    <t>BMC Studio工具使用反馈</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/714/1</t>
+  </si>
+  <si>
+    <t>[WIP]BMC Studio用户指南</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/221/1</t>
+  </si>
+  <si>
+    <t>如何实现PLDM协议支持网卡芯片温度及固件版本采集并兼容北向接口</t>
+  </si>
+  <si>
+    <t>【需求】支持使用pldm协议获取网卡相关信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/20</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/19</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现IPMI2.0的SystemInfoTable私有属性掉电持久化及广播参数配置</t>
+  </si>
+  <si>
+    <t>IPMI2.0标准接口能力新增私有属性保存system info信息</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1100/1</t>
+  </si>
+  <si>
+    <t>【需求】支持Get System Info标准命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/12</t>
+  </si>
+  <si>
+    <t>【需求】支持Set System Info标准命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/13</t>
+  </si>
+  <si>
+    <t>kptest框架屏蔽硬件差异时如何保持BMC测试用例兼容性</t>
+  </si>
+  <si>
+    <t>kptest框架与KPTestOpenFramework工程、iTestSmart工具介绍</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/832/1</t>
+  </si>
+  <si>
+    <t>怎么申请使用kptest框架和itestsmart工具呢</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/665/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何修正openUBMC交叉编译中的头文件缺失与依赖冲突</t>
+  </si>
+  <si>
+    <t>社区lsw编译不过</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/979/1</t>
+  </si>
+  <si>
+    <t>开源首版本编译不过</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/lsw/issues/1</t>
+  </si>
+  <si>
+    <t>BMC如何通过Redfish接口实现指定PCIe设备信息查询</t>
+  </si>
+  <si>
+    <t>【需求】支持查询指定PCIEDevices资源信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/pcie_device/issues/5</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/16</t>
+  </si>
+  <si>
+    <t>如何高效优化BMC日志、跟踪及度量数据的采集存储机制以满足开发需求？</t>
+  </si>
+  <si>
+    <t>提供跟踪数据采集和存储能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/4</t>
+  </si>
+  <si>
+    <t>提供度量数据采集和存储能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/2</t>
+  </si>
+  <si>
+    <t>提供日志数据采集和存储能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/5</t>
+  </si>
+  <si>
+    <t>定制后BIOS在PXE阶段POST未完成触发BMC重启限制的处理方法</t>
+  </si>
+  <si>
+    <t>【问题单】定制后bios处于PXE阶段时重启BMC失败</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/19</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/sensor/issues/10</t>
+  </si>
+  <si>
+    <t>BMC开发者如何通过MCTP Over PCIe实时获取并记录DPU网卡启动标识</t>
+  </si>
+  <si>
+    <t>【需求】支持DPU网卡启动完成标识记录</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/15</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/28</t>
+  </si>
+  <si>
+    <t>NCSI边带管理功能如何通过Lua开发实现协议封装解析，并取消SO依赖适配openUBMC 25.1.0版本</t>
+  </si>
+  <si>
+    <t>【需求】支持NCSI边带管理功能</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/16</t>
+  </si>
+  <si>
+    <t>【需求】开源社区支持NCSI边带管理功能</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/5</t>
+  </si>
+  <si>
+    <t>BMC出厂配置导出需增加产品类别和版本字段兼容性适配</t>
+  </si>
+  <si>
+    <t>配置导出项新增BMC软件版本信息和产品类别信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/13</t>
+  </si>
+  <si>
+    <t>配置导入导出新增产品类别信息和BMC软件版本信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/profile_schema/issues/2</t>
+  </si>
+  <si>
+    <t>提供BMC出厂配置定制指导</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/16</t>
+  </si>
+  <si>
+    <t>软件中心需要添加BMCStudio描述和下载页</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/software-center-config/issues/3</t>
+  </si>
+  <si>
+    <t>解决BIOS高可用环境配置与test流程兼容性问题</t>
+  </si>
+  <si>
+    <t>高可用环境BIOS执行test失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/800/1</t>
+  </si>
+  <si>
+    <t>组件内执行bingo test显示测试失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/594/1</t>
+  </si>
+  <si>
+    <t>规范thermal资源树接口关键字以消除组件属性约束冲突并防止内部暴露</t>
+  </si>
+  <si>
+    <t>资源树协作接口关键字满足使用原则和规范</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/6</t>
+  </si>
+  <si>
+    <t>支持基础服务满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/32</t>
+  </si>
+  <si>
+    <t>【需求】thermal_mgmt组件满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/24</t>
+  </si>
+  <si>
+    <t>支持安全管理满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/account/issues/6</t>
+  </si>
+  <si>
+    <t>【需求】支持通用硬件满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/chassis/issues/3</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/12</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/17</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/22</t>
+  </si>
+  <si>
+    <t>【需求】支持异构算力满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/pcie_device/issues/7</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/22</t>
+  </si>
+  <si>
+    <t>支持框架资源树协作接口满足关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/38</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manufacture/issues/2</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/lsw/issues/2</t>
+  </si>
+  <si>
+    <t>【需求】支持能效管理满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/13</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/12</t>
+  </si>
+  <si>
+    <t>【需求】thermal_mgmt组件接口支持配置PrivilegeMap信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/27</t>
+  </si>
+  <si>
+    <t>【需求】power_mgmt组件接口支持配置PrivilegeMap信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/44</t>
+  </si>
+  <si>
+    <t>BMC开发者如何设计兼容通用及异构硬件的固件架构</t>
+  </si>
+  <si>
+    <t>【需求】社区更新通用硬件相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/19</t>
+  </si>
+  <si>
+    <t>【需求】社区补齐异构硬件相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/17</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/13</t>
+  </si>
+  <si>
+    <t>【需求】社区更新能效管理相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/16</t>
+  </si>
+  <si>
+    <t>【需求】社区更新设备管理规范相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/14</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/20</t>
+  </si>
+  <si>
+    <t>BMC开发者如何新增3000W电源资源树属性并配置PMbus告警</t>
+  </si>
+  <si>
+    <t>【需求】支持3000W电源管理，新增资源树私有属性CurrentModeLogic</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/account/issues/13</t>
+  </si>
+  <si>
+    <t>【需求】支持3000W电源管理，新增资源树bmc.kepler.Systems.PowerMgmt.OnePower.Status属性CMLStatus</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/44</t>
+  </si>
+  <si>
+    <t>【需求】支持电源继电器状态管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/45</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现NVMe-MI over MCTP协议解析及兼容可靠处理</t>
+  </si>
+  <si>
+    <t>【需求】支持NVMe-mi over mctp的协议解析</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/33</t>
+  </si>
+  <si>
+    <t>【需求】支持解析nvme mi协议响应码信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/8</t>
+  </si>
+  <si>
+    <t>BMC开发中如何适配Redfish接口权限变更引发的调用限制</t>
+  </si>
+  <si>
+    <t>【变更声明】Redfish升级接口权限变更</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/732/1</t>
+  </si>
+  <si>
+    <t>Redfish 升级接口 SimpleUpdate 关于在支持升级之后清除配置功能接口变更</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/32</t>
+  </si>
+  <si>
+    <t>BMC集成OpenTelemetry及开源依赖API时面临兼容性与依赖管理难题</t>
+  </si>
+  <si>
+    <t>提供openTelemetry及依赖开源软件API能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/conan_index/issues/3</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/3</t>
+  </si>
+  <si>
+    <t>BMC固件升级后证书校验失败致启动异常及回滚机制失效</t>
+  </si>
+  <si>
+    <t>最新 source 包烧录异常问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/173/1</t>
+  </si>
+  <si>
+    <t>使用社区最新出包，升级hpm失败，查看m3log get cert fail!</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/498/1</t>
+  </si>
+  <si>
+    <t>OpenUBMC社区如何实现QEMU工具链与仿真镜像的高效集成构建及发布流程适配性问题亟待解决</t>
+  </si>
+  <si>
+    <t>OpenUBMC社区支持Qemu工具的构建与发布</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/qemu/issues/3</t>
+  </si>
+  <si>
+    <t>OpenUBMC社区支持仿真镜像的构建与发布</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/qemu/issues/5</t>
+  </si>
+  <si>
+    <t>OpenUBMC社区支持仿真数据的发布</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/qemu/issues/4</t>
+  </si>
+  <si>
+    <t>BMC开发中如何定义FPGA周期自检失败告警并关联CSR配置</t>
+  </si>
+  <si>
+    <t>【需求】支持FPGA固件周期自检失败的告警</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/30</t>
+  </si>
+  <si>
+    <t>支持FPGA固件周期自检失败的告警</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/45</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/84</t>
+  </si>
+  <si>
+    <t>如何通过原子能力实现电源冗余模式配置与功率封顶参数管理</t>
+  </si>
+  <si>
+    <t>【需求】支持设置功率封顶参数原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/24</t>
+  </si>
+  <si>
+    <t>【需求】支持查询电源模块信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/28</t>
+  </si>
+  <si>
+    <t>【需求】支持查询功率封顶参数原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/21</t>
+  </si>
+  <si>
+    <t>【需求】支持查询指定机箱电源信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/23</t>
+  </si>
+  <si>
+    <t>【需求】支持监控电源不匹配检测原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/36</t>
+  </si>
+  <si>
+    <t>【需求】支持设置冗余供电模式能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/26</t>
+  </si>
+  <si>
+    <t>【需求】支持Power资源新增修改电源冗余模式</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/31</t>
+  </si>
+  <si>
+    <t>【需求】支持查询系统供电信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/29</t>
+  </si>
+  <si>
+    <t>【需求】支持功率采集及查询原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/37</t>
+  </si>
+  <si>
+    <t>【需求】支持查询功耗过高告警阈值原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/20</t>
+  </si>
+  <si>
+    <t>【需求】支持查询历史系统功率信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/30</t>
+  </si>
+  <si>
+    <t>【需求】支持设置功耗过高告警阈值原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/25</t>
+  </si>
+  <si>
+    <t>【需求】支持查询风扇信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/16</t>
+  </si>
+  <si>
+    <t>【需求】支持采集电源FRU信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/34</t>
+  </si>
+  <si>
+    <t>【需求】支持查询最大风扇&amp;电源个数信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/14</t>
+  </si>
+  <si>
+    <t>【需求】支持查询电源FRU信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/22</t>
+  </si>
+  <si>
+    <t>【需求】支持查询冗余供电信息能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/27</t>
+  </si>
+  <si>
+    <t>【需求】支持温度采集及查询原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/20</t>
+  </si>
+  <si>
+    <t>【需求】支持查询温度信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/15</t>
+  </si>
+  <si>
+    <t>【需求】支持优化供电模式切换特性</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/9</t>
+  </si>
+  <si>
+    <t>【需求】支持查询进风口历史温度信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/17</t>
+  </si>
+  <si>
+    <t>如何通过动态插桩生成覆盖全场景的BMC组件命令白名单</t>
+  </si>
+  <si>
+    <t>【需求】基于动态插桩拦截风险接口调用日志，形成通用化命令的白名单配置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/15</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/pcie_device/issues/4</t>
+  </si>
+  <si>
+    <t>BMC开发者在支持Localbus与Hisport总线仿真中需解决协议交互及性能兼容性等问题</t>
+  </si>
+  <si>
+    <t>【需求】支持板卡Localbus总线的仿真</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/qemu/issues/7</t>
+  </si>
+  <si>
+    <t>【需求】支持板卡Hisport总线的仿真</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/qemu/issues/9</t>
+  </si>
+  <si>
+    <t>如何验证Thermal/Power资源对Redfish新标准接口的完整兼容性及运维场景可行性</t>
+  </si>
+  <si>
+    <t>【需求】Power相关资源支持redfish新标准</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/19</t>
+  </si>
+  <si>
+    <t>【需求】Thermal相关资源支持redfish新标准</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/13</t>
+  </si>
+  <si>
+    <t>BMC开发者如何修正VPD仓库platform sr png文件position指标映射错误</t>
+  </si>
+  <si>
+    <t>vpd仓库platform.sr.png描述有误</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/2</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/360/1</t>
+  </si>
+  <si>
     <t>BMC固件如何实现国密证书管理接口与HTTPS兼容优化</t>
   </si>
   <si>
@@ -390,1467 +1851,6 @@
   </si>
   <si>
     <t>https://gitcode.com/openUBMC/mdb_interface/issues/9</t>
-  </si>
-  <si>
-    <t>如何通过原子能力实现电源冗余模式配置与功率封顶参数管理</t>
-  </si>
-  <si>
-    <t>【需求】支持设置功率封顶参数原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/24</t>
-  </si>
-  <si>
-    <t>【需求】支持查询电源模块信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/28</t>
-  </si>
-  <si>
-    <t>【需求】支持查询功率封顶参数原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/21</t>
-  </si>
-  <si>
-    <t>【需求】支持查询指定机箱电源信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/23</t>
-  </si>
-  <si>
-    <t>【需求】支持监控电源不匹配检测原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/36</t>
-  </si>
-  <si>
-    <t>【需求】支持设置冗余供电模式能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/26</t>
-  </si>
-  <si>
-    <t>【需求】支持Power资源新增修改电源冗余模式</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/31</t>
-  </si>
-  <si>
-    <t>【需求】支持查询系统供电信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/29</t>
-  </si>
-  <si>
-    <t>【需求】支持功率采集及查询原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/37</t>
-  </si>
-  <si>
-    <t>【需求】支持查询功耗过高告警阈值原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/20</t>
-  </si>
-  <si>
-    <t>【需求】支持查询历史系统功率信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/30</t>
-  </si>
-  <si>
-    <t>【需求】支持设置功耗过高告警阈值原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/25</t>
-  </si>
-  <si>
-    <t>【需求】支持查询风扇信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/16</t>
-  </si>
-  <si>
-    <t>【需求】支持采集电源FRU信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/34</t>
-  </si>
-  <si>
-    <t>【需求】支持查询最大风扇&amp;电源个数信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/14</t>
-  </si>
-  <si>
-    <t>【需求】支持查询电源FRU信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/22</t>
-  </si>
-  <si>
-    <t>【需求】支持查询冗余供电信息能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/27</t>
-  </si>
-  <si>
-    <t>【需求】支持温度采集及查询原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/20</t>
-  </si>
-  <si>
-    <t>【需求】支持查询温度信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/15</t>
-  </si>
-  <si>
-    <t>【需求】支持优化供电模式切换特性</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/9</t>
-  </si>
-  <si>
-    <t>【需求】支持查询进风口历史温度信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/17</t>
-  </si>
-  <si>
-    <t>kptest框架屏蔽硬件差异时如何保持BMC测试用例兼容性</t>
-  </si>
-  <si>
-    <t>kptest框架与KPTestOpenFramework工程、iTestSmart工具介绍</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/832/1</t>
-  </si>
-  <si>
-    <t>怎么申请使用kptest框架和itestsmart工具呢</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/665/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现Redfish与REST接口遥测配置的参数管理和测试验证</t>
-  </si>
-  <si>
-    <t>支持遥测上报配置管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/16</t>
-  </si>
-  <si>
-    <t>【需求】 支持遥测上报配置管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/37</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/12</t>
-  </si>
-  <si>
-    <t>【需求】可观测新增redfish、web接口及属性</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/29</t>
-  </si>
-  <si>
-    <t>BIOS生效流程图步骤顺序及逻辑错误需修正</t>
-  </si>
-  <si>
-    <t>bios组件生效流程流程图错误</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/19</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/17</t>
-  </si>
-  <si>
-    <t>支持华为自定义SMART的NVMe SSD盘在直通架构下的带内冗余块监控和寿命计算参数扩展</t>
-  </si>
-  <si>
-    <t>【需求】支持自定义的SMART NVMe SSD盘亚健康检测</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/23</t>
-  </si>
-  <si>
-    <t>【需求】支持自定义SMART信息的NVMe SSD盘写放大监控</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/28</t>
-  </si>
-  <si>
-    <t>【需求】支持获取NVMe SSD盘自定义SMART信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/27</t>
-  </si>
-  <si>
-    <t>【需求】支持自定义SMART信息的NVMe SSD盘预估寿命新增计算参数</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/25</t>
-  </si>
-  <si>
-    <t>【需求】支持从带内获取厂商SMART NVMe SSD盘冗余块信息并监控</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/10</t>
-  </si>
-  <si>
-    <t>【需求】支持从带内获取SMART NVMe SSD盘冗余块信息并监控</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/24</t>
-  </si>
-  <si>
-    <t>BMC固件中如何新增电链路数据采集接口实现NPU参数面扩展</t>
-  </si>
-  <si>
-    <t>【需求】支持NPU参数面光模块数据采集接口增加电链路数据</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/7</t>
-  </si>
-  <si>
-    <t>【需求】支持NPU参数面端口电链路数据采集</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/8</t>
-  </si>
-  <si>
-    <t>如何高效优化BMC日志、跟踪及度量数据的采集存储机制以满足开发需求？</t>
-  </si>
-  <si>
-    <t>提供跟踪数据采集和存储能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/observability/issues/4</t>
-  </si>
-  <si>
-    <t>提供度量数据采集和存储能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/observability/issues/2</t>
-  </si>
-  <si>
-    <t>提供日志数据采集和存储能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/observability/issues/5</t>
-  </si>
-  <si>
-    <t>BMC集成OpenTelemetry及开源依赖API时面临兼容性与依赖管理难题</t>
-  </si>
-  <si>
-    <t>提供openTelemetry及依赖开源软件API能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/conan_index/issues/3</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/observability/issues/3</t>
-  </si>
-  <si>
-    <t>解决BIOS高可用环境配置与test流程兼容性问题</t>
-  </si>
-  <si>
-    <t>高可用环境BIOS执行test失败</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/800/1</t>
-  </si>
-  <si>
-    <t>组件内执行bingo test显示测试失败</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/594/1</t>
-  </si>
-  <si>
-    <t>定制后BIOS在PXE阶段POST未完成触发BMC重启限制的处理方法</t>
-  </si>
-  <si>
-    <t>【问题单】定制后bios处于PXE阶段时重启BMC失败</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/19</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/sensor/issues/10</t>
-  </si>
-  <si>
-    <t>openUBMC固件升级时多签名机制验证冲突解决方案</t>
-  </si>
-  <si>
-    <t>能否实现伙伴签名的openUBMC版本直接升级华为签名的各种固件？</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/335/1</t>
-  </si>
-  <si>
-    <t>伙伴openubmc版本如何支持升级华为签名固件版本和伙伴自己签名的固件版本均能成功？</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1083/1</t>
-  </si>
-  <si>
-    <t>使用openubmc进行bios固件升级，提示无效的升级包</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/182/1</t>
-  </si>
-  <si>
-    <t>刷了华为根的机器是否可以直接刷伙伴根</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/933/1</t>
-  </si>
-  <si>
-    <t>如何验证Thermal/Power资源对Redfish新标准接口的完整兼容性及运维场景可行性</t>
-  </si>
-  <si>
-    <t>【需求】Power相关资源支持redfish新标准</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/19</t>
-  </si>
-  <si>
-    <t>【需求】Thermal相关资源支持redfish新标准</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/13</t>
-  </si>
-  <si>
-    <t>openUBMC应用框架开发中如何确保BMC兼容性</t>
-  </si>
-  <si>
-    <t>提供应用框架开发指导</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/15</t>
-  </si>
-  <si>
-    <t>【需求】社区提供开源项目开发者指南</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/webui/issues/19</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现Redfish API查询指定处理器的分类属性及状态验证</t>
-  </si>
-  <si>
-    <t>【需求】支持查询指定处理器资源信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/33</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/53</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/47</t>
-  </si>
-  <si>
-    <t>BMC开发者如何新增3000W电源资源树属性并配置PMbus告警</t>
-  </si>
-  <si>
-    <t>【需求】支持3000W电源管理，新增资源树私有属性CurrentModeLogic</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/account/issues/13</t>
-  </si>
-  <si>
-    <t>【需求】支持3000W电源管理，新增资源树bmc.kepler.Systems.PowerMgmt.OnePower.Status属性CMLStatus</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/44</t>
-  </si>
-  <si>
-    <t>【需求】支持电源继电器状态管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/45</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现并行升级总线互斥锁及日志追踪超时释放</t>
-  </si>
-  <si>
-    <t>【需求】支持固件升级流程总线互斥</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/21</t>
-  </si>
-  <si>
-    <t>固件升级流程总线互斥</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/10</t>
-  </si>
-  <si>
-    <t>【需求】能效管理固件升级流程总线互斥</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/11</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/11</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现IPMI2.0的SystemInfoTable私有属性掉电持久化及广播参数配置</t>
-  </si>
-  <si>
-    <t>IPMI2.0标准接口能力新增私有属性保存system info信息</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1100/1</t>
-  </si>
-  <si>
-    <t>【需求】支持Get System Info标准命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/12</t>
-  </si>
-  <si>
-    <t>【需求】支持Set System Info标准命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/13</t>
-  </si>
-  <si>
-    <t>BMC固件解析SMBIOS 04Type时越界保护失效，需验证结构体长度处理修正</t>
-  </si>
-  <si>
-    <t>解析SMBIOS协议04Type时出现异常</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/363/1</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何通过VPD直通实现华为/Memblaze多容量NVMe盘兼容纳管并展示信息</t>
-  </si>
-  <si>
-    <t>【需求】支持新增Memblaze厂商NVMe盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/44</t>
-  </si>
-  <si>
-    <t>【需求】支持新增华为厂商NVMe盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/41</t>
-  </si>
-  <si>
-    <t>BMC开发者如何通过Web触发RAID卡固件日志导出并满足脱敏、时延及兼容性要求</t>
-  </si>
-  <si>
-    <t>【需求】支持一键搜集日志导出raid卡固件日志</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/31</t>
-  </si>
-  <si>
-    <t>【需求】支持收集raid卡文本格式日志</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/32</t>
-  </si>
-  <si>
-    <t>BMC构建工具如何设计版本联动策略确保SDK与包的兼容性</t>
-  </si>
-  <si>
-    <t>应支持bingo、构建工具、sdk之间的版本配套</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/414/1</t>
-  </si>
-  <si>
-    <t>【需求】bingo支持组件的全量二进制构建</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bingo/issues/12</t>
-  </si>
-  <si>
-    <t>如何在BMC中实现运维CLI触发NPU/CPU DFX日志收集任务的并发控制与存储路径管理</t>
-  </si>
-  <si>
-    <t>【需求】 支持CLI导出NPU DFX日志</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/48</t>
-  </si>
-  <si>
-    <t>【需求】支持CLI导出CPU DFX日志</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/46</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现能效子系统自定义调试命令注册与单组件绑定执行</t>
-  </si>
-  <si>
-    <t>【需求】支持能效管理子系统组件自定义命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/7</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/17</t>
-  </si>
-  <si>
-    <t>【需求】支持组件自定义命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/21</t>
-  </si>
-  <si>
-    <t>BMC出厂配置导出需增加产品类别和版本字段兼容性适配</t>
-  </si>
-  <si>
-    <t>配置导出项新增BMC软件版本信息和产品类别信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/13</t>
-  </si>
-  <si>
-    <t>配置导入导出新增产品类别信息和BMC软件版本信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/profile_schema/issues/2</t>
-  </si>
-  <si>
-    <t>提供BMC出厂配置定制指导</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/16</t>
-  </si>
-  <si>
-    <t>软件中心需要添加BMCStudio描述和下载页</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/software-center-config/issues/3</t>
-  </si>
-  <si>
-    <t>BMC开发者如何修复Vite组件中未授权文件访问漏洞防止敏感文件泄露</t>
-  </si>
-  <si>
-    <t>CVE-2025-46565</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/21</t>
-  </si>
-  <si>
-    <t>CVE-2025-30208</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/16</t>
-  </si>
-  <si>
-    <t>CVE-2025-31486</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/18</t>
-  </si>
-  <si>
-    <t>CVE-2025-31125</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/17</t>
-  </si>
-  <si>
-    <t>CVE-2025-32395</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/19</t>
-  </si>
-  <si>
-    <t>BMC Studio需补全文档示例并优化接口校验规则</t>
-  </si>
-  <si>
-    <t>BMC Studio工具使用反馈</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/714/1</t>
-  </si>
-  <si>
-    <t>[WIP]BMC Studio用户指南</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/221/1</t>
-  </si>
-  <si>
-    <t>BMC固件升级后证书校验失败致启动异常及回滚机制失效</t>
-  </si>
-  <si>
-    <t>最新 source 包烧录异常问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/173/1</t>
-  </si>
-  <si>
-    <t>使用社区最新出包，升级hpm失败，查看m3log get cert fail!</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/498/1</t>
-  </si>
-  <si>
-    <t>BMC固件如何适配BlueField硬件不同版本及其四元组的调速策略需求</t>
-  </si>
-  <si>
-    <t>【需求】支持BlueField-3（B3220）的调速策略配置</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/17</t>
-  </si>
-  <si>
-    <t>【需求】支持BlueField-2（332A）的调速策略</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/18</t>
-  </si>
-  <si>
-    <t>BMC恢复出厂后固件升级验证失败与权限异常排查</t>
-  </si>
-  <si>
-    <t>恢复出厂设置后，BMC升级失败</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1065/1</t>
-  </si>
-  <si>
-    <t>BMC恢复出厂设置之后无法更新固件</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/831/1</t>
-  </si>
-  <si>
-    <t>恢复出厂设置时无法升级</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/11</t>
-  </si>
-  <si>
-    <t>BMC开发者如何修正openUBMC交叉编译中的头文件缺失与依赖冲突</t>
-  </si>
-  <si>
-    <t>社区lsw编译不过</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/979/1</t>
-  </si>
-  <si>
-    <t>开源首版本编译不过</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/lsw/issues/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何确保PCIe组件初始化期间的IPMI命令正确注册</t>
-  </si>
-  <si>
-    <t>非天池组件加载方式</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/610/1</t>
-  </si>
-  <si>
-    <t>pcie_device新增IPMI命令导致组件异常问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/595/1</t>
-  </si>
-  <si>
-    <t>如何实现PLDM协议支持网卡芯片温度及固件版本采集并兼容北向接口</t>
-  </si>
-  <si>
-    <t>【需求】支持使用pldm协议获取网卡相关信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/20</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/19</t>
-  </si>
-  <si>
-    <t>NCSI边带管理功能如何通过Lua开发实现协议封装解析，并取消SO依赖适配openUBMC 25.1.0版本</t>
-  </si>
-  <si>
-    <t>【需求】支持NCSI边带管理功能</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/16</t>
-  </si>
-  <si>
-    <t>【需求】开源社区支持NCSI边带管理功能</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/5</t>
-  </si>
-  <si>
-    <t>BMC开发者需文档化一键导出板卡MCU信息功能的存储路径及命名规范</t>
-  </si>
-  <si>
-    <t>【已评审】支持一键收集导出板卡信息，mcu信息</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/628/1</t>
-  </si>
-  <si>
-    <t>【问题单】支持一键收集导出板卡信息，mcu信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/10</t>
-  </si>
-  <si>
-    <t>【需求】支持一键收集通用硬件信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/34</t>
-  </si>
-  <si>
-    <t>openUBMC一键收集介绍</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/290/1</t>
-  </si>
-  <si>
-    <t>【需求】支持板卡硬件管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/15</t>
-  </si>
-  <si>
-    <t>基础通用问题FAQ</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/292/1</t>
-  </si>
-  <si>
-    <t>bmc-core SIG 入门指南</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/167/1</t>
-  </si>
-  <si>
-    <t>openUBMC各sig组本周(2025-0421-2025-0427)关闭issue统计</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/672/1</t>
-  </si>
-  <si>
-    <t>openUBMC各sig组本周(2025-0428~2025-0505)关闭issue统计</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/733/1</t>
-  </si>
-  <si>
-    <t>openUBMC品牌包定制指南</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/355/1</t>
-  </si>
-  <si>
-    <t>openUBMC各sig组本周(2025-0506~2025-0511)关闭issue统计</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/876/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现NVMe-MI over MCTP协议解析及兼容可靠处理</t>
-  </si>
-  <si>
-    <t>【需求】支持NVMe-mi over mctp的协议解析</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/33</t>
-  </si>
-  <si>
-    <t>【需求】支持解析nvme mi协议响应码信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/8</t>
-  </si>
-  <si>
-    <t>OpenUBMC社区如何实现QEMU工具链与仿真镜像的高效集成构建及发布流程适配性问题亟待解决</t>
-  </si>
-  <si>
-    <t>OpenUBMC社区支持Qemu工具的构建与发布</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/qemu/issues/3</t>
-  </si>
-  <si>
-    <t>OpenUBMC社区支持仿真镜像的构建与发布</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/qemu/issues/5</t>
-  </si>
-  <si>
-    <t>OpenUBMC社区支持仿真数据的发布</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/qemu/issues/4</t>
-  </si>
-  <si>
-    <t>BMC开发中如何定义FPGA周期自检失败告警并关联CSR配置</t>
-  </si>
-  <si>
-    <t>【需求】支持FPGA固件周期自检失败的告警</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/30</t>
-  </si>
-  <si>
-    <t>支持FPGA固件周期自检失败的告警</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/45</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/84</t>
-  </si>
-  <si>
-    <t>BMC开发中如何适配Redfish接口权限变更引发的调用限制</t>
-  </si>
-  <si>
-    <t>【变更声明】Redfish升级接口权限变更</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/732/1</t>
-  </si>
-  <si>
-    <t>Redfish 升级接口 SimpleUpdate 关于在支持升级之后清除配置功能接口变更</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/32</t>
-  </si>
-  <si>
-    <t>BMC开发者如何修正VPD仓库platform sr png文件position指标映射错误</t>
-  </si>
-  <si>
-    <t>vpd仓库platform.sr.png描述有误</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/2</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/360/1</t>
-  </si>
-  <si>
-    <t>BMC固件开发需支持BIOS启动禁用KVM/VNC键盘输入</t>
-  </si>
-  <si>
-    <t>支持BIOS启动过程禁止KVM/VNC键盘输入</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/19</t>
-  </si>
-  <si>
-    <t>支持BIOS在启动阶段禁用键盘</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/20</t>
-  </si>
-  <si>
-    <t>BMC升级接口参数扩展如何支持多组件并行适配</t>
-  </si>
-  <si>
-    <t>【需求】power_mgmt组件适配升级接口参数扩展</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/10</t>
-  </si>
-  <si>
-    <t>general_hardware组件适配升级接口参数</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/11</t>
-  </si>
-  <si>
-    <t>能效管理适配升级接口参数扩展</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/5</t>
-  </si>
-  <si>
-    <t>【需求】bios组件适配升级接口参数扩展</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/10</t>
-  </si>
-  <si>
-    <t>BMC中如何实现日志存储隔离的配置迁移与统一管理</t>
-  </si>
-  <si>
-    <t>支持日志存放位置隔离</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/23</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rootfs_user/issues/2</t>
-  </si>
-  <si>
-    <t>BMC开发者如何通过MCTP Over PCIe实时获取并记录DPU网卡启动标识</t>
-  </si>
-  <si>
-    <t>【需求】支持DPU网卡启动完成标识记录</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/15</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/28</t>
-  </si>
-  <si>
-    <t>BMC网卡适配组件如何兼容历史功能及设备树驱动接口</t>
-  </si>
-  <si>
-    <t>【需求】网卡适配组件兼容历史网卡功能</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/6</t>
-  </si>
-  <si>
-    <t>【需求】网卡支持南向部件驱动接口</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/17</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/18</t>
-  </si>
-  <si>
-    <t>电源适配中如何显式声明设备树引用字段以避免nil调用</t>
-  </si>
-  <si>
-    <t>pmbus CRPS电源适配</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/240/1</t>
-  </si>
-  <si>
-    <t>电源适配指导</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1101/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现Redfish接口OEM扩展并处理存储控制器属性异常</t>
-  </si>
-  <si>
-    <t>【需求】支持厂商定制化显示存储控制器端口数</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/67</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish接口oem定制查询指定存储资源信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rack_mgmt/issues/2</t>
-  </si>
-  <si>
-    <t>BMC CPU的ProcessorID属性类型为U32，与SMBIOS协议QWORD范围不匹配引发存储解析失败。</t>
-  </si>
-  <si>
-    <t>【问题单】CPU的ProcessorID属性定义与SMBIOS协议规定不符</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/75</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/47</t>
-  </si>
-  <si>
-    <t>bmc.kepler.Systems.Processor.CPU的ProcessorID为U32类型，与SMBIOS协议不一致</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/30</t>
-  </si>
-  <si>
-    <t>CPU类的ProcessorID属性定义为U32类型，与SMBIOS协议范围（QWORD）不一致</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/362/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现光模块老化预测功能开关的Redfish接口支持</t>
-  </si>
-  <si>
-    <t>【需求】支持光模块老化故障预测功能开关</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/52</t>
-  </si>
-  <si>
-    <t>【修改描述】支持光模块老化预测功能开关使能</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/31</t>
-  </si>
-  <si>
-    <t>BMC开发中如何通过REDfish协议实现PrivilegeMap配置同步与用户校验提示优化</t>
-  </si>
-  <si>
-    <t>【需求】RAS接口支持配置PrivilegeMap信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/53</t>
-  </si>
-  <si>
-    <t>支持配置PrivilegeMap信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/account/issues/12</t>
-  </si>
-  <si>
-    <t>支持用户名校验定制后的用户提示优化</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/account/issues/5</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/31</t>
-  </si>
-  <si>
-    <t>支持节点模式设置</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/5</t>
-  </si>
-  <si>
-    <t>文档描述优化</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/6</t>
-  </si>
-  <si>
-    <t>电源信息获取优化</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/4</t>
-  </si>
-  <si>
-    <t>支持新增自定义用户组设置</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/account/issues/11</t>
-  </si>
-  <si>
-    <t>文档持续更新</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/1</t>
-  </si>
-  <si>
-    <t>电源转化器型号显示修改</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/3</t>
-  </si>
-  <si>
-    <t>BMC开发者如何确定PCIe Switch加载PCIe卡及Flash升级是否适用general hardware组件及实现接口扩展</t>
-  </si>
-  <si>
-    <t>【讨论】PCIe Switch场景下如何加载PCIe卡</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/722/1</t>
-  </si>
-  <si>
-    <t>PCIe Switch 芯片的Flash升级</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/721/1</t>
-  </si>
-  <si>
-    <t>需解决BMC在Redfish/Web/IPMI接口下存储介质实时监控与网络设备数据兼容的设计问题</t>
-  </si>
-  <si>
-    <t>【需求】支持存储管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/35</t>
-  </si>
-  <si>
-    <t>【需求】支持硬盘诊断功能控制</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/7</t>
-  </si>
-  <si>
-    <t>【需求】支持服务器网络管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/25</t>
-  </si>
-  <si>
-    <t>【需求】支持存储管理能力基线</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/30</t>
-  </si>
-  <si>
-    <t>BMC开发者如何确保Redfish EthernetInterfaces兼容标准属性</t>
-  </si>
-  <si>
-    <t>支持Redfish接口EthernetInterfaces资源下Links等标准属性</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/37</t>
-  </si>
-  <si>
-    <t>支持查询 BMC 网口资源详细信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/38</t>
-  </si>
-  <si>
-    <t>BMC Studio工作空间一键部署缺失Conan依赖配置导致组件获取失败且无完成状态反馈</t>
-  </si>
-  <si>
-    <t>bmc studio使用问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1012/1</t>
-  </si>
-  <si>
-    <t>BMC_STUDIO仓库一键部署，丢失响应，无成功，无失败反馈</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/962/1</t>
-  </si>
-  <si>
-    <t>使用bmc_studio遇到的问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/925/1</t>
-  </si>
-  <si>
-    <t>BMC Studio问题反馈</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/707/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何解决25.03构建中的Manifest签名链校验异常及dockerfile安装超时问题？</t>
-  </si>
-  <si>
-    <t>25.03构建出包以及伙伴签名问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/390/1</t>
-  </si>
-  <si>
-    <t>25.03版本的构建环境搭建：dockerfile创建镜像失败</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/409/1</t>
-  </si>
-  <si>
-    <t>制作反向过渡包时碰到的疑问</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/723/1</t>
-  </si>
-  <si>
-    <t>如何通过动态插桩生成覆盖全场景的BMC组件命令白名单</t>
-  </si>
-  <si>
-    <t>【需求】基于动态插桩拦截风险接口调用日志，形成通用化命令的白名单配置</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/15</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/pcie_device/issues/4</t>
-  </si>
-  <si>
-    <t>BMC开发者如何建立SATA硬盘兼容纳管策略以实现不同厂商及型号前盘信息在RAID/直通场景下的统一展示</t>
-  </si>
-  <si>
-    <t>【需求】支持新增希捷SATA盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/42</t>
-  </si>
-  <si>
-    <t>【需求】支持新增东芝SATA盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/45</t>
-  </si>
-  <si>
-    <t>【需求】支持新增西数SATA盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/43</t>
-  </si>
-  <si>
-    <t>BMC开发者如何确保测试贡献符合openUBMC社区质量标准？</t>
-  </si>
-  <si>
-    <t>openUBMC社区测试贡献规划</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/592/1</t>
-  </si>
-  <si>
-    <t>openUBMC社区QA SIG运作</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/593/1</t>
-  </si>
-  <si>
-    <t>QA 运作规则讨论</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/209/1</t>
-  </si>
-  <si>
-    <t>BMC开发者需明确thermal和power管理组件业务场景白名单配置并建立基线</t>
-  </si>
-  <si>
-    <t>【需求】power_mgmt组件明确业务场景下的白名单化配置并形成基线</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/45</t>
-  </si>
-  <si>
-    <t>【需求】thermal_mgmt组件明确业务场景下的白名单化配置并形成基线</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/25</t>
-  </si>
-  <si>
-    <t>BMC开发者如何设计兼容通用及异构硬件的固件架构</t>
-  </si>
-  <si>
-    <t>【需求】社区更新通用硬件相关文档</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/19</t>
-  </si>
-  <si>
-    <t>【需求】社区补齐异构硬件相关文档</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/17</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/13</t>
-  </si>
-  <si>
-    <t>【需求】社区更新能效管理相关文档</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/16</t>
-  </si>
-  <si>
-    <t>【需求】社区更新设备管理规范相关文档</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/14</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/20</t>
-  </si>
-  <si>
-    <t>BMC如何通过Redfish接口实现指定PCIe设备信息查询</t>
-  </si>
-  <si>
-    <t>【需求】支持查询指定PCIEDevices资源信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/pcie_device/issues/5</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/16</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现Redfish Drive资源OEM接口适配NVMe MI协议的SMART日志获取、识别数据解析及命令封装传输</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetTelemetryData请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/36</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetSmartInfo请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/38</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetAddSmartInfo请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/37</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制SendNvmeMICommand请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/40</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/13</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetIdentifyData请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/39</t>
-  </si>
-  <si>
-    <t>BMC开发者需解决多厂商CPLD模块MIXED模式分组升级兼容性及多重校验逻辑适配难题</t>
-  </si>
-  <si>
-    <t>【需求】支持多模组CPLD固件升级健壮性提升</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/25</t>
-  </si>
-  <si>
-    <t>CPLD 升级 MultipleSuppliersMode MIXED Mode 功能背景了解</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/886/1</t>
-  </si>
-  <si>
-    <t>【需求】支持多模组MCU固件升级健壮性提升</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/27</t>
-  </si>
-  <si>
-    <t>【需求】支持MCU子固件升级时版本号校验</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/23</t>
-  </si>
-  <si>
-    <t>【需求】支持多模组CSR固件升级健壮性提升</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/24</t>
-  </si>
-  <si>
-    <t>【需求】支持多模组VRD固件升级健壮性提升</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/26</t>
-  </si>
-  <si>
-    <t>规范thermal资源树接口关键字以消除组件属性约束冲突并防止内部暴露</t>
-  </si>
-  <si>
-    <t>资源树协作接口关键字满足使用原则和规范</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/6</t>
-  </si>
-  <si>
-    <t>支持基础服务满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/32</t>
-  </si>
-  <si>
-    <t>【需求】thermal_mgmt组件满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/24</t>
-  </si>
-  <si>
-    <t>支持安全管理满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/account/issues/6</t>
-  </si>
-  <si>
-    <t>【需求】支持通用硬件满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/chassis/issues/3</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/12</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/17</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/22</t>
-  </si>
-  <si>
-    <t>【需求】支持异构算力满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/pcie_device/issues/7</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/22</t>
-  </si>
-  <si>
-    <t>支持框架资源树协作接口满足关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/38</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manufacture/issues/2</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/lsw/issues/2</t>
-  </si>
-  <si>
-    <t>【需求】支持能效管理满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/13</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/12</t>
-  </si>
-  <si>
-    <t>【需求】thermal_mgmt组件接口支持配置PrivilegeMap信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/27</t>
-  </si>
-  <si>
-    <t>【需求】power_mgmt组件接口支持配置PrivilegeMap信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/44</t>
-  </si>
-  <si>
-    <t>BMC开发者在支持Localbus与Hisport总线仿真中需解决协议交互及性能兼容性等问题</t>
-  </si>
-  <si>
-    <t>【需求】支持板卡Localbus总线的仿真</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/qemu/issues/7</t>
-  </si>
-  <si>
-    <t>【需求】支持板卡Hisport总线的仿真</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/qemu/issues/9</t>
   </si>
 </sst>
 </file>
@@ -1865,12 +1865,27 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1885,8 +1900,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="false">
+      <alignment/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2371,9 +2395,9 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -2455,9 +2479,9 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -2528,9 +2552,9 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38"/>
-      <c r="B38"/>
-      <c r="C38"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -2579,9 +2603,9 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44"/>
-      <c r="B44"/>
-      <c r="C44"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
@@ -2740,9 +2764,9 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60"/>
-      <c r="B60"/>
-      <c r="C60"/>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
@@ -2791,9 +2815,9 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66"/>
-      <c r="B66"/>
-      <c r="C66"/>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
@@ -2831,9 +2855,9 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71"/>
-      <c r="B71"/>
-      <c r="C71"/>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
@@ -2871,9 +2895,9 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76"/>
-      <c r="B76"/>
-      <c r="C76"/>
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
     </row>
   </sheetData>
 </worksheet>
@@ -2952,9 +2976,9 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2992,43 +3016,43 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" t="s">
-        <v>128</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -3054,36 +3078,21 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" t="s">
-        <v>134</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19" t="s">
-        <v>138</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -3091,10 +3100,10 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21">
@@ -3102,43 +3111,28 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C21" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" t="s">
-        <v>144</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>145</v>
-      </c>
-      <c r="C23" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" t="s">
-        <v>147</v>
-      </c>
-      <c r="C24" t="s">
-        <v>148</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -3146,10 +3140,10 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C25" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26">
@@ -3157,10 +3151,10 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C26" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27">
@@ -3168,10 +3162,10 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C27" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28">
@@ -3179,43 +3173,28 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C28" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" t="s">
-        <v>157</v>
-      </c>
-      <c r="C29" t="s">
-        <v>158</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>159</v>
-      </c>
-      <c r="C30" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" t="s">
-        <v>161</v>
-      </c>
-      <c r="C31" t="s">
-        <v>162</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -3223,10 +3202,10 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C32" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33">
@@ -3234,23 +3213,23 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C33" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36">
@@ -3263,10 +3242,10 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C37" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38">
@@ -3274,50 +3253,50 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C38" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39"/>
-      <c r="B39"/>
-      <c r="C39"/>
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>172</v>
+        <v>158</v>
+      </c>
+      <c r="C40" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s">
-        <v>2</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>173</v>
-      </c>
-      <c r="C42" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" t="s">
-        <v>175</v>
-      </c>
-      <c r="C43" t="s">
-        <v>176</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -3325,10 +3304,10 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C44" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45">
@@ -3336,101 +3315,101 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C45" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46"/>
-      <c r="B46"/>
-      <c r="C46"/>
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>165</v>
+      </c>
+      <c r="C46" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>180</v>
+        <v>167</v>
+      </c>
+      <c r="C47" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s">
-        <v>3</v>
-      </c>
-      <c r="B49" t="s">
-        <v>181</v>
-      </c>
-      <c r="C49" t="s">
-        <v>182</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>181</v>
-      </c>
-      <c r="C50" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51"/>
-      <c r="B51"/>
-      <c r="C51"/>
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>184</v>
+        <v>172</v>
+      </c>
+      <c r="C52" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
+        <v>174</v>
+      </c>
+      <c r="C53" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s">
-        <v>3</v>
-      </c>
-      <c r="B54" t="s">
-        <v>185</v>
-      </c>
-      <c r="C54" t="s">
-        <v>186</v>
-      </c>
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>187</v>
-      </c>
-      <c r="C55" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56" t="s">
-        <v>189</v>
-      </c>
-      <c r="C56" t="s">
-        <v>190</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -3438,10 +3417,10 @@
         <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="C57" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58">
@@ -3449,10 +3428,10 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="C58" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59">
@@ -3460,199 +3439,214 @@
         <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="C59" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60"/>
-      <c r="B60"/>
-      <c r="C60"/>
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" t="s">
+        <v>183</v>
+      </c>
+      <c r="C60" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B61" t="s">
-        <v>197</v>
+        <v>185</v>
+      </c>
+      <c r="C61" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B62" t="s">
+        <v>187</v>
+      </c>
+      <c r="C62" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s">
-        <v>3</v>
-      </c>
-      <c r="B63" t="s">
-        <v>198</v>
-      </c>
-      <c r="C63" t="s">
-        <v>199</v>
-      </c>
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>200</v>
-      </c>
-      <c r="C64" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65"/>
-      <c r="B65"/>
-      <c r="C65"/>
+      <c r="A65" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B66" t="s">
-        <v>202</v>
+        <v>190</v>
+      </c>
+      <c r="C66" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B67" t="s">
+        <v>190</v>
+      </c>
+      <c r="C67" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s">
-        <v>3</v>
-      </c>
-      <c r="B68" t="s">
-        <v>203</v>
-      </c>
-      <c r="C68" t="s">
-        <v>204</v>
-      </c>
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>205</v>
-      </c>
-      <c r="C69" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>3</v>
-      </c>
-      <c r="B70" t="s">
-        <v>207</v>
-      </c>
-      <c r="C70" t="s">
-        <v>208</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71"/>
-      <c r="B71"/>
-      <c r="C71"/>
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
+        <v>194</v>
+      </c>
+      <c r="C71" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>209</v>
+        <v>196</v>
+      </c>
+      <c r="C72" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s">
-        <v>2</v>
-      </c>
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>210</v>
-      </c>
-      <c r="C74" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>3</v>
-      </c>
-      <c r="B75" t="s">
-        <v>210</v>
-      </c>
-      <c r="C75" t="s">
-        <v>212</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76"/>
-      <c r="B76"/>
-      <c r="C76"/>
+      <c r="A76" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" t="s">
+        <v>199</v>
+      </c>
+      <c r="C76" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>213</v>
+        <v>201</v>
+      </c>
+      <c r="C77" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s">
-        <v>2</v>
-      </c>
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>214</v>
-      </c>
-      <c r="C79" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>3</v>
-      </c>
-      <c r="B80" t="s">
-        <v>216</v>
-      </c>
-      <c r="C80" t="s">
-        <v>217</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81"/>
-      <c r="B81"/>
-      <c r="C81"/>
+      <c r="A81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" t="s">
+        <v>204</v>
+      </c>
+      <c r="C81" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>218</v>
+        <v>204</v>
+      </c>
+      <c r="C82" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B83" t="s">
+        <v>207</v>
+      </c>
+      <c r="C83" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="84">
@@ -3660,39 +3654,39 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C84" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s">
-        <v>3</v>
-      </c>
-      <c r="B85" t="s">
-        <v>219</v>
-      </c>
-      <c r="C85" t="s">
-        <v>221</v>
-      </c>
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
     </row>
     <row r="86">
-      <c r="A86"/>
-      <c r="B86"/>
-      <c r="C86"/>
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B87" t="s">
-        <v>222</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B88" t="s">
+        <v>212</v>
+      </c>
+      <c r="C88" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="89">
@@ -3700,101 +3694,101 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C89" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s">
-        <v>3</v>
-      </c>
-      <c r="B90" t="s">
-        <v>225</v>
-      </c>
-      <c r="C90" t="s">
-        <v>226</v>
-      </c>
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>227</v>
-      </c>
-      <c r="C91" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>3</v>
-      </c>
-      <c r="B92" t="s">
-        <v>229</v>
-      </c>
-      <c r="C92" t="s">
-        <v>230</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93"/>
-      <c r="B93"/>
-      <c r="C93"/>
+      <c r="A93" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" t="s">
+        <v>217</v>
+      </c>
+      <c r="C93" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B94" t="s">
-        <v>231</v>
+        <v>219</v>
+      </c>
+      <c r="C94" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s">
-        <v>2</v>
-      </c>
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B96" t="s">
-        <v>232</v>
-      </c>
-      <c r="C96" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>3</v>
-      </c>
-      <c r="B97" t="s">
-        <v>234</v>
-      </c>
-      <c r="C97" t="s">
-        <v>235</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98"/>
-      <c r="B98"/>
-      <c r="C98"/>
+      <c r="A98" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" t="s">
+        <v>222</v>
+      </c>
+      <c r="C98" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B99" t="s">
-        <v>236</v>
+        <v>224</v>
+      </c>
+      <c r="C99" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B100" t="s">
+        <v>226</v>
+      </c>
+      <c r="C100" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="101">
@@ -3802,39 +3796,39 @@
         <v>3</v>
       </c>
       <c r="B101" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C101" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s">
-        <v>3</v>
-      </c>
-      <c r="B102" t="s">
-        <v>239</v>
-      </c>
-      <c r="C102" t="s">
-        <v>240</v>
-      </c>
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
     </row>
     <row r="103">
-      <c r="A103"/>
-      <c r="B103"/>
-      <c r="C103"/>
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>0</v>
-      </c>
-      <c r="B104" t="s">
-        <v>241</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B105" t="s">
+        <v>231</v>
+      </c>
+      <c r="C105" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="106">
@@ -3842,10 +3836,10 @@
         <v>3</v>
       </c>
       <c r="B106" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C106" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="107">
@@ -3853,39 +3847,39 @@
         <v>3</v>
       </c>
       <c r="B107" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C107" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s">
-        <v>3</v>
-      </c>
-      <c r="B108" t="s">
-        <v>242</v>
-      </c>
-      <c r="C108" t="s">
-        <v>245</v>
-      </c>
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
     </row>
     <row r="109">
-      <c r="A109"/>
-      <c r="B109"/>
-      <c r="C109"/>
+      <c r="A109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B110" t="s">
-        <v>246</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B111" t="s">
+        <v>238</v>
+      </c>
+      <c r="C111" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="112">
@@ -3893,10 +3887,10 @@
         <v>3</v>
       </c>
       <c r="B112" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C112" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="113">
@@ -3904,10 +3898,10 @@
         <v>3</v>
       </c>
       <c r="B113" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C113" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="114">
@@ -3915,28 +3909,43 @@
         <v>3</v>
       </c>
       <c r="B114" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C114" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115"/>
-      <c r="B115"/>
-      <c r="C115"/>
+      <c r="A115" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115" t="s">
+        <v>246</v>
+      </c>
+      <c r="C115" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B116" t="s">
-        <v>253</v>
+        <v>248</v>
+      </c>
+      <c r="C116" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B117" t="s">
+        <v>250</v>
+      </c>
+      <c r="C117" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="118">
@@ -3944,10 +3953,10 @@
         <v>3</v>
       </c>
       <c r="B118" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C118" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="119">
@@ -3955,10 +3964,10 @@
         <v>3</v>
       </c>
       <c r="B119" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C119" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="120">
@@ -3966,10 +3975,10 @@
         <v>3</v>
       </c>
       <c r="B120" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C120" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="121">
@@ -3980,20 +3989,20 @@
         <v>258</v>
       </c>
       <c r="C121" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122"/>
-      <c r="B122"/>
-      <c r="C122"/>
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
     </row>
     <row r="123">
       <c r="A123" t="s">
         <v>0</v>
       </c>
       <c r="B123" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="124">
@@ -4006,10 +4015,10 @@
         <v>3</v>
       </c>
       <c r="B125" t="s">
+        <v>261</v>
+      </c>
+      <c r="C125" t="s">
         <v>262</v>
-      </c>
-      <c r="C125" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="126">
@@ -4017,10 +4026,10 @@
         <v>3</v>
       </c>
       <c r="B126" t="s">
+        <v>263</v>
+      </c>
+      <c r="C126" t="s">
         <v>264</v>
-      </c>
-      <c r="C126" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="127">
@@ -4028,23 +4037,23 @@
         <v>3</v>
       </c>
       <c r="B127" t="s">
+        <v>265</v>
+      </c>
+      <c r="C127" t="s">
         <v>266</v>
       </c>
-      <c r="C127" t="s">
-        <v>267</v>
-      </c>
     </row>
     <row r="128">
-      <c r="A128"/>
-      <c r="B128"/>
-      <c r="C128"/>
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
     </row>
     <row r="129">
       <c r="A129" t="s">
         <v>0</v>
       </c>
       <c r="B129" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="130">
@@ -4057,10 +4066,10 @@
         <v>3</v>
       </c>
       <c r="B131" t="s">
+        <v>268</v>
+      </c>
+      <c r="C131" t="s">
         <v>269</v>
-      </c>
-      <c r="C131" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="132">
@@ -4068,16 +4077,16 @@
         <v>3</v>
       </c>
       <c r="B132" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C132" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133"/>
-      <c r="B133"/>
-      <c r="C133"/>
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
     </row>
     <row r="134">
       <c r="A134" t="s">
@@ -4115,32 +4124,32 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138"/>
-      <c r="B138"/>
-      <c r="C138"/>
+      <c r="A138" t="s">
+        <v>3</v>
+      </c>
+      <c r="B138" t="s">
+        <v>277</v>
+      </c>
+      <c r="C138" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="139">
-      <c r="A139" t="s">
-        <v>0</v>
-      </c>
-      <c r="B139" t="s">
-        <v>277</v>
-      </c>
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B140" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>3</v>
-      </c>
-      <c r="B141" t="s">
-        <v>278</v>
-      </c>
-      <c r="C141" t="s">
-        <v>279</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142">
@@ -4155,32 +4164,32 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143"/>
-      <c r="B143"/>
-      <c r="C143"/>
+      <c r="A143" t="s">
+        <v>3</v>
+      </c>
+      <c r="B143" t="s">
+        <v>280</v>
+      </c>
+      <c r="C143" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="144">
-      <c r="A144" t="s">
-        <v>0</v>
-      </c>
-      <c r="B144" t="s">
-        <v>282</v>
-      </c>
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B145" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>3</v>
-      </c>
-      <c r="B146" t="s">
-        <v>283</v>
-      </c>
-      <c r="C146" t="s">
-        <v>284</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
@@ -4188,28 +4197,43 @@
         <v>3</v>
       </c>
       <c r="B147" t="s">
+        <v>284</v>
+      </c>
+      <c r="C147" t="s">
         <v>285</v>
       </c>
-      <c r="C147" t="s">
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>3</v>
+      </c>
+      <c r="B148" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="148">
-      <c r="A148"/>
-      <c r="B148"/>
-      <c r="C148"/>
+      <c r="C148" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B149" t="s">
-        <v>287</v>
+        <v>288</v>
+      </c>
+      <c r="C149" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B150" t="s">
+        <v>290</v>
+      </c>
+      <c r="C150" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="151">
@@ -4217,10 +4241,10 @@
         <v>3</v>
       </c>
       <c r="B151" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C151" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="152">
@@ -4228,23 +4252,23 @@
         <v>3</v>
       </c>
       <c r="B152" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C152" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153"/>
-      <c r="B153"/>
-      <c r="C153"/>
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
     </row>
     <row r="154">
       <c r="A154" t="s">
         <v>0</v>
       </c>
       <c r="B154" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="155">
@@ -4257,10 +4281,10 @@
         <v>3</v>
       </c>
       <c r="B156" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C156" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="157">
@@ -4268,10 +4292,10 @@
         <v>3</v>
       </c>
       <c r="B157" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C157" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="158">
@@ -4279,28 +4303,43 @@
         <v>3</v>
       </c>
       <c r="B158" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C158" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159"/>
-      <c r="B159"/>
-      <c r="C159"/>
+      <c r="A159" t="s">
+        <v>3</v>
+      </c>
+      <c r="B159" t="s">
+        <v>300</v>
+      </c>
+      <c r="C159" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B160" t="s">
-        <v>298</v>
+        <v>303</v>
+      </c>
+      <c r="C160" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B161" t="s">
+        <v>305</v>
+      </c>
+      <c r="C161" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="162">
@@ -4308,10 +4347,10 @@
         <v>3</v>
       </c>
       <c r="B162" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C162" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="163">
@@ -4319,10 +4358,10 @@
         <v>3</v>
       </c>
       <c r="B163" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="C163" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
     <row r="164">
@@ -4330,10 +4369,10 @@
         <v>3</v>
       </c>
       <c r="B164" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C164" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="165">
@@ -4341,23 +4380,23 @@
         <v>3</v>
       </c>
       <c r="B165" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C165" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166"/>
-      <c r="B166"/>
-      <c r="C166"/>
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
     </row>
     <row r="167">
       <c r="A167" t="s">
         <v>0</v>
       </c>
       <c r="B167" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="168">
@@ -4370,10 +4409,10 @@
         <v>3</v>
       </c>
       <c r="B169" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C169" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="170">
@@ -4381,10 +4420,10 @@
         <v>3</v>
       </c>
       <c r="B170" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C170" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="171">
@@ -4392,50 +4431,50 @@
         <v>3</v>
       </c>
       <c r="B171" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="C171" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s">
-        <v>3</v>
-      </c>
-      <c r="B172" t="s">
-        <v>314</v>
-      </c>
-      <c r="C172" t="s">
-        <v>315</v>
-      </c>
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B173" t="s">
-        <v>316</v>
-      </c>
-      <c r="C173" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174"/>
-      <c r="B174"/>
-      <c r="C174"/>
+      <c r="A174" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B175" t="s">
-        <v>318</v>
+        <v>322</v>
+      </c>
+      <c r="C175" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B176" t="s">
+        <v>324</v>
+      </c>
+      <c r="C176" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="177">
@@ -4443,39 +4482,39 @@
         <v>3</v>
       </c>
       <c r="B177" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C177" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s">
-        <v>3</v>
-      </c>
-      <c r="B178" t="s">
-        <v>321</v>
-      </c>
-      <c r="C178" t="s">
-        <v>322</v>
-      </c>
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
     </row>
     <row r="179">
-      <c r="A179"/>
-      <c r="B179"/>
-      <c r="C179"/>
+      <c r="A179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B179" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B180" t="s">
-        <v>323</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B181" t="s">
+        <v>328</v>
+      </c>
+      <c r="C181" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="182">
@@ -4483,39 +4522,39 @@
         <v>3</v>
       </c>
       <c r="B182" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C182" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s">
-        <v>3</v>
-      </c>
-      <c r="B183" t="s">
-        <v>326</v>
-      </c>
-      <c r="C183" t="s">
-        <v>327</v>
-      </c>
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
     </row>
     <row r="184">
-      <c r="A184"/>
-      <c r="B184"/>
-      <c r="C184"/>
+      <c r="A184" t="s">
+        <v>0</v>
+      </c>
+      <c r="B184" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>0</v>
-      </c>
-      <c r="B185" t="s">
-        <v>328</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B186" t="s">
+        <v>333</v>
+      </c>
+      <c r="C186" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="187">
@@ -4523,10 +4562,10 @@
         <v>3</v>
       </c>
       <c r="B187" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C187" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="188">
@@ -4534,39 +4573,39 @@
         <v>3</v>
       </c>
       <c r="B188" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C188" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189"/>
-      <c r="B189"/>
-      <c r="C189"/>
+      <c r="A189" t="s">
+        <v>3</v>
+      </c>
+      <c r="B189" t="s">
+        <v>337</v>
+      </c>
+      <c r="C189" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="190">
-      <c r="A190" t="s">
-        <v>0</v>
-      </c>
-      <c r="B190" t="s">
-        <v>333</v>
-      </c>
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B191" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>3</v>
-      </c>
-      <c r="B192" t="s">
-        <v>334</v>
-      </c>
-      <c r="C192" t="s">
-        <v>335</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193">
@@ -4574,10 +4613,10 @@
         <v>3</v>
       </c>
       <c r="B193" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C193" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="194">
@@ -4585,39 +4624,39 @@
         <v>3</v>
       </c>
       <c r="B194" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C194" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195"/>
-      <c r="B195"/>
-      <c r="C195"/>
+      <c r="A195" t="s">
+        <v>3</v>
+      </c>
+      <c r="B195" t="s">
+        <v>345</v>
+      </c>
+      <c r="C195" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="196">
-      <c r="A196" t="s">
-        <v>0</v>
-      </c>
-      <c r="B196" t="s">
-        <v>340</v>
-      </c>
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>3</v>
-      </c>
-      <c r="B198" t="s">
-        <v>341</v>
-      </c>
-      <c r="C198" t="s">
-        <v>342</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199">
@@ -4625,181 +4664,181 @@
         <v>3</v>
       </c>
       <c r="B199" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C199" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200"/>
-      <c r="B200"/>
-      <c r="C200"/>
+      <c r="A200" t="s">
+        <v>3</v>
+      </c>
+      <c r="B200" t="s">
+        <v>350</v>
+      </c>
+      <c r="C200" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B201" t="s">
-        <v>345</v>
+        <v>352</v>
+      </c>
+      <c r="C201" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B202" t="s">
+        <v>354</v>
+      </c>
+      <c r="C202" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s">
-        <v>3</v>
-      </c>
-      <c r="B203" t="s">
-        <v>346</v>
-      </c>
-      <c r="C203" t="s">
-        <v>347</v>
-      </c>
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B204" t="s">
-        <v>348</v>
-      </c>
-      <c r="C204" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205"/>
-      <c r="B205"/>
-      <c r="C205"/>
+      <c r="A205" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B206" t="s">
-        <v>350</v>
+        <v>357</v>
+      </c>
+      <c r="C206" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B207" t="s">
+        <v>357</v>
+      </c>
+      <c r="C207" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s">
-        <v>3</v>
-      </c>
-      <c r="B208" t="s">
-        <v>351</v>
-      </c>
-      <c r="C208" t="s">
-        <v>352</v>
-      </c>
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B209" t="s">
-        <v>351</v>
-      </c>
-      <c r="C209" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210"/>
-      <c r="B210"/>
-      <c r="C210"/>
+      <c r="A210" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B211" t="s">
-        <v>354</v>
+        <v>361</v>
+      </c>
+      <c r="C211" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B212" t="s">
+        <v>363</v>
+      </c>
+      <c r="C212" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s">
-        <v>3</v>
-      </c>
-      <c r="B213" t="s">
-        <v>355</v>
-      </c>
-      <c r="C213" t="s">
-        <v>356</v>
-      </c>
+      <c r="A213" s="1"/>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B214" t="s">
-        <v>357</v>
-      </c>
-      <c r="C214" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215"/>
-      <c r="B215"/>
-      <c r="C215"/>
+      <c r="A215" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B216" t="s">
-        <v>359</v>
+        <v>366</v>
+      </c>
+      <c r="C216" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B217" t="s">
+        <v>368</v>
+      </c>
+      <c r="C217" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s">
-        <v>3</v>
-      </c>
-      <c r="B218" t="s">
-        <v>360</v>
-      </c>
-      <c r="C218" t="s">
-        <v>361</v>
-      </c>
+      <c r="A218" s="1"/>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B219" t="s">
-        <v>362</v>
-      </c>
-      <c r="C219" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>3</v>
-      </c>
-      <c r="B220" t="s">
-        <v>364</v>
-      </c>
-      <c r="C220" t="s">
-        <v>365</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221">
@@ -4807,10 +4846,10 @@
         <v>3</v>
       </c>
       <c r="B221" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C221" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="222">
@@ -4818,10 +4857,10 @@
         <v>3</v>
       </c>
       <c r="B222" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C222" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="223">
@@ -4829,10 +4868,10 @@
         <v>3</v>
       </c>
       <c r="B223" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C223" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="224">
@@ -4840,10 +4879,10 @@
         <v>3</v>
       </c>
       <c r="B224" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C224" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="225">
@@ -4851,10 +4890,10 @@
         <v>3</v>
       </c>
       <c r="B225" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C225" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="226">
@@ -4862,50 +4901,50 @@
         <v>3</v>
       </c>
       <c r="B226" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C226" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s">
-        <v>3</v>
-      </c>
-      <c r="B227" t="s">
-        <v>378</v>
-      </c>
-      <c r="C227" t="s">
-        <v>379</v>
-      </c>
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B228" t="s">
-        <v>380</v>
-      </c>
-      <c r="C228" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229"/>
-      <c r="B229"/>
-      <c r="C229"/>
+      <c r="A229" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B230" t="s">
-        <v>382</v>
+        <v>384</v>
+      </c>
+      <c r="C230" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B231" t="s">
+        <v>384</v>
+      </c>
+      <c r="C231" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="232">
@@ -4913,39 +4952,39 @@
         <v>3</v>
       </c>
       <c r="B232" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C232" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s">
-        <v>3</v>
-      </c>
-      <c r="B233" t="s">
-        <v>385</v>
-      </c>
-      <c r="C233" t="s">
-        <v>386</v>
-      </c>
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
     </row>
     <row r="234">
-      <c r="A234"/>
-      <c r="B234"/>
-      <c r="C234"/>
+      <c r="A234" t="s">
+        <v>0</v>
+      </c>
+      <c r="B234" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>0</v>
-      </c>
-      <c r="B235" t="s">
-        <v>387</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B236" t="s">
+        <v>389</v>
+      </c>
+      <c r="C236" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="237">
@@ -4953,254 +4992,239 @@
         <v>3</v>
       </c>
       <c r="B237" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C237" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="s">
-        <v>3</v>
-      </c>
-      <c r="B238" t="s">
-        <v>390</v>
-      </c>
-      <c r="C238" t="s">
-        <v>391</v>
-      </c>
+      <c r="A238" s="1"/>
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B239" t="s">
-        <v>392</v>
-      </c>
-      <c r="C239" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240"/>
-      <c r="B240"/>
-      <c r="C240"/>
+      <c r="A240" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B241" t="s">
         <v>394</v>
       </c>
+      <c r="C241" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B242" t="s">
+        <v>396</v>
+      </c>
+      <c r="C242" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="s">
-        <v>3</v>
-      </c>
-      <c r="B243" t="s">
-        <v>395</v>
-      </c>
-      <c r="C243" t="s">
-        <v>396</v>
-      </c>
+      <c r="A243" s="1"/>
+      <c r="B243" s="1"/>
+      <c r="C243" s="1"/>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B244" t="s">
-        <v>397</v>
-      </c>
-      <c r="C244" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>3</v>
-      </c>
-      <c r="B245" t="s">
-        <v>395</v>
-      </c>
-      <c r="C245" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>3</v>
+      </c>
+      <c r="B246" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="246">
-      <c r="A246"/>
-      <c r="B246"/>
-      <c r="C246"/>
+      <c r="C246" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B247" t="s">
-        <v>400</v>
+        <v>401</v>
+      </c>
+      <c r="C247" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s">
-        <v>2</v>
-      </c>
+      <c r="A248" s="1"/>
+      <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B249" t="s">
-        <v>401</v>
-      </c>
-      <c r="C249" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>3</v>
-      </c>
-      <c r="B250" t="s">
-        <v>403</v>
-      </c>
-      <c r="C250" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>3</v>
+      </c>
+      <c r="B251" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="251">
-      <c r="A251"/>
-      <c r="B251"/>
-      <c r="C251"/>
+      <c r="C251" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B252" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="C252" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="s">
-        <v>2</v>
-      </c>
+      <c r="A253" s="1"/>
+      <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B254" t="s">
-        <v>406</v>
-      </c>
-      <c r="C254" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>3</v>
-      </c>
-      <c r="B255" t="s">
-        <v>406</v>
-      </c>
-      <c r="C255" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>3</v>
+      </c>
+      <c r="B256" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="256">
-      <c r="A256"/>
-      <c r="B256"/>
-      <c r="C256"/>
+      <c r="C256" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B257" t="s">
-        <v>409</v>
+        <v>410</v>
+      </c>
+      <c r="C257" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B258" t="s">
+        <v>412</v>
+      </c>
+      <c r="C258" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="s">
-        <v>3</v>
-      </c>
-      <c r="B259" t="s">
-        <v>410</v>
-      </c>
-      <c r="C259" t="s">
-        <v>411</v>
-      </c>
+      <c r="A259" s="1"/>
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B260" t="s">
-        <v>412</v>
-      </c>
-      <c r="C260" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261"/>
-      <c r="B261"/>
-      <c r="C261"/>
+      <c r="A261" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B262" t="s">
-        <v>414</v>
+        <v>415</v>
+      </c>
+      <c r="C262" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B263" t="s">
+        <v>417</v>
+      </c>
+      <c r="C263" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="s">
-        <v>3</v>
-      </c>
-      <c r="B264" t="s">
-        <v>415</v>
-      </c>
-      <c r="C264" t="s">
-        <v>416</v>
-      </c>
+      <c r="A264" s="1"/>
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B265" t="s">
-        <v>417</v>
-      </c>
-      <c r="C265" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>3</v>
-      </c>
-      <c r="B266" t="s">
-        <v>419</v>
-      </c>
-      <c r="C266" t="s">
-        <v>420</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267">
@@ -5208,39 +5232,39 @@
         <v>3</v>
       </c>
       <c r="B267" t="s">
+        <v>420</v>
+      </c>
+      <c r="C267" t="s">
         <v>421</v>
       </c>
-      <c r="C267" t="s">
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>3</v>
+      </c>
+      <c r="B268" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="268">
-      <c r="A268"/>
-      <c r="B268"/>
-      <c r="C268"/>
+      <c r="C268" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="269">
-      <c r="A269" t="s">
-        <v>0</v>
-      </c>
-      <c r="B269" t="s">
-        <v>423</v>
-      </c>
+      <c r="A269" s="1"/>
+      <c r="B269" s="1"/>
+      <c r="C269" s="1"/>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B270" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>3</v>
-      </c>
-      <c r="B271" t="s">
-        <v>424</v>
-      </c>
-      <c r="C271" t="s">
-        <v>425</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272">
@@ -5248,39 +5272,39 @@
         <v>3</v>
       </c>
       <c r="B272" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C272" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273"/>
-      <c r="B273"/>
-      <c r="C273"/>
+      <c r="A273" t="s">
+        <v>3</v>
+      </c>
+      <c r="B273" t="s">
+        <v>425</v>
+      </c>
+      <c r="C273" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="274">
-      <c r="A274" t="s">
-        <v>0</v>
-      </c>
-      <c r="B274" t="s">
-        <v>427</v>
-      </c>
+      <c r="A274" s="1"/>
+      <c r="B274" s="1"/>
+      <c r="C274" s="1"/>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B275" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>3</v>
-      </c>
-      <c r="B276" t="s">
-        <v>428</v>
-      </c>
-      <c r="C276" t="s">
-        <v>429</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277">
@@ -5288,50 +5312,50 @@
         <v>3</v>
       </c>
       <c r="B277" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C277" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="278">
-      <c r="A278"/>
-      <c r="B278"/>
-      <c r="C278"/>
+      <c r="A278" t="s">
+        <v>3</v>
+      </c>
+      <c r="B278" t="s">
+        <v>431</v>
+      </c>
+      <c r="C278" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B279" t="s">
-        <v>431</v>
+        <v>433</v>
+      </c>
+      <c r="C279" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="s">
-        <v>2</v>
-      </c>
+      <c r="A280" s="1"/>
+      <c r="B280" s="1"/>
+      <c r="C280" s="1"/>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B281" t="s">
-        <v>432</v>
-      </c>
-      <c r="C281" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>3</v>
-      </c>
-      <c r="B282" t="s">
-        <v>434</v>
-      </c>
-      <c r="C282" t="s">
-        <v>435</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283">
@@ -5339,39 +5363,39 @@
         <v>3</v>
       </c>
       <c r="B283" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C283" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>3</v>
+      </c>
+      <c r="B284" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="284">
-      <c r="A284"/>
-      <c r="B284"/>
-      <c r="C284"/>
+      <c r="C284" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="285">
-      <c r="A285" t="s">
-        <v>0</v>
-      </c>
-      <c r="B285" t="s">
-        <v>437</v>
-      </c>
+      <c r="A285" s="1"/>
+      <c r="B285" s="1"/>
+      <c r="C285" s="1"/>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B286" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>3</v>
-      </c>
-      <c r="B287" t="s">
-        <v>438</v>
-      </c>
-      <c r="C287" t="s">
-        <v>439</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288">
@@ -5386,32 +5410,32 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289"/>
-      <c r="B289"/>
-      <c r="C289"/>
+      <c r="A289" t="s">
+        <v>3</v>
+      </c>
+      <c r="B289" t="s">
+        <v>440</v>
+      </c>
+      <c r="C289" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="290">
-      <c r="A290" t="s">
-        <v>0</v>
-      </c>
-      <c r="B290" t="s">
-        <v>442</v>
-      </c>
+      <c r="A290" s="1"/>
+      <c r="B290" s="1"/>
+      <c r="C290" s="1"/>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B291" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>3</v>
-      </c>
-      <c r="B292" t="s">
-        <v>443</v>
-      </c>
-      <c r="C292" t="s">
-        <v>444</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293">
@@ -5419,39 +5443,39 @@
         <v>3</v>
       </c>
       <c r="B293" t="s">
+        <v>444</v>
+      </c>
+      <c r="C293" t="s">
         <v>445</v>
       </c>
-      <c r="C293" t="s">
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>3</v>
+      </c>
+      <c r="B294" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="294">
-      <c r="A294"/>
-      <c r="B294"/>
-      <c r="C294"/>
+      <c r="C294" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="295">
-      <c r="A295" t="s">
-        <v>0</v>
-      </c>
-      <c r="B295" t="s">
-        <v>447</v>
-      </c>
+      <c r="A295" s="1"/>
+      <c r="B295" s="1"/>
+      <c r="C295" s="1"/>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B296" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>3</v>
-      </c>
-      <c r="B297" t="s">
-        <v>448</v>
-      </c>
-      <c r="C297" t="s">
-        <v>449</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298">
@@ -5459,7 +5483,7 @@
         <v>3</v>
       </c>
       <c r="B298" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C298" t="s">
         <v>450</v>
@@ -5488,32 +5512,32 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301"/>
-      <c r="B301"/>
-      <c r="C301"/>
+      <c r="A301" t="s">
+        <v>3</v>
+      </c>
+      <c r="B301" t="s">
+        <v>455</v>
+      </c>
+      <c r="C301" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="302">
-      <c r="A302" t="s">
-        <v>0</v>
-      </c>
-      <c r="B302" t="s">
-        <v>455</v>
-      </c>
+      <c r="A302" s="1"/>
+      <c r="B302" s="1"/>
+      <c r="C302" s="1"/>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B303" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>3</v>
-      </c>
-      <c r="B304" t="s">
-        <v>456</v>
-      </c>
-      <c r="C304" t="s">
-        <v>457</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305">
@@ -5528,32 +5552,32 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306"/>
-      <c r="B306"/>
-      <c r="C306"/>
+      <c r="A306" t="s">
+        <v>3</v>
+      </c>
+      <c r="B306" t="s">
+        <v>460</v>
+      </c>
+      <c r="C306" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="307">
-      <c r="A307" t="s">
-        <v>0</v>
-      </c>
-      <c r="B307" t="s">
-        <v>460</v>
-      </c>
+      <c r="A307" s="1"/>
+      <c r="B307" s="1"/>
+      <c r="C307" s="1"/>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B308" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>3</v>
-      </c>
-      <c r="B309" t="s">
-        <v>461</v>
-      </c>
-      <c r="C309" t="s">
-        <v>462</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310">
@@ -5583,10 +5607,10 @@
         <v>3</v>
       </c>
       <c r="B312" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C312" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="313">
@@ -5594,10 +5618,10 @@
         <v>3</v>
       </c>
       <c r="B313" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C313" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="314">
@@ -5605,10 +5629,10 @@
         <v>3</v>
       </c>
       <c r="B314" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C314" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="315">
@@ -5616,7 +5640,7 @@
         <v>3</v>
       </c>
       <c r="B315" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C315" t="s">
         <v>473</v>
@@ -5627,10 +5651,10 @@
         <v>3</v>
       </c>
       <c r="B316" t="s">
+        <v>471</v>
+      </c>
+      <c r="C316" t="s">
         <v>474</v>
-      </c>
-      <c r="C316" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="317">
@@ -5638,10 +5662,10 @@
         <v>3</v>
       </c>
       <c r="B317" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C317" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="318">
@@ -5649,28 +5673,43 @@
         <v>3</v>
       </c>
       <c r="B318" t="s">
+        <v>476</v>
+      </c>
+      <c r="C318" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>3</v>
+      </c>
+      <c r="B319" t="s">
+        <v>476</v>
+      </c>
+      <c r="C319" t="s">
         <v>478</v>
       </c>
-      <c r="C318" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319"/>
-      <c r="B319"/>
-      <c r="C319"/>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B320" t="s">
+        <v>479</v>
+      </c>
+      <c r="C320" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B321" t="s">
+        <v>476</v>
+      </c>
+      <c r="C321" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="322">
@@ -5678,7 +5717,7 @@
         <v>3</v>
       </c>
       <c r="B322" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C322" t="s">
         <v>482</v>
@@ -5696,54 +5735,54 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324"/>
-      <c r="B324"/>
-      <c r="C324"/>
+      <c r="A324" t="s">
+        <v>3</v>
+      </c>
+      <c r="B324" t="s">
+        <v>483</v>
+      </c>
+      <c r="C324" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B325" t="s">
-        <v>485</v>
+        <v>486</v>
+      </c>
+      <c r="C325" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B326" t="s">
+        <v>488</v>
+      </c>
+      <c r="C326" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="s">
-        <v>3</v>
-      </c>
-      <c r="B327" t="s">
-        <v>486</v>
-      </c>
-      <c r="C327" t="s">
-        <v>487</v>
-      </c>
+      <c r="A327" s="1"/>
+      <c r="B327" s="1"/>
+      <c r="C327" s="1"/>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B328" t="s">
-        <v>488</v>
-      </c>
-      <c r="C328" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>3</v>
-      </c>
-      <c r="B329" t="s">
-        <v>490</v>
-      </c>
-      <c r="C329" t="s">
-        <v>491</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330">
@@ -5751,28 +5790,43 @@
         <v>3</v>
       </c>
       <c r="B330" t="s">
+        <v>491</v>
+      </c>
+      <c r="C330" t="s">
         <v>492</v>
       </c>
-      <c r="C330" t="s">
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>3</v>
+      </c>
+      <c r="B331" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="331">
-      <c r="A331"/>
-      <c r="B331"/>
-      <c r="C331"/>
+      <c r="C331" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B332" t="s">
-        <v>494</v>
+        <v>491</v>
+      </c>
+      <c r="C332" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B333" t="s">
+        <v>496</v>
+      </c>
+      <c r="C333" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="334">
@@ -5780,10 +5834,10 @@
         <v>3</v>
       </c>
       <c r="B334" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C334" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="335">
@@ -5791,23 +5845,23 @@
         <v>3</v>
       </c>
       <c r="B335" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C335" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="336">
-      <c r="A336"/>
-      <c r="B336"/>
-      <c r="C336"/>
+      <c r="A336" s="1"/>
+      <c r="B336" s="1"/>
+      <c r="C336" s="1"/>
     </row>
     <row r="337">
       <c r="A337" t="s">
         <v>0</v>
       </c>
       <c r="B337" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="338">
@@ -5820,10 +5874,10 @@
         <v>3</v>
       </c>
       <c r="B339" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C339" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="340">
@@ -5831,10 +5885,10 @@
         <v>3</v>
       </c>
       <c r="B340" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C340" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="341">
@@ -5842,39 +5896,39 @@
         <v>3</v>
       </c>
       <c r="B341" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C341" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="s">
-        <v>3</v>
-      </c>
-      <c r="B342" t="s">
-        <v>506</v>
-      </c>
-      <c r="C342" t="s">
-        <v>507</v>
-      </c>
+      <c r="A342" s="1"/>
+      <c r="B342" s="1"/>
+      <c r="C342" s="1"/>
     </row>
     <row r="343">
-      <c r="A343"/>
-      <c r="B343"/>
-      <c r="C343"/>
+      <c r="A343" t="s">
+        <v>0</v>
+      </c>
+      <c r="B343" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>0</v>
-      </c>
-      <c r="B344" t="s">
-        <v>508</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B345" t="s">
+        <v>509</v>
+      </c>
+      <c r="C345" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="346">
@@ -5882,163 +5936,148 @@
         <v>3</v>
       </c>
       <c r="B346" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C346" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="s">
-        <v>3</v>
-      </c>
-      <c r="B347" t="s">
-        <v>511</v>
-      </c>
-      <c r="C347" t="s">
-        <v>512</v>
-      </c>
+      <c r="A347" s="1"/>
+      <c r="B347" s="1"/>
+      <c r="C347" s="1"/>
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B348" t="s">
         <v>513</v>
       </c>
-      <c r="C348" t="s">
-        <v>514</v>
-      </c>
     </row>
     <row r="349">
-      <c r="A349"/>
-      <c r="B349"/>
-      <c r="C349"/>
+      <c r="A349" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B350" t="s">
+        <v>514</v>
+      </c>
+      <c r="C350" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B351" t="s">
+        <v>516</v>
+      </c>
+      <c r="C351" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="s">
-        <v>3</v>
-      </c>
-      <c r="B352" t="s">
-        <v>516</v>
-      </c>
-      <c r="C352" t="s">
-        <v>517</v>
-      </c>
+      <c r="A352" s="1"/>
+      <c r="B352" s="1"/>
+      <c r="C352" s="1"/>
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B353" t="s">
-        <v>516</v>
-      </c>
-      <c r="C353" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="354">
-      <c r="A354"/>
-      <c r="B354"/>
-      <c r="C354"/>
+      <c r="A354" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B355" t="s">
         <v>519</v>
       </c>
+      <c r="C355" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B356" t="s">
+        <v>519</v>
+      </c>
+      <c r="C356" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="357">
-      <c r="A357" t="s">
-        <v>3</v>
-      </c>
-      <c r="B357" t="s">
-        <v>520</v>
-      </c>
-      <c r="C357" t="s">
-        <v>521</v>
-      </c>
+      <c r="A357" s="1"/>
+      <c r="B357" s="1"/>
+      <c r="C357" s="1"/>
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B358" t="s">
         <v>522</v>
       </c>
-      <c r="C358" t="s">
-        <v>523</v>
-      </c>
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>3</v>
-      </c>
-      <c r="B359" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>3</v>
+      </c>
+      <c r="B360" t="s">
+        <v>523</v>
+      </c>
+      <c r="C360" t="s">
         <v>524</v>
       </c>
-      <c r="C359" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360"/>
-      <c r="B360"/>
-      <c r="C360"/>
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B361" t="s">
+        <v>525</v>
+      </c>
+      <c r="C361" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="s">
-        <v>2</v>
-      </c>
+      <c r="A362" s="1"/>
+      <c r="B362" s="1"/>
+      <c r="C362" s="1"/>
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B363" t="s">
         <v>527</v>
       </c>
-      <c r="C363" t="s">
-        <v>528</v>
-      </c>
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>3</v>
-      </c>
-      <c r="B364" t="s">
-        <v>529</v>
-      </c>
-      <c r="C364" t="s">
-        <v>530</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365">
@@ -6046,101 +6085,101 @@
         <v>3</v>
       </c>
       <c r="B365" t="s">
+        <v>528</v>
+      </c>
+      <c r="C365" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>3</v>
+      </c>
+      <c r="B366" t="s">
+        <v>530</v>
+      </c>
+      <c r="C366" t="s">
         <v>531</v>
       </c>
-      <c r="C365" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366"/>
-      <c r="B366"/>
-      <c r="C366"/>
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B367" t="s">
+        <v>532</v>
+      </c>
+      <c r="C367" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="s">
-        <v>2</v>
-      </c>
+      <c r="A368" s="1"/>
+      <c r="B368" s="1"/>
+      <c r="C368" s="1"/>
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B369" t="s">
         <v>534</v>
       </c>
-      <c r="C369" t="s">
-        <v>535</v>
-      </c>
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>3</v>
-      </c>
-      <c r="B370" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>3</v>
+      </c>
+      <c r="B371" t="s">
+        <v>535</v>
+      </c>
+      <c r="C371" t="s">
         <v>536</v>
       </c>
-      <c r="C370" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371"/>
-      <c r="B371"/>
-      <c r="C371"/>
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B372" t="s">
+        <v>537</v>
+      </c>
+      <c r="C372" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B373" t="s">
+        <v>535</v>
+      </c>
+      <c r="C373" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="374">
-      <c r="A374" t="s">
-        <v>3</v>
-      </c>
-      <c r="B374" t="s">
-        <v>539</v>
-      </c>
-      <c r="C374" t="s">
-        <v>540</v>
-      </c>
+      <c r="A374" s="1"/>
+      <c r="B374" s="1"/>
+      <c r="C374" s="1"/>
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B375" t="s">
-        <v>541</v>
-      </c>
-      <c r="C375" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>3</v>
-      </c>
-      <c r="B376" t="s">
-        <v>539</v>
-      </c>
-      <c r="C376" t="s">
-        <v>543</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377">
@@ -6148,10 +6187,10 @@
         <v>3</v>
       </c>
       <c r="B377" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C377" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="378">
@@ -6159,10 +6198,10 @@
         <v>3</v>
       </c>
       <c r="B378" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C378" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="379">
@@ -6170,28 +6209,43 @@
         <v>3</v>
       </c>
       <c r="B379" t="s">
+        <v>545</v>
+      </c>
+      <c r="C379" t="s">
         <v>546</v>
       </c>
-      <c r="C379" t="s">
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>3</v>
+      </c>
+      <c r="B380" t="s">
+        <v>547</v>
+      </c>
+      <c r="C380" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="380">
-      <c r="A380"/>
-      <c r="B380"/>
-      <c r="C380"/>
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B381" t="s">
         <v>549</v>
       </c>
+      <c r="C381" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B382" t="s">
+        <v>551</v>
+      </c>
+      <c r="C382" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="383">
@@ -6199,10 +6253,10 @@
         <v>3</v>
       </c>
       <c r="B383" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="C383" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="384">
@@ -6210,28 +6264,43 @@
         <v>3</v>
       </c>
       <c r="B384" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="C384" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="385">
-      <c r="A385"/>
-      <c r="B385"/>
-      <c r="C385"/>
+      <c r="A385" t="s">
+        <v>3</v>
+      </c>
+      <c r="B385" t="s">
+        <v>557</v>
+      </c>
+      <c r="C385" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B386" t="s">
-        <v>553</v>
+        <v>559</v>
+      </c>
+      <c r="C386" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B387" t="s">
+        <v>561</v>
+      </c>
+      <c r="C387" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="388">
@@ -6239,10 +6308,10 @@
         <v>3</v>
       </c>
       <c r="B388" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="C388" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
     </row>
     <row r="389">
@@ -6250,10 +6319,10 @@
         <v>3</v>
       </c>
       <c r="B389" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="C389" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
     </row>
     <row r="390">
@@ -6261,10 +6330,10 @@
         <v>3</v>
       </c>
       <c r="B390" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="C390" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
     </row>
     <row r="391">
@@ -6272,10 +6341,10 @@
         <v>3</v>
       </c>
       <c r="B391" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="C391" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
     </row>
     <row r="392">
@@ -6283,10 +6352,10 @@
         <v>3</v>
       </c>
       <c r="B392" t="s">
-        <v>554</v>
+        <v>571</v>
       </c>
       <c r="C392" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="393">
@@ -6294,28 +6363,43 @@
         <v>3</v>
       </c>
       <c r="B393" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="C393" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
     </row>
     <row r="394">
-      <c r="A394"/>
-      <c r="B394"/>
-      <c r="C394"/>
+      <c r="A394" t="s">
+        <v>3</v>
+      </c>
+      <c r="B394" t="s">
+        <v>575</v>
+      </c>
+      <c r="C394" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B395" t="s">
-        <v>565</v>
+        <v>577</v>
+      </c>
+      <c r="C395" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B396" t="s">
+        <v>579</v>
+      </c>
+      <c r="C396" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="397">
@@ -6323,43 +6407,28 @@
         <v>3</v>
       </c>
       <c r="B397" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="C397" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
     </row>
     <row r="398">
-      <c r="A398" t="s">
-        <v>3</v>
-      </c>
-      <c r="B398" t="s">
-        <v>568</v>
-      </c>
-      <c r="C398" t="s">
-        <v>569</v>
-      </c>
+      <c r="A398" s="1"/>
+      <c r="B398" s="1"/>
+      <c r="C398" s="1"/>
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B399" t="s">
-        <v>570</v>
-      </c>
-      <c r="C399" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>3</v>
-      </c>
-      <c r="B400" t="s">
-        <v>572</v>
-      </c>
-      <c r="C400" t="s">
-        <v>573</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401">
@@ -6367,10 +6436,10 @@
         <v>3</v>
       </c>
       <c r="B401" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="C401" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
     </row>
     <row r="402">
@@ -6378,23 +6447,23 @@
         <v>3</v>
       </c>
       <c r="B402" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="C402" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
     </row>
     <row r="403">
-      <c r="A403"/>
-      <c r="B403"/>
-      <c r="C403"/>
+      <c r="A403" s="1"/>
+      <c r="B403" s="1"/>
+      <c r="C403" s="1"/>
     </row>
     <row r="404">
       <c r="A404" t="s">
         <v>0</v>
       </c>
       <c r="B404" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
     </row>
     <row r="405">
@@ -6407,10 +6476,10 @@
         <v>3</v>
       </c>
       <c r="B406" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="C406" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
     </row>
     <row r="407">
@@ -6418,43 +6487,28 @@
         <v>3</v>
       </c>
       <c r="B407" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="C407" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
     </row>
     <row r="408">
-      <c r="A408" t="s">
-        <v>3</v>
-      </c>
-      <c r="B408" t="s">
-        <v>583</v>
-      </c>
-      <c r="C408" t="s">
-        <v>584</v>
-      </c>
+      <c r="A408" s="1"/>
+      <c r="B408" s="1"/>
+      <c r="C408" s="1"/>
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B409" t="s">
-        <v>585</v>
-      </c>
-      <c r="C409" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>3</v>
-      </c>
-      <c r="B410" t="s">
-        <v>587</v>
-      </c>
-      <c r="C410" t="s">
-        <v>588</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411">
@@ -6462,10 +6516,10 @@
         <v>3</v>
       </c>
       <c r="B411" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="C411" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
     </row>
     <row r="412">
@@ -6473,43 +6527,28 @@
         <v>3</v>
       </c>
       <c r="B412" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="C412" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="413">
-      <c r="A413" t="s">
-        <v>3</v>
-      </c>
-      <c r="B413" t="s">
-        <v>587</v>
-      </c>
-      <c r="C413" t="s">
-        <v>591</v>
-      </c>
+      <c r="A413" s="1"/>
+      <c r="B413" s="1"/>
+      <c r="C413" s="1"/>
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B414" t="s">
-        <v>592</v>
-      </c>
-      <c r="C414" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>3</v>
-      </c>
-      <c r="B415" t="s">
-        <v>592</v>
-      </c>
-      <c r="C415" t="s">
-        <v>594</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416">
@@ -6517,10 +6556,10 @@
         <v>3</v>
       </c>
       <c r="B416" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="C416" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="417">
@@ -6528,43 +6567,28 @@
         <v>3</v>
       </c>
       <c r="B417" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="C417" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="418">
-      <c r="A418" t="s">
-        <v>3</v>
-      </c>
-      <c r="B418" t="s">
-        <v>592</v>
-      </c>
-      <c r="C418" t="s">
-        <v>598</v>
-      </c>
+      <c r="A418" s="1"/>
+      <c r="B418" s="1"/>
+      <c r="C418" s="1"/>
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B419" t="s">
-        <v>599</v>
-      </c>
-      <c r="C419" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>3</v>
-      </c>
-      <c r="B420" t="s">
-        <v>599</v>
-      </c>
-      <c r="C420" t="s">
-        <v>601</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421">
@@ -6590,9 +6614,9 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423"/>
-      <c r="B423"/>
-      <c r="C423"/>
+      <c r="A423" s="1"/>
+      <c r="B423" s="1"/>
+      <c r="C423" s="1"/>
     </row>
     <row r="424">
       <c r="A424" t="s">
@@ -6630,9 +6654,9 @@
       </c>
     </row>
     <row r="428">
-      <c r="A428"/>
-      <c r="B428"/>
-      <c r="C428"/>
+      <c r="A428" s="1"/>
+      <c r="B428" s="1"/>
+      <c r="C428" s="1"/>
     </row>
   </sheetData>
 </worksheet>

--- a/test_review/06-06.xlsx
+++ b/test_review/06-06.xlsx
@@ -239,6 +239,12 @@
     <t>实现BMC对多型号网卡的CSR适配、带内外信息采集及Redfish/Web/SNMP接口集成，确保告警配置验证与调速功能兼容性</t>
   </si>
   <si>
+    <t>支持查询 BMC 网口资源详细信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/38</t>
+  </si>
+  <si>
     <t>【需求】支持管理网卡MCX512A-ACUT</t>
   </si>
   <si>
@@ -311,12 +317,6 @@
     <t>https://gitcode.com/openUBMC/vpd/issues/36</t>
   </si>
   <si>
-    <t>支持查询 BMC 网口资源详细信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/38</t>
-  </si>
-  <si>
     <t>【需求】支持管理网卡SWIFT-2200N</t>
   </si>
   <si>
@@ -374,6 +374,792 @@
     <t>https://discuss.openubmc.cn//t/topic/317/1</t>
   </si>
   <si>
+    <t>BMC开发者如何解决固件并行升级总线互斥问题</t>
+  </si>
+  <si>
+    <t>【需求】支持固件升级流程总线互斥</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/21</t>
+  </si>
+  <si>
+    <t>固件升级流程总线互斥</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/10</t>
+  </si>
+  <si>
+    <t>【需求】能效管理固件升级流程总线互斥</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/11</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/11</t>
+  </si>
+  <si>
+    <t>如何确保BIOS测试命令在高可用环境中的兼容性</t>
+  </si>
+  <si>
+    <t>高可用环境BIOS执行test失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/800/1</t>
+  </si>
+  <si>
+    <t>组件内执行bingo test显示测试失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/594/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何在lscmd中显示和调试接口执行组件自定义命令用于在线调试</t>
+  </si>
+  <si>
+    <t>支持组件自定义命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/104</t>
+  </si>
+  <si>
+    <t>【需求】支持能效管理子系统组件自定义命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/17</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/7</t>
+  </si>
+  <si>
+    <t>【需求】支持组件自定义命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/21</t>
+  </si>
+  <si>
+    <t>BMC固件开发中如何确保网卡扩展与历史协议兼容</t>
+  </si>
+  <si>
+    <t>【需求】网卡适配组件兼容历史网卡功能</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/6</t>
+  </si>
+  <si>
+    <t>【需求】网卡支持南向部件驱动接口</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/17</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/18</t>
+  </si>
+  <si>
+    <t>BMC开发者在Redfish OEM定制中如何实现存储控制器属性查询</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish接口oem定制查询指定存储资源信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rack_mgmt/issues/2</t>
+  </si>
+  <si>
+    <t>【需求】支持厂商定制化显示存储控制器端口数</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/67</t>
+  </si>
+  <si>
+    <t>BMC开发者如何在直通场景下实现NVMe SSD自定义SMART监控</t>
+  </si>
+  <si>
+    <t>【需求】支持自定义SMART信息的NVMe SSD盘写放大监控</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/28</t>
+  </si>
+  <si>
+    <t>【需求】支持从带内获取SMART NVMe SSD盘冗余块信息并监控</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/24</t>
+  </si>
+  <si>
+    <t>【需求】支持获取NVMe SSD盘自定义SMART信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/27</t>
+  </si>
+  <si>
+    <t>【需求】支持从带内获取厂商SMART NVMe SSD盘冗余块信息并监控</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/10</t>
+  </si>
+  <si>
+    <t>【需求】支持自定义的SMART NVMe SSD盘亚健康检测</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/23</t>
+  </si>
+  <si>
+    <t>【需求】支持自定义SMART信息的NVMe SSD盘预估寿命新增计算参数</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/25</t>
+  </si>
+  <si>
+    <t>BMC开发中如何实现DPU网卡启动状态的实时检测与记录</t>
+  </si>
+  <si>
+    <t>【需求】支持DPU网卡启动完成标识记录</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/28</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/15</t>
+  </si>
+  <si>
+    <t>BMC开发者如何申请使用自动化测试框架</t>
+  </si>
+  <si>
+    <t>怎么申请使用kptest框架和itestsmart工具呢</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/665/1</t>
+  </si>
+  <si>
+    <t>kptest框架与KPTestOpenFramework工程、iTestSmart工具介绍</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/832/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何高效实现电链路统计数据采集接口</t>
+  </si>
+  <si>
+    <t>【需求】支持NPU参数面端口电链路数据采集</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/8</t>
+  </si>
+  <si>
+    <t>【需求】支持NPU参数面光模块数据采集接口增加电链路数据</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/7</t>
+  </si>
+  <si>
+    <t>BMC开发者需修正VPD中position描述的映射错误</t>
+  </si>
+  <si>
+    <t>vpd仓库platform.sr.png描述有误</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/360/1</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/2</t>
+  </si>
+  <si>
+    <t>BMC开发者实现升级时多签名机制兼容性</t>
+  </si>
+  <si>
+    <t>能否实现伙伴签名的openUBMC版本直接升级华为签名的各种固件？</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/335/1</t>
+  </si>
+  <si>
+    <t>伙伴openubmc版本如何支持升级华为签名固件版本和伙伴自己签名的固件版本均能成功？</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1083/1</t>
+  </si>
+  <si>
+    <t>使用openubmc进行bios固件升级，提示无效的升级包</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/182/1</t>
+  </si>
+  <si>
+    <t>刷了华为根的机器是否可以直接刷伙伴根</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/933/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何通过Redfish接口实现光模块老化预测功能开关</t>
+  </si>
+  <si>
+    <t>【需求】支持光模块老化故障预测功能开关</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/52</t>
+  </si>
+  <si>
+    <t>【修改描述】支持光模块老化预测功能开关使能</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/31</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现新的遥测配置管理接口</t>
+  </si>
+  <si>
+    <t>支持遥测上报配置管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/12</t>
+  </si>
+  <si>
+    <t>【需求】 支持遥测上报配置管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/37</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/16</t>
+  </si>
+  <si>
+    <t>【需求】可观测新增redfish、web接口及属性</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/29</t>
+  </si>
+  <si>
+    <t>BMC开发者如何优化RAID日志导出的时延与安全性</t>
+  </si>
+  <si>
+    <t>【需求】支持收集raid卡文本格式日志</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/32</t>
+  </si>
+  <si>
+    <t>【需求】支持一键搜集日志导出raid卡固件日志</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/31</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现SystemInfoTable属性的持久化存储以支持IPMI标准命令</t>
+  </si>
+  <si>
+    <t>IPMI2.0标准接口能力新增私有属性保存system info信息</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1100/1</t>
+  </si>
+  <si>
+    <t>【需求】支持Get System Info标准命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/12</t>
+  </si>
+  <si>
+    <t>【需求】支持Set System Info标准命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/13</t>
+  </si>
+  <si>
+    <t>BMC开发者如何提升社区UT IT测试覆盖率和工具贡献效率</t>
+  </si>
+  <si>
+    <t>openUBMC社区测试贡献规划</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/592/1</t>
+  </si>
+  <si>
+    <t>QA 运作规则讨论</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/209/1</t>
+  </si>
+  <si>
+    <t>openUBMC社区QA SIG运作</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/593/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现PCIe Switch Flash升级组件的集成</t>
+  </si>
+  <si>
+    <t>PCIe Switch 芯片的Flash升级</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/721/1</t>
+  </si>
+  <si>
+    <t>【讨论】PCIe Switch场景下如何加载PCIe卡</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/722/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何规避新增IPMI命令导致组件不可启动问题</t>
+  </si>
+  <si>
+    <t>pcie_device新增IPMI命令导致组件异常问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/595/1</t>
+  </si>
+  <si>
+    <t>非天池组件加载方式</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/610/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何在BIOS启动阶段禁用KVM/VNC键盘输入防止密码修改</t>
+  </si>
+  <si>
+    <t>支持BIOS启动过程禁止KVM/VNC键盘输入</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/19</t>
+  </si>
+  <si>
+    <t>支持BIOS在启动阶段禁用键盘</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/20</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现日志配置与系统路径的存储隔离迁移</t>
+  </si>
+  <si>
+    <t>支持日志存放位置隔离</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rootfs_user/issues/2</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/23</t>
+  </si>
+  <si>
+    <t>BMC开发者如何防范开发环境中的文件访问绕过漏洞</t>
+  </si>
+  <si>
+    <t>CVE-2025-31486</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/18</t>
+  </si>
+  <si>
+    <t>CVE-2025-46565</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/21</t>
+  </si>
+  <si>
+    <t>CVE-2025-32395</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/19</t>
+  </si>
+  <si>
+    <t>CVE-2025-30208</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/16</t>
+  </si>
+  <si>
+    <t>CVE-2025-31125</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/17</t>
+  </si>
+  <si>
+    <t>BMC开发者在资源树协作接口中如何解决属性约束冲突与内部实现暴露问题</t>
+  </si>
+  <si>
+    <t>支持通用硬件满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/98</t>
+  </si>
+  <si>
+    <t>【需求】power_mgmt组件接口支持配置PrivilegeMap信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/44</t>
+  </si>
+  <si>
+    <t>【需求】支持能效管理满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/12</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/13</t>
+  </si>
+  <si>
+    <t>【需求】thermal_mgmt组件接口支持配置PrivilegeMap信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/27</t>
+  </si>
+  <si>
+    <t>【需求】thermal_mgmt组件满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/24</t>
+  </si>
+  <si>
+    <t>支持框架资源树协作接口满足关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/38</t>
+  </si>
+  <si>
+    <t>【需求】支持异构算力满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manufacture/issues/2</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/pcie_device/issues/7</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/lsw/issues/2</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/22</t>
+  </si>
+  <si>
+    <t>【需求】支持通用硬件满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/12</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/22</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/17</t>
+  </si>
+  <si>
+    <t>支持基础服务满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/32</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/chassis/issues/3</t>
+  </si>
+  <si>
+    <t>资源树协作接口关键字满足使用原则和规范</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/6</t>
+  </si>
+  <si>
+    <t>支持安全管理满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/account/issues/6</t>
+  </si>
+  <si>
+    <t>BMC开发者如何高效管理openTelemetry API依赖组件</t>
+  </si>
+  <si>
+    <t>提供openTelemetry及依赖开源软件API能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/3</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/conan_index/issues/3</t>
+  </si>
+  <si>
+    <t>如何避免CRPS电源适配中SlotNumber配置错误</t>
+  </si>
+  <si>
+    <t>pmbus CRPS电源适配</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/240/1</t>
+  </si>
+  <si>
+    <t>电源适配指导</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1101/1</t>
+  </si>
+  <si>
+    <t>如何优化BMC日志、跟踪和度量数据的采集与存储效率</t>
+  </si>
+  <si>
+    <t>提供跟踪数据采集和存储能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/4</t>
+  </si>
+  <si>
+    <t>提供度量数据采集和存储能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/2</t>
+  </si>
+  <si>
+    <t>提供日志数据采集和存储能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/5</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现bingo SDK版本自动化兼容性校验</t>
+  </si>
+  <si>
+    <t>应支持bingo、构建工具、sdk之间的版本配套</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/414/1</t>
+  </si>
+  <si>
+    <t>【需求】bingo支持组件的全量二进制构建</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bingo/issues/12</t>
+  </si>
+  <si>
+    <t>BMC开发者确保SMBIOS协议解析Structure Header Length字段准确</t>
+  </si>
+  <si>
+    <t>解析SMBIOS协议04Type时出现异常</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/1</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/363/1</t>
+  </si>
+  <si>
+    <t>BMC开发者需统一板卡和MCU一键收集信息的存储路径与命名规范</t>
+  </si>
+  <si>
+    <t>【已评审】支持一键收集导出板卡信息，mcu信息</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/628/1</t>
+  </si>
+  <si>
+    <t>【需求】支持一键收集通用硬件信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/34</t>
+  </si>
+  <si>
+    <t>openUBMC一键收集介绍</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/290/1</t>
+  </si>
+  <si>
+    <t>【问题单】支持一键收集导出板卡信息，mcu信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/10</t>
+  </si>
+  <si>
+    <t>【需求】支持板卡硬件管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/15</t>
+  </si>
+  <si>
+    <t>基础通用问题FAQ</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/292/1</t>
+  </si>
+  <si>
+    <t>openUBMC各sig组本周(2025-0421-2025-0427)关闭issue统计</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/672/1</t>
+  </si>
+  <si>
+    <t>openUBMC各sig组本周(2025-0428~2025-0505)关闭issue统计</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/733/1</t>
+  </si>
+  <si>
+    <t>bmc-core SIG 入门指南</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/167/1</t>
+  </si>
+  <si>
+    <t>openUBMC各sig组本周(2025-0506~2025-0511)关闭issue统计</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/876/1</t>
+  </si>
+  <si>
+    <t>openUBMC品牌包定制指南</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/355/1</t>
+  </si>
+  <si>
+    <t>如何解决恢复出厂设置后BMC固件升级签名验证异常</t>
+  </si>
+  <si>
+    <t>恢复出厂设置后，BMC升级失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1065/1</t>
+  </si>
+  <si>
+    <t>BMC恢复出厂设置之后无法更新固件</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/831/1</t>
+  </si>
+  <si>
+    <t>恢复出厂设置时无法升级</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/11</t>
+  </si>
+  <si>
+    <t>BMC开发者需修正BIOS组件生效流程图的逻辑错误</t>
+  </si>
+  <si>
+    <t>bios组件生效流程流程图错误</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/17</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/19</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现PLDM协议获取网卡信息并集成接口展示</t>
+  </si>
+  <si>
+    <t>【需求】支持使用pldm协议获取网卡相关信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/20</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/19</t>
+  </si>
+  <si>
+    <t>BMC开发者如何修正ProcessorID属性类型以符合SMBIOS协议</t>
+  </si>
+  <si>
+    <t>bmc.kepler.Systems.Processor.CPU的ProcessorID为U32类型，与SMBIOS协议不一致</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/30</t>
+  </si>
+  <si>
+    <t>【问题单】CPU的ProcessorID属性定义与SMBIOS协议规定不符</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/75</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/47</t>
+  </si>
+  <si>
+    <t>CPU类的ProcessorID属性定义为U32类型，与SMBIOS协议范围（QWORD）不一致</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/362/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何高效配置3000W电源的PMbus告警属性</t>
+  </si>
+  <si>
+    <t>【需求】支持3000W电源管理，新增资源树私有属性CurrentModeLogic</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/account/issues/13</t>
+  </si>
+  <si>
+    <t>【需求】支持3000W电源管理，新增资源树bmc.kepler.Systems.PowerMgmt.OnePower.Status属性CMLStatus</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/44</t>
+  </si>
+  <si>
+    <t>【需求】支持电源继电器状态管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/45</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现CSR文件损坏的检测与自修复</t>
+  </si>
+  <si>
+    <t>CSR文件损坏之后的恢复能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/4</t>
+  </si>
+  <si>
+    <t>CSR文件损坏恢复能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/9</t>
+  </si>
+  <si>
+    <t>开发者在BMC Studio中需手动二次配置因器件库不完整。</t>
+  </si>
+  <si>
+    <t>BMC Studio工具使用反馈</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/714/1</t>
+  </si>
+  <si>
+    <t>[WIP]BMC Studio用户指南</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/221/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何解决固件升级中的证书校验失败</t>
+  </si>
+  <si>
+    <t>使用社区最新出包，升级hpm失败，查看m3log get cert fail!</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/498/1</t>
+  </si>
+  <si>
+    <t>最新 source 包烧录异常问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/173/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现NVMe MI over MCTP协议响应码的可靠解析</t>
+  </si>
+  <si>
+    <t>【需求】支持NVMe-mi over mctp的协议解析</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/33</t>
+  </si>
+  <si>
+    <t>【需求】支持解析nvme mi协议响应码信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/8</t>
+  </si>
+  <si>
     <t>标签包裹。</t>
   </si>
   <si>
@@ -389,25 +1175,154 @@
     <t>https://gitcode.com/openUBMC/network_adapter/issues/5</t>
   </si>
   <si>
-    <t>如何解决恢复出厂设置后BMC固件升级签名验证异常</t>
-  </si>
-  <si>
-    <t>恢复出厂设置后，BMC升级失败</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1065/1</t>
-  </si>
-  <si>
-    <t>BMC恢复出厂设置之后无法更新固件</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/831/1</t>
-  </si>
-  <si>
-    <t>恢复出厂设置时无法升级</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/11</t>
+    <t>BMC开发者如何更新通用和异构硬件适配文档资源</t>
+  </si>
+  <si>
+    <t>【需求】社区更新通用硬件相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/19</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/13</t>
+  </si>
+  <si>
+    <t>【需求】社区更新设备管理规范相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/14</t>
+  </si>
+  <si>
+    <t>【需求】社区补齐异构硬件相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/17</t>
+  </si>
+  <si>
+    <t>【需求】社区更新能效管理相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/16</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/20</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现Redfish接口查询指定PCIe设备资源信息</t>
+  </si>
+  <si>
+    <t>【需求】支持查询指定PCIEDevices资源信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/pcie_device/issues/5</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/16</t>
+  </si>
+  <si>
+    <t>BMC开发者如何适配BlueField系列设备的调速策略在openUBMC中</t>
+  </si>
+  <si>
+    <t>【需求】支持BlueField-3（B3220）的调速策略配置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/17</t>
+  </si>
+  <si>
+    <t>【需求】支持BlueField-2（332A）的调速策略</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/18</t>
+  </si>
+  <si>
+    <t>开发者实现Redfish Drive资源OEM接口时需解决NVM MI命令与硬件协议栈的兼容性整合</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制SendNvmeMICommand请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/40</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetIdentifyData请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/39</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetAddSmartInfo请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/37</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetTelemetryData请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/13</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/36</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetSmartInfo请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/38</t>
+  </si>
+  <si>
+    <t>BMC开发者需实现NVMe盘多型号识别与管理兼容性</t>
+  </si>
+  <si>
+    <t>【需求】支持新增华为厂商NVMe盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/41</t>
+  </si>
+  <si>
+    <t>【需求】支持新增Memblaze厂商NVMe盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/44</t>
+  </si>
+  <si>
+    <t>BMC开发者如何提升多模组固件升级健壮性</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组CSR固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/24</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组VRD固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/26</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组CPLD固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/25</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组MCU固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/27</t>
+  </si>
+  <si>
+    <t>CPLD 升级 MultipleSuppliersMode MIXED Mode 功能背景了解</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/886/1</t>
+  </si>
+  <si>
+    <t>【需求】支持MCU子固件升级时版本号校验</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/23</t>
   </si>
   <si>
     <t>BMC开发中如何解决Conan v1弃用导致的头文件缺失编译失败</t>
@@ -425,19 +1340,73 @@
     <t>https://gitcode.com/openUBMC/lsw/issues/1</t>
   </si>
   <si>
-    <t>BMC开发者如何实现bingo SDK版本自动化兼容性校验</t>
-  </si>
-  <si>
-    <t>应支持bingo、构建工具、sdk之间的版本配套</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/414/1</t>
-  </si>
-  <si>
-    <t>【需求】bingo支持组件的全量二进制构建</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bingo/issues/12</t>
+    <t>BMC开发者如何解决PXE阶段因POST未完成导致重启失败</t>
+  </si>
+  <si>
+    <t>【问题单】定制后bios处于PXE阶段时重启BMC失败</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/19</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/sensor/issues/10</t>
+  </si>
+  <si>
+    <t>BMC开发者如何统一实现查询指定处理器异构资源属性的Redfish接口</t>
+  </si>
+  <si>
+    <t>【需求】支持查询指定处理器资源信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/33</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/53</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/47</t>
+  </si>
+  <si>
+    <t>BMC开发者如何优化国密证书接口的异常提示机制</t>
+  </si>
+  <si>
+    <t>【需求】支持国密证书管理的接口优化</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/43</t>
+  </si>
+  <si>
+    <t>【需求】支持国密证书管理的北向接口配置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/23</t>
+  </si>
+  <si>
+    <t>BMC配置导出需新增产品类别和软件版本信息支持</t>
+  </si>
+  <si>
+    <t>配置导出项新增BMC软件版本信息和产品类别信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/13</t>
+  </si>
+  <si>
+    <t>配置导入导出新增产品类别信息和BMC软件版本信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/profile_schema/issues/2</t>
+  </si>
+  <si>
+    <t>提供BMC出厂配置定制指导</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/16</t>
+  </si>
+  <si>
+    <t>软件中心需要添加BMCStudio描述和下载页</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/software-center-config/issues/3</t>
   </si>
   <si>
     <t>BMC开发者如何设计CLI并发收集NPU/CPU日志的失败处理</t>
@@ -455,37 +1424,169 @@
     <t>https://gitcode.com/openUBMC/rackmount/issues/46</t>
   </si>
   <si>
-    <t>BMC开发者如何通过Redfish接口实现光模块老化预测功能开关</t>
-  </si>
-  <si>
-    <t>【需求】支持光模块老化故障预测功能开关</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/52</t>
-  </si>
-  <si>
-    <t>【修改描述】支持光模块老化预测功能开关使能</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/31</t>
-  </si>
-  <si>
-    <t>BMC固件开发中如何确保网卡扩展与历史协议兼容</t>
-  </si>
-  <si>
-    <t>【需求】网卡适配组件兼容历史网卡功能</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/6</t>
-  </si>
-  <si>
-    <t>【需求】网卡支持南向部件驱动接口</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/17</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/18</t>
+    <t>BMC开发者如何为thermal和power管理组件实现业务场景的白名单配置基线化</t>
+  </si>
+  <si>
+    <t>【需求】power_mgmt组件明确业务场景下的白名单化配置并形成基线</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/45</t>
+  </si>
+  <si>
+    <t>【需求】thermal_mgmt组件明确业务场景下的白名单化配置并形成基线</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/25</t>
+  </si>
+  <si>
+    <t>BMC开发者如何扩展升级接口参数处理并行升级错误场景</t>
+  </si>
+  <si>
+    <t>【需求】power_mgmt组件适配升级接口参数扩展</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/10</t>
+  </si>
+  <si>
+    <t>【需求】bios组件适配升级接口参数扩展</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/10</t>
+  </si>
+  <si>
+    <t>能效管理适配升级接口参数扩展</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/5</t>
+  </si>
+  <si>
+    <t>general_hardware组件适配升级接口参数</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/11</t>
+  </si>
+  <si>
+    <t>BMC开发者亟需开源应用框架开发指导文档</t>
+  </si>
+  <si>
+    <t>提供应用框架开发指导</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/15</t>
+  </si>
+  <si>
+    <t>【需求】社区提供开源项目开发者指南</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/webui/issues/19</t>
+  </si>
+  <si>
+    <t>BMC开发者如何通过Redfish和IPMI接口实现硬盘日志收集控制</t>
+  </si>
+  <si>
+    <t>【需求】支持硬盘诊断功能控制</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/106</t>
+  </si>
+  <si>
+    <t>【需求】硬盘诊断功能控制</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/112</t>
+  </si>
+  <si>
+    <t>【需求】支持服务器网络管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/25</t>
+  </si>
+  <si>
+    <t>【需求】支持存储管理能力基线</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/30</t>
+  </si>
+  <si>
+    <t>【需求】支持存储管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/35</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/7</t>
+  </si>
+  <si>
+    <t>BMC多组件共享白名单配置的维护复杂度问题</t>
+  </si>
+  <si>
+    <t>【需求】基于动态插桩拦截风险接口调用日志，形成通用化命令的白名单配置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/15</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/pcie_device/issues/4</t>
+  </si>
+  <si>
+    <t>解决BMC过渡包升级中签名链更新缺失导致的校验失败</t>
+  </si>
+  <si>
+    <t>制作反向过渡包时碰到的疑问</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/723/1</t>
+  </si>
+  <si>
+    <t>25.03构建出包以及伙伴签名问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/390/1</t>
+  </si>
+  <si>
+    <t>25.03版本的构建环境搭建：dockerfile创建镜像失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/409/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何高效构建仿真测试环境</t>
+  </si>
+  <si>
+    <t>OpenUBMC社区支持仿真镜像的构建与发布</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/qemu/issues/5</t>
+  </si>
+  <si>
+    <t>OpenUBMC社区支持仿真数据的发布</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/qemu/issues/4</t>
+  </si>
+  <si>
+    <t>OpenUBMC社区支持Qemu工具的构建与发布</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/qemu/issues/3</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现FPGA自检失败的告警模拟测试</t>
+  </si>
+  <si>
+    <t>【需求】支持FPGA固件周期自检失败的告警</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/30</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/84</t>
+  </si>
+  <si>
+    <t>支持FPGA固件周期自检失败的告警</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/45</t>
   </si>
   <si>
     <t>BMC开发者需解决一键部署中的Conan组件拉取机制稳定性问题</t>
@@ -530,732 +1631,6 @@
     <t>https://gitcode.com/openUBMC/rackmount/issues/32</t>
   </si>
   <si>
-    <t>BMC开发者如何统一实现查询指定处理器异构资源属性的Redfish接口</t>
-  </si>
-  <si>
-    <t>【需求】支持查询指定处理器资源信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/33</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/53</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/47</t>
-  </si>
-  <si>
-    <t>BMC开发者如何规避新增IPMI命令导致组件不可启动问题</t>
-  </si>
-  <si>
-    <t>pcie_device新增IPMI命令导致组件异常问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/595/1</t>
-  </si>
-  <si>
-    <t>非天池组件加载方式</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/610/1</t>
-  </si>
-  <si>
-    <t>BMC开发者在资源树协作接口中如何解决属性约束冲突与内部实现暴露问题</t>
-  </si>
-  <si>
-    <t>【需求】power_mgmt组件接口支持配置PrivilegeMap信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/44</t>
-  </si>
-  <si>
-    <t>【需求】支持能效管理满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/12</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/13</t>
-  </si>
-  <si>
-    <t>【需求】thermal_mgmt组件接口支持配置PrivilegeMap信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/27</t>
-  </si>
-  <si>
-    <t>【需求】thermal_mgmt组件满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/24</t>
-  </si>
-  <si>
-    <t>支持通用硬件满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/98</t>
-  </si>
-  <si>
-    <t>支持框架资源树协作接口满足关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/38</t>
-  </si>
-  <si>
-    <t>【需求】支持异构算力满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manufacture/issues/2</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/pcie_device/issues/7</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/lsw/issues/2</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/22</t>
-  </si>
-  <si>
-    <t>【需求】支持通用硬件满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/12</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/22</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/17</t>
-  </si>
-  <si>
-    <t>支持基础服务满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/32</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/chassis/issues/3</t>
-  </si>
-  <si>
-    <t>资源树协作接口关键字满足使用原则和规范</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/6</t>
-  </si>
-  <si>
-    <t>支持安全管理满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/account/issues/6</t>
-  </si>
-  <si>
-    <t>BMC开发者需统一板卡和MCU一键收集信息的存储路径与命名规范</t>
-  </si>
-  <si>
-    <t>【已评审】支持一键收集导出板卡信息，mcu信息</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/628/1</t>
-  </si>
-  <si>
-    <t>【需求】支持一键收集通用硬件信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/34</t>
-  </si>
-  <si>
-    <t>openUBMC一键收集介绍</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/290/1</t>
-  </si>
-  <si>
-    <t>【问题单】支持一键收集导出板卡信息，mcu信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/10</t>
-  </si>
-  <si>
-    <t>【需求】支持板卡硬件管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/15</t>
-  </si>
-  <si>
-    <t>基础通用问题FAQ</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/292/1</t>
-  </si>
-  <si>
-    <t>openUBMC各sig组本周(2025-0421-2025-0427)关闭issue统计</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/672/1</t>
-  </si>
-  <si>
-    <t>openUBMC各sig组本周(2025-0428~2025-0505)关闭issue统计</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/733/1</t>
-  </si>
-  <si>
-    <t>bmc-core SIG 入门指南</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/167/1</t>
-  </si>
-  <si>
-    <t>openUBMC各sig组本周(2025-0506~2025-0511)关闭issue统计</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/876/1</t>
-  </si>
-  <si>
-    <t>openUBMC品牌包定制指南</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/355/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何高效构建仿真测试环境</t>
-  </si>
-  <si>
-    <t>OpenUBMC社区支持仿真镜像的构建与发布</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/qemu/issues/5</t>
-  </si>
-  <si>
-    <t>OpenUBMC社区支持仿真数据的发布</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/qemu/issues/4</t>
-  </si>
-  <si>
-    <t>OpenUBMC社区支持Qemu工具的构建与发布</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/qemu/issues/3</t>
-  </si>
-  <si>
-    <t>如何确保BIOS测试命令在高可用环境中的兼容性</t>
-  </si>
-  <si>
-    <t>高可用环境BIOS执行test失败</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/800/1</t>
-  </si>
-  <si>
-    <t>组件内执行bingo test显示测试失败</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/594/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何申请使用自动化测试框架</t>
-  </si>
-  <si>
-    <t>怎么申请使用kptest框架和itestsmart工具呢</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/665/1</t>
-  </si>
-  <si>
-    <t>kptest框架与KPTestOpenFramework工程、iTestSmart工具介绍</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/832/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何提升多模组固件升级健壮性</t>
-  </si>
-  <si>
-    <t>【需求】支持多模组CSR固件升级健壮性提升</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/24</t>
-  </si>
-  <si>
-    <t>【需求】支持多模组VRD固件升级健壮性提升</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/26</t>
-  </si>
-  <si>
-    <t>【需求】支持多模组CPLD固件升级健壮性提升</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/25</t>
-  </si>
-  <si>
-    <t>【需求】支持多模组MCU固件升级健壮性提升</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/27</t>
-  </si>
-  <si>
-    <t>CPLD 升级 MultipleSuppliersMode MIXED Mode 功能背景了解</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/886/1</t>
-  </si>
-  <si>
-    <t>【需求】支持MCU子固件升级时版本号校验</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/23</t>
-  </si>
-  <si>
-    <t>BMC开发者如何高效管理openTelemetry API依赖组件</t>
-  </si>
-  <si>
-    <t>提供openTelemetry及依赖开源软件API能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/observability/issues/3</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/conan_index/issues/3</t>
-  </si>
-  <si>
-    <t>开发者实现Redfish Drive资源OEM接口时需解决NVM MI命令与硬件协议栈的兼容性整合</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制SendNvmeMICommand请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/40</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetIdentifyData请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/39</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetAddSmartInfo请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/37</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetTelemetryData请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/13</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/36</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetSmartInfo请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/38</t>
-  </si>
-  <si>
-    <t>BMC开发者如何适配BlueField系列设备的调速策略在openUBMC中</t>
-  </si>
-  <si>
-    <t>【需求】支持BlueField-3（B3220）的调速策略配置</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/17</t>
-  </si>
-  <si>
-    <t>【需求】支持BlueField-2（332A）的调速策略</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/18</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现SystemInfoTable属性的持久化存储以支持IPMI标准命令</t>
-  </si>
-  <si>
-    <t>IPMI2.0标准接口能力新增私有属性保存system info信息</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1100/1</t>
-  </si>
-  <si>
-    <t>【需求】支持Get System Info标准命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/12</t>
-  </si>
-  <si>
-    <t>【需求】支持Set System Info标准命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/13</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现日志配置与系统路径的存储隔离迁移</t>
-  </si>
-  <si>
-    <t>支持日志存放位置隔离</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rootfs_user/issues/2</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/23</t>
-  </si>
-  <si>
-    <t>BMC开发者如何解决固件并行升级总线互斥问题</t>
-  </si>
-  <si>
-    <t>【需求】支持固件升级流程总线互斥</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/21</t>
-  </si>
-  <si>
-    <t>固件升级流程总线互斥</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/10</t>
-  </si>
-  <si>
-    <t>【需求】能效管理固件升级流程总线互斥</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/11</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/11</t>
-  </si>
-  <si>
-    <t>BMC配置导出需新增产品类别和软件版本信息支持</t>
-  </si>
-  <si>
-    <t>配置导出项新增BMC软件版本信息和产品类别信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/13</t>
-  </si>
-  <si>
-    <t>配置导入导出新增产品类别信息和BMC软件版本信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/profile_schema/issues/2</t>
-  </si>
-  <si>
-    <t>提供BMC出厂配置定制指导</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/16</t>
-  </si>
-  <si>
-    <t>软件中心需要添加BMCStudio描述和下载页</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/software-center-config/issues/3</t>
-  </si>
-  <si>
-    <t>解决BMC过渡包升级中签名链更新缺失导致的校验失败</t>
-  </si>
-  <si>
-    <t>制作反向过渡包时碰到的疑问</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/723/1</t>
-  </si>
-  <si>
-    <t>25.03构建出包以及伙伴签名问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/390/1</t>
-  </si>
-  <si>
-    <t>25.03版本的构建环境搭建：dockerfile创建镜像失败</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/409/1</t>
-  </si>
-  <si>
-    <t>BMC开发者确保SMBIOS协议解析Structure Header Length字段准确</t>
-  </si>
-  <si>
-    <t>解析SMBIOS协议04Type时出现异常</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/1</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/363/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现FPGA自检失败的告警模拟测试</t>
-  </si>
-  <si>
-    <t>【需求】支持FPGA固件周期自检失败的告警</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/30</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/84</t>
-  </si>
-  <si>
-    <t>支持FPGA固件周期自检失败的告警</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/45</t>
-  </si>
-  <si>
-    <t>BMC开发者如何修正ProcessorID属性类型以符合SMBIOS协议</t>
-  </si>
-  <si>
-    <t>bmc.kepler.Systems.Processor.CPU的ProcessorID为U32类型，与SMBIOS协议不一致</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/30</t>
-  </si>
-  <si>
-    <t>【问题单】CPU的ProcessorID属性定义与SMBIOS协议规定不符</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/75</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/47</t>
-  </si>
-  <si>
-    <t>CPU类的ProcessorID属性定义为U32类型，与SMBIOS协议范围（QWORD）不一致</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/362/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何高效配置3000W电源的PMbus告警属性</t>
-  </si>
-  <si>
-    <t>【需求】支持3000W电源管理，新增资源树私有属性CurrentModeLogic</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/account/issues/13</t>
-  </si>
-  <si>
-    <t>【需求】支持3000W电源管理，新增资源树bmc.kepler.Systems.PowerMgmt.OnePower.Status属性CMLStatus</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/44</t>
-  </si>
-  <si>
-    <t>【需求】支持电源继电器状态管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/45</t>
-  </si>
-  <si>
-    <t>BMC开发中如何实现DPU网卡启动状态的实时检测与记录</t>
-  </si>
-  <si>
-    <t>【需求】支持DPU网卡启动完成标识记录</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/28</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/15</t>
-  </si>
-  <si>
-    <t>BMC开发者如何解决PXE阶段因POST未完成导致重启失败</t>
-  </si>
-  <si>
-    <t>【问题单】定制后bios处于PXE阶段时重启BMC失败</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/19</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/sensor/issues/10</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现新的遥测配置管理接口</t>
-  </si>
-  <si>
-    <t>支持遥测上报配置管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/12</t>
-  </si>
-  <si>
-    <t>【需求】 支持遥测上报配置管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/37</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/16</t>
-  </si>
-  <si>
-    <t>【需求】可观测新增redfish、web接口及属性</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/29</t>
-  </si>
-  <si>
-    <t>BMC开发者实现升级时多签名机制兼容性</t>
-  </si>
-  <si>
-    <t>能否实现伙伴签名的openUBMC版本直接升级华为签名的各种固件？</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/335/1</t>
-  </si>
-  <si>
-    <t>伙伴openubmc版本如何支持升级华为签名固件版本和伙伴自己签名的固件版本均能成功？</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1083/1</t>
-  </si>
-  <si>
-    <t>使用openubmc进行bios固件升级，提示无效的升级包</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/182/1</t>
-  </si>
-  <si>
-    <t>刷了华为根的机器是否可以直接刷伙伴根</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/933/1</t>
-  </si>
-  <si>
-    <t>开发者在BMC Studio中需手动二次配置因器件库不完整。</t>
-  </si>
-  <si>
-    <t>BMC Studio工具使用反馈</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/714/1</t>
-  </si>
-  <si>
-    <t>[WIP]BMC Studio用户指南</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/221/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何为thermal和power管理组件实现业务场景的白名单配置基线化</t>
-  </si>
-  <si>
-    <t>【需求】power_mgmt组件明确业务场景下的白名单化配置并形成基线</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/45</t>
-  </si>
-  <si>
-    <t>【需求】thermal_mgmt组件明确业务场景下的白名单化配置并形成基线</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/25</t>
-  </si>
-  <si>
-    <t>BMC开发者如何解决固件升级中的证书校验失败</t>
-  </si>
-  <si>
-    <t>使用社区最新出包，升级hpm失败，查看m3log get cert fail!</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/498/1</t>
-  </si>
-  <si>
-    <t>最新 source 包烧录异常问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/173/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何更新通用和异构硬件适配文档资源</t>
-  </si>
-  <si>
-    <t>【需求】社区更新通用硬件相关文档</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/19</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/13</t>
-  </si>
-  <si>
-    <t>【需求】社区更新设备管理规范相关文档</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/14</t>
-  </si>
-  <si>
-    <t>【需求】社区补齐异构硬件相关文档</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/17</t>
-  </si>
-  <si>
-    <t>【需求】社区更新能效管理相关文档</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/16</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/20</t>
-  </si>
-  <si>
-    <t>BMC开发者如何优化国密证书接口的异常提示机制</t>
-  </si>
-  <si>
-    <t>【需求】支持国密证书管理的接口优化</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/43</t>
-  </si>
-  <si>
-    <t>【需求】支持国密证书管理的北向接口配置</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/23</t>
-  </si>
-  <si>
-    <t>BMC开发者如何通过Redfish和IPMI接口实现硬盘日志收集控制</t>
-  </si>
-  <si>
-    <t>【需求】支持服务器网络管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/25</t>
-  </si>
-  <si>
-    <t>【需求】支持存储管理能力基线</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/30</t>
-  </si>
-  <si>
-    <t>【需求】支持存储管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/35</t>
-  </si>
-  <si>
-    <t>【需求】硬盘诊断功能控制</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/112</t>
-  </si>
-  <si>
-    <t>【需求】支持硬盘诊断功能控制</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/7</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/106</t>
-  </si>
-  <si>
     <t>BMC开发者如何统一实现多品牌新款SATA硬盘的纳管支持？</t>
   </si>
   <si>
@@ -1275,381 +1650,6 @@
   </si>
   <si>
     <t>https://gitcode.com/openUBMC/storage/issues/45</t>
-  </si>
-  <si>
-    <t>如何避免CRPS电源适配中SlotNumber配置错误</t>
-  </si>
-  <si>
-    <t>pmbus CRPS电源适配</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/240/1</t>
-  </si>
-  <si>
-    <t>电源适配指导</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1101/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现CSR文件损坏的检测与自修复</t>
-  </si>
-  <si>
-    <t>CSR文件损坏之后的恢复能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/4</t>
-  </si>
-  <si>
-    <t>CSR文件损坏恢复能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/9</t>
-  </si>
-  <si>
-    <t>BMC开发者需修正BIOS组件生效流程图的逻辑错误</t>
-  </si>
-  <si>
-    <t>bios组件生效流程流程图错误</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/17</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/19</t>
-  </si>
-  <si>
-    <t>BMC开发者如何在lscmd中显示和调试接口执行组件自定义命令用于在线调试</t>
-  </si>
-  <si>
-    <t>【需求】支持能效管理子系统组件自定义命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/17</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/7</t>
-  </si>
-  <si>
-    <t>【需求】支持组件自定义命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/21</t>
-  </si>
-  <si>
-    <t>支持组件自定义命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/104</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现NVMe MI over MCTP协议响应码的可靠解析</t>
-  </si>
-  <si>
-    <t>【需求】支持NVMe-mi over mctp的协议解析</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/33</t>
-  </si>
-  <si>
-    <t>【需求】支持解析nvme mi协议响应码信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/8</t>
-  </si>
-  <si>
-    <t>BMC开发者需实现NVMe盘多型号识别与管理兼容性</t>
-  </si>
-  <si>
-    <t>【需求】支持新增华为厂商NVMe盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/41</t>
-  </si>
-  <si>
-    <t>【需求】支持新增Memblaze厂商NVMe盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/44</t>
-  </si>
-  <si>
-    <t>如何优化BMC日志、跟踪和度量数据的采集与存储效率</t>
-  </si>
-  <si>
-    <t>提供跟踪数据采集和存储能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/observability/issues/4</t>
-  </si>
-  <si>
-    <t>提供度量数据采集和存储能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/observability/issues/2</t>
-  </si>
-  <si>
-    <t>提供日志数据采集和存储能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/observability/issues/5</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现PLDM协议获取网卡信息并集成接口展示</t>
-  </si>
-  <si>
-    <t>【需求】支持使用pldm协议获取网卡相关信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/20</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/19</t>
-  </si>
-  <si>
-    <t>BMC开发者如何在直通场景下实现NVMe SSD自定义SMART监控</t>
-  </si>
-  <si>
-    <t>【需求】支持自定义SMART信息的NVMe SSD盘写放大监控</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/28</t>
-  </si>
-  <si>
-    <t>【需求】支持从带内获取SMART NVMe SSD盘冗余块信息并监控</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/24</t>
-  </si>
-  <si>
-    <t>【需求】支持获取NVMe SSD盘自定义SMART信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/27</t>
-  </si>
-  <si>
-    <t>【需求】支持从带内获取厂商SMART NVMe SSD盘冗余块信息并监控</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/10</t>
-  </si>
-  <si>
-    <t>【需求】支持自定义的SMART NVMe SSD盘亚健康检测</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/23</t>
-  </si>
-  <si>
-    <t>【需求】支持自定义SMART信息的NVMe SSD盘预估寿命新增计算参数</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/25</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现PCIe Switch Flash升级组件的集成</t>
-  </si>
-  <si>
-    <t>PCIe Switch 芯片的Flash升级</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/721/1</t>
-  </si>
-  <si>
-    <t>【讨论】PCIe Switch场景下如何加载PCIe卡</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/722/1</t>
-  </si>
-  <si>
-    <t>BMC多组件共享白名单配置的维护复杂度问题</t>
-  </si>
-  <si>
-    <t>【需求】基于动态插桩拦截风险接口调用日志，形成通用化命令的白名单配置</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/15</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/pcie_device/issues/4</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现Redfish接口查询指定PCIe设备资源信息</t>
-  </si>
-  <si>
-    <t>【需求】支持查询指定PCIEDevices资源信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/pcie_device/issues/5</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/16</t>
-  </si>
-  <si>
-    <t>BMC开发者如何提升社区UT IT测试覆盖率和工具贡献效率</t>
-  </si>
-  <si>
-    <t>openUBMC社区测试贡献规划</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/592/1</t>
-  </si>
-  <si>
-    <t>QA 运作规则讨论</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/209/1</t>
-  </si>
-  <si>
-    <t>openUBMC社区QA SIG运作</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/593/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何在BIOS启动阶段禁用KVM/VNC键盘输入防止密码修改</t>
-  </si>
-  <si>
-    <t>支持BIOS启动过程禁止KVM/VNC键盘输入</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/19</t>
-  </si>
-  <si>
-    <t>支持BIOS在启动阶段禁用键盘</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/20</t>
-  </si>
-  <si>
-    <t>BMC开发者如何扩展升级接口参数处理并行升级错误场景</t>
-  </si>
-  <si>
-    <t>【需求】power_mgmt组件适配升级接口参数扩展</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/10</t>
-  </si>
-  <si>
-    <t>【需求】bios组件适配升级接口参数扩展</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/10</t>
-  </si>
-  <si>
-    <t>能效管理适配升级接口参数扩展</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/5</t>
-  </si>
-  <si>
-    <t>general_hardware组件适配升级接口参数</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/11</t>
-  </si>
-  <si>
-    <t>BMC开发者如何优化RAID日志导出的时延与安全性</t>
-  </si>
-  <si>
-    <t>【需求】支持收集raid卡文本格式日志</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/32</t>
-  </si>
-  <si>
-    <t>【需求】支持一键搜集日志导出raid卡固件日志</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/31</t>
-  </si>
-  <si>
-    <t>BMC开发者需修正VPD中position描述的映射错误</t>
-  </si>
-  <si>
-    <t>vpd仓库platform.sr.png描述有误</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/360/1</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/2</t>
-  </si>
-  <si>
-    <t>BMC开发者亟需开源应用框架开发指导文档</t>
-  </si>
-  <si>
-    <t>提供应用框架开发指导</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/15</t>
-  </si>
-  <si>
-    <t>【需求】社区提供开源项目开发者指南</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/webui/issues/19</t>
-  </si>
-  <si>
-    <t>BMC开发者如何高效实现电链路统计数据采集接口</t>
-  </si>
-  <si>
-    <t>【需求】支持NPU参数面端口电链路数据采集</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/8</t>
-  </si>
-  <si>
-    <t>【需求】支持NPU参数面光模块数据采集接口增加电链路数据</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/7</t>
-  </si>
-  <si>
-    <t>BMC开发者如何防范开发环境中的文件访问绕过漏洞</t>
-  </si>
-  <si>
-    <t>CVE-2025-31486</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/18</t>
-  </si>
-  <si>
-    <t>CVE-2025-46565</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/21</t>
-  </si>
-  <si>
-    <t>CVE-2025-32395</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/19</t>
-  </si>
-  <si>
-    <t>CVE-2025-30208</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/16</t>
-  </si>
-  <si>
-    <t>CVE-2025-31125</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/17</t>
-  </si>
-  <si>
-    <t>BMC开发者在Redfish OEM定制中如何实现存储控制器属性查询</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish接口oem定制查询指定存储资源信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rack_mgmt/issues/2</t>
-  </si>
-  <si>
-    <t>【需求】支持厂商定制化显示存储控制器端口数</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/67</t>
   </si>
 </sst>
 </file>
@@ -2372,10 +2372,10 @@
       <c r="A41" t="s">
         <v>3</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2434,10 +2434,10 @@
       <c r="A48" t="s">
         <v>3</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2">
@@ -2758,11 +2758,11 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" t="s">
-        <v>182</v>
+      <c r="B3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="4">
@@ -2770,10 +2770,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5">
@@ -2781,10 +2781,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6">
@@ -2792,54 +2792,39 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C7" t="s">
-        <v>189</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C8" t="s">
-        <v>191</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C9" t="s">
-        <v>193</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C10" t="s">
-        <v>195</v>
+      <c r="B10" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="11">
@@ -2847,10 +2832,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>255</v>
       </c>
       <c r="C11" t="s">
-        <v>196</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12">
@@ -2858,10 +2843,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>194</v>
+        <v>257</v>
       </c>
       <c r="C12" t="s">
-        <v>197</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13">
@@ -2869,10 +2854,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>194</v>
+        <v>257</v>
       </c>
       <c r="C13" t="s">
-        <v>198</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14">
@@ -2880,10 +2865,10 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>199</v>
+        <v>260</v>
       </c>
       <c r="C14" t="s">
-        <v>200</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15">
@@ -2891,10 +2876,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>199</v>
+        <v>262</v>
       </c>
       <c r="C15" t="s">
-        <v>201</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16">
@@ -2902,10 +2887,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>199</v>
+        <v>264</v>
       </c>
       <c r="C16" t="s">
-        <v>202</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17">
@@ -2913,10 +2898,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
       <c r="C17" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18">
@@ -2924,10 +2909,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>199</v>
+        <v>266</v>
       </c>
       <c r="C18" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19">
@@ -2935,10 +2920,10 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>206</v>
+        <v>266</v>
       </c>
       <c r="C19" t="s">
-        <v>207</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20">
@@ -2946,28 +2931,43 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>208</v>
+        <v>266</v>
       </c>
       <c r="C20" t="s">
-        <v>209</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>271</v>
+      </c>
+      <c r="C21" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>400</v>
+        <v>271</v>
+      </c>
+      <c r="C22" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>271</v>
+      </c>
+      <c r="C23" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="24">
@@ -2975,10 +2975,10 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>401</v>
+        <v>275</v>
       </c>
       <c r="C24" t="s">
-        <v>402</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25">
@@ -2986,10 +2986,10 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>403</v>
+        <v>271</v>
       </c>
       <c r="C25" t="s">
-        <v>404</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26">
@@ -2997,10 +2997,10 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>405</v>
+        <v>278</v>
       </c>
       <c r="C26" t="s">
-        <v>406</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27">
@@ -3008,50 +3008,50 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>407</v>
+        <v>280</v>
       </c>
       <c r="C27" t="s">
-        <v>408</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" t="s">
-        <v>409</v>
-      </c>
-      <c r="C28" t="s">
-        <v>410</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>409</v>
-      </c>
-      <c r="C29" t="s">
-        <v>411</v>
+        <v>487</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" t="s">
-        <v>433</v>
+        <v>3</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="33">
@@ -3059,10 +3059,10 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>434</v>
+        <v>492</v>
       </c>
       <c r="C33" t="s">
-        <v>435</v>
+        <v>493</v>
       </c>
     </row>
     <row r="34">
@@ -3070,10 +3070,10 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>434</v>
+        <v>494</v>
       </c>
       <c r="C34" t="s">
-        <v>436</v>
+        <v>495</v>
       </c>
     </row>
     <row r="35">
@@ -3081,10 +3081,10 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>437</v>
+        <v>496</v>
       </c>
       <c r="C35" t="s">
-        <v>438</v>
+        <v>497</v>
       </c>
     </row>
     <row r="36">
@@ -3092,10 +3092,10 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="C36" t="s">
-        <v>440</v>
+        <v>498</v>
       </c>
     </row>
     <row r="37">
@@ -3160,43 +3160,43 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>123</v>
       </c>
+      <c r="C6" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" t="s">
-        <v>127</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -3204,39 +3204,39 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" t="s">
         <v>128</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="C11" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>130</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -3244,108 +3244,123 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C15" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>135</v>
+        <v>142</v>
+      </c>
+      <c r="C17" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" t="s">
-        <v>139</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>140</v>
+        <v>148</v>
+      </c>
+      <c r="C22" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>2</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
-      </c>
-      <c r="C24" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" t="s">
-        <v>143</v>
-      </c>
-      <c r="C25" t="s">
-        <v>144</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>153</v>
+      </c>
+      <c r="C27" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="29">
@@ -3353,10 +3368,10 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C29" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30">
@@ -3364,39 +3379,39 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C30" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" t="s">
-        <v>150</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" t="s">
-        <v>151</v>
-      </c>
-      <c r="C34" t="s">
-        <v>152</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -3404,10 +3419,10 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C35" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36">
@@ -3415,10 +3430,10 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C36" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37">
@@ -3431,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39">
@@ -3444,10 +3459,10 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C40" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41">
@@ -3455,141 +3470,141 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C41" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" t="s">
-        <v>161</v>
-      </c>
-      <c r="C42" t="s">
-        <v>162</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>163</v>
-      </c>
-      <c r="C43" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>165</v>
+        <v>173</v>
+      </c>
+      <c r="C45" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>175</v>
+      </c>
+      <c r="C46" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47" t="s">
-        <v>166</v>
-      </c>
-      <c r="C47" t="s">
-        <v>167</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>168</v>
-      </c>
-      <c r="C48" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>170</v>
+        <v>178</v>
+      </c>
+      <c r="C50" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>178</v>
+      </c>
+      <c r="C51" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s">
-        <v>3</v>
-      </c>
-      <c r="B52" t="s">
-        <v>171</v>
-      </c>
-      <c r="C52" t="s">
-        <v>172</v>
-      </c>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>171</v>
-      </c>
-      <c r="C53" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>3</v>
-      </c>
-      <c r="B54" t="s">
-        <v>171</v>
-      </c>
-      <c r="C54" t="s">
-        <v>174</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s">
+        <v>182</v>
+      </c>
+      <c r="C55" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B56" t="s">
-        <v>175</v>
+        <v>184</v>
+      </c>
+      <c r="C56" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
+        <v>186</v>
+      </c>
+      <c r="C57" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="58">
@@ -3597,39 +3612,39 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="C58" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s">
-        <v>3</v>
-      </c>
-      <c r="B59" t="s">
-        <v>178</v>
-      </c>
-      <c r="C59" t="s">
-        <v>179</v>
-      </c>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
     </row>
     <row r="60">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" t="s">
-        <v>210</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B62" t="s">
+        <v>191</v>
+      </c>
+      <c r="C62" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="63">
@@ -3637,43 +3652,28 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="C63" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s">
-        <v>3</v>
-      </c>
-      <c r="B64" t="s">
-        <v>213</v>
-      </c>
-      <c r="C64" t="s">
-        <v>214</v>
-      </c>
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>215</v>
-      </c>
-      <c r="C65" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>3</v>
-      </c>
-      <c r="B66" t="s">
-        <v>217</v>
-      </c>
-      <c r="C66" t="s">
-        <v>218</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -3681,10 +3681,10 @@
         <v>3</v>
       </c>
       <c r="B67" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="C67" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68">
@@ -3692,10 +3692,10 @@
         <v>3</v>
       </c>
       <c r="B68" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="C68" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69">
@@ -3703,10 +3703,10 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="C69" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70">
@@ -3714,83 +3714,68 @@
         <v>3</v>
       </c>
       <c r="B70" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="C70" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s">
-        <v>3</v>
-      </c>
-      <c r="B71" t="s">
-        <v>227</v>
-      </c>
-      <c r="C71" t="s">
-        <v>228</v>
-      </c>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>229</v>
-      </c>
-      <c r="C72" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>3</v>
-      </c>
-      <c r="B73" t="s">
-        <v>231</v>
-      </c>
-      <c r="C73" t="s">
-        <v>232</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
+      <c r="A74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" t="s">
+        <v>204</v>
+      </c>
+      <c r="C74" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>233</v>
+        <v>206</v>
+      </c>
+      <c r="C75" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s">
-        <v>2</v>
-      </c>
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B77" t="s">
-        <v>234</v>
-      </c>
-      <c r="C77" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>3</v>
-      </c>
-      <c r="B78" t="s">
-        <v>236</v>
-      </c>
-      <c r="C78" t="s">
-        <v>237</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -3798,141 +3783,141 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="C79" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
+      <c r="A80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" t="s">
+        <v>211</v>
+      </c>
+      <c r="C80" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>240</v>
+        <v>213</v>
+      </c>
+      <c r="C81" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s">
-        <v>2</v>
-      </c>
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B83" t="s">
-        <v>241</v>
-      </c>
-      <c r="C83" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>3</v>
-      </c>
-      <c r="B84" t="s">
-        <v>243</v>
-      </c>
-      <c r="C84" t="s">
-        <v>244</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
+        <v>216</v>
+      </c>
+      <c r="C85" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>245</v>
+        <v>218</v>
+      </c>
+      <c r="C86" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
+        <v>220</v>
+      </c>
+      <c r="C87" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s">
-        <v>3</v>
-      </c>
-      <c r="B88" t="s">
-        <v>246</v>
-      </c>
-      <c r="C88" t="s">
-        <v>247</v>
-      </c>
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B89" t="s">
-        <v>248</v>
-      </c>
-      <c r="C89" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
+      <c r="A90" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>250</v>
+        <v>223</v>
+      </c>
+      <c r="C91" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B92" t="s">
+        <v>225</v>
+      </c>
+      <c r="C92" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s">
-        <v>3</v>
-      </c>
-      <c r="B93" t="s">
-        <v>251</v>
-      </c>
-      <c r="C93" t="s">
-        <v>252</v>
-      </c>
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>253</v>
-      </c>
-      <c r="C94" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>3</v>
-      </c>
-      <c r="B95" t="s">
-        <v>255</v>
-      </c>
-      <c r="C95" t="s">
-        <v>256</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -3940,10 +3925,10 @@
         <v>3</v>
       </c>
       <c r="B96" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="C96" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
     </row>
     <row r="97">
@@ -3951,39 +3936,39 @@
         <v>3</v>
       </c>
       <c r="B97" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="C97" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s">
-        <v>3</v>
-      </c>
-      <c r="B98" t="s">
-        <v>261</v>
-      </c>
-      <c r="C98" t="s">
-        <v>262</v>
-      </c>
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
     </row>
     <row r="99">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B100" t="s">
-        <v>263</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B101" t="s">
+        <v>233</v>
+      </c>
+      <c r="C101" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="102">
@@ -3991,39 +3976,39 @@
         <v>3</v>
       </c>
       <c r="B102" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="C102" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s">
-        <v>3</v>
-      </c>
-      <c r="B103" t="s">
-        <v>264</v>
-      </c>
-      <c r="C103" t="s">
-        <v>266</v>
-      </c>
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
     </row>
     <row r="104">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>0</v>
-      </c>
-      <c r="B105" t="s">
-        <v>267</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B106" t="s">
+        <v>238</v>
+      </c>
+      <c r="C106" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="107">
@@ -4031,43 +4016,28 @@
         <v>3</v>
       </c>
       <c r="B107" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="C107" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s">
-        <v>3</v>
-      </c>
-      <c r="B108" t="s">
-        <v>270</v>
-      </c>
-      <c r="C108" t="s">
-        <v>271</v>
-      </c>
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B109" t="s">
-        <v>272</v>
-      </c>
-      <c r="C109" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>3</v>
-      </c>
-      <c r="B110" t="s">
-        <v>274</v>
-      </c>
-      <c r="C110" t="s">
-        <v>275</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
@@ -4075,10 +4045,10 @@
         <v>3</v>
       </c>
       <c r="B111" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="C111" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
     </row>
     <row r="112">
@@ -4086,192 +4056,192 @@
         <v>3</v>
       </c>
       <c r="B112" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="C112" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
+      <c r="A113" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113" t="s">
+        <v>246</v>
+      </c>
+      <c r="C113" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B114" t="s">
-        <v>279</v>
+        <v>248</v>
+      </c>
+      <c r="C114" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B115" t="s">
+        <v>250</v>
+      </c>
+      <c r="C115" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s">
-        <v>3</v>
-      </c>
-      <c r="B116" t="s">
-        <v>280</v>
-      </c>
-      <c r="C116" t="s">
-        <v>281</v>
-      </c>
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B117" t="s">
         <v>282</v>
       </c>
-      <c r="C117" t="s">
-        <v>283</v>
-      </c>
     </row>
     <row r="118">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
+      <c r="A118" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B119" t="s">
+        <v>283</v>
+      </c>
+      <c r="C119" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B120" t="s">
+        <v>283</v>
+      </c>
+      <c r="C120" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s">
-        <v>3</v>
-      </c>
-      <c r="B121" t="s">
-        <v>285</v>
-      </c>
-      <c r="C121" t="s">
-        <v>286</v>
-      </c>
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B122" t="s">
-        <v>287</v>
-      </c>
-      <c r="C122" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>3</v>
-      </c>
-      <c r="B123" t="s">
-        <v>289</v>
-      </c>
-      <c r="C123" t="s">
-        <v>290</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
+      <c r="A124" t="s">
+        <v>3</v>
+      </c>
+      <c r="B124" t="s">
+        <v>287</v>
+      </c>
+      <c r="C124" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B125" t="s">
-        <v>291</v>
+        <v>289</v>
+      </c>
+      <c r="C125" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s">
-        <v>2</v>
-      </c>
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B127" t="s">
-        <v>292</v>
-      </c>
-      <c r="C127" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>3</v>
-      </c>
-      <c r="B128" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>3</v>
+      </c>
+      <c r="B129" t="s">
         <v>292</v>
       </c>
-      <c r="C128" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
+      <c r="C129" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B130" t="s">
+        <v>294</v>
+      </c>
+      <c r="C130" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B131" t="s">
+        <v>296</v>
+      </c>
+      <c r="C131" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s">
-        <v>3</v>
-      </c>
-      <c r="B132" t="s">
-        <v>296</v>
-      </c>
-      <c r="C132" t="s">
-        <v>297</v>
-      </c>
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B133" t="s">
         <v>298</v>
       </c>
-      <c r="C133" t="s">
-        <v>299</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>3</v>
-      </c>
-      <c r="B134" t="s">
-        <v>300</v>
-      </c>
-      <c r="C134" t="s">
-        <v>301</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
@@ -4279,39 +4249,39 @@
         <v>3</v>
       </c>
       <c r="B135" t="s">
+        <v>299</v>
+      </c>
+      <c r="C135" t="s">
         <v>300</v>
       </c>
-      <c r="C135" t="s">
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>3</v>
+      </c>
+      <c r="B136" t="s">
+        <v>301</v>
+      </c>
+      <c r="C136" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-    </row>
     <row r="137">
-      <c r="A137" t="s">
-        <v>0</v>
-      </c>
-      <c r="B137" t="s">
-        <v>303</v>
-      </c>
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B138" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>3</v>
-      </c>
-      <c r="B139" t="s">
-        <v>304</v>
-      </c>
-      <c r="C139" t="s">
-        <v>305</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
@@ -4319,10 +4289,10 @@
         <v>3</v>
       </c>
       <c r="B140" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C140" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="141">
@@ -4330,39 +4300,39 @@
         <v>3</v>
       </c>
       <c r="B141" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C141" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s">
-        <v>3</v>
-      </c>
-      <c r="B142" t="s">
-        <v>310</v>
-      </c>
-      <c r="C142" t="s">
-        <v>311</v>
-      </c>
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
     </row>
     <row r="143">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
+      <c r="A143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>0</v>
-      </c>
-      <c r="B144" t="s">
-        <v>312</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B145" t="s">
+        <v>308</v>
+      </c>
+      <c r="C145" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="146">
@@ -4370,10 +4340,10 @@
         <v>3</v>
       </c>
       <c r="B146" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C146" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="147">
@@ -4381,10 +4351,10 @@
         <v>3</v>
       </c>
       <c r="B147" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C147" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="148">
@@ -4392,28 +4362,43 @@
         <v>3</v>
       </c>
       <c r="B148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C148" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>3</v>
+      </c>
+      <c r="B149" t="s">
+        <v>316</v>
+      </c>
+      <c r="C149" t="s">
         <v>317</v>
       </c>
-      <c r="C148" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B150" t="s">
+        <v>318</v>
+      </c>
+      <c r="C150" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B151" t="s">
+        <v>320</v>
+      </c>
+      <c r="C151" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="152">
@@ -4421,10 +4406,10 @@
         <v>3</v>
       </c>
       <c r="B152" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C152" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="153">
@@ -4432,50 +4417,50 @@
         <v>3</v>
       </c>
       <c r="B153" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C153" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
+      <c r="A154" t="s">
+        <v>3</v>
+      </c>
+      <c r="B154" t="s">
+        <v>326</v>
+      </c>
+      <c r="C154" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B155" t="s">
-        <v>323</v>
+        <v>328</v>
+      </c>
+      <c r="C155" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s">
-        <v>2</v>
-      </c>
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B157" t="s">
-        <v>324</v>
-      </c>
-      <c r="C157" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>3</v>
-      </c>
-      <c r="B158" t="s">
-        <v>324</v>
-      </c>
-      <c r="C158" t="s">
-        <v>326</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
@@ -4483,50 +4468,50 @@
         <v>3</v>
       </c>
       <c r="B159" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C159" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
+      <c r="A160" t="s">
+        <v>3</v>
+      </c>
+      <c r="B160" t="s">
+        <v>333</v>
+      </c>
+      <c r="C160" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B161" t="s">
-        <v>329</v>
+        <v>335</v>
+      </c>
+      <c r="C161" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s">
-        <v>2</v>
-      </c>
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B163" t="s">
-        <v>330</v>
-      </c>
-      <c r="C163" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>3</v>
-      </c>
-      <c r="B164" t="s">
-        <v>332</v>
-      </c>
-      <c r="C164" t="s">
-        <v>333</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
@@ -4534,10 +4519,10 @@
         <v>3</v>
       </c>
       <c r="B165" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C165" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="166">
@@ -4545,10 +4530,10 @@
         <v>3</v>
       </c>
       <c r="B166" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C166" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="167">
@@ -4561,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="B168" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="169">
@@ -4574,10 +4559,10 @@
         <v>3</v>
       </c>
       <c r="B170" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C170" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="171">
@@ -4585,39 +4570,39 @@
         <v>3</v>
       </c>
       <c r="B171" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C171" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s">
-        <v>3</v>
-      </c>
-      <c r="B172" t="s">
-        <v>342</v>
-      </c>
-      <c r="C172" t="s">
-        <v>343</v>
-      </c>
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
     </row>
     <row r="173">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
+      <c r="A173" t="s">
+        <v>0</v>
+      </c>
+      <c r="B173" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>0</v>
-      </c>
-      <c r="B174" t="s">
-        <v>344</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B175" t="s">
+        <v>346</v>
+      </c>
+      <c r="C175" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="176">
@@ -4625,10 +4610,10 @@
         <v>3</v>
       </c>
       <c r="B176" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C176" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="177">
@@ -4636,39 +4621,39 @@
         <v>3</v>
       </c>
       <c r="B177" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C177" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
+      <c r="A178" t="s">
+        <v>3</v>
+      </c>
+      <c r="B178" t="s">
+        <v>351</v>
+      </c>
+      <c r="C178" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="179">
-      <c r="A179" t="s">
-        <v>0</v>
-      </c>
-      <c r="B179" t="s">
-        <v>348</v>
-      </c>
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B180" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>3</v>
-      </c>
-      <c r="B181" t="s">
-        <v>349</v>
-      </c>
-      <c r="C181" t="s">
-        <v>350</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182">
@@ -4676,50 +4661,50 @@
         <v>3</v>
       </c>
       <c r="B182" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C182" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
+      <c r="A183" t="s">
+        <v>3</v>
+      </c>
+      <c r="B183" t="s">
+        <v>356</v>
+      </c>
+      <c r="C183" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B184" t="s">
-        <v>352</v>
+        <v>358</v>
+      </c>
+      <c r="C184" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s">
-        <v>2</v>
-      </c>
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B186" t="s">
-        <v>353</v>
-      </c>
-      <c r="C186" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>3</v>
-      </c>
-      <c r="B187" t="s">
-        <v>355</v>
-      </c>
-      <c r="C187" t="s">
-        <v>356</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188">
@@ -4727,10 +4712,10 @@
         <v>3</v>
       </c>
       <c r="B188" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="C188" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="189">
@@ -4738,10 +4723,10 @@
         <v>3</v>
       </c>
       <c r="B189" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C189" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="190">
@@ -4754,7 +4739,7 @@
         <v>0</v>
       </c>
       <c r="B191" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="192">
@@ -4767,10 +4752,10 @@
         <v>3</v>
       </c>
       <c r="B193" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C193" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="194">
@@ -4778,170 +4763,170 @@
         <v>3</v>
       </c>
       <c r="B194" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C194" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s">
-        <v>3</v>
-      </c>
-      <c r="B195" t="s">
-        <v>365</v>
-      </c>
-      <c r="C195" t="s">
-        <v>366</v>
-      </c>
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B196" t="s">
-        <v>367</v>
-      </c>
-      <c r="C196" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
-      <c r="C197" s="1"/>
+      <c r="A197" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B198" t="s">
-        <v>369</v>
+        <v>371</v>
+      </c>
+      <c r="C198" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B199" t="s">
+        <v>373</v>
+      </c>
+      <c r="C199" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s">
-        <v>3</v>
-      </c>
-      <c r="B200" t="s">
-        <v>370</v>
-      </c>
-      <c r="C200" t="s">
-        <v>371</v>
-      </c>
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B201" t="s">
-        <v>372</v>
-      </c>
-      <c r="C201" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
-      <c r="C202" s="1"/>
+      <c r="A202" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B203" t="s">
-        <v>374</v>
+        <v>376</v>
+      </c>
+      <c r="C203" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B204" t="s">
+        <v>378</v>
+      </c>
+      <c r="C204" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s">
-        <v>3</v>
-      </c>
-      <c r="B205" t="s">
-        <v>375</v>
-      </c>
-      <c r="C205" t="s">
-        <v>376</v>
-      </c>
+      <c r="A205" s="1"/>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B206" t="s">
-        <v>377</v>
-      </c>
-      <c r="C206" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="1"/>
-      <c r="B207" s="1"/>
-      <c r="C207" s="1"/>
+      <c r="A207" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B208" t="s">
-        <v>379</v>
+        <v>381</v>
+      </c>
+      <c r="C208" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B209" t="s">
+        <v>383</v>
+      </c>
+      <c r="C209" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s">
-        <v>3</v>
-      </c>
-      <c r="B210" t="s">
-        <v>380</v>
-      </c>
-      <c r="C210" t="s">
-        <v>381</v>
-      </c>
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B211" t="s">
-        <v>382</v>
-      </c>
-      <c r="C211" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
-      <c r="C212" s="1"/>
+      <c r="A212" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B213" t="s">
-        <v>384</v>
+        <v>386</v>
+      </c>
+      <c r="C213" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B214" t="s">
+        <v>386</v>
+      </c>
+      <c r="C214" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="215">
@@ -4949,10 +4934,10 @@
         <v>3</v>
       </c>
       <c r="B215" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C215" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="216">
@@ -4960,10 +4945,10 @@
         <v>3</v>
       </c>
       <c r="B216" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C216" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="217">
@@ -4971,10 +4956,10 @@
         <v>3</v>
       </c>
       <c r="B217" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C217" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="218">
@@ -4982,141 +4967,141 @@
         <v>3</v>
       </c>
       <c r="B218" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C218" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s">
-        <v>3</v>
-      </c>
-      <c r="B219" t="s">
-        <v>392</v>
-      </c>
-      <c r="C219" t="s">
-        <v>393</v>
-      </c>
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B220" t="s">
-        <v>388</v>
-      </c>
-      <c r="C220" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
-      <c r="C221" s="1"/>
+      <c r="A221" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B222" t="s">
-        <v>395</v>
+        <v>397</v>
+      </c>
+      <c r="C222" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B223" t="s">
+        <v>397</v>
+      </c>
+      <c r="C223" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s">
-        <v>3</v>
-      </c>
-      <c r="B224" t="s">
-        <v>396</v>
-      </c>
-      <c r="C224" t="s">
-        <v>397</v>
-      </c>
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B225" t="s">
-        <v>398</v>
-      </c>
-      <c r="C225" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
-      <c r="C226" s="1"/>
+      <c r="A226" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B227" t="s">
-        <v>412</v>
+        <v>401</v>
+      </c>
+      <c r="C227" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B228" t="s">
+        <v>403</v>
+      </c>
+      <c r="C228" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="s">
-        <v>3</v>
-      </c>
-      <c r="B229" t="s">
-        <v>413</v>
-      </c>
-      <c r="C229" t="s">
-        <v>414</v>
-      </c>
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B230" t="s">
-        <v>415</v>
-      </c>
-      <c r="C230" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>3</v>
-      </c>
-      <c r="B231" t="s">
-        <v>417</v>
-      </c>
-      <c r="C231" t="s">
-        <v>418</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
-      <c r="C232" s="1"/>
+      <c r="A232" t="s">
+        <v>3</v>
+      </c>
+      <c r="B232" t="s">
+        <v>406</v>
+      </c>
+      <c r="C232" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B233" t="s">
-        <v>419</v>
+        <v>408</v>
+      </c>
+      <c r="C233" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B234" t="s">
+        <v>410</v>
+      </c>
+      <c r="C234" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="235">
@@ -5124,10 +5109,10 @@
         <v>3</v>
       </c>
       <c r="B235" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="C235" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
     </row>
     <row r="236">
@@ -5135,39 +5120,39 @@
         <v>3</v>
       </c>
       <c r="B236" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="C236" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="1"/>
-      <c r="B237" s="1"/>
-      <c r="C237" s="1"/>
+      <c r="A237" t="s">
+        <v>3</v>
+      </c>
+      <c r="B237" t="s">
+        <v>415</v>
+      </c>
+      <c r="C237" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="238">
-      <c r="A238" t="s">
-        <v>0</v>
-      </c>
-      <c r="B238" t="s">
-        <v>424</v>
-      </c>
+      <c r="A238" s="1"/>
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B239" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>3</v>
-      </c>
-      <c r="B240" t="s">
-        <v>425</v>
-      </c>
-      <c r="C240" t="s">
-        <v>426</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241">
@@ -5175,39 +5160,39 @@
         <v>3</v>
       </c>
       <c r="B241" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C241" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="1"/>
-      <c r="B242" s="1"/>
-      <c r="C242" s="1"/>
+      <c r="A242" t="s">
+        <v>3</v>
+      </c>
+      <c r="B242" t="s">
+        <v>420</v>
+      </c>
+      <c r="C242" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="243">
-      <c r="A243" t="s">
-        <v>0</v>
-      </c>
-      <c r="B243" t="s">
-        <v>429</v>
-      </c>
+      <c r="A243" s="1"/>
+      <c r="B243" s="1"/>
+      <c r="C243" s="1"/>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B244" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>3</v>
-      </c>
-      <c r="B245" t="s">
-        <v>430</v>
-      </c>
-      <c r="C245" t="s">
-        <v>431</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246">
@@ -5215,28 +5200,43 @@
         <v>3</v>
       </c>
       <c r="B246" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C246" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="1"/>
-      <c r="B247" s="1"/>
-      <c r="C247" s="1"/>
+      <c r="A247" t="s">
+        <v>3</v>
+      </c>
+      <c r="B247" t="s">
+        <v>425</v>
+      </c>
+      <c r="C247" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B248" t="s">
-        <v>441</v>
+        <v>427</v>
+      </c>
+      <c r="C248" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B249" t="s">
+        <v>429</v>
+      </c>
+      <c r="C249" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="250">
@@ -5244,10 +5244,10 @@
         <v>3</v>
       </c>
       <c r="B250" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="C250" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="251">
@@ -5255,10 +5255,10 @@
         <v>3</v>
       </c>
       <c r="B251" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="C251" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="252">
@@ -5271,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="B253" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="254">
@@ -5284,10 +5284,10 @@
         <v>3</v>
       </c>
       <c r="B255" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="C255" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
     </row>
     <row r="256">
@@ -5295,10 +5295,10 @@
         <v>3</v>
       </c>
       <c r="B256" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="C256" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
     </row>
     <row r="257">
@@ -5311,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="B258" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="259">
@@ -5324,10 +5324,10 @@
         <v>3</v>
       </c>
       <c r="B260" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="C260" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="261">
@@ -5335,39 +5335,39 @@
         <v>3</v>
       </c>
       <c r="B261" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="C261" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s">
-        <v>3</v>
-      </c>
-      <c r="B262" t="s">
-        <v>456</v>
-      </c>
-      <c r="C262" t="s">
-        <v>457</v>
-      </c>
+      <c r="A262" s="1"/>
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
     </row>
     <row r="263">
-      <c r="A263" s="1"/>
-      <c r="B263" s="1"/>
-      <c r="C263" s="1"/>
+      <c r="A263" t="s">
+        <v>0</v>
+      </c>
+      <c r="B263" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>0</v>
-      </c>
-      <c r="B264" t="s">
-        <v>458</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B265" t="s">
+        <v>445</v>
+      </c>
+      <c r="C265" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="266">
@@ -5375,10 +5375,10 @@
         <v>3</v>
       </c>
       <c r="B266" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="C266" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
     </row>
     <row r="267">
@@ -5386,10 +5386,10 @@
         <v>3</v>
       </c>
       <c r="B267" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="C267" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
     </row>
     <row r="268">
@@ -5402,7 +5402,7 @@
         <v>0</v>
       </c>
       <c r="B269" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
     </row>
     <row r="270">
@@ -5415,10 +5415,10 @@
         <v>3</v>
       </c>
       <c r="B271" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="C271" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
     </row>
     <row r="272">
@@ -5426,43 +5426,28 @@
         <v>3</v>
       </c>
       <c r="B272" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="C272" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="s">
-        <v>3</v>
-      </c>
-      <c r="B273" t="s">
-        <v>467</v>
-      </c>
-      <c r="C273" t="s">
-        <v>468</v>
-      </c>
+      <c r="A273" s="1"/>
+      <c r="B273" s="1"/>
+      <c r="C273" s="1"/>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B274" t="s">
-        <v>469</v>
-      </c>
-      <c r="C274" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>3</v>
-      </c>
-      <c r="B275" t="s">
-        <v>471</v>
-      </c>
-      <c r="C275" t="s">
-        <v>472</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276">
@@ -5470,148 +5455,163 @@
         <v>3</v>
       </c>
       <c r="B276" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="C276" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="1"/>
-      <c r="B277" s="1"/>
-      <c r="C277" s="1"/>
+      <c r="A277" t="s">
+        <v>3</v>
+      </c>
+      <c r="B277" t="s">
+        <v>457</v>
+      </c>
+      <c r="C277" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B278" t="s">
-        <v>475</v>
+        <v>459</v>
+      </c>
+      <c r="C278" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B279" t="s">
+        <v>461</v>
+      </c>
+      <c r="C279" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="s">
-        <v>3</v>
-      </c>
-      <c r="B280" t="s">
-        <v>476</v>
-      </c>
-      <c r="C280" t="s">
-        <v>477</v>
-      </c>
+      <c r="A280" s="1"/>
+      <c r="B280" s="1"/>
+      <c r="C280" s="1"/>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B281" t="s">
-        <v>478</v>
-      </c>
-      <c r="C281" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="1"/>
-      <c r="B282" s="1"/>
-      <c r="C282" s="1"/>
+      <c r="A282" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B283" t="s">
-        <v>480</v>
+        <v>464</v>
+      </c>
+      <c r="C283" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B284" t="s">
+        <v>466</v>
+      </c>
+      <c r="C284" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="s">
-        <v>3</v>
-      </c>
-      <c r="B285" t="s">
-        <v>481</v>
-      </c>
-      <c r="C285" t="s">
-        <v>482</v>
-      </c>
+      <c r="A285" s="1"/>
+      <c r="B285" s="1"/>
+      <c r="C285" s="1"/>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B286" t="s">
-        <v>481</v>
-      </c>
-      <c r="C286" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="1"/>
-      <c r="B287" s="1"/>
-      <c r="C287" s="1"/>
+      <c r="A287" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B288" t="s">
-        <v>484</v>
+        <v>469</v>
+      </c>
+      <c r="C288" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B289" t="s">
+        <v>471</v>
+      </c>
+      <c r="C289" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="s">
-        <v>3</v>
-      </c>
-      <c r="B290" t="s">
-        <v>485</v>
-      </c>
-      <c r="C290" t="s">
-        <v>486</v>
-      </c>
+      <c r="A290" s="1"/>
+      <c r="B290" s="1"/>
+      <c r="C290" s="1"/>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B291" t="s">
-        <v>485</v>
-      </c>
-      <c r="C291" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="1"/>
-      <c r="B292" s="1"/>
-      <c r="C292" s="1"/>
+      <c r="A292" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B293" t="s">
-        <v>488</v>
+        <v>474</v>
+      </c>
+      <c r="C293" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B294" t="s">
+        <v>476</v>
+      </c>
+      <c r="C294" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="295">
@@ -5619,10 +5619,10 @@
         <v>3</v>
       </c>
       <c r="B295" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="C295" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
     </row>
     <row r="296">
@@ -5630,39 +5630,39 @@
         <v>3</v>
       </c>
       <c r="B296" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="C296" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="s">
-        <v>3</v>
-      </c>
-      <c r="B297" t="s">
-        <v>493</v>
-      </c>
-      <c r="C297" t="s">
-        <v>494</v>
-      </c>
+      <c r="A297" s="1"/>
+      <c r="B297" s="1"/>
+      <c r="C297" s="1"/>
     </row>
     <row r="298">
-      <c r="A298" s="1"/>
-      <c r="B298" s="1"/>
-      <c r="C298" s="1"/>
+      <c r="A298" t="s">
+        <v>0</v>
+      </c>
+      <c r="B298" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>0</v>
-      </c>
-      <c r="B299" t="s">
-        <v>495</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B300" t="s">
+        <v>483</v>
+      </c>
+      <c r="C300" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="301">
@@ -5670,39 +5670,39 @@
         <v>3</v>
       </c>
       <c r="B301" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="C301" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="s">
-        <v>3</v>
-      </c>
-      <c r="B302" t="s">
-        <v>498</v>
-      </c>
-      <c r="C302" t="s">
+      <c r="A302" s="1"/>
+      <c r="B302" s="1"/>
+      <c r="C302" s="1"/>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>0</v>
+      </c>
+      <c r="B303" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="1"/>
-      <c r="B303" s="1"/>
-      <c r="C303" s="1"/>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>0</v>
-      </c>
-      <c r="B304" t="s">
-        <v>500</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B305" t="s">
+        <v>500</v>
+      </c>
+      <c r="C305" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="306">
@@ -5710,101 +5710,101 @@
         <v>3</v>
       </c>
       <c r="B306" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C306" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="s">
-        <v>3</v>
-      </c>
-      <c r="B307" t="s">
-        <v>503</v>
-      </c>
-      <c r="C307" t="s">
-        <v>504</v>
-      </c>
+      <c r="A307" s="1"/>
+      <c r="B307" s="1"/>
+      <c r="C307" s="1"/>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B308" t="s">
-        <v>505</v>
-      </c>
-      <c r="C308" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>3</v>
-      </c>
-      <c r="B309" t="s">
-        <v>507</v>
-      </c>
-      <c r="C309" t="s">
-        <v>508</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="1"/>
-      <c r="B310" s="1"/>
-      <c r="C310" s="1"/>
+      <c r="A310" t="s">
+        <v>3</v>
+      </c>
+      <c r="B310" t="s">
+        <v>504</v>
+      </c>
+      <c r="C310" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B311" t="s">
-        <v>509</v>
+        <v>506</v>
+      </c>
+      <c r="C311" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B312" t="s">
+        <v>508</v>
+      </c>
+      <c r="C312" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="s">
-        <v>3</v>
-      </c>
-      <c r="B313" t="s">
-        <v>510</v>
-      </c>
-      <c r="C313" t="s">
-        <v>511</v>
-      </c>
+      <c r="A313" s="1"/>
+      <c r="B313" s="1"/>
+      <c r="C313" s="1"/>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B314" t="s">
-        <v>512</v>
-      </c>
-      <c r="C314" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="1"/>
-      <c r="B315" s="1"/>
-      <c r="C315" s="1"/>
+      <c r="A315" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B316" t="s">
-        <v>514</v>
+        <v>511</v>
+      </c>
+      <c r="C316" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B317" t="s">
+        <v>513</v>
+      </c>
+      <c r="C317" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="318">
@@ -5819,32 +5819,32 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="s">
-        <v>3</v>
-      </c>
-      <c r="B319" t="s">
-        <v>515</v>
-      </c>
-      <c r="C319" t="s">
+      <c r="A319" s="1"/>
+      <c r="B319" s="1"/>
+      <c r="C319" s="1"/>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>0</v>
+      </c>
+      <c r="B320" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="1"/>
-      <c r="B320" s="1"/>
-      <c r="C320" s="1"/>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>0</v>
-      </c>
-      <c r="B321" t="s">
-        <v>518</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B322" t="s">
+        <v>518</v>
+      </c>
+      <c r="C322" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="323">
@@ -5852,7 +5852,7 @@
         <v>3</v>
       </c>
       <c r="B323" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C323" t="s">
         <v>520</v>
@@ -5910,43 +5910,43 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="1"/>
-      <c r="B330" s="1"/>
-      <c r="C330" s="1"/>
+      <c r="A330" t="s">
+        <v>3</v>
+      </c>
+      <c r="B330" t="s">
+        <v>528</v>
+      </c>
+      <c r="C330" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B331" t="s">
-        <v>528</v>
+        <v>530</v>
+      </c>
+      <c r="C331" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="s">
-        <v>2</v>
-      </c>
+      <c r="A332" s="1"/>
+      <c r="B332" s="1"/>
+      <c r="C332" s="1"/>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B333" t="s">
-        <v>529</v>
-      </c>
-      <c r="C333" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>3</v>
-      </c>
-      <c r="B334" t="s">
-        <v>531</v>
-      </c>
-      <c r="C334" t="s">
-        <v>532</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335">
@@ -5972,32 +5972,32 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="s">
-        <v>3</v>
-      </c>
-      <c r="B337" t="s">
+      <c r="A337" s="1"/>
+      <c r="B337" s="1"/>
+      <c r="C337" s="1"/>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>0</v>
+      </c>
+      <c r="B338" t="s">
         <v>537</v>
       </c>
-      <c r="C337" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" s="1"/>
-      <c r="B338" s="1"/>
-      <c r="C338" s="1"/>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>0</v>
-      </c>
-      <c r="B339" t="s">
-        <v>539</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B340" t="s">
+        <v>538</v>
+      </c>
+      <c r="C340" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="341">

--- a/test_review/06-06.xlsx
+++ b/test_review/06-06.xlsx
@@ -7,11 +7,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="last_hot_topics" sheetId="2" r:id="rId4"/>
-    <sheet name="new_topics" sheetId="3" r:id="rId5"/>
-    <sheet name="append_to_last_discarded" sheetId="4" r:id="rId6"/>
-    <sheet name="remove_from_last_discarded" sheetId="5" r:id="rId7"/>
-    <sheet name="unchanged_topics" sheetId="6" r:id="rId8"/>
+    <sheet name="上次的热点话题" sheetId="2" r:id="rId4"/>
+    <sheet name="本次新发现的话题" sheetId="3" r:id="rId5"/>
+    <sheet name="上次未入选的话题且有新讨论源加入" sheetId="4" r:id="rId6"/>
+    <sheet name="上次未入选的话题且有讨论源移除" sheetId="5" r:id="rId7"/>
+    <sheet name="上次未入选的话题且未发生变化" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -374,6 +374,1245 @@
     <t>https://discuss.openubmc.cn//t/topic/317/1</t>
   </si>
   <si>
+    <t>BMC开发者如何扩展升级接口参数处理并行升级错误场景</t>
+  </si>
+  <si>
+    <t>【需求】power_mgmt组件适配升级接口参数扩展</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/10</t>
+  </si>
+  <si>
+    <t>【需求】bios组件适配升级接口参数扩展</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/10</t>
+  </si>
+  <si>
+    <t>能效管理适配升级接口参数扩展</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/5</t>
+  </si>
+  <si>
+    <t>general_hardware组件适配升级接口参数</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/11</t>
+  </si>
+  <si>
+    <t>BMC开发者如何通过Redfish和IPMI接口实现硬盘日志收集控制</t>
+  </si>
+  <si>
+    <t>【需求】支持硬盘诊断功能控制</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/106</t>
+  </si>
+  <si>
+    <t>【需求】硬盘诊断功能控制</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/112</t>
+  </si>
+  <si>
+    <t>【需求】支持服务器网络管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/25</t>
+  </si>
+  <si>
+    <t>【需求】支持存储管理能力基线</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/30</t>
+  </si>
+  <si>
+    <t>【需求】支持存储管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/35</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/7</t>
+  </si>
+  <si>
+    <t>BMC开发者如何在lscmd中显示和调试接口执行组件自定义命令用于在线调试</t>
+  </si>
+  <si>
+    <t>支持组件自定义命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/104</t>
+  </si>
+  <si>
+    <t>【需求】支持能效管理子系统组件自定义命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/17</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/7</t>
+  </si>
+  <si>
+    <t>【需求】支持组件自定义命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/21</t>
+  </si>
+  <si>
+    <t>BMC开发者如何高效实现电链路统计数据采集接口</t>
+  </si>
+  <si>
+    <t>【需求】支持NPU参数面端口电链路数据采集</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/8</t>
+  </si>
+  <si>
+    <t>【需求】支持NPU参数面光模块数据采集接口增加电链路数据</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/7</t>
+  </si>
+  <si>
+    <t>BMC开发者如何设计CLI并发收集NPU/CPU日志的失败处理</t>
+  </si>
+  <si>
+    <t>【需求】 支持CLI导出NPU DFX日志</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/48</t>
+  </si>
+  <si>
+    <t>【需求】支持CLI导出CPU DFX日志</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/46</t>
+  </si>
+  <si>
+    <t>BMC开发中如何实现DPU网卡启动状态的实时检测与记录</t>
+  </si>
+  <si>
+    <t>【需求】支持DPU网卡启动完成标识记录</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/28</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/15</t>
+  </si>
+  <si>
+    <t>开发者在BMC Studio中需手动二次配置因器件库不完整。</t>
+  </si>
+  <si>
+    <t>BMC Studio工具使用反馈</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/714/1</t>
+  </si>
+  <si>
+    <t>[WIP]BMC Studio用户指南</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/221/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何更新通用和异构硬件适配文档资源</t>
+  </si>
+  <si>
+    <t>【需求】社区更新通用硬件相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/19</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/13</t>
+  </si>
+  <si>
+    <t>【需求】社区更新设备管理规范相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/14</t>
+  </si>
+  <si>
+    <t>【需求】社区补齐异构硬件相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/17</t>
+  </si>
+  <si>
+    <t>【需求】社区更新能效管理相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/16</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/20</t>
+  </si>
+  <si>
+    <t>BMC开发者如何修正ProcessorID属性类型以符合SMBIOS协议</t>
+  </si>
+  <si>
+    <t>bmc.kepler.Systems.Processor.CPU的ProcessorID为U32类型，与SMBIOS协议不一致</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/30</t>
+  </si>
+  <si>
+    <t>【问题单】CPU的ProcessorID属性定义与SMBIOS协议规定不符</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/75</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/47</t>
+  </si>
+  <si>
+    <t>CPU类的ProcessorID属性定义为U32类型，与SMBIOS协议范围（QWORD）不一致</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/362/1</t>
+  </si>
+  <si>
+    <t>BMC开发者需统一板卡和MCU一键收集信息的存储路径与命名规范</t>
+  </si>
+  <si>
+    <t>【已评审】支持一键收集导出板卡信息，mcu信息</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/628/1</t>
+  </si>
+  <si>
+    <t>【需求】支持一键收集通用硬件信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/34</t>
+  </si>
+  <si>
+    <t>openUBMC一键收集介绍</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/290/1</t>
+  </si>
+  <si>
+    <t>【问题单】支持一键收集导出板卡信息，mcu信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/10</t>
+  </si>
+  <si>
+    <t>【需求】支持板卡硬件管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/15</t>
+  </si>
+  <si>
+    <t>基础通用问题FAQ</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/292/1</t>
+  </si>
+  <si>
+    <t>openUBMC各sig组本周(2025-0421-2025-0427)关闭issue统计</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/672/1</t>
+  </si>
+  <si>
+    <t>openUBMC各sig组本周(2025-0428~2025-0505)关闭issue统计</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/733/1</t>
+  </si>
+  <si>
+    <t>bmc-core SIG 入门指南</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/167/1</t>
+  </si>
+  <si>
+    <t>openUBMC各sig组本周(2025-0506~2025-0511)关闭issue统计</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/876/1</t>
+  </si>
+  <si>
+    <t>openUBMC品牌包定制指南</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/355/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何优化国密证书接口的异常提示机制</t>
+  </si>
+  <si>
+    <t>【需求】支持国密证书管理的接口优化</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/43</t>
+  </si>
+  <si>
+    <t>【需求】支持国密证书管理的北向接口配置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/23</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现日志配置与系统路径的存储隔离迁移</t>
+  </si>
+  <si>
+    <t>支持日志存放位置隔离</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rootfs_user/issues/2</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/23</t>
+  </si>
+  <si>
+    <t>BMC开发者需实现NVMe盘多型号识别与管理兼容性</t>
+  </si>
+  <si>
+    <t>【需求】支持新增华为厂商NVMe盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/41</t>
+  </si>
+  <si>
+    <t>【需求】支持新增Memblaze厂商NVMe盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/44</t>
+  </si>
+  <si>
+    <t>如何解决恢复出厂设置后BMC固件升级签名验证异常</t>
+  </si>
+  <si>
+    <t>恢复出厂设置后，BMC升级失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1065/1</t>
+  </si>
+  <si>
+    <t>BMC恢复出厂设置之后无法更新固件</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/831/1</t>
+  </si>
+  <si>
+    <t>恢复出厂设置时无法升级</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/11</t>
+  </si>
+  <si>
+    <t>BMC开发者如何高效管理openTelemetry API依赖组件</t>
+  </si>
+  <si>
+    <t>提供openTelemetry及依赖开源软件API能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/3</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/conan_index/issues/3</t>
+  </si>
+  <si>
+    <t>BMC开发者在资源树协作接口中如何解决属性约束冲突与内部实现暴露问题</t>
+  </si>
+  <si>
+    <t>支持通用硬件满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/98</t>
+  </si>
+  <si>
+    <t>【需求】power_mgmt组件接口支持配置PrivilegeMap信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/44</t>
+  </si>
+  <si>
+    <t>【需求】支持能效管理满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/12</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/13</t>
+  </si>
+  <si>
+    <t>【需求】thermal_mgmt组件接口支持配置PrivilegeMap信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/27</t>
+  </si>
+  <si>
+    <t>【需求】thermal_mgmt组件满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/24</t>
+  </si>
+  <si>
+    <t>支持框架资源树协作接口满足关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/38</t>
+  </si>
+  <si>
+    <t>【需求】支持异构算力满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manufacture/issues/2</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/pcie_device/issues/7</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/lsw/issues/2</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/22</t>
+  </si>
+  <si>
+    <t>【需求】支持通用硬件满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/12</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/22</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/17</t>
+  </si>
+  <si>
+    <t>支持基础服务满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/32</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/chassis/issues/3</t>
+  </si>
+  <si>
+    <t>资源树协作接口关键字满足使用原则和规范</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/6</t>
+  </si>
+  <si>
+    <t>支持安全管理满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/account/issues/6</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现新的遥测配置管理接口</t>
+  </si>
+  <si>
+    <t>支持遥测上报配置管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/12</t>
+  </si>
+  <si>
+    <t>【需求】 支持遥测上报配置管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/37</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/16</t>
+  </si>
+  <si>
+    <t>【需求】可观测新增redfish、web接口及属性</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/29</t>
+  </si>
+  <si>
+    <t>BMC开发者如何高效构建仿真测试环境</t>
+  </si>
+  <si>
+    <t>OpenUBMC社区支持仿真镜像的构建与发布</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/qemu/issues/5</t>
+  </si>
+  <si>
+    <t>OpenUBMC社区支持仿真数据的发布</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/qemu/issues/4</t>
+  </si>
+  <si>
+    <t>OpenUBMC社区支持Qemu工具的构建与发布</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/qemu/issues/3</t>
+  </si>
+  <si>
+    <t>BMC开发者需解决一键部署中的Conan组件拉取机制稳定性问题</t>
+  </si>
+  <si>
+    <t>bmc studio使用问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1012/1</t>
+  </si>
+  <si>
+    <t>BMC_STUDIO仓库一键部署，丢失响应，无成功，无失败反馈</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/962/1</t>
+  </si>
+  <si>
+    <t>使用bmc_studio遇到的问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/925/1</t>
+  </si>
+  <si>
+    <t>BMC Studio问题反馈</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/707/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何在BIOS启动阶段禁用KVM/VNC键盘输入防止密码修改</t>
+  </si>
+  <si>
+    <t>支持BIOS启动过程禁止KVM/VNC键盘输入</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/19</t>
+  </si>
+  <si>
+    <t>支持BIOS在启动阶段禁用键盘</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/20</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现FPGA自检失败的告警模拟测试</t>
+  </si>
+  <si>
+    <t>【需求】支持FPGA固件周期自检失败的告警</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/30</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/84</t>
+  </si>
+  <si>
+    <t>支持FPGA固件周期自检失败的告警</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/45</t>
+  </si>
+  <si>
+    <t>BMC开发者需修正VPD中position描述的映射错误</t>
+  </si>
+  <si>
+    <t>vpd仓库platform.sr.png描述有误</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/360/1</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/2</t>
+  </si>
+  <si>
+    <t>BMC开发者如何统一实现查询指定处理器异构资源属性的Redfish接口</t>
+  </si>
+  <si>
+    <t>【需求】支持查询指定处理器资源信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/33</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/53</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/47</t>
+  </si>
+  <si>
+    <t>BMC开发者如何申请使用自动化测试框架</t>
+  </si>
+  <si>
+    <t>怎么申请使用kptest框架和itestsmart工具呢</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/665/1</t>
+  </si>
+  <si>
+    <t>kptest框架与KPTestOpenFramework工程、iTestSmart工具介绍</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/832/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何规避新增IPMI命令导致组件不可启动问题</t>
+  </si>
+  <si>
+    <t>pcie_device新增IPMI命令导致组件异常问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/595/1</t>
+  </si>
+  <si>
+    <t>非天池组件加载方式</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/610/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何通过Redfish接口实现光模块老化预测功能开关</t>
+  </si>
+  <si>
+    <t>【需求】支持光模块老化故障预测功能开关</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/52</t>
+  </si>
+  <si>
+    <t>【修改描述】支持光模块老化预测功能开关使能</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/31</t>
+  </si>
+  <si>
+    <t>BMC开发者如何优化RAID日志导出的时延与安全性</t>
+  </si>
+  <si>
+    <t>【需求】支持收集raid卡文本格式日志</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/32</t>
+  </si>
+  <si>
+    <t>【需求】支持一键搜集日志导出raid卡固件日志</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/31</t>
+  </si>
+  <si>
+    <t>BMC开发者在Redfish OEM定制中如何实现存储控制器属性查询</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish接口oem定制查询指定存储资源信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rack_mgmt/issues/2</t>
+  </si>
+  <si>
+    <t>【需求】支持厂商定制化显示存储控制器端口数</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/67</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现PCIe Switch Flash升级组件的集成</t>
+  </si>
+  <si>
+    <t>PCIe Switch 芯片的Flash升级</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/721/1</t>
+  </si>
+  <si>
+    <t>【讨论】PCIe Switch场景下如何加载PCIe卡</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/722/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现NVMe MI over MCTP协议响应码的可靠解析</t>
+  </si>
+  <si>
+    <t>【需求】支持NVMe-mi over mctp的协议解析</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/33</t>
+  </si>
+  <si>
+    <t>【需求】支持解析nvme mi协议响应码信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/8</t>
+  </si>
+  <si>
+    <t>BMC开发者需解决权限限制下的升级恢复接口错误问题</t>
+  </si>
+  <si>
+    <t>【变更声明】Redfish升级接口权限变更</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/732/1</t>
+  </si>
+  <si>
+    <t>Redfish 升级接口 SimpleUpdate 关于在支持升级之后清除配置功能接口变更</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/32</t>
+  </si>
+  <si>
+    <t>如何确保BIOS测试命令在高可用环境中的兼容性</t>
+  </si>
+  <si>
+    <t>高可用环境BIOS执行test失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/800/1</t>
+  </si>
+  <si>
+    <t>组件内执行bingo test显示测试失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/594/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何高效配置3000W电源的PMbus告警属性</t>
+  </si>
+  <si>
+    <t>【需求】支持3000W电源管理，新增资源树私有属性CurrentModeLogic</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/account/issues/13</t>
+  </si>
+  <si>
+    <t>【需求】支持3000W电源管理，新增资源树bmc.kepler.Systems.PowerMgmt.OnePower.Status属性CMLStatus</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/44</t>
+  </si>
+  <si>
+    <t>【需求】支持电源继电器状态管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/45</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现SystemInfoTable属性的持久化存储以支持IPMI标准命令</t>
+  </si>
+  <si>
+    <t>IPMI2.0标准接口能力新增私有属性保存system info信息</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1100/1</t>
+  </si>
+  <si>
+    <t>【需求】支持Get System Info标准命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/12</t>
+  </si>
+  <si>
+    <t>【需求】支持Set System Info标准命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/13</t>
+  </si>
+  <si>
+    <t>BMC开发者如何提升社区UT IT测试覆盖率和工具贡献效率</t>
+  </si>
+  <si>
+    <t>openUBMC社区测试贡献规划</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/592/1</t>
+  </si>
+  <si>
+    <t>QA 运作规则讨论</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/209/1</t>
+  </si>
+  <si>
+    <t>openUBMC社区QA SIG运作</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/593/1</t>
+  </si>
+  <si>
+    <t>如何避免CRPS电源适配中SlotNumber配置错误</t>
+  </si>
+  <si>
+    <t>pmbus CRPS电源适配</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/240/1</t>
+  </si>
+  <si>
+    <t>电源适配指导</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1101/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现CSR文件损坏的检测与自修复</t>
+  </si>
+  <si>
+    <t>CSR文件损坏之后的恢复能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/4</t>
+  </si>
+  <si>
+    <t>CSR文件损坏恢复能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/9</t>
+  </si>
+  <si>
+    <t>BMC开发者确保SMBIOS协议解析Structure Header Length字段准确</t>
+  </si>
+  <si>
+    <t>解析SMBIOS协议04Type时出现异常</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/1</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/363/1</t>
+  </si>
+  <si>
+    <t>BMC开发者实现升级时多签名机制兼容性</t>
+  </si>
+  <si>
+    <t>能否实现伙伴签名的openUBMC版本直接升级华为签名的各种固件？</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/335/1</t>
+  </si>
+  <si>
+    <t>伙伴openubmc版本如何支持升级华为签名固件版本和伙伴自己签名的固件版本均能成功？</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1083/1</t>
+  </si>
+  <si>
+    <t>使用openubmc进行bios固件升级，提示无效的升级包</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/182/1</t>
+  </si>
+  <si>
+    <t>刷了华为根的机器是否可以直接刷伙伴根</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/933/1</t>
+  </si>
+  <si>
+    <t>标签包裹。</t>
+  </si>
+  <si>
+    <t>【需求】支持NCSI边带管理功能</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/16</t>
+  </si>
+  <si>
+    <t>【需求】开源社区支持NCSI边带管理功能</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/5</t>
+  </si>
+  <si>
+    <t>解决BMC过渡包升级中签名链更新缺失导致的校验失败</t>
+  </si>
+  <si>
+    <t>制作反向过渡包时碰到的疑问</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/723/1</t>
+  </si>
+  <si>
+    <t>25.03构建出包以及伙伴签名问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/390/1</t>
+  </si>
+  <si>
+    <t>25.03版本的构建环境搭建：dockerfile创建镜像失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/409/1</t>
+  </si>
+  <si>
+    <t>开发者实现Redfish Drive资源OEM接口时需解决NVM MI命令与硬件协议栈的兼容性整合</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制SendNvmeMICommand请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/40</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetIdentifyData请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/39</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetAddSmartInfo请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/37</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetTelemetryData请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/13</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/36</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetSmartInfo请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/38</t>
+  </si>
+  <si>
+    <t>BMC配置导出需新增产品类别和软件版本信息支持</t>
+  </si>
+  <si>
+    <t>配置导出项新增BMC软件版本信息和产品类别信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/13</t>
+  </si>
+  <si>
+    <t>配置导入导出新增产品类别信息和BMC软件版本信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/profile_schema/issues/2</t>
+  </si>
+  <si>
+    <t>提供BMC出厂配置定制指导</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/16</t>
+  </si>
+  <si>
+    <t>软件中心需要添加BMCStudio描述和下载页</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/software-center-config/issues/3</t>
+  </si>
+  <si>
+    <t>BMC开发者如何防范开发环境中的文件访问绕过漏洞</t>
+  </si>
+  <si>
+    <t>CVE-2025-31486</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/18</t>
+  </si>
+  <si>
+    <t>CVE-2025-46565</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/21</t>
+  </si>
+  <si>
+    <t>CVE-2025-32395</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/19</t>
+  </si>
+  <si>
+    <t>CVE-2025-30208</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/16</t>
+  </si>
+  <si>
+    <t>CVE-2025-31125</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/17</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现PLDM协议获取网卡信息并集成接口展示</t>
+  </si>
+  <si>
+    <t>【需求】支持使用pldm协议获取网卡相关信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/20</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/19</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现bingo SDK版本自动化兼容性校验</t>
+  </si>
+  <si>
+    <t>应支持bingo、构建工具、sdk之间的版本配套</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/414/1</t>
+  </si>
+  <si>
+    <t>【需求】bingo支持组件的全量二进制构建</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bingo/issues/12</t>
+  </si>
+  <si>
+    <t>BMC开发者如何解决固件升级中的证书校验失败</t>
+  </si>
+  <si>
+    <t>使用社区最新出包，升级hpm失败，查看m3log get cert fail!</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/498/1</t>
+  </si>
+  <si>
+    <t>最新 source 包烧录异常问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/173/1</t>
+  </si>
+  <si>
+    <t>BMC多组件共享白名单配置的维护复杂度问题</t>
+  </si>
+  <si>
+    <t>【需求】基于动态插桩拦截风险接口调用日志，形成通用化命令的白名单配置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/15</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/pcie_device/issues/4</t>
+  </si>
+  <si>
+    <t>BMC固件开发中如何确保网卡扩展与历史协议兼容</t>
+  </si>
+  <si>
+    <t>【需求】网卡适配组件兼容历史网卡功能</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/6</t>
+  </si>
+  <si>
+    <t>【需求】网卡支持南向部件驱动接口</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/17</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/18</t>
+  </si>
+  <si>
+    <t>BMC开发者如何解决PXE阶段因POST未完成导致重启失败</t>
+  </si>
+  <si>
+    <t>【问题单】定制后bios处于PXE阶段时重启BMC失败</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/19</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/sensor/issues/10</t>
+  </si>
+  <si>
+    <t>BMC开发者如何统一实现多品牌新款SATA硬盘的纳管支持？</t>
+  </si>
+  <si>
+    <t>【需求】支持新增希捷SATA盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/42</t>
+  </si>
+  <si>
+    <t>【需求】支持新增西数SATA盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/43</t>
+  </si>
+  <si>
+    <t>【需求】支持新增东芝SATA盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/45</t>
+  </si>
+  <si>
+    <t>BMC开发者如何在直通场景下实现NVMe SSD自定义SMART监控</t>
+  </si>
+  <si>
+    <t>【需求】支持自定义SMART信息的NVMe SSD盘写放大监控</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/28</t>
+  </si>
+  <si>
+    <t>【需求】支持从带内获取SMART NVMe SSD盘冗余块信息并监控</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/24</t>
+  </si>
+  <si>
+    <t>【需求】支持获取NVMe SSD盘自定义SMART信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/27</t>
+  </si>
+  <si>
+    <t>【需求】支持从带内获取厂商SMART NVMe SSD盘冗余块信息并监控</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/10</t>
+  </si>
+  <si>
+    <t>【需求】支持自定义的SMART NVMe SSD盘亚健康检测</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/23</t>
+  </si>
+  <si>
+    <t>【需求】支持自定义SMART信息的NVMe SSD盘预估寿命新增计算参数</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/25</t>
+  </si>
+  <si>
+    <t>BMC开发者如何提升多模组固件升级健壮性</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组CSR固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/24</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组VRD固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/26</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组CPLD固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/25</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组MCU固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/27</t>
+  </si>
+  <si>
+    <t>CPLD 升级 MultipleSuppliersMode MIXED Mode 功能背景了解</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/886/1</t>
+  </si>
+  <si>
+    <t>【需求】支持MCU子固件升级时版本号校验</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/23</t>
+  </si>
+  <si>
+    <t>BMC开发者亟需开源应用框架开发指导文档</t>
+  </si>
+  <si>
+    <t>提供应用框架开发指导</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/15</t>
+  </si>
+  <si>
+    <t>【需求】社区提供开源项目开发者指南</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/webui/issues/19</t>
+  </si>
+  <si>
+    <t>BMC开发者如何为thermal和power管理组件实现业务场景的白名单配置基线化</t>
+  </si>
+  <si>
+    <t>【需求】power_mgmt组件明确业务场景下的白名单化配置并形成基线</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/45</t>
+  </si>
+  <si>
+    <t>【需求】thermal_mgmt组件明确业务场景下的白名单化配置并形成基线</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/25</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现Redfish接口查询指定PCIe设备资源信息</t>
+  </si>
+  <si>
+    <t>【需求】支持查询指定PCIEDevices资源信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/pcie_device/issues/5</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/16</t>
+  </si>
+  <si>
+    <t>如何优化BMC日志、跟踪和度量数据的采集与存储效率</t>
+  </si>
+  <si>
+    <t>提供跟踪数据采集和存储能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/4</t>
+  </si>
+  <si>
+    <t>提供度量数据采集和存储能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/2</t>
+  </si>
+  <si>
+    <t>提供日志数据采集和存储能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/5</t>
+  </si>
+  <si>
+    <t>BMC开发者如何适配BlueField系列设备的调速策略在openUBMC中</t>
+  </si>
+  <si>
+    <t>【需求】支持BlueField-3（B3220）的调速策略配置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/17</t>
+  </si>
+  <si>
+    <t>【需求】支持BlueField-2（332A）的调速策略</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/18</t>
+  </si>
+  <si>
+    <t>BMC开发者需修正BIOS组件生效流程图的逻辑错误</t>
+  </si>
+  <si>
+    <t>bios组件生效流程流程图错误</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/17</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/19</t>
+  </si>
+  <si>
     <t>BMC开发者如何解决固件并行升级总线互斥问题</t>
   </si>
   <si>
@@ -398,933 +1637,6 @@
     <t>https://gitcode.com/openUBMC/vpd/issues/11</t>
   </si>
   <si>
-    <t>如何确保BIOS测试命令在高可用环境中的兼容性</t>
-  </si>
-  <si>
-    <t>高可用环境BIOS执行test失败</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/800/1</t>
-  </si>
-  <si>
-    <t>组件内执行bingo test显示测试失败</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/594/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何在lscmd中显示和调试接口执行组件自定义命令用于在线调试</t>
-  </si>
-  <si>
-    <t>支持组件自定义命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/104</t>
-  </si>
-  <si>
-    <t>【需求】支持能效管理子系统组件自定义命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/17</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/7</t>
-  </si>
-  <si>
-    <t>【需求】支持组件自定义命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/21</t>
-  </si>
-  <si>
-    <t>BMC固件开发中如何确保网卡扩展与历史协议兼容</t>
-  </si>
-  <si>
-    <t>【需求】网卡适配组件兼容历史网卡功能</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/6</t>
-  </si>
-  <si>
-    <t>【需求】网卡支持南向部件驱动接口</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/17</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/18</t>
-  </si>
-  <si>
-    <t>BMC开发者在Redfish OEM定制中如何实现存储控制器属性查询</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish接口oem定制查询指定存储资源信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rack_mgmt/issues/2</t>
-  </si>
-  <si>
-    <t>【需求】支持厂商定制化显示存储控制器端口数</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/67</t>
-  </si>
-  <si>
-    <t>BMC开发者如何在直通场景下实现NVMe SSD自定义SMART监控</t>
-  </si>
-  <si>
-    <t>【需求】支持自定义SMART信息的NVMe SSD盘写放大监控</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/28</t>
-  </si>
-  <si>
-    <t>【需求】支持从带内获取SMART NVMe SSD盘冗余块信息并监控</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/24</t>
-  </si>
-  <si>
-    <t>【需求】支持获取NVMe SSD盘自定义SMART信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/27</t>
-  </si>
-  <si>
-    <t>【需求】支持从带内获取厂商SMART NVMe SSD盘冗余块信息并监控</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/10</t>
-  </si>
-  <si>
-    <t>【需求】支持自定义的SMART NVMe SSD盘亚健康检测</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/23</t>
-  </si>
-  <si>
-    <t>【需求】支持自定义SMART信息的NVMe SSD盘预估寿命新增计算参数</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/25</t>
-  </si>
-  <si>
-    <t>BMC开发中如何实现DPU网卡启动状态的实时检测与记录</t>
-  </si>
-  <si>
-    <t>【需求】支持DPU网卡启动完成标识记录</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/28</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/15</t>
-  </si>
-  <si>
-    <t>BMC开发者如何申请使用自动化测试框架</t>
-  </si>
-  <si>
-    <t>怎么申请使用kptest框架和itestsmart工具呢</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/665/1</t>
-  </si>
-  <si>
-    <t>kptest框架与KPTestOpenFramework工程、iTestSmart工具介绍</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/832/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何高效实现电链路统计数据采集接口</t>
-  </si>
-  <si>
-    <t>【需求】支持NPU参数面端口电链路数据采集</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/8</t>
-  </si>
-  <si>
-    <t>【需求】支持NPU参数面光模块数据采集接口增加电链路数据</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/7</t>
-  </si>
-  <si>
-    <t>BMC开发者需修正VPD中position描述的映射错误</t>
-  </si>
-  <si>
-    <t>vpd仓库platform.sr.png描述有误</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/360/1</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/2</t>
-  </si>
-  <si>
-    <t>BMC开发者实现升级时多签名机制兼容性</t>
-  </si>
-  <si>
-    <t>能否实现伙伴签名的openUBMC版本直接升级华为签名的各种固件？</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/335/1</t>
-  </si>
-  <si>
-    <t>伙伴openubmc版本如何支持升级华为签名固件版本和伙伴自己签名的固件版本均能成功？</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1083/1</t>
-  </si>
-  <si>
-    <t>使用openubmc进行bios固件升级，提示无效的升级包</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/182/1</t>
-  </si>
-  <si>
-    <t>刷了华为根的机器是否可以直接刷伙伴根</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/933/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何通过Redfish接口实现光模块老化预测功能开关</t>
-  </si>
-  <si>
-    <t>【需求】支持光模块老化故障预测功能开关</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/52</t>
-  </si>
-  <si>
-    <t>【修改描述】支持光模块老化预测功能开关使能</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/31</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现新的遥测配置管理接口</t>
-  </si>
-  <si>
-    <t>支持遥测上报配置管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/12</t>
-  </si>
-  <si>
-    <t>【需求】 支持遥测上报配置管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/37</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/16</t>
-  </si>
-  <si>
-    <t>【需求】可观测新增redfish、web接口及属性</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/29</t>
-  </si>
-  <si>
-    <t>BMC开发者如何优化RAID日志导出的时延与安全性</t>
-  </si>
-  <si>
-    <t>【需求】支持收集raid卡文本格式日志</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/32</t>
-  </si>
-  <si>
-    <t>【需求】支持一键搜集日志导出raid卡固件日志</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/31</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现SystemInfoTable属性的持久化存储以支持IPMI标准命令</t>
-  </si>
-  <si>
-    <t>IPMI2.0标准接口能力新增私有属性保存system info信息</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1100/1</t>
-  </si>
-  <si>
-    <t>【需求】支持Get System Info标准命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/12</t>
-  </si>
-  <si>
-    <t>【需求】支持Set System Info标准命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/13</t>
-  </si>
-  <si>
-    <t>BMC开发者如何提升社区UT IT测试覆盖率和工具贡献效率</t>
-  </si>
-  <si>
-    <t>openUBMC社区测试贡献规划</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/592/1</t>
-  </si>
-  <si>
-    <t>QA 运作规则讨论</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/209/1</t>
-  </si>
-  <si>
-    <t>openUBMC社区QA SIG运作</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/593/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现PCIe Switch Flash升级组件的集成</t>
-  </si>
-  <si>
-    <t>PCIe Switch 芯片的Flash升级</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/721/1</t>
-  </si>
-  <si>
-    <t>【讨论】PCIe Switch场景下如何加载PCIe卡</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/722/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何规避新增IPMI命令导致组件不可启动问题</t>
-  </si>
-  <si>
-    <t>pcie_device新增IPMI命令导致组件异常问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/595/1</t>
-  </si>
-  <si>
-    <t>非天池组件加载方式</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/610/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何在BIOS启动阶段禁用KVM/VNC键盘输入防止密码修改</t>
-  </si>
-  <si>
-    <t>支持BIOS启动过程禁止KVM/VNC键盘输入</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/19</t>
-  </si>
-  <si>
-    <t>支持BIOS在启动阶段禁用键盘</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/20</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现日志配置与系统路径的存储隔离迁移</t>
-  </si>
-  <si>
-    <t>支持日志存放位置隔离</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rootfs_user/issues/2</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/23</t>
-  </si>
-  <si>
-    <t>BMC开发者如何防范开发环境中的文件访问绕过漏洞</t>
-  </si>
-  <si>
-    <t>CVE-2025-31486</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/18</t>
-  </si>
-  <si>
-    <t>CVE-2025-46565</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/21</t>
-  </si>
-  <si>
-    <t>CVE-2025-32395</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/19</t>
-  </si>
-  <si>
-    <t>CVE-2025-30208</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/16</t>
-  </si>
-  <si>
-    <t>CVE-2025-31125</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/17</t>
-  </si>
-  <si>
-    <t>BMC开发者在资源树协作接口中如何解决属性约束冲突与内部实现暴露问题</t>
-  </si>
-  <si>
-    <t>支持通用硬件满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/98</t>
-  </si>
-  <si>
-    <t>【需求】power_mgmt组件接口支持配置PrivilegeMap信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/44</t>
-  </si>
-  <si>
-    <t>【需求】支持能效管理满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/12</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/13</t>
-  </si>
-  <si>
-    <t>【需求】thermal_mgmt组件接口支持配置PrivilegeMap信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/27</t>
-  </si>
-  <si>
-    <t>【需求】thermal_mgmt组件满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/24</t>
-  </si>
-  <si>
-    <t>支持框架资源树协作接口满足关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/38</t>
-  </si>
-  <si>
-    <t>【需求】支持异构算力满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manufacture/issues/2</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/pcie_device/issues/7</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/lsw/issues/2</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/22</t>
-  </si>
-  <si>
-    <t>【需求】支持通用硬件满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/12</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/22</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/17</t>
-  </si>
-  <si>
-    <t>支持基础服务满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/32</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/chassis/issues/3</t>
-  </si>
-  <si>
-    <t>资源树协作接口关键字满足使用原则和规范</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/6</t>
-  </si>
-  <si>
-    <t>支持安全管理满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/account/issues/6</t>
-  </si>
-  <si>
-    <t>BMC开发者如何高效管理openTelemetry API依赖组件</t>
-  </si>
-  <si>
-    <t>提供openTelemetry及依赖开源软件API能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/observability/issues/3</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/conan_index/issues/3</t>
-  </si>
-  <si>
-    <t>如何避免CRPS电源适配中SlotNumber配置错误</t>
-  </si>
-  <si>
-    <t>pmbus CRPS电源适配</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/240/1</t>
-  </si>
-  <si>
-    <t>电源适配指导</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1101/1</t>
-  </si>
-  <si>
-    <t>如何优化BMC日志、跟踪和度量数据的采集与存储效率</t>
-  </si>
-  <si>
-    <t>提供跟踪数据采集和存储能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/observability/issues/4</t>
-  </si>
-  <si>
-    <t>提供度量数据采集和存储能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/observability/issues/2</t>
-  </si>
-  <si>
-    <t>提供日志数据采集和存储能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/observability/issues/5</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现bingo SDK版本自动化兼容性校验</t>
-  </si>
-  <si>
-    <t>应支持bingo、构建工具、sdk之间的版本配套</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/414/1</t>
-  </si>
-  <si>
-    <t>【需求】bingo支持组件的全量二进制构建</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bingo/issues/12</t>
-  </si>
-  <si>
-    <t>BMC开发者确保SMBIOS协议解析Structure Header Length字段准确</t>
-  </si>
-  <si>
-    <t>解析SMBIOS协议04Type时出现异常</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/1</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/363/1</t>
-  </si>
-  <si>
-    <t>BMC开发者需统一板卡和MCU一键收集信息的存储路径与命名规范</t>
-  </si>
-  <si>
-    <t>【已评审】支持一键收集导出板卡信息，mcu信息</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/628/1</t>
-  </si>
-  <si>
-    <t>【需求】支持一键收集通用硬件信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/34</t>
-  </si>
-  <si>
-    <t>openUBMC一键收集介绍</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/290/1</t>
-  </si>
-  <si>
-    <t>【问题单】支持一键收集导出板卡信息，mcu信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/10</t>
-  </si>
-  <si>
-    <t>【需求】支持板卡硬件管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/15</t>
-  </si>
-  <si>
-    <t>基础通用问题FAQ</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/292/1</t>
-  </si>
-  <si>
-    <t>openUBMC各sig组本周(2025-0421-2025-0427)关闭issue统计</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/672/1</t>
-  </si>
-  <si>
-    <t>openUBMC各sig组本周(2025-0428~2025-0505)关闭issue统计</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/733/1</t>
-  </si>
-  <si>
-    <t>bmc-core SIG 入门指南</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/167/1</t>
-  </si>
-  <si>
-    <t>openUBMC各sig组本周(2025-0506~2025-0511)关闭issue统计</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/876/1</t>
-  </si>
-  <si>
-    <t>openUBMC品牌包定制指南</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/355/1</t>
-  </si>
-  <si>
-    <t>如何解决恢复出厂设置后BMC固件升级签名验证异常</t>
-  </si>
-  <si>
-    <t>恢复出厂设置后，BMC升级失败</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1065/1</t>
-  </si>
-  <si>
-    <t>BMC恢复出厂设置之后无法更新固件</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/831/1</t>
-  </si>
-  <si>
-    <t>恢复出厂设置时无法升级</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/11</t>
-  </si>
-  <si>
-    <t>BMC开发者需修正BIOS组件生效流程图的逻辑错误</t>
-  </si>
-  <si>
-    <t>bios组件生效流程流程图错误</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/17</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/19</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现PLDM协议获取网卡信息并集成接口展示</t>
-  </si>
-  <si>
-    <t>【需求】支持使用pldm协议获取网卡相关信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/20</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/19</t>
-  </si>
-  <si>
-    <t>BMC开发者如何修正ProcessorID属性类型以符合SMBIOS协议</t>
-  </si>
-  <si>
-    <t>bmc.kepler.Systems.Processor.CPU的ProcessorID为U32类型，与SMBIOS协议不一致</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/30</t>
-  </si>
-  <si>
-    <t>【问题单】CPU的ProcessorID属性定义与SMBIOS协议规定不符</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/75</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/47</t>
-  </si>
-  <si>
-    <t>CPU类的ProcessorID属性定义为U32类型，与SMBIOS协议范围（QWORD）不一致</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/362/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何高效配置3000W电源的PMbus告警属性</t>
-  </si>
-  <si>
-    <t>【需求】支持3000W电源管理，新增资源树私有属性CurrentModeLogic</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/account/issues/13</t>
-  </si>
-  <si>
-    <t>【需求】支持3000W电源管理，新增资源树bmc.kepler.Systems.PowerMgmt.OnePower.Status属性CMLStatus</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/44</t>
-  </si>
-  <si>
-    <t>【需求】支持电源继电器状态管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/45</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现CSR文件损坏的检测与自修复</t>
-  </si>
-  <si>
-    <t>CSR文件损坏之后的恢复能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/4</t>
-  </si>
-  <si>
-    <t>CSR文件损坏恢复能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/9</t>
-  </si>
-  <si>
-    <t>开发者在BMC Studio中需手动二次配置因器件库不完整。</t>
-  </si>
-  <si>
-    <t>BMC Studio工具使用反馈</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/714/1</t>
-  </si>
-  <si>
-    <t>[WIP]BMC Studio用户指南</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/221/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何解决固件升级中的证书校验失败</t>
-  </si>
-  <si>
-    <t>使用社区最新出包，升级hpm失败，查看m3log get cert fail!</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/498/1</t>
-  </si>
-  <si>
-    <t>最新 source 包烧录异常问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/173/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现NVMe MI over MCTP协议响应码的可靠解析</t>
-  </si>
-  <si>
-    <t>【需求】支持NVMe-mi over mctp的协议解析</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/33</t>
-  </si>
-  <si>
-    <t>【需求】支持解析nvme mi协议响应码信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/8</t>
-  </si>
-  <si>
-    <t>标签包裹。</t>
-  </si>
-  <si>
-    <t>【需求】支持NCSI边带管理功能</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/16</t>
-  </si>
-  <si>
-    <t>【需求】开源社区支持NCSI边带管理功能</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/5</t>
-  </si>
-  <si>
-    <t>BMC开发者如何更新通用和异构硬件适配文档资源</t>
-  </si>
-  <si>
-    <t>【需求】社区更新通用硬件相关文档</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/19</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/13</t>
-  </si>
-  <si>
-    <t>【需求】社区更新设备管理规范相关文档</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/14</t>
-  </si>
-  <si>
-    <t>【需求】社区补齐异构硬件相关文档</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/17</t>
-  </si>
-  <si>
-    <t>【需求】社区更新能效管理相关文档</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/16</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/20</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现Redfish接口查询指定PCIe设备资源信息</t>
-  </si>
-  <si>
-    <t>【需求】支持查询指定PCIEDevices资源信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/pcie_device/issues/5</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/16</t>
-  </si>
-  <si>
-    <t>BMC开发者如何适配BlueField系列设备的调速策略在openUBMC中</t>
-  </si>
-  <si>
-    <t>【需求】支持BlueField-3（B3220）的调速策略配置</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/17</t>
-  </si>
-  <si>
-    <t>【需求】支持BlueField-2（332A）的调速策略</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/18</t>
-  </si>
-  <si>
-    <t>开发者实现Redfish Drive资源OEM接口时需解决NVM MI命令与硬件协议栈的兼容性整合</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制SendNvmeMICommand请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/40</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetIdentifyData请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/39</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetAddSmartInfo请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/37</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetTelemetryData请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/13</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/36</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetSmartInfo请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/38</t>
-  </si>
-  <si>
-    <t>BMC开发者需实现NVMe盘多型号识别与管理兼容性</t>
-  </si>
-  <si>
-    <t>【需求】支持新增华为厂商NVMe盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/41</t>
-  </si>
-  <si>
-    <t>【需求】支持新增Memblaze厂商NVMe盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/44</t>
-  </si>
-  <si>
-    <t>BMC开发者如何提升多模组固件升级健壮性</t>
-  </si>
-  <si>
-    <t>【需求】支持多模组CSR固件升级健壮性提升</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/24</t>
-  </si>
-  <si>
-    <t>【需求】支持多模组VRD固件升级健壮性提升</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/26</t>
-  </si>
-  <si>
-    <t>【需求】支持多模组CPLD固件升级健壮性提升</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/25</t>
-  </si>
-  <si>
-    <t>【需求】支持多模组MCU固件升级健壮性提升</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/27</t>
-  </si>
-  <si>
-    <t>CPLD 升级 MultipleSuppliersMode MIXED Mode 功能背景了解</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/886/1</t>
-  </si>
-  <si>
-    <t>【需求】支持MCU子固件升级时版本号校验</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/23</t>
-  </si>
-  <si>
     <t>BMC开发中如何解决Conan v1弃用导致的头文件缺失编译失败</t>
   </si>
   <si>
@@ -1338,318 +1650,6 @@
   </si>
   <si>
     <t>https://gitcode.com/openUBMC/lsw/issues/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何解决PXE阶段因POST未完成导致重启失败</t>
-  </si>
-  <si>
-    <t>【问题单】定制后bios处于PXE阶段时重启BMC失败</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/19</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/sensor/issues/10</t>
-  </si>
-  <si>
-    <t>BMC开发者如何统一实现查询指定处理器异构资源属性的Redfish接口</t>
-  </si>
-  <si>
-    <t>【需求】支持查询指定处理器资源信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/33</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/53</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/47</t>
-  </si>
-  <si>
-    <t>BMC开发者如何优化国密证书接口的异常提示机制</t>
-  </si>
-  <si>
-    <t>【需求】支持国密证书管理的接口优化</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/43</t>
-  </si>
-  <si>
-    <t>【需求】支持国密证书管理的北向接口配置</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/23</t>
-  </si>
-  <si>
-    <t>BMC配置导出需新增产品类别和软件版本信息支持</t>
-  </si>
-  <si>
-    <t>配置导出项新增BMC软件版本信息和产品类别信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/13</t>
-  </si>
-  <si>
-    <t>配置导入导出新增产品类别信息和BMC软件版本信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/profile_schema/issues/2</t>
-  </si>
-  <si>
-    <t>提供BMC出厂配置定制指导</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/16</t>
-  </si>
-  <si>
-    <t>软件中心需要添加BMCStudio描述和下载页</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/software-center-config/issues/3</t>
-  </si>
-  <si>
-    <t>BMC开发者如何设计CLI并发收集NPU/CPU日志的失败处理</t>
-  </si>
-  <si>
-    <t>【需求】 支持CLI导出NPU DFX日志</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/48</t>
-  </si>
-  <si>
-    <t>【需求】支持CLI导出CPU DFX日志</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/46</t>
-  </si>
-  <si>
-    <t>BMC开发者如何为thermal和power管理组件实现业务场景的白名单配置基线化</t>
-  </si>
-  <si>
-    <t>【需求】power_mgmt组件明确业务场景下的白名单化配置并形成基线</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/45</t>
-  </si>
-  <si>
-    <t>【需求】thermal_mgmt组件明确业务场景下的白名单化配置并形成基线</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/25</t>
-  </si>
-  <si>
-    <t>BMC开发者如何扩展升级接口参数处理并行升级错误场景</t>
-  </si>
-  <si>
-    <t>【需求】power_mgmt组件适配升级接口参数扩展</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/10</t>
-  </si>
-  <si>
-    <t>【需求】bios组件适配升级接口参数扩展</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/10</t>
-  </si>
-  <si>
-    <t>能效管理适配升级接口参数扩展</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/5</t>
-  </si>
-  <si>
-    <t>general_hardware组件适配升级接口参数</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/11</t>
-  </si>
-  <si>
-    <t>BMC开发者亟需开源应用框架开发指导文档</t>
-  </si>
-  <si>
-    <t>提供应用框架开发指导</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/15</t>
-  </si>
-  <si>
-    <t>【需求】社区提供开源项目开发者指南</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/webui/issues/19</t>
-  </si>
-  <si>
-    <t>BMC开发者如何通过Redfish和IPMI接口实现硬盘日志收集控制</t>
-  </si>
-  <si>
-    <t>【需求】支持硬盘诊断功能控制</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/106</t>
-  </si>
-  <si>
-    <t>【需求】硬盘诊断功能控制</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/112</t>
-  </si>
-  <si>
-    <t>【需求】支持服务器网络管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/25</t>
-  </si>
-  <si>
-    <t>【需求】支持存储管理能力基线</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/30</t>
-  </si>
-  <si>
-    <t>【需求】支持存储管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/35</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/7</t>
-  </si>
-  <si>
-    <t>BMC多组件共享白名单配置的维护复杂度问题</t>
-  </si>
-  <si>
-    <t>【需求】基于动态插桩拦截风险接口调用日志，形成通用化命令的白名单配置</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/15</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/pcie_device/issues/4</t>
-  </si>
-  <si>
-    <t>解决BMC过渡包升级中签名链更新缺失导致的校验失败</t>
-  </si>
-  <si>
-    <t>制作反向过渡包时碰到的疑问</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/723/1</t>
-  </si>
-  <si>
-    <t>25.03构建出包以及伙伴签名问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/390/1</t>
-  </si>
-  <si>
-    <t>25.03版本的构建环境搭建：dockerfile创建镜像失败</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/409/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何高效构建仿真测试环境</t>
-  </si>
-  <si>
-    <t>OpenUBMC社区支持仿真镜像的构建与发布</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/qemu/issues/5</t>
-  </si>
-  <si>
-    <t>OpenUBMC社区支持仿真数据的发布</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/qemu/issues/4</t>
-  </si>
-  <si>
-    <t>OpenUBMC社区支持Qemu工具的构建与发布</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/qemu/issues/3</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现FPGA自检失败的告警模拟测试</t>
-  </si>
-  <si>
-    <t>【需求】支持FPGA固件周期自检失败的告警</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/30</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/84</t>
-  </si>
-  <si>
-    <t>支持FPGA固件周期自检失败的告警</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/45</t>
-  </si>
-  <si>
-    <t>BMC开发者需解决一键部署中的Conan组件拉取机制稳定性问题</t>
-  </si>
-  <si>
-    <t>bmc studio使用问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1012/1</t>
-  </si>
-  <si>
-    <t>BMC_STUDIO仓库一键部署，丢失响应，无成功，无失败反馈</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/962/1</t>
-  </si>
-  <si>
-    <t>使用bmc_studio遇到的问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/925/1</t>
-  </si>
-  <si>
-    <t>BMC Studio问题反馈</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/707/1</t>
-  </si>
-  <si>
-    <t>BMC开发者需解决权限限制下的升级恢复接口错误问题</t>
-  </si>
-  <si>
-    <t>【变更声明】Redfish升级接口权限变更</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/732/1</t>
-  </si>
-  <si>
-    <t>Redfish 升级接口 SimpleUpdate 关于在支持升级之后清除配置功能接口变更</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/32</t>
-  </si>
-  <si>
-    <t>BMC开发者如何统一实现多品牌新款SATA硬盘的纳管支持？</t>
-  </si>
-  <si>
-    <t>【需求】支持新增希捷SATA盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/42</t>
-  </si>
-  <si>
-    <t>【需求】支持新增西数SATA盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/43</t>
-  </si>
-  <si>
-    <t>【需求】支持新增东芝SATA盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/45</t>
   </si>
 </sst>
 </file>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2">
@@ -2759,21 +2759,21 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" t="s">
-        <v>135</v>
+      <c r="B4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="5">
@@ -2781,10 +2781,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6">
@@ -2792,61 +2792,61 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" t="s">
         <v>137</v>
       </c>
-      <c r="C6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>252</v>
+        <v>128</v>
+      </c>
+      <c r="C8" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>254</v>
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>255</v>
-      </c>
-      <c r="C11" t="s">
-        <v>256</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
-        <v>257</v>
-      </c>
-      <c r="C12" t="s">
-        <v>258</v>
+      <c r="B12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="13">
@@ -2854,10 +2854,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>257</v>
+        <v>142</v>
       </c>
       <c r="C13" t="s">
-        <v>259</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14">
@@ -2865,10 +2865,10 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>260</v>
+        <v>142</v>
       </c>
       <c r="C14" t="s">
-        <v>261</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
@@ -2876,54 +2876,39 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>262</v>
+        <v>145</v>
       </c>
       <c r="C15" t="s">
-        <v>263</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>264</v>
-      </c>
-      <c r="C16" t="s">
-        <v>265</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C17" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>266</v>
-      </c>
-      <c r="C18" t="s">
-        <v>268</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>3</v>
       </c>
-      <c r="B19" t="s">
-        <v>266</v>
-      </c>
-      <c r="C19" t="s">
-        <v>269</v>
+      <c r="B19" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="20">
@@ -2931,10 +2916,10 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="C20" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21">
@@ -2942,10 +2927,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="C21" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22">
@@ -2953,10 +2938,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="C22" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23">
@@ -2964,10 +2949,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="C23" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24">
@@ -2975,10 +2960,10 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="C24" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25">
@@ -2986,10 +2971,10 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="C25" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26">
@@ -2997,10 +2982,10 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="C26" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27">
@@ -3008,50 +2993,65 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="C27" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>247</v>
+      </c>
+      <c r="C28" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>487</v>
+        <v>247</v>
+      </c>
+      <c r="C29" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>252</v>
+      </c>
+      <c r="C30" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>489</v>
+      <c r="B31" t="s">
+        <v>252</v>
+      </c>
+      <c r="C31" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>491</v>
+      <c r="B32" t="s">
+        <v>252</v>
+      </c>
+      <c r="C32" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="33">
@@ -3059,10 +3059,10 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>492</v>
+        <v>256</v>
       </c>
       <c r="C33" t="s">
-        <v>493</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34">
@@ -3070,10 +3070,10 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>494</v>
+        <v>252</v>
       </c>
       <c r="C34" t="s">
-        <v>495</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35">
@@ -3081,10 +3081,10 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>496</v>
+        <v>259</v>
       </c>
       <c r="C35" t="s">
-        <v>497</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36">
@@ -3092,10 +3092,10 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>488</v>
+        <v>261</v>
       </c>
       <c r="C36" t="s">
-        <v>498</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37">
@@ -3175,10 +3175,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9">
@@ -3204,10 +3204,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11">
@@ -3215,10 +3215,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="C11" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14">
@@ -3244,10 +3244,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C15" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
@@ -3255,39 +3255,39 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="C16" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" t="s">
-        <v>144</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>145</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="21">
@@ -3295,39 +3295,39 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C21" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" t="s">
-        <v>148</v>
-      </c>
-      <c r="C22" t="s">
-        <v>149</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" t="s">
-        <v>150</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="26">
@@ -3335,43 +3335,28 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C26" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" t="s">
-        <v>153</v>
-      </c>
-      <c r="C27" t="s">
-        <v>154</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>155</v>
-      </c>
-      <c r="C28" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" t="s">
-        <v>157</v>
-      </c>
-      <c r="C29" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -3379,10 +3364,10 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C30" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31">
@@ -3390,28 +3375,43 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C31" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>163</v>
+        <v>172</v>
+      </c>
+      <c r="C33" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>174</v>
+      </c>
+      <c r="C34" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="35">
@@ -3419,39 +3419,39 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C35" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" t="s">
-        <v>164</v>
-      </c>
-      <c r="C36" t="s">
-        <v>166</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
     </row>
     <row r="37">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" t="s">
-        <v>167</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="40">
@@ -3459,10 +3459,10 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C40" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41">
@@ -3470,39 +3470,39 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C41" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>183</v>
+      </c>
+      <c r="C42" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" t="s">
-        <v>172</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" t="s">
-        <v>173</v>
-      </c>
-      <c r="C45" t="s">
-        <v>174</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -3510,28 +3510,43 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="C46" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>188</v>
+      </c>
+      <c r="C47" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>177</v>
+        <v>190</v>
+      </c>
+      <c r="C48" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>192</v>
+      </c>
+      <c r="C49" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="50">
@@ -3539,10 +3554,10 @@
         <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="C50" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51">
@@ -3550,28 +3565,43 @@
         <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="C51" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>198</v>
+      </c>
+      <c r="C52" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>181</v>
+        <v>200</v>
+      </c>
+      <c r="C53" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
+        <v>202</v>
+      </c>
+      <c r="C54" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="55">
@@ -3579,10 +3609,10 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="C55" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
     </row>
     <row r="56">
@@ -3590,123 +3620,108 @@
         <v>3</v>
       </c>
       <c r="B56" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="C56" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s">
-        <v>3</v>
-      </c>
-      <c r="B57" t="s">
-        <v>186</v>
-      </c>
-      <c r="C57" t="s">
-        <v>187</v>
-      </c>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>188</v>
-      </c>
-      <c r="C58" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
+      <c r="A59" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>190</v>
+        <v>209</v>
+      </c>
+      <c r="C60" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B61" t="s">
+        <v>211</v>
+      </c>
+      <c r="C61" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s">
-        <v>3</v>
-      </c>
-      <c r="B62" t="s">
-        <v>191</v>
-      </c>
-      <c r="C62" t="s">
-        <v>192</v>
-      </c>
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>193</v>
-      </c>
-      <c r="C63" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
+      <c r="A64" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B65" t="s">
-        <v>195</v>
+        <v>214</v>
+      </c>
+      <c r="C65" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B66" t="s">
+        <v>214</v>
+      </c>
+      <c r="C66" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s">
-        <v>3</v>
-      </c>
-      <c r="B67" t="s">
-        <v>196</v>
-      </c>
-      <c r="C67" t="s">
-        <v>197</v>
-      </c>
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>198</v>
-      </c>
-      <c r="C68" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>3</v>
-      </c>
-      <c r="B69" t="s">
-        <v>196</v>
-      </c>
-      <c r="C69" t="s">
-        <v>200</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -3714,39 +3729,39 @@
         <v>3</v>
       </c>
       <c r="B70" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="C70" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
+        <v>220</v>
+      </c>
+      <c r="C71" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" t="s">
-        <v>203</v>
-      </c>
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>3</v>
-      </c>
-      <c r="B74" t="s">
-        <v>204</v>
-      </c>
-      <c r="C74" t="s">
-        <v>205</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -3754,50 +3769,50 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="C75" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
+      <c r="A76" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" t="s">
+        <v>225</v>
+      </c>
+      <c r="C76" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>208</v>
+        <v>227</v>
+      </c>
+      <c r="C77" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s">
-        <v>2</v>
-      </c>
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>209</v>
-      </c>
-      <c r="C79" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>3</v>
-      </c>
-      <c r="B80" t="s">
-        <v>211</v>
-      </c>
-      <c r="C80" t="s">
-        <v>212</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -3805,39 +3820,39 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="C81" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
+      <c r="A82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s">
+        <v>230</v>
+      </c>
+      <c r="C82" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" t="s">
-        <v>215</v>
-      </c>
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>3</v>
-      </c>
-      <c r="B85" t="s">
-        <v>216</v>
-      </c>
-      <c r="C85" t="s">
-        <v>217</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -3845,10 +3860,10 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>218</v>
+        <v>264</v>
       </c>
       <c r="C86" t="s">
-        <v>219</v>
+        <v>265</v>
       </c>
     </row>
     <row r="87">
@@ -3856,108 +3871,123 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="C87" t="s">
-        <v>221</v>
+        <v>267</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
+      <c r="A88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" t="s">
+        <v>264</v>
+      </c>
+      <c r="C88" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>222</v>
+        <v>269</v>
+      </c>
+      <c r="C89" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s">
-        <v>2</v>
-      </c>
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>223</v>
-      </c>
-      <c r="C91" t="s">
-        <v>224</v>
+        <v>271</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>3</v>
-      </c>
-      <c r="B92" t="s">
-        <v>225</v>
-      </c>
-      <c r="C92" t="s">
-        <v>226</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
+      <c r="A93" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" t="s">
+        <v>272</v>
+      </c>
+      <c r="C93" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B94" t="s">
-        <v>227</v>
+        <v>274</v>
+      </c>
+      <c r="C94" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B95" t="s">
+        <v>276</v>
+      </c>
+      <c r="C95" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s">
-        <v>3</v>
-      </c>
-      <c r="B96" t="s">
-        <v>228</v>
-      </c>
-      <c r="C96" t="s">
-        <v>229</v>
-      </c>
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>230</v>
-      </c>
-      <c r="C97" t="s">
-        <v>231</v>
+        <v>278</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
+      <c r="A98" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B99" t="s">
-        <v>232</v>
+        <v>279</v>
+      </c>
+      <c r="C99" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B100" t="s">
+        <v>281</v>
+      </c>
+      <c r="C100" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="101">
@@ -3965,10 +3995,10 @@
         <v>3</v>
       </c>
       <c r="B101" t="s">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="C101" t="s">
-        <v>234</v>
+        <v>284</v>
       </c>
     </row>
     <row r="102">
@@ -3976,10 +4006,10 @@
         <v>3</v>
       </c>
       <c r="B102" t="s">
-        <v>235</v>
+        <v>285</v>
       </c>
       <c r="C102" t="s">
-        <v>236</v>
+        <v>286</v>
       </c>
     </row>
     <row r="103">
@@ -3992,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="B104" t="s">
-        <v>237</v>
+        <v>287</v>
       </c>
     </row>
     <row r="105">
@@ -4005,10 +4035,10 @@
         <v>3</v>
       </c>
       <c r="B106" t="s">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="C106" t="s">
-        <v>239</v>
+        <v>289</v>
       </c>
     </row>
     <row r="107">
@@ -4016,10 +4046,10 @@
         <v>3</v>
       </c>
       <c r="B107" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="C107" t="s">
-        <v>240</v>
+        <v>291</v>
       </c>
     </row>
     <row r="108">
@@ -4032,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="B109" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
     </row>
     <row r="110">
@@ -4045,10 +4075,10 @@
         <v>3</v>
       </c>
       <c r="B111" t="s">
-        <v>242</v>
+        <v>293</v>
       </c>
       <c r="C111" t="s">
-        <v>243</v>
+        <v>294</v>
       </c>
     </row>
     <row r="112">
@@ -4056,10 +4086,10 @@
         <v>3</v>
       </c>
       <c r="B112" t="s">
-        <v>244</v>
+        <v>293</v>
       </c>
       <c r="C112" t="s">
-        <v>245</v>
+        <v>295</v>
       </c>
     </row>
     <row r="113">
@@ -4067,90 +4097,90 @@
         <v>3</v>
       </c>
       <c r="B113" t="s">
-        <v>246</v>
+        <v>296</v>
       </c>
       <c r="C113" t="s">
-        <v>247</v>
+        <v>297</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s">
-        <v>3</v>
-      </c>
-      <c r="B114" t="s">
-        <v>248</v>
-      </c>
-      <c r="C114" t="s">
-        <v>249</v>
-      </c>
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B115" t="s">
-        <v>250</v>
-      </c>
-      <c r="C115" t="s">
-        <v>251</v>
+        <v>298</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
+      <c r="A116" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B117" t="s">
-        <v>282</v>
+        <v>299</v>
+      </c>
+      <c r="C117" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B118" t="s">
+        <v>299</v>
+      </c>
+      <c r="C118" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s">
-        <v>3</v>
-      </c>
-      <c r="B119" t="s">
-        <v>283</v>
-      </c>
-      <c r="C119" t="s">
-        <v>284</v>
-      </c>
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B120" t="s">
-        <v>283</v>
-      </c>
-      <c r="C120" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
+      <c r="A121" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B122" t="s">
-        <v>286</v>
+        <v>303</v>
+      </c>
+      <c r="C122" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B123" t="s">
+        <v>303</v>
+      </c>
+      <c r="C123" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="124">
@@ -4158,39 +4188,39 @@
         <v>3</v>
       </c>
       <c r="B124" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="C124" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s">
-        <v>3</v>
-      </c>
-      <c r="B125" t="s">
-        <v>289</v>
-      </c>
-      <c r="C125" t="s">
-        <v>290</v>
-      </c>
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
     </row>
     <row r="126">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
+      <c r="A126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>0</v>
-      </c>
-      <c r="B127" t="s">
-        <v>291</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B128" t="s">
+        <v>308</v>
+      </c>
+      <c r="C128" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="129">
@@ -4198,163 +4228,148 @@
         <v>3</v>
       </c>
       <c r="B129" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="C129" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s">
-        <v>3</v>
-      </c>
-      <c r="B130" t="s">
-        <v>294</v>
-      </c>
-      <c r="C130" t="s">
-        <v>295</v>
-      </c>
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B131" t="s">
-        <v>296</v>
-      </c>
-      <c r="C131" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
+      <c r="A132" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>298</v>
+        <v>313</v>
+      </c>
+      <c r="C133" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B134" t="s">
+        <v>315</v>
+      </c>
+      <c r="C134" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s">
-        <v>3</v>
-      </c>
-      <c r="B135" t="s">
-        <v>299</v>
-      </c>
-      <c r="C135" t="s">
-        <v>300</v>
-      </c>
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B136" t="s">
-        <v>301</v>
-      </c>
-      <c r="C136" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
+      <c r="A137" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B138" t="s">
-        <v>303</v>
+        <v>318</v>
+      </c>
+      <c r="C138" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B139" t="s">
+        <v>320</v>
+      </c>
+      <c r="C139" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s">
-        <v>3</v>
-      </c>
-      <c r="B140" t="s">
-        <v>304</v>
-      </c>
-      <c r="C140" t="s">
-        <v>305</v>
-      </c>
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B141" t="s">
-        <v>304</v>
-      </c>
-      <c r="C141" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
+      <c r="A142" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B143" t="s">
-        <v>307</v>
+        <v>323</v>
+      </c>
+      <c r="C143" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B144" t="s">
+        <v>325</v>
+      </c>
+      <c r="C144" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s">
-        <v>3</v>
-      </c>
-      <c r="B145" t="s">
-        <v>308</v>
-      </c>
-      <c r="C145" t="s">
-        <v>309</v>
-      </c>
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B146" t="s">
-        <v>310</v>
-      </c>
-      <c r="C146" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>3</v>
-      </c>
-      <c r="B147" t="s">
-        <v>312</v>
-      </c>
-      <c r="C147" t="s">
-        <v>313</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
@@ -4362,10 +4377,10 @@
         <v>3</v>
       </c>
       <c r="B148" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="C148" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
     </row>
     <row r="149">
@@ -4373,43 +4388,28 @@
         <v>3</v>
       </c>
       <c r="B149" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="C149" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s">
-        <v>3</v>
-      </c>
-      <c r="B150" t="s">
-        <v>318</v>
-      </c>
-      <c r="C150" t="s">
-        <v>319</v>
-      </c>
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B151" t="s">
-        <v>320</v>
-      </c>
-      <c r="C151" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>3</v>
-      </c>
-      <c r="B152" t="s">
-        <v>322</v>
-      </c>
-      <c r="C152" t="s">
-        <v>323</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
@@ -4417,10 +4417,10 @@
         <v>3</v>
       </c>
       <c r="B153" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="C153" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
     </row>
     <row r="154">
@@ -4428,39 +4428,39 @@
         <v>3</v>
       </c>
       <c r="B154" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="C154" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s">
-        <v>3</v>
-      </c>
-      <c r="B155" t="s">
-        <v>328</v>
-      </c>
-      <c r="C155" t="s">
-        <v>329</v>
-      </c>
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
     </row>
     <row r="156">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
+      <c r="A156" t="s">
+        <v>0</v>
+      </c>
+      <c r="B156" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>0</v>
-      </c>
-      <c r="B157" t="s">
-        <v>330</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B158" t="s">
+        <v>338</v>
+      </c>
+      <c r="C158" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="159">
@@ -4468,130 +4468,130 @@
         <v>3</v>
       </c>
       <c r="B159" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="C159" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s">
-        <v>3</v>
-      </c>
-      <c r="B160" t="s">
-        <v>333</v>
-      </c>
-      <c r="C160" t="s">
-        <v>334</v>
-      </c>
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B161" t="s">
-        <v>335</v>
-      </c>
-      <c r="C161" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
+      <c r="A162" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B163" t="s">
-        <v>337</v>
+        <v>343</v>
+      </c>
+      <c r="C163" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B164" t="s">
+        <v>345</v>
+      </c>
+      <c r="C164" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s">
-        <v>3</v>
-      </c>
-      <c r="B165" t="s">
-        <v>338</v>
-      </c>
-      <c r="C165" t="s">
-        <v>339</v>
-      </c>
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B166" t="s">
-        <v>338</v>
-      </c>
-      <c r="C166" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
+      <c r="A167" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B168" t="s">
-        <v>341</v>
+        <v>348</v>
+      </c>
+      <c r="C168" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B169" t="s">
+        <v>350</v>
+      </c>
+      <c r="C169" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s">
-        <v>3</v>
-      </c>
-      <c r="B170" t="s">
-        <v>342</v>
-      </c>
-      <c r="C170" t="s">
-        <v>343</v>
-      </c>
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B171" t="s">
-        <v>342</v>
-      </c>
-      <c r="C171" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
+      <c r="A172" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B173" t="s">
-        <v>345</v>
+        <v>353</v>
+      </c>
+      <c r="C173" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B174" t="s">
+        <v>355</v>
+      </c>
+      <c r="C174" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="175">
@@ -4599,272 +4599,272 @@
         <v>3</v>
       </c>
       <c r="B175" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="C175" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s">
-        <v>3</v>
-      </c>
-      <c r="B176" t="s">
-        <v>348</v>
-      </c>
-      <c r="C176" t="s">
-        <v>349</v>
-      </c>
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B177" t="s">
-        <v>348</v>
-      </c>
-      <c r="C177" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>3</v>
-      </c>
-      <c r="B178" t="s">
-        <v>351</v>
-      </c>
-      <c r="C178" t="s">
-        <v>352</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
+      <c r="A179" t="s">
+        <v>3</v>
+      </c>
+      <c r="B179" t="s">
+        <v>360</v>
+      </c>
+      <c r="C179" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B180" t="s">
-        <v>353</v>
+        <v>362</v>
+      </c>
+      <c r="C180" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B181" t="s">
+        <v>364</v>
+      </c>
+      <c r="C181" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s">
-        <v>3</v>
-      </c>
-      <c r="B182" t="s">
-        <v>354</v>
-      </c>
-      <c r="C182" t="s">
-        <v>355</v>
-      </c>
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B183" t="s">
-        <v>356</v>
-      </c>
-      <c r="C183" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>3</v>
-      </c>
-      <c r="B184" t="s">
-        <v>358</v>
-      </c>
-      <c r="C184" t="s">
-        <v>359</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
+      <c r="A185" t="s">
+        <v>3</v>
+      </c>
+      <c r="B185" t="s">
+        <v>367</v>
+      </c>
+      <c r="C185" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B186" t="s">
-        <v>360</v>
+        <v>369</v>
+      </c>
+      <c r="C186" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B187" t="s">
+        <v>371</v>
+      </c>
+      <c r="C187" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s">
-        <v>3</v>
-      </c>
-      <c r="B188" t="s">
-        <v>361</v>
-      </c>
-      <c r="C188" t="s">
-        <v>362</v>
-      </c>
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B189" t="s">
-        <v>363</v>
-      </c>
-      <c r="C189" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
+      <c r="A190" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B191" t="s">
-        <v>365</v>
+        <v>374</v>
+      </c>
+      <c r="C191" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B192" t="s">
+        <v>376</v>
+      </c>
+      <c r="C192" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s">
-        <v>3</v>
-      </c>
-      <c r="B193" t="s">
-        <v>366</v>
-      </c>
-      <c r="C193" t="s">
-        <v>367</v>
-      </c>
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>368</v>
-      </c>
-      <c r="C194" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
-      <c r="C195" s="1"/>
+      <c r="A195" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B196" t="s">
-        <v>370</v>
+        <v>379</v>
+      </c>
+      <c r="C196" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B197" t="s">
+        <v>381</v>
+      </c>
+      <c r="C197" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s">
-        <v>3</v>
-      </c>
-      <c r="B198" t="s">
-        <v>371</v>
-      </c>
-      <c r="C198" t="s">
-        <v>372</v>
-      </c>
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B199" t="s">
-        <v>373</v>
-      </c>
-      <c r="C199" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
-      <c r="C200" s="1"/>
+      <c r="A200" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B201" t="s">
-        <v>375</v>
+        <v>384</v>
+      </c>
+      <c r="C201" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B202" t="s">
+        <v>384</v>
+      </c>
+      <c r="C202" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s">
-        <v>3</v>
-      </c>
-      <c r="B203" t="s">
-        <v>376</v>
-      </c>
-      <c r="C203" t="s">
-        <v>377</v>
-      </c>
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B204" t="s">
-        <v>378</v>
-      </c>
-      <c r="C204" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="1"/>
-      <c r="B205" s="1"/>
-      <c r="C205" s="1"/>
+      <c r="A205" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B206" t="s">
-        <v>380</v>
+        <v>388</v>
+      </c>
+      <c r="C206" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B207" t="s">
+        <v>390</v>
+      </c>
+      <c r="C207" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="208">
@@ -4872,10 +4872,10 @@
         <v>3</v>
       </c>
       <c r="B208" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="C208" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
     </row>
     <row r="209">
@@ -4883,10 +4883,10 @@
         <v>3</v>
       </c>
       <c r="B209" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="C209" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
     </row>
     <row r="210">
@@ -4899,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="B211" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
     </row>
     <row r="212">
@@ -4912,10 +4912,10 @@
         <v>3</v>
       </c>
       <c r="B213" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="C213" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
     </row>
     <row r="214">
@@ -4923,43 +4923,28 @@
         <v>3</v>
       </c>
       <c r="B214" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="C214" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s">
-        <v>3</v>
-      </c>
-      <c r="B215" t="s">
-        <v>389</v>
-      </c>
-      <c r="C215" t="s">
-        <v>390</v>
-      </c>
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B216" t="s">
-        <v>391</v>
-      </c>
-      <c r="C216" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>3</v>
-      </c>
-      <c r="B217" t="s">
-        <v>393</v>
-      </c>
-      <c r="C217" t="s">
-        <v>394</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218">
@@ -4967,68 +4952,83 @@
         <v>3</v>
       </c>
       <c r="B218" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="C218" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
-      <c r="C219" s="1"/>
+      <c r="A219" t="s">
+        <v>3</v>
+      </c>
+      <c r="B219" t="s">
+        <v>404</v>
+      </c>
+      <c r="C219" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B220" t="s">
-        <v>396</v>
+        <v>406</v>
+      </c>
+      <c r="C220" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s">
-        <v>2</v>
-      </c>
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B222" t="s">
-        <v>397</v>
-      </c>
-      <c r="C222" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>3</v>
-      </c>
-      <c r="B223" t="s">
-        <v>397</v>
-      </c>
-      <c r="C223" t="s">
-        <v>399</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
-      <c r="C224" s="1"/>
+      <c r="A224" t="s">
+        <v>3</v>
+      </c>
+      <c r="B224" t="s">
+        <v>409</v>
+      </c>
+      <c r="C224" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B225" t="s">
-        <v>400</v>
+        <v>411</v>
+      </c>
+      <c r="C225" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B226" t="s">
+        <v>413</v>
+      </c>
+      <c r="C226" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="227">
@@ -5036,10 +5036,10 @@
         <v>3</v>
       </c>
       <c r="B227" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="C227" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
     </row>
     <row r="228">
@@ -5047,39 +5047,39 @@
         <v>3</v>
       </c>
       <c r="B228" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="C228" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="1"/>
-      <c r="B229" s="1"/>
-      <c r="C229" s="1"/>
+      <c r="A229" t="s">
+        <v>3</v>
+      </c>
+      <c r="B229" t="s">
+        <v>418</v>
+      </c>
+      <c r="C229" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="230">
-      <c r="A230" t="s">
-        <v>0</v>
-      </c>
-      <c r="B230" t="s">
-        <v>405</v>
-      </c>
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B231" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>3</v>
-      </c>
-      <c r="B232" t="s">
-        <v>406</v>
-      </c>
-      <c r="C232" t="s">
-        <v>407</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233">
@@ -5087,10 +5087,10 @@
         <v>3</v>
       </c>
       <c r="B233" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="C233" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
     </row>
     <row r="234">
@@ -5098,10 +5098,10 @@
         <v>3</v>
       </c>
       <c r="B234" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="C234" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
     </row>
     <row r="235">
@@ -5109,10 +5109,10 @@
         <v>3</v>
       </c>
       <c r="B235" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="C235" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
     </row>
     <row r="236">
@@ -5120,39 +5120,39 @@
         <v>3</v>
       </c>
       <c r="B236" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="C236" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s">
-        <v>3</v>
-      </c>
-      <c r="B237" t="s">
-        <v>415</v>
-      </c>
-      <c r="C237" t="s">
-        <v>416</v>
-      </c>
+      <c r="A237" s="1"/>
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
     </row>
     <row r="238">
-      <c r="A238" s="1"/>
-      <c r="B238" s="1"/>
-      <c r="C238" s="1"/>
+      <c r="A238" t="s">
+        <v>0</v>
+      </c>
+      <c r="B238" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>0</v>
-      </c>
-      <c r="B239" t="s">
-        <v>417</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B240" t="s">
+        <v>430</v>
+      </c>
+      <c r="C240" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="241">
@@ -5160,10 +5160,10 @@
         <v>3</v>
       </c>
       <c r="B241" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="C241" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
     </row>
     <row r="242">
@@ -5171,50 +5171,50 @@
         <v>3</v>
       </c>
       <c r="B242" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="C242" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="1"/>
-      <c r="B243" s="1"/>
-      <c r="C243" s="1"/>
+      <c r="A243" t="s">
+        <v>3</v>
+      </c>
+      <c r="B243" t="s">
+        <v>436</v>
+      </c>
+      <c r="C243" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B244" t="s">
-        <v>422</v>
+        <v>438</v>
+      </c>
+      <c r="C244" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s">
-        <v>2</v>
-      </c>
+      <c r="A245" s="1"/>
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B246" t="s">
-        <v>423</v>
-      </c>
-      <c r="C246" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>3</v>
-      </c>
-      <c r="B247" t="s">
-        <v>425</v>
-      </c>
-      <c r="C247" t="s">
-        <v>426</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248">
@@ -5222,10 +5222,10 @@
         <v>3</v>
       </c>
       <c r="B248" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="C248" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="249">
@@ -5233,254 +5233,239 @@
         <v>3</v>
       </c>
       <c r="B249" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="C249" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="s">
-        <v>3</v>
-      </c>
-      <c r="B250" t="s">
-        <v>431</v>
-      </c>
-      <c r="C250" t="s">
-        <v>432</v>
-      </c>
+      <c r="A250" s="1"/>
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B251" t="s">
-        <v>433</v>
-      </c>
-      <c r="C251" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="1"/>
-      <c r="B252" s="1"/>
-      <c r="C252" s="1"/>
+      <c r="A252" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B253" t="s">
-        <v>435</v>
+        <v>445</v>
+      </c>
+      <c r="C253" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B254" t="s">
+        <v>447</v>
+      </c>
+      <c r="C254" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="s">
-        <v>3</v>
-      </c>
-      <c r="B255" t="s">
-        <v>436</v>
-      </c>
-      <c r="C255" t="s">
-        <v>437</v>
-      </c>
+      <c r="A255" s="1"/>
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B256" t="s">
-        <v>438</v>
-      </c>
-      <c r="C256" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="1"/>
-      <c r="B257" s="1"/>
-      <c r="C257" s="1"/>
+      <c r="A257" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B258" t="s">
-        <v>440</v>
+        <v>450</v>
+      </c>
+      <c r="C258" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B259" t="s">
+        <v>452</v>
+      </c>
+      <c r="C259" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="s">
-        <v>3</v>
-      </c>
-      <c r="B260" t="s">
-        <v>441</v>
-      </c>
-      <c r="C260" t="s">
-        <v>442</v>
-      </c>
+      <c r="A260" s="1"/>
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B261" t="s">
-        <v>441</v>
-      </c>
-      <c r="C261" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="1"/>
-      <c r="B262" s="1"/>
-      <c r="C262" s="1"/>
+      <c r="A262" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B263" t="s">
-        <v>444</v>
+        <v>455</v>
+      </c>
+      <c r="C263" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B264" t="s">
+        <v>455</v>
+      </c>
+      <c r="C264" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="s">
-        <v>3</v>
-      </c>
-      <c r="B265" t="s">
-        <v>445</v>
-      </c>
-      <c r="C265" t="s">
-        <v>446</v>
-      </c>
+      <c r="A265" s="1"/>
+      <c r="B265" s="1"/>
+      <c r="C265" s="1"/>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B266" t="s">
-        <v>445</v>
-      </c>
-      <c r="C266" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>3</v>
-      </c>
-      <c r="B267" t="s">
-        <v>445</v>
-      </c>
-      <c r="C267" t="s">
-        <v>448</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="1"/>
-      <c r="B268" s="1"/>
-      <c r="C268" s="1"/>
+      <c r="A268" t="s">
+        <v>3</v>
+      </c>
+      <c r="B268" t="s">
+        <v>459</v>
+      </c>
+      <c r="C268" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B269" t="s">
-        <v>449</v>
+        <v>461</v>
+      </c>
+      <c r="C269" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B270" t="s">
+        <v>461</v>
+      </c>
+      <c r="C270" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="s">
-        <v>3</v>
-      </c>
-      <c r="B271" t="s">
-        <v>450</v>
-      </c>
-      <c r="C271" t="s">
-        <v>451</v>
-      </c>
+      <c r="A271" s="1"/>
+      <c r="B271" s="1"/>
+      <c r="C271" s="1"/>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B272" t="s">
-        <v>452</v>
-      </c>
-      <c r="C272" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="1"/>
-      <c r="B273" s="1"/>
-      <c r="C273" s="1"/>
+      <c r="A273" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B274" t="s">
-        <v>454</v>
+        <v>465</v>
+      </c>
+      <c r="C274" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B275" t="s">
+        <v>465</v>
+      </c>
+      <c r="C275" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="s">
-        <v>3</v>
-      </c>
-      <c r="B276" t="s">
-        <v>455</v>
-      </c>
-      <c r="C276" t="s">
-        <v>456</v>
-      </c>
+      <c r="A276" s="1"/>
+      <c r="B276" s="1"/>
+      <c r="C276" s="1"/>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B277" t="s">
-        <v>457</v>
-      </c>
-      <c r="C277" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>3</v>
-      </c>
-      <c r="B278" t="s">
-        <v>459</v>
-      </c>
-      <c r="C278" t="s">
-        <v>460</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279">
@@ -5488,68 +5473,83 @@
         <v>3</v>
       </c>
       <c r="B279" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="C279" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="1"/>
-      <c r="B280" s="1"/>
-      <c r="C280" s="1"/>
+      <c r="A280" t="s">
+        <v>3</v>
+      </c>
+      <c r="B280" t="s">
+        <v>471</v>
+      </c>
+      <c r="C280" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B281" t="s">
-        <v>463</v>
+        <v>473</v>
+      </c>
+      <c r="C281" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="s">
-        <v>2</v>
-      </c>
+      <c r="A282" s="1"/>
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B283" t="s">
-        <v>464</v>
-      </c>
-      <c r="C283" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>3</v>
-      </c>
-      <c r="B284" t="s">
-        <v>466</v>
-      </c>
-      <c r="C284" t="s">
-        <v>467</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="1"/>
-      <c r="B285" s="1"/>
-      <c r="C285" s="1"/>
+      <c r="A285" t="s">
+        <v>3</v>
+      </c>
+      <c r="B285" t="s">
+        <v>476</v>
+      </c>
+      <c r="C285" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B286" t="s">
-        <v>468</v>
+        <v>478</v>
+      </c>
+      <c r="C286" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B287" t="s">
+        <v>480</v>
+      </c>
+      <c r="C287" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="288">
@@ -5557,10 +5557,10 @@
         <v>3</v>
       </c>
       <c r="B288" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="C288" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
     </row>
     <row r="289">
@@ -5568,39 +5568,39 @@
         <v>3</v>
       </c>
       <c r="B289" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="C289" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="1"/>
-      <c r="B290" s="1"/>
-      <c r="C290" s="1"/>
+      <c r="A290" t="s">
+        <v>3</v>
+      </c>
+      <c r="B290" t="s">
+        <v>486</v>
+      </c>
+      <c r="C290" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="291">
-      <c r="A291" t="s">
-        <v>0</v>
-      </c>
-      <c r="B291" t="s">
-        <v>473</v>
-      </c>
+      <c r="A291" s="1"/>
+      <c r="B291" s="1"/>
+      <c r="C291" s="1"/>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B292" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>3</v>
-      </c>
-      <c r="B293" t="s">
-        <v>474</v>
-      </c>
-      <c r="C293" t="s">
-        <v>475</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294">
@@ -5608,10 +5608,10 @@
         <v>3</v>
       </c>
       <c r="B294" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="C294" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
     </row>
     <row r="295">
@@ -5619,10 +5619,10 @@
         <v>3</v>
       </c>
       <c r="B295" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="C295" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
     </row>
     <row r="296">
@@ -5630,181 +5630,181 @@
         <v>3</v>
       </c>
       <c r="B296" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="C296" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="1"/>
-      <c r="B297" s="1"/>
-      <c r="C297" s="1"/>
+      <c r="A297" t="s">
+        <v>3</v>
+      </c>
+      <c r="B297" t="s">
+        <v>495</v>
+      </c>
+      <c r="C297" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B298" t="s">
-        <v>482</v>
+        <v>497</v>
+      </c>
+      <c r="C298" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B299" t="s">
+        <v>499</v>
+      </c>
+      <c r="C299" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="s">
-        <v>3</v>
-      </c>
-      <c r="B300" t="s">
-        <v>483</v>
-      </c>
-      <c r="C300" t="s">
-        <v>484</v>
-      </c>
+      <c r="A300" s="1"/>
+      <c r="B300" s="1"/>
+      <c r="C300" s="1"/>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B301" t="s">
-        <v>485</v>
-      </c>
-      <c r="C301" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="1"/>
-      <c r="B302" s="1"/>
-      <c r="C302" s="1"/>
+      <c r="A302" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B303" t="s">
-        <v>499</v>
+        <v>502</v>
+      </c>
+      <c r="C303" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B304" t="s">
+        <v>504</v>
+      </c>
+      <c r="C304" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="s">
-        <v>3</v>
-      </c>
-      <c r="B305" t="s">
-        <v>500</v>
-      </c>
-      <c r="C305" t="s">
-        <v>501</v>
-      </c>
+      <c r="A305" s="1"/>
+      <c r="B305" s="1"/>
+      <c r="C305" s="1"/>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B306" t="s">
-        <v>500</v>
-      </c>
-      <c r="C306" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="1"/>
-      <c r="B307" s="1"/>
-      <c r="C307" s="1"/>
+      <c r="A307" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B308" t="s">
-        <v>503</v>
+        <v>507</v>
+      </c>
+      <c r="C308" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B309" t="s">
+        <v>509</v>
+      </c>
+      <c r="C309" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="s">
-        <v>3</v>
-      </c>
-      <c r="B310" t="s">
-        <v>504</v>
-      </c>
-      <c r="C310" t="s">
-        <v>505</v>
-      </c>
+      <c r="A310" s="1"/>
+      <c r="B310" s="1"/>
+      <c r="C310" s="1"/>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B311" t="s">
-        <v>506</v>
-      </c>
-      <c r="C311" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>3</v>
-      </c>
-      <c r="B312" t="s">
-        <v>508</v>
-      </c>
-      <c r="C312" t="s">
-        <v>509</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="1"/>
-      <c r="B313" s="1"/>
-      <c r="C313" s="1"/>
+      <c r="A313" t="s">
+        <v>3</v>
+      </c>
+      <c r="B313" t="s">
+        <v>512</v>
+      </c>
+      <c r="C313" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B314" t="s">
-        <v>510</v>
+        <v>512</v>
+      </c>
+      <c r="C314" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="s">
-        <v>2</v>
-      </c>
+      <c r="A315" s="1"/>
+      <c r="B315" s="1"/>
+      <c r="C315" s="1"/>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B316" t="s">
-        <v>511</v>
-      </c>
-      <c r="C316" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>3</v>
-      </c>
-      <c r="B317" t="s">
-        <v>513</v>
-      </c>
-      <c r="C317" t="s">
-        <v>514</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318">
@@ -5812,50 +5812,50 @@
         <v>3</v>
       </c>
       <c r="B318" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C318" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="1"/>
-      <c r="B319" s="1"/>
-      <c r="C319" s="1"/>
+      <c r="A319" t="s">
+        <v>3</v>
+      </c>
+      <c r="B319" t="s">
+        <v>518</v>
+      </c>
+      <c r="C319" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B320" t="s">
-        <v>517</v>
+        <v>520</v>
+      </c>
+      <c r="C320" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="s">
-        <v>2</v>
-      </c>
+      <c r="A321" s="1"/>
+      <c r="B321" s="1"/>
+      <c r="C321" s="1"/>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B322" t="s">
-        <v>518</v>
-      </c>
-      <c r="C322" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>3</v>
-      </c>
-      <c r="B323" t="s">
-        <v>518</v>
-      </c>
-      <c r="C323" t="s">
-        <v>520</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324">
@@ -5863,39 +5863,39 @@
         <v>3</v>
       </c>
       <c r="B324" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C324" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="1"/>
-      <c r="B325" s="1"/>
-      <c r="C325" s="1"/>
+      <c r="A325" t="s">
+        <v>3</v>
+      </c>
+      <c r="B325" t="s">
+        <v>525</v>
+      </c>
+      <c r="C325" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="326">
-      <c r="A326" t="s">
-        <v>0</v>
-      </c>
-      <c r="B326" t="s">
-        <v>523</v>
-      </c>
+      <c r="A326" s="1"/>
+      <c r="B326" s="1"/>
+      <c r="C326" s="1"/>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B327" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>3</v>
-      </c>
-      <c r="B328" t="s">
-        <v>524</v>
-      </c>
-      <c r="C328" t="s">
-        <v>525</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329">
@@ -5903,10 +5903,10 @@
         <v>3</v>
       </c>
       <c r="B329" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C329" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="330">
@@ -5917,36 +5917,36 @@
         <v>528</v>
       </c>
       <c r="C330" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="s">
-        <v>3</v>
-      </c>
-      <c r="B331" t="s">
-        <v>530</v>
-      </c>
-      <c r="C331" t="s">
+      <c r="A331" s="1"/>
+      <c r="B331" s="1"/>
+      <c r="C331" s="1"/>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>0</v>
+      </c>
+      <c r="B332" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="1"/>
-      <c r="B332" s="1"/>
-      <c r="C332" s="1"/>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>0</v>
-      </c>
-      <c r="B333" t="s">
-        <v>532</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B334" t="s">
+        <v>532</v>
+      </c>
+      <c r="C334" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="335">
@@ -5954,10 +5954,10 @@
         <v>3</v>
       </c>
       <c r="B335" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C335" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="336">
@@ -5965,39 +5965,39 @@
         <v>3</v>
       </c>
       <c r="B336" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C336" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>3</v>
+      </c>
+      <c r="B337" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="337">
-      <c r="A337" s="1"/>
-      <c r="B337" s="1"/>
-      <c r="C337" s="1"/>
+      <c r="C337" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="338">
-      <c r="A338" t="s">
-        <v>0</v>
-      </c>
-      <c r="B338" t="s">
-        <v>537</v>
-      </c>
+      <c r="A338" s="1"/>
+      <c r="B338" s="1"/>
+      <c r="C338" s="1"/>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B339" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>3</v>
-      </c>
-      <c r="B340" t="s">
-        <v>538</v>
-      </c>
-      <c r="C340" t="s">
-        <v>539</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341">

--- a/test_review/06-06.xlsx
+++ b/test_review/06-06.xlsx
@@ -18,7 +18,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="546">
+  <si>
+    <t>话题总数：8</t>
+  </si>
+  <si>
+    <t>图例：新加入的讨论源</t>
+  </si>
   <si>
     <t>话题描述</t>
   </si>
@@ -374,6 +380,108 @@
     <t>https://discuss.openubmc.cn//t/topic/317/1</t>
   </si>
   <si>
+    <t>BMC开发者如何提升社区UT IT测试覆盖率和工具贡献效率</t>
+  </si>
+  <si>
+    <t>openUBMC社区测试贡献规划</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/592/1</t>
+  </si>
+  <si>
+    <t>QA 运作规则讨论</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/209/1</t>
+  </si>
+  <si>
+    <t>openUBMC社区QA SIG运作</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/593/1</t>
+  </si>
+  <si>
+    <t>BMC开发者需修正BIOS组件生效流程图的逻辑错误</t>
+  </si>
+  <si>
+    <t>bios组件生效流程流程图错误</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/17</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/19</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现FPGA自检失败的告警模拟测试</t>
+  </si>
+  <si>
+    <t>【需求】支持FPGA固件周期自检失败的告警</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/30</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/84</t>
+  </si>
+  <si>
+    <t>支持FPGA固件周期自检失败的告警</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/45</t>
+  </si>
+  <si>
+    <t>BMC开发者如何通过Redfish接口实现光模块老化预测功能开关</t>
+  </si>
+  <si>
+    <t>【需求】支持光模块老化故障预测功能开关</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/52</t>
+  </si>
+  <si>
+    <t>【修改描述】支持光模块老化预测功能开关使能</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/31</t>
+  </si>
+  <si>
+    <t>开发者在BMC Studio中需手动二次配置因器件库不完整。</t>
+  </si>
+  <si>
+    <t>BMC Studio工具使用反馈</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/714/1</t>
+  </si>
+  <si>
+    <t>[WIP]BMC Studio用户指南</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/221/1</t>
+  </si>
+  <si>
+    <t>如何解决恢复出厂设置后BMC固件升级签名验证异常</t>
+  </si>
+  <si>
+    <t>恢复出厂设置后，BMC升级失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1065/1</t>
+  </si>
+  <si>
+    <t>BMC恢复出厂设置之后无法更新固件</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/831/1</t>
+  </si>
+  <si>
+    <t>恢复出厂设置时无法升级</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/11</t>
+  </si>
+  <si>
     <t>BMC开发者如何扩展升级接口参数处理并行升级错误场景</t>
   </si>
   <si>
@@ -401,6 +509,333 @@
     <t>https://gitcode.com/openUBMC/general_hardware/issues/11</t>
   </si>
   <si>
+    <t>BMC开发者如何提升多模组固件升级健壮性</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组CSR固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/24</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组VRD固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/26</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组CPLD固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/25</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组MCU固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/27</t>
+  </si>
+  <si>
+    <t>CPLD 升级 MultipleSuppliersMode MIXED Mode 功能背景了解</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/886/1</t>
+  </si>
+  <si>
+    <t>【需求】支持MCU子固件升级时版本号校验</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/23</t>
+  </si>
+  <si>
+    <t>BMC开发中如何解决Conan v1弃用导致的头文件缺失编译失败</t>
+  </si>
+  <si>
+    <t>社区lsw编译不过</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/979/1</t>
+  </si>
+  <si>
+    <t>开源首版本编译不过</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/lsw/issues/1</t>
+  </si>
+  <si>
+    <t>如何避免CRPS电源适配中SlotNumber配置错误</t>
+  </si>
+  <si>
+    <t>pmbus CRPS电源适配</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/240/1</t>
+  </si>
+  <si>
+    <t>电源适配指导</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1101/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何申请使用自动化测试框架</t>
+  </si>
+  <si>
+    <t>怎么申请使用kptest框架和itestsmart工具呢</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/665/1</t>
+  </si>
+  <si>
+    <t>kptest框架与KPTestOpenFramework工程、iTestSmart工具介绍</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/832/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何在直通场景下实现NVMe SSD自定义SMART监控</t>
+  </si>
+  <si>
+    <t>【需求】支持自定义SMART信息的NVMe SSD盘写放大监控</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/28</t>
+  </si>
+  <si>
+    <t>【需求】支持从带内获取SMART NVMe SSD盘冗余块信息并监控</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/24</t>
+  </si>
+  <si>
+    <t>【需求】支持获取NVMe SSD盘自定义SMART信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/27</t>
+  </si>
+  <si>
+    <t>【需求】支持从带内获取厂商SMART NVMe SSD盘冗余块信息并监控</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/10</t>
+  </si>
+  <si>
+    <t>【需求】支持自定义的SMART NVMe SSD盘亚健康检测</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/23</t>
+  </si>
+  <si>
+    <t>【需求】支持自定义SMART信息的NVMe SSD盘预估寿命新增计算参数</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/25</t>
+  </si>
+  <si>
+    <t>BMC开发者如何高效配置3000W电源的PMbus告警属性</t>
+  </si>
+  <si>
+    <t>【需求】支持3000W电源管理，新增资源树私有属性CurrentModeLogic</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/account/issues/13</t>
+  </si>
+  <si>
+    <t>【需求】支持3000W电源管理，新增资源树bmc.kepler.Systems.PowerMgmt.OnePower.Status属性CMLStatus</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/44</t>
+  </si>
+  <si>
+    <t>【需求】支持电源继电器状态管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/45</t>
+  </si>
+  <si>
+    <t>如何确保BIOS测试命令在高可用环境中的兼容性</t>
+  </si>
+  <si>
+    <t>高可用环境BIOS执行test失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/800/1</t>
+  </si>
+  <si>
+    <t>组件内执行bingo test显示测试失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/594/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现Redfish接口查询指定PCIe设备资源信息</t>
+  </si>
+  <si>
+    <t>【需求】支持查询指定PCIEDevices资源信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/pcie_device/issues/5</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/16</t>
+  </si>
+  <si>
+    <t>BMC开发者如何优化国密证书接口的异常提示机制</t>
+  </si>
+  <si>
+    <t>【需求】支持国密证书管理的接口优化</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/43</t>
+  </si>
+  <si>
+    <t>【需求】支持国密证书管理的北向接口配置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/23</t>
+  </si>
+  <si>
+    <t>BMC开发者如何高效管理openTelemetry API依赖组件</t>
+  </si>
+  <si>
+    <t>提供openTelemetry及依赖开源软件API能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/3</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/conan_index/issues/3</t>
+  </si>
+  <si>
+    <t>BMC开发者如何在lscmd中显示和调试接口执行组件自定义命令用于在线调试</t>
+  </si>
+  <si>
+    <t>支持组件自定义命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/104</t>
+  </si>
+  <si>
+    <t>【需求】支持能效管理子系统组件自定义命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/17</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/7</t>
+  </si>
+  <si>
+    <t>【需求】支持组件自定义命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/21</t>
+  </si>
+  <si>
+    <t>BMC开发者如何在BIOS启动阶段禁用KVM/VNC键盘输入防止密码修改</t>
+  </si>
+  <si>
+    <t>支持BIOS启动过程禁止KVM/VNC键盘输入</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/19</t>
+  </si>
+  <si>
+    <t>支持BIOS在启动阶段禁用键盘</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/20</t>
+  </si>
+  <si>
+    <t>BMC开发者如何优化RAID日志导出的时延与安全性</t>
+  </si>
+  <si>
+    <t>【需求】支持收集raid卡文本格式日志</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/32</t>
+  </si>
+  <si>
+    <t>【需求】支持一键搜集日志导出raid卡固件日志</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/31</t>
+  </si>
+  <si>
+    <t>BMC开发者如何高效实现电链路统计数据采集接口</t>
+  </si>
+  <si>
+    <t>【需求】支持NPU参数面端口电链路数据采集</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/8</t>
+  </si>
+  <si>
+    <t>【需求】支持NPU参数面光模块数据采集接口增加电链路数据</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/7</t>
+  </si>
+  <si>
+    <t>BMC开发者需修正VPD中position描述的映射错误</t>
+  </si>
+  <si>
+    <t>vpd仓库platform.sr.png描述有误</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/360/1</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/2</t>
+  </si>
+  <si>
+    <t>BMC开发者如何更新通用和异构硬件适配文档资源</t>
+  </si>
+  <si>
+    <t>【需求】社区更新通用硬件相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/19</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/13</t>
+  </si>
+  <si>
+    <t>【需求】社区更新设备管理规范相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/14</t>
+  </si>
+  <si>
+    <t>【需求】社区补齐异构硬件相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/17</t>
+  </si>
+  <si>
+    <t>【需求】社区更新能效管理相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/16</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/20</t>
+  </si>
+  <si>
+    <t>BMC开发者如何适配BlueField系列设备的调速策略在openUBMC中</t>
+  </si>
+  <si>
+    <t>【需求】支持BlueField-3（B3220）的调速策略配置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/17</t>
+  </si>
+  <si>
+    <t>【需求】支持BlueField-2（332A）的调速策略</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/18</t>
+  </si>
+  <si>
     <t>BMC开发者如何通过Redfish和IPMI接口实现硬盘日志收集控制</t>
   </si>
   <si>
@@ -437,43 +872,178 @@
     <t>https://gitcode.com/openUBMC/storage/issues/7</t>
   </si>
   <si>
-    <t>BMC开发者如何在lscmd中显示和调试接口执行组件自定义命令用于在线调试</t>
-  </si>
-  <si>
-    <t>支持组件自定义命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/104</t>
-  </si>
-  <si>
-    <t>【需求】支持能效管理子系统组件自定义命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/17</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/7</t>
-  </si>
-  <si>
-    <t>【需求】支持组件自定义命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/21</t>
-  </si>
-  <si>
-    <t>BMC开发者如何高效实现电链路统计数据采集接口</t>
-  </si>
-  <si>
-    <t>【需求】支持NPU参数面端口电链路数据采集</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/8</t>
-  </si>
-  <si>
-    <t>【需求】支持NPU参数面光模块数据采集接口增加电链路数据</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/7</t>
+    <t>BMC开发者如何实现CSR文件损坏的检测与自修复</t>
+  </si>
+  <si>
+    <t>CSR文件损坏之后的恢复能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/4</t>
+  </si>
+  <si>
+    <t>CSR文件损坏恢复能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/9</t>
+  </si>
+  <si>
+    <t>开发者实现Redfish Drive资源OEM接口时需解决NVM MI命令与硬件协议栈的兼容性整合</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制SendNvmeMICommand请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/40</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetIdentifyData请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/39</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetAddSmartInfo请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/37</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetTelemetryData请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/13</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/36</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetSmartInfo请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/38</t>
+  </si>
+  <si>
+    <t>BMC开发者需实现NVMe盘多型号识别与管理兼容性</t>
+  </si>
+  <si>
+    <t>【需求】支持新增华为厂商NVMe盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/41</t>
+  </si>
+  <si>
+    <t>【需求】支持新增Memblaze厂商NVMe盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/44</t>
+  </si>
+  <si>
+    <t>BMC开发者确保SMBIOS协议解析Structure Header Length字段准确</t>
+  </si>
+  <si>
+    <t>解析SMBIOS协议04Type时出现异常</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/1</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/363/1</t>
+  </si>
+  <si>
+    <t>BMC开发者需统一板卡和MCU一键收集信息的存储路径与命名规范</t>
+  </si>
+  <si>
+    <t>【已评审】支持一键收集导出板卡信息，mcu信息</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/628/1</t>
+  </si>
+  <si>
+    <t>【需求】支持一键收集通用硬件信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/34</t>
+  </si>
+  <si>
+    <t>openUBMC一键收集介绍</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/290/1</t>
+  </si>
+  <si>
+    <t>【问题单】支持一键收集导出板卡信息，mcu信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/10</t>
+  </si>
+  <si>
+    <t>【需求】支持板卡硬件管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/15</t>
+  </si>
+  <si>
+    <t>基础通用问题FAQ</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/292/1</t>
+  </si>
+  <si>
+    <t>openUBMC各sig组本周(2025-0421-2025-0427)关闭issue统计</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/672/1</t>
+  </si>
+  <si>
+    <t>openUBMC各sig组本周(2025-0428~2025-0505)关闭issue统计</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/733/1</t>
+  </si>
+  <si>
+    <t>bmc-core SIG 入门指南</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/167/1</t>
+  </si>
+  <si>
+    <t>openUBMC各sig组本周(2025-0506~2025-0511)关闭issue统计</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/876/1</t>
+  </si>
+  <si>
+    <t>openUBMC品牌包定制指南</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/355/1</t>
+  </si>
+  <si>
+    <t>BMC开发者需解决一键部署中的Conan组件拉取机制稳定性问题</t>
+  </si>
+  <si>
+    <t>bmc studio使用问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1012/1</t>
+  </si>
+  <si>
+    <t>BMC_STUDIO仓库一键部署，丢失响应，无成功，无失败反馈</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/962/1</t>
+  </si>
+  <si>
+    <t>使用bmc_studio遇到的问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/925/1</t>
+  </si>
+  <si>
+    <t>BMC Studio问题反馈</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/707/1</t>
   </si>
   <si>
     <t>BMC开发者如何设计CLI并发收集NPU/CPU日志的失败处理</t>
@@ -491,6 +1061,48 @@
     <t>https://gitcode.com/openUBMC/rackmount/issues/46</t>
   </si>
   <si>
+    <t>BMC开发者如何实现SystemInfoTable属性的持久化存储以支持IPMI标准命令</t>
+  </si>
+  <si>
+    <t>IPMI2.0标准接口能力新增私有属性保存system info信息</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1100/1</t>
+  </si>
+  <si>
+    <t>【需求】支持Get System Info标准命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/12</t>
+  </si>
+  <si>
+    <t>【需求】支持Set System Info标准命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/13</t>
+  </si>
+  <si>
+    <t>BMC开发者如何统一实现多品牌新款SATA硬盘的纳管支持？</t>
+  </si>
+  <si>
+    <t>【需求】支持新增希捷SATA盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/42</t>
+  </si>
+  <si>
+    <t>【需求】支持新增西数SATA盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/43</t>
+  </si>
+  <si>
+    <t>【需求】支持新增东芝SATA盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/45</t>
+  </si>
+  <si>
     <t>BMC开发中如何实现DPU网卡启动状态的实时检测与记录</t>
   </si>
   <si>
@@ -503,52 +1115,118 @@
     <t>https://gitcode.com/openUBMC/general_hardware/issues/15</t>
   </si>
   <si>
-    <t>开发者在BMC Studio中需手动二次配置因器件库不完整。</t>
-  </si>
-  <si>
-    <t>BMC Studio工具使用反馈</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/714/1</t>
-  </si>
-  <si>
-    <t>[WIP]BMC Studio用户指南</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/221/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何更新通用和异构硬件适配文档资源</t>
-  </si>
-  <si>
-    <t>【需求】社区更新通用硬件相关文档</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/19</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/13</t>
-  </si>
-  <si>
-    <t>【需求】社区更新设备管理规范相关文档</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/14</t>
-  </si>
-  <si>
-    <t>【需求】社区补齐异构硬件相关文档</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/17</t>
-  </si>
-  <si>
-    <t>【需求】社区更新能效管理相关文档</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/16</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/20</t>
+    <t>BMC开发者如何解决固件并行升级总线互斥问题</t>
+  </si>
+  <si>
+    <t>【需求】支持固件升级流程总线互斥</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/21</t>
+  </si>
+  <si>
+    <t>固件升级流程总线互斥</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/10</t>
+  </si>
+  <si>
+    <t>【需求】能效管理固件升级流程总线互斥</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/11</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/11</t>
+  </si>
+  <si>
+    <t>BMC开发者如何为thermal和power管理组件实现业务场景的白名单配置基线化</t>
+  </si>
+  <si>
+    <t>【需求】power_mgmt组件明确业务场景下的白名单化配置并形成基线</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/45</t>
+  </si>
+  <si>
+    <t>【需求】thermal_mgmt组件明确业务场景下的白名单化配置并形成基线</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/25</t>
+  </si>
+  <si>
+    <t>BMC开发者实现升级时多签名机制兼容性</t>
+  </si>
+  <si>
+    <t>能否实现伙伴签名的openUBMC版本直接升级华为签名的各种固件？</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/335/1</t>
+  </si>
+  <si>
+    <t>伙伴openubmc版本如何支持升级华为签名固件版本和伙伴自己签名的固件版本均能成功？</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1083/1</t>
+  </si>
+  <si>
+    <t>使用openubmc进行bios固件升级，提示无效的升级包</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/182/1</t>
+  </si>
+  <si>
+    <t>刷了华为根的机器是否可以直接刷伙伴根</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/933/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现日志配置与系统路径的存储隔离迁移</t>
+  </si>
+  <si>
+    <t>支持日志存放位置隔离</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rootfs_user/issues/2</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/23</t>
+  </si>
+  <si>
+    <t>BMC开发者在Redfish OEM定制中如何实现存储控制器属性查询</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish接口oem定制查询指定存储资源信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rack_mgmt/issues/2</t>
+  </si>
+  <si>
+    <t>【需求】支持厂商定制化显示存储控制器端口数</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/67</t>
+  </si>
+  <si>
+    <t>BMC开发者如何高效构建仿真测试环境</t>
+  </si>
+  <si>
+    <t>OpenUBMC社区支持仿真镜像的构建与发布</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/qemu/issues/5</t>
+  </si>
+  <si>
+    <t>OpenUBMC社区支持仿真数据的发布</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/qemu/issues/4</t>
+  </si>
+  <si>
+    <t>OpenUBMC社区支持Qemu工具的构建与发布</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/qemu/issues/3</t>
   </si>
   <si>
     <t>BMC开发者如何修正ProcessorID属性类型以符合SMBIOS协议</t>
@@ -575,148 +1253,130 @@
     <t>https://discuss.openubmc.cn//t/topic/362/1</t>
   </si>
   <si>
-    <t>BMC开发者需统一板卡和MCU一键收集信息的存储路径与命名规范</t>
-  </si>
-  <si>
-    <t>【已评审】支持一键收集导出板卡信息，mcu信息</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/628/1</t>
-  </si>
-  <si>
-    <t>【需求】支持一键收集通用硬件信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/34</t>
-  </si>
-  <si>
-    <t>openUBMC一键收集介绍</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/290/1</t>
-  </si>
-  <si>
-    <t>【问题单】支持一键收集导出板卡信息，mcu信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/10</t>
-  </si>
-  <si>
-    <t>【需求】支持板卡硬件管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/15</t>
-  </si>
-  <si>
-    <t>基础通用问题FAQ</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/292/1</t>
-  </si>
-  <si>
-    <t>openUBMC各sig组本周(2025-0421-2025-0427)关闭issue统计</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/672/1</t>
-  </si>
-  <si>
-    <t>openUBMC各sig组本周(2025-0428~2025-0505)关闭issue统计</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/733/1</t>
-  </si>
-  <si>
-    <t>bmc-core SIG 入门指南</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/167/1</t>
-  </si>
-  <si>
-    <t>openUBMC各sig组本周(2025-0506~2025-0511)关闭issue统计</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/876/1</t>
-  </si>
-  <si>
-    <t>openUBMC品牌包定制指南</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/355/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何优化国密证书接口的异常提示机制</t>
-  </si>
-  <si>
-    <t>【需求】支持国密证书管理的接口优化</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/43</t>
-  </si>
-  <si>
-    <t>【需求】支持国密证书管理的北向接口配置</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/23</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现日志配置与系统路径的存储隔离迁移</t>
-  </si>
-  <si>
-    <t>支持日志存放位置隔离</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rootfs_user/issues/2</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/23</t>
-  </si>
-  <si>
-    <t>BMC开发者需实现NVMe盘多型号识别与管理兼容性</t>
-  </si>
-  <si>
-    <t>【需求】支持新增华为厂商NVMe盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/41</t>
-  </si>
-  <si>
-    <t>【需求】支持新增Memblaze厂商NVMe盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/44</t>
-  </si>
-  <si>
-    <t>如何解决恢复出厂设置后BMC固件升级签名验证异常</t>
-  </si>
-  <si>
-    <t>恢复出厂设置后，BMC升级失败</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1065/1</t>
-  </si>
-  <si>
-    <t>BMC恢复出厂设置之后无法更新固件</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/831/1</t>
-  </si>
-  <si>
-    <t>恢复出厂设置时无法升级</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/11</t>
-  </si>
-  <si>
-    <t>BMC开发者如何高效管理openTelemetry API依赖组件</t>
-  </si>
-  <si>
-    <t>提供openTelemetry及依赖开源软件API能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/observability/issues/3</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/conan_index/issues/3</t>
+    <t>BMC开发者如何实现PLDM协议获取网卡信息并集成接口展示</t>
+  </si>
+  <si>
+    <t>【需求】支持使用pldm协议获取网卡相关信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/20</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/19</t>
+  </si>
+  <si>
+    <t>BMC开发者如何统一实现查询指定处理器异构资源属性的Redfish接口</t>
+  </si>
+  <si>
+    <t>【需求】支持查询指定处理器资源信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/33</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/53</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/47</t>
+  </si>
+  <si>
+    <t>BMC开发者需解决权限限制下的升级恢复接口错误问题</t>
+  </si>
+  <si>
+    <t>【变更声明】Redfish升级接口权限变更</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/732/1</t>
+  </si>
+  <si>
+    <t>Redfish 升级接口 SimpleUpdate 关于在支持升级之后清除配置功能接口变更</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/32</t>
+  </si>
+  <si>
+    <t>BMC配置导出需新增产品类别和软件版本信息支持</t>
+  </si>
+  <si>
+    <t>配置导出项新增BMC软件版本信息和产品类别信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/13</t>
+  </si>
+  <si>
+    <t>配置导入导出新增产品类别信息和BMC软件版本信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/profile_schema/issues/2</t>
+  </si>
+  <si>
+    <t>提供BMC出厂配置定制指导</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/16</t>
+  </si>
+  <si>
+    <t>软件中心需要添加BMCStudio描述和下载页</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/software-center-config/issues/3</t>
+  </si>
+  <si>
+    <t>标签包裹。</t>
+  </si>
+  <si>
+    <t>【需求】支持NCSI边带管理功能</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/16</t>
+  </si>
+  <si>
+    <t>【需求】开源社区支持NCSI边带管理功能</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/5</t>
+  </si>
+  <si>
+    <t>BMC开发者如何解决固件升级中的证书校验失败</t>
+  </si>
+  <si>
+    <t>使用社区最新出包，升级hpm失败，查看m3log get cert fail!</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/498/1</t>
+  </si>
+  <si>
+    <t>最新 source 包烧录异常问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/173/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何规避新增IPMI命令导致组件不可启动问题</t>
+  </si>
+  <si>
+    <t>pcie_device新增IPMI命令导致组件异常问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/595/1</t>
+  </si>
+  <si>
+    <t>非天池组件加载方式</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/610/1</t>
+  </si>
+  <si>
+    <t>BMC多组件共享白名单配置的维护复杂度问题</t>
+  </si>
+  <si>
+    <t>【需求】基于动态插桩拦截风险接口调用日志，形成通用化命令的白名单配置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/15</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/pcie_device/issues/4</t>
   </si>
   <si>
     <t>BMC开发者在资源树协作接口中如何解决属性约束冲突与内部实现暴露问题</t>
@@ -809,6 +1469,39 @@
     <t>https://gitcode.com/openUBMC/account/issues/6</t>
   </si>
   <si>
+    <t>BMC固件开发中如何确保网卡扩展与历史协议兼容</t>
+  </si>
+  <si>
+    <t>【需求】网卡适配组件兼容历史网卡功能</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/6</t>
+  </si>
+  <si>
+    <t>【需求】网卡支持南向部件驱动接口</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/17</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/18</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现NVMe MI over MCTP协议响应码的可靠解析</t>
+  </si>
+  <si>
+    <t>【需求】支持NVMe-mi over mctp的协议解析</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/33</t>
+  </si>
+  <si>
+    <t>【需求】支持解析nvme mi协议响应码信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/8</t>
+  </si>
+  <si>
     <t>BMC开发者如何实现新的遥测配置管理接口</t>
   </si>
   <si>
@@ -833,187 +1526,25 @@
     <t>https://gitcode.com/openUBMC/rackmount/issues/29</t>
   </si>
   <si>
-    <t>BMC开发者如何高效构建仿真测试环境</t>
-  </si>
-  <si>
-    <t>OpenUBMC社区支持仿真镜像的构建与发布</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/qemu/issues/5</t>
-  </si>
-  <si>
-    <t>OpenUBMC社区支持仿真数据的发布</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/qemu/issues/4</t>
-  </si>
-  <si>
-    <t>OpenUBMC社区支持Qemu工具的构建与发布</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/qemu/issues/3</t>
-  </si>
-  <si>
-    <t>BMC开发者需解决一键部署中的Conan组件拉取机制稳定性问题</t>
-  </si>
-  <si>
-    <t>bmc studio使用问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1012/1</t>
-  </si>
-  <si>
-    <t>BMC_STUDIO仓库一键部署，丢失响应，无成功，无失败反馈</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/962/1</t>
-  </si>
-  <si>
-    <t>使用bmc_studio遇到的问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/925/1</t>
-  </si>
-  <si>
-    <t>BMC Studio问题反馈</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/707/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何在BIOS启动阶段禁用KVM/VNC键盘输入防止密码修改</t>
-  </si>
-  <si>
-    <t>支持BIOS启动过程禁止KVM/VNC键盘输入</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/19</t>
-  </si>
-  <si>
-    <t>支持BIOS在启动阶段禁用键盘</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/20</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现FPGA自检失败的告警模拟测试</t>
-  </si>
-  <si>
-    <t>【需求】支持FPGA固件周期自检失败的告警</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/30</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/84</t>
-  </si>
-  <si>
-    <t>支持FPGA固件周期自检失败的告警</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/45</t>
-  </si>
-  <si>
-    <t>BMC开发者需修正VPD中position描述的映射错误</t>
-  </si>
-  <si>
-    <t>vpd仓库platform.sr.png描述有误</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/360/1</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/2</t>
-  </si>
-  <si>
-    <t>BMC开发者如何统一实现查询指定处理器异构资源属性的Redfish接口</t>
-  </si>
-  <si>
-    <t>【需求】支持查询指定处理器资源信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/33</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/53</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/47</t>
-  </si>
-  <si>
-    <t>BMC开发者如何申请使用自动化测试框架</t>
-  </si>
-  <si>
-    <t>怎么申请使用kptest框架和itestsmart工具呢</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/665/1</t>
-  </si>
-  <si>
-    <t>kptest框架与KPTestOpenFramework工程、iTestSmart工具介绍</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/832/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何规避新增IPMI命令导致组件不可启动问题</t>
-  </si>
-  <si>
-    <t>pcie_device新增IPMI命令导致组件异常问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/595/1</t>
-  </si>
-  <si>
-    <t>非天池组件加载方式</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/610/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何通过Redfish接口实现光模块老化预测功能开关</t>
-  </si>
-  <si>
-    <t>【需求】支持光模块老化故障预测功能开关</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/52</t>
-  </si>
-  <si>
-    <t>【修改描述】支持光模块老化预测功能开关使能</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/31</t>
-  </si>
-  <si>
-    <t>BMC开发者如何优化RAID日志导出的时延与安全性</t>
-  </si>
-  <si>
-    <t>【需求】支持收集raid卡文本格式日志</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/32</t>
-  </si>
-  <si>
-    <t>【需求】支持一键搜集日志导出raid卡固件日志</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/31</t>
-  </si>
-  <si>
-    <t>BMC开发者在Redfish OEM定制中如何实现存储控制器属性查询</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish接口oem定制查询指定存储资源信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rack_mgmt/issues/2</t>
-  </si>
-  <si>
-    <t>【需求】支持厂商定制化显示存储控制器端口数</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/67</t>
+    <t>解决BMC过渡包升级中签名链更新缺失导致的校验失败</t>
+  </si>
+  <si>
+    <t>制作反向过渡包时碰到的疑问</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/723/1</t>
+  </si>
+  <si>
+    <t>25.03构建出包以及伙伴签名问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/390/1</t>
+  </si>
+  <si>
+    <t>25.03版本的构建环境搭建：dockerfile创建镜像失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/409/1</t>
   </si>
   <si>
     <t>BMC开发者如何实现PCIe Switch Flash升级组件的集成</t>
@@ -1031,280 +1562,16 @@
     <t>https://discuss.openubmc.cn//t/topic/722/1</t>
   </si>
   <si>
-    <t>BMC开发者如何实现NVMe MI over MCTP协议响应码的可靠解析</t>
-  </si>
-  <si>
-    <t>【需求】支持NVMe-mi over mctp的协议解析</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/33</t>
-  </si>
-  <si>
-    <t>【需求】支持解析nvme mi协议响应码信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/8</t>
-  </si>
-  <si>
-    <t>BMC开发者需解决权限限制下的升级恢复接口错误问题</t>
-  </si>
-  <si>
-    <t>【变更声明】Redfish升级接口权限变更</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/732/1</t>
-  </si>
-  <si>
-    <t>Redfish 升级接口 SimpleUpdate 关于在支持升级之后清除配置功能接口变更</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/32</t>
-  </si>
-  <si>
-    <t>如何确保BIOS测试命令在高可用环境中的兼容性</t>
-  </si>
-  <si>
-    <t>高可用环境BIOS执行test失败</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/800/1</t>
-  </si>
-  <si>
-    <t>组件内执行bingo test显示测试失败</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/594/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何高效配置3000W电源的PMbus告警属性</t>
-  </si>
-  <si>
-    <t>【需求】支持3000W电源管理，新增资源树私有属性CurrentModeLogic</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/account/issues/13</t>
-  </si>
-  <si>
-    <t>【需求】支持3000W电源管理，新增资源树bmc.kepler.Systems.PowerMgmt.OnePower.Status属性CMLStatus</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/44</t>
-  </si>
-  <si>
-    <t>【需求】支持电源继电器状态管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/45</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现SystemInfoTable属性的持久化存储以支持IPMI标准命令</t>
-  </si>
-  <si>
-    <t>IPMI2.0标准接口能力新增私有属性保存system info信息</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1100/1</t>
-  </si>
-  <si>
-    <t>【需求】支持Get System Info标准命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/12</t>
-  </si>
-  <si>
-    <t>【需求】支持Set System Info标准命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/13</t>
-  </si>
-  <si>
-    <t>BMC开发者如何提升社区UT IT测试覆盖率和工具贡献效率</t>
-  </si>
-  <si>
-    <t>openUBMC社区测试贡献规划</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/592/1</t>
-  </si>
-  <si>
-    <t>QA 运作规则讨论</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/209/1</t>
-  </si>
-  <si>
-    <t>openUBMC社区QA SIG运作</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/593/1</t>
-  </si>
-  <si>
-    <t>如何避免CRPS电源适配中SlotNumber配置错误</t>
-  </si>
-  <si>
-    <t>pmbus CRPS电源适配</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/240/1</t>
-  </si>
-  <si>
-    <t>电源适配指导</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1101/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现CSR文件损坏的检测与自修复</t>
-  </si>
-  <si>
-    <t>CSR文件损坏之后的恢复能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/4</t>
-  </si>
-  <si>
-    <t>CSR文件损坏恢复能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/9</t>
-  </si>
-  <si>
-    <t>BMC开发者确保SMBIOS协议解析Structure Header Length字段准确</t>
-  </si>
-  <si>
-    <t>解析SMBIOS协议04Type时出现异常</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/1</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/363/1</t>
-  </si>
-  <si>
-    <t>BMC开发者实现升级时多签名机制兼容性</t>
-  </si>
-  <si>
-    <t>能否实现伙伴签名的openUBMC版本直接升级华为签名的各种固件？</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/335/1</t>
-  </si>
-  <si>
-    <t>伙伴openubmc版本如何支持升级华为签名固件版本和伙伴自己签名的固件版本均能成功？</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1083/1</t>
-  </si>
-  <si>
-    <t>使用openubmc进行bios固件升级，提示无效的升级包</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/182/1</t>
-  </si>
-  <si>
-    <t>刷了华为根的机器是否可以直接刷伙伴根</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/933/1</t>
-  </si>
-  <si>
-    <t>标签包裹。</t>
-  </si>
-  <si>
-    <t>【需求】支持NCSI边带管理功能</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/16</t>
-  </si>
-  <si>
-    <t>【需求】开源社区支持NCSI边带管理功能</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/5</t>
-  </si>
-  <si>
-    <t>解决BMC过渡包升级中签名链更新缺失导致的校验失败</t>
-  </si>
-  <si>
-    <t>制作反向过渡包时碰到的疑问</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/723/1</t>
-  </si>
-  <si>
-    <t>25.03构建出包以及伙伴签名问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/390/1</t>
-  </si>
-  <si>
-    <t>25.03版本的构建环境搭建：dockerfile创建镜像失败</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/409/1</t>
-  </si>
-  <si>
-    <t>开发者实现Redfish Drive资源OEM接口时需解决NVM MI命令与硬件协议栈的兼容性整合</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制SendNvmeMICommand请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/40</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetIdentifyData请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/39</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetAddSmartInfo请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/37</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetTelemetryData请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/13</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/36</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetSmartInfo请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/38</t>
-  </si>
-  <si>
-    <t>BMC配置导出需新增产品类别和软件版本信息支持</t>
-  </si>
-  <si>
-    <t>配置导出项新增BMC软件版本信息和产品类别信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/13</t>
-  </si>
-  <si>
-    <t>配置导入导出新增产品类别信息和BMC软件版本信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/profile_schema/issues/2</t>
-  </si>
-  <si>
-    <t>提供BMC出厂配置定制指导</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/16</t>
-  </si>
-  <si>
-    <t>软件中心需要添加BMCStudio描述和下载页</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/software-center-config/issues/3</t>
+    <t>BMC开发者如何解决PXE阶段因POST未完成导致重启失败</t>
+  </si>
+  <si>
+    <t>【问题单】定制后bios处于PXE阶段时重启BMC失败</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/19</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/sensor/issues/10</t>
   </si>
   <si>
     <t>BMC开发者如何防范开发环境中的文件访问绕过漏洞</t>
@@ -1340,16 +1607,40 @@
     <t>https://gitcode.com/openUBMC/manifest/issues/17</t>
   </si>
   <si>
-    <t>BMC开发者如何实现PLDM协议获取网卡信息并集成接口展示</t>
-  </si>
-  <si>
-    <t>【需求】支持使用pldm协议获取网卡相关信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/20</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/19</t>
+    <t>BMC开发者亟需开源应用框架开发指导文档</t>
+  </si>
+  <si>
+    <t>提供应用框架开发指导</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/15</t>
+  </si>
+  <si>
+    <t>【需求】社区提供开源项目开发者指南</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/webui/issues/19</t>
+  </si>
+  <si>
+    <t>如何优化BMC日志、跟踪和度量数据的采集与存储效率</t>
+  </si>
+  <si>
+    <t>提供跟踪数据采集和存储能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/4</t>
+  </si>
+  <si>
+    <t>提供度量数据采集和存储能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/2</t>
+  </si>
+  <si>
+    <t>提供日志数据采集和存储能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/5</t>
   </si>
   <si>
     <t>BMC开发者如何实现bingo SDK版本自动化兼容性校验</t>
@@ -1365,291 +1656,6 @@
   </si>
   <si>
     <t>https://gitcode.com/openUBMC/bingo/issues/12</t>
-  </si>
-  <si>
-    <t>BMC开发者如何解决固件升级中的证书校验失败</t>
-  </si>
-  <si>
-    <t>使用社区最新出包，升级hpm失败，查看m3log get cert fail!</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/498/1</t>
-  </si>
-  <si>
-    <t>最新 source 包烧录异常问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/173/1</t>
-  </si>
-  <si>
-    <t>BMC多组件共享白名单配置的维护复杂度问题</t>
-  </si>
-  <si>
-    <t>【需求】基于动态插桩拦截风险接口调用日志，形成通用化命令的白名单配置</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/15</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/pcie_device/issues/4</t>
-  </si>
-  <si>
-    <t>BMC固件开发中如何确保网卡扩展与历史协议兼容</t>
-  </si>
-  <si>
-    <t>【需求】网卡适配组件兼容历史网卡功能</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/6</t>
-  </si>
-  <si>
-    <t>【需求】网卡支持南向部件驱动接口</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/17</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/18</t>
-  </si>
-  <si>
-    <t>BMC开发者如何解决PXE阶段因POST未完成导致重启失败</t>
-  </si>
-  <si>
-    <t>【问题单】定制后bios处于PXE阶段时重启BMC失败</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/19</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/sensor/issues/10</t>
-  </si>
-  <si>
-    <t>BMC开发者如何统一实现多品牌新款SATA硬盘的纳管支持？</t>
-  </si>
-  <si>
-    <t>【需求】支持新增希捷SATA盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/42</t>
-  </si>
-  <si>
-    <t>【需求】支持新增西数SATA盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/43</t>
-  </si>
-  <si>
-    <t>【需求】支持新增东芝SATA盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/45</t>
-  </si>
-  <si>
-    <t>BMC开发者如何在直通场景下实现NVMe SSD自定义SMART监控</t>
-  </si>
-  <si>
-    <t>【需求】支持自定义SMART信息的NVMe SSD盘写放大监控</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/28</t>
-  </si>
-  <si>
-    <t>【需求】支持从带内获取SMART NVMe SSD盘冗余块信息并监控</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/24</t>
-  </si>
-  <si>
-    <t>【需求】支持获取NVMe SSD盘自定义SMART信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/27</t>
-  </si>
-  <si>
-    <t>【需求】支持从带内获取厂商SMART NVMe SSD盘冗余块信息并监控</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/10</t>
-  </si>
-  <si>
-    <t>【需求】支持自定义的SMART NVMe SSD盘亚健康检测</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/23</t>
-  </si>
-  <si>
-    <t>【需求】支持自定义SMART信息的NVMe SSD盘预估寿命新增计算参数</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/25</t>
-  </si>
-  <si>
-    <t>BMC开发者如何提升多模组固件升级健壮性</t>
-  </si>
-  <si>
-    <t>【需求】支持多模组CSR固件升级健壮性提升</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/24</t>
-  </si>
-  <si>
-    <t>【需求】支持多模组VRD固件升级健壮性提升</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/26</t>
-  </si>
-  <si>
-    <t>【需求】支持多模组CPLD固件升级健壮性提升</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/25</t>
-  </si>
-  <si>
-    <t>【需求】支持多模组MCU固件升级健壮性提升</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/27</t>
-  </si>
-  <si>
-    <t>CPLD 升级 MultipleSuppliersMode MIXED Mode 功能背景了解</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/886/1</t>
-  </si>
-  <si>
-    <t>【需求】支持MCU子固件升级时版本号校验</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/23</t>
-  </si>
-  <si>
-    <t>BMC开发者亟需开源应用框架开发指导文档</t>
-  </si>
-  <si>
-    <t>提供应用框架开发指导</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/15</t>
-  </si>
-  <si>
-    <t>【需求】社区提供开源项目开发者指南</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/webui/issues/19</t>
-  </si>
-  <si>
-    <t>BMC开发者如何为thermal和power管理组件实现业务场景的白名单配置基线化</t>
-  </si>
-  <si>
-    <t>【需求】power_mgmt组件明确业务场景下的白名单化配置并形成基线</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/45</t>
-  </si>
-  <si>
-    <t>【需求】thermal_mgmt组件明确业务场景下的白名单化配置并形成基线</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/25</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现Redfish接口查询指定PCIe设备资源信息</t>
-  </si>
-  <si>
-    <t>【需求】支持查询指定PCIEDevices资源信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/pcie_device/issues/5</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/16</t>
-  </si>
-  <si>
-    <t>如何优化BMC日志、跟踪和度量数据的采集与存储效率</t>
-  </si>
-  <si>
-    <t>提供跟踪数据采集和存储能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/observability/issues/4</t>
-  </si>
-  <si>
-    <t>提供度量数据采集和存储能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/observability/issues/2</t>
-  </si>
-  <si>
-    <t>提供日志数据采集和存储能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/observability/issues/5</t>
-  </si>
-  <si>
-    <t>BMC开发者如何适配BlueField系列设备的调速策略在openUBMC中</t>
-  </si>
-  <si>
-    <t>【需求】支持BlueField-3（B3220）的调速策略配置</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/17</t>
-  </si>
-  <si>
-    <t>【需求】支持BlueField-2（332A）的调速策略</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/18</t>
-  </si>
-  <si>
-    <t>BMC开发者需修正BIOS组件生效流程图的逻辑错误</t>
-  </si>
-  <si>
-    <t>bios组件生效流程流程图错误</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/17</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/19</t>
-  </si>
-  <si>
-    <t>BMC开发者如何解决固件并行升级总线互斥问题</t>
-  </si>
-  <si>
-    <t>【需求】支持固件升级流程总线互斥</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/21</t>
-  </si>
-  <si>
-    <t>固件升级流程总线互斥</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/10</t>
-  </si>
-  <si>
-    <t>【需求】能效管理固件升级流程总线互斥</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/11</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/11</t>
-  </si>
-  <si>
-    <t>BMC开发中如何解决Conan v1弃用导致的头文件缺失编译失败</t>
-  </si>
-  <si>
-    <t>社区lsw编译不过</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/979/1</t>
-  </si>
-  <si>
-    <t>开源首版本编译不过</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/lsw/issues/1</t>
   </si>
 </sst>
 </file>
@@ -1986,739 +1992,748 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
         <v>38</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
         <v>40</v>
       </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>2</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
         <v>51</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
         <v>53</v>
       </c>
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
-        <v>2</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" t="s">
         <v>61</v>
       </c>
-      <c r="C37" t="s">
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B39" t="s">
         <v>63</v>
       </c>
+      <c r="C39" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" t="s">
-        <v>2</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" t="s">
-        <v>68</v>
-      </c>
-      <c r="C43" t="s">
-        <v>69</v>
+        <v>5</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
         <v>70</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B46" t="s">
         <v>72</v>
       </c>
+      <c r="C46" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" t="s">
-        <v>2</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>3</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>3</v>
-      </c>
-      <c r="B49" t="s">
-        <v>75</v>
-      </c>
-      <c r="C49" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" t="s">
-        <v>77</v>
-      </c>
-      <c r="C50" t="s">
-        <v>78</v>
+        <v>5</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C53" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C54" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C55" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C57" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C58" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C59" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C60" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B61" t="s">
+        <v>97</v>
+      </c>
+      <c r="C61" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
         <v>99</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B63" t="s">
         <v>101</v>
       </c>
+      <c r="C63" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" t="s">
-        <v>2</v>
-      </c>
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>102</v>
-      </c>
-      <c r="C65" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>3</v>
-      </c>
-      <c r="B66" t="s">
-        <v>104</v>
-      </c>
-      <c r="C66" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B67" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" t="s">
         <v>106</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C68" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B69" t="s">
         <v>108</v>
       </c>
+      <c r="C69" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" t="s">
-        <v>2</v>
-      </c>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>109</v>
-      </c>
-      <c r="C71" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>3</v>
-      </c>
-      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" t="s">
         <v>111</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B74" t="s">
         <v>113</v>
       </c>
+      <c r="C74" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" t="s">
-        <v>2</v>
-      </c>
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>114</v>
-      </c>
-      <c r="C76" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>3</v>
-      </c>
-      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
         <v>116</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C78" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" t="s">
+        <v>118</v>
+      </c>
+      <c r="C79" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
     </row>
   </sheetData>
 </worksheet>
@@ -2743,143 +2758,143 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>128</v>
+        <v>230</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>129</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>131</v>
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>232</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>235</v>
       </c>
       <c r="C6" t="s">
-        <v>135</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" t="s">
-        <v>137</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" t="s">
-        <v>138</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>139</v>
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>141</v>
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>277</v>
+      </c>
+      <c r="C12" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>142</v>
+        <v>279</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>142</v>
+        <v>281</v>
       </c>
       <c r="C14" t="s">
-        <v>144</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>145</v>
+        <v>273</v>
       </c>
       <c r="C15" t="s">
-        <v>146</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16">
@@ -2889,213 +2904,213 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>233</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>234</v>
+        <v>454</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>235</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>236</v>
+        <v>456</v>
       </c>
       <c r="C20" t="s">
-        <v>237</v>
+        <v>457</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>238</v>
+        <v>458</v>
       </c>
       <c r="C21" t="s">
-        <v>239</v>
+        <v>459</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>238</v>
+        <v>458</v>
       </c>
       <c r="C22" t="s">
-        <v>240</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>241</v>
+        <v>461</v>
       </c>
       <c r="C23" t="s">
-        <v>242</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>243</v>
+        <v>463</v>
       </c>
       <c r="C24" t="s">
-        <v>244</v>
+        <v>464</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>245</v>
+        <v>465</v>
       </c>
       <c r="C25" t="s">
-        <v>246</v>
+        <v>466</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>247</v>
+        <v>467</v>
       </c>
       <c r="C26" t="s">
-        <v>248</v>
+        <v>468</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>247</v>
+        <v>467</v>
       </c>
       <c r="C27" t="s">
-        <v>249</v>
+        <v>469</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>247</v>
+        <v>467</v>
       </c>
       <c r="C28" t="s">
-        <v>250</v>
+        <v>470</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>247</v>
+        <v>467</v>
       </c>
       <c r="C29" t="s">
-        <v>251</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>252</v>
+        <v>472</v>
       </c>
       <c r="C30" t="s">
-        <v>253</v>
+        <v>473</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>252</v>
+        <v>472</v>
       </c>
       <c r="C31" t="s">
-        <v>254</v>
+        <v>474</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>252</v>
+        <v>472</v>
       </c>
       <c r="C32" t="s">
-        <v>255</v>
+        <v>475</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>256</v>
+        <v>476</v>
       </c>
       <c r="C33" t="s">
-        <v>257</v>
+        <v>477</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>252</v>
+        <v>472</v>
       </c>
       <c r="C34" t="s">
-        <v>258</v>
+        <v>478</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>259</v>
+        <v>479</v>
       </c>
       <c r="C35" t="s">
-        <v>260</v>
+        <v>480</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>261</v>
+        <v>481</v>
       </c>
       <c r="C36" t="s">
-        <v>262</v>
+        <v>482</v>
       </c>
     </row>
     <row r="37">
@@ -3126,139 +3141,139 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" t="s">
-        <v>126</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>147</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C11" t="s">
-        <v>151</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>152</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="C15" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="C16" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17">
@@ -3268,37 +3283,37 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="C20" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="C21" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22">
@@ -3308,37 +3323,37 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="C25" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C26" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27">
@@ -3348,759 +3363,729 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="C30" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="C31" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C32" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" t="s">
-        <v>172</v>
-      </c>
-      <c r="C33" t="s">
-        <v>173</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>174</v>
-      </c>
-      <c r="C34" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" t="s">
-        <v>170</v>
-      </c>
-      <c r="C35" t="s">
-        <v>176</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>177</v>
+        <v>157</v>
+      </c>
+      <c r="C37" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="C39" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" t="s">
-        <v>180</v>
-      </c>
-      <c r="C40" t="s">
-        <v>181</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>180</v>
-      </c>
-      <c r="C41" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" t="s">
-        <v>183</v>
-      </c>
-      <c r="C42" t="s">
-        <v>184</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>185</v>
+        <v>166</v>
+      </c>
+      <c r="C44" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="C46" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="C47" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="C48" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s">
-        <v>3</v>
-      </c>
-      <c r="B49" t="s">
-        <v>192</v>
-      </c>
-      <c r="C49" t="s">
-        <v>193</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>194</v>
-      </c>
-      <c r="C50" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" t="s">
-        <v>196</v>
-      </c>
-      <c r="C51" t="s">
-        <v>197</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="C52" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="C53" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s">
-        <v>3</v>
-      </c>
-      <c r="B54" t="s">
-        <v>202</v>
-      </c>
-      <c r="C54" t="s">
-        <v>203</v>
-      </c>
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>204</v>
-      </c>
-      <c r="C55" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56" t="s">
-        <v>206</v>
-      </c>
-      <c r="C56" t="s">
-        <v>207</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>182</v>
+      </c>
+      <c r="C57" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>208</v>
+        <v>184</v>
+      </c>
+      <c r="C58" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s">
-        <v>2</v>
-      </c>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>209</v>
-      </c>
-      <c r="C60" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>3</v>
-      </c>
-      <c r="B61" t="s">
-        <v>211</v>
-      </c>
-      <c r="C61" t="s">
-        <v>212</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
+        <v>187</v>
+      </c>
+      <c r="C62" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>213</v>
+        <v>189</v>
+      </c>
+      <c r="C63" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s">
-        <v>2</v>
-      </c>
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>214</v>
-      </c>
-      <c r="C65" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>3</v>
-      </c>
-      <c r="B66" t="s">
-        <v>214</v>
-      </c>
-      <c r="C66" t="s">
-        <v>216</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" t="s">
+        <v>192</v>
+      </c>
+      <c r="C67" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>217</v>
+        <v>194</v>
+      </c>
+      <c r="C68" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B69" t="s">
+        <v>196</v>
+      </c>
+      <c r="C69" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="C70" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="C71" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" t="s">
+        <v>202</v>
+      </c>
+      <c r="C72" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" t="s">
-        <v>222</v>
-      </c>
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
         <v>2</v>
       </c>
+      <c r="B74" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>3</v>
-      </c>
-      <c r="B75" t="s">
-        <v>223</v>
-      </c>
-      <c r="C75" t="s">
-        <v>224</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="C76" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="C77" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>209</v>
+      </c>
+      <c r="C78" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" t="s">
-        <v>229</v>
-      </c>
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
         <v>2</v>
       </c>
+      <c r="B80" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>3</v>
-      </c>
-      <c r="B81" t="s">
-        <v>230</v>
-      </c>
-      <c r="C81" t="s">
-        <v>231</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="C82" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" t="s">
+        <v>214</v>
+      </c>
+      <c r="C83" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" t="s">
-        <v>263</v>
-      </c>
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
         <v>2</v>
       </c>
+      <c r="B85" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>3</v>
-      </c>
-      <c r="B86" t="s">
-        <v>264</v>
-      </c>
-      <c r="C86" t="s">
-        <v>265</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B87" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="C87" t="s">
-        <v>267</v>
+        <v>218</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B88" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
       <c r="C88" t="s">
-        <v>268</v>
+        <v>219</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s">
-        <v>3</v>
-      </c>
-      <c r="B89" t="s">
-        <v>269</v>
-      </c>
-      <c r="C89" t="s">
-        <v>270</v>
-      </c>
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
     </row>
     <row r="90">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
+      <c r="A90" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" t="s">
-        <v>271</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
+        <v>221</v>
+      </c>
+      <c r="C92" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B93" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="C93" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s">
-        <v>3</v>
-      </c>
-      <c r="B94" t="s">
-        <v>274</v>
-      </c>
-      <c r="C94" t="s">
-        <v>275</v>
-      </c>
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B95" t="s">
-        <v>276</v>
-      </c>
-      <c r="C95" t="s">
-        <v>277</v>
+        <v>225</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
+      <c r="A96" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B97" t="s">
-        <v>278</v>
+        <v>226</v>
+      </c>
+      <c r="C97" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B98" t="s">
+        <v>226</v>
+      </c>
+      <c r="C98" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s">
-        <v>3</v>
-      </c>
-      <c r="B99" t="s">
-        <v>279</v>
-      </c>
-      <c r="C99" t="s">
-        <v>280</v>
-      </c>
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B100" t="s">
-        <v>281</v>
-      </c>
-      <c r="C100" t="s">
-        <v>282</v>
+        <v>237</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>3</v>
-      </c>
-      <c r="B101" t="s">
-        <v>283</v>
-      </c>
-      <c r="C101" t="s">
-        <v>284</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>285</v>
+        <v>238</v>
       </c>
       <c r="C102" t="s">
-        <v>286</v>
+        <v>239</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" t="s">
+        <v>240</v>
+      </c>
+      <c r="C103" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="104">
-      <c r="A104" t="s">
-        <v>0</v>
-      </c>
-      <c r="B104" t="s">
-        <v>287</v>
-      </c>
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
     </row>
     <row r="105">
       <c r="A105" t="s">
         <v>2</v>
       </c>
+      <c r="B105" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>3</v>
-      </c>
-      <c r="B106" t="s">
-        <v>288</v>
-      </c>
-      <c r="C106" t="s">
-        <v>289</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B107" t="s">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="C107" t="s">
-        <v>291</v>
+        <v>244</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
+      <c r="A108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" t="s">
+        <v>245</v>
+      </c>
+      <c r="C108" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="109">
-      <c r="A109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B109" t="s">
-        <v>292</v>
-      </c>
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
     </row>
     <row r="110">
       <c r="A110" t="s">
         <v>2</v>
       </c>
+      <c r="B110" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>3</v>
-      </c>
-      <c r="B111" t="s">
-        <v>293</v>
-      </c>
-      <c r="C111" t="s">
-        <v>294</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="C112" t="s">
-        <v>295</v>
+        <v>249</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>296</v>
+        <v>250</v>
       </c>
       <c r="C113" t="s">
-        <v>297</v>
+        <v>251</v>
       </c>
     </row>
     <row r="114">
@@ -4110,37 +4095,37 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B115" t="s">
-        <v>298</v>
+        <v>252</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>299</v>
+        <v>253</v>
       </c>
       <c r="C117" t="s">
-        <v>300</v>
+        <v>254</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>299</v>
+        <v>253</v>
       </c>
       <c r="C118" t="s">
-        <v>301</v>
+        <v>255</v>
       </c>
     </row>
     <row r="119">
@@ -4150,1213 +4135,1258 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B120" t="s">
-        <v>302</v>
+        <v>256</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>303</v>
+        <v>257</v>
       </c>
       <c r="C122" t="s">
-        <v>304</v>
+        <v>258</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>303</v>
+        <v>257</v>
       </c>
       <c r="C123" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="C124" t="s">
-        <v>306</v>
+        <v>261</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
+      <c r="A125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" t="s">
+        <v>262</v>
+      </c>
+      <c r="C125" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>307</v>
+        <v>264</v>
+      </c>
+      <c r="C126" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B127" t="s">
+        <v>260</v>
+      </c>
+      <c r="C127" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s">
-        <v>3</v>
-      </c>
-      <c r="B128" t="s">
-        <v>308</v>
-      </c>
-      <c r="C128" t="s">
-        <v>309</v>
-      </c>
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B129" t="s">
-        <v>310</v>
-      </c>
-      <c r="C129" t="s">
-        <v>311</v>
+        <v>267</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
+      <c r="A130" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>312</v>
+        <v>268</v>
+      </c>
+      <c r="C131" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B132" t="s">
+        <v>270</v>
+      </c>
+      <c r="C132" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s">
-        <v>3</v>
-      </c>
-      <c r="B133" t="s">
-        <v>313</v>
-      </c>
-      <c r="C133" t="s">
-        <v>314</v>
-      </c>
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B134" t="s">
-        <v>315</v>
-      </c>
-      <c r="C134" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
+      <c r="A135" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B136" t="s">
-        <v>317</v>
+        <v>285</v>
+      </c>
+      <c r="C136" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B137" t="s">
+        <v>287</v>
+      </c>
+      <c r="C137" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s">
-        <v>3</v>
-      </c>
-      <c r="B138" t="s">
-        <v>318</v>
-      </c>
-      <c r="C138" t="s">
-        <v>319</v>
-      </c>
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B139" t="s">
-        <v>320</v>
-      </c>
-      <c r="C139" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
+      <c r="A140" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B141" t="s">
-        <v>322</v>
+        <v>290</v>
+      </c>
+      <c r="C141" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B142" t="s">
+        <v>292</v>
+      </c>
+      <c r="C142" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B143" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="C143" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B144" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="C144" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
+      <c r="A145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145" t="s">
+        <v>296</v>
+      </c>
+      <c r="C145" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B146" t="s">
-        <v>327</v>
+        <v>299</v>
+      </c>
+      <c r="C146" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s">
-        <v>2</v>
-      </c>
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B148" t="s">
-        <v>328</v>
-      </c>
-      <c r="C148" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>3</v>
-      </c>
-      <c r="B149" t="s">
-        <v>330</v>
-      </c>
-      <c r="C149" t="s">
-        <v>331</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
+      <c r="A150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150" t="s">
+        <v>302</v>
+      </c>
+      <c r="C150" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B151" t="s">
-        <v>332</v>
+        <v>304</v>
+      </c>
+      <c r="C151" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s">
-        <v>2</v>
-      </c>
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B153" t="s">
-        <v>333</v>
-      </c>
-      <c r="C153" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>3</v>
-      </c>
-      <c r="B154" t="s">
-        <v>335</v>
-      </c>
-      <c r="C154" t="s">
-        <v>336</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
+      <c r="A155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" t="s">
+        <v>307</v>
+      </c>
+      <c r="C155" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B156" t="s">
-        <v>337</v>
+        <v>307</v>
+      </c>
+      <c r="C156" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s">
-        <v>2</v>
-      </c>
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B158" t="s">
-        <v>338</v>
-      </c>
-      <c r="C158" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>3</v>
-      </c>
-      <c r="B159" t="s">
-        <v>340</v>
-      </c>
-      <c r="C159" t="s">
-        <v>341</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
+      <c r="A160" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160" t="s">
+        <v>311</v>
+      </c>
+      <c r="C160" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B161" t="s">
-        <v>342</v>
+        <v>313</v>
+      </c>
+      <c r="C161" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B162" t="s">
+        <v>315</v>
+      </c>
+      <c r="C162" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B163" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="C163" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B164" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="C164" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
+      <c r="A165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B165" t="s">
+        <v>321</v>
+      </c>
+      <c r="C165" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B166" t="s">
-        <v>347</v>
+        <v>323</v>
+      </c>
+      <c r="C166" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B167" t="s">
+        <v>325</v>
+      </c>
+      <c r="C167" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B168" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="C168" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B169" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="C169" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
+      <c r="A170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B170" t="s">
+        <v>331</v>
+      </c>
+      <c r="C170" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="171">
-      <c r="A171" t="s">
-        <v>0</v>
-      </c>
-      <c r="B171" t="s">
-        <v>352</v>
-      </c>
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
     </row>
     <row r="172">
       <c r="A172" t="s">
         <v>2</v>
       </c>
+      <c r="B172" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>3</v>
-      </c>
-      <c r="B173" t="s">
-        <v>353</v>
-      </c>
-      <c r="C173" t="s">
-        <v>354</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B174" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="C174" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B175" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="C175" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
+      <c r="A176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B176" t="s">
+        <v>338</v>
+      </c>
+      <c r="C176" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B177" t="s">
-        <v>359</v>
+        <v>340</v>
+      </c>
+      <c r="C177" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s">
-        <v>2</v>
-      </c>
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B179" t="s">
-        <v>360</v>
-      </c>
-      <c r="C179" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>3</v>
-      </c>
-      <c r="B180" t="s">
-        <v>362</v>
-      </c>
-      <c r="C180" t="s">
-        <v>363</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B181" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="C181" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
+      <c r="A182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B182" t="s">
+        <v>345</v>
+      </c>
+      <c r="C182" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="183">
-      <c r="A183" t="s">
-        <v>0</v>
-      </c>
-      <c r="B183" t="s">
-        <v>366</v>
-      </c>
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
     </row>
     <row r="184">
       <c r="A184" t="s">
         <v>2</v>
       </c>
+      <c r="B184" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>3</v>
-      </c>
-      <c r="B185" t="s">
-        <v>367</v>
-      </c>
-      <c r="C185" t="s">
-        <v>368</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B186" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="C186" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B187" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="C187" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
+      <c r="A188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B188" t="s">
+        <v>352</v>
+      </c>
+      <c r="C188" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="189">
-      <c r="A189" t="s">
-        <v>0</v>
-      </c>
-      <c r="B189" t="s">
-        <v>373</v>
-      </c>
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
     </row>
     <row r="190">
       <c r="A190" t="s">
         <v>2</v>
       </c>
+      <c r="B190" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>3</v>
-      </c>
-      <c r="B191" t="s">
-        <v>374</v>
-      </c>
-      <c r="C191" t="s">
-        <v>375</v>
+        <v>4</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B192" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="C192" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
-      <c r="C193" s="1"/>
+      <c r="A193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B193" t="s">
+        <v>357</v>
+      </c>
+      <c r="C193" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B194" t="s">
-        <v>378</v>
+        <v>359</v>
+      </c>
+      <c r="C194" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s">
-        <v>2</v>
-      </c>
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>379</v>
-      </c>
-      <c r="C196" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>3</v>
-      </c>
-      <c r="B197" t="s">
-        <v>381</v>
-      </c>
-      <c r="C197" t="s">
-        <v>382</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
-      <c r="C198" s="1"/>
+      <c r="A198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B198" t="s">
+        <v>362</v>
+      </c>
+      <c r="C198" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>383</v>
+        <v>362</v>
+      </c>
+      <c r="C199" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s">
-        <v>2</v>
-      </c>
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B201" t="s">
-        <v>384</v>
-      </c>
-      <c r="C201" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>3</v>
-      </c>
-      <c r="B202" t="s">
-        <v>384</v>
-      </c>
-      <c r="C202" t="s">
-        <v>386</v>
+        <v>4</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
-      <c r="C203" s="1"/>
+      <c r="A203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B203" t="s">
+        <v>366</v>
+      </c>
+      <c r="C203" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B204" t="s">
-        <v>387</v>
+        <v>368</v>
+      </c>
+      <c r="C204" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B205" t="s">
+        <v>370</v>
+      </c>
+      <c r="C205" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B206" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="C206" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s">
-        <v>3</v>
-      </c>
-      <c r="B207" t="s">
-        <v>390</v>
-      </c>
-      <c r="C207" t="s">
-        <v>391</v>
-      </c>
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B208" t="s">
-        <v>392</v>
-      </c>
-      <c r="C208" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>3</v>
-      </c>
-      <c r="B209" t="s">
-        <v>394</v>
-      </c>
-      <c r="C209" t="s">
-        <v>395</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="1"/>
-      <c r="B210" s="1"/>
-      <c r="C210" s="1"/>
+      <c r="A210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B210" t="s">
+        <v>374</v>
+      </c>
+      <c r="C210" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B211" t="s">
-        <v>396</v>
+        <v>376</v>
+      </c>
+      <c r="C211" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s">
-        <v>2</v>
-      </c>
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B213" t="s">
-        <v>397</v>
-      </c>
-      <c r="C213" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>3</v>
-      </c>
-      <c r="B214" t="s">
-        <v>399</v>
-      </c>
-      <c r="C214" t="s">
-        <v>400</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
-      <c r="C215" s="1"/>
+      <c r="A215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B215" t="s">
+        <v>379</v>
+      </c>
+      <c r="C215" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B216" t="s">
-        <v>401</v>
+        <v>381</v>
+      </c>
+      <c r="C216" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B217" t="s">
+        <v>383</v>
+      </c>
+      <c r="C217" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B218" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="C218" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s">
-        <v>3</v>
-      </c>
-      <c r="B219" t="s">
-        <v>404</v>
-      </c>
-      <c r="C219" t="s">
-        <v>405</v>
-      </c>
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B220" t="s">
-        <v>406</v>
-      </c>
-      <c r="C220" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
-      <c r="C221" s="1"/>
+      <c r="A221" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B222" t="s">
-        <v>408</v>
+        <v>388</v>
+      </c>
+      <c r="C222" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B223" t="s">
+        <v>388</v>
+      </c>
+      <c r="C223" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s">
-        <v>3</v>
-      </c>
-      <c r="B224" t="s">
-        <v>409</v>
-      </c>
-      <c r="C224" t="s">
-        <v>410</v>
-      </c>
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B225" t="s">
-        <v>411</v>
-      </c>
-      <c r="C225" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>3</v>
-      </c>
-      <c r="B226" t="s">
-        <v>413</v>
-      </c>
-      <c r="C226" t="s">
-        <v>414</v>
+        <v>4</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B227" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="C227" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B228" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="C228" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="s">
-        <v>3</v>
-      </c>
-      <c r="B229" t="s">
-        <v>418</v>
-      </c>
-      <c r="C229" t="s">
-        <v>419</v>
-      </c>
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
     </row>
     <row r="230">
-      <c r="A230" s="1"/>
-      <c r="B230" s="1"/>
-      <c r="C230" s="1"/>
+      <c r="A230" t="s">
+        <v>2</v>
+      </c>
+      <c r="B230" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>0</v>
-      </c>
-      <c r="B231" t="s">
-        <v>420</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B232" t="s">
+        <v>397</v>
+      </c>
+      <c r="C232" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B233" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="C233" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B234" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="C234" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s">
-        <v>3</v>
-      </c>
-      <c r="B235" t="s">
-        <v>425</v>
-      </c>
-      <c r="C235" t="s">
-        <v>426</v>
-      </c>
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B236" t="s">
-        <v>427</v>
-      </c>
-      <c r="C236" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="1"/>
-      <c r="B237" s="1"/>
-      <c r="C237" s="1"/>
+      <c r="A237" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B238" t="s">
-        <v>429</v>
+        <v>404</v>
+      </c>
+      <c r="C238" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B239" t="s">
+        <v>406</v>
+      </c>
+      <c r="C239" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B240" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="C240" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B241" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="C241" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s">
-        <v>3</v>
-      </c>
-      <c r="B242" t="s">
-        <v>434</v>
-      </c>
-      <c r="C242" t="s">
-        <v>435</v>
-      </c>
+      <c r="A242" s="1"/>
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B243" t="s">
-        <v>436</v>
-      </c>
-      <c r="C243" t="s">
-        <v>437</v>
+        <v>411</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>3</v>
-      </c>
-      <c r="B244" t="s">
-        <v>438</v>
-      </c>
-      <c r="C244" t="s">
-        <v>439</v>
+        <v>4</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="1"/>
-      <c r="B245" s="1"/>
-      <c r="C245" s="1"/>
+      <c r="A245" t="s">
+        <v>5</v>
+      </c>
+      <c r="B245" t="s">
+        <v>412</v>
+      </c>
+      <c r="C245" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B246" t="s">
-        <v>440</v>
+        <v>412</v>
+      </c>
+      <c r="C246" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="s">
-        <v>2</v>
-      </c>
+      <c r="A247" s="1"/>
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B248" t="s">
-        <v>441</v>
-      </c>
-      <c r="C248" t="s">
-        <v>442</v>
+        <v>415</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>3</v>
-      </c>
-      <c r="B249" t="s">
-        <v>441</v>
-      </c>
-      <c r="C249" t="s">
-        <v>443</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="1"/>
-      <c r="B250" s="1"/>
-      <c r="C250" s="1"/>
+      <c r="A250" t="s">
+        <v>5</v>
+      </c>
+      <c r="B250" t="s">
+        <v>416</v>
+      </c>
+      <c r="C250" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B251" t="s">
-        <v>444</v>
+        <v>416</v>
+      </c>
+      <c r="C251" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B252" t="s">
+        <v>416</v>
+      </c>
+      <c r="C252" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="s">
-        <v>3</v>
-      </c>
-      <c r="B253" t="s">
-        <v>445</v>
-      </c>
-      <c r="C253" t="s">
-        <v>446</v>
-      </c>
+      <c r="A253" s="1"/>
+      <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B254" t="s">
-        <v>447</v>
-      </c>
-      <c r="C254" t="s">
-        <v>448</v>
+        <v>420</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="1"/>
-      <c r="B255" s="1"/>
-      <c r="C255" s="1"/>
+      <c r="A255" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B256" t="s">
-        <v>449</v>
+        <v>421</v>
+      </c>
+      <c r="C256" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B257" t="s">
+        <v>423</v>
+      </c>
+      <c r="C257" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="s">
-        <v>3</v>
-      </c>
-      <c r="B258" t="s">
-        <v>450</v>
-      </c>
-      <c r="C258" t="s">
-        <v>451</v>
-      </c>
+      <c r="A258" s="1"/>
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B259" t="s">
-        <v>452</v>
-      </c>
-      <c r="C259" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="1"/>
-      <c r="B260" s="1"/>
-      <c r="C260" s="1"/>
+      <c r="A260" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B261" t="s">
-        <v>454</v>
+        <v>426</v>
+      </c>
+      <c r="C261" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B262" t="s">
+        <v>428</v>
+      </c>
+      <c r="C262" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B263" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="C263" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B264" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="C264" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
     </row>
     <row r="265">
@@ -5366,223 +5396,208 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B266" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B268" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="C268" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B269" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="C269" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s">
-        <v>3</v>
-      </c>
-      <c r="B270" t="s">
-        <v>461</v>
-      </c>
-      <c r="C270" t="s">
-        <v>463</v>
-      </c>
+      <c r="A270" s="1"/>
+      <c r="B270" s="1"/>
+      <c r="C270" s="1"/>
     </row>
     <row r="271">
-      <c r="A271" s="1"/>
-      <c r="B271" s="1"/>
-      <c r="C271" s="1"/>
+      <c r="A271" t="s">
+        <v>2</v>
+      </c>
+      <c r="B271" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>0</v>
-      </c>
-      <c r="B272" t="s">
-        <v>464</v>
+        <v>4</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B273" t="s">
+        <v>440</v>
+      </c>
+      <c r="C273" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B274" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
       <c r="C274" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="s">
-        <v>3</v>
-      </c>
-      <c r="B275" t="s">
-        <v>465</v>
-      </c>
-      <c r="C275" t="s">
-        <v>467</v>
-      </c>
+      <c r="A275" s="1"/>
+      <c r="B275" s="1"/>
+      <c r="C275" s="1"/>
     </row>
     <row r="276">
-      <c r="A276" s="1"/>
-      <c r="B276" s="1"/>
-      <c r="C276" s="1"/>
+      <c r="A276" t="s">
+        <v>2</v>
+      </c>
+      <c r="B276" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>0</v>
-      </c>
-      <c r="B277" t="s">
-        <v>468</v>
+        <v>4</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B278" t="s">
+        <v>445</v>
+      </c>
+      <c r="C278" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B279" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="C279" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="s">
-        <v>3</v>
-      </c>
-      <c r="B280" t="s">
-        <v>471</v>
-      </c>
-      <c r="C280" t="s">
-        <v>472</v>
-      </c>
+      <c r="A280" s="1"/>
+      <c r="B280" s="1"/>
+      <c r="C280" s="1"/>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B281" t="s">
-        <v>473</v>
-      </c>
-      <c r="C281" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="1"/>
-      <c r="B282" s="1"/>
-      <c r="C282" s="1"/>
+      <c r="A282" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B283" t="s">
-        <v>475</v>
+        <v>450</v>
+      </c>
+      <c r="C283" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B284" t="s">
+        <v>450</v>
+      </c>
+      <c r="C284" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="s">
-        <v>3</v>
-      </c>
-      <c r="B285" t="s">
-        <v>476</v>
-      </c>
-      <c r="C285" t="s">
-        <v>477</v>
-      </c>
+      <c r="A285" s="1"/>
+      <c r="B285" s="1"/>
+      <c r="C285" s="1"/>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B286" t="s">
-        <v>478</v>
-      </c>
-      <c r="C286" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>3</v>
-      </c>
-      <c r="B287" t="s">
-        <v>480</v>
-      </c>
-      <c r="C287" t="s">
-        <v>481</v>
+        <v>4</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B288" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C288" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B289" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C289" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B290" t="s">
         <v>486</v>
       </c>
       <c r="C290" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="291">
@@ -5592,144 +5607,144 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B292" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B294" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C294" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B295" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C295" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="s">
-        <v>3</v>
-      </c>
-      <c r="B296" t="s">
-        <v>493</v>
-      </c>
-      <c r="C296" t="s">
-        <v>494</v>
-      </c>
+      <c r="A296" s="1"/>
+      <c r="B296" s="1"/>
+      <c r="C296" s="1"/>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B297" t="s">
-        <v>495</v>
-      </c>
-      <c r="C297" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>3</v>
-      </c>
-      <c r="B298" t="s">
-        <v>497</v>
-      </c>
-      <c r="C298" t="s">
-        <v>498</v>
+        <v>4</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B299" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C299" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="1"/>
-      <c r="B300" s="1"/>
-      <c r="C300" s="1"/>
+      <c r="A300" t="s">
+        <v>5</v>
+      </c>
+      <c r="B300" t="s">
+        <v>497</v>
+      </c>
+      <c r="C300" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B301" t="s">
-        <v>501</v>
+        <v>495</v>
+      </c>
+      <c r="C301" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B302" t="s">
+        <v>500</v>
+      </c>
+      <c r="C302" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="s">
-        <v>3</v>
-      </c>
-      <c r="B303" t="s">
-        <v>502</v>
-      </c>
-      <c r="C303" t="s">
-        <v>503</v>
-      </c>
+      <c r="A303" s="1"/>
+      <c r="B303" s="1"/>
+      <c r="C303" s="1"/>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B304" t="s">
-        <v>504</v>
-      </c>
-      <c r="C304" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="1"/>
-      <c r="B305" s="1"/>
-      <c r="C305" s="1"/>
+      <c r="A305" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B306" t="s">
-        <v>506</v>
+        <v>503</v>
+      </c>
+      <c r="C306" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B307" t="s">
+        <v>505</v>
+      </c>
+      <c r="C307" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B308" t="s">
         <v>507</v>
@@ -5739,37 +5754,37 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="s">
-        <v>3</v>
-      </c>
-      <c r="B309" t="s">
+      <c r="A309" s="1"/>
+      <c r="B309" s="1"/>
+      <c r="C309" s="1"/>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>2</v>
+      </c>
+      <c r="B310" t="s">
         <v>509</v>
       </c>
-      <c r="C309" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="1"/>
-      <c r="B310" s="1"/>
-      <c r="C310" s="1"/>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>0</v>
-      </c>
-      <c r="B311" t="s">
-        <v>511</v>
+        <v>4</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B312" t="s">
+        <v>510</v>
+      </c>
+      <c r="C312" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B313" t="s">
         <v>512</v>
@@ -5779,88 +5794,88 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="s">
-        <v>3</v>
-      </c>
-      <c r="B314" t="s">
-        <v>512</v>
-      </c>
-      <c r="C314" t="s">
+      <c r="A314" s="1"/>
+      <c r="B314" s="1"/>
+      <c r="C314" s="1"/>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>2</v>
+      </c>
+      <c r="B315" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="315">
-      <c r="A315" s="1"/>
-      <c r="B315" s="1"/>
-      <c r="C315" s="1"/>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>0</v>
-      </c>
-      <c r="B316" t="s">
-        <v>515</v>
+        <v>4</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B317" t="s">
+        <v>515</v>
+      </c>
+      <c r="C317" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B318" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C318" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="s">
-        <v>3</v>
-      </c>
-      <c r="B319" t="s">
-        <v>518</v>
-      </c>
-      <c r="C319" t="s">
-        <v>519</v>
-      </c>
+      <c r="A319" s="1"/>
+      <c r="B319" s="1"/>
+      <c r="C319" s="1"/>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B320" t="s">
-        <v>520</v>
-      </c>
-      <c r="C320" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="1"/>
-      <c r="B321" s="1"/>
-      <c r="C321" s="1"/>
+      <c r="A321" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B322" t="s">
-        <v>522</v>
+        <v>519</v>
+      </c>
+      <c r="C322" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B323" t="s">
+        <v>521</v>
+      </c>
+      <c r="C323" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B324" t="s">
         <v>523</v>
@@ -5871,7 +5886,7 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B325" t="s">
         <v>525</v>
@@ -5881,105 +5896,105 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="1"/>
-      <c r="B326" s="1"/>
-      <c r="C326" s="1"/>
+      <c r="A326" t="s">
+        <v>5</v>
+      </c>
+      <c r="B326" t="s">
+        <v>527</v>
+      </c>
+      <c r="C326" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="327">
-      <c r="A327" t="s">
-        <v>0</v>
-      </c>
-      <c r="B327" t="s">
-        <v>527</v>
-      </c>
+      <c r="A327" s="1"/>
+      <c r="B327" s="1"/>
+      <c r="C327" s="1"/>
     </row>
     <row r="328">
       <c r="A328" t="s">
         <v>2</v>
       </c>
+      <c r="B328" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>3</v>
-      </c>
-      <c r="B329" t="s">
-        <v>528</v>
-      </c>
-      <c r="C329" t="s">
-        <v>529</v>
+        <v>4</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B330" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C330" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="1"/>
-      <c r="B331" s="1"/>
-      <c r="C331" s="1"/>
+      <c r="A331" t="s">
+        <v>5</v>
+      </c>
+      <c r="B331" t="s">
+        <v>532</v>
+      </c>
+      <c r="C331" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="332">
-      <c r="A332" t="s">
-        <v>0</v>
-      </c>
-      <c r="B332" t="s">
-        <v>531</v>
-      </c>
+      <c r="A332" s="1"/>
+      <c r="B332" s="1"/>
+      <c r="C332" s="1"/>
     </row>
     <row r="333">
       <c r="A333" t="s">
         <v>2</v>
       </c>
+      <c r="B333" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>3</v>
-      </c>
-      <c r="B334" t="s">
-        <v>532</v>
-      </c>
-      <c r="C334" t="s">
-        <v>533</v>
+        <v>4</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B335" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C335" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B336" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C336" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B337" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C337" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="338">
@@ -5989,37 +6004,37 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B339" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B341" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C341" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B342" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C342" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="343">

--- a/test_review/06-06.xlsx
+++ b/test_review/06-06.xlsx
@@ -18,14 +18,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="550">
+  <si>
+    <t>图例：新加入的讨论源</t>
+  </si>
+  <si>
+    <t>图例：移除的讨论源</t>
+  </si>
   <si>
     <t>话题总数：8</t>
   </si>
   <si>
-    <t>图例：新加入的讨论源</t>
-  </si>
-  <si>
     <t>话题描述</t>
   </si>
   <si>
@@ -380,6 +383,636 @@
     <t>https://discuss.openubmc.cn//t/topic/317/1</t>
   </si>
   <si>
+    <t>BMC开发者如何设计CLI并发收集NPU/CPU日志的失败处理</t>
+  </si>
+  <si>
+    <t>【需求】 支持CLI导出NPU DFX日志</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/48</t>
+  </si>
+  <si>
+    <t>【需求】支持CLI导出CPU DFX日志</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/46</t>
+  </si>
+  <si>
+    <t>BMC开发者需实现NVMe盘多型号识别与管理兼容性</t>
+  </si>
+  <si>
+    <t>【需求】支持新增华为厂商NVMe盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/41</t>
+  </si>
+  <si>
+    <t>【需求】支持新增Memblaze厂商NVMe盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/44</t>
+  </si>
+  <si>
+    <t>BMC配置导出需新增产品类别和软件版本信息支持</t>
+  </si>
+  <si>
+    <t>配置导出项新增BMC软件版本信息和产品类别信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/13</t>
+  </si>
+  <si>
+    <t>配置导入导出新增产品类别信息和BMC软件版本信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/profile_schema/issues/2</t>
+  </si>
+  <si>
+    <t>提供BMC出厂配置定制指导</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/16</t>
+  </si>
+  <si>
+    <t>软件中心需要添加BMCStudio描述和下载页</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/software-center-config/issues/3</t>
+  </si>
+  <si>
+    <t>BMC开发者如何防范开发环境中的文件访问绕过漏洞</t>
+  </si>
+  <si>
+    <t>CVE-2025-31486</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/18</t>
+  </si>
+  <si>
+    <t>CVE-2025-46565</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/21</t>
+  </si>
+  <si>
+    <t>CVE-2025-32395</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/19</t>
+  </si>
+  <si>
+    <t>CVE-2025-30208</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/16</t>
+  </si>
+  <si>
+    <t>CVE-2025-31125</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/17</t>
+  </si>
+  <si>
+    <t>BMC开发者如何申请使用自动化测试框架</t>
+  </si>
+  <si>
+    <t>怎么申请使用kptest框架和itestsmart工具呢</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/665/1</t>
+  </si>
+  <si>
+    <t>kptest框架与KPTestOpenFramework工程、iTestSmart工具介绍</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/832/1</t>
+  </si>
+  <si>
+    <t>BMC开发者确保SMBIOS协议解析Structure Header Length字段准确</t>
+  </si>
+  <si>
+    <t>解析SMBIOS协议04Type时出现异常</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/1</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/363/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何修正ProcessorID属性类型以符合SMBIOS协议</t>
+  </si>
+  <si>
+    <t>bmc.kepler.Systems.Processor.CPU的ProcessorID为U32类型，与SMBIOS协议不一致</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/30</t>
+  </si>
+  <si>
+    <t>【问题单】CPU的ProcessorID属性定义与SMBIOS协议规定不符</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/75</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/47</t>
+  </si>
+  <si>
+    <t>CPU类的ProcessorID属性定义为U32类型，与SMBIOS协议范围（QWORD）不一致</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/362/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现PLDM协议获取网卡信息并集成接口展示</t>
+  </si>
+  <si>
+    <t>【需求】支持使用pldm协议获取网卡相关信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/20</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/19</t>
+  </si>
+  <si>
+    <t>BMC开发者如何在lscmd中显示和调试接口执行组件自定义命令用于在线调试</t>
+  </si>
+  <si>
+    <t>支持组件自定义命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/104</t>
+  </si>
+  <si>
+    <t>【需求】支持能效管理子系统组件自定义命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/17</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/7</t>
+  </si>
+  <si>
+    <t>【需求】支持组件自定义命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/21</t>
+  </si>
+  <si>
+    <t>BMC开发者如何高效配置3000W电源的PMbus告警属性</t>
+  </si>
+  <si>
+    <t>【需求】支持3000W电源管理，新增资源树私有属性CurrentModeLogic</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/account/issues/13</t>
+  </si>
+  <si>
+    <t>【需求】支持3000W电源管理，新增资源树bmc.kepler.Systems.PowerMgmt.OnePower.Status属性CMLStatus</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/44</t>
+  </si>
+  <si>
+    <t>【需求】支持电源继电器状态管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/45</t>
+  </si>
+  <si>
+    <t>如何解决恢复出厂设置后BMC固件升级签名验证异常</t>
+  </si>
+  <si>
+    <t>恢复出厂设置后，BMC升级失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1065/1</t>
+  </si>
+  <si>
+    <t>BMC恢复出厂设置之后无法更新固件</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/831/1</t>
+  </si>
+  <si>
+    <t>恢复出厂设置时无法升级</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/11</t>
+  </si>
+  <si>
+    <t>BMC开发者如何在直通场景下实现NVMe SSD自定义SMART监控</t>
+  </si>
+  <si>
+    <t>【需求】支持自定义SMART信息的NVMe SSD盘写放大监控</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/28</t>
+  </si>
+  <si>
+    <t>【需求】支持从带内获取SMART NVMe SSD盘冗余块信息并监控</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/24</t>
+  </si>
+  <si>
+    <t>【需求】支持获取NVMe SSD盘自定义SMART信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/27</t>
+  </si>
+  <si>
+    <t>【需求】支持从带内获取厂商SMART NVMe SSD盘冗余块信息并监控</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/10</t>
+  </si>
+  <si>
+    <t>【需求】支持自定义的SMART NVMe SSD盘亚健康检测</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/23</t>
+  </si>
+  <si>
+    <t>【需求】支持自定义SMART信息的NVMe SSD盘预估寿命新增计算参数</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/25</t>
+  </si>
+  <si>
+    <t>BMC开发者如何解决固件并行升级总线互斥问题</t>
+  </si>
+  <si>
+    <t>【需求】支持固件升级流程总线互斥</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/21</t>
+  </si>
+  <si>
+    <t>固件升级流程总线互斥</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/10</t>
+  </si>
+  <si>
+    <t>【需求】能效管理固件升级流程总线互斥</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/11</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/11</t>
+  </si>
+  <si>
+    <t>BMC开发中如何实现DPU网卡启动状态的实时检测与记录</t>
+  </si>
+  <si>
+    <t>【需求】支持DPU网卡启动完成标识记录</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/28</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/15</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现NVMe MI over MCTP协议响应码的可靠解析</t>
+  </si>
+  <si>
+    <t>【需求】支持NVMe-mi over mctp的协议解析</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/33</t>
+  </si>
+  <si>
+    <t>【需求】支持解析nvme mi协议响应码信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/8</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现SystemInfoTable属性的持久化存储以支持IPMI标准命令</t>
+  </si>
+  <si>
+    <t>IPMI2.0标准接口能力新增私有属性保存system info信息</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1100/1</t>
+  </si>
+  <si>
+    <t>【需求】支持Get System Info标准命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/12</t>
+  </si>
+  <si>
+    <t>【需求】支持Set System Info标准命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/13</t>
+  </si>
+  <si>
+    <t>BMC开发者如何统一实现多品牌新款SATA硬盘的纳管支持？</t>
+  </si>
+  <si>
+    <t>【需求】支持新增希捷SATA盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/42</t>
+  </si>
+  <si>
+    <t>【需求】支持新增西数SATA盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/43</t>
+  </si>
+  <si>
+    <t>【需求】支持新增东芝SATA盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/45</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现bingo SDK版本自动化兼容性校验</t>
+  </si>
+  <si>
+    <t>应支持bingo、构建工具、sdk之间的版本配套</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/414/1</t>
+  </si>
+  <si>
+    <t>【需求】bingo支持组件的全量二进制构建</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bingo/issues/12</t>
+  </si>
+  <si>
+    <t>BMC开发者如何提升多模组固件升级健壮性</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组CSR固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/24</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组VRD固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/26</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组CPLD固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/25</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组MCU固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/27</t>
+  </si>
+  <si>
+    <t>CPLD 升级 MultipleSuppliersMode MIXED Mode 功能背景了解</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/886/1</t>
+  </si>
+  <si>
+    <t>【需求】支持MCU子固件升级时版本号校验</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/23</t>
+  </si>
+  <si>
+    <t>BMC开发者实现升级时多签名机制兼容性</t>
+  </si>
+  <si>
+    <t>能否实现伙伴签名的openUBMC版本直接升级华为签名的各种固件？</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/335/1</t>
+  </si>
+  <si>
+    <t>伙伴openubmc版本如何支持升级华为签名固件版本和伙伴自己签名的固件版本均能成功？</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1083/1</t>
+  </si>
+  <si>
+    <t>使用openubmc进行bios固件升级，提示无效的升级包</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/182/1</t>
+  </si>
+  <si>
+    <t>刷了华为根的机器是否可以直接刷伙伴根</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/933/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何高效实现电链路统计数据采集接口</t>
+  </si>
+  <si>
+    <t>【需求】支持NPU参数面端口电链路数据采集</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/8</t>
+  </si>
+  <si>
+    <t>【需求】支持NPU参数面光模块数据采集接口增加电链路数据</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/7</t>
+  </si>
+  <si>
+    <t>如何确保BIOS测试命令在高可用环境中的兼容性</t>
+  </si>
+  <si>
+    <t>高可用环境BIOS执行test失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/800/1</t>
+  </si>
+  <si>
+    <t>组件内执行bingo test显示测试失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/594/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何高效构建仿真测试环境</t>
+  </si>
+  <si>
+    <t>OpenUBMC社区支持仿真镜像的构建与发布</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/qemu/issues/5</t>
+  </si>
+  <si>
+    <t>OpenUBMC社区支持仿真数据的发布</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/qemu/issues/4</t>
+  </si>
+  <si>
+    <t>OpenUBMC社区支持Qemu工具的构建与发布</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/qemu/issues/3</t>
+  </si>
+  <si>
+    <t>BMC开发者如何解决PXE阶段因POST未完成导致重启失败</t>
+  </si>
+  <si>
+    <t>【问题单】定制后bios处于PXE阶段时重启BMC失败</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/19</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/sensor/issues/10</t>
+  </si>
+  <si>
+    <t>BMC开发者如何更新通用和异构硬件适配文档资源</t>
+  </si>
+  <si>
+    <t>【需求】社区更新通用硬件相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/19</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/13</t>
+  </si>
+  <si>
+    <t>【需求】社区更新设备管理规范相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/14</t>
+  </si>
+  <si>
+    <t>【需求】社区补齐异构硬件相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/17</t>
+  </si>
+  <si>
+    <t>【需求】社区更新能效管理相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/16</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/20</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现Redfish接口查询指定PCIe设备资源信息</t>
+  </si>
+  <si>
+    <t>【需求】支持查询指定PCIEDevices资源信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/pcie_device/issues/5</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/16</t>
+  </si>
+  <si>
+    <t>BMC开发者需修正VPD中position描述的映射错误</t>
+  </si>
+  <si>
+    <t>vpd仓库platform.sr.png描述有误</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/360/1</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/2</t>
+  </si>
+  <si>
+    <t>BMC开发者如何在BIOS启动阶段禁用KVM/VNC键盘输入防止密码修改</t>
+  </si>
+  <si>
+    <t>支持BIOS启动过程禁止KVM/VNC键盘输入</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/19</t>
+  </si>
+  <si>
+    <t>支持BIOS在启动阶段禁用键盘</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/20</t>
+  </si>
+  <si>
+    <t>BMC开发者如何扩展升级接口参数处理并行升级错误场景</t>
+  </si>
+  <si>
+    <t>【需求】power_mgmt组件适配升级接口参数扩展</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/10</t>
+  </si>
+  <si>
+    <t>【需求】bios组件适配升级接口参数扩展</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/10</t>
+  </si>
+  <si>
+    <t>能效管理适配升级接口参数扩展</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/5</t>
+  </si>
+  <si>
+    <t>general_hardware组件适配升级接口参数</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/11</t>
+  </si>
+  <si>
+    <t>BMC开发者如何通过Redfish和IPMI接口实现硬盘日志收集控制</t>
+  </si>
+  <si>
+    <t>【需求】支持硬盘诊断功能控制</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/106</t>
+  </si>
+  <si>
+    <t>【需求】硬盘诊断功能控制</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/112</t>
+  </si>
+  <si>
+    <t>【需求】支持服务器网络管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/25</t>
+  </si>
+  <si>
+    <t>【需求】支持存储管理能力基线</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/30</t>
+  </si>
+  <si>
+    <t>【需求】支持存储管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/35</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/7</t>
+  </si>
+  <si>
     <t>BMC开发者如何提升社区UT IT测试覆盖率和工具贡献效率</t>
   </si>
   <si>
@@ -401,6 +1034,477 @@
     <t>https://discuss.openubmc.cn//t/topic/593/1</t>
   </si>
   <si>
+    <t>BMC开发者如何为thermal和power管理组件实现业务场景的白名单配置基线化</t>
+  </si>
+  <si>
+    <t>【需求】power_mgmt组件明确业务场景下的白名单化配置并形成基线</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/45</t>
+  </si>
+  <si>
+    <t>【需求】thermal_mgmt组件明确业务场景下的白名单化配置并形成基线</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/25</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现CSR文件损坏的检测与自修复</t>
+  </si>
+  <si>
+    <t>CSR文件损坏之后的恢复能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/4</t>
+  </si>
+  <si>
+    <t>CSR文件损坏恢复能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/9</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现PCIe Switch Flash升级组件的集成</t>
+  </si>
+  <si>
+    <t>PCIe Switch 芯片的Flash升级</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/721/1</t>
+  </si>
+  <si>
+    <t>【讨论】PCIe Switch场景下如何加载PCIe卡</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/722/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何规避新增IPMI命令导致组件不可启动问题</t>
+  </si>
+  <si>
+    <t>pcie_device新增IPMI命令导致组件异常问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/595/1</t>
+  </si>
+  <si>
+    <t>非天池组件加载方式</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/610/1</t>
+  </si>
+  <si>
+    <t>BMC开发者需统一板卡和MCU一键收集信息的存储路径与命名规范</t>
+  </si>
+  <si>
+    <t>【已评审】支持一键收集导出板卡信息，mcu信息</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/628/1</t>
+  </si>
+  <si>
+    <t>【需求】支持一键收集通用硬件信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/34</t>
+  </si>
+  <si>
+    <t>openUBMC一键收集介绍</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/290/1</t>
+  </si>
+  <si>
+    <t>【问题单】支持一键收集导出板卡信息，mcu信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/10</t>
+  </si>
+  <si>
+    <t>【需求】支持板卡硬件管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/15</t>
+  </si>
+  <si>
+    <t>基础通用问题FAQ</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/292/1</t>
+  </si>
+  <si>
+    <t>openUBMC各sig组本周(2025-0421-2025-0427)关闭issue统计</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/672/1</t>
+  </si>
+  <si>
+    <t>openUBMC各sig组本周(2025-0428~2025-0505)关闭issue统计</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/733/1</t>
+  </si>
+  <si>
+    <t>bmc-core SIG 入门指南</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/167/1</t>
+  </si>
+  <si>
+    <t>openUBMC各sig组本周(2025-0506~2025-0511)关闭issue统计</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/876/1</t>
+  </si>
+  <si>
+    <t>openUBMC品牌包定制指南</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/355/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何解决固件升级中的证书校验失败</t>
+  </si>
+  <si>
+    <t>使用社区最新出包，升级hpm失败，查看m3log get cert fail!</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/498/1</t>
+  </si>
+  <si>
+    <t>最新 source 包烧录异常问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/173/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何统一实现查询指定处理器异构资源属性的Redfish接口</t>
+  </si>
+  <si>
+    <t>【需求】支持查询指定处理器资源信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/33</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/53</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/47</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现FPGA自检失败的告警模拟测试</t>
+  </si>
+  <si>
+    <t>【需求】支持FPGA固件周期自检失败的告警</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/30</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/84</t>
+  </si>
+  <si>
+    <t>支持FPGA固件周期自检失败的告警</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/45</t>
+  </si>
+  <si>
+    <t>如何避免CRPS电源适配中SlotNumber配置错误</t>
+  </si>
+  <si>
+    <t>pmbus CRPS电源适配</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/240/1</t>
+  </si>
+  <si>
+    <t>电源适配指导</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1101/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何通过Redfish接口实现光模块老化预测功能开关</t>
+  </si>
+  <si>
+    <t>【需求】支持光模块老化故障预测功能开关</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/52</t>
+  </si>
+  <si>
+    <t>【修改描述】支持光模块老化预测功能开关使能</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/31</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现日志配置与系统路径的存储隔离迁移</t>
+  </si>
+  <si>
+    <t>支持日志存放位置隔离</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rootfs_user/issues/2</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/23</t>
+  </si>
+  <si>
+    <t>BMC开发者如何适配BlueField系列设备的调速策略在openUBMC中</t>
+  </si>
+  <si>
+    <t>【需求】支持BlueField-3（B3220）的调速策略配置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/17</t>
+  </si>
+  <si>
+    <t>【需求】支持BlueField-2（332A）的调速策略</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/18</t>
+  </si>
+  <si>
+    <t>开发者在BMC Studio中需手动二次配置因器件库不完整。</t>
+  </si>
+  <si>
+    <t>BMC Studio工具使用反馈</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/714/1</t>
+  </si>
+  <si>
+    <t>[WIP]BMC Studio用户指南</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/221/1</t>
+  </si>
+  <si>
+    <t>如何优化BMC日志、跟踪和度量数据的采集与存储效率</t>
+  </si>
+  <si>
+    <t>提供跟踪数据采集和存储能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/4</t>
+  </si>
+  <si>
+    <t>提供度量数据采集和存储能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/2</t>
+  </si>
+  <si>
+    <t>提供日志数据采集和存储能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/5</t>
+  </si>
+  <si>
+    <t>BMC固件开发中如何确保网卡扩展与历史协议兼容</t>
+  </si>
+  <si>
+    <t>【需求】网卡适配组件兼容历史网卡功能</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/6</t>
+  </si>
+  <si>
+    <t>【需求】网卡支持南向部件驱动接口</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/17</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/18</t>
+  </si>
+  <si>
+    <t>BMC开发者如何优化RAID日志导出的时延与安全性</t>
+  </si>
+  <si>
+    <t>【需求】支持收集raid卡文本格式日志</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/32</t>
+  </si>
+  <si>
+    <t>【需求】支持一键搜集日志导出raid卡固件日志</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/31</t>
+  </si>
+  <si>
+    <t>BMC开发者如何高效管理openTelemetry API依赖组件</t>
+  </si>
+  <si>
+    <t>提供openTelemetry及依赖开源软件API能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/3</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/conan_index/issues/3</t>
+  </si>
+  <si>
+    <t>解决BMC过渡包升级中签名链更新缺失导致的校验失败</t>
+  </si>
+  <si>
+    <t>制作反向过渡包时碰到的疑问</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/723/1</t>
+  </si>
+  <si>
+    <t>25.03构建出包以及伙伴签名问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/390/1</t>
+  </si>
+  <si>
+    <t>25.03版本的构建环境搭建：dockerfile创建镜像失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/409/1</t>
+  </si>
+  <si>
+    <t>BMC开发者在Redfish OEM定制中如何实现存储控制器属性查询</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish接口oem定制查询指定存储资源信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rack_mgmt/issues/2</t>
+  </si>
+  <si>
+    <t>【需求】支持厂商定制化显示存储控制器端口数</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/67</t>
+  </si>
+  <si>
+    <t>BMC开发者在资源树协作接口中如何解决属性约束冲突与内部实现暴露问题</t>
+  </si>
+  <si>
+    <t>支持通用硬件满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/98</t>
+  </si>
+  <si>
+    <t>【需求】power_mgmt组件接口支持配置PrivilegeMap信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/44</t>
+  </si>
+  <si>
+    <t>【需求】支持能效管理满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/12</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/13</t>
+  </si>
+  <si>
+    <t>【需求】thermal_mgmt组件接口支持配置PrivilegeMap信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/27</t>
+  </si>
+  <si>
+    <t>【需求】thermal_mgmt组件满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/24</t>
+  </si>
+  <si>
+    <t>支持框架资源树协作接口满足关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/38</t>
+  </si>
+  <si>
+    <t>【需求】支持异构算力满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manufacture/issues/2</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/pcie_device/issues/7</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/lsw/issues/2</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/22</t>
+  </si>
+  <si>
+    <t>【需求】支持通用硬件满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/12</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/22</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/17</t>
+  </si>
+  <si>
+    <t>支持基础服务满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/32</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/chassis/issues/3</t>
+  </si>
+  <si>
+    <t>资源树协作接口关键字满足使用原则和规范</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/6</t>
+  </si>
+  <si>
+    <t>支持安全管理满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/account/issues/6</t>
+  </si>
+  <si>
+    <t>BMC开发者需解决权限限制下的升级恢复接口错误问题</t>
+  </si>
+  <si>
+    <t>【变更声明】Redfish升级接口权限变更</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/732/1</t>
+  </si>
+  <si>
+    <t>Redfish 升级接口 SimpleUpdate 关于在支持升级之后清除配置功能接口变更</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/32</t>
+  </si>
+  <si>
+    <t>BMC开发者亟需开源应用框架开发指导文档</t>
+  </si>
+  <si>
+    <t>提供应用框架开发指导</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/15</t>
+  </si>
+  <si>
+    <t>【需求】社区提供开源项目开发者指南</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/webui/issues/19</t>
+  </si>
+  <si>
     <t>BMC开发者需修正BIOS组件生效流程图的逻辑错误</t>
   </si>
   <si>
@@ -413,139 +1517,106 @@
     <t>https://gitcode.com/openUBMC/docs/issues/19</t>
   </si>
   <si>
-    <t>BMC开发者如何实现FPGA自检失败的告警模拟测试</t>
-  </si>
-  <si>
-    <t>【需求】支持FPGA固件周期自检失败的告警</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/30</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/84</t>
-  </si>
-  <si>
-    <t>支持FPGA固件周期自检失败的告警</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/45</t>
-  </si>
-  <si>
-    <t>BMC开发者如何通过Redfish接口实现光模块老化预测功能开关</t>
-  </si>
-  <si>
-    <t>【需求】支持光模块老化故障预测功能开关</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/52</t>
-  </si>
-  <si>
-    <t>【修改描述】支持光模块老化预测功能开关使能</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/31</t>
-  </si>
-  <si>
-    <t>开发者在BMC Studio中需手动二次配置因器件库不完整。</t>
-  </si>
-  <si>
-    <t>BMC Studio工具使用反馈</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/714/1</t>
-  </si>
-  <si>
-    <t>[WIP]BMC Studio用户指南</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/221/1</t>
-  </si>
-  <si>
-    <t>如何解决恢复出厂设置后BMC固件升级签名验证异常</t>
-  </si>
-  <si>
-    <t>恢复出厂设置后，BMC升级失败</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1065/1</t>
-  </si>
-  <si>
-    <t>BMC恢复出厂设置之后无法更新固件</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/831/1</t>
-  </si>
-  <si>
-    <t>恢复出厂设置时无法升级</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/11</t>
-  </si>
-  <si>
-    <t>BMC开发者如何扩展升级接口参数处理并行升级错误场景</t>
-  </si>
-  <si>
-    <t>【需求】power_mgmt组件适配升级接口参数扩展</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/10</t>
-  </si>
-  <si>
-    <t>【需求】bios组件适配升级接口参数扩展</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/10</t>
-  </si>
-  <si>
-    <t>能效管理适配升级接口参数扩展</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/5</t>
-  </si>
-  <si>
-    <t>general_hardware组件适配升级接口参数</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/11</t>
-  </si>
-  <si>
-    <t>BMC开发者如何提升多模组固件升级健壮性</t>
-  </si>
-  <si>
-    <t>【需求】支持多模组CSR固件升级健壮性提升</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/24</t>
-  </si>
-  <si>
-    <t>【需求】支持多模组VRD固件升级健壮性提升</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/26</t>
-  </si>
-  <si>
-    <t>【需求】支持多模组CPLD固件升级健壮性提升</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/25</t>
-  </si>
-  <si>
-    <t>【需求】支持多模组MCU固件升级健壮性提升</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/27</t>
-  </si>
-  <si>
-    <t>CPLD 升级 MultipleSuppliersMode MIXED Mode 功能背景了解</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/886/1</t>
-  </si>
-  <si>
-    <t>【需求】支持MCU子固件升级时版本号校验</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/23</t>
+    <t>开发者实现Redfish Drive资源OEM接口时需解决NVM MI命令与硬件协议栈的兼容性整合</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制SendNvmeMICommand请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/40</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetIdentifyData请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/39</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetAddSmartInfo请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/37</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetTelemetryData请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/13</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/36</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetSmartInfo请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/38</t>
+  </si>
+  <si>
+    <t>BMC多组件共享白名单配置的维护复杂度问题</t>
+  </si>
+  <si>
+    <t>【需求】基于动态插桩拦截风险接口调用日志，形成通用化命令的白名单配置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/15</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/pcie_device/issues/4</t>
+  </si>
+  <si>
+    <t>标签包裹。</t>
+  </si>
+  <si>
+    <t>【需求】支持NCSI边带管理功能</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/16</t>
+  </si>
+  <si>
+    <t>【需求】开源社区支持NCSI边带管理功能</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/5</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现新的遥测配置管理接口</t>
+  </si>
+  <si>
+    <t>支持遥测上报配置管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/12</t>
+  </si>
+  <si>
+    <t>【需求】 支持遥测上报配置管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/37</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/16</t>
+  </si>
+  <si>
+    <t>【需求】可观测新增redfish、web接口及属性</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/29</t>
+  </si>
+  <si>
+    <t>BMC开发者如何优化国密证书接口的异常提示机制</t>
+  </si>
+  <si>
+    <t>【需求】支持国密证书管理的接口优化</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/43</t>
+  </si>
+  <si>
+    <t>【需求】支持国密证书管理的北向接口配置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/23</t>
   </si>
   <si>
     <t>BMC开发中如何解决Conan v1弃用导致的头文件缺失编译失败</t>
@@ -563,462 +1634,6 @@
     <t>https://gitcode.com/openUBMC/lsw/issues/1</t>
   </si>
   <si>
-    <t>如何避免CRPS电源适配中SlotNumber配置错误</t>
-  </si>
-  <si>
-    <t>pmbus CRPS电源适配</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/240/1</t>
-  </si>
-  <si>
-    <t>电源适配指导</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1101/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何申请使用自动化测试框架</t>
-  </si>
-  <si>
-    <t>怎么申请使用kptest框架和itestsmart工具呢</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/665/1</t>
-  </si>
-  <si>
-    <t>kptest框架与KPTestOpenFramework工程、iTestSmart工具介绍</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/832/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何在直通场景下实现NVMe SSD自定义SMART监控</t>
-  </si>
-  <si>
-    <t>【需求】支持自定义SMART信息的NVMe SSD盘写放大监控</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/28</t>
-  </si>
-  <si>
-    <t>【需求】支持从带内获取SMART NVMe SSD盘冗余块信息并监控</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/24</t>
-  </si>
-  <si>
-    <t>【需求】支持获取NVMe SSD盘自定义SMART信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/27</t>
-  </si>
-  <si>
-    <t>【需求】支持从带内获取厂商SMART NVMe SSD盘冗余块信息并监控</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/10</t>
-  </si>
-  <si>
-    <t>【需求】支持自定义的SMART NVMe SSD盘亚健康检测</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/23</t>
-  </si>
-  <si>
-    <t>【需求】支持自定义SMART信息的NVMe SSD盘预估寿命新增计算参数</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/25</t>
-  </si>
-  <si>
-    <t>BMC开发者如何高效配置3000W电源的PMbus告警属性</t>
-  </si>
-  <si>
-    <t>【需求】支持3000W电源管理，新增资源树私有属性CurrentModeLogic</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/account/issues/13</t>
-  </si>
-  <si>
-    <t>【需求】支持3000W电源管理，新增资源树bmc.kepler.Systems.PowerMgmt.OnePower.Status属性CMLStatus</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/44</t>
-  </si>
-  <si>
-    <t>【需求】支持电源继电器状态管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/45</t>
-  </si>
-  <si>
-    <t>如何确保BIOS测试命令在高可用环境中的兼容性</t>
-  </si>
-  <si>
-    <t>高可用环境BIOS执行test失败</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/800/1</t>
-  </si>
-  <si>
-    <t>组件内执行bingo test显示测试失败</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/594/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现Redfish接口查询指定PCIe设备资源信息</t>
-  </si>
-  <si>
-    <t>【需求】支持查询指定PCIEDevices资源信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/pcie_device/issues/5</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/16</t>
-  </si>
-  <si>
-    <t>BMC开发者如何优化国密证书接口的异常提示机制</t>
-  </si>
-  <si>
-    <t>【需求】支持国密证书管理的接口优化</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/43</t>
-  </si>
-  <si>
-    <t>【需求】支持国密证书管理的北向接口配置</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/23</t>
-  </si>
-  <si>
-    <t>BMC开发者如何高效管理openTelemetry API依赖组件</t>
-  </si>
-  <si>
-    <t>提供openTelemetry及依赖开源软件API能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/observability/issues/3</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/conan_index/issues/3</t>
-  </si>
-  <si>
-    <t>BMC开发者如何在lscmd中显示和调试接口执行组件自定义命令用于在线调试</t>
-  </si>
-  <si>
-    <t>支持组件自定义命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/104</t>
-  </si>
-  <si>
-    <t>【需求】支持能效管理子系统组件自定义命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/17</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/7</t>
-  </si>
-  <si>
-    <t>【需求】支持组件自定义命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/21</t>
-  </si>
-  <si>
-    <t>BMC开发者如何在BIOS启动阶段禁用KVM/VNC键盘输入防止密码修改</t>
-  </si>
-  <si>
-    <t>支持BIOS启动过程禁止KVM/VNC键盘输入</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/19</t>
-  </si>
-  <si>
-    <t>支持BIOS在启动阶段禁用键盘</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/20</t>
-  </si>
-  <si>
-    <t>BMC开发者如何优化RAID日志导出的时延与安全性</t>
-  </si>
-  <si>
-    <t>【需求】支持收集raid卡文本格式日志</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/32</t>
-  </si>
-  <si>
-    <t>【需求】支持一键搜集日志导出raid卡固件日志</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/31</t>
-  </si>
-  <si>
-    <t>BMC开发者如何高效实现电链路统计数据采集接口</t>
-  </si>
-  <si>
-    <t>【需求】支持NPU参数面端口电链路数据采集</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/8</t>
-  </si>
-  <si>
-    <t>【需求】支持NPU参数面光模块数据采集接口增加电链路数据</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/7</t>
-  </si>
-  <si>
-    <t>BMC开发者需修正VPD中position描述的映射错误</t>
-  </si>
-  <si>
-    <t>vpd仓库platform.sr.png描述有误</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/360/1</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/2</t>
-  </si>
-  <si>
-    <t>BMC开发者如何更新通用和异构硬件适配文档资源</t>
-  </si>
-  <si>
-    <t>【需求】社区更新通用硬件相关文档</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/19</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/13</t>
-  </si>
-  <si>
-    <t>【需求】社区更新设备管理规范相关文档</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/14</t>
-  </si>
-  <si>
-    <t>【需求】社区补齐异构硬件相关文档</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/17</t>
-  </si>
-  <si>
-    <t>【需求】社区更新能效管理相关文档</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/16</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/20</t>
-  </si>
-  <si>
-    <t>BMC开发者如何适配BlueField系列设备的调速策略在openUBMC中</t>
-  </si>
-  <si>
-    <t>【需求】支持BlueField-3（B3220）的调速策略配置</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/17</t>
-  </si>
-  <si>
-    <t>【需求】支持BlueField-2（332A）的调速策略</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/18</t>
-  </si>
-  <si>
-    <t>BMC开发者如何通过Redfish和IPMI接口实现硬盘日志收集控制</t>
-  </si>
-  <si>
-    <t>【需求】支持硬盘诊断功能控制</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/106</t>
-  </si>
-  <si>
-    <t>【需求】硬盘诊断功能控制</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/112</t>
-  </si>
-  <si>
-    <t>【需求】支持服务器网络管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/25</t>
-  </si>
-  <si>
-    <t>【需求】支持存储管理能力基线</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/30</t>
-  </si>
-  <si>
-    <t>【需求】支持存储管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/35</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/7</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现CSR文件损坏的检测与自修复</t>
-  </si>
-  <si>
-    <t>CSR文件损坏之后的恢复能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/4</t>
-  </si>
-  <si>
-    <t>CSR文件损坏恢复能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/9</t>
-  </si>
-  <si>
-    <t>开发者实现Redfish Drive资源OEM接口时需解决NVM MI命令与硬件协议栈的兼容性整合</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制SendNvmeMICommand请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/40</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetIdentifyData请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/39</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetAddSmartInfo请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/37</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetTelemetryData请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/13</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/36</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetSmartInfo请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/38</t>
-  </si>
-  <si>
-    <t>BMC开发者需实现NVMe盘多型号识别与管理兼容性</t>
-  </si>
-  <si>
-    <t>【需求】支持新增华为厂商NVMe盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/41</t>
-  </si>
-  <si>
-    <t>【需求】支持新增Memblaze厂商NVMe盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/44</t>
-  </si>
-  <si>
-    <t>BMC开发者确保SMBIOS协议解析Structure Header Length字段准确</t>
-  </si>
-  <si>
-    <t>解析SMBIOS协议04Type时出现异常</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/1</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/363/1</t>
-  </si>
-  <si>
-    <t>BMC开发者需统一板卡和MCU一键收集信息的存储路径与命名规范</t>
-  </si>
-  <si>
-    <t>【已评审】支持一键收集导出板卡信息，mcu信息</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/628/1</t>
-  </si>
-  <si>
-    <t>【需求】支持一键收集通用硬件信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/34</t>
-  </si>
-  <si>
-    <t>openUBMC一键收集介绍</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/290/1</t>
-  </si>
-  <si>
-    <t>【问题单】支持一键收集导出板卡信息，mcu信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/10</t>
-  </si>
-  <si>
-    <t>【需求】支持板卡硬件管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/15</t>
-  </si>
-  <si>
-    <t>基础通用问题FAQ</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/292/1</t>
-  </si>
-  <si>
-    <t>openUBMC各sig组本周(2025-0421-2025-0427)关闭issue统计</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/672/1</t>
-  </si>
-  <si>
-    <t>openUBMC各sig组本周(2025-0428~2025-0505)关闭issue统计</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/733/1</t>
-  </si>
-  <si>
-    <t>bmc-core SIG 入门指南</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/167/1</t>
-  </si>
-  <si>
-    <t>openUBMC各sig组本周(2025-0506~2025-0511)关闭issue统计</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/876/1</t>
-  </si>
-  <si>
-    <t>openUBMC品牌包定制指南</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/355/1</t>
-  </si>
-  <si>
     <t>BMC开发者需解决一键部署中的Conan组件拉取机制稳定性问题</t>
   </si>
   <si>
@@ -1046,616 +1661,13 @@
     <t>https://discuss.openubmc.cn//t/topic/707/1</t>
   </si>
   <si>
-    <t>BMC开发者如何设计CLI并发收集NPU/CPU日志的失败处理</t>
-  </si>
-  <si>
-    <t>【需求】 支持CLI导出NPU DFX日志</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/48</t>
-  </si>
-  <si>
-    <t>【需求】支持CLI导出CPU DFX日志</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/46</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现SystemInfoTable属性的持久化存储以支持IPMI标准命令</t>
-  </si>
-  <si>
-    <t>IPMI2.0标准接口能力新增私有属性保存system info信息</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1100/1</t>
-  </si>
-  <si>
-    <t>【需求】支持Get System Info标准命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/12</t>
-  </si>
-  <si>
-    <t>【需求】支持Set System Info标准命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/13</t>
-  </si>
-  <si>
-    <t>BMC开发者如何统一实现多品牌新款SATA硬盘的纳管支持？</t>
-  </si>
-  <si>
-    <t>【需求】支持新增希捷SATA盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/42</t>
-  </si>
-  <si>
-    <t>【需求】支持新增西数SATA盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/43</t>
-  </si>
-  <si>
-    <t>【需求】支持新增东芝SATA盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/45</t>
-  </si>
-  <si>
-    <t>BMC开发中如何实现DPU网卡启动状态的实时检测与记录</t>
-  </si>
-  <si>
-    <t>【需求】支持DPU网卡启动完成标识记录</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/28</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/15</t>
-  </si>
-  <si>
-    <t>BMC开发者如何解决固件并行升级总线互斥问题</t>
-  </si>
-  <si>
-    <t>【需求】支持固件升级流程总线互斥</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/21</t>
-  </si>
-  <si>
-    <t>固件升级流程总线互斥</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/10</t>
-  </si>
-  <si>
-    <t>【需求】能效管理固件升级流程总线互斥</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/11</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/11</t>
-  </si>
-  <si>
-    <t>BMC开发者如何为thermal和power管理组件实现业务场景的白名单配置基线化</t>
-  </si>
-  <si>
-    <t>【需求】power_mgmt组件明确业务场景下的白名单化配置并形成基线</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/45</t>
-  </si>
-  <si>
-    <t>【需求】thermal_mgmt组件明确业务场景下的白名单化配置并形成基线</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/25</t>
-  </si>
-  <si>
-    <t>BMC开发者实现升级时多签名机制兼容性</t>
-  </si>
-  <si>
-    <t>能否实现伙伴签名的openUBMC版本直接升级华为签名的各种固件？</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/335/1</t>
-  </si>
-  <si>
-    <t>伙伴openubmc版本如何支持升级华为签名固件版本和伙伴自己签名的固件版本均能成功？</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1083/1</t>
-  </si>
-  <si>
-    <t>使用openubmc进行bios固件升级，提示无效的升级包</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/182/1</t>
-  </si>
-  <si>
-    <t>刷了华为根的机器是否可以直接刷伙伴根</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/933/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现日志配置与系统路径的存储隔离迁移</t>
-  </si>
-  <si>
-    <t>支持日志存放位置隔离</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rootfs_user/issues/2</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/23</t>
-  </si>
-  <si>
-    <t>BMC开发者在Redfish OEM定制中如何实现存储控制器属性查询</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish接口oem定制查询指定存储资源信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rack_mgmt/issues/2</t>
-  </si>
-  <si>
-    <t>【需求】支持厂商定制化显示存储控制器端口数</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/67</t>
-  </si>
-  <si>
-    <t>BMC开发者如何高效构建仿真测试环境</t>
-  </si>
-  <si>
-    <t>OpenUBMC社区支持仿真镜像的构建与发布</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/qemu/issues/5</t>
-  </si>
-  <si>
-    <t>OpenUBMC社区支持仿真数据的发布</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/qemu/issues/4</t>
-  </si>
-  <si>
-    <t>OpenUBMC社区支持Qemu工具的构建与发布</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/qemu/issues/3</t>
-  </si>
-  <si>
-    <t>BMC开发者如何修正ProcessorID属性类型以符合SMBIOS协议</t>
-  </si>
-  <si>
-    <t>bmc.kepler.Systems.Processor.CPU的ProcessorID为U32类型，与SMBIOS协议不一致</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/30</t>
-  </si>
-  <si>
-    <t>【问题单】CPU的ProcessorID属性定义与SMBIOS协议规定不符</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/75</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/47</t>
-  </si>
-  <si>
-    <t>CPU类的ProcessorID属性定义为U32类型，与SMBIOS协议范围（QWORD）不一致</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/362/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现PLDM协议获取网卡信息并集成接口展示</t>
-  </si>
-  <si>
-    <t>【需求】支持使用pldm协议获取网卡相关信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/20</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/19</t>
-  </si>
-  <si>
-    <t>BMC开发者如何统一实现查询指定处理器异构资源属性的Redfish接口</t>
-  </si>
-  <si>
-    <t>【需求】支持查询指定处理器资源信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/33</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/53</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/47</t>
-  </si>
-  <si>
-    <t>BMC开发者需解决权限限制下的升级恢复接口错误问题</t>
-  </si>
-  <si>
-    <t>【变更声明】Redfish升级接口权限变更</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/732/1</t>
-  </si>
-  <si>
-    <t>Redfish 升级接口 SimpleUpdate 关于在支持升级之后清除配置功能接口变更</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/32</t>
-  </si>
-  <si>
-    <t>BMC配置导出需新增产品类别和软件版本信息支持</t>
-  </si>
-  <si>
-    <t>配置导出项新增BMC软件版本信息和产品类别信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/13</t>
-  </si>
-  <si>
-    <t>配置导入导出新增产品类别信息和BMC软件版本信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/profile_schema/issues/2</t>
-  </si>
-  <si>
-    <t>提供BMC出厂配置定制指导</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/16</t>
-  </si>
-  <si>
-    <t>软件中心需要添加BMCStudio描述和下载页</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/software-center-config/issues/3</t>
-  </si>
-  <si>
-    <t>标签包裹。</t>
-  </si>
-  <si>
-    <t>【需求】支持NCSI边带管理功能</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/16</t>
-  </si>
-  <si>
-    <t>【需求】开源社区支持NCSI边带管理功能</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/5</t>
-  </si>
-  <si>
-    <t>BMC开发者如何解决固件升级中的证书校验失败</t>
-  </si>
-  <si>
-    <t>使用社区最新出包，升级hpm失败，查看m3log get cert fail!</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/498/1</t>
-  </si>
-  <si>
-    <t>最新 source 包烧录异常问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/173/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何规避新增IPMI命令导致组件不可启动问题</t>
-  </si>
-  <si>
-    <t>pcie_device新增IPMI命令导致组件异常问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/595/1</t>
-  </si>
-  <si>
-    <t>非天池组件加载方式</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/610/1</t>
-  </si>
-  <si>
-    <t>BMC多组件共享白名单配置的维护复杂度问题</t>
-  </si>
-  <si>
-    <t>【需求】基于动态插桩拦截风险接口调用日志，形成通用化命令的白名单配置</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/15</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/pcie_device/issues/4</t>
-  </si>
-  <si>
-    <t>BMC开发者在资源树协作接口中如何解决属性约束冲突与内部实现暴露问题</t>
-  </si>
-  <si>
-    <t>支持通用硬件满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/98</t>
-  </si>
-  <si>
-    <t>【需求】power_mgmt组件接口支持配置PrivilegeMap信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/44</t>
-  </si>
-  <si>
-    <t>【需求】支持能效管理满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/12</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/13</t>
-  </si>
-  <si>
-    <t>【需求】thermal_mgmt组件接口支持配置PrivilegeMap信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/27</t>
-  </si>
-  <si>
-    <t>【需求】thermal_mgmt组件满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/24</t>
-  </si>
-  <si>
-    <t>支持框架资源树协作接口满足关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/38</t>
-  </si>
-  <si>
-    <t>【需求】支持异构算力满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manufacture/issues/2</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/pcie_device/issues/7</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/lsw/issues/2</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/22</t>
-  </si>
-  <si>
-    <t>【需求】支持通用硬件满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/12</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/22</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/17</t>
-  </si>
-  <si>
-    <t>支持基础服务满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/32</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/chassis/issues/3</t>
-  </si>
-  <si>
-    <t>资源树协作接口关键字满足使用原则和规范</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/6</t>
-  </si>
-  <si>
-    <t>支持安全管理满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/account/issues/6</t>
-  </si>
-  <si>
-    <t>BMC固件开发中如何确保网卡扩展与历史协议兼容</t>
-  </si>
-  <si>
-    <t>【需求】网卡适配组件兼容历史网卡功能</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/6</t>
-  </si>
-  <si>
-    <t>【需求】网卡支持南向部件驱动接口</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/17</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/18</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现NVMe MI over MCTP协议响应码的可靠解析</t>
-  </si>
-  <si>
-    <t>【需求】支持NVMe-mi over mctp的协议解析</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/33</t>
-  </si>
-  <si>
-    <t>【需求】支持解析nvme mi协议响应码信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/8</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现新的遥测配置管理接口</t>
-  </si>
-  <si>
-    <t>支持遥测上报配置管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/12</t>
-  </si>
-  <si>
-    <t>【需求】 支持遥测上报配置管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/37</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/16</t>
-  </si>
-  <si>
-    <t>【需求】可观测新增redfish、web接口及属性</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/29</t>
-  </si>
-  <si>
-    <t>解决BMC过渡包升级中签名链更新缺失导致的校验失败</t>
-  </si>
-  <si>
-    <t>制作反向过渡包时碰到的疑问</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/723/1</t>
-  </si>
-  <si>
-    <t>25.03构建出包以及伙伴签名问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/390/1</t>
-  </si>
-  <si>
-    <t>25.03版本的构建环境搭建：dockerfile创建镜像失败</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/409/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现PCIe Switch Flash升级组件的集成</t>
-  </si>
-  <si>
-    <t>PCIe Switch 芯片的Flash升级</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/721/1</t>
-  </si>
-  <si>
-    <t>【讨论】PCIe Switch场景下如何加载PCIe卡</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/722/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何解决PXE阶段因POST未完成导致重启失败</t>
-  </si>
-  <si>
-    <t>【问题单】定制后bios处于PXE阶段时重启BMC失败</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/19</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/sensor/issues/10</t>
-  </si>
-  <si>
-    <t>BMC开发者如何防范开发环境中的文件访问绕过漏洞</t>
-  </si>
-  <si>
-    <t>CVE-2025-31486</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/18</t>
-  </si>
-  <si>
-    <t>CVE-2025-46565</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/21</t>
-  </si>
-  <si>
-    <t>CVE-2025-32395</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/19</t>
-  </si>
-  <si>
-    <t>CVE-2025-30208</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/16</t>
-  </si>
-  <si>
-    <t>CVE-2025-31125</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/17</t>
-  </si>
-  <si>
-    <t>BMC开发者亟需开源应用框架开发指导文档</t>
-  </si>
-  <si>
-    <t>提供应用框架开发指导</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/15</t>
-  </si>
-  <si>
-    <t>【需求】社区提供开源项目开发者指南</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/webui/issues/19</t>
-  </si>
-  <si>
-    <t>如何优化BMC日志、跟踪和度量数据的采集与存储效率</t>
-  </si>
-  <si>
-    <t>提供跟踪数据采集和存储能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/observability/issues/4</t>
-  </si>
-  <si>
-    <t>提供度量数据采集和存储能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/observability/issues/2</t>
-  </si>
-  <si>
-    <t>提供日志数据采集和存储能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/observability/issues/5</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现bingo SDK版本自动化兼容性校验</t>
-  </si>
-  <si>
-    <t>应支持bingo、构建工具、sdk之间的版本配套</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/414/1</t>
-  </si>
-  <si>
-    <t>【需求】bingo支持组件的全量二进制构建</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bingo/issues/12</t>
+    <t>话题总数：0</t>
+  </si>
+  <si>
+    <t>话题总数：3</t>
+  </si>
+  <si>
+    <t>话题总数：58</t>
   </si>
 </sst>
 </file>
@@ -1684,12 +1696,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF43"/>
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFF43"/>
       </patternFill>
     </fill>
   </fills>
@@ -1990,222 +2002,222 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2"/>
     <row r="3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23">
@@ -2215,81 +2227,81 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32">
@@ -2299,70 +2311,70 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40">
@@ -2372,59 +2384,59 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>67</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C44" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C46" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47">
@@ -2434,169 +2446,169 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>76</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C51" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C52" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C54" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C55" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C56" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C58" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C59" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C60" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C61" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C62" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C63" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64">
@@ -2606,48 +2618,48 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B65" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C67" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C68" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C69" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70">
@@ -2657,37 +2669,37 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B71" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C73" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C74" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75">
@@ -2697,37 +2709,37 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C78" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C79" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80">
@@ -2745,7 +2757,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>
 
@@ -2758,171 +2776,164 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-    </row>
+        <v>548</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>231</v>
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C4" t="s">
-        <v>233</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C5" t="s">
-        <v>234</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>235</v>
+        <v>175</v>
       </c>
       <c r="C6" t="s">
-        <v>236</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>272</v>
+        <v>178</v>
+      </c>
+      <c r="C8" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>274</v>
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>276</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>277</v>
-      </c>
-      <c r="C12" t="s">
-        <v>278</v>
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>279</v>
-      </c>
-      <c r="C13" t="s">
-        <v>280</v>
+        <v>6</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>281</v>
+        <v>324</v>
       </c>
       <c r="C14" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>273</v>
+        <v>326</v>
       </c>
       <c r="C15" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>328</v>
+      </c>
+      <c r="C16" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>453</v>
+        <v>320</v>
+      </c>
+      <c r="C17" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="C19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
         <v>455</v>
       </c>
     </row>
@@ -2930,96 +2941,90 @@
       <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B20" t="s">
-        <v>456</v>
-      </c>
-      <c r="C20" t="s">
-        <v>457</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
-        <v>458</v>
-      </c>
-      <c r="C21" t="s">
-        <v>459</v>
+        <v>6</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
         <v>458</v>
       </c>
       <c r="C22" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
+        <v>460</v>
+      </c>
+      <c r="C23" t="s">
         <v>461</v>
-      </c>
-      <c r="C23" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C24" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C25" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C26" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
         <v>467</v>
       </c>
       <c r="C27" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C28" t="s">
         <v>470</v>
@@ -3027,10 +3032,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C29" t="s">
         <v>471</v>
@@ -3038,32 +3043,32 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
+        <v>469</v>
+      </c>
+      <c r="C30" t="s">
         <v>472</v>
-      </c>
-      <c r="C30" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C31" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C32" t="s">
         <v>475</v>
@@ -3071,52 +3076,74 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
+        <v>474</v>
+      </c>
+      <c r="C33" t="s">
         <v>476</v>
-      </c>
-      <c r="C33" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C34" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
+        <v>478</v>
+      </c>
+      <c r="C35" t="s">
         <v>479</v>
-      </c>
-      <c r="C35" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
+        <v>474</v>
+      </c>
+      <c r="C36" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
         <v>481</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>483</v>
+      </c>
+      <c r="C38" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
     </row>
   </sheetData>
 </worksheet>
@@ -3128,7 +3155,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>
 
@@ -3141,219 +3177,218 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-    </row>
+        <v>549</v>
+      </c>
+    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>121</v>
       </c>
-      <c r="C3" t="s">
-        <v>122</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" t="s">
         <v>125</v>
       </c>
-      <c r="C5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>127</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" t="s">
-        <v>129</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" t="s">
         <v>128</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>131</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" t="s">
-        <v>133</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
         <v>132</v>
       </c>
       <c r="C15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" t="s">
         <v>135</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="C17" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="C18" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>5</v>
       </c>
-      <c r="B21" t="s">
-        <v>140</v>
-      </c>
-      <c r="C21" t="s">
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="C22" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="C23" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C25" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C26" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27">
@@ -3363,98 +3398,89 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C30" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C31" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" t="s">
-        <v>152</v>
-      </c>
-      <c r="C32" t="s">
-        <v>153</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
     </row>
     <row r="33">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" t="s">
-        <v>154</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C36" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" t="s">
-        <v>157</v>
-      </c>
-      <c r="C37" t="s">
-        <v>158</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>159</v>
-      </c>
-      <c r="C38" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3462,95 +3488,89 @@
       <c r="A39" t="s">
         <v>5</v>
       </c>
-      <c r="B39" t="s">
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
         <v>161</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
         <v>163</v>
       </c>
+      <c r="C41" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C43" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" t="s">
-        <v>166</v>
-      </c>
-      <c r="C44" t="s">
-        <v>167</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B45" t="s">
         <v>168</v>
       </c>
-      <c r="C45" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
         <v>5</v>
       </c>
-      <c r="B46" t="s">
-        <v>170</v>
-      </c>
-      <c r="C46" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C47" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C48" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49">
@@ -3560,412 +3580,427 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C52" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C53" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>185</v>
+      </c>
+      <c r="C54" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" t="s">
-        <v>2</v>
-      </c>
-      <c r="B55" t="s">
-        <v>181</v>
-      </c>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
         <v>5</v>
       </c>
-      <c r="B57" t="s">
-        <v>182</v>
-      </c>
-      <c r="C57" t="s">
-        <v>183</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C58" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" t="s">
+        <v>190</v>
+      </c>
+      <c r="C59" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>186</v>
+        <v>192</v>
+      </c>
+      <c r="C60" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s">
-        <v>4</v>
-      </c>
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B62" t="s">
-        <v>187</v>
-      </c>
-      <c r="C62" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
         <v>5</v>
       </c>
-      <c r="B63" t="s">
-        <v>189</v>
-      </c>
-      <c r="C63" t="s">
-        <v>190</v>
-      </c>
     </row>
     <row r="64">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" t="s">
+        <v>195</v>
+      </c>
+      <c r="C64" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>191</v>
+        <v>197</v>
+      </c>
+      <c r="C65" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B66" t="s">
+        <v>199</v>
+      </c>
+      <c r="C66" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C67" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C68" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C69" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s">
-        <v>5</v>
-      </c>
-      <c r="B70" t="s">
-        <v>198</v>
-      </c>
-      <c r="C70" t="s">
-        <v>199</v>
-      </c>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B71" t="s">
-        <v>200</v>
-      </c>
-      <c r="C71" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
         <v>5</v>
       </c>
-      <c r="B72" t="s">
-        <v>202</v>
-      </c>
-      <c r="C72" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="73">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" t="s">
+        <v>208</v>
+      </c>
+      <c r="C73" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>204</v>
+        <v>210</v>
+      </c>
+      <c r="C74" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B75" t="s">
+        <v>212</v>
+      </c>
+      <c r="C75" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C76" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s">
-        <v>5</v>
-      </c>
-      <c r="B77" t="s">
-        <v>207</v>
-      </c>
-      <c r="C77" t="s">
-        <v>208</v>
-      </c>
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>209</v>
-      </c>
-      <c r="C78" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
+      <c r="A79" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>211</v>
+        <v>216</v>
+      </c>
+      <c r="C80" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B81" t="s">
+        <v>216</v>
+      </c>
+      <c r="C81" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s">
-        <v>5</v>
-      </c>
-      <c r="B82" t="s">
-        <v>212</v>
-      </c>
-      <c r="C82" t="s">
-        <v>213</v>
-      </c>
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>214</v>
-      </c>
-      <c r="C83" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>216</v>
+        <v>220</v>
+      </c>
+      <c r="C85" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B86" t="s">
+        <v>222</v>
+      </c>
+      <c r="C86" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s">
-        <v>5</v>
-      </c>
-      <c r="B87" t="s">
-        <v>217</v>
-      </c>
-      <c r="C87" t="s">
-        <v>218</v>
-      </c>
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>217</v>
-      </c>
-      <c r="C88" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>220</v>
+        <v>225</v>
+      </c>
+      <c r="C90" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B91" t="s">
+        <v>227</v>
+      </c>
+      <c r="C91" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C92" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s">
-        <v>5</v>
-      </c>
-      <c r="B93" t="s">
-        <v>223</v>
-      </c>
-      <c r="C93" t="s">
-        <v>224</v>
-      </c>
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
     </row>
     <row r="94">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
+      <c r="A94" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>2</v>
-      </c>
-      <c r="B95" t="s">
-        <v>225</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B96" t="s">
+        <v>232</v>
+      </c>
+      <c r="C96" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C97" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="C98" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
     </row>
     <row r="99">
@@ -3975,37 +4010,37 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B100" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C102" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C103" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="104">
@@ -4015,646 +4050,631 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B105" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C107" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B108" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C108" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
+      <c r="A109" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" t="s">
+        <v>248</v>
+      </c>
+      <c r="C109" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>247</v>
+        <v>250</v>
+      </c>
+      <c r="C110" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B111" t="s">
+        <v>252</v>
+      </c>
+      <c r="C111" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C112" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s">
-        <v>5</v>
-      </c>
-      <c r="B113" t="s">
-        <v>250</v>
-      </c>
-      <c r="C113" t="s">
-        <v>251</v>
-      </c>
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
     </row>
     <row r="114">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
+      <c r="A114" t="s">
+        <v>3</v>
+      </c>
+      <c r="B114" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>2</v>
-      </c>
-      <c r="B115" t="s">
-        <v>252</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B116" t="s">
+        <v>257</v>
+      </c>
+      <c r="C116" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C117" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B118" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C118" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
+      <c r="A119" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" t="s">
+        <v>263</v>
+      </c>
+      <c r="C119" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="120">
-      <c r="A120" t="s">
-        <v>2</v>
-      </c>
-      <c r="B120" t="s">
-        <v>256</v>
-      </c>
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B121" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
         <v>5</v>
       </c>
-      <c r="B122" t="s">
-        <v>257</v>
-      </c>
-      <c r="C122" t="s">
-        <v>258</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B123" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="C123" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B124" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C124" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s">
-        <v>5</v>
-      </c>
-      <c r="B125" t="s">
-        <v>262</v>
-      </c>
-      <c r="C125" t="s">
-        <v>263</v>
-      </c>
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B126" t="s">
-        <v>264</v>
-      </c>
-      <c r="C126" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
         <v>5</v>
       </c>
-      <c r="B127" t="s">
-        <v>260</v>
-      </c>
-      <c r="C127" t="s">
-        <v>266</v>
-      </c>
     </row>
     <row r="128">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
+      <c r="A128" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" t="s">
+        <v>271</v>
+      </c>
+      <c r="C128" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B129" t="s">
-        <v>267</v>
+        <v>273</v>
+      </c>
+      <c r="C129" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s">
-        <v>4</v>
-      </c>
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B131" t="s">
-        <v>268</v>
-      </c>
-      <c r="C131" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
         <v>5</v>
       </c>
-      <c r="B132" t="s">
-        <v>270</v>
-      </c>
-      <c r="C132" t="s">
-        <v>271</v>
-      </c>
     </row>
     <row r="133">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
+      <c r="A133" t="s">
+        <v>6</v>
+      </c>
+      <c r="B133" t="s">
+        <v>276</v>
+      </c>
+      <c r="C133" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B134" t="s">
-        <v>284</v>
+        <v>278</v>
+      </c>
+      <c r="C134" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B135" t="s">
+        <v>280</v>
+      </c>
+      <c r="C135" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B136" t="s">
-        <v>285</v>
-      </c>
-      <c r="C136" t="s">
-        <v>286</v>
-      </c>
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B137" t="s">
-        <v>287</v>
-      </c>
-      <c r="C137" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
+      <c r="A138" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B139" t="s">
-        <v>289</v>
+        <v>283</v>
+      </c>
+      <c r="C139" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B140" t="s">
+        <v>283</v>
+      </c>
+      <c r="C140" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s">
-        <v>5</v>
-      </c>
-      <c r="B141" t="s">
-        <v>290</v>
-      </c>
-      <c r="C141" t="s">
-        <v>291</v>
-      </c>
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B142" t="s">
-        <v>292</v>
-      </c>
-      <c r="C142" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
         <v>5</v>
       </c>
-      <c r="B143" t="s">
-        <v>294</v>
-      </c>
-      <c r="C143" t="s">
-        <v>295</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B144" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C144" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B145" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C145" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B146" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C146" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
+      <c r="A147" t="s">
+        <v>6</v>
+      </c>
+      <c r="B147" t="s">
+        <v>292</v>
+      </c>
+      <c r="C147" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B148" t="s">
-        <v>301</v>
+        <v>294</v>
+      </c>
+      <c r="C148" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B149" t="s">
+        <v>290</v>
+      </c>
+      <c r="C149" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s">
-        <v>5</v>
-      </c>
-      <c r="B150" t="s">
-        <v>302</v>
-      </c>
-      <c r="C150" t="s">
-        <v>303</v>
-      </c>
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B151" t="s">
-        <v>304</v>
-      </c>
-      <c r="C151" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
+      <c r="A152" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B153" t="s">
-        <v>306</v>
+        <v>298</v>
+      </c>
+      <c r="C153" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B154" t="s">
+        <v>298</v>
+      </c>
+      <c r="C154" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s">
-        <v>5</v>
-      </c>
-      <c r="B155" t="s">
-        <v>307</v>
-      </c>
-      <c r="C155" t="s">
-        <v>308</v>
-      </c>
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B156" t="s">
-        <v>307</v>
-      </c>
-      <c r="C156" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
+      <c r="A157" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B158" t="s">
-        <v>310</v>
+        <v>302</v>
+      </c>
+      <c r="C158" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B159" t="s">
+        <v>302</v>
+      </c>
+      <c r="C159" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s">
-        <v>5</v>
-      </c>
-      <c r="B160" t="s">
-        <v>311</v>
-      </c>
-      <c r="C160" t="s">
-        <v>312</v>
-      </c>
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B161" t="s">
-        <v>313</v>
-      </c>
-      <c r="C161" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
         <v>5</v>
       </c>
-      <c r="B162" t="s">
-        <v>315</v>
-      </c>
-      <c r="C162" t="s">
-        <v>316</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B163" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="C163" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B164" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C164" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s">
-        <v>5</v>
-      </c>
-      <c r="B165" t="s">
-        <v>321</v>
-      </c>
-      <c r="C165" t="s">
-        <v>322</v>
-      </c>
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B166" t="s">
-        <v>323</v>
-      </c>
-      <c r="C166" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
         <v>5</v>
       </c>
-      <c r="B167" t="s">
-        <v>325</v>
-      </c>
-      <c r="C167" t="s">
-        <v>326</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B168" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="C168" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B169" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="C169" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B170" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="C170" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
+      <c r="A171" t="s">
+        <v>6</v>
+      </c>
+      <c r="B171" t="s">
+        <v>317</v>
+      </c>
+      <c r="C171" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="172">
-      <c r="A172" t="s">
-        <v>2</v>
-      </c>
-      <c r="B172" t="s">
-        <v>333</v>
-      </c>
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B173" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
         <v>5</v>
       </c>
-      <c r="B174" t="s">
-        <v>334</v>
-      </c>
-      <c r="C174" t="s">
-        <v>335</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B175" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C175" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B176" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C176" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B177" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C177" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="178">
@@ -4664,37 +4684,37 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B179" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B181" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C181" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B182" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C182" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="183">
@@ -4704,241 +4724,256 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B184" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B186" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C186" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B187" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C187" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s">
-        <v>5</v>
-      </c>
-      <c r="B188" t="s">
-        <v>352</v>
-      </c>
-      <c r="C188" t="s">
-        <v>353</v>
-      </c>
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
     </row>
     <row r="189">
-      <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
+      <c r="A189" t="s">
+        <v>3</v>
+      </c>
+      <c r="B189" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>2</v>
-      </c>
-      <c r="B190" t="s">
-        <v>354</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B191" t="s">
+        <v>349</v>
+      </c>
+      <c r="C191" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B192" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C192" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s">
-        <v>5</v>
-      </c>
-      <c r="B193" t="s">
-        <v>357</v>
-      </c>
-      <c r="C193" t="s">
-        <v>358</v>
-      </c>
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B194" t="s">
-        <v>359</v>
-      </c>
-      <c r="C194" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
-      <c r="C195" s="1"/>
+      <c r="A195" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B196" t="s">
-        <v>361</v>
+        <v>354</v>
+      </c>
+      <c r="C196" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B197" t="s">
+        <v>356</v>
+      </c>
+      <c r="C197" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s">
-        <v>5</v>
-      </c>
-      <c r="B198" t="s">
-        <v>362</v>
-      </c>
-      <c r="C198" t="s">
-        <v>363</v>
-      </c>
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B199" t="s">
-        <v>362</v>
-      </c>
-      <c r="C199" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
-      <c r="C200" s="1"/>
+      <c r="A200" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B201" t="s">
-        <v>365</v>
+        <v>359</v>
+      </c>
+      <c r="C201" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B202" t="s">
+        <v>361</v>
+      </c>
+      <c r="C202" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B203" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C203" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B204" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C204" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B205" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C205" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B206" t="s">
+        <v>369</v>
+      </c>
+      <c r="C206" t="s">
         <v>370</v>
       </c>
-      <c r="C206" t="s">
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>6</v>
+      </c>
+      <c r="B207" t="s">
+        <v>371</v>
+      </c>
+      <c r="C207" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1"/>
-      <c r="B207" s="1"/>
-      <c r="C207" s="1"/>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B208" t="s">
         <v>373</v>
       </c>
+      <c r="C208" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B209" t="s">
+        <v>375</v>
+      </c>
+      <c r="C209" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B210" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C210" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B211" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C211" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="212">
@@ -4948,139 +4983,139 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B213" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B215" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C215" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B216" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C216" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="s">
-        <v>5</v>
-      </c>
-      <c r="B217" t="s">
-        <v>383</v>
-      </c>
-      <c r="C217" t="s">
-        <v>384</v>
-      </c>
+      <c r="A217" s="1"/>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B218" t="s">
-        <v>385</v>
-      </c>
-      <c r="C218" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
-      <c r="C219" s="1"/>
+      <c r="A219" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B220" t="s">
         <v>387</v>
       </c>
+      <c r="C220" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B221" t="s">
+        <v>387</v>
+      </c>
+      <c r="C221" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B222" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C222" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="s">
-        <v>5</v>
-      </c>
-      <c r="B223" t="s">
-        <v>388</v>
-      </c>
-      <c r="C223" t="s">
-        <v>390</v>
-      </c>
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
     </row>
     <row r="224">
-      <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
-      <c r="C224" s="1"/>
+      <c r="A224" t="s">
+        <v>3</v>
+      </c>
+      <c r="B224" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>2</v>
-      </c>
-      <c r="B225" t="s">
-        <v>391</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B226" t="s">
+        <v>392</v>
+      </c>
+      <c r="C226" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B227" t="s">
         <v>392</v>
       </c>
       <c r="C227" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B228" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C228" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="229">
@@ -5090,491 +5125,482 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B230" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B232" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C232" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B233" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C233" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s">
-        <v>5</v>
-      </c>
-      <c r="B234" t="s">
-        <v>401</v>
-      </c>
-      <c r="C234" t="s">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>3</v>
+      </c>
+      <c r="B235" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
-      <c r="C235" s="1"/>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>2</v>
-      </c>
-      <c r="B236" t="s">
-        <v>403</v>
+        <v>5</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B237" t="s">
+        <v>403</v>
+      </c>
+      <c r="C237" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B238" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C238" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s">
-        <v>5</v>
-      </c>
-      <c r="B239" t="s">
-        <v>406</v>
-      </c>
-      <c r="C239" t="s">
-        <v>407</v>
-      </c>
+      <c r="A239" s="1"/>
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B240" t="s">
-        <v>406</v>
-      </c>
-      <c r="C240" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
         <v>5</v>
       </c>
-      <c r="B241" t="s">
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>6</v>
+      </c>
+      <c r="B242" t="s">
+        <v>408</v>
+      </c>
+      <c r="C242" t="s">
         <v>409</v>
       </c>
-      <c r="C241" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1"/>
-      <c r="B242" s="1"/>
-      <c r="C242" s="1"/>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B243" t="s">
-        <v>411</v>
+        <v>408</v>
+      </c>
+      <c r="C243" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s">
-        <v>4</v>
-      </c>
+      <c r="A244" s="1"/>
+      <c r="B244" s="1"/>
+      <c r="C244" s="1"/>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B245" t="s">
-        <v>412</v>
-      </c>
-      <c r="C245" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
         <v>5</v>
       </c>
-      <c r="B246" t="s">
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>6</v>
+      </c>
+      <c r="B247" t="s">
         <v>412</v>
       </c>
-      <c r="C246" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1"/>
-      <c r="B247" s="1"/>
-      <c r="C247" s="1"/>
+      <c r="C247" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B248" t="s">
+        <v>414</v>
+      </c>
+      <c r="C248" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s">
-        <v>4</v>
-      </c>
+      <c r="A249" s="1"/>
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B250" t="s">
         <v>416</v>
       </c>
-      <c r="C250" t="s">
-        <v>417</v>
-      </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
         <v>5</v>
       </c>
-      <c r="B251" t="s">
-        <v>416</v>
-      </c>
-      <c r="C251" t="s">
-        <v>418</v>
-      </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B252" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C252" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>6</v>
+      </c>
+      <c r="B253" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1"/>
-      <c r="B253" s="1"/>
-      <c r="C253" s="1"/>
+      <c r="C253" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="254">
-      <c r="A254" t="s">
-        <v>2</v>
-      </c>
-      <c r="B254" t="s">
-        <v>420</v>
-      </c>
+      <c r="A254" s="1"/>
+      <c r="B254" s="1"/>
+      <c r="C254" s="1"/>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B255" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
         <v>5</v>
       </c>
-      <c r="B256" t="s">
-        <v>421</v>
-      </c>
-      <c r="C256" t="s">
-        <v>422</v>
-      </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B257" t="s">
+        <v>422</v>
+      </c>
+      <c r="C257" t="s">
         <v>423</v>
       </c>
-      <c r="C257" t="s">
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>6</v>
+      </c>
+      <c r="B258" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1"/>
-      <c r="B258" s="1"/>
-      <c r="C258" s="1"/>
+      <c r="C258" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B259" t="s">
-        <v>425</v>
+        <v>426</v>
+      </c>
+      <c r="C259" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="s">
-        <v>4</v>
-      </c>
+      <c r="A260" s="1"/>
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B261" t="s">
-        <v>426</v>
-      </c>
-      <c r="C261" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
         <v>5</v>
       </c>
-      <c r="B262" t="s">
-        <v>428</v>
-      </c>
-      <c r="C262" t="s">
-        <v>429</v>
-      </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B263" t="s">
+        <v>429</v>
+      </c>
+      <c r="C263" t="s">
         <v>430</v>
-      </c>
-      <c r="C263" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B264" t="s">
+        <v>431</v>
+      </c>
+      <c r="C264" t="s">
         <v>432</v>
       </c>
-      <c r="C264" t="s">
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>6</v>
+      </c>
+      <c r="B265" t="s">
+        <v>431</v>
+      </c>
+      <c r="C265" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="1"/>
-      <c r="B265" s="1"/>
-      <c r="C265" s="1"/>
-    </row>
     <row r="266">
-      <c r="A266" t="s">
-        <v>2</v>
-      </c>
-      <c r="B266" t="s">
-        <v>434</v>
-      </c>
+      <c r="A266" s="1"/>
+      <c r="B266" s="1"/>
+      <c r="C266" s="1"/>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B267" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
         <v>5</v>
       </c>
-      <c r="B268" t="s">
-        <v>435</v>
-      </c>
-      <c r="C268" t="s">
-        <v>436</v>
-      </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B269" t="s">
+        <v>435</v>
+      </c>
+      <c r="C269" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>6</v>
+      </c>
+      <c r="B270" t="s">
         <v>437</v>
       </c>
-      <c r="C269" t="s">
+      <c r="C270" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="1"/>
-      <c r="B270" s="1"/>
-      <c r="C270" s="1"/>
-    </row>
     <row r="271">
-      <c r="A271" t="s">
-        <v>2</v>
-      </c>
-      <c r="B271" t="s">
-        <v>439</v>
-      </c>
+      <c r="A271" s="1"/>
+      <c r="B271" s="1"/>
+      <c r="C271" s="1"/>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B272" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
         <v>5</v>
       </c>
-      <c r="B273" t="s">
-        <v>440</v>
-      </c>
-      <c r="C273" t="s">
-        <v>441</v>
-      </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B274" t="s">
+        <v>440</v>
+      </c>
+      <c r="C274" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>6</v>
+      </c>
+      <c r="B275" t="s">
+        <v>440</v>
+      </c>
+      <c r="C275" t="s">
         <v>442</v>
       </c>
-      <c r="C274" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="1"/>
-      <c r="B275" s="1"/>
-      <c r="C275" s="1"/>
     </row>
     <row r="276">
-      <c r="A276" t="s">
-        <v>2</v>
-      </c>
-      <c r="B276" t="s">
-        <v>444</v>
-      </c>
+      <c r="A276" s="1"/>
+      <c r="B276" s="1"/>
+      <c r="C276" s="1"/>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B277" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
         <v>5</v>
       </c>
-      <c r="B278" t="s">
-        <v>445</v>
-      </c>
-      <c r="C278" t="s">
-        <v>446</v>
-      </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B279" t="s">
+        <v>444</v>
+      </c>
+      <c r="C279" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>6</v>
+      </c>
+      <c r="B280" t="s">
+        <v>446</v>
+      </c>
+      <c r="C280" t="s">
         <v>447</v>
       </c>
-      <c r="C279" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="1"/>
-      <c r="B280" s="1"/>
-      <c r="C280" s="1"/>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B281" t="s">
+        <v>448</v>
+      </c>
+      <c r="C281" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="s">
-        <v>4</v>
-      </c>
+      <c r="A282" s="1"/>
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B283" t="s">
         <v>450</v>
       </c>
-      <c r="C283" t="s">
-        <v>451</v>
-      </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
         <v>5</v>
       </c>
-      <c r="B284" t="s">
-        <v>450</v>
-      </c>
-      <c r="C284" t="s">
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>6</v>
+      </c>
+      <c r="B285" t="s">
+        <v>451</v>
+      </c>
+      <c r="C285" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="1"/>
-      <c r="B285" s="1"/>
-      <c r="C285" s="1"/>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B286" t="s">
-        <v>483</v>
+        <v>453</v>
+      </c>
+      <c r="C286" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="s">
-        <v>4</v>
-      </c>
+      <c r="A287" s="1"/>
+      <c r="B287" s="1"/>
+      <c r="C287" s="1"/>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B288" t="s">
-        <v>484</v>
-      </c>
-      <c r="C288" t="s">
         <v>485</v>
       </c>
     </row>
@@ -5582,203 +5608,203 @@
       <c r="A289" t="s">
         <v>5</v>
       </c>
-      <c r="B289" t="s">
-        <v>486</v>
-      </c>
-      <c r="C289" t="s">
-        <v>487</v>
-      </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B290" t="s">
         <v>486</v>
       </c>
       <c r="C290" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>6</v>
+      </c>
+      <c r="B291" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="1"/>
-      <c r="B291" s="1"/>
-      <c r="C291" s="1"/>
+      <c r="C291" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="292">
-      <c r="A292" t="s">
-        <v>2</v>
-      </c>
-      <c r="B292" t="s">
-        <v>489</v>
-      </c>
+      <c r="A292" s="1"/>
+      <c r="B292" s="1"/>
+      <c r="C292" s="1"/>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B293" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
         <v>5</v>
       </c>
-      <c r="B294" t="s">
-        <v>490</v>
-      </c>
-      <c r="C294" t="s">
-        <v>491</v>
-      </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B295" t="s">
+        <v>491</v>
+      </c>
+      <c r="C295" t="s">
         <v>492</v>
       </c>
-      <c r="C295" t="s">
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>6</v>
+      </c>
+      <c r="B296" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="1"/>
-      <c r="B296" s="1"/>
-      <c r="C296" s="1"/>
+      <c r="C296" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="297">
-      <c r="A297" t="s">
-        <v>2</v>
-      </c>
-      <c r="B297" t="s">
-        <v>494</v>
-      </c>
+      <c r="A297" s="1"/>
+      <c r="B297" s="1"/>
+      <c r="C297" s="1"/>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B298" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
         <v>5</v>
       </c>
-      <c r="B299" t="s">
-        <v>495</v>
-      </c>
-      <c r="C299" t="s">
-        <v>496</v>
-      </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B300" t="s">
+        <v>496</v>
+      </c>
+      <c r="C300" t="s">
         <v>497</v>
-      </c>
-      <c r="C300" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B301" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C301" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1"/>
+      <c r="B302" s="1"/>
+      <c r="C302" s="1"/>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>3</v>
+      </c>
+      <c r="B303" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="s">
-        <v>5</v>
-      </c>
-      <c r="B302" t="s">
-        <v>500</v>
-      </c>
-      <c r="C302" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="1"/>
-      <c r="B303" s="1"/>
-      <c r="C303" s="1"/>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>2</v>
-      </c>
-      <c r="B304" t="s">
-        <v>502</v>
+        <v>5</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B305" t="s">
+        <v>500</v>
+      </c>
+      <c r="C305" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B306" t="s">
+        <v>502</v>
+      </c>
+      <c r="C306" t="s">
         <v>503</v>
-      </c>
-      <c r="C306" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B307" t="s">
+        <v>504</v>
+      </c>
+      <c r="C307" t="s">
         <v>505</v>
-      </c>
-      <c r="C307" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B308" t="s">
+        <v>506</v>
+      </c>
+      <c r="C308" t="s">
         <v>507</v>
       </c>
-      <c r="C308" t="s">
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>6</v>
+      </c>
+      <c r="B309" t="s">
+        <v>506</v>
+      </c>
+      <c r="C309" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="1"/>
-      <c r="B309" s="1"/>
-      <c r="C309" s="1"/>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B310" t="s">
         <v>509</v>
       </c>
+      <c r="C310" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="311">
-      <c r="A311" t="s">
-        <v>4</v>
-      </c>
+      <c r="A311" s="1"/>
+      <c r="B311" s="1"/>
+      <c r="C311" s="1"/>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B312" t="s">
-        <v>510</v>
-      </c>
-      <c r="C312" t="s">
         <v>511</v>
       </c>
     </row>
@@ -5786,79 +5812,79 @@
       <c r="A313" t="s">
         <v>5</v>
       </c>
-      <c r="B313" t="s">
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>6</v>
+      </c>
+      <c r="B314" t="s">
         <v>512</v>
       </c>
-      <c r="C313" t="s">
+      <c r="C314" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="314">
-      <c r="A314" s="1"/>
-      <c r="B314" s="1"/>
-      <c r="C314" s="1"/>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B315" t="s">
+        <v>512</v>
+      </c>
+      <c r="C315" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="s">
-        <v>4</v>
-      </c>
+      <c r="A316" s="1"/>
+      <c r="B316" s="1"/>
+      <c r="C316" s="1"/>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B317" t="s">
         <v>515</v>
       </c>
-      <c r="C317" t="s">
-        <v>516</v>
-      </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
         <v>5</v>
       </c>
-      <c r="B318" t="s">
-        <v>515</v>
-      </c>
-      <c r="C318" t="s">
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>6</v>
+      </c>
+      <c r="B319" t="s">
+        <v>516</v>
+      </c>
+      <c r="C319" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="1"/>
-      <c r="B319" s="1"/>
-      <c r="C319" s="1"/>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B320" t="s">
         <v>518</v>
       </c>
+      <c r="C320" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="321">
-      <c r="A321" t="s">
-        <v>4</v>
-      </c>
+      <c r="A321" s="1"/>
+      <c r="B321" s="1"/>
+      <c r="C321" s="1"/>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B322" t="s">
-        <v>519</v>
-      </c>
-      <c r="C322" t="s">
         <v>520</v>
       </c>
     </row>
@@ -5866,135 +5892,129 @@
       <c r="A323" t="s">
         <v>5</v>
       </c>
-      <c r="B323" t="s">
-        <v>521</v>
-      </c>
-      <c r="C323" t="s">
-        <v>522</v>
-      </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B324" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C324" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B325" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C325" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B326" t="s">
+        <v>521</v>
+      </c>
+      <c r="C326" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>6</v>
+      </c>
+      <c r="B327" t="s">
+        <v>526</v>
+      </c>
+      <c r="C327" t="s">
         <v>527</v>
       </c>
-      <c r="C326" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="1"/>
-      <c r="B327" s="1"/>
-      <c r="C327" s="1"/>
     </row>
     <row r="328">
-      <c r="A328" t="s">
-        <v>2</v>
-      </c>
-      <c r="B328" t="s">
-        <v>529</v>
-      </c>
+      <c r="A328" s="1"/>
+      <c r="B328" s="1"/>
+      <c r="C328" s="1"/>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B329" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
         <v>5</v>
       </c>
-      <c r="B330" t="s">
-        <v>530</v>
-      </c>
-      <c r="C330" t="s">
-        <v>531</v>
-      </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B331" t="s">
+        <v>529</v>
+      </c>
+      <c r="C331" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>6</v>
+      </c>
+      <c r="B332" t="s">
+        <v>531</v>
+      </c>
+      <c r="C332" t="s">
         <v>532</v>
       </c>
-      <c r="C331" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="1"/>
-      <c r="B332" s="1"/>
-      <c r="C332" s="1"/>
     </row>
     <row r="333">
-      <c r="A333" t="s">
-        <v>2</v>
-      </c>
-      <c r="B333" t="s">
-        <v>534</v>
-      </c>
+      <c r="A333" s="1"/>
+      <c r="B333" s="1"/>
+      <c r="C333" s="1"/>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B334" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
         <v>5</v>
       </c>
-      <c r="B335" t="s">
-        <v>535</v>
-      </c>
-      <c r="C335" t="s">
-        <v>536</v>
-      </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B336" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C336" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B337" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C337" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="338">
@@ -6004,43 +6024,65 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B339" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B341" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C341" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B342" t="s">
+        <v>541</v>
+      </c>
+      <c r="C342" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>6</v>
+      </c>
+      <c r="B343" t="s">
+        <v>543</v>
+      </c>
+      <c r="C343" t="s">
         <v>544</v>
       </c>
-      <c r="C342" t="s">
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>6</v>
+      </c>
+      <c r="B344" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="343">
-      <c r="A343" s="1"/>
-      <c r="B343" s="1"/>
-      <c r="C343" s="1"/>
+      <c r="C344" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1"/>
+      <c r="B345" s="1"/>
+      <c r="C345" s="1"/>
     </row>
   </sheetData>
 </worksheet>

--- a/test_review/06-06.xlsx
+++ b/test_review/06-06.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="672">
   <si>
     <t>图例：新加入的讨论源</t>
   </si>
@@ -384,6 +384,1026 @@
     <t>https://discuss.openubmc.cn//t/topic/317/1</t>
   </si>
   <si>
+    <t>BMC开发者如何实现CSR文件损坏的检测与自修复</t>
+  </si>
+  <si>
+    <t>CSR文件损坏之后的恢复能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/4</t>
+  </si>
+  <si>
+    <t>CSR文件损坏恢复能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/9</t>
+  </si>
+  <si>
+    <t>解决BMC过渡包升级中签名链更新缺失导致的校验失败</t>
+  </si>
+  <si>
+    <t>制作反向过渡包时碰到的疑问</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/723/1</t>
+  </si>
+  <si>
+    <t>25.03构建出包以及伙伴签名问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/390/1</t>
+  </si>
+  <si>
+    <t>25.03版本的构建环境搭建：dockerfile创建镜像失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/409/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现Redfish接口查询指定PCIe设备资源信息</t>
+  </si>
+  <si>
+    <t>【需求】支持查询指定PCIEDevices资源信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/pcie_device/issues/5</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/16</t>
+  </si>
+  <si>
+    <t>BMC开发者如何统一实现多品牌新款SATA硬盘的纳管支持？</t>
+  </si>
+  <si>
+    <t>【需求】支持新增希捷SATA盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/42</t>
+  </si>
+  <si>
+    <t>【需求】支持新增西数SATA盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/43</t>
+  </si>
+  <si>
+    <t>【需求】支持新增东芝SATA盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/45</t>
+  </si>
+  <si>
+    <t>BMC开发者确保SMBIOS协议解析Structure Header Length字段准确</t>
+  </si>
+  <si>
+    <t>解析SMBIOS协议04Type时出现异常</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/1</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/363/1</t>
+  </si>
+  <si>
+    <t>BMC开发者需修正BIOS组件生效流程图的逻辑错误</t>
+  </si>
+  <si>
+    <t>bios组件生效流程流程图错误</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/17</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/19</t>
+  </si>
+  <si>
+    <t>BMC开发者需实现NVMe盘多型号识别与管理兼容性</t>
+  </si>
+  <si>
+    <t>【需求】支持新增华为厂商NVMe盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/41</t>
+  </si>
+  <si>
+    <t>【需求】支持新增Memblaze厂商NVMe盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/44</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现SystemInfoTable属性的持久化存储以支持IPMI标准命令</t>
+  </si>
+  <si>
+    <t>IPMI2.0标准接口能力新增私有属性保存system info信息</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1100/1</t>
+  </si>
+  <si>
+    <t>【需求】支持Get System Info标准命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/12</t>
+  </si>
+  <si>
+    <t>【需求】支持Set System Info标准命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/13</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现日志配置与系统路径的存储隔离迁移</t>
+  </si>
+  <si>
+    <t>支持日志存放位置隔离</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rootfs_user/issues/2</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/23</t>
+  </si>
+  <si>
+    <t>BMC开发者需解决一键部署中的Conan组件拉取机制稳定性问题</t>
+  </si>
+  <si>
+    <t>bmc studio使用问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1012/1</t>
+  </si>
+  <si>
+    <t>BMC_STUDIO仓库一键部署，丢失响应，无成功，无失败反馈</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/962/1</t>
+  </si>
+  <si>
+    <t>使用bmc_studio遇到的问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/925/1</t>
+  </si>
+  <si>
+    <t>BMC Studio问题反馈</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/707/1</t>
+  </si>
+  <si>
+    <t>开发者实现Redfish Drive资源OEM接口时需解决NVM MI命令与硬件协议栈的兼容性整合</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制SendNvmeMICommand请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/40</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetIdentifyData请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/39</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetAddSmartInfo请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/37</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetTelemetryData请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/13</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/36</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetSmartInfo请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/38</t>
+  </si>
+  <si>
+    <t>BMC开发者如何为thermal和power管理组件实现业务场景的白名单配置基线化</t>
+  </si>
+  <si>
+    <t>【需求】power_mgmt组件明确业务场景下的白名单化配置并形成基线</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/45</t>
+  </si>
+  <si>
+    <t>【需求】thermal_mgmt组件明确业务场景下的白名单化配置并形成基线</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/25</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现PLDM协议获取网卡信息并集成接口展示</t>
+  </si>
+  <si>
+    <t>【需求】支持使用pldm协议获取网卡相关信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/20</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/19</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现bingo SDK版本自动化兼容性校验</t>
+  </si>
+  <si>
+    <t>应支持bingo、构建工具、sdk之间的版本配套</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/414/1</t>
+  </si>
+  <si>
+    <t>【需求】bingo支持组件的全量二进制构建</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bingo/issues/12</t>
+  </si>
+  <si>
+    <t>开发者在BMC Studio中需手动二次配置因器件库不完整。</t>
+  </si>
+  <si>
+    <t>BMC Studio工具使用反馈</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/714/1</t>
+  </si>
+  <si>
+    <t>[WIP]BMC Studio用户指南</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/221/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何提升多模组固件升级健壮性</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组CSR固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/24</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组VRD固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/26</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组CPLD固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/25</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组MCU固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/27</t>
+  </si>
+  <si>
+    <t>CPLD 升级 MultipleSuppliersMode MIXED Mode 功能背景了解</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/886/1</t>
+  </si>
+  <si>
+    <t>【需求】支持MCU子固件升级时版本号校验</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/23</t>
+  </si>
+  <si>
+    <t>BMC开发者如何防范开发环境中的文件访问绕过漏洞</t>
+  </si>
+  <si>
+    <t>CVE-2025-31486</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/18</t>
+  </si>
+  <si>
+    <t>CVE-2025-46565</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/21</t>
+  </si>
+  <si>
+    <t>CVE-2025-32395</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/19</t>
+  </si>
+  <si>
+    <t>CVE-2025-30208</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/16</t>
+  </si>
+  <si>
+    <t>CVE-2025-31125</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/17</t>
+  </si>
+  <si>
+    <t>BMC开发者如何在BIOS启动阶段禁用KVM/VNC键盘输入防止密码修改</t>
+  </si>
+  <si>
+    <t>支持BIOS启动过程禁止KVM/VNC键盘输入</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/19</t>
+  </si>
+  <si>
+    <t>支持BIOS在启动阶段禁用键盘</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/20</t>
+  </si>
+  <si>
+    <t>BMC开发者如何申请使用自动化测试框架</t>
+  </si>
+  <si>
+    <t>怎么申请使用kptest框架和itestsmart工具呢</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/665/1</t>
+  </si>
+  <si>
+    <t>kptest框架与KPTestOpenFramework工程、iTestSmart工具介绍</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/832/1</t>
+  </si>
+  <si>
+    <t>BMC配置导出需新增产品类别和软件版本信息支持</t>
+  </si>
+  <si>
+    <t>配置导出项新增BMC软件版本信息和产品类别信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/13</t>
+  </si>
+  <si>
+    <t>配置导入导出新增产品类别信息和BMC软件版本信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/profile_schema/issues/2</t>
+  </si>
+  <si>
+    <t>提供BMC出厂配置定制指导</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/16</t>
+  </si>
+  <si>
+    <t>软件中心需要添加BMCStudio描述和下载页</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/software-center-config/issues/3</t>
+  </si>
+  <si>
+    <t>BMC开发者如何高效管理openTelemetry API依赖组件</t>
+  </si>
+  <si>
+    <t>提供openTelemetry及依赖开源软件API能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/3</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/conan_index/issues/3</t>
+  </si>
+  <si>
+    <t>BMC开发者实现升级时多签名机制兼容性</t>
+  </si>
+  <si>
+    <t>能否实现伙伴签名的openUBMC版本直接升级华为签名的各种固件？</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/335/1</t>
+  </si>
+  <si>
+    <t>伙伴openubmc版本如何支持升级华为签名固件版本和伙伴自己签名的固件版本均能成功？</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1083/1</t>
+  </si>
+  <si>
+    <t>使用openubmc进行bios固件升级，提示无效的升级包</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/182/1</t>
+  </si>
+  <si>
+    <t>刷了华为根的机器是否可以直接刷伙伴根</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/933/1</t>
+  </si>
+  <si>
+    <t>BMC开发中如何解决Conan v1弃用导致的头文件缺失编译失败</t>
+  </si>
+  <si>
+    <t>社区lsw编译不过</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/979/1</t>
+  </si>
+  <si>
+    <t>开源首版本编译不过</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/lsw/issues/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何扩展升级接口参数处理并行升级错误场景</t>
+  </si>
+  <si>
+    <t>【需求】power_mgmt组件适配升级接口参数扩展</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/10</t>
+  </si>
+  <si>
+    <t>【需求】bios组件适配升级接口参数扩展</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/10</t>
+  </si>
+  <si>
+    <t>能效管理适配升级接口参数扩展</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/5</t>
+  </si>
+  <si>
+    <t>general_hardware组件适配升级接口参数</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/11</t>
+  </si>
+  <si>
+    <t>BMC开发者在Redfish OEM定制中如何实现存储控制器属性查询</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish接口oem定制查询指定存储资源信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rack_mgmt/issues/2</t>
+  </si>
+  <si>
+    <t>【需求】支持厂商定制化显示存储控制器端口数</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/67</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现新的遥测配置管理接口</t>
+  </si>
+  <si>
+    <t>支持遥测上报配置管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/12</t>
+  </si>
+  <si>
+    <t>【需求】 支持遥测上报配置管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/37</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/16</t>
+  </si>
+  <si>
+    <t>【需求】可观测新增redfish、web接口及属性</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/29</t>
+  </si>
+  <si>
+    <t>BMC开发者如何更新通用和异构硬件适配文档资源</t>
+  </si>
+  <si>
+    <t>【需求】社区更新通用硬件相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/19</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/13</t>
+  </si>
+  <si>
+    <t>【需求】社区更新设备管理规范相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/14</t>
+  </si>
+  <si>
+    <t>【需求】社区补齐异构硬件相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/17</t>
+  </si>
+  <si>
+    <t>【需求】社区更新能效管理相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/16</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/20</t>
+  </si>
+  <si>
+    <t>如何确保BIOS测试命令在高可用环境中的兼容性</t>
+  </si>
+  <si>
+    <t>高可用环境BIOS执行test失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/800/1</t>
+  </si>
+  <si>
+    <t>组件内执行bingo test显示测试失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/594/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何解决固件并行升级总线互斥问题</t>
+  </si>
+  <si>
+    <t>【需求】支持固件升级流程总线互斥</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/21</t>
+  </si>
+  <si>
+    <t>固件升级流程总线互斥</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/10</t>
+  </si>
+  <si>
+    <t>【需求】能效管理固件升级流程总线互斥</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/11</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/11</t>
+  </si>
+  <si>
+    <t>BMC开发者如何解决PXE阶段因POST未完成导致重启失败</t>
+  </si>
+  <si>
+    <t>【问题单】定制后bios处于PXE阶段时重启BMC失败</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/19</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/sensor/issues/10</t>
+  </si>
+  <si>
+    <t>BMC固件开发中如何确保网卡扩展与历史协议兼容</t>
+  </si>
+  <si>
+    <t>【需求】网卡适配组件兼容历史网卡功能</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/6</t>
+  </si>
+  <si>
+    <t>【需求】网卡支持南向部件驱动接口</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/17</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/18</t>
+  </si>
+  <si>
+    <t>BMC开发者如何规避新增IPMI命令导致组件不可启动问题</t>
+  </si>
+  <si>
+    <t>pcie_device新增IPMI命令导致组件异常问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/595/1</t>
+  </si>
+  <si>
+    <t>非天池组件加载方式</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/610/1</t>
+  </si>
+  <si>
+    <t>如何解决恢复出厂设置后BMC固件升级签名验证异常</t>
+  </si>
+  <si>
+    <t>恢复出厂设置后，BMC升级失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1065/1</t>
+  </si>
+  <si>
+    <t>BMC恢复出厂设置之后无法更新固件</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/831/1</t>
+  </si>
+  <si>
+    <t>恢复出厂设置时无法升级</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/11</t>
+  </si>
+  <si>
+    <t>BMC开发者如何在Web界面实现组件粒度状态查询的权限容错机制</t>
+  </si>
+  <si>
+    <t>【需求】web界面查询升级状态及生效状态信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/114</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/99</t>
+  </si>
+  <si>
+    <t>BMC开发者如何通过Redfish和IPMI接口实现硬盘日志收集控制</t>
+  </si>
+  <si>
+    <t>【需求】支持硬盘诊断功能控制</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/106</t>
+  </si>
+  <si>
+    <t>【需求】硬盘诊断功能控制</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/112</t>
+  </si>
+  <si>
+    <t>【需求】支持服务器网络管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/25</t>
+  </si>
+  <si>
+    <t>【需求】支持存储管理能力基线</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/30</t>
+  </si>
+  <si>
+    <t>【需求】支持存储管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/35</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/7</t>
+  </si>
+  <si>
+    <t>BMC开发者如何优化RAID日志导出的时延与安全性</t>
+  </si>
+  <si>
+    <t>【需求】支持收集raid卡文本格式日志</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/32</t>
+  </si>
+  <si>
+    <t>【需求】支持一键搜集日志导出raid卡固件日志</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/31</t>
+  </si>
+  <si>
+    <t>BMC开发者如何解决固件升级中的证书校验失败</t>
+  </si>
+  <si>
+    <t>使用社区最新出包，升级hpm失败，查看m3log get cert fail!</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/498/1</t>
+  </si>
+  <si>
+    <t>最新 source 包烧录异常问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/173/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现Power资源的Redfish新标准适配</t>
+  </si>
+  <si>
+    <t>BMC开发中如何通过REDfish协议实现PrivilegeMap配置同步与用户校验提示优化</t>
+  </si>
+  <si>
+    <t>【需求】RAS接口支持配置PrivilegeMap信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/53</t>
+  </si>
+  <si>
+    <t>电源信息获取优化</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/4</t>
+  </si>
+  <si>
+    <t>支持节点模式设置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/5</t>
+  </si>
+  <si>
+    <t>电源转化器型号显示修改</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/3</t>
+  </si>
+  <si>
+    <t>支持新增自定义用户组设置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/account/issues/11</t>
+  </si>
+  <si>
+    <t>支持配置PrivilegeMap信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/account/issues/12</t>
+  </si>
+  <si>
+    <t>支持用户名校验定制后的用户提示优化</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/account/issues/5</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/31</t>
+  </si>
+  <si>
+    <t>文档持续更新</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/1</t>
+  </si>
+  <si>
+    <t>文档描述优化</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/6</t>
+  </si>
+  <si>
+    <t>如何通过原子能力实现电源冗余模式配置与功率封顶参数管理</t>
+  </si>
+  <si>
+    <t>【需求】支持Power资源新增修改电源冗余模式</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/31</t>
+  </si>
+  <si>
+    <t>【需求】支持查询冗余供电信息能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/27</t>
+  </si>
+  <si>
+    <t>【需求】支持查询电源模块信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/28</t>
+  </si>
+  <si>
+    <t>【需求】支持查询系统供电信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/29</t>
+  </si>
+  <si>
+    <t>【需求】支持查询电源FRU信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/22</t>
+  </si>
+  <si>
+    <t>【需求】支持监控电源不匹配检测原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/36</t>
+  </si>
+  <si>
+    <t>【需求】支持设置功耗过高告警阈值原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/25</t>
+  </si>
+  <si>
+    <t>【需求】支持查询功耗过高告警阈值原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/20</t>
+  </si>
+  <si>
+    <t>【需求】支持采集电源FRU信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/34</t>
+  </si>
+  <si>
+    <t>【需求】支持查询指定机箱电源信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/23</t>
+  </si>
+  <si>
+    <t>【需求】支持设置冗余供电模式能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/26</t>
+  </si>
+  <si>
+    <t>【需求】支持优化供电模式切换特性</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/9</t>
+  </si>
+  <si>
+    <t>【需求】支持设置功率封顶参数原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/24</t>
+  </si>
+  <si>
+    <t>【需求】支持查询风扇信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/16</t>
+  </si>
+  <si>
+    <t>【需求】支持查询历史系统功率信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/30</t>
+  </si>
+  <si>
+    <t>【需求】支持功率采集及查询原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/37</t>
+  </si>
+  <si>
+    <t>【需求】支持查询功率封顶参数原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/21</t>
+  </si>
+  <si>
+    <t>【需求】支持查询最大风扇&amp;电源个数信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/14</t>
+  </si>
+  <si>
+    <t>【需求】支持查询温度信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/15</t>
+  </si>
+  <si>
+    <t>【需求】支持温度采集及查询原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/20</t>
+  </si>
+  <si>
+    <t>【需求】支持查询进风口历史温度信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/17</t>
+  </si>
+  <si>
+    <t>如何验证Thermal/Power资源对Redfish新标准接口的完整兼容性及运维场景可行性</t>
+  </si>
+  <si>
+    <t>【需求】Power相关资源支持redfish新标准</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/19</t>
+  </si>
+  <si>
+    <t>【需求】Thermal相关资源支持redfish新标准</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/13</t>
+  </si>
+  <si>
+    <t>【需求】Power资源支持redfish新标准</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/113</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/106</t>
+  </si>
+  <si>
+    <t>【需求】能效管理支持Chassis资源redfish新标准</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/18</t>
+  </si>
+  <si>
+    <t>【需求】【PowerStrategy】支持Web界面提示优选主用电源</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/webui/issues/39</t>
+  </si>
+  <si>
+    <t>支持web界面显示优选电源工作模式及主用电源列表</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/111</t>
+  </si>
+  <si>
+    <t>【需求】支持新增自定义用户/用户组设置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/webui/issues/38</t>
+  </si>
+  <si>
+    <t>BMC开发者需解决权限限制下的升级恢复接口错误问题</t>
+  </si>
+  <si>
+    <t>【变更声明】Redfish升级接口权限变更</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/732/1</t>
+  </si>
+  <si>
+    <t>Redfish 升级接口 SimpleUpdate 关于在支持升级之后清除配置功能接口变更</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/32</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现PCIe Switch Flash升级组件的集成</t>
+  </si>
+  <si>
+    <t>PCIe Switch 芯片的Flash升级</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/721/1</t>
+  </si>
+  <si>
+    <t>【讨论】PCIe Switch场景下如何加载PCIe卡</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/722/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何修正ProcessorID属性类型以符合SMBIOS协议</t>
+  </si>
+  <si>
+    <t>bmc.kepler.Systems.Processor.CPU的ProcessorID为U32类型，与SMBIOS协议不一致</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/30</t>
+  </si>
+  <si>
+    <t>【问题单】CPU的ProcessorID属性定义与SMBIOS协议规定不符</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/75</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/47</t>
+  </si>
+  <si>
+    <t>CPU类的ProcessorID属性定义为U32类型，与SMBIOS协议范围（QWORD）不一致</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/362/1</t>
+  </si>
+  <si>
     <t>BMC开发者在资源树协作接口中如何解决属性约束冲突与内部实现暴露问题</t>
   </si>
   <si>
@@ -474,6 +1494,471 @@
     <t>https://gitcode.com/openUBMC/account/issues/6</t>
   </si>
   <si>
+    <t>BMC开发者如何在直通场景下实现NVMe SSD自定义SMART监控</t>
+  </si>
+  <si>
+    <t>【需求】支持自定义SMART信息的NVMe SSD盘写放大监控</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/28</t>
+  </si>
+  <si>
+    <t>【需求】支持从带内获取SMART NVMe SSD盘冗余块信息并监控</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/24</t>
+  </si>
+  <si>
+    <t>【需求】支持获取NVMe SSD盘自定义SMART信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/27</t>
+  </si>
+  <si>
+    <t>【需求】支持从带内获取厂商SMART NVMe SSD盘冗余块信息并监控</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/10</t>
+  </si>
+  <si>
+    <t>【需求】支持自定义的SMART NVMe SSD盘亚健康检测</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/23</t>
+  </si>
+  <si>
+    <t>【需求】支持自定义SMART信息的NVMe SSD盘预估寿命新增计算参数</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/25</t>
+  </si>
+  <si>
+    <t>如何避免CRPS电源适配中SlotNumber配置错误</t>
+  </si>
+  <si>
+    <t>pmbus CRPS电源适配</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/240/1</t>
+  </si>
+  <si>
+    <t>电源适配指导</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1101/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何扩展UpdateService接口以实现并行固件升级和资源隔离告警</t>
+  </si>
+  <si>
+    <t>【需求】bmc.kepler.UpdateService接口新增ParallelUpdate方法、新增ConcurrentReachedLimit错误引擎</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/49</t>
+  </si>
+  <si>
+    <t>新增bmc.kepler.UpdateService.FirmwareRestor接口,接口新增InitiateRestoreAction方法</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/100</t>
+  </si>
+  <si>
+    <t>BMC开发者如何提升社区UT IT测试覆盖率和工具贡献效率</t>
+  </si>
+  <si>
+    <t>openUBMC社区测试贡献规划</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/592/1</t>
+  </si>
+  <si>
+    <t>QA 运作规则讨论</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/209/1</t>
+  </si>
+  <si>
+    <t>openUBMC社区QA SIG运作</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/593/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现FPGA自检失败的告警模拟测试</t>
+  </si>
+  <si>
+    <t>【需求】支持FPGA固件周期自检失败的告警</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/30</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/84</t>
+  </si>
+  <si>
+    <t>支持FPGA固件周期自检失败的告警</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/45</t>
+  </si>
+  <si>
+    <t>如何优化BMC日志、跟踪和度量数据的采集与存储效率</t>
+  </si>
+  <si>
+    <t>提供跟踪数据采集和存储能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/4</t>
+  </si>
+  <si>
+    <t>提供度量数据采集和存储能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/2</t>
+  </si>
+  <si>
+    <t>提供日志数据采集和存储能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/5</t>
+  </si>
+  <si>
+    <t>BMC开发者需修正VPD中position描述的映射错误</t>
+  </si>
+  <si>
+    <t>vpd仓库platform.sr.png描述有误</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/360/1</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/2</t>
+  </si>
+  <si>
+    <t>BMC开发者如何设计CLI并发收集NPU/CPU日志的失败处理</t>
+  </si>
+  <si>
+    <t>【需求】 支持CLI导出NPU DFX日志</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/48</t>
+  </si>
+  <si>
+    <t>【需求】支持CLI导出CPU DFX日志</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/46</t>
+  </si>
+  <si>
+    <t>BMC开发者如何高效实现电链路统计数据采集接口</t>
+  </si>
+  <si>
+    <t>【需求】支持NPU参数面端口电链路数据采集</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/8</t>
+  </si>
+  <si>
+    <t>【需求】支持NPU参数面光模块数据采集接口增加电链路数据</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/7</t>
+  </si>
+  <si>
+    <t>BMC开发者如何高效配置3000W电源的PMbus告警属性</t>
+  </si>
+  <si>
+    <t>【需求】支持3000W电源管理，新增资源树私有属性CurrentModeLogic</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/account/issues/13</t>
+  </si>
+  <si>
+    <t>【需求】支持3000W电源管理，新增资源树bmc.kepler.Systems.PowerMgmt.OnePower.Status属性CMLStatus</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/44</t>
+  </si>
+  <si>
+    <t>【需求】支持电源继电器状态管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/45</t>
+  </si>
+  <si>
+    <t>BMC开发者如何通过返回值0判断文件安全操作成功状态</t>
+  </si>
+  <si>
+    <t>【需求】支持文件安全操作函数返回值判断</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/31</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/51</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/36</t>
+  </si>
+  <si>
+    <t>BMC开发者亟需开源应用框架开发指导文档</t>
+  </si>
+  <si>
+    <t>提供应用框架开发指导</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/15</t>
+  </si>
+  <si>
+    <t>【需求】社区提供开源项目开发者指南</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/webui/issues/19</t>
+  </si>
+  <si>
+    <t>BMC开发者如何适配BlueField系列设备的调速策略在openUBMC中</t>
+  </si>
+  <si>
+    <t>【需求】支持BlueField-3（B3220）的调速策略配置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/17</t>
+  </si>
+  <si>
+    <t>【需求】支持BlueField-2（332A）的调速策略</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/18</t>
+  </si>
+  <si>
+    <t>BMC开发者如何高效构建仿真测试环境</t>
+  </si>
+  <si>
+    <t>OpenUBMC社区支持仿真镜像的构建与发布</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/qemu/issues/5</t>
+  </si>
+  <si>
+    <t>OpenUBMC社区支持仿真数据的发布</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/qemu/issues/4</t>
+  </si>
+  <si>
+    <t>OpenUBMC社区支持Qemu工具的构建与发布</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/qemu/issues/3</t>
+  </si>
+  <si>
+    <t>标签包裹。</t>
+  </si>
+  <si>
+    <t>【需求】支持NCSI边带管理功能</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/16</t>
+  </si>
+  <si>
+    <t>【需求】开源社区支持NCSI边带管理功能</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/5</t>
+  </si>
+  <si>
+    <t>BMC开发者如何在定制传感器时确保名称与主板丝印一致？</t>
+  </si>
+  <si>
+    <t>【需求】支持Px_Cy_Dz_Status内存定制传感器</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/ByteDance/issues/19</t>
+  </si>
+  <si>
+    <t>【需求】支持CPUx_Status定制传感器</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/ByteDance/issues/18</t>
+  </si>
+  <si>
+    <t>BMC开发者需统一板卡和MCU一键收集信息的存储路径与命名规范</t>
+  </si>
+  <si>
+    <t>【已评审】支持一键收集导出板卡信息，mcu信息</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/628/1</t>
+  </si>
+  <si>
+    <t>【需求】支持一键收集通用硬件信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/34</t>
+  </si>
+  <si>
+    <t>openUBMC一键收集介绍</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/290/1</t>
+  </si>
+  <si>
+    <t>【问题单】支持一键收集导出板卡信息，mcu信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/10</t>
+  </si>
+  <si>
+    <t>【需求】支持板卡硬件管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/15</t>
+  </si>
+  <si>
+    <t>基础通用问题FAQ</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/292/1</t>
+  </si>
+  <si>
+    <t>openUBMC各sig组本周(2025-0421-2025-0427)关闭issue统计</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/672/1</t>
+  </si>
+  <si>
+    <t>openUBMC各sig组本周(2025-0428~2025-0505)关闭issue统计</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/733/1</t>
+  </si>
+  <si>
+    <t>bmc-core SIG 入门指南</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/167/1</t>
+  </si>
+  <si>
+    <t>openUBMC各sig组本周(2025-0506~2025-0511)关闭issue统计</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/876/1</t>
+  </si>
+  <si>
+    <t>openUBMC品牌包定制指南</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/355/1</t>
+  </si>
+  <si>
+    <t>BMC开发中如何实现DPU网卡启动状态的实时检测与记录</t>
+  </si>
+  <si>
+    <t>【需求】支持DPU网卡启动完成标识记录</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/28</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/15</t>
+  </si>
+  <si>
+    <t>BMC多组件共享白名单配置的维护复杂度问题</t>
+  </si>
+  <si>
+    <t>【需求】基于动态插桩拦截风险接口调用日志，形成通用化命令的白名单配置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/15</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/pcie_device/issues/4</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现NVMe MI over MCTP协议响应码的可靠解析</t>
+  </si>
+  <si>
+    <t>【需求】支持NVMe-mi over mctp的协议解析</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/33</t>
+  </si>
+  <si>
+    <t>【需求】支持解析nvme mi协议响应码信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/8</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>【需求】支持新浪定制化页面显示可插硬盘的槽位总数</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/webui/issues/36</t>
+  </si>
+  <si>
+    <t>支持web页面显示可插硬盘的槽位总数</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/Sina/issues/2</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现CoolingRequirement中SensorName属性在资源树注册</t>
+  </si>
+  <si>
+    <t>bmc.kepler.Systems.CoolingRequirement下私有属性SensorName上树</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/34</t>
+  </si>
+  <si>
+    <t>&lt;thermal_mgmt&gt; bmc.kepler.Systems.CoolingRequirement下私有属性SensorName上树</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/101</t>
+  </si>
+  <si>
+    <t>BMC开发者如何扩展Web和IPMI接口支持风扇duty/speed信息读取</t>
+  </si>
+  <si>
+    <t>【需求】支持获取所有风扇duty和speed等信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/webui/issues/37</t>
+  </si>
+  <si>
+    <t>【需求】支持散热策略规格</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/11</t>
+  </si>
+  <si>
+    <t>BMC开发者如何在lscmd中显示和调试接口执行组件自定义命令用于在线调试</t>
+  </si>
+  <si>
+    <t>支持组件自定义命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/104</t>
+  </si>
+  <si>
+    <t>【需求】支持能效管理子系统组件自定义命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/17</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/7</t>
+  </si>
+  <si>
+    <t>【需求】支持组件自定义命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/21</t>
+  </si>
+  <si>
     <t>BMC开发者如何优化国密证书接口的异常提示机制</t>
   </si>
   <si>
@@ -489,87 +1974,6 @@
     <t>https://gitcode.com/openUBMC/rackmount/issues/23</t>
   </si>
   <si>
-    <t>BMC开发者如何防范开发环境中的文件访问绕过漏洞</t>
-  </si>
-  <si>
-    <t>CVE-2025-31486</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/18</t>
-  </si>
-  <si>
-    <t>CVE-2025-46565</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/21</t>
-  </si>
-  <si>
-    <t>CVE-2025-32395</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/19</t>
-  </si>
-  <si>
-    <t>CVE-2025-30208</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/16</t>
-  </si>
-  <si>
-    <t>CVE-2025-31125</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/17</t>
-  </si>
-  <si>
-    <t>BMC开发者如何在BIOS启动阶段禁用KVM/VNC键盘输入防止密码修改</t>
-  </si>
-  <si>
-    <t>支持BIOS启动过程禁止KVM/VNC键盘输入</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/19</t>
-  </si>
-  <si>
-    <t>支持BIOS在启动阶段禁用键盘</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/20</t>
-  </si>
-  <si>
-    <t>BMC开发者如何提升社区UT IT测试覆盖率和工具贡献效率</t>
-  </si>
-  <si>
-    <t>openUBMC社区测试贡献规划</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/592/1</t>
-  </si>
-  <si>
-    <t>QA 运作规则讨论</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/209/1</t>
-  </si>
-  <si>
-    <t>openUBMC社区QA SIG运作</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/593/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何高效管理openTelemetry API依赖组件</t>
-  </si>
-  <si>
-    <t>提供openTelemetry及依赖开源软件API能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/observability/issues/3</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/conan_index/issues/3</t>
-  </si>
-  <si>
     <t>BMC开发者如何通过Redfish接口实现光模块老化预测功能开关</t>
   </si>
   <si>
@@ -585,138 +1989,6 @@
     <t>https://gitcode.com/openUBMC/mdb_interface/issues/31</t>
   </si>
   <si>
-    <t>如何解决恢复出厂设置后BMC固件升级签名验证异常</t>
-  </si>
-  <si>
-    <t>恢复出厂设置后，BMC升级失败</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1065/1</t>
-  </si>
-  <si>
-    <t>BMC恢复出厂设置之后无法更新固件</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/831/1</t>
-  </si>
-  <si>
-    <t>恢复出厂设置时无法升级</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/11</t>
-  </si>
-  <si>
-    <t>BMC开发者如何高效构建仿真测试环境</t>
-  </si>
-  <si>
-    <t>OpenUBMC社区支持仿真镜像的构建与发布</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/qemu/issues/5</t>
-  </si>
-  <si>
-    <t>OpenUBMC社区支持仿真数据的发布</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/qemu/issues/4</t>
-  </si>
-  <si>
-    <t>OpenUBMC社区支持Qemu工具的构建与发布</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/qemu/issues/3</t>
-  </si>
-  <si>
-    <t>BMC开发者如何在lscmd中显示和调试接口执行组件自定义命令用于在线调试</t>
-  </si>
-  <si>
-    <t>支持组件自定义命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/104</t>
-  </si>
-  <si>
-    <t>【需求】支持能效管理子系统组件自定义命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/17</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/7</t>
-  </si>
-  <si>
-    <t>【需求】支持组件自定义命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/21</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现FPGA自检失败的告警模拟测试</t>
-  </si>
-  <si>
-    <t>【需求】支持FPGA固件周期自检失败的告警</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/30</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/84</t>
-  </si>
-  <si>
-    <t>支持FPGA固件周期自检失败的告警</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/45</t>
-  </si>
-  <si>
-    <t>BMC开发者如何高效配置3000W电源的PMbus告警属性</t>
-  </si>
-  <si>
-    <t>【需求】支持3000W电源管理，新增资源树私有属性CurrentModeLogic</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/account/issues/13</t>
-  </si>
-  <si>
-    <t>【需求】支持3000W电源管理，新增资源树bmc.kepler.Systems.PowerMgmt.OnePower.Status属性CMLStatus</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/44</t>
-  </si>
-  <si>
-    <t>【需求】支持电源继电器状态管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/45</t>
-  </si>
-  <si>
-    <t>BMC配置导出需新增产品类别和软件版本信息支持</t>
-  </si>
-  <si>
-    <t>配置导出项新增BMC软件版本信息和产品类别信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/13</t>
-  </si>
-  <si>
-    <t>配置导入导出新增产品类别信息和BMC软件版本信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/profile_schema/issues/2</t>
-  </si>
-  <si>
-    <t>提供BMC出厂配置定制指导</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/16</t>
-  </si>
-  <si>
-    <t>软件中心需要添加BMCStudio描述和下载页</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/software-center-config/issues/3</t>
-  </si>
-  <si>
     <t>BMC开发者如何统一实现查询指定处理器异构资源属性的Redfish接口</t>
   </si>
   <si>
@@ -732,1186 +2004,37 @@
     <t>https://gitcode.com/openUBMC/vpd/issues/47</t>
   </si>
   <si>
-    <t>开发者实现Redfish Drive资源OEM接口时需解决NVM MI命令与硬件协议栈的兼容性整合</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制SendNvmeMICommand请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/40</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetIdentifyData请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/39</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetAddSmartInfo请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/37</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetTelemetryData请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/13</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/36</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetSmartInfo请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/38</t>
-  </si>
-  <si>
-    <t>BMC开发中如何解决Conan v1弃用导致的头文件缺失编译失败</t>
-  </si>
-  <si>
-    <t>社区lsw编译不过</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/979/1</t>
-  </si>
-  <si>
-    <t>开源首版本编译不过</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/lsw/issues/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现PLDM协议获取网卡信息并集成接口展示</t>
-  </si>
-  <si>
-    <t>【需求】支持使用pldm协议获取网卡相关信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/20</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/19</t>
-  </si>
-  <si>
-    <t>BMC开发者确保SMBIOS协议解析Structure Header Length字段准确</t>
-  </si>
-  <si>
-    <t>解析SMBIOS协议04Type时出现异常</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/1</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/363/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现新的遥测配置管理接口</t>
-  </si>
-  <si>
-    <t>支持遥测上报配置管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/12</t>
-  </si>
-  <si>
-    <t>【需求】 支持遥测上报配置管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/37</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/16</t>
-  </si>
-  <si>
-    <t>【需求】可观测新增redfish、web接口及属性</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/29</t>
-  </si>
-  <si>
-    <t>BMC开发者如何适配BlueField系列设备的调速策略在openUBMC中</t>
-  </si>
-  <si>
-    <t>【需求】支持BlueField-3（B3220）的调速策略配置</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/17</t>
-  </si>
-  <si>
-    <t>【需求】支持BlueField-2（332A）的调速策略</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/18</t>
-  </si>
-  <si>
-    <t>BMC开发者如何规避新增IPMI命令导致组件不可启动问题</t>
-  </si>
-  <si>
-    <t>pcie_device新增IPMI命令导致组件异常问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/595/1</t>
-  </si>
-  <si>
-    <t>非天池组件加载方式</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/610/1</t>
-  </si>
-  <si>
-    <t>标签包裹。</t>
-  </si>
-  <si>
-    <t>【需求】支持NCSI边带管理功能</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/16</t>
-  </si>
-  <si>
-    <t>【需求】开源社区支持NCSI边带管理功能</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/5</t>
-  </si>
-  <si>
-    <t>如何确保BIOS测试命令在高可用环境中的兼容性</t>
-  </si>
-  <si>
-    <t>高可用环境BIOS执行test失败</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/800/1</t>
-  </si>
-  <si>
-    <t>组件内执行bingo test显示测试失败</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/594/1</t>
-  </si>
-  <si>
-    <t>BMC多组件共享白名单配置的维护复杂度问题</t>
-  </si>
-  <si>
-    <t>【需求】基于动态插桩拦截风险接口调用日志，形成通用化命令的白名单配置</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/15</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/pcie_device/issues/4</t>
-  </si>
-  <si>
-    <t>BMC开发者如何通过Redfish和IPMI接口实现硬盘日志收集控制</t>
-  </si>
-  <si>
-    <t>【需求】支持硬盘诊断功能控制</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/106</t>
-  </si>
-  <si>
-    <t>【需求】硬盘诊断功能控制</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/112</t>
-  </si>
-  <si>
-    <t>【需求】支持服务器网络管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/25</t>
-  </si>
-  <si>
-    <t>【需求】支持存储管理能力基线</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/30</t>
-  </si>
-  <si>
-    <t>【需求】支持存储管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/35</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/7</t>
-  </si>
-  <si>
-    <t>BMC开发者在Redfish OEM定制中如何实现存储控制器属性查询</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish接口oem定制查询指定存储资源信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rack_mgmt/issues/2</t>
-  </si>
-  <si>
-    <t>【需求】支持厂商定制化显示存储控制器端口数</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/67</t>
-  </si>
-  <si>
-    <t>BMC开发者如何扩展升级接口参数处理并行升级错误场景</t>
-  </si>
-  <si>
-    <t>【需求】power_mgmt组件适配升级接口参数扩展</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/10</t>
-  </si>
-  <si>
-    <t>【需求】bios组件适配升级接口参数扩展</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/10</t>
-  </si>
-  <si>
-    <t>能效管理适配升级接口参数扩展</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/5</t>
-  </si>
-  <si>
-    <t>general_hardware组件适配升级接口参数</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/11</t>
-  </si>
-  <si>
-    <t>BMC开发中如何实现DPU网卡启动状态的实时检测与记录</t>
-  </si>
-  <si>
-    <t>【需求】支持DPU网卡启动完成标识记录</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/28</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/15</t>
-  </si>
-  <si>
-    <t>开发者在BMC Studio中需手动二次配置因器件库不完整。</t>
-  </si>
-  <si>
-    <t>BMC Studio工具使用反馈</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/714/1</t>
-  </si>
-  <si>
-    <t>[WIP]BMC Studio用户指南</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/221/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何优化RAID日志导出的时延与安全性</t>
-  </si>
-  <si>
-    <t>【需求】支持收集raid卡文本格式日志</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/32</t>
-  </si>
-  <si>
-    <t>【需求】支持一键搜集日志导出raid卡固件日志</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/31</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现日志配置与系统路径的存储隔离迁移</t>
-  </si>
-  <si>
-    <t>支持日志存放位置隔离</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rootfs_user/issues/2</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/23</t>
-  </si>
-  <si>
-    <t>BMC开发者需修正VPD中position描述的映射错误</t>
-  </si>
-  <si>
-    <t>vpd仓库platform.sr.png描述有误</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/360/1</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/2</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现NVMe MI over MCTP协议响应码的可靠解析</t>
-  </si>
-  <si>
-    <t>【需求】支持NVMe-mi over mctp的协议解析</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/33</t>
-  </si>
-  <si>
-    <t>【需求】支持解析nvme mi协议响应码信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/8</t>
-  </si>
-  <si>
-    <t>BMC开发者需统一板卡和MCU一键收集信息的存储路径与命名规范</t>
-  </si>
-  <si>
-    <t>【已评审】支持一键收集导出板卡信息，mcu信息</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/628/1</t>
-  </si>
-  <si>
-    <t>【需求】支持一键收集通用硬件信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/34</t>
-  </si>
-  <si>
-    <t>openUBMC一键收集介绍</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/290/1</t>
-  </si>
-  <si>
-    <t>【问题单】支持一键收集导出板卡信息，mcu信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/10</t>
-  </si>
-  <si>
-    <t>【需求】支持板卡硬件管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/15</t>
-  </si>
-  <si>
-    <t>基础通用问题FAQ</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/292/1</t>
-  </si>
-  <si>
-    <t>openUBMC各sig组本周(2025-0421-2025-0427)关闭issue统计</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/672/1</t>
-  </si>
-  <si>
-    <t>openUBMC各sig组本周(2025-0428~2025-0505)关闭issue统计</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/733/1</t>
-  </si>
-  <si>
-    <t>bmc-core SIG 入门指南</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/167/1</t>
-  </si>
-  <si>
-    <t>openUBMC各sig组本周(2025-0506~2025-0511)关闭issue统计</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/876/1</t>
-  </si>
-  <si>
-    <t>openUBMC品牌包定制指南</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/355/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现bingo SDK版本自动化兼容性校验</t>
-  </si>
-  <si>
-    <t>应支持bingo、构建工具、sdk之间的版本配套</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/414/1</t>
-  </si>
-  <si>
-    <t>【需求】bingo支持组件的全量二进制构建</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bingo/issues/12</t>
-  </si>
-  <si>
-    <t>BMC开发者实现升级时多签名机制兼容性</t>
-  </si>
-  <si>
-    <t>能否实现伙伴签名的openUBMC版本直接升级华为签名的各种固件？</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/335/1</t>
-  </si>
-  <si>
-    <t>伙伴openubmc版本如何支持升级华为签名固件版本和伙伴自己签名的固件版本均能成功？</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1083/1</t>
-  </si>
-  <si>
-    <t>使用openubmc进行bios固件升级，提示无效的升级包</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/182/1</t>
-  </si>
-  <si>
-    <t>刷了华为根的机器是否可以直接刷伙伴根</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/933/1</t>
-  </si>
-  <si>
-    <t>BMC固件开发中如何确保网卡扩展与历史协议兼容</t>
-  </si>
-  <si>
-    <t>【需求】网卡适配组件兼容历史网卡功能</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/6</t>
-  </si>
-  <si>
-    <t>【需求】网卡支持南向部件驱动接口</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/17</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/18</t>
-  </si>
-  <si>
-    <t>BMC开发者需修正BIOS组件生效流程图的逻辑错误</t>
-  </si>
-  <si>
-    <t>bios组件生效流程流程图错误</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/17</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/19</t>
-  </si>
-  <si>
-    <t>BMC开发者如何更新通用和异构硬件适配文档资源</t>
-  </si>
-  <si>
-    <t>【需求】社区更新通用硬件相关文档</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/19</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/13</t>
-  </si>
-  <si>
-    <t>【需求】社区更新设备管理规范相关文档</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/14</t>
-  </si>
-  <si>
-    <t>【需求】社区补齐异构硬件相关文档</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/17</t>
-  </si>
-  <si>
-    <t>【需求】社区更新能效管理相关文档</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/16</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/20</t>
-  </si>
-  <si>
-    <t>如何避免CRPS电源适配中SlotNumber配置错误</t>
-  </si>
-  <si>
-    <t>pmbus CRPS电源适配</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/240/1</t>
-  </si>
-  <si>
-    <t>电源适配指导</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1101/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何高效实现电链路统计数据采集接口</t>
-  </si>
-  <si>
-    <t>【需求】支持NPU参数面端口电链路数据采集</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/8</t>
-  </si>
-  <si>
-    <t>【需求】支持NPU参数面光模块数据采集接口增加电链路数据</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/7</t>
-  </si>
-  <si>
-    <t>BMC开发者如何解决PXE阶段因POST未完成导致重启失败</t>
-  </si>
-  <si>
-    <t>【问题单】定制后bios处于PXE阶段时重启BMC失败</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/19</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/sensor/issues/10</t>
-  </si>
-  <si>
-    <t>BMC开发者如何修正ProcessorID属性类型以符合SMBIOS协议</t>
-  </si>
-  <si>
-    <t>bmc.kepler.Systems.Processor.CPU的ProcessorID为U32类型，与SMBIOS协议不一致</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/30</t>
-  </si>
-  <si>
-    <t>【问题单】CPU的ProcessorID属性定义与SMBIOS协议规定不符</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/75</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/47</t>
-  </si>
-  <si>
-    <t>CPU类的ProcessorID属性定义为U32类型，与SMBIOS协议范围（QWORD）不一致</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/362/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何解决固件并行升级总线互斥问题</t>
-  </si>
-  <si>
-    <t>【需求】支持固件升级流程总线互斥</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/21</t>
-  </si>
-  <si>
-    <t>固件升级流程总线互斥</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/10</t>
-  </si>
-  <si>
-    <t>【需求】能效管理固件升级流程总线互斥</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/11</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/11</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现Power资源的Redfish新标准适配</t>
-  </si>
-  <si>
-    <t>BMC开发中如何通过REDfish协议实现PrivilegeMap配置同步与用户校验提示优化</t>
-  </si>
-  <si>
-    <t>【需求】RAS接口支持配置PrivilegeMap信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/53</t>
-  </si>
-  <si>
-    <t>电源信息获取优化</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/4</t>
-  </si>
-  <si>
-    <t>支持节点模式设置</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/5</t>
-  </si>
-  <si>
-    <t>电源转化器型号显示修改</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/3</t>
-  </si>
-  <si>
-    <t>支持新增自定义用户组设置</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/account/issues/11</t>
-  </si>
-  <si>
-    <t>支持配置PrivilegeMap信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/account/issues/12</t>
-  </si>
-  <si>
-    <t>支持用户名校验定制后的用户提示优化</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/account/issues/5</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/31</t>
-  </si>
-  <si>
-    <t>文档持续更新</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/1</t>
-  </si>
-  <si>
-    <t>文档描述优化</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/6</t>
-  </si>
-  <si>
-    <t>如何通过原子能力实现电源冗余模式配置与功率封顶参数管理</t>
-  </si>
-  <si>
-    <t>【需求】支持Power资源新增修改电源冗余模式</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/31</t>
-  </si>
-  <si>
-    <t>【需求】支持查询冗余供电信息能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/27</t>
-  </si>
-  <si>
-    <t>【需求】支持查询电源模块信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/28</t>
-  </si>
-  <si>
-    <t>【需求】支持查询系统供电信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/29</t>
-  </si>
-  <si>
-    <t>【需求】支持查询电源FRU信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/22</t>
-  </si>
-  <si>
-    <t>【需求】支持监控电源不匹配检测原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/36</t>
-  </si>
-  <si>
-    <t>【需求】支持设置功耗过高告警阈值原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/25</t>
-  </si>
-  <si>
-    <t>【需求】支持查询功耗过高告警阈值原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/20</t>
-  </si>
-  <si>
-    <t>【需求】支持采集电源FRU信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/34</t>
-  </si>
-  <si>
-    <t>【需求】支持查询指定机箱电源信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/23</t>
-  </si>
-  <si>
-    <t>【需求】支持设置冗余供电模式能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/26</t>
-  </si>
-  <si>
-    <t>【需求】支持优化供电模式切换特性</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/9</t>
-  </si>
-  <si>
-    <t>【需求】支持设置功率封顶参数原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/24</t>
-  </si>
-  <si>
-    <t>【需求】支持查询风扇信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/16</t>
-  </si>
-  <si>
-    <t>【需求】支持查询历史系统功率信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/30</t>
-  </si>
-  <si>
-    <t>【需求】支持功率采集及查询原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/37</t>
-  </si>
-  <si>
-    <t>【需求】支持查询功率封顶参数原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/21</t>
-  </si>
-  <si>
-    <t>【需求】支持查询最大风扇&amp;电源个数信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/14</t>
-  </si>
-  <si>
-    <t>【需求】支持查询温度信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/15</t>
-  </si>
-  <si>
-    <t>【需求】支持温度采集及查询原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/20</t>
-  </si>
-  <si>
-    <t>【需求】支持查询进风口历史温度信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/17</t>
-  </si>
-  <si>
-    <t>如何验证Thermal/Power资源对Redfish新标准接口的完整兼容性及运维场景可行性</t>
-  </si>
-  <si>
-    <t>【需求】Power相关资源支持redfish新标准</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/19</t>
-  </si>
-  <si>
-    <t>【需求】Thermal相关资源支持redfish新标准</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/13</t>
-  </si>
-  <si>
-    <t>【需求】Power资源支持redfish新标准</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/113</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/106</t>
-  </si>
-  <si>
-    <t>【需求】能效管理支持Chassis资源redfish新标准</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/18</t>
-  </si>
-  <si>
-    <t>【需求】【PowerStrategy】支持Web界面提示优选主用电源</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/webui/issues/39</t>
-  </si>
-  <si>
-    <t>支持web界面显示优选电源工作模式及主用电源列表</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/111</t>
-  </si>
-  <si>
-    <t>【需求】支持新增自定义用户/用户组设置</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/webui/issues/38</t>
-  </si>
-  <si>
-    <t>BMC开发者需解决一键部署中的Conan组件拉取机制稳定性问题</t>
-  </si>
-  <si>
-    <t>bmc studio使用问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1012/1</t>
-  </si>
-  <si>
-    <t>BMC_STUDIO仓库一键部署，丢失响应，无成功，无失败反馈</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/962/1</t>
-  </si>
-  <si>
-    <t>使用bmc_studio遇到的问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/925/1</t>
-  </si>
-  <si>
-    <t>BMC Studio问题反馈</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/707/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何解决固件升级中的证书校验失败</t>
-  </si>
-  <si>
-    <t>使用社区最新出包，升级hpm失败，查看m3log get cert fail!</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/498/1</t>
-  </si>
-  <si>
-    <t>最新 source 包烧录异常问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/173/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何在直通场景下实现NVMe SSD自定义SMART监控</t>
-  </si>
-  <si>
-    <t>【需求】支持自定义SMART信息的NVMe SSD盘写放大监控</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/28</t>
-  </si>
-  <si>
-    <t>【需求】支持从带内获取SMART NVMe SSD盘冗余块信息并监控</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/24</t>
-  </si>
-  <si>
-    <t>【需求】支持获取NVMe SSD盘自定义SMART信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/27</t>
-  </si>
-  <si>
-    <t>【需求】支持从带内获取厂商SMART NVMe SSD盘冗余块信息并监控</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/10</t>
-  </si>
-  <si>
-    <t>【需求】支持自定义的SMART NVMe SSD盘亚健康检测</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/23</t>
-  </si>
-  <si>
-    <t>【需求】支持自定义SMART信息的NVMe SSD盘预估寿命新增计算参数</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/25</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现SystemInfoTable属性的持久化存储以支持IPMI标准命令</t>
-  </si>
-  <si>
-    <t>IPMI2.0标准接口能力新增私有属性保存system info信息</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1100/1</t>
-  </si>
-  <si>
-    <t>【需求】支持Get System Info标准命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/12</t>
-  </si>
-  <si>
-    <t>【需求】支持Set System Info标准命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/13</t>
-  </si>
-  <si>
-    <t>BMC开发者如何设计CLI并发收集NPU/CPU日志的失败处理</t>
-  </si>
-  <si>
-    <t>【需求】 支持CLI导出NPU DFX日志</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/48</t>
-  </si>
-  <si>
-    <t>【需求】支持CLI导出CPU DFX日志</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/46</t>
-  </si>
-  <si>
-    <t>BMC开发者如何申请使用自动化测试框架</t>
-  </si>
-  <si>
-    <t>怎么申请使用kptest框架和itestsmart工具呢</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/665/1</t>
-  </si>
-  <si>
-    <t>kptest框架与KPTestOpenFramework工程、iTestSmart工具介绍</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/832/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何提升多模组固件升级健壮性</t>
-  </si>
-  <si>
-    <t>【需求】支持多模组CSR固件升级健壮性提升</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/24</t>
-  </si>
-  <si>
-    <t>【需求】支持多模组VRD固件升级健壮性提升</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/26</t>
-  </si>
-  <si>
-    <t>【需求】支持多模组CPLD固件升级健壮性提升</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/25</t>
-  </si>
-  <si>
-    <t>【需求】支持多模组MCU固件升级健壮性提升</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/27</t>
-  </si>
-  <si>
-    <t>CPLD 升级 MultipleSuppliersMode MIXED Mode 功能背景了解</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/886/1</t>
-  </si>
-  <si>
-    <t>【需求】支持MCU子固件升级时版本号校验</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/23</t>
-  </si>
-  <si>
-    <t>解决BMC过渡包升级中签名链更新缺失导致的校验失败</t>
-  </si>
-  <si>
-    <t>制作反向过渡包时碰到的疑问</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/723/1</t>
-  </si>
-  <si>
-    <t>25.03构建出包以及伙伴签名问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/390/1</t>
-  </si>
-  <si>
-    <t>25.03版本的构建环境搭建：dockerfile创建镜像失败</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/409/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现PCIe Switch Flash升级组件的集成</t>
-  </si>
-  <si>
-    <t>PCIe Switch 芯片的Flash升级</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/721/1</t>
-  </si>
-  <si>
-    <t>【讨论】PCIe Switch场景下如何加载PCIe卡</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/722/1</t>
-  </si>
-  <si>
-    <t>如何优化BMC日志、跟踪和度量数据的采集与存储效率</t>
-  </si>
-  <si>
-    <t>提供跟踪数据采集和存储能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/observability/issues/4</t>
-  </si>
-  <si>
-    <t>提供度量数据采集和存储能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/observability/issues/2</t>
-  </si>
-  <si>
-    <t>提供日志数据采集和存储能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/observability/issues/5</t>
-  </si>
-  <si>
-    <t>BMC开发者如何为thermal和power管理组件实现业务场景的白名单配置基线化</t>
-  </si>
-  <si>
-    <t>【需求】power_mgmt组件明确业务场景下的白名单化配置并形成基线</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/45</t>
-  </si>
-  <si>
-    <t>【需求】thermal_mgmt组件明确业务场景下的白名单化配置并形成基线</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/25</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现CSR文件损坏的检测与自修复</t>
-  </si>
-  <si>
-    <t>CSR文件损坏之后的恢复能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/4</t>
-  </si>
-  <si>
-    <t>CSR文件损坏恢复能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/9</t>
-  </si>
-  <si>
-    <t>BMC开发者亟需开源应用框架开发指导文档</t>
-  </si>
-  <si>
-    <t>提供应用框架开发指导</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/15</t>
-  </si>
-  <si>
-    <t>【需求】社区提供开源项目开发者指南</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/webui/issues/19</t>
-  </si>
-  <si>
-    <t>BMC开发者需解决权限限制下的升级恢复接口错误问题</t>
-  </si>
-  <si>
-    <t>【变更声明】Redfish升级接口权限变更</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/732/1</t>
-  </si>
-  <si>
-    <t>Redfish 升级接口 SimpleUpdate 关于在支持升级之后清除配置功能接口变更</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/32</t>
-  </si>
-  <si>
-    <t>BMC开发者如何统一实现多品牌新款SATA硬盘的纳管支持？</t>
-  </si>
-  <si>
-    <t>【需求】支持新增希捷SATA盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/42</t>
-  </si>
-  <si>
-    <t>【需求】支持新增西数SATA盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/43</t>
-  </si>
-  <si>
-    <t>【需求】支持新增东芝SATA盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/45</t>
-  </si>
-  <si>
-    <t>BMC开发者需实现NVMe盘多型号识别与管理兼容性</t>
-  </si>
-  <si>
-    <t>【需求】支持新增华为厂商NVMe盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/41</t>
-  </si>
-  <si>
-    <t>【需求】支持新增Memblaze厂商NVMe盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/44</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现Redfish接口查询指定PCIe设备资源信息</t>
-  </si>
-  <si>
-    <t>【需求】支持查询指定PCIEDevices资源信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/pcie_device/issues/5</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/16</t>
-  </si>
-  <si>
-    <t>话题总数：0</t>
+    <t>BMC开发者在支持Localbus与Hisport总线仿真中需解决协议交互及性能兼容性等问题</t>
+  </si>
+  <si>
+    <t>【需求】支持板卡Localbus总线的仿真</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/qemu/issues/7</t>
+  </si>
+  <si>
+    <t>BMC开发者如何确保Redfish EthernetInterfaces兼容标准属性</t>
+  </si>
+  <si>
+    <t>支持Redfish接口EthernetInterfaces资源下Links等标准属性</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/37</t>
+  </si>
+  <si>
+    <t>话题总数：58</t>
+  </si>
+  <si>
+    <t>话题总数：1</t>
+  </si>
+  <si>
+    <t>话题总数：7</t>
   </si>
   <si>
     <t>话题总数：3</t>
   </si>
   <si>
-    <t>话题总数：58</t>
-  </si>
-  <si>
-    <t>话题总数：1</t>
+    <t>话题总数：2</t>
   </si>
 </sst>
 </file>
@@ -3004,8 +3127,300 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>338</v>
+      </c>
+      <c r="C6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>510</v>
+      </c>
+      <c r="C10" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>512</v>
+      </c>
+      <c r="C11" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>556</v>
+      </c>
+      <c r="C15" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>556</v>
+      </c>
+      <c r="C16" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>556</v>
+      </c>
+      <c r="C17" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>583</v>
+      </c>
+      <c r="C21" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>585</v>
+      </c>
+      <c r="C22" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>624</v>
+      </c>
+      <c r="C26" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>626</v>
+      </c>
+      <c r="C27" t="s">
         <v>627</v>
       </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>629</v>
+      </c>
+      <c r="C31" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>631</v>
+      </c>
+      <c r="C32" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>634</v>
+      </c>
+      <c r="C36" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>636</v>
+      </c>
+      <c r="C37" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
     </row>
   </sheetData>
 </worksheet>
@@ -3020,7 +3435,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>628</v>
+        <v>670</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -3032,7 +3447,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4">
@@ -3045,21 +3460,21 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>122</v>
+        <v>342</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>123</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" t="s">
-        <v>125</v>
+      <c r="B6" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="7">
@@ -3067,10 +3482,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>346</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8">
@@ -3078,10 +3493,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>348</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9">
@@ -3089,10 +3504,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>350</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10">
@@ -3100,54 +3515,39 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>342</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" t="s">
-        <v>134</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" t="s">
-        <v>136</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" t="s">
-        <v>137</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="B14" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" t="s">
-        <v>138</v>
+      <c r="B14" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="15">
@@ -3155,10 +3555,10 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>464</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>465</v>
       </c>
     </row>
     <row r="16">
@@ -3166,10 +3566,10 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>466</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>467</v>
       </c>
     </row>
     <row r="17">
@@ -3177,10 +3577,10 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>466</v>
       </c>
       <c r="C17" t="s">
-        <v>142</v>
+        <v>468</v>
       </c>
     </row>
     <row r="18">
@@ -3188,10 +3588,10 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>469</v>
       </c>
       <c r="C18" t="s">
-        <v>143</v>
+        <v>470</v>
       </c>
     </row>
     <row r="19">
@@ -3199,10 +3599,10 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>144</v>
+        <v>471</v>
       </c>
       <c r="C19" t="s">
-        <v>145</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20">
@@ -3210,10 +3610,10 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>140</v>
+        <v>473</v>
       </c>
       <c r="C20" t="s">
-        <v>146</v>
+        <v>474</v>
       </c>
     </row>
     <row r="21">
@@ -3221,10 +3621,10 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>147</v>
+        <v>475</v>
       </c>
       <c r="C21" t="s">
-        <v>148</v>
+        <v>476</v>
       </c>
     </row>
     <row r="22">
@@ -3232,39 +3632,54 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>149</v>
+        <v>475</v>
       </c>
       <c r="C22" t="s">
-        <v>150</v>
+        <v>477</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>475</v>
+      </c>
+      <c r="C23" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>202</v>
+        <v>475</v>
+      </c>
+      <c r="C24" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>480</v>
+      </c>
+      <c r="C25" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>204</v>
+      <c r="B26" t="s">
+        <v>480</v>
+      </c>
+      <c r="C26" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="27">
@@ -3272,10 +3687,10 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>205</v>
+        <v>480</v>
       </c>
       <c r="C27" t="s">
-        <v>206</v>
+        <v>483</v>
       </c>
     </row>
     <row r="28">
@@ -3283,10 +3698,10 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>205</v>
+        <v>484</v>
       </c>
       <c r="C28" t="s">
-        <v>207</v>
+        <v>485</v>
       </c>
     </row>
     <row r="29">
@@ -3294,61 +3709,61 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>208</v>
+        <v>480</v>
       </c>
       <c r="C29" t="s">
-        <v>209</v>
+        <v>486</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>487</v>
+      </c>
+      <c r="C30" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>294</v>
+        <v>489</v>
+      </c>
+      <c r="C31" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
-        <v>5</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>296</v>
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>298</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>6</v>
       </c>
-      <c r="B35" t="s">
-        <v>299</v>
-      </c>
-      <c r="C35" t="s">
-        <v>300</v>
+      <c r="B35" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="36">
@@ -3356,10 +3771,10 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>301</v>
+        <v>641</v>
       </c>
       <c r="C36" t="s">
-        <v>302</v>
+        <v>642</v>
       </c>
     </row>
     <row r="37">
@@ -3367,10 +3782,10 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>303</v>
+        <v>641</v>
       </c>
       <c r="C37" t="s">
-        <v>304</v>
+        <v>643</v>
       </c>
     </row>
     <row r="38">
@@ -3378,10 +3793,10 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>295</v>
+        <v>644</v>
       </c>
       <c r="C38" t="s">
-        <v>305</v>
+        <v>645</v>
       </c>
     </row>
     <row r="39">
@@ -3402,11 +3817,92 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>627</v>
+        <v>671</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+    </row>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
     </row>
   </sheetData>
 </worksheet>
@@ -3421,7 +3917,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>629</v>
+        <v>667</v>
       </c>
     </row>
     <row r="2"/>
@@ -3430,7 +3926,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4">
@@ -3443,10 +3939,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6">
@@ -3454,10 +3950,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7">
@@ -3470,7 +3966,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
@@ -3483,10 +3979,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
@@ -3494,10 +3990,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
@@ -3505,90 +4001,90 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="C12" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>163</v>
-      </c>
-      <c r="C13" t="s">
-        <v>164</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>165</v>
-      </c>
-      <c r="C14" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>167</v>
+        <v>134</v>
+      </c>
+      <c r="C16" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" t="s">
-        <v>168</v>
-      </c>
-      <c r="C18" t="s">
-        <v>169</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C19" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>172</v>
+        <v>138</v>
+      </c>
+      <c r="C21" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="23">
@@ -3596,254 +4092,239 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="C23" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" t="s">
-        <v>175</v>
-      </c>
-      <c r="C24" t="s">
-        <v>176</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>177</v>
-      </c>
-      <c r="C25" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>179</v>
+        <v>145</v>
+      </c>
+      <c r="C27" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" t="s">
-        <v>180</v>
-      </c>
-      <c r="C29" t="s">
-        <v>181</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>180</v>
-      </c>
-      <c r="C30" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>183</v>
+        <v>149</v>
+      </c>
+      <c r="C32" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" t="s">
-        <v>184</v>
-      </c>
-      <c r="C34" t="s">
-        <v>185</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C35" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>188</v>
+        <v>153</v>
+      </c>
+      <c r="C37" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" t="s">
-        <v>189</v>
-      </c>
-      <c r="C39" t="s">
-        <v>190</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>191</v>
-      </c>
-      <c r="C40" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" t="s">
-        <v>193</v>
-      </c>
-      <c r="C41" t="s">
-        <v>194</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>195</v>
+        <v>160</v>
+      </c>
+      <c r="C43" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" t="s">
-        <v>196</v>
-      </c>
-      <c r="C45" t="s">
-        <v>197</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>198</v>
-      </c>
-      <c r="C46" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" t="s">
-        <v>200</v>
-      </c>
-      <c r="C47" t="s">
-        <v>201</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>210</v>
+        <v>165</v>
+      </c>
+      <c r="C49" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s">
-        <v>5</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>211</v>
-      </c>
-      <c r="C51" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" t="s">
-        <v>211</v>
-      </c>
-      <c r="C52" t="s">
-        <v>213</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
@@ -3851,79 +4332,94 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="C53" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>171</v>
+      </c>
+      <c r="C54" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>216</v>
+        <v>173</v>
+      </c>
+      <c r="C55" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
+        <v>175</v>
+      </c>
+      <c r="C56" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" t="s">
-        <v>217</v>
-      </c>
-      <c r="C57" t="s">
-        <v>218</v>
-      </c>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>219</v>
-      </c>
-      <c r="C58" t="s">
-        <v>220</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" t="s">
-        <v>221</v>
-      </c>
-      <c r="C59" t="s">
-        <v>222</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>223</v>
+        <v>180</v>
+      </c>
+      <c r="C61" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
+        <v>182</v>
+      </c>
+      <c r="C62" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="63">
@@ -3931,10 +4427,10 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="C63" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64">
@@ -3942,10 +4438,10 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="C64" t="s">
-        <v>227</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65">
@@ -3953,39 +4449,39 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>228</v>
+        <v>187</v>
       </c>
       <c r="C65" t="s">
-        <v>229</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s">
-        <v>6</v>
-      </c>
-      <c r="B66" t="s">
-        <v>230</v>
-      </c>
-      <c r="C66" t="s">
-        <v>231</v>
-      </c>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
     </row>
     <row r="67">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>3</v>
-      </c>
-      <c r="B68" t="s">
-        <v>232</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B69" t="s">
+        <v>190</v>
+      </c>
+      <c r="C69" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="70">
@@ -3993,83 +4489,68 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="C70" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s">
-        <v>6</v>
-      </c>
-      <c r="B71" t="s">
-        <v>233</v>
-      </c>
-      <c r="C71" t="s">
-        <v>235</v>
-      </c>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>233</v>
-      </c>
-      <c r="C72" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>237</v>
+        <v>195</v>
+      </c>
+      <c r="C74" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B75" t="s">
+        <v>195</v>
+      </c>
+      <c r="C75" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s">
-        <v>6</v>
-      </c>
-      <c r="B76" t="s">
-        <v>238</v>
-      </c>
-      <c r="C76" t="s">
-        <v>239</v>
-      </c>
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>240</v>
-      </c>
-      <c r="C77" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>6</v>
-      </c>
-      <c r="B78" t="s">
-        <v>242</v>
-      </c>
-      <c r="C78" t="s">
-        <v>243</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
@@ -4077,10 +4558,10 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="C79" t="s">
-        <v>245</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80">
@@ -4088,39 +4569,39 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="C80" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s">
-        <v>6</v>
-      </c>
-      <c r="B81" t="s">
-        <v>247</v>
-      </c>
-      <c r="C81" t="s">
-        <v>248</v>
-      </c>
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
     </row>
     <row r="82">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
+      <c r="A82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>3</v>
-      </c>
-      <c r="B83" t="s">
-        <v>249</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B84" t="s">
+        <v>204</v>
+      </c>
+      <c r="C84" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="85">
@@ -4128,39 +4609,39 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>250</v>
+        <v>206</v>
       </c>
       <c r="C85" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s">
-        <v>6</v>
-      </c>
-      <c r="B86" t="s">
-        <v>252</v>
-      </c>
-      <c r="C86" t="s">
-        <v>253</v>
-      </c>
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
     </row>
     <row r="87">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>3</v>
-      </c>
-      <c r="B88" t="s">
-        <v>254</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B89" t="s">
+        <v>209</v>
+      </c>
+      <c r="C89" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="90">
@@ -4168,10 +4649,10 @@
         <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="C90" t="s">
-        <v>256</v>
+        <v>212</v>
       </c>
     </row>
     <row r="91">
@@ -4179,68 +4660,83 @@
         <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="C91" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" t="s">
+        <v>215</v>
+      </c>
+      <c r="C92" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>258</v>
+        <v>217</v>
+      </c>
+      <c r="C93" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B94" t="s">
+        <v>219</v>
+      </c>
+      <c r="C94" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s">
-        <v>6</v>
-      </c>
-      <c r="B95" t="s">
-        <v>259</v>
-      </c>
-      <c r="C95" t="s">
-        <v>260</v>
-      </c>
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B96" t="s">
-        <v>259</v>
-      </c>
-      <c r="C96" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>262</v>
+        <v>222</v>
+      </c>
+      <c r="C98" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B99" t="s">
+        <v>224</v>
+      </c>
+      <c r="C99" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="100">
@@ -4248,10 +4744,10 @@
         <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="C100" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
     </row>
     <row r="101">
@@ -4259,10 +4755,10 @@
         <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="C101" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
     </row>
     <row r="102">
@@ -4270,39 +4766,39 @@
         <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="C102" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s">
-        <v>6</v>
-      </c>
-      <c r="B103" t="s">
-        <v>268</v>
-      </c>
-      <c r="C103" t="s">
-        <v>269</v>
-      </c>
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
     </row>
     <row r="104">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
+      <c r="A104" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>3</v>
-      </c>
-      <c r="B105" t="s">
-        <v>270</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B106" t="s">
+        <v>233</v>
+      </c>
+      <c r="C106" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="107">
@@ -4310,39 +4806,39 @@
         <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="C107" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s">
-        <v>6</v>
-      </c>
-      <c r="B108" t="s">
-        <v>273</v>
-      </c>
-      <c r="C108" t="s">
-        <v>274</v>
-      </c>
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
     </row>
     <row r="109">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
+      <c r="A109" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>3</v>
-      </c>
-      <c r="B110" t="s">
-        <v>275</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B111" t="s">
+        <v>238</v>
+      </c>
+      <c r="C111" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="112">
@@ -4350,39 +4846,39 @@
         <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="C112" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s">
-        <v>6</v>
-      </c>
-      <c r="B113" t="s">
-        <v>278</v>
-      </c>
-      <c r="C113" t="s">
-        <v>279</v>
-      </c>
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
     </row>
     <row r="114">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
+      <c r="A114" t="s">
+        <v>3</v>
+      </c>
+      <c r="B114" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>3</v>
-      </c>
-      <c r="B115" t="s">
-        <v>280</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B116" t="s">
+        <v>243</v>
+      </c>
+      <c r="C116" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="117">
@@ -4390,10 +4886,10 @@
         <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="C117" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
     </row>
     <row r="118">
@@ -4401,39 +4897,39 @@
         <v>6</v>
       </c>
       <c r="B118" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="C118" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
+      <c r="A119" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" t="s">
+        <v>249</v>
+      </c>
+      <c r="C119" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="120">
-      <c r="A120" t="s">
-        <v>3</v>
-      </c>
-      <c r="B120" t="s">
-        <v>285</v>
-      </c>
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B121" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>6</v>
-      </c>
-      <c r="B122" t="s">
-        <v>286</v>
-      </c>
-      <c r="C122" t="s">
-        <v>287</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123">
@@ -4441,39 +4937,39 @@
         <v>6</v>
       </c>
       <c r="B123" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="C123" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
+      <c r="A124" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124" t="s">
+        <v>252</v>
+      </c>
+      <c r="C124" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="125">
-      <c r="A125" t="s">
-        <v>3</v>
-      </c>
-      <c r="B125" t="s">
-        <v>290</v>
-      </c>
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B126" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>6</v>
-      </c>
-      <c r="B127" t="s">
-        <v>291</v>
-      </c>
-      <c r="C127" t="s">
-        <v>292</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128">
@@ -4481,101 +4977,101 @@
         <v>6</v>
       </c>
       <c r="B128" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="C128" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
+      <c r="A129" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129" t="s">
+        <v>258</v>
+      </c>
+      <c r="C129" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B130" t="s">
-        <v>306</v>
+        <v>260</v>
+      </c>
+      <c r="C130" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B131" t="s">
+        <v>262</v>
+      </c>
+      <c r="C131" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s">
-        <v>6</v>
-      </c>
-      <c r="B132" t="s">
-        <v>307</v>
-      </c>
-      <c r="C132" t="s">
-        <v>308</v>
-      </c>
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>309</v>
-      </c>
-      <c r="C133" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
+      <c r="A134" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B135" t="s">
-        <v>311</v>
+        <v>265</v>
+      </c>
+      <c r="C135" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B136" t="s">
+        <v>267</v>
+      </c>
+      <c r="C136" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s">
-        <v>6</v>
-      </c>
-      <c r="B137" t="s">
-        <v>312</v>
-      </c>
-      <c r="C137" t="s">
-        <v>313</v>
-      </c>
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B138" t="s">
-        <v>314</v>
-      </c>
-      <c r="C138" t="s">
-        <v>315</v>
+        <v>269</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>6</v>
-      </c>
-      <c r="B139" t="s">
-        <v>316</v>
-      </c>
-      <c r="C139" t="s">
-        <v>317</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140">
@@ -4583,108 +5079,123 @@
         <v>6</v>
       </c>
       <c r="B140" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="C140" t="s">
-        <v>319</v>
+        <v>271</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
+      <c r="A141" t="s">
+        <v>6</v>
+      </c>
+      <c r="B141" t="s">
+        <v>272</v>
+      </c>
+      <c r="C141" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B142" t="s">
-        <v>320</v>
+        <v>274</v>
+      </c>
+      <c r="C142" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B143" t="s">
+        <v>276</v>
+      </c>
+      <c r="C143" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s">
-        <v>6</v>
-      </c>
-      <c r="B144" t="s">
-        <v>321</v>
-      </c>
-      <c r="C144" t="s">
-        <v>322</v>
-      </c>
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B145" t="s">
-        <v>321</v>
-      </c>
-      <c r="C145" t="s">
-        <v>323</v>
+        <v>278</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
+      <c r="A146" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B147" t="s">
-        <v>324</v>
+        <v>279</v>
+      </c>
+      <c r="C147" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B148" t="s">
+        <v>281</v>
+      </c>
+      <c r="C148" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s">
-        <v>6</v>
-      </c>
-      <c r="B149" t="s">
-        <v>325</v>
-      </c>
-      <c r="C149" t="s">
-        <v>326</v>
-      </c>
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B150" t="s">
-        <v>327</v>
-      </c>
-      <c r="C150" t="s">
-        <v>328</v>
+        <v>283</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
+      <c r="A151" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B152" t="s">
-        <v>329</v>
+        <v>284</v>
+      </c>
+      <c r="C152" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B153" t="s">
+        <v>286</v>
+      </c>
+      <c r="C153" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="154">
@@ -4692,10 +5203,10 @@
         <v>6</v>
       </c>
       <c r="B154" t="s">
-        <v>330</v>
+        <v>284</v>
       </c>
       <c r="C154" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
     </row>
     <row r="155">
@@ -4703,10 +5214,10 @@
         <v>6</v>
       </c>
       <c r="B155" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="C155" t="s">
-        <v>333</v>
+        <v>290</v>
       </c>
     </row>
     <row r="156">
@@ -4719,7 +5230,7 @@
         <v>3</v>
       </c>
       <c r="B157" t="s">
-        <v>334</v>
+        <v>291</v>
       </c>
     </row>
     <row r="158">
@@ -4732,10 +5243,10 @@
         <v>6</v>
       </c>
       <c r="B159" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="C159" t="s">
-        <v>336</v>
+        <v>293</v>
       </c>
     </row>
     <row r="160">
@@ -4743,28 +5254,43 @@
         <v>6</v>
       </c>
       <c r="B160" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="C160" t="s">
-        <v>337</v>
+        <v>294</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
+      <c r="A161" t="s">
+        <v>6</v>
+      </c>
+      <c r="B161" t="s">
+        <v>295</v>
+      </c>
+      <c r="C161" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B162" t="s">
-        <v>338</v>
+        <v>297</v>
+      </c>
+      <c r="C162" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B163" t="s">
+        <v>299</v>
+      </c>
+      <c r="C163" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="164">
@@ -4772,39 +5298,39 @@
         <v>6</v>
       </c>
       <c r="B164" t="s">
-        <v>339</v>
+        <v>295</v>
       </c>
       <c r="C164" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s">
-        <v>6</v>
-      </c>
-      <c r="B165" t="s">
-        <v>339</v>
-      </c>
-      <c r="C165" t="s">
-        <v>341</v>
-      </c>
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
     </row>
     <row r="166">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
+      <c r="A166" t="s">
+        <v>3</v>
+      </c>
+      <c r="B166" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>3</v>
-      </c>
-      <c r="B167" t="s">
-        <v>342</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B168" t="s">
+        <v>303</v>
+      </c>
+      <c r="C168" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="169">
@@ -4812,39 +5338,39 @@
         <v>6</v>
       </c>
       <c r="B169" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="C169" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s">
-        <v>6</v>
-      </c>
-      <c r="B170" t="s">
-        <v>345</v>
-      </c>
-      <c r="C170" t="s">
-        <v>346</v>
-      </c>
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
     </row>
     <row r="171">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
+      <c r="A171" t="s">
+        <v>3</v>
+      </c>
+      <c r="B171" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>3</v>
-      </c>
-      <c r="B172" t="s">
-        <v>347</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B173" t="s">
+        <v>308</v>
+      </c>
+      <c r="C173" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="174">
@@ -4852,10 +5378,10 @@
         <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
       <c r="C174" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
     </row>
     <row r="175">
@@ -4863,10 +5389,10 @@
         <v>6</v>
       </c>
       <c r="B175" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="C175" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
     </row>
     <row r="176">
@@ -4874,43 +5400,28 @@
         <v>6</v>
       </c>
       <c r="B176" t="s">
-        <v>352</v>
+        <v>312</v>
       </c>
       <c r="C176" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s">
-        <v>6</v>
-      </c>
-      <c r="B177" t="s">
-        <v>354</v>
-      </c>
-      <c r="C177" t="s">
-        <v>355</v>
-      </c>
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B178" t="s">
-        <v>356</v>
-      </c>
-      <c r="C178" t="s">
-        <v>357</v>
+        <v>315</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>6</v>
-      </c>
-      <c r="B179" t="s">
-        <v>358</v>
-      </c>
-      <c r="C179" t="s">
-        <v>359</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180">
@@ -4918,10 +5429,10 @@
         <v>6</v>
       </c>
       <c r="B180" t="s">
-        <v>360</v>
+        <v>316</v>
       </c>
       <c r="C180" t="s">
-        <v>361</v>
+        <v>317</v>
       </c>
     </row>
     <row r="181">
@@ -4929,134 +5440,119 @@
         <v>6</v>
       </c>
       <c r="B181" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="C181" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s">
-        <v>6</v>
-      </c>
-      <c r="B182" t="s">
-        <v>364</v>
-      </c>
-      <c r="C182" t="s">
-        <v>365</v>
-      </c>
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B183" t="s">
-        <v>366</v>
-      </c>
-      <c r="C183" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>6</v>
-      </c>
-      <c r="B184" t="s">
-        <v>368</v>
-      </c>
-      <c r="C184" t="s">
-        <v>369</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
+      <c r="A185" t="s">
+        <v>6</v>
+      </c>
+      <c r="B185" t="s">
+        <v>320</v>
+      </c>
+      <c r="C185" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B186" t="s">
-        <v>370</v>
+        <v>322</v>
+      </c>
+      <c r="C186" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B187" t="s">
+        <v>322</v>
+      </c>
+      <c r="C187" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s">
-        <v>6</v>
-      </c>
-      <c r="B188" t="s">
-        <v>371</v>
-      </c>
-      <c r="C188" t="s">
-        <v>372</v>
-      </c>
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B189" t="s">
-        <v>373</v>
-      </c>
-      <c r="C189" t="s">
-        <v>374</v>
+        <v>325</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
+      <c r="A190" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B191" t="s">
-        <v>375</v>
+        <v>326</v>
+      </c>
+      <c r="C191" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B192" t="s">
+        <v>328</v>
+      </c>
+      <c r="C192" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s">
-        <v>6</v>
-      </c>
-      <c r="B193" t="s">
-        <v>376</v>
-      </c>
-      <c r="C193" t="s">
-        <v>377</v>
-      </c>
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B194" t="s">
-        <v>378</v>
-      </c>
-      <c r="C194" t="s">
-        <v>379</v>
+        <v>330</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>6</v>
-      </c>
-      <c r="B195" t="s">
-        <v>380</v>
-      </c>
-      <c r="C195" t="s">
-        <v>381</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196">
@@ -5064,50 +5560,50 @@
         <v>6</v>
       </c>
       <c r="B196" t="s">
-        <v>382</v>
+        <v>331</v>
       </c>
       <c r="C196" t="s">
-        <v>383</v>
+        <v>332</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
-      <c r="C197" s="1"/>
+      <c r="A197" t="s">
+        <v>6</v>
+      </c>
+      <c r="B197" t="s">
+        <v>333</v>
+      </c>
+      <c r="C197" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B198" t="s">
-        <v>384</v>
+        <v>335</v>
+      </c>
+      <c r="C198" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s">
-        <v>5</v>
-      </c>
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B200" t="s">
-        <v>385</v>
-      </c>
-      <c r="C200" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>6</v>
-      </c>
-      <c r="B201" t="s">
-        <v>387</v>
-      </c>
-      <c r="C201" t="s">
-        <v>388</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202">
@@ -5115,39 +5611,39 @@
         <v>6</v>
       </c>
       <c r="B202" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="C202" t="s">
-        <v>389</v>
+        <v>355</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
-      <c r="C203" s="1"/>
+      <c r="A203" t="s">
+        <v>6</v>
+      </c>
+      <c r="B203" t="s">
+        <v>356</v>
+      </c>
+      <c r="C203" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="204">
-      <c r="A204" t="s">
-        <v>3</v>
-      </c>
-      <c r="B204" t="s">
-        <v>390</v>
-      </c>
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B205" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>6</v>
-      </c>
-      <c r="B206" t="s">
-        <v>391</v>
-      </c>
-      <c r="C206" t="s">
-        <v>392</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207">
@@ -5155,39 +5651,39 @@
         <v>6</v>
       </c>
       <c r="B207" t="s">
-        <v>391</v>
+        <v>359</v>
       </c>
       <c r="C207" t="s">
-        <v>393</v>
+        <v>360</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
-      <c r="C208" s="1"/>
+      <c r="A208" t="s">
+        <v>6</v>
+      </c>
+      <c r="B208" t="s">
+        <v>361</v>
+      </c>
+      <c r="C208" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="209">
-      <c r="A209" t="s">
-        <v>3</v>
-      </c>
-      <c r="B209" t="s">
-        <v>394</v>
-      </c>
+      <c r="A209" s="1"/>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B210" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>6</v>
-      </c>
-      <c r="B211" t="s">
-        <v>395</v>
-      </c>
-      <c r="C211" t="s">
-        <v>396</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212">
@@ -5195,10 +5691,10 @@
         <v>6</v>
       </c>
       <c r="B212" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="C212" t="s">
-        <v>397</v>
+        <v>445</v>
       </c>
     </row>
     <row r="213">
@@ -5206,101 +5702,101 @@
         <v>6</v>
       </c>
       <c r="B213" t="s">
-        <v>398</v>
+        <v>446</v>
       </c>
       <c r="C213" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s">
-        <v>6</v>
-      </c>
-      <c r="B214" t="s">
-        <v>400</v>
-      </c>
-      <c r="C214" t="s">
-        <v>401</v>
-      </c>
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B215" t="s">
-        <v>402</v>
-      </c>
-      <c r="C215" t="s">
-        <v>403</v>
+        <v>448</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>6</v>
-      </c>
-      <c r="B216" t="s">
-        <v>398</v>
-      </c>
-      <c r="C216" t="s">
-        <v>404</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
-      <c r="C217" s="1"/>
+      <c r="A217" t="s">
+        <v>6</v>
+      </c>
+      <c r="B217" t="s">
+        <v>449</v>
+      </c>
+      <c r="C217" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B218" t="s">
-        <v>405</v>
+        <v>451</v>
+      </c>
+      <c r="C218" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s">
-        <v>5</v>
-      </c>
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B220" t="s">
-        <v>406</v>
-      </c>
-      <c r="C220" t="s">
-        <v>407</v>
+        <v>453</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>6</v>
-      </c>
-      <c r="B221" t="s">
-        <v>408</v>
-      </c>
-      <c r="C221" t="s">
-        <v>409</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
-      <c r="C222" s="1"/>
+      <c r="A222" t="s">
+        <v>6</v>
+      </c>
+      <c r="B222" t="s">
+        <v>454</v>
+      </c>
+      <c r="C222" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B223" t="s">
-        <v>410</v>
+        <v>456</v>
+      </c>
+      <c r="C223" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B224" t="s">
+        <v>456</v>
+      </c>
+      <c r="C224" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="225">
@@ -5308,39 +5804,39 @@
         <v>6</v>
       </c>
       <c r="B225" t="s">
-        <v>411</v>
+        <v>459</v>
       </c>
       <c r="C225" t="s">
-        <v>412</v>
+        <v>460</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s">
-        <v>6</v>
-      </c>
-      <c r="B226" t="s">
-        <v>413</v>
-      </c>
-      <c r="C226" t="s">
-        <v>414</v>
-      </c>
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
     </row>
     <row r="227">
-      <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
-      <c r="C227" s="1"/>
+      <c r="A227" t="s">
+        <v>3</v>
+      </c>
+      <c r="B227" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>3</v>
-      </c>
-      <c r="B228" t="s">
-        <v>415</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B229" t="s">
+        <v>492</v>
+      </c>
+      <c r="C229" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="230">
@@ -5348,10 +5844,10 @@
         <v>6</v>
       </c>
       <c r="B230" t="s">
-        <v>416</v>
+        <v>494</v>
       </c>
       <c r="C230" t="s">
-        <v>417</v>
+        <v>495</v>
       </c>
     </row>
     <row r="231">
@@ -5359,61 +5855,61 @@
         <v>6</v>
       </c>
       <c r="B231" t="s">
-        <v>416</v>
+        <v>496</v>
       </c>
       <c r="C231" t="s">
-        <v>418</v>
+        <v>497</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
-      <c r="C232" s="1"/>
+      <c r="A232" t="s">
+        <v>6</v>
+      </c>
+      <c r="B232" t="s">
+        <v>498</v>
+      </c>
+      <c r="C232" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B233" t="s">
-        <v>419</v>
+        <v>500</v>
+      </c>
+      <c r="C233" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B234" t="s">
+        <v>502</v>
+      </c>
+      <c r="C234" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s">
-        <v>6</v>
-      </c>
-      <c r="B235" t="s">
-        <v>420</v>
-      </c>
-      <c r="C235" t="s">
-        <v>421</v>
-      </c>
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B236" t="s">
-        <v>422</v>
-      </c>
-      <c r="C236" t="s">
-        <v>423</v>
+        <v>504</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>6</v>
-      </c>
-      <c r="B237" t="s">
-        <v>422</v>
-      </c>
-      <c r="C237" t="s">
-        <v>424</v>
+        <v>5</v>
       </c>
     </row>
     <row r="238">
@@ -5421,39 +5917,39 @@
         <v>6</v>
       </c>
       <c r="B238" t="s">
-        <v>425</v>
+        <v>505</v>
       </c>
       <c r="C238" t="s">
-        <v>426</v>
+        <v>506</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="1"/>
-      <c r="B239" s="1"/>
-      <c r="C239" s="1"/>
+      <c r="A239" t="s">
+        <v>6</v>
+      </c>
+      <c r="B239" t="s">
+        <v>507</v>
+      </c>
+      <c r="C239" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="240">
-      <c r="A240" t="s">
-        <v>3</v>
-      </c>
-      <c r="B240" t="s">
-        <v>427</v>
-      </c>
+      <c r="A240" s="1"/>
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B241" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>6</v>
-      </c>
-      <c r="B242" t="s">
-        <v>428</v>
-      </c>
-      <c r="C242" t="s">
-        <v>429</v>
+        <v>5</v>
       </c>
     </row>
     <row r="243">
@@ -5461,10 +5957,10 @@
         <v>6</v>
       </c>
       <c r="B243" t="s">
-        <v>430</v>
+        <v>515</v>
       </c>
       <c r="C243" t="s">
-        <v>431</v>
+        <v>516</v>
       </c>
     </row>
     <row r="244">
@@ -5472,10 +5968,10 @@
         <v>6</v>
       </c>
       <c r="B244" t="s">
-        <v>432</v>
+        <v>517</v>
       </c>
       <c r="C244" t="s">
-        <v>433</v>
+        <v>518</v>
       </c>
     </row>
     <row r="245">
@@ -5483,10 +5979,10 @@
         <v>6</v>
       </c>
       <c r="B245" t="s">
-        <v>432</v>
+        <v>519</v>
       </c>
       <c r="C245" t="s">
-        <v>434</v>
+        <v>520</v>
       </c>
     </row>
     <row r="246">
@@ -5499,7 +5995,7 @@
         <v>3</v>
       </c>
       <c r="B247" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
     </row>
     <row r="248">
@@ -5512,10 +6008,10 @@
         <v>6</v>
       </c>
       <c r="B249" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="C249" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
     </row>
     <row r="250">
@@ -5523,10 +6019,10 @@
         <v>6</v>
       </c>
       <c r="B250" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C250" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
     </row>
     <row r="251">
@@ -5534,39 +6030,39 @@
         <v>6</v>
       </c>
       <c r="B251" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="C251" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s">
-        <v>6</v>
-      </c>
-      <c r="B252" t="s">
-        <v>522</v>
-      </c>
-      <c r="C252" t="s">
-        <v>523</v>
-      </c>
+      <c r="A252" s="1"/>
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
     </row>
     <row r="253">
-      <c r="A253" s="1"/>
-      <c r="B253" s="1"/>
-      <c r="C253" s="1"/>
+      <c r="A253" t="s">
+        <v>3</v>
+      </c>
+      <c r="B253" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>3</v>
-      </c>
-      <c r="B254" t="s">
-        <v>524</v>
+        <v>5</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B255" t="s">
+        <v>528</v>
+      </c>
+      <c r="C255" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="256">
@@ -5574,10 +6070,10 @@
         <v>6</v>
       </c>
       <c r="B256" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="C256" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
     </row>
     <row r="257">
@@ -5585,10 +6081,10 @@
         <v>6</v>
       </c>
       <c r="B257" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="C257" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
     </row>
     <row r="258">
@@ -5601,7 +6097,7 @@
         <v>3</v>
       </c>
       <c r="B259" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
     </row>
     <row r="260">
@@ -5614,10 +6110,10 @@
         <v>6</v>
       </c>
       <c r="B261" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="C261" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
     </row>
     <row r="262">
@@ -5625,43 +6121,28 @@
         <v>6</v>
       </c>
       <c r="B262" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C262" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s">
-        <v>6</v>
-      </c>
-      <c r="B263" t="s">
-        <v>534</v>
-      </c>
-      <c r="C263" t="s">
-        <v>535</v>
-      </c>
+      <c r="A263" s="1"/>
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B264" t="s">
-        <v>536</v>
-      </c>
-      <c r="C264" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>6</v>
-      </c>
-      <c r="B265" t="s">
-        <v>538</v>
-      </c>
-      <c r="C265" t="s">
-        <v>539</v>
+        <v>5</v>
       </c>
     </row>
     <row r="266">
@@ -5669,39 +6150,39 @@
         <v>6</v>
       </c>
       <c r="B266" t="s">
+        <v>539</v>
+      </c>
+      <c r="C266" t="s">
         <v>540</v>
       </c>
-      <c r="C266" t="s">
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>6</v>
+      </c>
+      <c r="B267" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1"/>
-      <c r="B267" s="1"/>
-      <c r="C267" s="1"/>
+      <c r="C267" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="268">
-      <c r="A268" t="s">
-        <v>3</v>
-      </c>
-      <c r="B268" t="s">
-        <v>542</v>
-      </c>
+      <c r="A268" s="1"/>
+      <c r="B268" s="1"/>
+      <c r="C268" s="1"/>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B269" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>6</v>
-      </c>
-      <c r="B270" t="s">
-        <v>543</v>
-      </c>
-      <c r="C270" t="s">
-        <v>544</v>
+        <v>5</v>
       </c>
     </row>
     <row r="271">
@@ -5709,10 +6190,10 @@
         <v>6</v>
       </c>
       <c r="B271" t="s">
+        <v>544</v>
+      </c>
+      <c r="C271" t="s">
         <v>545</v>
-      </c>
-      <c r="C271" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="272">
@@ -5720,10 +6201,10 @@
         <v>6</v>
       </c>
       <c r="B272" t="s">
+        <v>546</v>
+      </c>
+      <c r="C272" t="s">
         <v>547</v>
-      </c>
-      <c r="C272" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="273">
@@ -5736,7 +6217,7 @@
         <v>3</v>
       </c>
       <c r="B274" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="275">
@@ -5749,10 +6230,10 @@
         <v>6</v>
       </c>
       <c r="B276" t="s">
+        <v>549</v>
+      </c>
+      <c r="C276" t="s">
         <v>550</v>
-      </c>
-      <c r="C276" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="277">
@@ -5760,39 +6241,39 @@
         <v>6</v>
       </c>
       <c r="B277" t="s">
+        <v>551</v>
+      </c>
+      <c r="C277" t="s">
         <v>552</v>
       </c>
-      <c r="C277" t="s">
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>6</v>
+      </c>
+      <c r="B278" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="1"/>
-      <c r="B278" s="1"/>
-      <c r="C278" s="1"/>
+      <c r="C278" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="279">
-      <c r="A279" t="s">
-        <v>3</v>
-      </c>
-      <c r="B279" t="s">
-        <v>554</v>
-      </c>
+      <c r="A279" s="1"/>
+      <c r="B279" s="1"/>
+      <c r="C279" s="1"/>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B280" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>6</v>
-      </c>
-      <c r="B281" t="s">
-        <v>555</v>
-      </c>
-      <c r="C281" t="s">
-        <v>556</v>
+        <v>5</v>
       </c>
     </row>
     <row r="282">
@@ -5800,39 +6281,39 @@
         <v>6</v>
       </c>
       <c r="B282" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C282" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="1"/>
-      <c r="B283" s="1"/>
-      <c r="C283" s="1"/>
+      <c r="A283" t="s">
+        <v>6</v>
+      </c>
+      <c r="B283" t="s">
+        <v>563</v>
+      </c>
+      <c r="C283" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="284">
-      <c r="A284" t="s">
-        <v>3</v>
-      </c>
-      <c r="B284" t="s">
-        <v>559</v>
-      </c>
+      <c r="A284" s="1"/>
+      <c r="B284" s="1"/>
+      <c r="C284" s="1"/>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B285" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>6</v>
-      </c>
-      <c r="B286" t="s">
-        <v>560</v>
-      </c>
-      <c r="C286" t="s">
-        <v>561</v>
+        <v>5</v>
       </c>
     </row>
     <row r="287">
@@ -5840,10 +6321,10 @@
         <v>6</v>
       </c>
       <c r="B287" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C287" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="288">
@@ -5851,152 +6332,152 @@
         <v>6</v>
       </c>
       <c r="B288" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C288" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="s">
-        <v>6</v>
-      </c>
-      <c r="B289" t="s">
-        <v>566</v>
-      </c>
-      <c r="C289" t="s">
-        <v>567</v>
-      </c>
+      <c r="A289" s="1"/>
+      <c r="B289" s="1"/>
+      <c r="C289" s="1"/>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B290" t="s">
-        <v>568</v>
-      </c>
-      <c r="C290" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>6</v>
-      </c>
-      <c r="B291" t="s">
-        <v>570</v>
-      </c>
-      <c r="C291" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>6</v>
+      </c>
+      <c r="B292" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="1"/>
-      <c r="B292" s="1"/>
-      <c r="C292" s="1"/>
+      <c r="C292" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B293" t="s">
-        <v>572</v>
+        <v>573</v>
+      </c>
+      <c r="C293" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B294" t="s">
+        <v>575</v>
+      </c>
+      <c r="C294" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="s">
-        <v>6</v>
-      </c>
-      <c r="B295" t="s">
-        <v>573</v>
-      </c>
-      <c r="C295" t="s">
-        <v>574</v>
-      </c>
+      <c r="A295" s="1"/>
+      <c r="B295" s="1"/>
+      <c r="C295" s="1"/>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B296" t="s">
-        <v>575</v>
-      </c>
-      <c r="C296" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>6</v>
-      </c>
-      <c r="B297" t="s">
-        <v>577</v>
-      </c>
-      <c r="C297" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>6</v>
+      </c>
+      <c r="B298" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="1"/>
-      <c r="B298" s="1"/>
-      <c r="C298" s="1"/>
+      <c r="C298" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B299" t="s">
-        <v>579</v>
+        <v>580</v>
+      </c>
+      <c r="C299" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="s">
-        <v>5</v>
-      </c>
+      <c r="A300" s="1"/>
+      <c r="B300" s="1"/>
+      <c r="C300" s="1"/>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B301" t="s">
-        <v>580</v>
-      </c>
-      <c r="C301" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>6</v>
-      </c>
-      <c r="B302" t="s">
-        <v>582</v>
-      </c>
-      <c r="C302" t="s">
-        <v>583</v>
+        <v>5</v>
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="1"/>
-      <c r="B303" s="1"/>
-      <c r="C303" s="1"/>
+      <c r="A303" t="s">
+        <v>6</v>
+      </c>
+      <c r="B303" t="s">
+        <v>588</v>
+      </c>
+      <c r="C303" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B304" t="s">
-        <v>584</v>
+        <v>590</v>
+      </c>
+      <c r="C304" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B305" t="s">
+        <v>592</v>
+      </c>
+      <c r="C305" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="306">
@@ -6004,10 +6485,10 @@
         <v>6</v>
       </c>
       <c r="B306" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="C306" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
     </row>
     <row r="307">
@@ -6015,10 +6496,10 @@
         <v>6</v>
       </c>
       <c r="B307" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="C307" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
     </row>
     <row r="308">
@@ -6026,28 +6507,43 @@
         <v>6</v>
       </c>
       <c r="B308" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="C308" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="1"/>
-      <c r="B309" s="1"/>
-      <c r="C309" s="1"/>
+      <c r="A309" t="s">
+        <v>6</v>
+      </c>
+      <c r="B309" t="s">
+        <v>600</v>
+      </c>
+      <c r="C309" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B310" t="s">
-        <v>591</v>
+        <v>602</v>
+      </c>
+      <c r="C310" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B311" t="s">
+        <v>604</v>
+      </c>
+      <c r="C311" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="312">
@@ -6055,10 +6551,10 @@
         <v>6</v>
       </c>
       <c r="B312" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="C312" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
     </row>
     <row r="313">
@@ -6066,10 +6562,10 @@
         <v>6</v>
       </c>
       <c r="B313" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
       <c r="C313" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
     </row>
     <row r="314">
@@ -6082,7 +6578,7 @@
         <v>3</v>
       </c>
       <c r="B315" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
     </row>
     <row r="316">
@@ -6095,10 +6591,10 @@
         <v>6</v>
       </c>
       <c r="B317" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="C317" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
     </row>
     <row r="318">
@@ -6106,10 +6602,10 @@
         <v>6</v>
       </c>
       <c r="B318" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="C318" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
     </row>
     <row r="319">
@@ -6122,7 +6618,7 @@
         <v>3</v>
       </c>
       <c r="B320" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
     </row>
     <row r="321">
@@ -6135,10 +6631,10 @@
         <v>6</v>
       </c>
       <c r="B322" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
       <c r="C322" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
     </row>
     <row r="323">
@@ -6146,10 +6642,10 @@
         <v>6</v>
       </c>
       <c r="B323" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="C323" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
     </row>
     <row r="324">
@@ -6162,7 +6658,7 @@
         <v>3</v>
       </c>
       <c r="B325" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
     </row>
     <row r="326">
@@ -6175,10 +6671,10 @@
         <v>6</v>
       </c>
       <c r="B327" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="C327" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
     </row>
     <row r="328">
@@ -6186,10 +6682,10 @@
         <v>6</v>
       </c>
       <c r="B328" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="C328" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
     </row>
     <row r="329">
@@ -6202,7 +6698,7 @@
         <v>3</v>
       </c>
       <c r="B330" t="s">
-        <v>611</v>
+        <v>646</v>
       </c>
     </row>
     <row r="331">
@@ -6215,10 +6711,10 @@
         <v>6</v>
       </c>
       <c r="B332" t="s">
-        <v>612</v>
+        <v>647</v>
       </c>
       <c r="C332" t="s">
-        <v>613</v>
+        <v>648</v>
       </c>
     </row>
     <row r="333">
@@ -6226,39 +6722,39 @@
         <v>6</v>
       </c>
       <c r="B333" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="C333" t="s">
-        <v>615</v>
+        <v>650</v>
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="s">
-        <v>6</v>
-      </c>
-      <c r="B334" t="s">
-        <v>616</v>
-      </c>
-      <c r="C334" t="s">
-        <v>617</v>
-      </c>
+      <c r="A334" s="1"/>
+      <c r="B334" s="1"/>
+      <c r="C334" s="1"/>
     </row>
     <row r="335">
-      <c r="A335" s="1"/>
-      <c r="B335" s="1"/>
-      <c r="C335" s="1"/>
+      <c r="A335" t="s">
+        <v>3</v>
+      </c>
+      <c r="B335" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>3</v>
-      </c>
-      <c r="B336" t="s">
-        <v>618</v>
+        <v>5</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B337" t="s">
+        <v>652</v>
+      </c>
+      <c r="C337" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="338">
@@ -6266,39 +6762,39 @@
         <v>6</v>
       </c>
       <c r="B338" t="s">
-        <v>619</v>
+        <v>654</v>
       </c>
       <c r="C338" t="s">
-        <v>620</v>
+        <v>655</v>
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="s">
-        <v>6</v>
-      </c>
-      <c r="B339" t="s">
-        <v>621</v>
-      </c>
-      <c r="C339" t="s">
-        <v>622</v>
-      </c>
+      <c r="A339" s="1"/>
+      <c r="B339" s="1"/>
+      <c r="C339" s="1"/>
     </row>
     <row r="340">
-      <c r="A340" s="1"/>
-      <c r="B340" s="1"/>
-      <c r="C340" s="1"/>
+      <c r="A340" t="s">
+        <v>3</v>
+      </c>
+      <c r="B340" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>3</v>
-      </c>
-      <c r="B341" t="s">
-        <v>623</v>
+        <v>5</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B342" t="s">
+        <v>657</v>
+      </c>
+      <c r="C342" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="343">
@@ -6306,10 +6802,10 @@
         <v>6</v>
       </c>
       <c r="B343" t="s">
-        <v>624</v>
+        <v>657</v>
       </c>
       <c r="C343" t="s">
-        <v>625</v>
+        <v>659</v>
       </c>
     </row>
     <row r="344">
@@ -6317,10 +6813,10 @@
         <v>6</v>
       </c>
       <c r="B344" t="s">
-        <v>624</v>
+        <v>657</v>
       </c>
       <c r="C344" t="s">
-        <v>626</v>
+        <v>660</v>
       </c>
     </row>
     <row r="345">
@@ -6341,7 +6837,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>630</v>
+        <v>668</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -6353,7 +6849,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>435</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4">
@@ -6366,13 +6862,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>437</v>
+        <v>365</v>
       </c>
       <c r="C5" t="s">
-        <v>438</v>
+        <v>366</v>
       </c>
       <c r="D5" t="s">
-        <v>436</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6">
@@ -6380,10 +6876,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>439</v>
+        <v>367</v>
       </c>
       <c r="C6" t="s">
-        <v>440</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7">
@@ -6391,10 +6887,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>441</v>
+        <v>369</v>
       </c>
       <c r="C7" t="s">
-        <v>442</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8">
@@ -6402,10 +6898,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>443</v>
+        <v>371</v>
       </c>
       <c r="C8" t="s">
-        <v>444</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9">
@@ -6413,10 +6909,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>445</v>
+        <v>373</v>
       </c>
       <c r="C9" t="s">
-        <v>446</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10">
@@ -6424,10 +6920,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>447</v>
+        <v>375</v>
       </c>
       <c r="C10" t="s">
-        <v>448</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11">
@@ -6435,10 +6931,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>449</v>
+        <v>377</v>
       </c>
       <c r="C11" t="s">
-        <v>450</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12">
@@ -6446,10 +6942,10 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>449</v>
+        <v>377</v>
       </c>
       <c r="C12" t="s">
-        <v>451</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13">
@@ -6457,10 +6953,10 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>452</v>
+        <v>380</v>
       </c>
       <c r="C13" t="s">
-        <v>453</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14">
@@ -6468,10 +6964,10 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>454</v>
+        <v>382</v>
       </c>
       <c r="C14" t="s">
-        <v>455</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15"/>
@@ -6480,13 +6976,13 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>457</v>
+        <v>385</v>
       </c>
       <c r="C16" t="s">
-        <v>458</v>
+        <v>386</v>
       </c>
       <c r="D16" t="s">
-        <v>456</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17">
@@ -6494,10 +6990,10 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>459</v>
+        <v>387</v>
       </c>
       <c r="C17" t="s">
-        <v>460</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18">
@@ -6505,10 +7001,10 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>461</v>
+        <v>389</v>
       </c>
       <c r="C18" t="s">
-        <v>462</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19">
@@ -6516,10 +7012,10 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>463</v>
+        <v>391</v>
       </c>
       <c r="C19" t="s">
-        <v>464</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20">
@@ -6527,10 +7023,10 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>465</v>
+        <v>393</v>
       </c>
       <c r="C20" t="s">
-        <v>466</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21">
@@ -6538,10 +7034,10 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>467</v>
+        <v>395</v>
       </c>
       <c r="C21" t="s">
-        <v>468</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22">
@@ -6549,10 +7045,10 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>469</v>
+        <v>397</v>
       </c>
       <c r="C22" t="s">
-        <v>470</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23">
@@ -6560,10 +7056,10 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>471</v>
+        <v>399</v>
       </c>
       <c r="C23" t="s">
-        <v>472</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24">
@@ -6571,10 +7067,10 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>473</v>
+        <v>401</v>
       </c>
       <c r="C24" t="s">
-        <v>474</v>
+        <v>402</v>
       </c>
     </row>
     <row r="25">
@@ -6582,10 +7078,10 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>475</v>
+        <v>403</v>
       </c>
       <c r="C25" t="s">
-        <v>476</v>
+        <v>404</v>
       </c>
     </row>
     <row r="26">
@@ -6593,10 +7089,10 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>477</v>
+        <v>405</v>
       </c>
       <c r="C26" t="s">
-        <v>478</v>
+        <v>406</v>
       </c>
     </row>
     <row r="27">
@@ -6604,10 +7100,10 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>479</v>
+        <v>407</v>
       </c>
       <c r="C27" t="s">
-        <v>480</v>
+        <v>408</v>
       </c>
     </row>
     <row r="28">
@@ -6615,10 +7111,10 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>481</v>
+        <v>409</v>
       </c>
       <c r="C28" t="s">
-        <v>482</v>
+        <v>410</v>
       </c>
     </row>
     <row r="29">
@@ -6626,10 +7122,10 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>483</v>
+        <v>411</v>
       </c>
       <c r="C29" t="s">
-        <v>484</v>
+        <v>412</v>
       </c>
     </row>
     <row r="30">
@@ -6637,10 +7133,10 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>485</v>
+        <v>413</v>
       </c>
       <c r="C30" t="s">
-        <v>486</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31">
@@ -6648,10 +7144,10 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>487</v>
+        <v>415</v>
       </c>
       <c r="C31" t="s">
-        <v>488</v>
+        <v>416</v>
       </c>
     </row>
     <row r="32">
@@ -6659,10 +7155,10 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>489</v>
+        <v>417</v>
       </c>
       <c r="C32" t="s">
-        <v>490</v>
+        <v>418</v>
       </c>
     </row>
     <row r="33">
@@ -6670,10 +7166,10 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>491</v>
+        <v>419</v>
       </c>
       <c r="C33" t="s">
-        <v>492</v>
+        <v>420</v>
       </c>
     </row>
     <row r="34">
@@ -6681,10 +7177,10 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>493</v>
+        <v>421</v>
       </c>
       <c r="C34" t="s">
-        <v>494</v>
+        <v>422</v>
       </c>
     </row>
     <row r="35">
@@ -6692,10 +7188,10 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>495</v>
+        <v>423</v>
       </c>
       <c r="C35" t="s">
-        <v>496</v>
+        <v>424</v>
       </c>
     </row>
     <row r="36">
@@ -6703,10 +7199,10 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>497</v>
+        <v>425</v>
       </c>
       <c r="C36" t="s">
-        <v>498</v>
+        <v>426</v>
       </c>
     </row>
     <row r="37"/>
@@ -6715,13 +7211,13 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>500</v>
+        <v>428</v>
       </c>
       <c r="C38" t="s">
-        <v>501</v>
+        <v>429</v>
       </c>
       <c r="D38" t="s">
-        <v>499</v>
+        <v>427</v>
       </c>
     </row>
     <row r="39">
@@ -6729,10 +7225,10 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>502</v>
+        <v>430</v>
       </c>
       <c r="C39" t="s">
-        <v>503</v>
+        <v>431</v>
       </c>
     </row>
     <row r="40"/>
@@ -6741,10 +7237,10 @@
         <v>6</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>504</v>
+        <v>432</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>505</v>
+        <v>433</v>
       </c>
     </row>
     <row r="42">
@@ -6752,10 +7248,10 @@
         <v>6</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>457</v>
+        <v>385</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>506</v>
+        <v>434</v>
       </c>
     </row>
     <row r="43">
@@ -6763,10 +7259,10 @@
         <v>6</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>507</v>
+        <v>435</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>508</v>
+        <v>436</v>
       </c>
     </row>
     <row r="44">
@@ -6774,10 +7270,10 @@
         <v>6</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>509</v>
+        <v>437</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>510</v>
+        <v>438</v>
       </c>
     </row>
     <row r="45">
@@ -6785,10 +7281,10 @@
         <v>6</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>511</v>
+        <v>439</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>512</v>
+        <v>440</v>
       </c>
     </row>
     <row r="46">
@@ -6796,10 +7292,10 @@
         <v>6</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>513</v>
+        <v>441</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>514</v>
+        <v>442</v>
       </c>
     </row>
     <row r="47">

--- a/test_review/06-06.xlsx
+++ b/test_review/06-06.xlsx
@@ -384,6 +384,639 @@
     <t>https://discuss.openubmc.cn//t/topic/317/1</t>
   </si>
   <si>
+    <t>BMC开发者如何设计CLI并发收集NPU/CPU日志的失败处理</t>
+  </si>
+  <si>
+    <t>【需求】 支持CLI导出NPU DFX日志</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/48</t>
+  </si>
+  <si>
+    <t>【需求】支持CLI导出CPU DFX日志</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/46</t>
+  </si>
+  <si>
+    <t>BMC开发者如何规避新增IPMI命令导致组件不可启动问题</t>
+  </si>
+  <si>
+    <t>pcie_device新增IPMI命令导致组件异常问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/595/1</t>
+  </si>
+  <si>
+    <t>非天池组件加载方式</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/610/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何在直通场景下实现NVMe SSD自定义SMART监控</t>
+  </si>
+  <si>
+    <t>【需求】支持自定义SMART信息的NVMe SSD盘写放大监控</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/28</t>
+  </si>
+  <si>
+    <t>【需求】支持从带内获取SMART NVMe SSD盘冗余块信息并监控</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/24</t>
+  </si>
+  <si>
+    <t>【需求】支持获取NVMe SSD盘自定义SMART信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/27</t>
+  </si>
+  <si>
+    <t>【需求】支持从带内获取厂商SMART NVMe SSD盘冗余块信息并监控</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/10</t>
+  </si>
+  <si>
+    <t>【需求】支持自定义的SMART NVMe SSD盘亚健康检测</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/23</t>
+  </si>
+  <si>
+    <t>【需求】支持自定义SMART信息的NVMe SSD盘预估寿命新增计算参数</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/25</t>
+  </si>
+  <si>
+    <t>BMC固件开发中如何确保网卡扩展与历史协议兼容</t>
+  </si>
+  <si>
+    <t>【需求】网卡适配组件兼容历史网卡功能</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/6</t>
+  </si>
+  <si>
+    <t>【需求】网卡支持南向部件驱动接口</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/17</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/18</t>
+  </si>
+  <si>
+    <t>BMC开发者如何高效实现电链路统计数据采集接口</t>
+  </si>
+  <si>
+    <t>【需求】支持NPU参数面端口电链路数据采集</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/8</t>
+  </si>
+  <si>
+    <t>【需求】支持NPU参数面光模块数据采集接口增加电链路数据</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/7</t>
+  </si>
+  <si>
+    <t>BMC开发者如何扩展UpdateService接口以实现并行固件升级和资源隔离告警</t>
+  </si>
+  <si>
+    <t>【需求】bmc.kepler.UpdateService接口新增ParallelUpdate方法、新增ConcurrentReachedLimit错误引擎</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/49</t>
+  </si>
+  <si>
+    <t>新增bmc.kepler.UpdateService.FirmwareRestor接口,接口新增InitiateRestoreAction方法</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/100</t>
+  </si>
+  <si>
+    <t>BMC开发者需修正VPD中position描述的映射错误</t>
+  </si>
+  <si>
+    <t>vpd仓库platform.sr.png描述有误</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/360/1</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/2</t>
+  </si>
+  <si>
+    <t>如何避免CRPS电源适配中SlotNumber配置错误</t>
+  </si>
+  <si>
+    <t>pmbus CRPS电源适配</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/240/1</t>
+  </si>
+  <si>
+    <t>电源适配指导</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1101/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何通过返回值0判断文件安全操作成功状态</t>
+  </si>
+  <si>
+    <t>【需求】支持文件安全操作函数返回值判断</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/31</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/51</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/36</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>【需求】支持新浪定制化页面显示可插硬盘的槽位总数</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/webui/issues/36</t>
+  </si>
+  <si>
+    <t>支持web页面显示可插硬盘的槽位总数</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/Sina/issues/2</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现日志配置与系统路径的存储隔离迁移</t>
+  </si>
+  <si>
+    <t>支持日志存放位置隔离</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rootfs_user/issues/2</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/23</t>
+  </si>
+  <si>
+    <t>标签包裹。</t>
+  </si>
+  <si>
+    <t>【需求】支持NCSI边带管理功能</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/16</t>
+  </si>
+  <si>
+    <t>【需求】开源社区支持NCSI边带管理功能</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/5</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现Power资源的Redfish新标准适配</t>
+  </si>
+  <si>
+    <t>BMC开发中如何通过REDfish协议实现PrivilegeMap配置同步与用户校验提示优化</t>
+  </si>
+  <si>
+    <t>【需求】RAS接口支持配置PrivilegeMap信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/53</t>
+  </si>
+  <si>
+    <t>电源信息获取优化</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/4</t>
+  </si>
+  <si>
+    <t>支持节点模式设置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/5</t>
+  </si>
+  <si>
+    <t>电源转化器型号显示修改</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/3</t>
+  </si>
+  <si>
+    <t>支持新增自定义用户组设置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/account/issues/11</t>
+  </si>
+  <si>
+    <t>支持配置PrivilegeMap信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/account/issues/12</t>
+  </si>
+  <si>
+    <t>支持用户名校验定制后的用户提示优化</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/account/issues/5</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/31</t>
+  </si>
+  <si>
+    <t>文档持续更新</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/1</t>
+  </si>
+  <si>
+    <t>文档描述优化</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/6</t>
+  </si>
+  <si>
+    <t>如何通过原子能力实现电源冗余模式配置与功率封顶参数管理</t>
+  </si>
+  <si>
+    <t>【需求】支持Power资源新增修改电源冗余模式</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/31</t>
+  </si>
+  <si>
+    <t>【需求】支持查询冗余供电信息能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/27</t>
+  </si>
+  <si>
+    <t>【需求】支持查询电源模块信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/28</t>
+  </si>
+  <si>
+    <t>【需求】支持查询系统供电信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/29</t>
+  </si>
+  <si>
+    <t>【需求】支持查询电源FRU信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/22</t>
+  </si>
+  <si>
+    <t>【需求】支持监控电源不匹配检测原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/36</t>
+  </si>
+  <si>
+    <t>【需求】支持设置功耗过高告警阈值原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/25</t>
+  </si>
+  <si>
+    <t>【需求】支持查询功耗过高告警阈值原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/20</t>
+  </si>
+  <si>
+    <t>【需求】支持采集电源FRU信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/34</t>
+  </si>
+  <si>
+    <t>【需求】支持查询指定机箱电源信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/23</t>
+  </si>
+  <si>
+    <t>【需求】支持设置冗余供电模式能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/26</t>
+  </si>
+  <si>
+    <t>【需求】支持优化供电模式切换特性</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/9</t>
+  </si>
+  <si>
+    <t>【需求】支持设置功率封顶参数原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/24</t>
+  </si>
+  <si>
+    <t>【需求】支持查询风扇信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/16</t>
+  </si>
+  <si>
+    <t>【需求】支持查询历史系统功率信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/30</t>
+  </si>
+  <si>
+    <t>【需求】支持功率采集及查询原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/37</t>
+  </si>
+  <si>
+    <t>【需求】支持查询功率封顶参数原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/21</t>
+  </si>
+  <si>
+    <t>【需求】支持查询最大风扇&amp;电源个数信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/14</t>
+  </si>
+  <si>
+    <t>【需求】支持查询温度信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/15</t>
+  </si>
+  <si>
+    <t>【需求】支持温度采集及查询原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/20</t>
+  </si>
+  <si>
+    <t>【需求】支持查询进风口历史温度信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/17</t>
+  </si>
+  <si>
+    <t>如何验证Thermal/Power资源对Redfish新标准接口的完整兼容性及运维场景可行性</t>
+  </si>
+  <si>
+    <t>【需求】Power相关资源支持redfish新标准</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/19</t>
+  </si>
+  <si>
+    <t>【需求】Thermal相关资源支持redfish新标准</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/13</t>
+  </si>
+  <si>
+    <t>【需求】Power资源支持redfish新标准</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/113</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/106</t>
+  </si>
+  <si>
+    <t>【需求】能效管理支持Chassis资源redfish新标准</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/18</t>
+  </si>
+  <si>
+    <t>【需求】【PowerStrategy】支持Web界面提示优选主用电源</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/webui/issues/39</t>
+  </si>
+  <si>
+    <t>支持web界面显示优选电源工作模式及主用电源列表</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/111</t>
+  </si>
+  <si>
+    <t>【需求】支持新增自定义用户/用户组设置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/webui/issues/38</t>
+  </si>
+  <si>
+    <t>BMC多组件共享白名单配置的维护复杂度问题</t>
+  </si>
+  <si>
+    <t>【需求】基于动态插桩拦截风险接口调用日志，形成通用化命令的白名单配置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/15</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/pcie_device/issues/4</t>
+  </si>
+  <si>
+    <t>BMC开发者如何提升多模组固件升级健壮性</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组CSR固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/24</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组VRD固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/26</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组CPLD固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/25</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组MCU固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/27</t>
+  </si>
+  <si>
+    <t>CPLD 升级 MultipleSuppliersMode MIXED Mode 功能背景了解</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/886/1</t>
+  </si>
+  <si>
+    <t>【需求】支持MCU子固件升级时版本号校验</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/23</t>
+  </si>
+  <si>
+    <t>BMC开发者如何优化RAID日志导出的时延与安全性</t>
+  </si>
+  <si>
+    <t>【需求】支持收集raid卡文本格式日志</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/32</t>
+  </si>
+  <si>
+    <t>【需求】支持一键搜集日志导出raid卡固件日志</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/31</t>
+  </si>
+  <si>
+    <t>BMC开发者如何高效管理openTelemetry API依赖组件</t>
+  </si>
+  <si>
+    <t>提供openTelemetry及依赖开源软件API能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/3</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/conan_index/issues/3</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现新的遥测配置管理接口</t>
+  </si>
+  <si>
+    <t>支持遥测上报配置管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/12</t>
+  </si>
+  <si>
+    <t>【需求】 支持遥测上报配置管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/37</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/16</t>
+  </si>
+  <si>
+    <t>【需求】可观测新增redfish、web接口及属性</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/29</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现PCIe Switch Flash升级组件的集成</t>
+  </si>
+  <si>
+    <t>PCIe Switch 芯片的Flash升级</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/721/1</t>
+  </si>
+  <si>
+    <t>【讨论】PCIe Switch场景下如何加载PCIe卡</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/722/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现SystemInfoTable属性的持久化存储以支持IPMI标准命令</t>
+  </si>
+  <si>
+    <t>IPMI2.0标准接口能力新增私有属性保存system info信息</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1100/1</t>
+  </si>
+  <si>
+    <t>【需求】支持Get System Info标准命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/12</t>
+  </si>
+  <si>
+    <t>【需求】支持Set System Info标准命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/13</t>
+  </si>
+  <si>
+    <t>BMC开发者亟需开源应用框架开发指导文档</t>
+  </si>
+  <si>
+    <t>提供应用框架开发指导</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/15</t>
+  </si>
+  <si>
+    <t>【需求】社区提供开源项目开发者指南</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/webui/issues/19</t>
+  </si>
+  <si>
+    <t>BMC开发中如何解决Conan v1弃用导致的头文件缺失编译失败</t>
+  </si>
+  <si>
+    <t>社区lsw编译不过</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/979/1</t>
+  </si>
+  <si>
+    <t>开源首版本编译不过</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/lsw/issues/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何修正ProcessorID属性类型以符合SMBIOS协议</t>
+  </si>
+  <si>
+    <t>bmc.kepler.Systems.Processor.CPU的ProcessorID为U32类型，与SMBIOS协议不一致</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/30</t>
+  </si>
+  <si>
+    <t>【问题单】CPU的ProcessorID属性定义与SMBIOS协议规定不符</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/75</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/47</t>
+  </si>
+  <si>
+    <t>CPU类的ProcessorID属性定义为U32类型，与SMBIOS协议范围（QWORD）不一致</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/362/1</t>
+  </si>
+  <si>
     <t>BMC开发者如何实现CSR文件损坏的检测与自修复</t>
   </si>
   <si>
@@ -399,6 +1032,354 @@
     <t>https://gitcode.com/openUBMC/mdb_interface/issues/9</t>
   </si>
   <si>
+    <t>BMC开发者如何优化国密证书接口的异常提示机制</t>
+  </si>
+  <si>
+    <t>【需求】支持国密证书管理的接口优化</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/43</t>
+  </si>
+  <si>
+    <t>【需求】支持国密证书管理的北向接口配置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/23</t>
+  </si>
+  <si>
+    <t>BMC开发中如何实现DPU网卡启动状态的实时检测与记录</t>
+  </si>
+  <si>
+    <t>【需求】支持DPU网卡启动完成标识记录</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/28</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/15</t>
+  </si>
+  <si>
+    <t>如何确保BIOS测试命令在高可用环境中的兼容性</t>
+  </si>
+  <si>
+    <t>高可用环境BIOS执行test失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/800/1</t>
+  </si>
+  <si>
+    <t>组件内执行bingo test显示测试失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/594/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何提升社区UT IT测试覆盖率和工具贡献效率</t>
+  </si>
+  <si>
+    <t>openUBMC社区测试贡献规划</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/592/1</t>
+  </si>
+  <si>
+    <t>QA 运作规则讨论</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/209/1</t>
+  </si>
+  <si>
+    <t>openUBMC社区QA SIG运作</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/593/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何在定制传感器时确保名称与主板丝印一致？</t>
+  </si>
+  <si>
+    <t>【需求】支持Px_Cy_Dz_Status内存定制传感器</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/ByteDance/issues/19</t>
+  </si>
+  <si>
+    <t>【需求】支持CPUx_Status定制传感器</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/ByteDance/issues/18</t>
+  </si>
+  <si>
+    <t>BMC开发者如何高效配置3000W电源的PMbus告警属性</t>
+  </si>
+  <si>
+    <t>【需求】支持3000W电源管理，新增资源树私有属性CurrentModeLogic</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/account/issues/13</t>
+  </si>
+  <si>
+    <t>【需求】支持3000W电源管理，新增资源树bmc.kepler.Systems.PowerMgmt.OnePower.Status属性CMLStatus</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/44</t>
+  </si>
+  <si>
+    <t>【需求】支持电源继电器状态管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/45</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现Redfish接口查询指定PCIe设备资源信息</t>
+  </si>
+  <si>
+    <t>【需求】支持查询指定PCIEDevices资源信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/pcie_device/issues/5</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/16</t>
+  </si>
+  <si>
+    <t>BMC开发者需解决一键部署中的Conan组件拉取机制稳定性问题</t>
+  </si>
+  <si>
+    <t>bmc studio使用问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1012/1</t>
+  </si>
+  <si>
+    <t>BMC_STUDIO仓库一键部署，丢失响应，无成功，无失败反馈</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/962/1</t>
+  </si>
+  <si>
+    <t>使用bmc_studio遇到的问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/925/1</t>
+  </si>
+  <si>
+    <t>BMC Studio问题反馈</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/707/1</t>
+  </si>
+  <si>
+    <t>BMC开发者实现升级时多签名机制兼容性</t>
+  </si>
+  <si>
+    <t>能否实现伙伴签名的openUBMC版本直接升级华为签名的各种固件？</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/335/1</t>
+  </si>
+  <si>
+    <t>伙伴openubmc版本如何支持升级华为签名固件版本和伙伴自己签名的固件版本均能成功？</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1083/1</t>
+  </si>
+  <si>
+    <t>使用openubmc进行bios固件升级，提示无效的升级包</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/182/1</t>
+  </si>
+  <si>
+    <t>刷了华为根的机器是否可以直接刷伙伴根</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/933/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现CoolingRequirement中SensorName属性在资源树注册</t>
+  </si>
+  <si>
+    <t>bmc.kepler.Systems.CoolingRequirement下私有属性SensorName上树</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/34</t>
+  </si>
+  <si>
+    <t>&lt;thermal_mgmt&gt; bmc.kepler.Systems.CoolingRequirement下私有属性SensorName上树</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/101</t>
+  </si>
+  <si>
+    <t>BMC开发者如何扩展升级接口参数处理并行升级错误场景</t>
+  </si>
+  <si>
+    <t>【需求】power_mgmt组件适配升级接口参数扩展</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/10</t>
+  </si>
+  <si>
+    <t>【需求】bios组件适配升级接口参数扩展</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/10</t>
+  </si>
+  <si>
+    <t>能效管理适配升级接口参数扩展</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/5</t>
+  </si>
+  <si>
+    <t>general_hardware组件适配升级接口参数</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/11</t>
+  </si>
+  <si>
+    <t>BMC开发者如何申请使用自动化测试框架</t>
+  </si>
+  <si>
+    <t>怎么申请使用kptest框架和itestsmart工具呢</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/665/1</t>
+  </si>
+  <si>
+    <t>kptest框架与KPTestOpenFramework工程、iTestSmart工具介绍</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/832/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何解决PXE阶段因POST未完成导致重启失败</t>
+  </si>
+  <si>
+    <t>【问题单】定制后bios处于PXE阶段时重启BMC失败</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/19</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/sensor/issues/10</t>
+  </si>
+  <si>
+    <t>BMC开发者如何防范开发环境中的文件访问绕过漏洞</t>
+  </si>
+  <si>
+    <t>CVE-2025-31486</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/18</t>
+  </si>
+  <si>
+    <t>CVE-2025-46565</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/21</t>
+  </si>
+  <si>
+    <t>CVE-2025-32395</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/19</t>
+  </si>
+  <si>
+    <t>CVE-2025-30208</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/16</t>
+  </si>
+  <si>
+    <t>CVE-2025-31125</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/17</t>
+  </si>
+  <si>
+    <t>如何优化BMC日志、跟踪和度量数据的采集与存储效率</t>
+  </si>
+  <si>
+    <t>提供跟踪数据采集和存储能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/4</t>
+  </si>
+  <si>
+    <t>提供度量数据采集和存储能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/2</t>
+  </si>
+  <si>
+    <t>提供日志数据采集和存储能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/5</t>
+  </si>
+  <si>
+    <t>BMC开发者如何扩展Web和IPMI接口支持风扇duty/speed信息读取</t>
+  </si>
+  <si>
+    <t>【需求】支持获取所有风扇duty和speed等信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/webui/issues/37</t>
+  </si>
+  <si>
+    <t>【需求】支持散热策略规格</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/11</t>
+  </si>
+  <si>
+    <t>BMC开发者需实现NVMe盘多型号识别与管理兼容性</t>
+  </si>
+  <si>
+    <t>【需求】支持新增华为厂商NVMe盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/41</t>
+  </si>
+  <si>
+    <t>【需求】支持新增Memblaze厂商NVMe盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/44</t>
+  </si>
+  <si>
+    <t>BMC开发者在Redfish OEM定制中如何实现存储控制器属性查询</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish接口oem定制查询指定存储资源信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rack_mgmt/issues/2</t>
+  </si>
+  <si>
+    <t>【需求】支持厂商定制化显示存储控制器端口数</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/67</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现NVMe MI over MCTP协议响应码的可靠解析</t>
+  </si>
+  <si>
+    <t>【需求】支持NVMe-mi over mctp的协议解析</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/33</t>
+  </si>
+  <si>
+    <t>【需求】支持解析nvme mi协议响应码信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/8</t>
+  </si>
+  <si>
     <t>解决BMC过渡包升级中签名链更新缺失导致的校验失败</t>
   </si>
   <si>
@@ -420,16 +1401,22 @@
     <t>https://discuss.openubmc.cn//t/topic/409/1</t>
   </si>
   <si>
-    <t>BMC开发者如何实现Redfish接口查询指定PCIe设备资源信息</t>
-  </si>
-  <si>
-    <t>【需求】支持查询指定PCIEDevices资源信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/pcie_device/issues/5</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/16</t>
+    <t>BMC开发者如何实现FPGA自检失败的告警模拟测试</t>
+  </si>
+  <si>
+    <t>【需求】支持FPGA固件周期自检失败的告警</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/30</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/84</t>
+  </si>
+  <si>
+    <t>支持FPGA固件周期自检失败的告警</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/45</t>
   </si>
   <si>
     <t>BMC开发者如何统一实现多品牌新款SATA硬盘的纳管支持？</t>
@@ -453,6 +1440,501 @@
     <t>https://gitcode.com/openUBMC/storage/issues/45</t>
   </si>
   <si>
+    <t>BMC配置导出需新增产品类别和软件版本信息支持</t>
+  </si>
+  <si>
+    <t>配置导出项新增BMC软件版本信息和产品类别信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/13</t>
+  </si>
+  <si>
+    <t>配置导入导出新增产品类别信息和BMC软件版本信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/profile_schema/issues/2</t>
+  </si>
+  <si>
+    <t>提供BMC出厂配置定制指导</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/16</t>
+  </si>
+  <si>
+    <t>软件中心需要添加BMCStudio描述和下载页</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/software-center-config/issues/3</t>
+  </si>
+  <si>
+    <t>BMC开发者如何在Web界面实现组件粒度状态查询的权限容错机制</t>
+  </si>
+  <si>
+    <t>【需求】web界面查询升级状态及生效状态信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/114</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/99</t>
+  </si>
+  <si>
+    <t>BMC开发者需解决权限限制下的升级恢复接口错误问题</t>
+  </si>
+  <si>
+    <t>【变更声明】Redfish升级接口权限变更</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/732/1</t>
+  </si>
+  <si>
+    <t>Redfish 升级接口 SimpleUpdate 关于在支持升级之后清除配置功能接口变更</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/32</t>
+  </si>
+  <si>
+    <t>BMC开发者需统一板卡和MCU一键收集信息的存储路径与命名规范</t>
+  </si>
+  <si>
+    <t>【已评审】支持一键收集导出板卡信息，mcu信息</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/628/1</t>
+  </si>
+  <si>
+    <t>【需求】支持一键收集通用硬件信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/34</t>
+  </si>
+  <si>
+    <t>openUBMC一键收集介绍</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/290/1</t>
+  </si>
+  <si>
+    <t>【问题单】支持一键收集导出板卡信息，mcu信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/10</t>
+  </si>
+  <si>
+    <t>【需求】支持板卡硬件管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/15</t>
+  </si>
+  <si>
+    <t>基础通用问题FAQ</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/292/1</t>
+  </si>
+  <si>
+    <t>openUBMC各sig组本周(2025-0421-2025-0427)关闭issue统计</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/672/1</t>
+  </si>
+  <si>
+    <t>openUBMC各sig组本周(2025-0428~2025-0505)关闭issue统计</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/733/1</t>
+  </si>
+  <si>
+    <t>bmc-core SIG 入门指南</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/167/1</t>
+  </si>
+  <si>
+    <t>openUBMC各sig组本周(2025-0506~2025-0511)关闭issue统计</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/876/1</t>
+  </si>
+  <si>
+    <t>openUBMC品牌包定制指南</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/355/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何更新通用和异构硬件适配文档资源</t>
+  </si>
+  <si>
+    <t>【需求】社区更新通用硬件相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/19</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/13</t>
+  </si>
+  <si>
+    <t>【需求】社区更新设备管理规范相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/14</t>
+  </si>
+  <si>
+    <t>【需求】社区补齐异构硬件相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/17</t>
+  </si>
+  <si>
+    <t>【需求】社区更新能效管理相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/16</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/20</t>
+  </si>
+  <si>
+    <t>如何解决恢复出厂设置后BMC固件升级签名验证异常</t>
+  </si>
+  <si>
+    <t>恢复出厂设置后，BMC升级失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1065/1</t>
+  </si>
+  <si>
+    <t>BMC恢复出厂设置之后无法更新固件</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/831/1</t>
+  </si>
+  <si>
+    <t>恢复出厂设置时无法升级</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/11</t>
+  </si>
+  <si>
+    <t>BMC开发者如何通过Redfish和IPMI接口实现硬盘日志收集控制</t>
+  </si>
+  <si>
+    <t>【需求】支持硬盘诊断功能控制</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/106</t>
+  </si>
+  <si>
+    <t>【需求】硬盘诊断功能控制</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/112</t>
+  </si>
+  <si>
+    <t>【需求】支持服务器网络管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/25</t>
+  </si>
+  <si>
+    <t>【需求】支持存储管理能力基线</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/30</t>
+  </si>
+  <si>
+    <t>【需求】支持存储管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/35</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/7</t>
+  </si>
+  <si>
+    <t>开发者在BMC Studio中需手动二次配置因器件库不完整。</t>
+  </si>
+  <si>
+    <t>BMC Studio工具使用反馈</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/714/1</t>
+  </si>
+  <si>
+    <t>[WIP]BMC Studio用户指南</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/221/1</t>
+  </si>
+  <si>
+    <t>BMC开发者在资源树协作接口中如何解决属性约束冲突与内部实现暴露问题</t>
+  </si>
+  <si>
+    <t>支持通用硬件满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/98</t>
+  </si>
+  <si>
+    <t>【需求】power_mgmt组件接口支持配置PrivilegeMap信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/44</t>
+  </si>
+  <si>
+    <t>【需求】支持能效管理满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/12</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/13</t>
+  </si>
+  <si>
+    <t>【需求】thermal_mgmt组件接口支持配置PrivilegeMap信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/27</t>
+  </si>
+  <si>
+    <t>【需求】thermal_mgmt组件满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/24</t>
+  </si>
+  <si>
+    <t>支持框架资源树协作接口满足关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/38</t>
+  </si>
+  <si>
+    <t>【需求】支持异构算力满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manufacture/issues/2</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/pcie_device/issues/7</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/lsw/issues/2</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/22</t>
+  </si>
+  <si>
+    <t>【需求】支持通用硬件满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/12</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/22</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/17</t>
+  </si>
+  <si>
+    <t>支持基础服务满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/32</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/chassis/issues/3</t>
+  </si>
+  <si>
+    <t>资源树协作接口关键字满足使用原则和规范</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/6</t>
+  </si>
+  <si>
+    <t>支持安全管理满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/account/issues/6</t>
+  </si>
+  <si>
+    <t>BMC开发者如何在lscmd中显示和调试接口执行组件自定义命令用于在线调试</t>
+  </si>
+  <si>
+    <t>支持组件自定义命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/104</t>
+  </si>
+  <si>
+    <t>【需求】支持能效管理子系统组件自定义命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/17</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/7</t>
+  </si>
+  <si>
+    <t>【需求】支持组件自定义命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/21</t>
+  </si>
+  <si>
+    <t>开发者实现Redfish Drive资源OEM接口时需解决NVM MI命令与硬件协议栈的兼容性整合</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制SendNvmeMICommand请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/40</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetIdentifyData请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/39</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetAddSmartInfo请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/37</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetTelemetryData请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/13</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/36</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetSmartInfo请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/38</t>
+  </si>
+  <si>
+    <t>BMC开发者如何适配BlueField系列设备的调速策略在openUBMC中</t>
+  </si>
+  <si>
+    <t>【需求】支持BlueField-3（B3220）的调速策略配置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/17</t>
+  </si>
+  <si>
+    <t>【需求】支持BlueField-2（332A）的调速策略</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/18</t>
+  </si>
+  <si>
+    <t>BMC开发者如何解决固件并行升级总线互斥问题</t>
+  </si>
+  <si>
+    <t>【需求】支持固件升级流程总线互斥</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/21</t>
+  </si>
+  <si>
+    <t>固件升级流程总线互斥</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/10</t>
+  </si>
+  <si>
+    <t>【需求】能效管理固件升级流程总线互斥</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/11</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/11</t>
+  </si>
+  <si>
+    <t>BMC开发者如何统一实现查询指定处理器异构资源属性的Redfish接口</t>
+  </si>
+  <si>
+    <t>【需求】支持查询指定处理器资源信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/33</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/53</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/47</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现bingo SDK版本自动化兼容性校验</t>
+  </si>
+  <si>
+    <t>应支持bingo、构建工具、sdk之间的版本配套</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/414/1</t>
+  </si>
+  <si>
+    <t>【需求】bingo支持组件的全量二进制构建</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bingo/issues/12</t>
+  </si>
+  <si>
+    <t>BMC开发者如何为thermal和power管理组件实现业务场景的白名单配置基线化</t>
+  </si>
+  <si>
+    <t>【需求】power_mgmt组件明确业务场景下的白名单化配置并形成基线</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/45</t>
+  </si>
+  <si>
+    <t>【需求】thermal_mgmt组件明确业务场景下的白名单化配置并形成基线</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/25</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现PLDM协议获取网卡信息并集成接口展示</t>
+  </si>
+  <si>
+    <t>【需求】支持使用pldm协议获取网卡相关信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/20</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/19</t>
+  </si>
+  <si>
+    <t>BMC开发者如何高效构建仿真测试环境</t>
+  </si>
+  <si>
+    <t>OpenUBMC社区支持仿真镜像的构建与发布</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/qemu/issues/5</t>
+  </si>
+  <si>
+    <t>OpenUBMC社区支持仿真数据的发布</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/qemu/issues/4</t>
+  </si>
+  <si>
+    <t>OpenUBMC社区支持Qemu工具的构建与发布</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/qemu/issues/3</t>
+  </si>
+  <si>
     <t>BMC开发者确保SMBIOS协议解析Structure Header Length字段准确</t>
   </si>
   <si>
@@ -465,6 +1947,21 @@
     <t>https://discuss.openubmc.cn//t/topic/363/1</t>
   </si>
   <si>
+    <t>BMC开发者如何在BIOS启动阶段禁用KVM/VNC键盘输入防止密码修改</t>
+  </si>
+  <si>
+    <t>支持BIOS启动过程禁止KVM/VNC键盘输入</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/19</t>
+  </si>
+  <si>
+    <t>支持BIOS在启动阶段禁用键盘</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/20</t>
+  </si>
+  <si>
     <t>BMC开发者需修正BIOS组件生效流程图的逻辑错误</t>
   </si>
   <si>
@@ -477,622 +1974,19 @@
     <t>https://gitcode.com/openUBMC/docs/issues/19</t>
   </si>
   <si>
-    <t>BMC开发者需实现NVMe盘多型号识别与管理兼容性</t>
-  </si>
-  <si>
-    <t>【需求】支持新增华为厂商NVMe盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/41</t>
-  </si>
-  <si>
-    <t>【需求】支持新增Memblaze厂商NVMe盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/44</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现SystemInfoTable属性的持久化存储以支持IPMI标准命令</t>
-  </si>
-  <si>
-    <t>IPMI2.0标准接口能力新增私有属性保存system info信息</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1100/1</t>
-  </si>
-  <si>
-    <t>【需求】支持Get System Info标准命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/12</t>
-  </si>
-  <si>
-    <t>【需求】支持Set System Info标准命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/13</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现日志配置与系统路径的存储隔离迁移</t>
-  </si>
-  <si>
-    <t>支持日志存放位置隔离</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rootfs_user/issues/2</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/23</t>
-  </si>
-  <si>
-    <t>BMC开发者需解决一键部署中的Conan组件拉取机制稳定性问题</t>
-  </si>
-  <si>
-    <t>bmc studio使用问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1012/1</t>
-  </si>
-  <si>
-    <t>BMC_STUDIO仓库一键部署，丢失响应，无成功，无失败反馈</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/962/1</t>
-  </si>
-  <si>
-    <t>使用bmc_studio遇到的问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/925/1</t>
-  </si>
-  <si>
-    <t>BMC Studio问题反馈</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/707/1</t>
-  </si>
-  <si>
-    <t>开发者实现Redfish Drive资源OEM接口时需解决NVM MI命令与硬件协议栈的兼容性整合</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制SendNvmeMICommand请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/40</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetIdentifyData请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/39</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetAddSmartInfo请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/37</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetTelemetryData请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/13</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/36</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetSmartInfo请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/38</t>
-  </si>
-  <si>
-    <t>BMC开发者如何为thermal和power管理组件实现业务场景的白名单配置基线化</t>
-  </si>
-  <si>
-    <t>【需求】power_mgmt组件明确业务场景下的白名单化配置并形成基线</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/45</t>
-  </si>
-  <si>
-    <t>【需求】thermal_mgmt组件明确业务场景下的白名单化配置并形成基线</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/25</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现PLDM协议获取网卡信息并集成接口展示</t>
-  </si>
-  <si>
-    <t>【需求】支持使用pldm协议获取网卡相关信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/20</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/19</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现bingo SDK版本自动化兼容性校验</t>
-  </si>
-  <si>
-    <t>应支持bingo、构建工具、sdk之间的版本配套</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/414/1</t>
-  </si>
-  <si>
-    <t>【需求】bingo支持组件的全量二进制构建</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bingo/issues/12</t>
-  </si>
-  <si>
-    <t>开发者在BMC Studio中需手动二次配置因器件库不完整。</t>
-  </si>
-  <si>
-    <t>BMC Studio工具使用反馈</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/714/1</t>
-  </si>
-  <si>
-    <t>[WIP]BMC Studio用户指南</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/221/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何提升多模组固件升级健壮性</t>
-  </si>
-  <si>
-    <t>【需求】支持多模组CSR固件升级健壮性提升</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/24</t>
-  </si>
-  <si>
-    <t>【需求】支持多模组VRD固件升级健壮性提升</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/26</t>
-  </si>
-  <si>
-    <t>【需求】支持多模组CPLD固件升级健壮性提升</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/25</t>
-  </si>
-  <si>
-    <t>【需求】支持多模组MCU固件升级健壮性提升</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/27</t>
-  </si>
-  <si>
-    <t>CPLD 升级 MultipleSuppliersMode MIXED Mode 功能背景了解</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/886/1</t>
-  </si>
-  <si>
-    <t>【需求】支持MCU子固件升级时版本号校验</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/23</t>
-  </si>
-  <si>
-    <t>BMC开发者如何防范开发环境中的文件访问绕过漏洞</t>
-  </si>
-  <si>
-    <t>CVE-2025-31486</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/18</t>
-  </si>
-  <si>
-    <t>CVE-2025-46565</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/21</t>
-  </si>
-  <si>
-    <t>CVE-2025-32395</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/19</t>
-  </si>
-  <si>
-    <t>CVE-2025-30208</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/16</t>
-  </si>
-  <si>
-    <t>CVE-2025-31125</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/17</t>
-  </si>
-  <si>
-    <t>BMC开发者如何在BIOS启动阶段禁用KVM/VNC键盘输入防止密码修改</t>
-  </si>
-  <si>
-    <t>支持BIOS启动过程禁止KVM/VNC键盘输入</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/19</t>
-  </si>
-  <si>
-    <t>支持BIOS在启动阶段禁用键盘</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/20</t>
-  </si>
-  <si>
-    <t>BMC开发者如何申请使用自动化测试框架</t>
-  </si>
-  <si>
-    <t>怎么申请使用kptest框架和itestsmart工具呢</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/665/1</t>
-  </si>
-  <si>
-    <t>kptest框架与KPTestOpenFramework工程、iTestSmart工具介绍</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/832/1</t>
-  </si>
-  <si>
-    <t>BMC配置导出需新增产品类别和软件版本信息支持</t>
-  </si>
-  <si>
-    <t>配置导出项新增BMC软件版本信息和产品类别信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/13</t>
-  </si>
-  <si>
-    <t>配置导入导出新增产品类别信息和BMC软件版本信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/profile_schema/issues/2</t>
-  </si>
-  <si>
-    <t>提供BMC出厂配置定制指导</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/16</t>
-  </si>
-  <si>
-    <t>软件中心需要添加BMCStudio描述和下载页</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/software-center-config/issues/3</t>
-  </si>
-  <si>
-    <t>BMC开发者如何高效管理openTelemetry API依赖组件</t>
-  </si>
-  <si>
-    <t>提供openTelemetry及依赖开源软件API能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/observability/issues/3</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/conan_index/issues/3</t>
-  </si>
-  <si>
-    <t>BMC开发者实现升级时多签名机制兼容性</t>
-  </si>
-  <si>
-    <t>能否实现伙伴签名的openUBMC版本直接升级华为签名的各种固件？</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/335/1</t>
-  </si>
-  <si>
-    <t>伙伴openubmc版本如何支持升级华为签名固件版本和伙伴自己签名的固件版本均能成功？</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1083/1</t>
-  </si>
-  <si>
-    <t>使用openubmc进行bios固件升级，提示无效的升级包</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/182/1</t>
-  </si>
-  <si>
-    <t>刷了华为根的机器是否可以直接刷伙伴根</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/933/1</t>
-  </si>
-  <si>
-    <t>BMC开发中如何解决Conan v1弃用导致的头文件缺失编译失败</t>
-  </si>
-  <si>
-    <t>社区lsw编译不过</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/979/1</t>
-  </si>
-  <si>
-    <t>开源首版本编译不过</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/lsw/issues/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何扩展升级接口参数处理并行升级错误场景</t>
-  </si>
-  <si>
-    <t>【需求】power_mgmt组件适配升级接口参数扩展</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/10</t>
-  </si>
-  <si>
-    <t>【需求】bios组件适配升级接口参数扩展</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/10</t>
-  </si>
-  <si>
-    <t>能效管理适配升级接口参数扩展</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/5</t>
-  </si>
-  <si>
-    <t>general_hardware组件适配升级接口参数</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/11</t>
-  </si>
-  <si>
-    <t>BMC开发者在Redfish OEM定制中如何实现存储控制器属性查询</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish接口oem定制查询指定存储资源信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rack_mgmt/issues/2</t>
-  </si>
-  <si>
-    <t>【需求】支持厂商定制化显示存储控制器端口数</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/67</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现新的遥测配置管理接口</t>
-  </si>
-  <si>
-    <t>支持遥测上报配置管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/12</t>
-  </si>
-  <si>
-    <t>【需求】 支持遥测上报配置管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/37</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/16</t>
-  </si>
-  <si>
-    <t>【需求】可观测新增redfish、web接口及属性</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/29</t>
-  </si>
-  <si>
-    <t>BMC开发者如何更新通用和异构硬件适配文档资源</t>
-  </si>
-  <si>
-    <t>【需求】社区更新通用硬件相关文档</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/19</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/13</t>
-  </si>
-  <si>
-    <t>【需求】社区更新设备管理规范相关文档</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/14</t>
-  </si>
-  <si>
-    <t>【需求】社区补齐异构硬件相关文档</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/17</t>
-  </si>
-  <si>
-    <t>【需求】社区更新能效管理相关文档</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/16</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/20</t>
-  </si>
-  <si>
-    <t>如何确保BIOS测试命令在高可用环境中的兼容性</t>
-  </si>
-  <si>
-    <t>高可用环境BIOS执行test失败</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/800/1</t>
-  </si>
-  <si>
-    <t>组件内执行bingo test显示测试失败</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/594/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何解决固件并行升级总线互斥问题</t>
-  </si>
-  <si>
-    <t>【需求】支持固件升级流程总线互斥</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/21</t>
-  </si>
-  <si>
-    <t>固件升级流程总线互斥</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/10</t>
-  </si>
-  <si>
-    <t>【需求】能效管理固件升级流程总线互斥</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/11</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/11</t>
-  </si>
-  <si>
-    <t>BMC开发者如何解决PXE阶段因POST未完成导致重启失败</t>
-  </si>
-  <si>
-    <t>【问题单】定制后bios处于PXE阶段时重启BMC失败</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/19</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/sensor/issues/10</t>
-  </si>
-  <si>
-    <t>BMC固件开发中如何确保网卡扩展与历史协议兼容</t>
-  </si>
-  <si>
-    <t>【需求】网卡适配组件兼容历史网卡功能</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/6</t>
-  </si>
-  <si>
-    <t>【需求】网卡支持南向部件驱动接口</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/17</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/18</t>
-  </si>
-  <si>
-    <t>BMC开发者如何规避新增IPMI命令导致组件不可启动问题</t>
-  </si>
-  <si>
-    <t>pcie_device新增IPMI命令导致组件异常问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/595/1</t>
-  </si>
-  <si>
-    <t>非天池组件加载方式</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/610/1</t>
-  </si>
-  <si>
-    <t>如何解决恢复出厂设置后BMC固件升级签名验证异常</t>
-  </si>
-  <si>
-    <t>恢复出厂设置后，BMC升级失败</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1065/1</t>
-  </si>
-  <si>
-    <t>BMC恢复出厂设置之后无法更新固件</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/831/1</t>
-  </si>
-  <si>
-    <t>恢复出厂设置时无法升级</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/11</t>
-  </si>
-  <si>
-    <t>BMC开发者如何在Web界面实现组件粒度状态查询的权限容错机制</t>
-  </si>
-  <si>
-    <t>【需求】web界面查询升级状态及生效状态信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/114</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/99</t>
-  </si>
-  <si>
-    <t>BMC开发者如何通过Redfish和IPMI接口实现硬盘日志收集控制</t>
-  </si>
-  <si>
-    <t>【需求】支持硬盘诊断功能控制</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/106</t>
-  </si>
-  <si>
-    <t>【需求】硬盘诊断功能控制</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/112</t>
-  </si>
-  <si>
-    <t>【需求】支持服务器网络管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/25</t>
-  </si>
-  <si>
-    <t>【需求】支持存储管理能力基线</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/30</t>
-  </si>
-  <si>
-    <t>【需求】支持存储管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/35</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/7</t>
-  </si>
-  <si>
-    <t>BMC开发者如何优化RAID日志导出的时延与安全性</t>
-  </si>
-  <si>
-    <t>【需求】支持收集raid卡文本格式日志</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/32</t>
-  </si>
-  <si>
-    <t>【需求】支持一键搜集日志导出raid卡固件日志</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/31</t>
+    <t>BMC开发者如何通过Redfish接口实现光模块老化预测功能开关</t>
+  </si>
+  <si>
+    <t>【需求】支持光模块老化故障预测功能开关</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/52</t>
+  </si>
+  <si>
+    <t>【修改描述】支持光模块老化预测功能开关使能</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/31</t>
   </si>
   <si>
     <t>BMC开发者如何解决固件升级中的证书校验失败</t>
@@ -1110,900 +2004,6 @@
     <t>https://discuss.openubmc.cn//t/topic/173/1</t>
   </si>
   <si>
-    <t>BMC开发者如何实现Power资源的Redfish新标准适配</t>
-  </si>
-  <si>
-    <t>BMC开发中如何通过REDfish协议实现PrivilegeMap配置同步与用户校验提示优化</t>
-  </si>
-  <si>
-    <t>【需求】RAS接口支持配置PrivilegeMap信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/53</t>
-  </si>
-  <si>
-    <t>电源信息获取优化</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/4</t>
-  </si>
-  <si>
-    <t>支持节点模式设置</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/5</t>
-  </si>
-  <si>
-    <t>电源转化器型号显示修改</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/3</t>
-  </si>
-  <si>
-    <t>支持新增自定义用户组设置</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/account/issues/11</t>
-  </si>
-  <si>
-    <t>支持配置PrivilegeMap信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/account/issues/12</t>
-  </si>
-  <si>
-    <t>支持用户名校验定制后的用户提示优化</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/account/issues/5</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/31</t>
-  </si>
-  <si>
-    <t>文档持续更新</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/1</t>
-  </si>
-  <si>
-    <t>文档描述优化</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/6</t>
-  </si>
-  <si>
-    <t>如何通过原子能力实现电源冗余模式配置与功率封顶参数管理</t>
-  </si>
-  <si>
-    <t>【需求】支持Power资源新增修改电源冗余模式</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/31</t>
-  </si>
-  <si>
-    <t>【需求】支持查询冗余供电信息能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/27</t>
-  </si>
-  <si>
-    <t>【需求】支持查询电源模块信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/28</t>
-  </si>
-  <si>
-    <t>【需求】支持查询系统供电信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/29</t>
-  </si>
-  <si>
-    <t>【需求】支持查询电源FRU信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/22</t>
-  </si>
-  <si>
-    <t>【需求】支持监控电源不匹配检测原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/36</t>
-  </si>
-  <si>
-    <t>【需求】支持设置功耗过高告警阈值原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/25</t>
-  </si>
-  <si>
-    <t>【需求】支持查询功耗过高告警阈值原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/20</t>
-  </si>
-  <si>
-    <t>【需求】支持采集电源FRU信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/34</t>
-  </si>
-  <si>
-    <t>【需求】支持查询指定机箱电源信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/23</t>
-  </si>
-  <si>
-    <t>【需求】支持设置冗余供电模式能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/26</t>
-  </si>
-  <si>
-    <t>【需求】支持优化供电模式切换特性</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/9</t>
-  </si>
-  <si>
-    <t>【需求】支持设置功率封顶参数原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/24</t>
-  </si>
-  <si>
-    <t>【需求】支持查询风扇信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/16</t>
-  </si>
-  <si>
-    <t>【需求】支持查询历史系统功率信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/30</t>
-  </si>
-  <si>
-    <t>【需求】支持功率采集及查询原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/37</t>
-  </si>
-  <si>
-    <t>【需求】支持查询功率封顶参数原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/21</t>
-  </si>
-  <si>
-    <t>【需求】支持查询最大风扇&amp;电源个数信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/14</t>
-  </si>
-  <si>
-    <t>【需求】支持查询温度信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/15</t>
-  </si>
-  <si>
-    <t>【需求】支持温度采集及查询原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/20</t>
-  </si>
-  <si>
-    <t>【需求】支持查询进风口历史温度信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/17</t>
-  </si>
-  <si>
-    <t>如何验证Thermal/Power资源对Redfish新标准接口的完整兼容性及运维场景可行性</t>
-  </si>
-  <si>
-    <t>【需求】Power相关资源支持redfish新标准</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/19</t>
-  </si>
-  <si>
-    <t>【需求】Thermal相关资源支持redfish新标准</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/13</t>
-  </si>
-  <si>
-    <t>【需求】Power资源支持redfish新标准</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/113</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/106</t>
-  </si>
-  <si>
-    <t>【需求】能效管理支持Chassis资源redfish新标准</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/18</t>
-  </si>
-  <si>
-    <t>【需求】【PowerStrategy】支持Web界面提示优选主用电源</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/webui/issues/39</t>
-  </si>
-  <si>
-    <t>支持web界面显示优选电源工作模式及主用电源列表</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/111</t>
-  </si>
-  <si>
-    <t>【需求】支持新增自定义用户/用户组设置</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/webui/issues/38</t>
-  </si>
-  <si>
-    <t>BMC开发者需解决权限限制下的升级恢复接口错误问题</t>
-  </si>
-  <si>
-    <t>【变更声明】Redfish升级接口权限变更</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/732/1</t>
-  </si>
-  <si>
-    <t>Redfish 升级接口 SimpleUpdate 关于在支持升级之后清除配置功能接口变更</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/32</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现PCIe Switch Flash升级组件的集成</t>
-  </si>
-  <si>
-    <t>PCIe Switch 芯片的Flash升级</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/721/1</t>
-  </si>
-  <si>
-    <t>【讨论】PCIe Switch场景下如何加载PCIe卡</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/722/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何修正ProcessorID属性类型以符合SMBIOS协议</t>
-  </si>
-  <si>
-    <t>bmc.kepler.Systems.Processor.CPU的ProcessorID为U32类型，与SMBIOS协议不一致</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/30</t>
-  </si>
-  <si>
-    <t>【问题单】CPU的ProcessorID属性定义与SMBIOS协议规定不符</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/75</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/47</t>
-  </si>
-  <si>
-    <t>CPU类的ProcessorID属性定义为U32类型，与SMBIOS协议范围（QWORD）不一致</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/362/1</t>
-  </si>
-  <si>
-    <t>BMC开发者在资源树协作接口中如何解决属性约束冲突与内部实现暴露问题</t>
-  </si>
-  <si>
-    <t>支持通用硬件满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/98</t>
-  </si>
-  <si>
-    <t>【需求】power_mgmt组件接口支持配置PrivilegeMap信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/44</t>
-  </si>
-  <si>
-    <t>【需求】支持能效管理满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/12</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/13</t>
-  </si>
-  <si>
-    <t>【需求】thermal_mgmt组件接口支持配置PrivilegeMap信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/27</t>
-  </si>
-  <si>
-    <t>【需求】thermal_mgmt组件满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/24</t>
-  </si>
-  <si>
-    <t>支持框架资源树协作接口满足关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/38</t>
-  </si>
-  <si>
-    <t>【需求】支持异构算力满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manufacture/issues/2</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/pcie_device/issues/7</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/lsw/issues/2</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/22</t>
-  </si>
-  <si>
-    <t>【需求】支持通用硬件满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/12</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/22</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/17</t>
-  </si>
-  <si>
-    <t>支持基础服务满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/32</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/chassis/issues/3</t>
-  </si>
-  <si>
-    <t>资源树协作接口关键字满足使用原则和规范</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/6</t>
-  </si>
-  <si>
-    <t>支持安全管理满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/account/issues/6</t>
-  </si>
-  <si>
-    <t>BMC开发者如何在直通场景下实现NVMe SSD自定义SMART监控</t>
-  </si>
-  <si>
-    <t>【需求】支持自定义SMART信息的NVMe SSD盘写放大监控</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/28</t>
-  </si>
-  <si>
-    <t>【需求】支持从带内获取SMART NVMe SSD盘冗余块信息并监控</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/24</t>
-  </si>
-  <si>
-    <t>【需求】支持获取NVMe SSD盘自定义SMART信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/27</t>
-  </si>
-  <si>
-    <t>【需求】支持从带内获取厂商SMART NVMe SSD盘冗余块信息并监控</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/10</t>
-  </si>
-  <si>
-    <t>【需求】支持自定义的SMART NVMe SSD盘亚健康检测</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/23</t>
-  </si>
-  <si>
-    <t>【需求】支持自定义SMART信息的NVMe SSD盘预估寿命新增计算参数</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/25</t>
-  </si>
-  <si>
-    <t>如何避免CRPS电源适配中SlotNumber配置错误</t>
-  </si>
-  <si>
-    <t>pmbus CRPS电源适配</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/240/1</t>
-  </si>
-  <si>
-    <t>电源适配指导</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1101/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何扩展UpdateService接口以实现并行固件升级和资源隔离告警</t>
-  </si>
-  <si>
-    <t>【需求】bmc.kepler.UpdateService接口新增ParallelUpdate方法、新增ConcurrentReachedLimit错误引擎</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/49</t>
-  </si>
-  <si>
-    <t>新增bmc.kepler.UpdateService.FirmwareRestor接口,接口新增InitiateRestoreAction方法</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/100</t>
-  </si>
-  <si>
-    <t>BMC开发者如何提升社区UT IT测试覆盖率和工具贡献效率</t>
-  </si>
-  <si>
-    <t>openUBMC社区测试贡献规划</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/592/1</t>
-  </si>
-  <si>
-    <t>QA 运作规则讨论</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/209/1</t>
-  </si>
-  <si>
-    <t>openUBMC社区QA SIG运作</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/593/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现FPGA自检失败的告警模拟测试</t>
-  </si>
-  <si>
-    <t>【需求】支持FPGA固件周期自检失败的告警</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/30</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/84</t>
-  </si>
-  <si>
-    <t>支持FPGA固件周期自检失败的告警</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/45</t>
-  </si>
-  <si>
-    <t>如何优化BMC日志、跟踪和度量数据的采集与存储效率</t>
-  </si>
-  <si>
-    <t>提供跟踪数据采集和存储能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/observability/issues/4</t>
-  </si>
-  <si>
-    <t>提供度量数据采集和存储能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/observability/issues/2</t>
-  </si>
-  <si>
-    <t>提供日志数据采集和存储能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/observability/issues/5</t>
-  </si>
-  <si>
-    <t>BMC开发者需修正VPD中position描述的映射错误</t>
-  </si>
-  <si>
-    <t>vpd仓库platform.sr.png描述有误</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/360/1</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/2</t>
-  </si>
-  <si>
-    <t>BMC开发者如何设计CLI并发收集NPU/CPU日志的失败处理</t>
-  </si>
-  <si>
-    <t>【需求】 支持CLI导出NPU DFX日志</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/48</t>
-  </si>
-  <si>
-    <t>【需求】支持CLI导出CPU DFX日志</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/46</t>
-  </si>
-  <si>
-    <t>BMC开发者如何高效实现电链路统计数据采集接口</t>
-  </si>
-  <si>
-    <t>【需求】支持NPU参数面端口电链路数据采集</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/8</t>
-  </si>
-  <si>
-    <t>【需求】支持NPU参数面光模块数据采集接口增加电链路数据</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/7</t>
-  </si>
-  <si>
-    <t>BMC开发者如何高效配置3000W电源的PMbus告警属性</t>
-  </si>
-  <si>
-    <t>【需求】支持3000W电源管理，新增资源树私有属性CurrentModeLogic</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/account/issues/13</t>
-  </si>
-  <si>
-    <t>【需求】支持3000W电源管理，新增资源树bmc.kepler.Systems.PowerMgmt.OnePower.Status属性CMLStatus</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/44</t>
-  </si>
-  <si>
-    <t>【需求】支持电源继电器状态管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/45</t>
-  </si>
-  <si>
-    <t>BMC开发者如何通过返回值0判断文件安全操作成功状态</t>
-  </si>
-  <si>
-    <t>【需求】支持文件安全操作函数返回值判断</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/31</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/51</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/36</t>
-  </si>
-  <si>
-    <t>BMC开发者亟需开源应用框架开发指导文档</t>
-  </si>
-  <si>
-    <t>提供应用框架开发指导</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/15</t>
-  </si>
-  <si>
-    <t>【需求】社区提供开源项目开发者指南</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/webui/issues/19</t>
-  </si>
-  <si>
-    <t>BMC开发者如何适配BlueField系列设备的调速策略在openUBMC中</t>
-  </si>
-  <si>
-    <t>【需求】支持BlueField-3（B3220）的调速策略配置</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/17</t>
-  </si>
-  <si>
-    <t>【需求】支持BlueField-2（332A）的调速策略</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/18</t>
-  </si>
-  <si>
-    <t>BMC开发者如何高效构建仿真测试环境</t>
-  </si>
-  <si>
-    <t>OpenUBMC社区支持仿真镜像的构建与发布</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/qemu/issues/5</t>
-  </si>
-  <si>
-    <t>OpenUBMC社区支持仿真数据的发布</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/qemu/issues/4</t>
-  </si>
-  <si>
-    <t>OpenUBMC社区支持Qemu工具的构建与发布</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/qemu/issues/3</t>
-  </si>
-  <si>
-    <t>标签包裹。</t>
-  </si>
-  <si>
-    <t>【需求】支持NCSI边带管理功能</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/16</t>
-  </si>
-  <si>
-    <t>【需求】开源社区支持NCSI边带管理功能</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/5</t>
-  </si>
-  <si>
-    <t>BMC开发者如何在定制传感器时确保名称与主板丝印一致？</t>
-  </si>
-  <si>
-    <t>【需求】支持Px_Cy_Dz_Status内存定制传感器</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/ByteDance/issues/19</t>
-  </si>
-  <si>
-    <t>【需求】支持CPUx_Status定制传感器</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/ByteDance/issues/18</t>
-  </si>
-  <si>
-    <t>BMC开发者需统一板卡和MCU一键收集信息的存储路径与命名规范</t>
-  </si>
-  <si>
-    <t>【已评审】支持一键收集导出板卡信息，mcu信息</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/628/1</t>
-  </si>
-  <si>
-    <t>【需求】支持一键收集通用硬件信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/34</t>
-  </si>
-  <si>
-    <t>openUBMC一键收集介绍</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/290/1</t>
-  </si>
-  <si>
-    <t>【问题单】支持一键收集导出板卡信息，mcu信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/10</t>
-  </si>
-  <si>
-    <t>【需求】支持板卡硬件管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/15</t>
-  </si>
-  <si>
-    <t>基础通用问题FAQ</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/292/1</t>
-  </si>
-  <si>
-    <t>openUBMC各sig组本周(2025-0421-2025-0427)关闭issue统计</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/672/1</t>
-  </si>
-  <si>
-    <t>openUBMC各sig组本周(2025-0428~2025-0505)关闭issue统计</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/733/1</t>
-  </si>
-  <si>
-    <t>bmc-core SIG 入门指南</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/167/1</t>
-  </si>
-  <si>
-    <t>openUBMC各sig组本周(2025-0506~2025-0511)关闭issue统计</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/876/1</t>
-  </si>
-  <si>
-    <t>openUBMC品牌包定制指南</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/355/1</t>
-  </si>
-  <si>
-    <t>BMC开发中如何实现DPU网卡启动状态的实时检测与记录</t>
-  </si>
-  <si>
-    <t>【需求】支持DPU网卡启动完成标识记录</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/28</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/15</t>
-  </si>
-  <si>
-    <t>BMC多组件共享白名单配置的维护复杂度问题</t>
-  </si>
-  <si>
-    <t>【需求】基于动态插桩拦截风险接口调用日志，形成通用化命令的白名单配置</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/15</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/pcie_device/issues/4</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现NVMe MI over MCTP协议响应码的可靠解析</t>
-  </si>
-  <si>
-    <t>【需求】支持NVMe-mi over mctp的协议解析</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/33</t>
-  </si>
-  <si>
-    <t>【需求】支持解析nvme mi协议响应码信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/8</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>【需求】支持新浪定制化页面显示可插硬盘的槽位总数</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/webui/issues/36</t>
-  </si>
-  <si>
-    <t>支持web页面显示可插硬盘的槽位总数</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/Sina/issues/2</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现CoolingRequirement中SensorName属性在资源树注册</t>
-  </si>
-  <si>
-    <t>bmc.kepler.Systems.CoolingRequirement下私有属性SensorName上树</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/34</t>
-  </si>
-  <si>
-    <t>&lt;thermal_mgmt&gt; bmc.kepler.Systems.CoolingRequirement下私有属性SensorName上树</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/101</t>
-  </si>
-  <si>
-    <t>BMC开发者如何扩展Web和IPMI接口支持风扇duty/speed信息读取</t>
-  </si>
-  <si>
-    <t>【需求】支持获取所有风扇duty和speed等信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/webui/issues/37</t>
-  </si>
-  <si>
-    <t>【需求】支持散热策略规格</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/11</t>
-  </si>
-  <si>
-    <t>BMC开发者如何在lscmd中显示和调试接口执行组件自定义命令用于在线调试</t>
-  </si>
-  <si>
-    <t>支持组件自定义命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/104</t>
-  </si>
-  <si>
-    <t>【需求】支持能效管理子系统组件自定义命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/17</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/7</t>
-  </si>
-  <si>
-    <t>【需求】支持组件自定义命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/21</t>
-  </si>
-  <si>
-    <t>BMC开发者如何优化国密证书接口的异常提示机制</t>
-  </si>
-  <si>
-    <t>【需求】支持国密证书管理的接口优化</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/43</t>
-  </si>
-  <si>
-    <t>【需求】支持国密证书管理的北向接口配置</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/23</t>
-  </si>
-  <si>
-    <t>BMC开发者如何通过Redfish接口实现光模块老化预测功能开关</t>
-  </si>
-  <si>
-    <t>【需求】支持光模块老化故障预测功能开关</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/52</t>
-  </si>
-  <si>
-    <t>【修改描述】支持光模块老化预测功能开关使能</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/31</t>
-  </si>
-  <si>
-    <t>BMC开发者如何统一实现查询指定处理器异构资源属性的Redfish接口</t>
-  </si>
-  <si>
-    <t>【需求】支持查询指定处理器资源信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/33</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/53</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/47</t>
-  </si>
-  <si>
     <t>BMC开发者在支持Localbus与Hisport总线仿真中需解决协议交互及性能兼容性等问题</t>
   </si>
   <si>
@@ -2022,19 +2022,19 @@
     <t>https://gitcode.com/openUBMC/rackmount/issues/37</t>
   </si>
   <si>
+    <t>话题总数：7</t>
+  </si>
+  <si>
+    <t>话题总数：3</t>
+  </si>
+  <si>
+    <t>话题总数：2</t>
+  </si>
+  <si>
     <t>话题总数：58</t>
   </si>
   <si>
     <t>话题总数：1</t>
-  </si>
-  <si>
-    <t>话题总数：7</t>
-  </si>
-  <si>
-    <t>话题总数：3</t>
-  </si>
-  <si>
-    <t>话题总数：2</t>
   </si>
 </sst>
 </file>
@@ -3127,7 +3127,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="2"/>
@@ -3136,7 +3136,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4">
@@ -3149,10 +3149,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>338</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>339</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6">
@@ -3160,10 +3160,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>338</v>
+        <v>158</v>
       </c>
       <c r="C6" t="s">
-        <v>340</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7">
@@ -3176,7 +3176,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>509</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9">
@@ -3189,10 +3189,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>510</v>
+        <v>170</v>
       </c>
       <c r="C10" t="s">
-        <v>511</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11">
@@ -3200,39 +3200,39 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>512</v>
+        <v>170</v>
       </c>
       <c r="C11" t="s">
-        <v>513</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>555</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>556</v>
-      </c>
-      <c r="C15" t="s">
-        <v>557</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -3240,10 +3240,10 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>556</v>
+        <v>175</v>
       </c>
       <c r="C16" t="s">
-        <v>558</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
@@ -3251,10 +3251,10 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>556</v>
+        <v>177</v>
       </c>
       <c r="C17" t="s">
-        <v>559</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
@@ -3267,7 +3267,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>582</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20">
@@ -3280,10 +3280,10 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>583</v>
+        <v>359</v>
       </c>
       <c r="C21" t="s">
-        <v>584</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22">
@@ -3291,10 +3291,10 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>585</v>
+        <v>361</v>
       </c>
       <c r="C22" t="s">
-        <v>586</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23">
@@ -3307,7 +3307,7 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>623</v>
+        <v>392</v>
       </c>
     </row>
     <row r="25">
@@ -3320,10 +3320,10 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>624</v>
+        <v>393</v>
       </c>
       <c r="C26" t="s">
-        <v>625</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27">
@@ -3331,10 +3331,10 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>626</v>
+        <v>395</v>
       </c>
       <c r="C27" t="s">
-        <v>627</v>
+        <v>396</v>
       </c>
     </row>
     <row r="28">
@@ -3347,7 +3347,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>628</v>
+        <v>433</v>
       </c>
     </row>
     <row r="30">
@@ -3360,10 +3360,10 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>629</v>
+        <v>434</v>
       </c>
       <c r="C31" t="s">
-        <v>630</v>
+        <v>435</v>
       </c>
     </row>
     <row r="32">
@@ -3371,10 +3371,10 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>631</v>
+        <v>436</v>
       </c>
       <c r="C32" t="s">
-        <v>632</v>
+        <v>437</v>
       </c>
     </row>
     <row r="33">
@@ -3387,7 +3387,7 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>633</v>
+        <v>482</v>
       </c>
     </row>
     <row r="35">
@@ -3400,10 +3400,10 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>634</v>
+        <v>483</v>
       </c>
       <c r="C36" t="s">
-        <v>635</v>
+        <v>484</v>
       </c>
     </row>
     <row r="37">
@@ -3411,10 +3411,10 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>636</v>
+        <v>483</v>
       </c>
       <c r="C37" t="s">
-        <v>637</v>
+        <v>485</v>
       </c>
     </row>
     <row r="38">
@@ -3435,7 +3435,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -3447,7 +3447,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>341</v>
+        <v>532</v>
       </c>
     </row>
     <row r="4">
@@ -3460,10 +3460,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>342</v>
+        <v>533</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>343</v>
+        <v>534</v>
       </c>
     </row>
     <row r="6">
@@ -3471,10 +3471,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>344</v>
+        <v>535</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>345</v>
+        <v>536</v>
       </c>
     </row>
     <row r="7">
@@ -3482,10 +3482,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>346</v>
+        <v>537</v>
       </c>
       <c r="C7" t="s">
-        <v>347</v>
+        <v>538</v>
       </c>
     </row>
     <row r="8">
@@ -3493,10 +3493,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>348</v>
+        <v>539</v>
       </c>
       <c r="C8" t="s">
-        <v>349</v>
+        <v>540</v>
       </c>
     </row>
     <row r="9">
@@ -3504,10 +3504,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>350</v>
+        <v>541</v>
       </c>
       <c r="C9" t="s">
-        <v>351</v>
+        <v>542</v>
       </c>
     </row>
     <row r="10">
@@ -3515,10 +3515,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>342</v>
+        <v>533</v>
       </c>
       <c r="C10" t="s">
-        <v>352</v>
+        <v>543</v>
       </c>
     </row>
     <row r="11">
@@ -3531,7 +3531,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>461</v>
+        <v>549</v>
       </c>
     </row>
     <row r="13">
@@ -3544,10 +3544,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>462</v>
+        <v>550</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>463</v>
+        <v>551</v>
       </c>
     </row>
     <row r="15">
@@ -3555,10 +3555,10 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>464</v>
+        <v>552</v>
       </c>
       <c r="C15" t="s">
-        <v>465</v>
+        <v>553</v>
       </c>
     </row>
     <row r="16">
@@ -3566,10 +3566,10 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>466</v>
+        <v>554</v>
       </c>
       <c r="C16" t="s">
-        <v>467</v>
+        <v>555</v>
       </c>
     </row>
     <row r="17">
@@ -3577,10 +3577,10 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>466</v>
+        <v>554</v>
       </c>
       <c r="C17" t="s">
-        <v>468</v>
+        <v>556</v>
       </c>
     </row>
     <row r="18">
@@ -3588,10 +3588,10 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>469</v>
+        <v>557</v>
       </c>
       <c r="C18" t="s">
-        <v>470</v>
+        <v>558</v>
       </c>
     </row>
     <row r="19">
@@ -3599,10 +3599,10 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>471</v>
+        <v>559</v>
       </c>
       <c r="C19" t="s">
-        <v>472</v>
+        <v>560</v>
       </c>
     </row>
     <row r="20">
@@ -3610,10 +3610,10 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>473</v>
+        <v>561</v>
       </c>
       <c r="C20" t="s">
-        <v>474</v>
+        <v>562</v>
       </c>
     </row>
     <row r="21">
@@ -3621,10 +3621,10 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>475</v>
+        <v>563</v>
       </c>
       <c r="C21" t="s">
-        <v>476</v>
+        <v>564</v>
       </c>
     </row>
     <row r="22">
@@ -3632,10 +3632,10 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>475</v>
+        <v>563</v>
       </c>
       <c r="C22" t="s">
-        <v>477</v>
+        <v>565</v>
       </c>
     </row>
     <row r="23">
@@ -3643,10 +3643,10 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>475</v>
+        <v>563</v>
       </c>
       <c r="C23" t="s">
-        <v>478</v>
+        <v>566</v>
       </c>
     </row>
     <row r="24">
@@ -3654,10 +3654,10 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>475</v>
+        <v>563</v>
       </c>
       <c r="C24" t="s">
-        <v>479</v>
+        <v>567</v>
       </c>
     </row>
     <row r="25">
@@ -3665,10 +3665,10 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>480</v>
+        <v>568</v>
       </c>
       <c r="C25" t="s">
-        <v>481</v>
+        <v>569</v>
       </c>
     </row>
     <row r="26">
@@ -3676,10 +3676,10 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>480</v>
+        <v>568</v>
       </c>
       <c r="C26" t="s">
-        <v>482</v>
+        <v>570</v>
       </c>
     </row>
     <row r="27">
@@ -3687,10 +3687,10 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>480</v>
+        <v>568</v>
       </c>
       <c r="C27" t="s">
-        <v>483</v>
+        <v>571</v>
       </c>
     </row>
     <row r="28">
@@ -3698,10 +3698,10 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>484</v>
+        <v>572</v>
       </c>
       <c r="C28" t="s">
-        <v>485</v>
+        <v>573</v>
       </c>
     </row>
     <row r="29">
@@ -3709,10 +3709,10 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>480</v>
+        <v>568</v>
       </c>
       <c r="C29" t="s">
-        <v>486</v>
+        <v>574</v>
       </c>
     </row>
     <row r="30">
@@ -3720,10 +3720,10 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>487</v>
+        <v>575</v>
       </c>
       <c r="C30" t="s">
-        <v>488</v>
+        <v>576</v>
       </c>
     </row>
     <row r="31">
@@ -3731,10 +3731,10 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>489</v>
+        <v>577</v>
       </c>
       <c r="C31" t="s">
-        <v>490</v>
+        <v>578</v>
       </c>
     </row>
     <row r="32">
@@ -3747,7 +3747,7 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>638</v>
+        <v>579</v>
       </c>
     </row>
     <row r="34">
@@ -3760,10 +3760,10 @@
         <v>6</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>639</v>
+        <v>580</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>640</v>
+        <v>581</v>
       </c>
     </row>
     <row r="36">
@@ -3771,10 +3771,10 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>641</v>
+        <v>582</v>
       </c>
       <c r="C36" t="s">
-        <v>642</v>
+        <v>583</v>
       </c>
     </row>
     <row r="37">
@@ -3782,10 +3782,10 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>641</v>
+        <v>582</v>
       </c>
       <c r="C37" t="s">
-        <v>643</v>
+        <v>584</v>
       </c>
     </row>
     <row r="38">
@@ -3793,10 +3793,10 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>644</v>
+        <v>585</v>
       </c>
       <c r="C38" t="s">
-        <v>645</v>
+        <v>586</v>
       </c>
     </row>
     <row r="39">
@@ -3817,7 +3817,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -3917,7 +3917,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="2"/>
@@ -3997,32 +3997,32 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
         <v>131</v>
       </c>
-      <c r="C12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>133</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="16">
@@ -4041,312 +4041,312 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="C19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21" t="s">
-        <v>139</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" t="s">
-        <v>142</v>
-      </c>
-      <c r="C23" t="s">
-        <v>143</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>144</v>
+        <v>147</v>
+      </c>
+      <c r="C25" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" t="s">
-        <v>145</v>
-      </c>
-      <c r="C27" t="s">
-        <v>146</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
-      </c>
-      <c r="C28" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>148</v>
+        <v>151</v>
+      </c>
+      <c r="C30" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" t="s">
-        <v>149</v>
-      </c>
-      <c r="C32" t="s">
-        <v>150</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>149</v>
-      </c>
-      <c r="C33" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>152</v>
+        <v>161</v>
+      </c>
+      <c r="C35" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" t="s">
-        <v>153</v>
-      </c>
-      <c r="C37" t="s">
-        <v>154</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>155</v>
-      </c>
-      <c r="C38" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>157</v>
+        <v>165</v>
+      </c>
+      <c r="C40" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" t="s">
-        <v>158</v>
-      </c>
-      <c r="C42" t="s">
-        <v>159</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>160</v>
-      </c>
-      <c r="C43" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" t="s">
-        <v>162</v>
-      </c>
-      <c r="C44" t="s">
-        <v>163</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>180</v>
+      </c>
+      <c r="C45" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>164</v>
+        <v>180</v>
+      </c>
+      <c r="C46" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s">
-        <v>5</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>165</v>
-      </c>
-      <c r="C48" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" t="s">
-        <v>165</v>
-      </c>
-      <c r="C49" t="s">
-        <v>167</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" t="s">
+        <v>184</v>
+      </c>
+      <c r="C50" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>168</v>
+        <v>186</v>
+      </c>
+      <c r="C51" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s">
-        <v>5</v>
-      </c>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>169</v>
-      </c>
-      <c r="C53" t="s">
-        <v>170</v>
+        <v>268</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" t="s">
-        <v>171</v>
-      </c>
-      <c r="C54" t="s">
-        <v>172</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
@@ -4354,10 +4354,10 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>173</v>
+        <v>269</v>
       </c>
       <c r="C55" t="s">
-        <v>174</v>
+        <v>270</v>
       </c>
     </row>
     <row r="56">
@@ -4365,10 +4365,10 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>175</v>
+        <v>269</v>
       </c>
       <c r="C56" t="s">
-        <v>176</v>
+        <v>271</v>
       </c>
     </row>
     <row r="57">
@@ -4381,7 +4381,7 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>177</v>
+        <v>272</v>
       </c>
     </row>
     <row r="59">
@@ -4394,10 +4394,10 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>178</v>
+        <v>273</v>
       </c>
       <c r="C60" t="s">
-        <v>179</v>
+        <v>274</v>
       </c>
     </row>
     <row r="61">
@@ -4405,10 +4405,10 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="C61" t="s">
-        <v>181</v>
+        <v>276</v>
       </c>
     </row>
     <row r="62">
@@ -4416,10 +4416,10 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>182</v>
+        <v>277</v>
       </c>
       <c r="C62" t="s">
-        <v>183</v>
+        <v>278</v>
       </c>
     </row>
     <row r="63">
@@ -4427,10 +4427,10 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>184</v>
+        <v>279</v>
       </c>
       <c r="C63" t="s">
-        <v>185</v>
+        <v>280</v>
       </c>
     </row>
     <row r="64">
@@ -4438,10 +4438,10 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>184</v>
+        <v>281</v>
       </c>
       <c r="C64" t="s">
-        <v>186</v>
+        <v>282</v>
       </c>
     </row>
     <row r="65">
@@ -4449,10 +4449,10 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>187</v>
+        <v>283</v>
       </c>
       <c r="C65" t="s">
-        <v>188</v>
+        <v>284</v>
       </c>
     </row>
     <row r="66">
@@ -4465,7 +4465,7 @@
         <v>3</v>
       </c>
       <c r="B67" t="s">
-        <v>189</v>
+        <v>285</v>
       </c>
     </row>
     <row r="68">
@@ -4478,10 +4478,10 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>190</v>
+        <v>286</v>
       </c>
       <c r="C69" t="s">
-        <v>191</v>
+        <v>287</v>
       </c>
     </row>
     <row r="70">
@@ -4489,10 +4489,10 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>192</v>
+        <v>288</v>
       </c>
       <c r="C70" t="s">
-        <v>193</v>
+        <v>289</v>
       </c>
     </row>
     <row r="71">
@@ -4505,7 +4505,7 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>194</v>
+        <v>290</v>
       </c>
     </row>
     <row r="73">
@@ -4518,10 +4518,10 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>195</v>
+        <v>291</v>
       </c>
       <c r="C74" t="s">
-        <v>196</v>
+        <v>292</v>
       </c>
     </row>
     <row r="75">
@@ -4529,10 +4529,10 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>195</v>
+        <v>291</v>
       </c>
       <c r="C75" t="s">
-        <v>197</v>
+        <v>293</v>
       </c>
     </row>
     <row r="76">
@@ -4545,7 +4545,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>198</v>
+        <v>294</v>
       </c>
     </row>
     <row r="78">
@@ -4558,10 +4558,10 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>199</v>
+        <v>295</v>
       </c>
       <c r="C79" t="s">
-        <v>200</v>
+        <v>296</v>
       </c>
     </row>
     <row r="80">
@@ -4569,90 +4569,90 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>201</v>
+        <v>297</v>
       </c>
       <c r="C80" t="s">
-        <v>202</v>
+        <v>298</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
+      <c r="A81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" t="s">
+        <v>295</v>
+      </c>
+      <c r="C81" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>203</v>
+        <v>300</v>
+      </c>
+      <c r="C82" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s">
-        <v>5</v>
-      </c>
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>204</v>
-      </c>
-      <c r="C84" t="s">
-        <v>205</v>
+        <v>302</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>6</v>
-      </c>
-      <c r="B85" t="s">
-        <v>206</v>
-      </c>
-      <c r="C85" t="s">
-        <v>207</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
+      <c r="A86" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" t="s">
+        <v>303</v>
+      </c>
+      <c r="C86" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>208</v>
+        <v>305</v>
+      </c>
+      <c r="C87" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s">
-        <v>5</v>
-      </c>
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>209</v>
-      </c>
-      <c r="C89" t="s">
-        <v>210</v>
+        <v>307</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>6</v>
-      </c>
-      <c r="B90" t="s">
-        <v>211</v>
-      </c>
-      <c r="C90" t="s">
-        <v>212</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91">
@@ -4660,10 +4660,10 @@
         <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>213</v>
+        <v>308</v>
       </c>
       <c r="C91" t="s">
-        <v>214</v>
+        <v>309</v>
       </c>
     </row>
     <row r="92">
@@ -4671,10 +4671,10 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>215</v>
+        <v>310</v>
       </c>
       <c r="C92" t="s">
-        <v>216</v>
+        <v>311</v>
       </c>
     </row>
     <row r="93">
@@ -4682,39 +4682,39 @@
         <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>217</v>
+        <v>312</v>
       </c>
       <c r="C93" t="s">
-        <v>218</v>
+        <v>313</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s">
-        <v>6</v>
-      </c>
-      <c r="B94" t="s">
-        <v>219</v>
-      </c>
-      <c r="C94" t="s">
-        <v>220</v>
-      </c>
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
     </row>
     <row r="95">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
+      <c r="A95" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>3</v>
-      </c>
-      <c r="B96" t="s">
-        <v>221</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B97" t="s">
+        <v>315</v>
+      </c>
+      <c r="C97" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="98">
@@ -4722,43 +4722,28 @@
         <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>222</v>
+        <v>317</v>
       </c>
       <c r="C98" t="s">
-        <v>223</v>
+        <v>318</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s">
-        <v>6</v>
-      </c>
-      <c r="B99" t="s">
-        <v>224</v>
-      </c>
-      <c r="C99" t="s">
-        <v>225</v>
-      </c>
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B100" t="s">
-        <v>226</v>
-      </c>
-      <c r="C100" t="s">
-        <v>227</v>
+        <v>319</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>6</v>
-      </c>
-      <c r="B101" t="s">
-        <v>228</v>
-      </c>
-      <c r="C101" t="s">
-        <v>229</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102">
@@ -4766,39 +4751,39 @@
         <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>230</v>
+        <v>320</v>
       </c>
       <c r="C102" t="s">
-        <v>231</v>
+        <v>321</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
+      <c r="A103" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" t="s">
+        <v>322</v>
+      </c>
+      <c r="C103" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="104">
-      <c r="A104" t="s">
-        <v>3</v>
-      </c>
-      <c r="B104" t="s">
-        <v>232</v>
-      </c>
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B105" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>6</v>
-      </c>
-      <c r="B106" t="s">
-        <v>233</v>
-      </c>
-      <c r="C106" t="s">
-        <v>234</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107">
@@ -4806,101 +4791,101 @@
         <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>235</v>
+        <v>325</v>
       </c>
       <c r="C107" t="s">
-        <v>236</v>
+        <v>326</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
+      <c r="A108" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" t="s">
+        <v>327</v>
+      </c>
+      <c r="C108" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B109" t="s">
-        <v>237</v>
+        <v>327</v>
+      </c>
+      <c r="C109" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B110" t="s">
+        <v>330</v>
+      </c>
+      <c r="C110" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s">
-        <v>6</v>
-      </c>
-      <c r="B111" t="s">
-        <v>238</v>
-      </c>
-      <c r="C111" t="s">
-        <v>239</v>
-      </c>
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B112" t="s">
-        <v>240</v>
-      </c>
-      <c r="C112" t="s">
-        <v>241</v>
+        <v>332</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
+      <c r="A113" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B114" t="s">
-        <v>242</v>
+        <v>333</v>
+      </c>
+      <c r="C114" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B115" t="s">
+        <v>335</v>
+      </c>
+      <c r="C115" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s">
-        <v>6</v>
-      </c>
-      <c r="B116" t="s">
-        <v>243</v>
-      </c>
-      <c r="C116" t="s">
-        <v>244</v>
-      </c>
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B117" t="s">
-        <v>245</v>
-      </c>
-      <c r="C117" t="s">
-        <v>246</v>
+        <v>337</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>6</v>
-      </c>
-      <c r="B118" t="s">
-        <v>247</v>
-      </c>
-      <c r="C118" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119">
@@ -4908,39 +4893,39 @@
         <v>6</v>
       </c>
       <c r="B119" t="s">
-        <v>249</v>
+        <v>338</v>
       </c>
       <c r="C119" t="s">
-        <v>250</v>
+        <v>339</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
+      <c r="A120" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120" t="s">
+        <v>340</v>
+      </c>
+      <c r="C120" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="121">
-      <c r="A121" t="s">
-        <v>3</v>
-      </c>
-      <c r="B121" t="s">
-        <v>251</v>
-      </c>
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B122" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>6</v>
-      </c>
-      <c r="B123" t="s">
-        <v>252</v>
-      </c>
-      <c r="C123" t="s">
-        <v>253</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124">
@@ -4948,39 +4933,39 @@
         <v>6</v>
       </c>
       <c r="B124" t="s">
-        <v>252</v>
+        <v>343</v>
       </c>
       <c r="C124" t="s">
-        <v>254</v>
+        <v>344</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
+      <c r="A125" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125" t="s">
+        <v>343</v>
+      </c>
+      <c r="C125" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="126">
-      <c r="A126" t="s">
-        <v>3</v>
-      </c>
-      <c r="B126" t="s">
-        <v>255</v>
-      </c>
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B127" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>6</v>
-      </c>
-      <c r="B128" t="s">
-        <v>256</v>
-      </c>
-      <c r="C128" t="s">
-        <v>257</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129">
@@ -4988,10 +4973,10 @@
         <v>6</v>
       </c>
       <c r="B129" t="s">
-        <v>258</v>
+        <v>347</v>
       </c>
       <c r="C129" t="s">
-        <v>259</v>
+        <v>348</v>
       </c>
     </row>
     <row r="130">
@@ -4999,39 +4984,39 @@
         <v>6</v>
       </c>
       <c r="B130" t="s">
-        <v>260</v>
+        <v>349</v>
       </c>
       <c r="C130" t="s">
-        <v>261</v>
+        <v>350</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s">
-        <v>6</v>
-      </c>
-      <c r="B131" t="s">
-        <v>262</v>
-      </c>
-      <c r="C131" t="s">
-        <v>263</v>
-      </c>
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
     </row>
     <row r="132">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
+      <c r="A132" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>3</v>
-      </c>
-      <c r="B133" t="s">
-        <v>264</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B134" t="s">
+        <v>352</v>
+      </c>
+      <c r="C134" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="135">
@@ -5039,10 +5024,10 @@
         <v>6</v>
       </c>
       <c r="B135" t="s">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="C135" t="s">
-        <v>266</v>
+        <v>355</v>
       </c>
     </row>
     <row r="136">
@@ -5050,10 +5035,10 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>267</v>
+        <v>356</v>
       </c>
       <c r="C136" t="s">
-        <v>268</v>
+        <v>357</v>
       </c>
     </row>
     <row r="137">
@@ -5066,7 +5051,7 @@
         <v>3</v>
       </c>
       <c r="B138" t="s">
-        <v>269</v>
+        <v>363</v>
       </c>
     </row>
     <row r="139">
@@ -5079,10 +5064,10 @@
         <v>6</v>
       </c>
       <c r="B140" t="s">
-        <v>270</v>
+        <v>364</v>
       </c>
       <c r="C140" t="s">
-        <v>271</v>
+        <v>365</v>
       </c>
     </row>
     <row r="141">
@@ -5090,10 +5075,10 @@
         <v>6</v>
       </c>
       <c r="B141" t="s">
-        <v>272</v>
+        <v>366</v>
       </c>
       <c r="C141" t="s">
-        <v>273</v>
+        <v>367</v>
       </c>
     </row>
     <row r="142">
@@ -5101,39 +5086,39 @@
         <v>6</v>
       </c>
       <c r="B142" t="s">
-        <v>274</v>
+        <v>368</v>
       </c>
       <c r="C142" t="s">
-        <v>275</v>
+        <v>369</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s">
-        <v>6</v>
-      </c>
-      <c r="B143" t="s">
-        <v>276</v>
-      </c>
-      <c r="C143" t="s">
-        <v>277</v>
-      </c>
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
     </row>
     <row r="144">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
+      <c r="A144" t="s">
+        <v>3</v>
+      </c>
+      <c r="B144" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>3</v>
-      </c>
-      <c r="B145" t="s">
-        <v>278</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B146" t="s">
+        <v>371</v>
+      </c>
+      <c r="C146" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="147">
@@ -5141,39 +5126,39 @@
         <v>6</v>
       </c>
       <c r="B147" t="s">
-        <v>279</v>
+        <v>371</v>
       </c>
       <c r="C147" t="s">
-        <v>280</v>
+        <v>373</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s">
-        <v>6</v>
-      </c>
-      <c r="B148" t="s">
-        <v>281</v>
-      </c>
-      <c r="C148" t="s">
-        <v>282</v>
-      </c>
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
     </row>
     <row r="149">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
+      <c r="A149" t="s">
+        <v>3</v>
+      </c>
+      <c r="B149" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>3</v>
-      </c>
-      <c r="B150" t="s">
-        <v>283</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B151" t="s">
+        <v>375</v>
+      </c>
+      <c r="C151" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="152">
@@ -5181,10 +5166,10 @@
         <v>6</v>
       </c>
       <c r="B152" t="s">
-        <v>284</v>
+        <v>377</v>
       </c>
       <c r="C152" t="s">
-        <v>285</v>
+        <v>378</v>
       </c>
     </row>
     <row r="153">
@@ -5192,10 +5177,10 @@
         <v>6</v>
       </c>
       <c r="B153" t="s">
-        <v>286</v>
+        <v>379</v>
       </c>
       <c r="C153" t="s">
-        <v>287</v>
+        <v>380</v>
       </c>
     </row>
     <row r="154">
@@ -5203,39 +5188,39 @@
         <v>6</v>
       </c>
       <c r="B154" t="s">
-        <v>284</v>
+        <v>381</v>
       </c>
       <c r="C154" t="s">
-        <v>288</v>
+        <v>382</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s">
-        <v>6</v>
-      </c>
-      <c r="B155" t="s">
-        <v>289</v>
-      </c>
-      <c r="C155" t="s">
-        <v>290</v>
-      </c>
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
     </row>
     <row r="156">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
+      <c r="A156" t="s">
+        <v>3</v>
+      </c>
+      <c r="B156" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>3</v>
-      </c>
-      <c r="B157" t="s">
-        <v>291</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B158" t="s">
+        <v>384</v>
+      </c>
+      <c r="C158" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="159">
@@ -5243,10 +5228,10 @@
         <v>6</v>
       </c>
       <c r="B159" t="s">
-        <v>292</v>
+        <v>386</v>
       </c>
       <c r="C159" t="s">
-        <v>293</v>
+        <v>387</v>
       </c>
     </row>
     <row r="160">
@@ -5254,10 +5239,10 @@
         <v>6</v>
       </c>
       <c r="B160" t="s">
-        <v>292</v>
+        <v>388</v>
       </c>
       <c r="C160" t="s">
-        <v>294</v>
+        <v>389</v>
       </c>
     </row>
     <row r="161">
@@ -5265,61 +5250,61 @@
         <v>6</v>
       </c>
       <c r="B161" t="s">
-        <v>295</v>
+        <v>390</v>
       </c>
       <c r="C161" t="s">
-        <v>296</v>
+        <v>391</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s">
-        <v>6</v>
-      </c>
-      <c r="B162" t="s">
-        <v>297</v>
-      </c>
-      <c r="C162" t="s">
-        <v>298</v>
-      </c>
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B163" t="s">
-        <v>299</v>
-      </c>
-      <c r="C163" t="s">
-        <v>300</v>
+        <v>397</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>6</v>
-      </c>
-      <c r="B164" t="s">
-        <v>295</v>
-      </c>
-      <c r="C164" t="s">
-        <v>301</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
+      <c r="A165" t="s">
+        <v>6</v>
+      </c>
+      <c r="B165" t="s">
+        <v>398</v>
+      </c>
+      <c r="C165" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B166" t="s">
-        <v>302</v>
+        <v>400</v>
+      </c>
+      <c r="C166" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B167" t="s">
+        <v>402</v>
+      </c>
+      <c r="C167" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="168">
@@ -5327,39 +5312,39 @@
         <v>6</v>
       </c>
       <c r="B168" t="s">
-        <v>303</v>
+        <v>404</v>
       </c>
       <c r="C168" t="s">
-        <v>304</v>
+        <v>405</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s">
-        <v>6</v>
-      </c>
-      <c r="B169" t="s">
-        <v>305</v>
-      </c>
-      <c r="C169" t="s">
-        <v>306</v>
-      </c>
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
     </row>
     <row r="170">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
+      <c r="A170" t="s">
+        <v>3</v>
+      </c>
+      <c r="B170" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>3</v>
-      </c>
-      <c r="B171" t="s">
-        <v>307</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B172" t="s">
+        <v>407</v>
+      </c>
+      <c r="C172" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="173">
@@ -5367,101 +5352,101 @@
         <v>6</v>
       </c>
       <c r="B173" t="s">
-        <v>308</v>
+        <v>409</v>
       </c>
       <c r="C173" t="s">
-        <v>309</v>
+        <v>410</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s">
-        <v>6</v>
-      </c>
-      <c r="B174" t="s">
-        <v>310</v>
-      </c>
-      <c r="C174" t="s">
-        <v>311</v>
-      </c>
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B175" t="s">
-        <v>312</v>
-      </c>
-      <c r="C175" t="s">
-        <v>313</v>
+        <v>411</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>6</v>
-      </c>
-      <c r="B176" t="s">
-        <v>312</v>
-      </c>
-      <c r="C176" t="s">
-        <v>314</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
+      <c r="A177" t="s">
+        <v>6</v>
+      </c>
+      <c r="B177" t="s">
+        <v>412</v>
+      </c>
+      <c r="C177" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B178" t="s">
-        <v>315</v>
+        <v>412</v>
+      </c>
+      <c r="C178" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s">
-        <v>5</v>
-      </c>
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B180" t="s">
-        <v>316</v>
-      </c>
-      <c r="C180" t="s">
-        <v>317</v>
+        <v>415</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>6</v>
-      </c>
-      <c r="B181" t="s">
-        <v>316</v>
-      </c>
-      <c r="C181" t="s">
-        <v>318</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
+      <c r="A182" t="s">
+        <v>6</v>
+      </c>
+      <c r="B182" t="s">
+        <v>416</v>
+      </c>
+      <c r="C182" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B183" t="s">
-        <v>319</v>
+        <v>418</v>
+      </c>
+      <c r="C183" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B184" t="s">
+        <v>420</v>
+      </c>
+      <c r="C184" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="185">
@@ -5469,10 +5454,10 @@
         <v>6</v>
       </c>
       <c r="B185" t="s">
-        <v>320</v>
+        <v>422</v>
       </c>
       <c r="C185" t="s">
-        <v>321</v>
+        <v>423</v>
       </c>
     </row>
     <row r="186">
@@ -5480,39 +5465,39 @@
         <v>6</v>
       </c>
       <c r="B186" t="s">
-        <v>322</v>
+        <v>424</v>
       </c>
       <c r="C186" t="s">
-        <v>323</v>
+        <v>425</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s">
-        <v>6</v>
-      </c>
-      <c r="B187" t="s">
-        <v>322</v>
-      </c>
-      <c r="C187" t="s">
-        <v>324</v>
-      </c>
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
     </row>
     <row r="188">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
+      <c r="A188" t="s">
+        <v>3</v>
+      </c>
+      <c r="B188" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>3</v>
-      </c>
-      <c r="B189" t="s">
-        <v>325</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B190" t="s">
+        <v>427</v>
+      </c>
+      <c r="C190" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="191">
@@ -5520,10 +5505,10 @@
         <v>6</v>
       </c>
       <c r="B191" t="s">
-        <v>326</v>
+        <v>429</v>
       </c>
       <c r="C191" t="s">
-        <v>327</v>
+        <v>430</v>
       </c>
     </row>
     <row r="192">
@@ -5531,10 +5516,10 @@
         <v>6</v>
       </c>
       <c r="B192" t="s">
-        <v>328</v>
+        <v>431</v>
       </c>
       <c r="C192" t="s">
-        <v>329</v>
+        <v>432</v>
       </c>
     </row>
     <row r="193">
@@ -5547,7 +5532,7 @@
         <v>3</v>
       </c>
       <c r="B194" t="s">
-        <v>330</v>
+        <v>438</v>
       </c>
     </row>
     <row r="195">
@@ -5560,10 +5545,10 @@
         <v>6</v>
       </c>
       <c r="B196" t="s">
-        <v>331</v>
+        <v>439</v>
       </c>
       <c r="C196" t="s">
-        <v>332</v>
+        <v>440</v>
       </c>
     </row>
     <row r="197">
@@ -5571,39 +5556,39 @@
         <v>6</v>
       </c>
       <c r="B197" t="s">
-        <v>333</v>
+        <v>441</v>
       </c>
       <c r="C197" t="s">
-        <v>334</v>
+        <v>442</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s">
-        <v>6</v>
-      </c>
-      <c r="B198" t="s">
-        <v>335</v>
-      </c>
-      <c r="C198" t="s">
-        <v>336</v>
-      </c>
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
     </row>
     <row r="199">
-      <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
+      <c r="A199" t="s">
+        <v>3</v>
+      </c>
+      <c r="B199" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>3</v>
-      </c>
-      <c r="B200" t="s">
-        <v>353</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B201" t="s">
+        <v>444</v>
+      </c>
+      <c r="C201" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="202">
@@ -5611,39 +5596,39 @@
         <v>6</v>
       </c>
       <c r="B202" t="s">
-        <v>354</v>
+        <v>446</v>
       </c>
       <c r="C202" t="s">
-        <v>355</v>
+        <v>447</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s">
-        <v>6</v>
-      </c>
-      <c r="B203" t="s">
-        <v>356</v>
-      </c>
-      <c r="C203" t="s">
-        <v>357</v>
-      </c>
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
     </row>
     <row r="204">
-      <c r="A204" s="1"/>
-      <c r="B204" s="1"/>
-      <c r="C204" s="1"/>
+      <c r="A204" t="s">
+        <v>3</v>
+      </c>
+      <c r="B204" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>3</v>
-      </c>
-      <c r="B205" t="s">
-        <v>358</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B206" t="s">
+        <v>449</v>
+      </c>
+      <c r="C206" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="207">
@@ -5651,39 +5636,39 @@
         <v>6</v>
       </c>
       <c r="B207" t="s">
-        <v>359</v>
+        <v>451</v>
       </c>
       <c r="C207" t="s">
-        <v>360</v>
+        <v>452</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s">
-        <v>6</v>
-      </c>
-      <c r="B208" t="s">
-        <v>361</v>
-      </c>
-      <c r="C208" t="s">
-        <v>362</v>
-      </c>
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
     </row>
     <row r="209">
-      <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
-      <c r="C209" s="1"/>
+      <c r="A209" t="s">
+        <v>3</v>
+      </c>
+      <c r="B209" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>3</v>
-      </c>
-      <c r="B210" t="s">
-        <v>443</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B211" t="s">
+        <v>454</v>
+      </c>
+      <c r="C211" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="212">
@@ -5691,10 +5676,10 @@
         <v>6</v>
       </c>
       <c r="B212" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="C212" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="213">
@@ -5702,10 +5687,10 @@
         <v>6</v>
       </c>
       <c r="B213" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="C213" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="214">
@@ -5718,7 +5703,7 @@
         <v>3</v>
       </c>
       <c r="B215" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="216">
@@ -5731,10 +5716,10 @@
         <v>6</v>
       </c>
       <c r="B217" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="C217" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="218">
@@ -5742,39 +5727,39 @@
         <v>6</v>
       </c>
       <c r="B218" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="C218" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
-      <c r="C219" s="1"/>
+      <c r="A219" t="s">
+        <v>6</v>
+      </c>
+      <c r="B219" t="s">
+        <v>464</v>
+      </c>
+      <c r="C219" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="220">
-      <c r="A220" t="s">
-        <v>3</v>
-      </c>
-      <c r="B220" t="s">
-        <v>453</v>
-      </c>
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B221" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>6</v>
-      </c>
-      <c r="B222" t="s">
-        <v>454</v>
-      </c>
-      <c r="C222" t="s">
-        <v>455</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223">
@@ -5782,10 +5767,10 @@
         <v>6</v>
       </c>
       <c r="B223" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="C223" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="224">
@@ -5793,10 +5778,10 @@
         <v>6</v>
       </c>
       <c r="B224" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="C224" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="225">
@@ -5804,10 +5789,10 @@
         <v>6</v>
       </c>
       <c r="B225" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="C225" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="226">
@@ -5820,7 +5805,7 @@
         <v>3</v>
       </c>
       <c r="B227" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
     </row>
     <row r="228">
@@ -5833,10 +5818,10 @@
         <v>6</v>
       </c>
       <c r="B229" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="C229" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
     </row>
     <row r="230">
@@ -5844,10 +5829,10 @@
         <v>6</v>
       </c>
       <c r="B230" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="C230" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
     </row>
     <row r="231">
@@ -5855,10 +5840,10 @@
         <v>6</v>
       </c>
       <c r="B231" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="C231" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
     </row>
     <row r="232">
@@ -5866,90 +5851,90 @@
         <v>6</v>
       </c>
       <c r="B232" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="C232" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s">
-        <v>6</v>
-      </c>
-      <c r="B233" t="s">
-        <v>500</v>
-      </c>
-      <c r="C233" t="s">
-        <v>501</v>
-      </c>
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B234" t="s">
-        <v>502</v>
-      </c>
-      <c r="C234" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
-      <c r="C235" s="1"/>
+      <c r="A235" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B236" t="s">
-        <v>504</v>
+        <v>487</v>
+      </c>
+      <c r="C236" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B237" t="s">
+        <v>489</v>
+      </c>
+      <c r="C237" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="s">
-        <v>6</v>
-      </c>
-      <c r="B238" t="s">
-        <v>505</v>
-      </c>
-      <c r="C238" t="s">
-        <v>506</v>
-      </c>
+      <c r="A238" s="1"/>
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B239" t="s">
-        <v>507</v>
-      </c>
-      <c r="C239" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="1"/>
-      <c r="B240" s="1"/>
-      <c r="C240" s="1"/>
+      <c r="A240" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B241" t="s">
-        <v>514</v>
+        <v>492</v>
+      </c>
+      <c r="C241" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B242" t="s">
+        <v>494</v>
+      </c>
+      <c r="C242" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="243">
@@ -5957,10 +5942,10 @@
         <v>6</v>
       </c>
       <c r="B243" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="C243" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
     </row>
     <row r="244">
@@ -5968,10 +5953,10 @@
         <v>6</v>
       </c>
       <c r="B244" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="C244" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
     </row>
     <row r="245">
@@ -5979,28 +5964,43 @@
         <v>6</v>
       </c>
       <c r="B245" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
       <c r="C245" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="1"/>
-      <c r="B246" s="1"/>
-      <c r="C246" s="1"/>
+      <c r="A246" t="s">
+        <v>6</v>
+      </c>
+      <c r="B246" t="s">
+        <v>502</v>
+      </c>
+      <c r="C246" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B247" t="s">
-        <v>521</v>
+        <v>504</v>
+      </c>
+      <c r="C247" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B248" t="s">
+        <v>506</v>
+      </c>
+      <c r="C248" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="249">
@@ -6008,10 +6008,10 @@
         <v>6</v>
       </c>
       <c r="B249" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="C249" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
     </row>
     <row r="250">
@@ -6019,10 +6019,10 @@
         <v>6</v>
       </c>
       <c r="B250" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="C250" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
     </row>
     <row r="251">
@@ -6030,10 +6030,10 @@
         <v>6</v>
       </c>
       <c r="B251" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="C251" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
     </row>
     <row r="252">
@@ -6046,7 +6046,7 @@
         <v>3</v>
       </c>
       <c r="B253" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
     </row>
     <row r="254">
@@ -6059,10 +6059,10 @@
         <v>6</v>
       </c>
       <c r="B255" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="C255" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
     </row>
     <row r="256">
@@ -6070,10 +6070,10 @@
         <v>6</v>
       </c>
       <c r="B256" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="C256" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
     </row>
     <row r="257">
@@ -6081,68 +6081,83 @@
         <v>6</v>
       </c>
       <c r="B257" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="C257" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="1"/>
-      <c r="B258" s="1"/>
-      <c r="C258" s="1"/>
+      <c r="A258" t="s">
+        <v>6</v>
+      </c>
+      <c r="B258" t="s">
+        <v>520</v>
+      </c>
+      <c r="C258" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B259" t="s">
-        <v>534</v>
+        <v>522</v>
+      </c>
+      <c r="C259" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B260" t="s">
+        <v>518</v>
+      </c>
+      <c r="C260" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="s">
-        <v>6</v>
-      </c>
-      <c r="B261" t="s">
-        <v>535</v>
-      </c>
-      <c r="C261" t="s">
-        <v>536</v>
-      </c>
+      <c r="A261" s="1"/>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B262" t="s">
-        <v>535</v>
-      </c>
-      <c r="C262" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="1"/>
-      <c r="B263" s="1"/>
-      <c r="C263" s="1"/>
+      <c r="A263" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B264" t="s">
-        <v>538</v>
+        <v>526</v>
+      </c>
+      <c r="C264" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B265" t="s">
+        <v>528</v>
+      </c>
+      <c r="C265" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="266">
@@ -6150,39 +6165,39 @@
         <v>6</v>
       </c>
       <c r="B266" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="C266" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="s">
-        <v>6</v>
-      </c>
-      <c r="B267" t="s">
-        <v>541</v>
-      </c>
-      <c r="C267" t="s">
-        <v>542</v>
-      </c>
+      <c r="A267" s="1"/>
+      <c r="B267" s="1"/>
+      <c r="C267" s="1"/>
     </row>
     <row r="268">
-      <c r="A268" s="1"/>
-      <c r="B268" s="1"/>
-      <c r="C268" s="1"/>
+      <c r="A268" t="s">
+        <v>3</v>
+      </c>
+      <c r="B268" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>3</v>
-      </c>
-      <c r="B269" t="s">
-        <v>543</v>
+        <v>5</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B270" t="s">
+        <v>545</v>
+      </c>
+      <c r="C270" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="271">
@@ -6190,39 +6205,39 @@
         <v>6</v>
       </c>
       <c r="B271" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C271" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="s">
-        <v>6</v>
-      </c>
-      <c r="B272" t="s">
-        <v>546</v>
-      </c>
-      <c r="C272" t="s">
-        <v>547</v>
-      </c>
+      <c r="A272" s="1"/>
+      <c r="B272" s="1"/>
+      <c r="C272" s="1"/>
     </row>
     <row r="273">
-      <c r="A273" s="1"/>
-      <c r="B273" s="1"/>
-      <c r="C273" s="1"/>
+      <c r="A273" t="s">
+        <v>3</v>
+      </c>
+      <c r="B273" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>3</v>
-      </c>
-      <c r="B274" t="s">
-        <v>548</v>
+        <v>5</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B275" t="s">
+        <v>588</v>
+      </c>
+      <c r="C275" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="276">
@@ -6230,10 +6245,10 @@
         <v>6</v>
       </c>
       <c r="B276" t="s">
-        <v>549</v>
+        <v>590</v>
       </c>
       <c r="C276" t="s">
-        <v>550</v>
+        <v>591</v>
       </c>
     </row>
     <row r="277">
@@ -6241,10 +6256,10 @@
         <v>6</v>
       </c>
       <c r="B277" t="s">
-        <v>551</v>
+        <v>592</v>
       </c>
       <c r="C277" t="s">
-        <v>552</v>
+        <v>593</v>
       </c>
     </row>
     <row r="278">
@@ -6252,108 +6267,123 @@
         <v>6</v>
       </c>
       <c r="B278" t="s">
-        <v>553</v>
+        <v>594</v>
       </c>
       <c r="C278" t="s">
-        <v>554</v>
+        <v>595</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="1"/>
-      <c r="B279" s="1"/>
-      <c r="C279" s="1"/>
+      <c r="A279" t="s">
+        <v>6</v>
+      </c>
+      <c r="B279" t="s">
+        <v>594</v>
+      </c>
+      <c r="C279" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B280" t="s">
-        <v>560</v>
+        <v>597</v>
+      </c>
+      <c r="C280" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="s">
-        <v>5</v>
-      </c>
+      <c r="A281" s="1"/>
+      <c r="B281" s="1"/>
+      <c r="C281" s="1"/>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B282" t="s">
-        <v>561</v>
-      </c>
-      <c r="C282" t="s">
-        <v>562</v>
+        <v>599</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>6</v>
-      </c>
-      <c r="B283" t="s">
-        <v>563</v>
-      </c>
-      <c r="C283" t="s">
-        <v>564</v>
+        <v>5</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="1"/>
-      <c r="B284" s="1"/>
-      <c r="C284" s="1"/>
+      <c r="A284" t="s">
+        <v>6</v>
+      </c>
+      <c r="B284" t="s">
+        <v>600</v>
+      </c>
+      <c r="C284" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B285" t="s">
-        <v>565</v>
+        <v>602</v>
+      </c>
+      <c r="C285" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s">
-        <v>5</v>
-      </c>
+      <c r="A286" s="1"/>
+      <c r="B286" s="1"/>
+      <c r="C286" s="1"/>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B287" t="s">
-        <v>566</v>
-      </c>
-      <c r="C287" t="s">
-        <v>567</v>
+        <v>604</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>6</v>
-      </c>
-      <c r="B288" t="s">
-        <v>568</v>
-      </c>
-      <c r="C288" t="s">
-        <v>569</v>
+        <v>5</v>
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="1"/>
-      <c r="B289" s="1"/>
-      <c r="C289" s="1"/>
+      <c r="A289" t="s">
+        <v>6</v>
+      </c>
+      <c r="B289" t="s">
+        <v>605</v>
+      </c>
+      <c r="C289" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B290" t="s">
-        <v>570</v>
+        <v>607</v>
+      </c>
+      <c r="C290" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B291" t="s">
+        <v>609</v>
+      </c>
+      <c r="C291" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="292">
@@ -6361,50 +6391,50 @@
         <v>6</v>
       </c>
       <c r="B292" t="s">
-        <v>571</v>
+        <v>609</v>
       </c>
       <c r="C292" t="s">
-        <v>572</v>
+        <v>611</v>
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="s">
-        <v>6</v>
-      </c>
-      <c r="B293" t="s">
-        <v>573</v>
-      </c>
-      <c r="C293" t="s">
-        <v>574</v>
-      </c>
+      <c r="A293" s="1"/>
+      <c r="B293" s="1"/>
+      <c r="C293" s="1"/>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B294" t="s">
-        <v>575</v>
-      </c>
-      <c r="C294" t="s">
-        <v>576</v>
+        <v>612</v>
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="1"/>
-      <c r="B295" s="1"/>
-      <c r="C295" s="1"/>
+      <c r="A295" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B296" t="s">
-        <v>577</v>
+        <v>613</v>
+      </c>
+      <c r="C296" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B297" t="s">
+        <v>613</v>
+      </c>
+      <c r="C297" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="298">
@@ -6412,39 +6442,39 @@
         <v>6</v>
       </c>
       <c r="B298" t="s">
-        <v>578</v>
+        <v>613</v>
       </c>
       <c r="C298" t="s">
-        <v>579</v>
+        <v>616</v>
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="s">
-        <v>6</v>
-      </c>
-      <c r="B299" t="s">
-        <v>580</v>
-      </c>
-      <c r="C299" t="s">
-        <v>581</v>
-      </c>
+      <c r="A299" s="1"/>
+      <c r="B299" s="1"/>
+      <c r="C299" s="1"/>
     </row>
     <row r="300">
-      <c r="A300" s="1"/>
-      <c r="B300" s="1"/>
-      <c r="C300" s="1"/>
+      <c r="A300" t="s">
+        <v>3</v>
+      </c>
+      <c r="B300" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>3</v>
-      </c>
-      <c r="B301" t="s">
-        <v>587</v>
+        <v>5</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B302" t="s">
+        <v>618</v>
+      </c>
+      <c r="C302" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="303">
@@ -6452,43 +6482,28 @@
         <v>6</v>
       </c>
       <c r="B303" t="s">
-        <v>588</v>
+        <v>620</v>
       </c>
       <c r="C303" t="s">
-        <v>589</v>
+        <v>621</v>
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="s">
-        <v>6</v>
-      </c>
-      <c r="B304" t="s">
-        <v>590</v>
-      </c>
-      <c r="C304" t="s">
-        <v>591</v>
-      </c>
+      <c r="A304" s="1"/>
+      <c r="B304" s="1"/>
+      <c r="C304" s="1"/>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B305" t="s">
-        <v>592</v>
-      </c>
-      <c r="C305" t="s">
-        <v>593</v>
+        <v>622</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>6</v>
-      </c>
-      <c r="B306" t="s">
-        <v>594</v>
-      </c>
-      <c r="C306" t="s">
-        <v>595</v>
+        <v>5</v>
       </c>
     </row>
     <row r="307">
@@ -6496,10 +6511,10 @@
         <v>6</v>
       </c>
       <c r="B307" t="s">
-        <v>596</v>
+        <v>623</v>
       </c>
       <c r="C307" t="s">
-        <v>597</v>
+        <v>624</v>
       </c>
     </row>
     <row r="308">
@@ -6507,43 +6522,28 @@
         <v>6</v>
       </c>
       <c r="B308" t="s">
-        <v>598</v>
+        <v>625</v>
       </c>
       <c r="C308" t="s">
-        <v>599</v>
+        <v>626</v>
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="s">
-        <v>6</v>
-      </c>
-      <c r="B309" t="s">
-        <v>600</v>
-      </c>
-      <c r="C309" t="s">
-        <v>601</v>
-      </c>
+      <c r="A309" s="1"/>
+      <c r="B309" s="1"/>
+      <c r="C309" s="1"/>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B310" t="s">
-        <v>602</v>
-      </c>
-      <c r="C310" t="s">
-        <v>603</v>
+        <v>627</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>6</v>
-      </c>
-      <c r="B311" t="s">
-        <v>604</v>
-      </c>
-      <c r="C311" t="s">
-        <v>605</v>
+        <v>5</v>
       </c>
     </row>
     <row r="312">
@@ -6551,10 +6551,10 @@
         <v>6</v>
       </c>
       <c r="B312" t="s">
-        <v>606</v>
+        <v>628</v>
       </c>
       <c r="C312" t="s">
-        <v>607</v>
+        <v>629</v>
       </c>
     </row>
     <row r="313">
@@ -6562,10 +6562,10 @@
         <v>6</v>
       </c>
       <c r="B313" t="s">
-        <v>608</v>
+        <v>628</v>
       </c>
       <c r="C313" t="s">
-        <v>609</v>
+        <v>630</v>
       </c>
     </row>
     <row r="314">
@@ -6578,7 +6578,7 @@
         <v>3</v>
       </c>
       <c r="B315" t="s">
-        <v>610</v>
+        <v>631</v>
       </c>
     </row>
     <row r="316">
@@ -6591,10 +6591,10 @@
         <v>6</v>
       </c>
       <c r="B317" t="s">
-        <v>611</v>
+        <v>632</v>
       </c>
       <c r="C317" t="s">
-        <v>612</v>
+        <v>633</v>
       </c>
     </row>
     <row r="318">
@@ -6602,39 +6602,39 @@
         <v>6</v>
       </c>
       <c r="B318" t="s">
-        <v>611</v>
+        <v>634</v>
       </c>
       <c r="C318" t="s">
-        <v>613</v>
+        <v>635</v>
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="1"/>
-      <c r="B319" s="1"/>
-      <c r="C319" s="1"/>
+      <c r="A319" t="s">
+        <v>6</v>
+      </c>
+      <c r="B319" t="s">
+        <v>636</v>
+      </c>
+      <c r="C319" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="320">
-      <c r="A320" t="s">
-        <v>3</v>
-      </c>
-      <c r="B320" t="s">
-        <v>614</v>
-      </c>
+      <c r="A320" s="1"/>
+      <c r="B320" s="1"/>
+      <c r="C320" s="1"/>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B321" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>6</v>
-      </c>
-      <c r="B322" t="s">
-        <v>615</v>
-      </c>
-      <c r="C322" t="s">
-        <v>616</v>
+        <v>5</v>
       </c>
     </row>
     <row r="323">
@@ -6642,39 +6642,39 @@
         <v>6</v>
       </c>
       <c r="B323" t="s">
-        <v>615</v>
+        <v>639</v>
       </c>
       <c r="C323" t="s">
-        <v>617</v>
+        <v>640</v>
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="1"/>
-      <c r="B324" s="1"/>
-      <c r="C324" s="1"/>
+      <c r="A324" t="s">
+        <v>6</v>
+      </c>
+      <c r="B324" t="s">
+        <v>639</v>
+      </c>
+      <c r="C324" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="325">
-      <c r="A325" t="s">
-        <v>3</v>
-      </c>
-      <c r="B325" t="s">
-        <v>618</v>
-      </c>
+      <c r="A325" s="1"/>
+      <c r="B325" s="1"/>
+      <c r="C325" s="1"/>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B326" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>6</v>
-      </c>
-      <c r="B327" t="s">
-        <v>619</v>
-      </c>
-      <c r="C327" t="s">
-        <v>620</v>
+        <v>5</v>
       </c>
     </row>
     <row r="328">
@@ -6682,39 +6682,39 @@
         <v>6</v>
       </c>
       <c r="B328" t="s">
-        <v>621</v>
+        <v>643</v>
       </c>
       <c r="C328" t="s">
-        <v>622</v>
+        <v>644</v>
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="1"/>
-      <c r="B329" s="1"/>
-      <c r="C329" s="1"/>
+      <c r="A329" t="s">
+        <v>6</v>
+      </c>
+      <c r="B329" t="s">
+        <v>645</v>
+      </c>
+      <c r="C329" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="330">
-      <c r="A330" t="s">
-        <v>3</v>
-      </c>
-      <c r="B330" t="s">
-        <v>646</v>
-      </c>
+      <c r="A330" s="1"/>
+      <c r="B330" s="1"/>
+      <c r="C330" s="1"/>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B331" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>6</v>
-      </c>
-      <c r="B332" t="s">
-        <v>647</v>
-      </c>
-      <c r="C332" t="s">
-        <v>648</v>
+        <v>5</v>
       </c>
     </row>
     <row r="333">
@@ -6722,39 +6722,39 @@
         <v>6</v>
       </c>
       <c r="B333" t="s">
+        <v>648</v>
+      </c>
+      <c r="C333" t="s">
         <v>649</v>
       </c>
-      <c r="C333" t="s">
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>6</v>
+      </c>
+      <c r="B334" t="s">
+        <v>648</v>
+      </c>
+      <c r="C334" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" s="1"/>
-      <c r="B334" s="1"/>
-      <c r="C334" s="1"/>
-    </row>
     <row r="335">
-      <c r="A335" t="s">
-        <v>3</v>
-      </c>
-      <c r="B335" t="s">
-        <v>651</v>
-      </c>
+      <c r="A335" s="1"/>
+      <c r="B335" s="1"/>
+      <c r="C335" s="1"/>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B336" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>6</v>
-      </c>
-      <c r="B337" t="s">
-        <v>652</v>
-      </c>
-      <c r="C337" t="s">
-        <v>653</v>
+        <v>5</v>
       </c>
     </row>
     <row r="338">
@@ -6762,39 +6762,39 @@
         <v>6</v>
       </c>
       <c r="B338" t="s">
+        <v>652</v>
+      </c>
+      <c r="C338" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>6</v>
+      </c>
+      <c r="B339" t="s">
         <v>654</v>
       </c>
-      <c r="C338" t="s">
+      <c r="C339" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="339">
-      <c r="A339" s="1"/>
-      <c r="B339" s="1"/>
-      <c r="C339" s="1"/>
-    </row>
     <row r="340">
-      <c r="A340" t="s">
-        <v>3</v>
-      </c>
-      <c r="B340" t="s">
-        <v>656</v>
-      </c>
+      <c r="A340" s="1"/>
+      <c r="B340" s="1"/>
+      <c r="C340" s="1"/>
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B341" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>6</v>
-      </c>
-      <c r="B342" t="s">
-        <v>657</v>
-      </c>
-      <c r="C342" t="s">
-        <v>658</v>
+        <v>5</v>
       </c>
     </row>
     <row r="343">
@@ -6805,7 +6805,7 @@
         <v>657</v>
       </c>
       <c r="C343" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="344">
@@ -6813,7 +6813,7 @@
         <v>6</v>
       </c>
       <c r="B344" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C344" t="s">
         <v>660</v>
@@ -6837,7 +6837,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -6849,7 +6849,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>363</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4">
@@ -6862,13 +6862,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>365</v>
+        <v>190</v>
       </c>
       <c r="C5" t="s">
-        <v>366</v>
+        <v>191</v>
       </c>
       <c r="D5" t="s">
-        <v>364</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6">
@@ -6876,10 +6876,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>367</v>
+        <v>192</v>
       </c>
       <c r="C6" t="s">
-        <v>368</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7">
@@ -6887,10 +6887,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>369</v>
+        <v>194</v>
       </c>
       <c r="C7" t="s">
-        <v>370</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8">
@@ -6898,10 +6898,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>371</v>
+        <v>196</v>
       </c>
       <c r="C8" t="s">
-        <v>372</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9">
@@ -6909,10 +6909,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>373</v>
+        <v>198</v>
       </c>
       <c r="C9" t="s">
-        <v>374</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10">
@@ -6920,10 +6920,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>375</v>
+        <v>200</v>
       </c>
       <c r="C10" t="s">
-        <v>376</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11">
@@ -6931,10 +6931,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>377</v>
+        <v>202</v>
       </c>
       <c r="C11" t="s">
-        <v>378</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12">
@@ -6942,10 +6942,10 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>377</v>
+        <v>202</v>
       </c>
       <c r="C12" t="s">
-        <v>379</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13">
@@ -6953,10 +6953,10 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>380</v>
+        <v>205</v>
       </c>
       <c r="C13" t="s">
-        <v>381</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14">
@@ -6964,10 +6964,10 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>382</v>
+        <v>207</v>
       </c>
       <c r="C14" t="s">
-        <v>383</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15"/>
@@ -6976,13 +6976,13 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>385</v>
+        <v>210</v>
       </c>
       <c r="C16" t="s">
-        <v>386</v>
+        <v>211</v>
       </c>
       <c r="D16" t="s">
-        <v>384</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17">
@@ -6990,10 +6990,10 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>387</v>
+        <v>212</v>
       </c>
       <c r="C17" t="s">
-        <v>388</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18">
@@ -7001,10 +7001,10 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>389</v>
+        <v>214</v>
       </c>
       <c r="C18" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19">
@@ -7012,10 +7012,10 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>391</v>
+        <v>216</v>
       </c>
       <c r="C19" t="s">
-        <v>392</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20">
@@ -7023,10 +7023,10 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>393</v>
+        <v>218</v>
       </c>
       <c r="C20" t="s">
-        <v>394</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21">
@@ -7034,10 +7034,10 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>395</v>
+        <v>220</v>
       </c>
       <c r="C21" t="s">
-        <v>396</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22">
@@ -7045,10 +7045,10 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>397</v>
+        <v>222</v>
       </c>
       <c r="C22" t="s">
-        <v>398</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23">
@@ -7056,10 +7056,10 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>399</v>
+        <v>224</v>
       </c>
       <c r="C23" t="s">
-        <v>400</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24">
@@ -7067,10 +7067,10 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>401</v>
+        <v>226</v>
       </c>
       <c r="C24" t="s">
-        <v>402</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25">
@@ -7078,10 +7078,10 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>403</v>
+        <v>228</v>
       </c>
       <c r="C25" t="s">
-        <v>404</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26">
@@ -7089,10 +7089,10 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>405</v>
+        <v>230</v>
       </c>
       <c r="C26" t="s">
-        <v>406</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27">
@@ -7100,10 +7100,10 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>407</v>
+        <v>232</v>
       </c>
       <c r="C27" t="s">
-        <v>408</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28">
@@ -7111,10 +7111,10 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>409</v>
+        <v>234</v>
       </c>
       <c r="C28" t="s">
-        <v>410</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29">
@@ -7122,10 +7122,10 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>411</v>
+        <v>236</v>
       </c>
       <c r="C29" t="s">
-        <v>412</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30">
@@ -7133,10 +7133,10 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>413</v>
+        <v>238</v>
       </c>
       <c r="C30" t="s">
-        <v>414</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31">
@@ -7144,10 +7144,10 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>415</v>
+        <v>240</v>
       </c>
       <c r="C31" t="s">
-        <v>416</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32">
@@ -7155,10 +7155,10 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>417</v>
+        <v>242</v>
       </c>
       <c r="C32" t="s">
-        <v>418</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33">
@@ -7166,10 +7166,10 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>419</v>
+        <v>244</v>
       </c>
       <c r="C33" t="s">
-        <v>420</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34">
@@ -7177,10 +7177,10 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>421</v>
+        <v>246</v>
       </c>
       <c r="C34" t="s">
-        <v>422</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35">
@@ -7188,10 +7188,10 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>423</v>
+        <v>248</v>
       </c>
       <c r="C35" t="s">
-        <v>424</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36">
@@ -7199,10 +7199,10 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>425</v>
+        <v>250</v>
       </c>
       <c r="C36" t="s">
-        <v>426</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37"/>
@@ -7211,13 +7211,13 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>428</v>
+        <v>253</v>
       </c>
       <c r="C38" t="s">
-        <v>429</v>
+        <v>254</v>
       </c>
       <c r="D38" t="s">
-        <v>427</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39">
@@ -7225,10 +7225,10 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>430</v>
+        <v>255</v>
       </c>
       <c r="C39" t="s">
-        <v>431</v>
+        <v>256</v>
       </c>
     </row>
     <row r="40"/>
@@ -7237,10 +7237,10 @@
         <v>6</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>432</v>
+        <v>257</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>433</v>
+        <v>258</v>
       </c>
     </row>
     <row r="42">
@@ -7248,10 +7248,10 @@
         <v>6</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>385</v>
+        <v>210</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>434</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43">
@@ -7259,10 +7259,10 @@
         <v>6</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>435</v>
+        <v>260</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>436</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44">
@@ -7270,10 +7270,10 @@
         <v>6</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>437</v>
+        <v>262</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>438</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45">
@@ -7281,10 +7281,10 @@
         <v>6</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>439</v>
+        <v>264</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>440</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46">
@@ -7292,10 +7292,10 @@
         <v>6</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>441</v>
+        <v>266</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>442</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47">

--- a/test_review/06-06.xlsx
+++ b/test_review/06-06.xlsx
@@ -381,6 +381,1416 @@
     <t>https://discuss.openubmc.cn//t/topic/317/1</t>
   </si>
   <si>
+    <t>开发者实现Redfish Drive资源OEM接口时需解决NVM MI命令与硬件协议栈的兼容性整合</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制SendNvmeMICommand请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/40</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetIdentifyData请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/39</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetAddSmartInfo请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/37</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetTelemetryData请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/13</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/36</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetSmartInfo请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/38</t>
+  </si>
+  <si>
+    <t>BMC开发者如何高效构建仿真测试环境</t>
+  </si>
+  <si>
+    <t>OpenUBMC社区支持仿真镜像的构建与发布</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/qemu/issues/5</t>
+  </si>
+  <si>
+    <t>OpenUBMC社区支持仿真数据的发布</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/qemu/issues/4</t>
+  </si>
+  <si>
+    <t>OpenUBMC社区支持Qemu工具的构建与发布</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/qemu/issues/3</t>
+  </si>
+  <si>
+    <t>BMC开发者如何解决固件升级中的证书校验失败</t>
+  </si>
+  <si>
+    <t>使用社区最新出包，升级hpm失败，查看m3log get cert fail!</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/498/1</t>
+  </si>
+  <si>
+    <t>最新 source 包烧录异常问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/173/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何为thermal和power管理组件实现业务场景的白名单配置基线化</t>
+  </si>
+  <si>
+    <t>【需求】power_mgmt组件明确业务场景下的白名单化配置并形成基线</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/45</t>
+  </si>
+  <si>
+    <t>【需求】thermal_mgmt组件明确业务场景下的白名单化配置并形成基线</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/25</t>
+  </si>
+  <si>
+    <t>BMC开发中如何解决Conan v1弃用导致的头文件缺失编译失败</t>
+  </si>
+  <si>
+    <t>社区lsw编译不过</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/979/1</t>
+  </si>
+  <si>
+    <t>开源首版本编译不过</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/lsw/issues/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何在直通场景下实现NVMe SSD自定义SMART监控</t>
+  </si>
+  <si>
+    <t>【需求】支持自定义SMART信息的NVMe SSD盘写放大监控</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/28</t>
+  </si>
+  <si>
+    <t>【需求】支持从带内获取SMART NVMe SSD盘冗余块信息并监控</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/24</t>
+  </si>
+  <si>
+    <t>【需求】支持获取NVMe SSD盘自定义SMART信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/27</t>
+  </si>
+  <si>
+    <t>【需求】支持从带内获取厂商SMART NVMe SSD盘冗余块信息并监控</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/10</t>
+  </si>
+  <si>
+    <t>【需求】支持自定义的SMART NVMe SSD盘亚健康检测</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/23</t>
+  </si>
+  <si>
+    <t>【需求】支持自定义SMART信息的NVMe SSD盘预估寿命新增计算参数</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/25</t>
+  </si>
+  <si>
+    <t>BMC开发者如何解决PXE阶段因POST未完成导致重启失败</t>
+  </si>
+  <si>
+    <t>【问题单】定制后bios处于PXE阶段时重启BMC失败</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/19</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/sensor/issues/10</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现Power资源的Redfish新标准适配</t>
+  </si>
+  <si>
+    <t>【需求】Power资源支持redfish新标准</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/113</t>
+  </si>
+  <si>
+    <t>【需求】支持Power资源新增修改电源冗余模式</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/106</t>
+  </si>
+  <si>
+    <t>【需求】能效管理支持Chassis资源redfish新标准</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/18</t>
+  </si>
+  <si>
+    <t>【需求】【PowerStrategy】支持Web界面提示优选主用电源</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/webui/issues/39</t>
+  </si>
+  <si>
+    <t>支持web界面显示优选电源工作模式及主用电源列表</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/111</t>
+  </si>
+  <si>
+    <t>【需求】支持新增自定义用户/用户组设置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/webui/issues/38</t>
+  </si>
+  <si>
+    <t>话题：BMC开发中如何通过REDfish协议实现PrivilegeMap配置同步与用户校验提示优化</t>
+  </si>
+  <si>
+    <t>【需求】RAS接口支持配置PrivilegeMap信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/53</t>
+  </si>
+  <si>
+    <t>电源信息获取优化</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/4</t>
+  </si>
+  <si>
+    <t>支持节点模式设置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/5</t>
+  </si>
+  <si>
+    <t>电源转化器型号显示修改</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/3</t>
+  </si>
+  <si>
+    <t>支持新增自定义用户组设置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/account/issues/11</t>
+  </si>
+  <si>
+    <t>支持配置PrivilegeMap信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/account/issues/12</t>
+  </si>
+  <si>
+    <t>支持用户名校验定制后的用户提示优化</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/account/issues/5</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/31</t>
+  </si>
+  <si>
+    <t>文档持续更新</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/1</t>
+  </si>
+  <si>
+    <t>文档描述优化</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/6</t>
+  </si>
+  <si>
+    <t>话题：如何通过原子能力实现电源冗余模式配置与功率封顶参数管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/31</t>
+  </si>
+  <si>
+    <t>【需求】支持查询冗余供电信息能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/27</t>
+  </si>
+  <si>
+    <t>【需求】支持查询电源模块信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/28</t>
+  </si>
+  <si>
+    <t>【需求】支持查询系统供电信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/29</t>
+  </si>
+  <si>
+    <t>【需求】支持查询电源FRU信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/22</t>
+  </si>
+  <si>
+    <t>【需求】支持监控电源不匹配检测原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/36</t>
+  </si>
+  <si>
+    <t>【需求】支持设置功耗过高告警阈值原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/25</t>
+  </si>
+  <si>
+    <t>【需求】支持查询功耗过高告警阈值原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/20</t>
+  </si>
+  <si>
+    <t>【需求】支持采集电源FRU信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/34</t>
+  </si>
+  <si>
+    <t>【需求】支持查询指定机箱电源信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/23</t>
+  </si>
+  <si>
+    <t>【需求】支持设置冗余供电模式能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/26</t>
+  </si>
+  <si>
+    <t>【需求】支持优化供电模式切换特性</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/9</t>
+  </si>
+  <si>
+    <t>【需求】支持设置功率封顶参数原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/24</t>
+  </si>
+  <si>
+    <t>【需求】支持查询风扇信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/16</t>
+  </si>
+  <si>
+    <t>【需求】支持查询历史系统功率信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/30</t>
+  </si>
+  <si>
+    <t>【需求】支持功率采集及查询原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/37</t>
+  </si>
+  <si>
+    <t>【需求】支持查询功率封顶参数原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/21</t>
+  </si>
+  <si>
+    <t>【需求】支持查询最大风扇&amp;电源个数信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/14</t>
+  </si>
+  <si>
+    <t>【需求】支持查询温度信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/15</t>
+  </si>
+  <si>
+    <t>【需求】支持温度采集及查询原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/20</t>
+  </si>
+  <si>
+    <t>【需求】支持查询进风口历史温度信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/17</t>
+  </si>
+  <si>
+    <t>话题：如何验证Thermal/Power资源对Redfish新标准接口的完整兼容性及运维场景可行性</t>
+  </si>
+  <si>
+    <t>【需求】Power相关资源支持redfish新标准</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/19</t>
+  </si>
+  <si>
+    <t>【需求】Thermal相关资源支持redfish新标准</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/13</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现NVMe MI over MCTP协议响应码的可靠解析</t>
+  </si>
+  <si>
+    <t>【需求】支持NVMe-mi over mctp的协议解析</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/33</t>
+  </si>
+  <si>
+    <t>【需求】支持解析nvme mi协议响应码信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/8</t>
+  </si>
+  <si>
+    <t>BMC开发者如何适配BlueField系列设备的调速策略在openUBMC中</t>
+  </si>
+  <si>
+    <t>【需求】支持BlueField-3（B3220）的调速策略配置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/17</t>
+  </si>
+  <si>
+    <t>【需求】支持BlueField-2（332A）的调速策略</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/18</t>
+  </si>
+  <si>
+    <t>BMC开发者如何统一实现多品牌新款SATA硬盘的纳管支持？</t>
+  </si>
+  <si>
+    <t>【需求】支持新增希捷SATA盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/42</t>
+  </si>
+  <si>
+    <t>【需求】支持新增西数SATA盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/43</t>
+  </si>
+  <si>
+    <t>【需求】支持新增东芝SATA盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/45</t>
+  </si>
+  <si>
+    <t>BMC开发者在资源树协作接口中如何解决属性约束冲突与内部实现暴露问题</t>
+  </si>
+  <si>
+    <t>支持通用硬件满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/98</t>
+  </si>
+  <si>
+    <t>【需求】power_mgmt组件接口支持配置PrivilegeMap信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/44</t>
+  </si>
+  <si>
+    <t>【需求】支持能效管理满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/12</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/13</t>
+  </si>
+  <si>
+    <t>【需求】thermal_mgmt组件接口支持配置PrivilegeMap信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/27</t>
+  </si>
+  <si>
+    <t>【需求】thermal_mgmt组件满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/24</t>
+  </si>
+  <si>
+    <t>支持框架资源树协作接口满足关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/38</t>
+  </si>
+  <si>
+    <t>【需求】支持异构算力满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manufacture/issues/2</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/pcie_device/issues/7</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/lsw/issues/2</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/22</t>
+  </si>
+  <si>
+    <t>【需求】支持通用硬件满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/12</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/22</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/17</t>
+  </si>
+  <si>
+    <t>支持基础服务满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/32</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/chassis/issues/3</t>
+  </si>
+  <si>
+    <t>资源树协作接口关键字满足使用原则和规范</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/6</t>
+  </si>
+  <si>
+    <t>支持安全管理满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/account/issues/6</t>
+  </si>
+  <si>
+    <t>BMC开发者实现升级时多签名机制兼容性</t>
+  </si>
+  <si>
+    <t>能否实现伙伴签名的openUBMC版本直接升级华为签名的各种固件？</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/335/1</t>
+  </si>
+  <si>
+    <t>伙伴openubmc版本如何支持升级华为签名固件版本和伙伴自己签名的固件版本均能成功？</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1083/1</t>
+  </si>
+  <si>
+    <t>使用openubmc进行bios固件升级，提示无效的升级包</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/182/1</t>
+  </si>
+  <si>
+    <t>刷了华为根的机器是否可以直接刷伙伴根</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/933/1</t>
+  </si>
+  <si>
+    <t>BMC多组件共享白名单配置的维护复杂度问题</t>
+  </si>
+  <si>
+    <t>【需求】基于动态插桩拦截风险接口调用日志，形成通用化命令的白名单配置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/15</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/pcie_device/issues/4</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现FPGA自检失败的告警模拟测试</t>
+  </si>
+  <si>
+    <t>【需求】支持FPGA固件周期自检失败的告警</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/30</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/84</t>
+  </si>
+  <si>
+    <t>支持FPGA固件周期自检失败的告警</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/45</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现PLDM协议获取网卡信息并集成接口展示</t>
+  </si>
+  <si>
+    <t>【需求】支持使用pldm协议获取网卡相关信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/20</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/19</t>
+  </si>
+  <si>
+    <t>BMC配置导出需新增产品类别和软件版本信息支持</t>
+  </si>
+  <si>
+    <t>配置导出项新增BMC软件版本信息和产品类别信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/13</t>
+  </si>
+  <si>
+    <t>配置导入导出新增产品类别信息和BMC软件版本信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/profile_schema/issues/2</t>
+  </si>
+  <si>
+    <t>提供BMC出厂配置定制指导</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/16</t>
+  </si>
+  <si>
+    <t>软件中心需要添加BMCStudio描述和下载页</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/software-center-config/issues/3</t>
+  </si>
+  <si>
+    <t>BMC开发者如何规避新增IPMI命令导致组件不可启动问题</t>
+  </si>
+  <si>
+    <t>pcie_device新增IPMI命令导致组件异常问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/595/1</t>
+  </si>
+  <si>
+    <t>非天池组件加载方式</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/610/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现日志配置与系统路径的存储隔离迁移</t>
+  </si>
+  <si>
+    <t>支持日志存放位置隔离</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rootfs_user/issues/2</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/23</t>
+  </si>
+  <si>
+    <t>BMC开发者需实现NVMe盘多型号识别与管理兼容性</t>
+  </si>
+  <si>
+    <t>【需求】支持新增华为厂商NVMe盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/41</t>
+  </si>
+  <si>
+    <t>【需求】支持新增Memblaze厂商NVMe盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/44</t>
+  </si>
+  <si>
+    <t>BMC固件开发中如何确保网卡扩展与历史协议兼容</t>
+  </si>
+  <si>
+    <t>【需求】网卡适配组件兼容历史网卡功能</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/6</t>
+  </si>
+  <si>
+    <t>【需求】网卡支持南向部件驱动接口</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/17</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/18</t>
+  </si>
+  <si>
+    <t>解决BMC过渡包升级中签名链更新缺失导致的校验失败</t>
+  </si>
+  <si>
+    <t>制作反向过渡包时碰到的疑问</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/723/1</t>
+  </si>
+  <si>
+    <t>25.03构建出包以及伙伴签名问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/390/1</t>
+  </si>
+  <si>
+    <t>25.03版本的构建环境搭建：dockerfile创建镜像失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/409/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何申请使用自动化测试框架</t>
+  </si>
+  <si>
+    <t>怎么申请使用kptest框架和itestsmart工具呢</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/665/1</t>
+  </si>
+  <si>
+    <t>kptest框架与KPTestOpenFramework工程、iTestSmart工具介绍</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/832/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何通过Redfish接口实现光模块老化预测功能开关</t>
+  </si>
+  <si>
+    <t>【需求】支持光模块老化故障预测功能开关</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/52</t>
+  </si>
+  <si>
+    <t>【修改描述】支持光模块老化预测功能开关使能</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/31</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现SystemInfoTable属性的持久化存储以支持IPMI标准命令</t>
+  </si>
+  <si>
+    <t>IPMI2.0标准接口能力新增私有属性保存system info信息</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1100/1</t>
+  </si>
+  <si>
+    <t>【需求】支持Get System Info标准命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/12</t>
+  </si>
+  <si>
+    <t>【需求】支持Set System Info标准命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/13</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>【需求】支持新浪定制化页面显示可插硬盘的槽位总数</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/webui/issues/36</t>
+  </si>
+  <si>
+    <t>支持web页面显示可插硬盘的槽位总数</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/Sina/issues/2</t>
+  </si>
+  <si>
+    <t>BMC开发者如何修正ProcessorID属性类型以符合SMBIOS协议</t>
+  </si>
+  <si>
+    <t>bmc.kepler.Systems.Processor.CPU的ProcessorID为U32类型，与SMBIOS协议不一致</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/30</t>
+  </si>
+  <si>
+    <t>【问题单】CPU的ProcessorID属性定义与SMBIOS协议规定不符</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/75</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/47</t>
+  </si>
+  <si>
+    <t>CPU类的ProcessorID属性定义为U32类型，与SMBIOS协议范围（QWORD）不一致</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/362/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何防范开发环境中的文件访问绕过漏洞</t>
+  </si>
+  <si>
+    <t>CVE-2025-31486</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/18</t>
+  </si>
+  <si>
+    <t>CVE-2025-46565</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/21</t>
+  </si>
+  <si>
+    <t>CVE-2025-32395</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/19</t>
+  </si>
+  <si>
+    <t>CVE-2025-30208</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/16</t>
+  </si>
+  <si>
+    <t>CVE-2025-31125</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/17</t>
+  </si>
+  <si>
+    <t>BMC开发者如何高效管理openTelemetry API依赖组件</t>
+  </si>
+  <si>
+    <t>提供openTelemetry及依赖开源软件API能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/3</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/conan_index/issues/3</t>
+  </si>
+  <si>
+    <t>开发者在BMC Studio中需手动二次配置因器件库不完整。</t>
+  </si>
+  <si>
+    <t>BMC Studio工具使用反馈</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/714/1</t>
+  </si>
+  <si>
+    <t>[WIP]BMC Studio用户指南</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/221/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何通过Redfish和IPMI接口实现硬盘日志收集控制</t>
+  </si>
+  <si>
+    <t>【需求】支持硬盘诊断功能控制</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/106</t>
+  </si>
+  <si>
+    <t>【需求】硬盘诊断功能控制</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/112</t>
+  </si>
+  <si>
+    <t>【需求】支持服务器网络管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/25</t>
+  </si>
+  <si>
+    <t>【需求】支持存储管理能力基线</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/30</t>
+  </si>
+  <si>
+    <t>【需求】支持存储管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/35</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/7</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现Redfish接口查询指定PCIe设备资源信息</t>
+  </si>
+  <si>
+    <t>【需求】支持查询指定PCIEDevices资源信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/pcie_device/issues/5</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/16</t>
+  </si>
+  <si>
+    <t>如何确保BIOS测试命令在高可用环境中的兼容性</t>
+  </si>
+  <si>
+    <t>高可用环境BIOS执行test失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/800/1</t>
+  </si>
+  <si>
+    <t>组件内执行bingo test显示测试失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/594/1</t>
+  </si>
+  <si>
+    <t>BMC开发者需修正VPD中position描述的映射错误</t>
+  </si>
+  <si>
+    <t>vpd仓库platform.sr.png描述有误</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/360/1</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/2</t>
+  </si>
+  <si>
+    <t>标签包裹。</t>
+  </si>
+  <si>
+    <t>【需求】支持NCSI边带管理功能</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/16</t>
+  </si>
+  <si>
+    <t>【需求】开源社区支持NCSI边带管理功能</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/5</t>
+  </si>
+  <si>
+    <t>BMC开发者如何优化RAID日志导出的时延与安全性</t>
+  </si>
+  <si>
+    <t>【需求】支持收集raid卡文本格式日志</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/32</t>
+  </si>
+  <si>
+    <t>【需求】支持一键搜集日志导出raid卡固件日志</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/31</t>
+  </si>
+  <si>
+    <t>BMC开发者需解决权限限制下的升级恢复接口错误问题</t>
+  </si>
+  <si>
+    <t>【变更声明】Redfish升级接口权限变更</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/732/1</t>
+  </si>
+  <si>
+    <t>Redfish 升级接口 SimpleUpdate 关于在支持升级之后清除配置功能接口变更</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/32</t>
+  </si>
+  <si>
+    <t>BMC开发者确保SMBIOS协议解析Structure Header Length字段准确</t>
+  </si>
+  <si>
+    <t>解析SMBIOS协议04Type时出现异常</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/1</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/363/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现新的遥测配置管理接口</t>
+  </si>
+  <si>
+    <t>支持遥测上报配置管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/12</t>
+  </si>
+  <si>
+    <t>【需求】 支持遥测上报配置管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/37</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/16</t>
+  </si>
+  <si>
+    <t>【需求】可观测新增redfish、web接口及属性</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/29</t>
+  </si>
+  <si>
+    <t>BMC开发者在Redfish OEM定制中如何实现存储控制器属性查询</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish接口oem定制查询指定存储资源信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rack_mgmt/issues/2</t>
+  </si>
+  <si>
+    <t>【需求】支持厂商定制化显示存储控制器端口数</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/67</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现bingo SDK版本自动化兼容性校验</t>
+  </si>
+  <si>
+    <t>应支持bingo、构建工具、sdk之间的版本配套</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/414/1</t>
+  </si>
+  <si>
+    <t>【需求】bingo支持组件的全量二进制构建</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bingo/issues/12</t>
+  </si>
+  <si>
+    <t>BMC开发者需统一板卡和MCU一键收集信息的存储路径与命名规范</t>
+  </si>
+  <si>
+    <t>【已评审】支持一键收集导出板卡信息，mcu信息</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/628/1</t>
+  </si>
+  <si>
+    <t>【需求】支持一键收集通用硬件信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/34</t>
+  </si>
+  <si>
+    <t>openUBMC一键收集介绍</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/290/1</t>
+  </si>
+  <si>
+    <t>【问题单】支持一键收集导出板卡信息，mcu信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/10</t>
+  </si>
+  <si>
+    <t>【需求】支持板卡硬件管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/15</t>
+  </si>
+  <si>
+    <t>基础通用问题FAQ</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/292/1</t>
+  </si>
+  <si>
+    <t>openUBMC各sig组本周(2025-0421-2025-0427)关闭issue统计</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/672/1</t>
+  </si>
+  <si>
+    <t>openUBMC各sig组本周(2025-0428~2025-0505)关闭issue统计</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/733/1</t>
+  </si>
+  <si>
+    <t>bmc-core SIG 入门指南</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/167/1</t>
+  </si>
+  <si>
+    <t>openUBMC各sig组本周(2025-0506~2025-0511)关闭issue统计</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/876/1</t>
+  </si>
+  <si>
+    <t>openUBMC品牌包定制指南</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/355/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何优化国密证书接口的异常提示机制</t>
+  </si>
+  <si>
+    <t>【需求】支持国密证书管理的接口优化</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/43</t>
+  </si>
+  <si>
+    <t>【需求】支持国密证书管理的北向接口配置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/23</t>
+  </si>
+  <si>
+    <t>BMC开发者如何扩展升级接口参数处理并行升级错误场景</t>
+  </si>
+  <si>
+    <t>【需求】power_mgmt组件适配升级接口参数扩展</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/10</t>
+  </si>
+  <si>
+    <t>【需求】bios组件适配升级接口参数扩展</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/10</t>
+  </si>
+  <si>
+    <t>能效管理适配升级接口参数扩展</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/5</t>
+  </si>
+  <si>
+    <t>general_hardware组件适配升级接口参数</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/11</t>
+  </si>
+  <si>
+    <t>BMC开发中如何实现DPU网卡启动状态的实时检测与记录</t>
+  </si>
+  <si>
+    <t>【需求】支持DPU网卡启动完成标识记录</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/28</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/15</t>
+  </si>
+  <si>
+    <t>如何解决恢复出厂设置后BMC固件升级签名验证异常</t>
+  </si>
+  <si>
+    <t>恢复出厂设置后，BMC升级失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1065/1</t>
+  </si>
+  <si>
+    <t>BMC恢复出厂设置之后无法更新固件</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/831/1</t>
+  </si>
+  <si>
+    <t>恢复出厂设置时无法升级</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/11</t>
+  </si>
+  <si>
+    <t>BMC开发者如何扩展Web和IPMI接口支持风扇duty/speed信息读取</t>
+  </si>
+  <si>
+    <t>【需求】支持获取所有风扇duty和speed等信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/webui/issues/37</t>
+  </si>
+  <si>
+    <t>【需求】支持散热策略规格</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/11</t>
+  </si>
+  <si>
+    <t>BMC开发者如何统一实现查询指定处理器异构资源属性的Redfish接口</t>
+  </si>
+  <si>
+    <t>【需求】支持查询指定处理器资源信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/33</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/53</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/47</t>
+  </si>
+  <si>
+    <t>BMC开发者如何在定制传感器时确保名称与主板丝印一致？</t>
+  </si>
+  <si>
+    <t>【需求】支持Px_Cy_Dz_Status内存定制传感器</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/ByteDance/issues/19</t>
+  </si>
+  <si>
+    <t>【需求】支持CPUx_Status定制传感器</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/ByteDance/issues/18</t>
+  </si>
+  <si>
+    <t>BMC开发者如何在Web界面实现组件粒度状态查询的权限容错机制</t>
+  </si>
+  <si>
+    <t>【需求】web界面查询升级状态及生效状态信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/114</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/99</t>
+  </si>
+  <si>
+    <t>如何优化BMC日志、跟踪和度量数据的采集与存储效率</t>
+  </si>
+  <si>
+    <t>提供跟踪数据采集和存储能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/4</t>
+  </si>
+  <si>
+    <t>提供度量数据采集和存储能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/2</t>
+  </si>
+  <si>
+    <t>提供日志数据采集和存储能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/5</t>
+  </si>
+  <si>
+    <t>BMC开发者亟需开源应用框架开发指导文档</t>
+  </si>
+  <si>
+    <t>提供应用框架开发指导</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/15</t>
+  </si>
+  <si>
+    <t>【需求】社区提供开源项目开发者指南</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/webui/issues/19</t>
+  </si>
+  <si>
+    <t>BMC开发者如何设计CLI并发收集NPU/CPU日志的失败处理</t>
+  </si>
+  <si>
+    <t>【需求】 支持CLI导出NPU DFX日志</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/48</t>
+  </si>
+  <si>
+    <t>【需求】支持CLI导出CPU DFX日志</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/46</t>
+  </si>
+  <si>
+    <t>BMC开发者如何解决固件并行升级总线互斥问题</t>
+  </si>
+  <si>
+    <t>【需求】支持固件升级流程总线互斥</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/21</t>
+  </si>
+  <si>
+    <t>固件升级流程总线互斥</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/10</t>
+  </si>
+  <si>
+    <t>【需求】能效管理固件升级流程总线互斥</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/11</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/11</t>
+  </si>
+  <si>
+    <t>BMC开发者如何扩展UpdateService接口以实现并行固件升级和资源隔离告警</t>
+  </si>
+  <si>
+    <t>【需求】bmc.kepler.UpdateService接口新增ParallelUpdate方法、新增ConcurrentReachedLimit错误引擎</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/49</t>
+  </si>
+  <si>
+    <t>新增bmc.kepler.UpdateService.FirmwareRestor接口,接口新增InitiateRestoreAction方法</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/100</t>
+  </si>
+  <si>
+    <t>BMC开发者如何更新通用和异构硬件适配文档资源</t>
+  </si>
+  <si>
+    <t>【需求】社区更新通用硬件相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/19</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/13</t>
+  </si>
+  <si>
+    <t>【需求】社区更新设备管理规范相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/14</t>
+  </si>
+  <si>
+    <t>【需求】社区补齐异构硬件相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/17</t>
+  </si>
+  <si>
+    <t>【需求】社区更新能效管理相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/16</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/20</t>
+  </si>
+  <si>
+    <t>BMC开发者如何在lscmd中显示和调试接口执行组件自定义命令用于在线调试</t>
+  </si>
+  <si>
+    <t>支持组件自定义命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/104</t>
+  </si>
+  <si>
+    <t>【需求】支持能效管理子系统组件自定义命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/17</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/7</t>
+  </si>
+  <si>
+    <t>【需求】支持组件自定义命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/21</t>
+  </si>
+  <si>
+    <t>BMC开发者如何在BIOS启动阶段禁用KVM/VNC键盘输入防止密码修改</t>
+  </si>
+  <si>
+    <t>支持BIOS启动过程禁止KVM/VNC键盘输入</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/19</t>
+  </si>
+  <si>
+    <t>支持BIOS在启动阶段禁用键盘</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/20</t>
+  </si>
+  <si>
     <t>BMC开发者如何实现CoolingRequirement中SensorName属性在资源树注册</t>
   </si>
   <si>
@@ -396,24 +1806,6 @@
     <t>https://gitcode.com/openUBMC/mdb_interface/issues/101</t>
   </si>
   <si>
-    <t>BMC固件开发中如何确保网卡扩展与历史协议兼容</t>
-  </si>
-  <si>
-    <t>【需求】网卡适配组件兼容历史网卡功能</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/6</t>
-  </si>
-  <si>
-    <t>【需求】网卡支持南向部件驱动接口</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/17</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/18</t>
-  </si>
-  <si>
     <t>BMC开发者如何提升社区UT IT测试覆盖率和工具贡献效率</t>
   </si>
   <si>
@@ -435,58 +1827,100 @@
     <t>https://discuss.openubmc.cn//t/topic/593/1</t>
   </si>
   <si>
-    <t>BMC开发者如何解决PXE阶段因POST未完成导致重启失败</t>
-  </si>
-  <si>
-    <t>【问题单】定制后bios处于PXE阶段时重启BMC失败</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/19</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/sensor/issues/10</t>
-  </si>
-  <si>
-    <t>BMC开发者需实现NVMe盘多型号识别与管理兼容性</t>
-  </si>
-  <si>
-    <t>【需求】支持新增华为厂商NVMe盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/41</t>
-  </si>
-  <si>
-    <t>【需求】支持新增Memblaze厂商NVMe盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/44</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现PLDM协议获取网卡信息并集成接口展示</t>
-  </si>
-  <si>
-    <t>【需求】支持使用pldm协议获取网卡相关信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/20</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/19</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现NVMe MI over MCTP协议响应码的可靠解析</t>
-  </si>
-  <si>
-    <t>【需求】支持NVMe-mi over mctp的协议解析</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/33</t>
-  </si>
-  <si>
-    <t>【需求】支持解析nvme mi协议响应码信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/8</t>
+    <t>BMC开发者如何高效实现电链路统计数据采集接口</t>
+  </si>
+  <si>
+    <t>【需求】支持NPU参数面端口电链路数据采集</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/8</t>
+  </si>
+  <si>
+    <t>【需求】支持NPU参数面光模块数据采集接口增加电链路数据</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/7</t>
+  </si>
+  <si>
+    <t>BMC开发者如何提升多模组固件升级健壮性</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组CSR固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/24</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组VRD固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/26</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组CPLD固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/25</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组MCU固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/27</t>
+  </si>
+  <si>
+    <t>CPLD 升级 MultipleSuppliersMode MIXED Mode 功能背景了解</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/886/1</t>
+  </si>
+  <si>
+    <t>【需求】支持MCU子固件升级时版本号校验</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/23</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现PCIe Switch Flash升级组件的集成</t>
+  </si>
+  <si>
+    <t>PCIe Switch 芯片的Flash升级</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/721/1</t>
+  </si>
+  <si>
+    <t>【讨论】PCIe Switch场景下如何加载PCIe卡</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/722/1</t>
+  </si>
+  <si>
+    <t>BMC开发者需解决一键部署中的Conan组件拉取机制稳定性问题</t>
+  </si>
+  <si>
+    <t>bmc studio使用问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1012/1</t>
+  </si>
+  <si>
+    <t>BMC_STUDIO仓库一键部署，丢失响应，无成功，无失败反馈</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/962/1</t>
+  </si>
+  <si>
+    <t>使用bmc_studio遇到的问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/925/1</t>
+  </si>
+  <si>
+    <t>BMC Studio问题反馈</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/707/1</t>
   </si>
   <si>
     <t>BMC开发者如何实现CSR文件损坏的检测与自修复</t>
@@ -504,157 +1938,16 @@
     <t>https://gitcode.com/openUBMC/mdb_interface/issues/9</t>
   </si>
   <si>
-    <t>BMC开发者如何实现FPGA自检失败的告警模拟测试</t>
-  </si>
-  <si>
-    <t>【需求】支持FPGA固件周期自检失败的告警</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/30</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/84</t>
-  </si>
-  <si>
-    <t>支持FPGA固件周期自检失败的告警</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/45</t>
-  </si>
-  <si>
-    <t>BMC开发者如何解决固件升级中的证书校验失败</t>
-  </si>
-  <si>
-    <t>使用社区最新出包，升级hpm失败，查看m3log get cert fail!</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/498/1</t>
-  </si>
-  <si>
-    <t>最新 source 包烧录异常问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/173/1</t>
-  </si>
-  <si>
-    <t>BMC开发者实现升级时多签名机制兼容性</t>
-  </si>
-  <si>
-    <t>能否实现伙伴签名的openUBMC版本直接升级华为签名的各种固件？</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/335/1</t>
-  </si>
-  <si>
-    <t>伙伴openubmc版本如何支持升级华为签名固件版本和伙伴自己签名的固件版本均能成功？</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1083/1</t>
-  </si>
-  <si>
-    <t>使用openubmc进行bios固件升级，提示无效的升级包</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/182/1</t>
-  </si>
-  <si>
-    <t>刷了华为根的机器是否可以直接刷伙伴根</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/933/1</t>
-  </si>
-  <si>
-    <t>如何确保BIOS测试命令在高可用环境中的兼容性</t>
-  </si>
-  <si>
-    <t>高可用环境BIOS执行test失败</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/800/1</t>
-  </si>
-  <si>
-    <t>组件内执行bingo test显示测试失败</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/594/1</t>
-  </si>
-  <si>
-    <t>BMC开发者需修正VPD中position描述的映射错误</t>
-  </si>
-  <si>
-    <t>vpd仓库platform.sr.png描述有误</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/360/1</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/2</t>
-  </si>
-  <si>
-    <t>BMC开发者如何解决固件并行升级总线互斥问题</t>
-  </si>
-  <si>
-    <t>【需求】支持固件升级流程总线互斥</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/21</t>
-  </si>
-  <si>
-    <t>固件升级流程总线互斥</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/10</t>
-  </si>
-  <si>
-    <t>【需求】能效管理固件升级流程总线互斥</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/11</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/11</t>
-  </si>
-  <si>
-    <t>BMC开发者如何在Web界面实现组件粒度状态查询的权限容错机制</t>
-  </si>
-  <si>
-    <t>【需求】web界面查询升级状态及生效状态信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/114</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/99</t>
-  </si>
-  <si>
-    <t>BMC开发者在Redfish OEM定制中如何实现存储控制器属性查询</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish接口oem定制查询指定存储资源信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rack_mgmt/issues/2</t>
-  </si>
-  <si>
-    <t>【需求】支持厂商定制化显示存储控制器端口数</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/67</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现bingo SDK版本自动化兼容性校验</t>
-  </si>
-  <si>
-    <t>应支持bingo、构建工具、sdk之间的版本配套</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/414/1</t>
-  </si>
-  <si>
-    <t>【需求】bingo支持组件的全量二进制构建</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bingo/issues/12</t>
+    <t>BMC开发者需修正BIOS组件生效流程图的逻辑错误</t>
+  </si>
+  <si>
+    <t>bios组件生效流程流程图错误</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/17</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/19</t>
   </si>
   <si>
     <t>BMC开发者如何高效配置3000W电源的PMbus告警属性</t>
@@ -678,430 +1971,19 @@
     <t>https://gitcode.com/openUBMC/mdb_interface/issues/45</t>
   </si>
   <si>
-    <t>BMC多组件共享白名单配置的维护复杂度问题</t>
-  </si>
-  <si>
-    <t>【需求】基于动态插桩拦截风险接口调用日志，形成通用化命令的白名单配置</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/15</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/pcie_device/issues/4</t>
-  </si>
-  <si>
-    <t>开发者在BMC Studio中需手动二次配置因器件库不完整。</t>
-  </si>
-  <si>
-    <t>BMC Studio工具使用反馈</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/714/1</t>
-  </si>
-  <si>
-    <t>[WIP]BMC Studio用户指南</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/221/1</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>【需求】支持新浪定制化页面显示可插硬盘的槽位总数</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/webui/issues/36</t>
-  </si>
-  <si>
-    <t>支持web页面显示可插硬盘的槽位总数</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/Sina/issues/2</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现PCIe Switch Flash升级组件的集成</t>
-  </si>
-  <si>
-    <t>PCIe Switch 芯片的Flash升级</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/721/1</t>
-  </si>
-  <si>
-    <t>【讨论】PCIe Switch场景下如何加载PCIe卡</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/722/1</t>
-  </si>
-  <si>
-    <t>标签包裹。</t>
-  </si>
-  <si>
-    <t>【需求】支持NCSI边带管理功能</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/16</t>
-  </si>
-  <si>
-    <t>【需求】开源社区支持NCSI边带管理功能</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/5</t>
-  </si>
-  <si>
-    <t>BMC开发者如何提升多模组固件升级健壮性</t>
-  </si>
-  <si>
-    <t>【需求】支持多模组CSR固件升级健壮性提升</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/24</t>
-  </si>
-  <si>
-    <t>【需求】支持多模组VRD固件升级健壮性提升</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/26</t>
-  </si>
-  <si>
-    <t>【需求】支持多模组CPLD固件升级健壮性提升</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/25</t>
-  </si>
-  <si>
-    <t>【需求】支持多模组MCU固件升级健壮性提升</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/27</t>
-  </si>
-  <si>
-    <t>CPLD 升级 MultipleSuppliersMode MIXED Mode 功能背景了解</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/886/1</t>
-  </si>
-  <si>
-    <t>【需求】支持MCU子固件升级时版本号校验</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/23</t>
-  </si>
-  <si>
-    <t>BMC开发者需统一板卡和MCU一键收集信息的存储路径与命名规范</t>
-  </si>
-  <si>
-    <t>【已评审】支持一键收集导出板卡信息，mcu信息</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/628/1</t>
-  </si>
-  <si>
-    <t>【需求】支持一键收集通用硬件信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/34</t>
-  </si>
-  <si>
-    <t>openUBMC一键收集介绍</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/290/1</t>
-  </si>
-  <si>
-    <t>【问题单】支持一键收集导出板卡信息，mcu信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/10</t>
-  </si>
-  <si>
-    <t>【需求】支持板卡硬件管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/15</t>
-  </si>
-  <si>
-    <t>基础通用问题FAQ</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/292/1</t>
-  </si>
-  <si>
-    <t>openUBMC各sig组本周(2025-0421-2025-0427)关闭issue统计</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/672/1</t>
-  </si>
-  <si>
-    <t>openUBMC各sig组本周(2025-0428~2025-0505)关闭issue统计</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/733/1</t>
-  </si>
-  <si>
-    <t>bmc-core SIG 入门指南</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/167/1</t>
-  </si>
-  <si>
-    <t>openUBMC各sig组本周(2025-0506~2025-0511)关闭issue统计</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/876/1</t>
-  </si>
-  <si>
-    <t>openUBMC品牌包定制指南</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/355/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何扩展Web和IPMI接口支持风扇duty/speed信息读取</t>
-  </si>
-  <si>
-    <t>【需求】支持获取所有风扇duty和speed等信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/webui/issues/37</t>
-  </si>
-  <si>
-    <t>【需求】支持散热策略规格</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/11</t>
-  </si>
-  <si>
-    <t>BMC开发者在资源树协作接口中如何解决属性约束冲突与内部实现暴露问题</t>
-  </si>
-  <si>
-    <t>支持通用硬件满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/98</t>
-  </si>
-  <si>
-    <t>【需求】power_mgmt组件接口支持配置PrivilegeMap信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/44</t>
-  </si>
-  <si>
-    <t>【需求】支持能效管理满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/12</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/13</t>
-  </si>
-  <si>
-    <t>【需求】thermal_mgmt组件接口支持配置PrivilegeMap信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/27</t>
-  </si>
-  <si>
-    <t>【需求】thermal_mgmt组件满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/24</t>
-  </si>
-  <si>
-    <t>支持框架资源树协作接口满足关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/38</t>
-  </si>
-  <si>
-    <t>【需求】支持异构算力满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manufacture/issues/2</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/pcie_device/issues/7</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/lsw/issues/2</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/22</t>
-  </si>
-  <si>
-    <t>【需求】支持通用硬件满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/12</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/22</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/17</t>
-  </si>
-  <si>
-    <t>支持基础服务满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/32</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/chassis/issues/3</t>
-  </si>
-  <si>
-    <t>资源树协作接口关键字满足使用原则和规范</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/6</t>
-  </si>
-  <si>
-    <t>支持安全管理满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/account/issues/6</t>
-  </si>
-  <si>
-    <t>BMC开发者如何优化国密证书接口的异常提示机制</t>
-  </si>
-  <si>
-    <t>【需求】支持国密证书管理的接口优化</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/43</t>
-  </si>
-  <si>
-    <t>【需求】支持国密证书管理的北向接口配置</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/23</t>
-  </si>
-  <si>
-    <t>BMC开发者需解决权限限制下的升级恢复接口错误问题</t>
-  </si>
-  <si>
-    <t>【变更声明】Redfish升级接口权限变更</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/732/1</t>
-  </si>
-  <si>
-    <t>Redfish 升级接口 SimpleUpdate 关于在支持升级之后清除配置功能接口变更</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/32</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现日志配置与系统路径的存储隔离迁移</t>
-  </si>
-  <si>
-    <t>支持日志存放位置隔离</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rootfs_user/issues/2</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/23</t>
-  </si>
-  <si>
-    <t>BMC开发者如何适配BlueField系列设备的调速策略在openUBMC中</t>
-  </si>
-  <si>
-    <t>【需求】支持BlueField-3（B3220）的调速策略配置</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/17</t>
-  </si>
-  <si>
-    <t>【需求】支持BlueField-2（332A）的调速策略</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/18</t>
-  </si>
-  <si>
-    <t>BMC开发者如何更新通用和异构硬件适配文档资源</t>
-  </si>
-  <si>
-    <t>【需求】社区更新通用硬件相关文档</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/19</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/13</t>
-  </si>
-  <si>
-    <t>【需求】社区更新设备管理规范相关文档</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/14</t>
-  </si>
-  <si>
-    <t>【需求】社区补齐异构硬件相关文档</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/17</t>
-  </si>
-  <si>
-    <t>【需求】社区更新能效管理相关文档</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/16</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/20</t>
-  </si>
-  <si>
-    <t>BMC开发者如何通过Redfish和IPMI接口实现硬盘日志收集控制</t>
-  </si>
-  <si>
-    <t>【需求】支持硬盘诊断功能控制</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/106</t>
-  </si>
-  <si>
-    <t>【需求】硬盘诊断功能控制</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/112</t>
-  </si>
-  <si>
-    <t>【需求】支持服务器网络管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/25</t>
-  </si>
-  <si>
-    <t>【需求】支持存储管理能力基线</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/30</t>
-  </si>
-  <si>
-    <t>【需求】支持存储管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/35</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/7</t>
-  </si>
-  <si>
-    <t>BMC开发者如何在定制传感器时确保名称与主板丝印一致？</t>
-  </si>
-  <si>
-    <t>【需求】支持Px_Cy_Dz_Status内存定制传感器</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/ByteDance/issues/19</t>
-  </si>
-  <si>
-    <t>【需求】支持CPUx_Status定制传感器</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/ByteDance/issues/18</t>
+    <t>BMC开发者如何通过返回值0判断文件安全操作成功状态</t>
+  </si>
+  <si>
+    <t>【需求】支持文件安全操作函数返回值判断</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/31</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/51</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/36</t>
   </si>
   <si>
     <t>如何避免CRPS电源适配中SlotNumber配置错误</t>
@@ -1119,886 +2001,13 @@
     <t>https://discuss.openubmc.cn//t/topic/1101/1</t>
   </si>
   <si>
-    <t>BMC开发者亟需开源应用框架开发指导文档</t>
-  </si>
-  <si>
-    <t>提供应用框架开发指导</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/15</t>
-  </si>
-  <si>
-    <t>【需求】社区提供开源项目开发者指南</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/webui/issues/19</t>
-  </si>
-  <si>
-    <t>BMC开发者如何优化RAID日志导出的时延与安全性</t>
-  </si>
-  <si>
-    <t>【需求】支持收集raid卡文本格式日志</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/32</t>
-  </si>
-  <si>
-    <t>【需求】支持一键搜集日志导出raid卡固件日志</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/31</t>
-  </si>
-  <si>
-    <t>BMC开发者如何扩展升级接口参数处理并行升级错误场景</t>
-  </si>
-  <si>
-    <t>【需求】power_mgmt组件适配升级接口参数扩展</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/10</t>
-  </si>
-  <si>
-    <t>【需求】bios组件适配升级接口参数扩展</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/10</t>
-  </si>
-  <si>
-    <t>能效管理适配升级接口参数扩展</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/5</t>
-  </si>
-  <si>
-    <t>general_hardware组件适配升级接口参数</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/11</t>
-  </si>
-  <si>
-    <t>BMC开发者如何扩展UpdateService接口以实现并行固件升级和资源隔离告警</t>
-  </si>
-  <si>
-    <t>【需求】bmc.kepler.UpdateService接口新增ParallelUpdate方法、新增ConcurrentReachedLimit错误引擎</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/49</t>
-  </si>
-  <si>
-    <t>新增bmc.kepler.UpdateService.FirmwareRestor接口,接口新增InitiateRestoreAction方法</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/100</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现新的遥测配置管理接口</t>
-  </si>
-  <si>
-    <t>支持遥测上报配置管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/12</t>
-  </si>
-  <si>
-    <t>【需求】 支持遥测上报配置管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/37</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/16</t>
-  </si>
-  <si>
-    <t>【需求】可观测新增redfish、web接口及属性</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/29</t>
-  </si>
-  <si>
-    <t>如何优化BMC日志、跟踪和度量数据的采集与存储效率</t>
-  </si>
-  <si>
-    <t>提供跟踪数据采集和存储能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/observability/issues/4</t>
-  </si>
-  <si>
-    <t>提供度量数据采集和存储能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/observability/issues/2</t>
-  </si>
-  <si>
-    <t>提供日志数据采集和存储能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/observability/issues/5</t>
-  </si>
-  <si>
-    <t>BMC开发者如何在lscmd中显示和调试接口执行组件自定义命令用于在线调试</t>
-  </si>
-  <si>
-    <t>支持组件自定义命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/104</t>
-  </si>
-  <si>
-    <t>【需求】支持能效管理子系统组件自定义命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/17</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/7</t>
-  </si>
-  <si>
-    <t>【需求】支持组件自定义命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/21</t>
-  </si>
-  <si>
-    <t>如何解决恢复出厂设置后BMC固件升级签名验证异常</t>
-  </si>
-  <si>
-    <t>恢复出厂设置后，BMC升级失败</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1065/1</t>
-  </si>
-  <si>
-    <t>BMC恢复出厂设置之后无法更新固件</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/831/1</t>
-  </si>
-  <si>
-    <t>恢复出厂设置时无法升级</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/11</t>
-  </si>
-  <si>
-    <t>BMC开发中如何解决Conan v1弃用导致的头文件缺失编译失败</t>
-  </si>
-  <si>
-    <t>社区lsw编译不过</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/979/1</t>
-  </si>
-  <si>
-    <t>开源首版本编译不过</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/lsw/issues/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何通过返回值0判断文件安全操作成功状态</t>
-  </si>
-  <si>
-    <t>【需求】支持文件安全操作函数返回值判断</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/31</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/51</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/36</t>
-  </si>
-  <si>
-    <t>BMC开发者如何在BIOS启动阶段禁用KVM/VNC键盘输入防止密码修改</t>
-  </si>
-  <si>
-    <t>支持BIOS启动过程禁止KVM/VNC键盘输入</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/19</t>
-  </si>
-  <si>
-    <t>支持BIOS在启动阶段禁用键盘</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/20</t>
-  </si>
-  <si>
-    <t>BMC开发者确保SMBIOS协议解析Structure Header Length字段准确</t>
-  </si>
-  <si>
-    <t>解析SMBIOS协议04Type时出现异常</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/1</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/363/1</t>
-  </si>
-  <si>
-    <t>开发者实现Redfish Drive资源OEM接口时需解决NVM MI命令与硬件协议栈的兼容性整合</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制SendNvmeMICommand请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/40</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetIdentifyData请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/39</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetAddSmartInfo请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/37</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetTelemetryData请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/13</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/36</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetSmartInfo请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/38</t>
-  </si>
-  <si>
-    <t>BMC开发者如何为thermal和power管理组件实现业务场景的白名单配置基线化</t>
-  </si>
-  <si>
-    <t>【需求】power_mgmt组件明确业务场景下的白名单化配置并形成基线</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/45</t>
-  </si>
-  <si>
-    <t>【需求】thermal_mgmt组件明确业务场景下的白名单化配置并形成基线</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/25</t>
-  </si>
-  <si>
-    <t>BMC开发中如何实现DPU网卡启动状态的实时检测与记录</t>
-  </si>
-  <si>
-    <t>【需求】支持DPU网卡启动完成标识记录</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/28</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/15</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现SystemInfoTable属性的持久化存储以支持IPMI标准命令</t>
-  </si>
-  <si>
-    <t>IPMI2.0标准接口能力新增私有属性保存system info信息</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1100/1</t>
-  </si>
-  <si>
-    <t>【需求】支持Get System Info标准命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/12</t>
-  </si>
-  <si>
-    <t>【需求】支持Set System Info标准命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/13</t>
-  </si>
-  <si>
-    <t>BMC配置导出需新增产品类别和软件版本信息支持</t>
-  </si>
-  <si>
-    <t>配置导出项新增BMC软件版本信息和产品类别信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/13</t>
-  </si>
-  <si>
-    <t>配置导入导出新增产品类别信息和BMC软件版本信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/profile_schema/issues/2</t>
-  </si>
-  <si>
-    <t>提供BMC出厂配置定制指导</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/16</t>
-  </si>
-  <si>
-    <t>软件中心需要添加BMCStudio描述和下载页</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/software-center-config/issues/3</t>
-  </si>
-  <si>
-    <t>BMC开发者如何设计CLI并发收集NPU/CPU日志的失败处理</t>
-  </si>
-  <si>
-    <t>【需求】 支持CLI导出NPU DFX日志</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/48</t>
-  </si>
-  <si>
-    <t>【需求】支持CLI导出CPU DFX日志</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/46</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现Power资源的Redfish新标准适配</t>
-  </si>
-  <si>
-    <t>【需求】Power资源支持redfish新标准</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/113</t>
-  </si>
-  <si>
-    <t>【需求】支持Power资源新增修改电源冗余模式</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/106</t>
-  </si>
-  <si>
-    <t>【需求】能效管理支持Chassis资源redfish新标准</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/18</t>
-  </si>
-  <si>
-    <t>【需求】【PowerStrategy】支持Web界面提示优选主用电源</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/webui/issues/39</t>
-  </si>
-  <si>
-    <t>支持web界面显示优选电源工作模式及主用电源列表</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/111</t>
-  </si>
-  <si>
-    <t>【需求】支持新增自定义用户/用户组设置</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/webui/issues/38</t>
-  </si>
-  <si>
-    <t>BMC开发中如何通过REDfish协议实现PrivilegeMap配置同步与用户校验提示优化</t>
-  </si>
-  <si>
-    <t>【需求】RAS接口支持配置PrivilegeMap信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/53</t>
-  </si>
-  <si>
-    <t>电源信息获取优化</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/4</t>
-  </si>
-  <si>
-    <t>支持节点模式设置</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/5</t>
-  </si>
-  <si>
-    <t>电源转化器型号显示修改</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/3</t>
-  </si>
-  <si>
-    <t>支持新增自定义用户组设置</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/account/issues/11</t>
-  </si>
-  <si>
-    <t>支持配置PrivilegeMap信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/account/issues/12</t>
-  </si>
-  <si>
-    <t>支持用户名校验定制后的用户提示优化</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/account/issues/5</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/31</t>
-  </si>
-  <si>
-    <t>文档持续更新</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/1</t>
-  </si>
-  <si>
-    <t>文档描述优化</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/6</t>
-  </si>
-  <si>
-    <t>如何通过原子能力实现电源冗余模式配置与功率封顶参数管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/31</t>
-  </si>
-  <si>
-    <t>【需求】支持查询冗余供电信息能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/27</t>
-  </si>
-  <si>
-    <t>【需求】支持查询电源模块信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/28</t>
-  </si>
-  <si>
-    <t>【需求】支持查询系统供电信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/29</t>
-  </si>
-  <si>
-    <t>【需求】支持查询电源FRU信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/22</t>
-  </si>
-  <si>
-    <t>【需求】支持监控电源不匹配检测原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/36</t>
-  </si>
-  <si>
-    <t>【需求】支持设置功耗过高告警阈值原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/25</t>
-  </si>
-  <si>
-    <t>【需求】支持查询功耗过高告警阈值原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/20</t>
-  </si>
-  <si>
-    <t>【需求】支持采集电源FRU信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/34</t>
-  </si>
-  <si>
-    <t>【需求】支持查询指定机箱电源信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/23</t>
-  </si>
-  <si>
-    <t>【需求】支持设置冗余供电模式能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/26</t>
-  </si>
-  <si>
-    <t>【需求】支持优化供电模式切换特性</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/9</t>
-  </si>
-  <si>
-    <t>【需求】支持设置功率封顶参数原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/24</t>
-  </si>
-  <si>
-    <t>【需求】支持查询风扇信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/16</t>
-  </si>
-  <si>
-    <t>【需求】支持查询历史系统功率信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/30</t>
-  </si>
-  <si>
-    <t>【需求】支持功率采集及查询原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/37</t>
-  </si>
-  <si>
-    <t>【需求】支持查询功率封顶参数原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/21</t>
-  </si>
-  <si>
-    <t>【需求】支持查询最大风扇&amp;电源个数信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/14</t>
-  </si>
-  <si>
-    <t>【需求】支持查询温度信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/15</t>
-  </si>
-  <si>
-    <t>【需求】支持温度采集及查询原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/20</t>
-  </si>
-  <si>
-    <t>【需求】支持查询进风口历史温度信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/17</t>
-  </si>
-  <si>
-    <t>如何验证Thermal/Power资源对Redfish新标准接口的完整兼容性及运维场景可行性</t>
-  </si>
-  <si>
-    <t>【需求】Power相关资源支持redfish新标准</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/19</t>
-  </si>
-  <si>
-    <t>【需求】Thermal相关资源支持redfish新标准</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/13</t>
-  </si>
-  <si>
-    <t>BMC开发者需修正BIOS组件生效流程图的逻辑错误</t>
-  </si>
-  <si>
-    <t>bios组件生效流程流程图错误</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/17</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/19</t>
-  </si>
-  <si>
-    <t>BMC开发者如何高效实现电链路统计数据采集接口</t>
-  </si>
-  <si>
-    <t>【需求】支持NPU参数面端口电链路数据采集</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/8</t>
-  </si>
-  <si>
-    <t>【需求】支持NPU参数面光模块数据采集接口增加电链路数据</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/7</t>
-  </si>
-  <si>
-    <t>BMC开发者如何防范开发环境中的文件访问绕过漏洞</t>
-  </si>
-  <si>
-    <t>CVE-2025-31486</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/18</t>
-  </si>
-  <si>
-    <t>CVE-2025-46565</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/21</t>
-  </si>
-  <si>
-    <t>CVE-2025-32395</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/19</t>
-  </si>
-  <si>
-    <t>CVE-2025-30208</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/16</t>
-  </si>
-  <si>
-    <t>CVE-2025-31125</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/17</t>
-  </si>
-  <si>
-    <t>解决BMC过渡包升级中签名链更新缺失导致的校验失败</t>
-  </si>
-  <si>
-    <t>制作反向过渡包时碰到的疑问</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/723/1</t>
-  </si>
-  <si>
-    <t>25.03构建出包以及伙伴签名问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/390/1</t>
-  </si>
-  <si>
-    <t>25.03版本的构建环境搭建：dockerfile创建镜像失败</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/409/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何申请使用自动化测试框架</t>
-  </si>
-  <si>
-    <t>怎么申请使用kptest框架和itestsmart工具呢</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/665/1</t>
-  </si>
-  <si>
-    <t>kptest框架与KPTestOpenFramework工程、iTestSmart工具介绍</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/832/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何高效管理openTelemetry API依赖组件</t>
-  </si>
-  <si>
-    <t>提供openTelemetry及依赖开源软件API能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/observability/issues/3</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/conan_index/issues/3</t>
-  </si>
-  <si>
-    <t>BMC开发者如何通过Redfish接口实现光模块老化预测功能开关</t>
-  </si>
-  <si>
-    <t>【需求】支持光模块老化故障预测功能开关</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/52</t>
-  </si>
-  <si>
-    <t>【修改描述】支持光模块老化预测功能开关使能</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/31</t>
-  </si>
-  <si>
-    <t>BMC开发者如何规避新增IPMI命令导致组件不可启动问题</t>
-  </si>
-  <si>
-    <t>pcie_device新增IPMI命令导致组件异常问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/595/1</t>
-  </si>
-  <si>
-    <t>非天池组件加载方式</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/610/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现Redfish接口查询指定PCIe设备资源信息</t>
-  </si>
-  <si>
-    <t>【需求】支持查询指定PCIEDevices资源信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/pcie_device/issues/5</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/16</t>
-  </si>
-  <si>
-    <t>BMC开发者需解决一键部署中的Conan组件拉取机制稳定性问题</t>
-  </si>
-  <si>
-    <t>bmc studio使用问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1012/1</t>
-  </si>
-  <si>
-    <t>BMC_STUDIO仓库一键部署，丢失响应，无成功，无失败反馈</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/962/1</t>
-  </si>
-  <si>
-    <t>使用bmc_studio遇到的问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/925/1</t>
-  </si>
-  <si>
-    <t>BMC Studio问题反馈</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/707/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何修正ProcessorID属性类型以符合SMBIOS协议</t>
-  </si>
-  <si>
-    <t>bmc.kepler.Systems.Processor.CPU的ProcessorID为U32类型，与SMBIOS协议不一致</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/30</t>
-  </si>
-  <si>
-    <t>【问题单】CPU的ProcessorID属性定义与SMBIOS协议规定不符</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/75</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/47</t>
-  </si>
-  <si>
-    <t>CPU类的ProcessorID属性定义为U32类型，与SMBIOS协议范围（QWORD）不一致</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/362/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何统一实现查询指定处理器异构资源属性的Redfish接口</t>
-  </si>
-  <si>
-    <t>【需求】支持查询指定处理器资源信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/33</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/53</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/47</t>
-  </si>
-  <si>
-    <t>BMC开发者如何高效构建仿真测试环境</t>
-  </si>
-  <si>
-    <t>OpenUBMC社区支持仿真镜像的构建与发布</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/qemu/issues/5</t>
-  </si>
-  <si>
-    <t>OpenUBMC社区支持仿真数据的发布</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/qemu/issues/4</t>
-  </si>
-  <si>
-    <t>OpenUBMC社区支持Qemu工具的构建与发布</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/qemu/issues/3</t>
-  </si>
-  <si>
-    <t>BMC开发者如何在直通场景下实现NVMe SSD自定义SMART监控</t>
-  </si>
-  <si>
-    <t>【需求】支持自定义SMART信息的NVMe SSD盘写放大监控</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/28</t>
-  </si>
-  <si>
-    <t>【需求】支持从带内获取SMART NVMe SSD盘冗余块信息并监控</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/24</t>
-  </si>
-  <si>
-    <t>【需求】支持获取NVMe SSD盘自定义SMART信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/27</t>
-  </si>
-  <si>
-    <t>【需求】支持从带内获取厂商SMART NVMe SSD盘冗余块信息并监控</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/10</t>
-  </si>
-  <si>
-    <t>【需求】支持自定义的SMART NVMe SSD盘亚健康检测</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/23</t>
-  </si>
-  <si>
-    <t>【需求】支持自定义SMART信息的NVMe SSD盘预估寿命新增计算参数</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/25</t>
-  </si>
-  <si>
-    <t>BMC开发者如何统一实现多品牌新款SATA硬盘的纳管支持？</t>
-  </si>
-  <si>
-    <t>【需求】支持新增希捷SATA盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/42</t>
-  </si>
-  <si>
-    <t>【需求】支持新增西数SATA盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/43</t>
-  </si>
-  <si>
-    <t>【需求】支持新增东芝SATA盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/45</t>
+    <t>BMC开发者在支持Localbus与Hisport总线仿真中需解决协议交互及性能兼容性等问题</t>
+  </si>
+  <si>
+    <t>【需求】支持板卡Localbus总线的仿真</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/qemu/issues/7</t>
   </si>
   <si>
     <t>BMC开发者如何确保Redfish EthernetInterfaces兼容标准属性</t>
@@ -2010,28 +2019,19 @@
     <t>https://gitcode.com/openUBMC/rackmount/issues/37</t>
   </si>
   <si>
-    <t>BMC开发者在支持Localbus与Hisport总线仿真中需解决协议交互及性能兼容性等问题</t>
-  </si>
-  <si>
-    <t>【需求】支持板卡Localbus总线的仿真</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/qemu/issues/7</t>
+    <t>话题总数：7</t>
+  </si>
+  <si>
+    <t>话题总数：3</t>
+  </si>
+  <si>
+    <t>话题总数：2</t>
   </si>
   <si>
     <t>话题总数：58</t>
   </si>
   <si>
     <t>话题总数：1</t>
-  </si>
-  <si>
-    <t>话题总数：7</t>
-  </si>
-  <si>
-    <t>话题总数：3</t>
-  </si>
-  <si>
-    <t>话题总数：2</t>
   </si>
 </sst>
 </file>
@@ -2962,7 +2962,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="2"/>
@@ -2971,7 +2971,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4">
@@ -2981,18 +2981,18 @@
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>121</v>
+        <v>375</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>123</v>
+        <v>377</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7">
@@ -3005,7 +3005,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>198</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9">
@@ -3015,18 +3015,18 @@
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>199</v>
+        <v>518</v>
       </c>
       <c r="C10" t="s">
-        <v>200</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>199</v>
+        <v>520</v>
       </c>
       <c r="C11" t="s">
-        <v>201</v>
+        <v>521</v>
       </c>
     </row>
     <row r="12">
@@ -3039,7 +3039,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>228</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14">
@@ -3049,18 +3049,18 @@
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>229</v>
+        <v>528</v>
       </c>
       <c r="C15" t="s">
-        <v>230</v>
+        <v>529</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="s">
-        <v>231</v>
+        <v>530</v>
       </c>
       <c r="C16" t="s">
-        <v>232</v>
+        <v>531</v>
       </c>
     </row>
     <row r="17">
@@ -3073,7 +3073,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>279</v>
+        <v>532</v>
       </c>
     </row>
     <row r="19">
@@ -3083,18 +3083,18 @@
     </row>
     <row r="20">
       <c r="B20" t="s">
-        <v>280</v>
+        <v>533</v>
       </c>
       <c r="C20" t="s">
-        <v>281</v>
+        <v>534</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="s">
-        <v>282</v>
+        <v>533</v>
       </c>
       <c r="C21" t="s">
-        <v>283</v>
+        <v>535</v>
       </c>
     </row>
     <row r="22">
@@ -3107,7 +3107,7 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>356</v>
+        <v>561</v>
       </c>
     </row>
     <row r="24">
@@ -3117,18 +3117,18 @@
     </row>
     <row r="25">
       <c r="B25" t="s">
-        <v>357</v>
+        <v>562</v>
       </c>
       <c r="C25" t="s">
-        <v>358</v>
+        <v>563</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="s">
-        <v>359</v>
+        <v>564</v>
       </c>
       <c r="C26" t="s">
-        <v>360</v>
+        <v>565</v>
       </c>
     </row>
     <row r="27">
@@ -3141,7 +3141,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>385</v>
+        <v>590</v>
       </c>
     </row>
     <row r="29">
@@ -3151,18 +3151,18 @@
     </row>
     <row r="30">
       <c r="B30" t="s">
-        <v>386</v>
+        <v>591</v>
       </c>
       <c r="C30" t="s">
-        <v>387</v>
+        <v>592</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="s">
-        <v>388</v>
+        <v>593</v>
       </c>
       <c r="C31" t="s">
-        <v>389</v>
+        <v>594</v>
       </c>
     </row>
     <row r="32">
@@ -3175,7 +3175,7 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>425</v>
+        <v>650</v>
       </c>
     </row>
     <row r="34">
@@ -3185,26 +3185,26 @@
     </row>
     <row r="35">
       <c r="B35" t="s">
-        <v>426</v>
+        <v>651</v>
       </c>
       <c r="C35" t="s">
-        <v>427</v>
+        <v>652</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="s">
-        <v>426</v>
+        <v>651</v>
       </c>
       <c r="C36" t="s">
-        <v>428</v>
+        <v>653</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="s">
-        <v>426</v>
+        <v>651</v>
       </c>
       <c r="C37" t="s">
-        <v>429</v>
+        <v>654</v>
       </c>
     </row>
     <row r="38">
@@ -3225,7 +3225,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4">
@@ -3247,146 +3247,146 @@
     </row>
     <row r="5">
       <c r="B5" s="3" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="C6" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C7" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C8" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="C9" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="C10" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="C11" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="C12" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="C13" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="C14" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="C15" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="C16" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="C17" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="C18" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="C19" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="C20" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="C21" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="C22" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23">
@@ -3399,7 +3399,7 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>344</v>
+        <v>407</v>
       </c>
     </row>
     <row r="25">
@@ -3409,50 +3409,50 @@
     </row>
     <row r="26">
       <c r="B26" s="3" t="s">
-        <v>345</v>
+        <v>408</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>346</v>
+        <v>409</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="3" t="s">
-        <v>347</v>
+        <v>410</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>348</v>
+        <v>411</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="s">
-        <v>349</v>
+        <v>412</v>
       </c>
       <c r="C28" t="s">
-        <v>350</v>
+        <v>413</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="s">
-        <v>351</v>
+        <v>414</v>
       </c>
       <c r="C29" t="s">
-        <v>352</v>
+        <v>415</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="s">
-        <v>353</v>
+        <v>416</v>
       </c>
       <c r="C30" t="s">
-        <v>354</v>
+        <v>417</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="s">
-        <v>345</v>
+        <v>408</v>
       </c>
       <c r="C31" t="s">
-        <v>355</v>
+        <v>418</v>
       </c>
     </row>
     <row r="32">
@@ -3465,7 +3465,7 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>405</v>
+        <v>577</v>
       </c>
     </row>
     <row r="34">
@@ -3475,34 +3475,34 @@
     </row>
     <row r="35">
       <c r="B35" s="3" t="s">
-        <v>406</v>
+        <v>578</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>407</v>
+        <v>579</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="s">
-        <v>408</v>
+        <v>580</v>
       </c>
       <c r="C36" t="s">
-        <v>409</v>
+        <v>581</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="s">
-        <v>408</v>
+        <v>580</v>
       </c>
       <c r="C37" t="s">
-        <v>410</v>
+        <v>582</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="s">
-        <v>411</v>
+        <v>583</v>
       </c>
       <c r="C38" t="s">
-        <v>412</v>
+        <v>584</v>
       </c>
     </row>
     <row r="39">
@@ -3523,7 +3523,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -3553,10 +3553,10 @@
     </row>
     <row r="6">
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
@@ -3587,10 +3587,10 @@
     </row>
     <row r="11">
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
@@ -3611,7 +3611,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
     </row>
     <row r="2"/>
@@ -3620,7 +3620,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
@@ -3630,398 +3630,404 @@
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" t="s">
         <v>128</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="11">
-      <c r="B11" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
         <v>132</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="s">
+      <c r="C14" t="s">
         <v>134</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="s">
+      <c r="C15" t="s">
         <v>136</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="17">
-      <c r="B17" t="s">
-        <v>139</v>
-      </c>
-      <c r="C17" t="s">
-        <v>140</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
       <c r="B18" t="s">
         <v>139</v>
       </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="21">
+      <c r="B21" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>5</v>
+      <c r="C21" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="23">
-      <c r="B23" t="s">
+    <row r="24">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s">
         <v>145</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C25" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="26">
+      <c r="B26" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>5</v>
+      <c r="C26" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s">
-        <v>148</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="28">
-      <c r="B28" t="s">
-        <v>148</v>
-      </c>
-      <c r="C28" t="s">
+    <row r="29">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>5</v>
+      <c r="B31" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s">
-        <v>152</v>
-      </c>
-      <c r="C32" t="s">
-        <v>153</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
     </row>
     <row r="33">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
       <c r="B33" t="s">
         <v>154</v>
       </c>
-      <c r="C33" t="s">
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>5</v>
+      <c r="B36" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C37" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C38" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="B39" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" t="s">
-        <v>3</v>
-      </c>
       <c r="B40" t="s">
-        <v>161</v>
+        <v>165</v>
+      </c>
+      <c r="C40" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s">
-        <v>5</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
     </row>
     <row r="42">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
       <c r="B42" t="s">
-        <v>162</v>
-      </c>
-      <c r="C42" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="s">
-        <v>162</v>
-      </c>
-      <c r="C43" t="s">
-        <v>164</v>
+      <c r="A43" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C44" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="B45" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46" t="s">
-        <v>167</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s">
-        <v>168</v>
-      </c>
-      <c r="C48" t="s">
-        <v>169</v>
+      <c r="A48" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
       <c r="C49" t="s">
-        <v>171</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+      <c r="B50" t="s">
+        <v>254</v>
+      </c>
+      <c r="C50" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" t="s">
-        <v>172</v>
-      </c>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s">
-        <v>173</v>
-      </c>
-      <c r="C53" t="s">
-        <v>174</v>
+      <c r="A53" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="s">
-        <v>175</v>
+        <v>257</v>
       </c>
       <c r="C54" t="s">
-        <v>176</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="s">
-        <v>177</v>
+        <v>259</v>
       </c>
       <c r="C55" t="s">
-        <v>178</v>
+        <v>260</v>
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s">
-        <v>179</v>
-      </c>
-      <c r="C56" t="s">
-        <v>180</v>
-      </c>
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
     </row>
     <row r="57">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>3</v>
-      </c>
-      <c r="B58" t="s">
-        <v>181</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s">
-        <v>5</v>
+      <c r="B59" t="s">
+        <v>262</v>
+      </c>
+      <c r="C59" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="s">
-        <v>182</v>
+        <v>264</v>
       </c>
       <c r="C60" t="s">
-        <v>183</v>
+        <v>265</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="s">
-        <v>184</v>
+        <v>266</v>
       </c>
       <c r="C61" t="s">
-        <v>185</v>
+        <v>267</v>
       </c>
     </row>
     <row r="62">
@@ -4034,7 +4040,7 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>186</v>
+        <v>298</v>
       </c>
     </row>
     <row r="64">
@@ -4044,68 +4050,68 @@
     </row>
     <row r="65">
       <c r="B65" t="s">
-        <v>187</v>
+        <v>299</v>
       </c>
       <c r="C65" t="s">
-        <v>188</v>
+        <v>300</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" t="s">
-        <v>187</v>
+        <v>301</v>
       </c>
       <c r="C66" t="s">
-        <v>189</v>
+        <v>302</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
+      <c r="B67" t="s">
+        <v>303</v>
+      </c>
+      <c r="C67" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" t="s">
-        <v>3</v>
-      </c>
       <c r="B68" t="s">
-        <v>190</v>
+        <v>305</v>
+      </c>
+      <c r="C68" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s">
-        <v>5</v>
-      </c>
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
     </row>
     <row r="70">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
       <c r="B70" t="s">
-        <v>191</v>
-      </c>
-      <c r="C70" t="s">
-        <v>192</v>
+        <v>307</v>
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s">
-        <v>193</v>
-      </c>
-      <c r="C71" t="s">
-        <v>194</v>
+      <c r="A71" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="s">
-        <v>195</v>
+        <v>308</v>
       </c>
       <c r="C72" t="s">
-        <v>196</v>
+        <v>309</v>
       </c>
     </row>
     <row r="73">
       <c r="B73" t="s">
-        <v>195</v>
+        <v>308</v>
       </c>
       <c r="C73" t="s">
-        <v>197</v>
+        <v>310</v>
       </c>
     </row>
     <row r="74">
@@ -4118,7 +4124,7 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>202</v>
+        <v>311</v>
       </c>
     </row>
     <row r="76">
@@ -4128,296 +4134,296 @@
     </row>
     <row r="77">
       <c r="B77" t="s">
-        <v>203</v>
+        <v>312</v>
       </c>
       <c r="C77" t="s">
-        <v>204</v>
+        <v>313</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="s">
-        <v>205</v>
+        <v>312</v>
       </c>
       <c r="C78" t="s">
-        <v>206</v>
+        <v>314</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
+      <c r="B79" t="s">
+        <v>315</v>
+      </c>
+      <c r="C79" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" t="s">
-        <v>3</v>
-      </c>
-      <c r="B80" t="s">
-        <v>207</v>
-      </c>
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B81" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s">
-        <v>208</v>
-      </c>
-      <c r="C82" t="s">
-        <v>209</v>
+      <c r="A82" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="83">
       <c r="B83" t="s">
-        <v>210</v>
+        <v>318</v>
       </c>
       <c r="C83" t="s">
-        <v>211</v>
+        <v>319</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
+      <c r="B84" t="s">
+        <v>318</v>
+      </c>
+      <c r="C84" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" t="s">
-        <v>3</v>
-      </c>
-      <c r="B85" t="s">
-        <v>212</v>
-      </c>
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B86" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s">
-        <v>213</v>
-      </c>
-      <c r="C87" t="s">
-        <v>214</v>
+      <c r="A87" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="88">
       <c r="B88" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C88" t="s">
-        <v>216</v>
+        <v>323</v>
       </c>
     </row>
     <row r="89">
       <c r="B89" t="s">
-        <v>217</v>
+        <v>324</v>
       </c>
       <c r="C89" t="s">
-        <v>218</v>
+        <v>325</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
+      <c r="B90" t="s">
+        <v>326</v>
+      </c>
+      <c r="C90" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" t="s">
-        <v>3</v>
-      </c>
       <c r="B91" t="s">
-        <v>219</v>
+        <v>328</v>
+      </c>
+      <c r="C91" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s">
-        <v>5</v>
-      </c>
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
     </row>
     <row r="93">
+      <c r="A93" t="s">
+        <v>3</v>
+      </c>
       <c r="B93" t="s">
-        <v>220</v>
-      </c>
-      <c r="C93" t="s">
-        <v>221</v>
+        <v>330</v>
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C94" t="s">
-        <v>222</v>
+      <c r="A94" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
+      <c r="B95" t="s">
+        <v>331</v>
+      </c>
+      <c r="C95" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" t="s">
-        <v>3</v>
-      </c>
       <c r="B96" t="s">
-        <v>223</v>
+        <v>333</v>
+      </c>
+      <c r="C96" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s">
-        <v>5</v>
-      </c>
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
     </row>
     <row r="98">
+      <c r="A98" t="s">
+        <v>3</v>
+      </c>
       <c r="B98" t="s">
-        <v>224</v>
-      </c>
-      <c r="C98" t="s">
-        <v>225</v>
+        <v>335</v>
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C99" t="s">
-        <v>227</v>
+      <c r="A99" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
+      <c r="B100" t="s">
+        <v>336</v>
+      </c>
+      <c r="C100" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" t="s">
-        <v>3</v>
-      </c>
       <c r="B101" t="s">
-        <v>233</v>
+        <v>336</v>
+      </c>
+      <c r="C101" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s">
-        <v>5</v>
-      </c>
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
     </row>
     <row r="103">
+      <c r="A103" t="s">
+        <v>3</v>
+      </c>
       <c r="B103" t="s">
-        <v>234</v>
-      </c>
-      <c r="C103" t="s">
-        <v>235</v>
+        <v>339</v>
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s">
-        <v>236</v>
-      </c>
-      <c r="C104" t="s">
-        <v>237</v>
+      <c r="A104" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
+      <c r="B105" t="s">
+        <v>340</v>
+      </c>
+      <c r="C105" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="106">
-      <c r="A106" t="s">
-        <v>3</v>
-      </c>
       <c r="B106" t="s">
-        <v>238</v>
+        <v>342</v>
+      </c>
+      <c r="C106" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s">
-        <v>5</v>
-      </c>
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
     </row>
     <row r="108">
+      <c r="A108" t="s">
+        <v>3</v>
+      </c>
       <c r="B108" t="s">
-        <v>239</v>
-      </c>
-      <c r="C108" t="s">
-        <v>240</v>
+        <v>344</v>
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s">
-        <v>241</v>
-      </c>
-      <c r="C109" t="s">
-        <v>242</v>
+      <c r="A109" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
+      <c r="B110" t="s">
+        <v>345</v>
+      </c>
+      <c r="C110" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" t="s">
-        <v>3</v>
-      </c>
       <c r="B111" t="s">
-        <v>243</v>
+        <v>347</v>
+      </c>
+      <c r="C111" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s">
-        <v>5</v>
+      <c r="B112" t="s">
+        <v>347</v>
+      </c>
+      <c r="C112" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s">
-        <v>244</v>
-      </c>
-      <c r="C113" t="s">
-        <v>245</v>
-      </c>
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
     </row>
     <row r="114">
+      <c r="A114" t="s">
+        <v>3</v>
+      </c>
       <c r="B114" t="s">
-        <v>246</v>
-      </c>
-      <c r="C114" t="s">
-        <v>247</v>
+        <v>350</v>
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s">
-        <v>248</v>
-      </c>
-      <c r="C115" t="s">
-        <v>249</v>
+      <c r="A115" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="116">
       <c r="B116" t="s">
-        <v>250</v>
+        <v>351</v>
       </c>
       <c r="C116" t="s">
-        <v>251</v>
+        <v>352</v>
       </c>
     </row>
     <row r="117">
       <c r="B117" t="s">
-        <v>252</v>
+        <v>353</v>
       </c>
       <c r="C117" t="s">
-        <v>253</v>
+        <v>354</v>
       </c>
     </row>
     <row r="118">
       <c r="B118" t="s">
-        <v>254</v>
+        <v>355</v>
       </c>
       <c r="C118" t="s">
-        <v>255</v>
+        <v>356</v>
       </c>
     </row>
     <row r="119">
@@ -4430,7 +4436,7 @@
         <v>3</v>
       </c>
       <c r="B120" t="s">
-        <v>256</v>
+        <v>357</v>
       </c>
     </row>
     <row r="121">
@@ -4440,856 +4446,850 @@
     </row>
     <row r="122">
       <c r="B122" t="s">
-        <v>257</v>
+        <v>358</v>
       </c>
       <c r="C122" t="s">
-        <v>258</v>
+        <v>359</v>
       </c>
     </row>
     <row r="123">
       <c r="B123" t="s">
-        <v>259</v>
+        <v>360</v>
       </c>
       <c r="C123" t="s">
-        <v>260</v>
+        <v>361</v>
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s">
-        <v>261</v>
-      </c>
-      <c r="C124" t="s">
-        <v>262</v>
-      </c>
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
     </row>
     <row r="125">
+      <c r="A125" t="s">
+        <v>3</v>
+      </c>
       <c r="B125" t="s">
-        <v>263</v>
-      </c>
-      <c r="C125" t="s">
-        <v>264</v>
+        <v>362</v>
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s">
-        <v>265</v>
-      </c>
-      <c r="C126" t="s">
-        <v>266</v>
+      <c r="A126" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="127">
       <c r="B127" t="s">
-        <v>267</v>
+        <v>363</v>
       </c>
       <c r="C127" t="s">
-        <v>268</v>
+        <v>364</v>
       </c>
     </row>
     <row r="128">
       <c r="B128" t="s">
-        <v>269</v>
+        <v>365</v>
       </c>
       <c r="C128" t="s">
-        <v>270</v>
+        <v>366</v>
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s">
-        <v>271</v>
-      </c>
-      <c r="C129" t="s">
-        <v>272</v>
-      </c>
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
     </row>
     <row r="130">
+      <c r="A130" t="s">
+        <v>3</v>
+      </c>
       <c r="B130" t="s">
-        <v>273</v>
-      </c>
-      <c r="C130" t="s">
-        <v>274</v>
+        <v>367</v>
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s">
-        <v>275</v>
-      </c>
-      <c r="C131" t="s">
-        <v>276</v>
+      <c r="A131" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="132">
       <c r="B132" t="s">
-        <v>277</v>
+        <v>368</v>
       </c>
       <c r="C132" t="s">
-        <v>278</v>
+        <v>369</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
+      <c r="B133" t="s">
+        <v>370</v>
+      </c>
+      <c r="C133" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="134">
-      <c r="A134" t="s">
-        <v>3</v>
-      </c>
       <c r="B134" t="s">
-        <v>314</v>
+        <v>372</v>
+      </c>
+      <c r="C134" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s">
-        <v>5</v>
-      </c>
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
     </row>
     <row r="136">
+      <c r="A136" t="s">
+        <v>3</v>
+      </c>
       <c r="B136" t="s">
-        <v>315</v>
-      </c>
-      <c r="C136" t="s">
-        <v>316</v>
+        <v>379</v>
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s">
-        <v>317</v>
-      </c>
-      <c r="C137" t="s">
-        <v>318</v>
+      <c r="A137" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
+      <c r="B138" t="s">
+        <v>380</v>
+      </c>
+      <c r="C138" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="139">
-      <c r="A139" t="s">
-        <v>3</v>
-      </c>
       <c r="B139" t="s">
-        <v>319</v>
+        <v>382</v>
+      </c>
+      <c r="C139" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s">
-        <v>5</v>
+      <c r="B140" t="s">
+        <v>382</v>
+      </c>
+      <c r="C140" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="141">
       <c r="B141" t="s">
-        <v>320</v>
+        <v>385</v>
       </c>
       <c r="C141" t="s">
-        <v>321</v>
+        <v>386</v>
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s">
-        <v>322</v>
-      </c>
-      <c r="C142" t="s">
-        <v>323</v>
-      </c>
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
     </row>
     <row r="143">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
+      <c r="A143" t="s">
+        <v>3</v>
+      </c>
+      <c r="B143" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>3</v>
-      </c>
-      <c r="B144" t="s">
-        <v>324</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s">
-        <v>5</v>
+      <c r="B145" t="s">
+        <v>388</v>
+      </c>
+      <c r="C145" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="146">
       <c r="B146" t="s">
-        <v>325</v>
+        <v>390</v>
       </c>
       <c r="C146" t="s">
-        <v>326</v>
+        <v>391</v>
       </c>
     </row>
     <row r="147">
       <c r="B147" t="s">
-        <v>325</v>
+        <v>392</v>
       </c>
       <c r="C147" t="s">
-        <v>327</v>
+        <v>393</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
+      <c r="B148" t="s">
+        <v>394</v>
+      </c>
+      <c r="C148" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="149">
-      <c r="A149" t="s">
-        <v>3</v>
-      </c>
       <c r="B149" t="s">
-        <v>328</v>
+        <v>396</v>
+      </c>
+      <c r="C149" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s">
-        <v>5</v>
-      </c>
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
     </row>
     <row r="151">
+      <c r="A151" t="s">
+        <v>3</v>
+      </c>
       <c r="B151" t="s">
-        <v>329</v>
-      </c>
-      <c r="C151" t="s">
-        <v>330</v>
+        <v>398</v>
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s">
-        <v>331</v>
-      </c>
-      <c r="C152" t="s">
-        <v>332</v>
+      <c r="A152" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
+      <c r="B153" t="s">
+        <v>399</v>
+      </c>
+      <c r="C153" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="154">
-      <c r="A154" t="s">
-        <v>3</v>
-      </c>
       <c r="B154" t="s">
-        <v>333</v>
+        <v>399</v>
+      </c>
+      <c r="C154" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s">
-        <v>5</v>
-      </c>
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
     </row>
     <row r="156">
+      <c r="A156" t="s">
+        <v>3</v>
+      </c>
       <c r="B156" t="s">
-        <v>334</v>
-      </c>
-      <c r="C156" t="s">
-        <v>335</v>
+        <v>402</v>
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s">
-        <v>334</v>
-      </c>
-      <c r="C157" t="s">
-        <v>336</v>
+      <c r="A157" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="158">
       <c r="B158" t="s">
-        <v>337</v>
+        <v>403</v>
       </c>
       <c r="C158" t="s">
-        <v>338</v>
+        <v>404</v>
       </c>
     </row>
     <row r="159">
       <c r="B159" t="s">
-        <v>339</v>
+        <v>405</v>
       </c>
       <c r="C159" t="s">
-        <v>340</v>
+        <v>406</v>
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s">
-        <v>341</v>
-      </c>
-      <c r="C160" t="s">
-        <v>342</v>
-      </c>
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
     </row>
     <row r="161">
+      <c r="A161" t="s">
+        <v>3</v>
+      </c>
       <c r="B161" t="s">
-        <v>337</v>
-      </c>
-      <c r="C161" t="s">
-        <v>343</v>
+        <v>419</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
+      <c r="A162" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="163">
-      <c r="A163" t="s">
-        <v>3</v>
-      </c>
       <c r="B163" t="s">
-        <v>361</v>
+        <v>420</v>
+      </c>
+      <c r="C163" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s">
-        <v>5</v>
+      <c r="B164" t="s">
+        <v>420</v>
+      </c>
+      <c r="C164" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="165">
-      <c r="B165" t="s">
-        <v>362</v>
-      </c>
-      <c r="C165" t="s">
-        <v>363</v>
-      </c>
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
     </row>
     <row r="166">
+      <c r="A166" t="s">
+        <v>3</v>
+      </c>
       <c r="B166" t="s">
-        <v>364</v>
-      </c>
-      <c r="C166" t="s">
-        <v>365</v>
+        <v>423</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
+      <c r="A167" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="168">
-      <c r="A168" t="s">
-        <v>3</v>
-      </c>
       <c r="B168" t="s">
-        <v>366</v>
+        <v>424</v>
+      </c>
+      <c r="C168" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s">
-        <v>5</v>
+      <c r="B169" t="s">
+        <v>426</v>
+      </c>
+      <c r="C169" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s">
-        <v>367</v>
-      </c>
-      <c r="C170" t="s">
-        <v>368</v>
-      </c>
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
     </row>
     <row r="171">
+      <c r="A171" t="s">
+        <v>3</v>
+      </c>
       <c r="B171" t="s">
-        <v>369</v>
-      </c>
-      <c r="C171" t="s">
-        <v>370</v>
+        <v>428</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
+      <c r="A172" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="173">
-      <c r="A173" t="s">
-        <v>3</v>
-      </c>
       <c r="B173" t="s">
-        <v>371</v>
+        <v>429</v>
+      </c>
+      <c r="C173" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s">
-        <v>5</v>
+      <c r="B174" t="s">
+        <v>429</v>
+      </c>
+      <c r="C174" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s">
-        <v>372</v>
-      </c>
-      <c r="C175" t="s">
-        <v>373</v>
-      </c>
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
     </row>
     <row r="176">
+      <c r="A176" t="s">
+        <v>3</v>
+      </c>
       <c r="B176" t="s">
-        <v>374</v>
-      </c>
-      <c r="C176" t="s">
-        <v>375</v>
+        <v>432</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
+      <c r="A177" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="178">
-      <c r="A178" t="s">
-        <v>3</v>
-      </c>
       <c r="B178" t="s">
-        <v>376</v>
+        <v>433</v>
+      </c>
+      <c r="C178" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s">
-        <v>5</v>
+      <c r="B179" t="s">
+        <v>435</v>
+      </c>
+      <c r="C179" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s">
-        <v>377</v>
-      </c>
-      <c r="C180" t="s">
-        <v>378</v>
-      </c>
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
     </row>
     <row r="181">
+      <c r="A181" t="s">
+        <v>3</v>
+      </c>
       <c r="B181" t="s">
-        <v>379</v>
-      </c>
-      <c r="C181" t="s">
-        <v>380</v>
+        <v>437</v>
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s">
-        <v>381</v>
-      </c>
-      <c r="C182" t="s">
-        <v>382</v>
+      <c r="A182" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="183">
       <c r="B183" t="s">
-        <v>383</v>
+        <v>438</v>
       </c>
       <c r="C183" t="s">
-        <v>384</v>
+        <v>439</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
+      <c r="B184" t="s">
+        <v>440</v>
+      </c>
+      <c r="C184" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="185">
-      <c r="A185" t="s">
-        <v>3</v>
-      </c>
-      <c r="B185" t="s">
-        <v>390</v>
-      </c>
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B186" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s">
-        <v>391</v>
-      </c>
-      <c r="C187" t="s">
-        <v>392</v>
+      <c r="A187" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="188">
       <c r="B188" t="s">
-        <v>393</v>
+        <v>443</v>
       </c>
       <c r="C188" t="s">
-        <v>394</v>
+        <v>444</v>
       </c>
     </row>
     <row r="189">
       <c r="B189" t="s">
-        <v>391</v>
+        <v>445</v>
       </c>
       <c r="C189" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s">
-        <v>396</v>
-      </c>
-      <c r="C190" t="s">
-        <v>397</v>
-      </c>
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
     </row>
     <row r="191">
-      <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
-      <c r="C191" s="1"/>
+      <c r="A191" t="s">
+        <v>3</v>
+      </c>
+      <c r="B191" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>3</v>
-      </c>
-      <c r="B192" t="s">
-        <v>398</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s">
-        <v>5</v>
+      <c r="B193" t="s">
+        <v>448</v>
+      </c>
+      <c r="C193" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="194">
       <c r="B194" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="C194" t="s">
-        <v>400</v>
+        <v>450</v>
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s">
-        <v>401</v>
-      </c>
-      <c r="C195" t="s">
-        <v>402</v>
-      </c>
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
     </row>
     <row r="196">
+      <c r="A196" t="s">
+        <v>3</v>
+      </c>
       <c r="B196" t="s">
-        <v>403</v>
-      </c>
-      <c r="C196" t="s">
-        <v>404</v>
+        <v>451</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
-      <c r="C197" s="1"/>
+      <c r="A197" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="198">
-      <c r="A198" t="s">
-        <v>3</v>
-      </c>
       <c r="B198" t="s">
-        <v>413</v>
+        <v>452</v>
+      </c>
+      <c r="C198" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s">
-        <v>5</v>
+      <c r="B199" t="s">
+        <v>454</v>
+      </c>
+      <c r="C199" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="200">
       <c r="B200" t="s">
-        <v>414</v>
+        <v>452</v>
       </c>
       <c r="C200" t="s">
-        <v>415</v>
+        <v>456</v>
       </c>
     </row>
     <row r="201">
       <c r="B201" t="s">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="C201" t="s">
-        <v>417</v>
+        <v>458</v>
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s">
-        <v>418</v>
-      </c>
-      <c r="C202" t="s">
-        <v>419</v>
-      </c>
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
     </row>
     <row r="203">
-      <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
-      <c r="C203" s="1"/>
+      <c r="A203" t="s">
+        <v>3</v>
+      </c>
+      <c r="B203" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>3</v>
-      </c>
-      <c r="B204" t="s">
-        <v>420</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s">
-        <v>5</v>
+      <c r="B205" t="s">
+        <v>460</v>
+      </c>
+      <c r="C205" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="206">
       <c r="B206" t="s">
-        <v>421</v>
+        <v>462</v>
       </c>
       <c r="C206" t="s">
-        <v>422</v>
+        <v>463</v>
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s">
-        <v>423</v>
-      </c>
-      <c r="C207" t="s">
-        <v>424</v>
-      </c>
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
     </row>
     <row r="208">
-      <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
-      <c r="C208" s="1"/>
+      <c r="A208" t="s">
+        <v>3</v>
+      </c>
+      <c r="B208" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>3</v>
-      </c>
-      <c r="B209" t="s">
-        <v>430</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s">
-        <v>5</v>
+      <c r="B210" t="s">
+        <v>465</v>
+      </c>
+      <c r="C210" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="211">
       <c r="B211" t="s">
-        <v>431</v>
+        <v>467</v>
       </c>
       <c r="C211" t="s">
-        <v>432</v>
+        <v>468</v>
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s">
-        <v>433</v>
-      </c>
-      <c r="C212" t="s">
-        <v>434</v>
-      </c>
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
     </row>
     <row r="213">
-      <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
-      <c r="C213" s="1"/>
+      <c r="A213" t="s">
+        <v>3</v>
+      </c>
+      <c r="B213" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>3</v>
-      </c>
-      <c r="B214" t="s">
-        <v>435</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s">
-        <v>5</v>
+      <c r="B215" t="s">
+        <v>470</v>
+      </c>
+      <c r="C215" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="216">
       <c r="B216" t="s">
-        <v>436</v>
+        <v>472</v>
       </c>
       <c r="C216" t="s">
-        <v>437</v>
+        <v>473</v>
       </c>
     </row>
     <row r="217">
       <c r="B217" t="s">
-        <v>436</v>
+        <v>474</v>
       </c>
       <c r="C217" t="s">
-        <v>438</v>
+        <v>475</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
-      <c r="C218" s="1"/>
+      <c r="B218" t="s">
+        <v>476</v>
+      </c>
+      <c r="C218" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="219">
-      <c r="A219" t="s">
-        <v>3</v>
-      </c>
       <c r="B219" t="s">
-        <v>439</v>
+        <v>478</v>
+      </c>
+      <c r="C219" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s">
-        <v>5</v>
+      <c r="B220" t="s">
+        <v>480</v>
+      </c>
+      <c r="C220" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="221">
       <c r="B221" t="s">
-        <v>440</v>
+        <v>482</v>
       </c>
       <c r="C221" t="s">
-        <v>441</v>
+        <v>483</v>
       </c>
     </row>
     <row r="222">
       <c r="B222" t="s">
-        <v>442</v>
+        <v>484</v>
       </c>
       <c r="C222" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="223">
       <c r="B223" t="s">
-        <v>444</v>
+        <v>486</v>
       </c>
       <c r="C223" t="s">
-        <v>445</v>
+        <v>487</v>
       </c>
     </row>
     <row r="224">
       <c r="B224" t="s">
-        <v>446</v>
+        <v>488</v>
       </c>
       <c r="C224" t="s">
-        <v>447</v>
+        <v>489</v>
       </c>
     </row>
     <row r="225">
       <c r="B225" t="s">
-        <v>446</v>
+        <v>490</v>
       </c>
       <c r="C225" t="s">
-        <v>448</v>
+        <v>491</v>
       </c>
     </row>
     <row r="226">
-      <c r="B226" t="s">
-        <v>449</v>
-      </c>
-      <c r="C226" t="s">
-        <v>450</v>
-      </c>
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
     </row>
     <row r="227">
-      <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
-      <c r="C227" s="1"/>
+      <c r="A227" t="s">
+        <v>3</v>
+      </c>
+      <c r="B227" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>3</v>
-      </c>
-      <c r="B228" t="s">
-        <v>451</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="s">
-        <v>5</v>
+      <c r="B229" t="s">
+        <v>493</v>
+      </c>
+      <c r="C229" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="230">
       <c r="B230" t="s">
-        <v>452</v>
+        <v>495</v>
       </c>
       <c r="C230" t="s">
-        <v>453</v>
+        <v>496</v>
       </c>
     </row>
     <row r="231">
-      <c r="B231" t="s">
-        <v>454</v>
-      </c>
-      <c r="C231" t="s">
-        <v>455</v>
-      </c>
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
     </row>
     <row r="232">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
-      <c r="C232" s="1"/>
+      <c r="A232" t="s">
+        <v>3</v>
+      </c>
+      <c r="B232" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>3</v>
-      </c>
-      <c r="B233" t="s">
-        <v>456</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s">
-        <v>5</v>
+      <c r="B234" t="s">
+        <v>498</v>
+      </c>
+      <c r="C234" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="235">
       <c r="B235" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="C235" t="s">
-        <v>458</v>
+        <v>501</v>
       </c>
     </row>
     <row r="236">
       <c r="B236" t="s">
-        <v>457</v>
+        <v>502</v>
       </c>
       <c r="C236" t="s">
-        <v>459</v>
+        <v>503</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="1"/>
-      <c r="B237" s="1"/>
-      <c r="C237" s="1"/>
+      <c r="B237" t="s">
+        <v>504</v>
+      </c>
+      <c r="C237" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="238">
-      <c r="A238" t="s">
-        <v>3</v>
-      </c>
-      <c r="B238" t="s">
-        <v>460</v>
-      </c>
+      <c r="A238" s="1"/>
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B239" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="240">
-      <c r="B240" t="s">
-        <v>461</v>
-      </c>
-      <c r="C240" t="s">
-        <v>462</v>
+      <c r="A240" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="241">
       <c r="B241" t="s">
-        <v>463</v>
+        <v>507</v>
       </c>
       <c r="C241" t="s">
-        <v>464</v>
+        <v>508</v>
       </c>
     </row>
     <row r="242">
       <c r="B242" t="s">
-        <v>465</v>
+        <v>507</v>
       </c>
       <c r="C242" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
     </row>
     <row r="243">
@@ -5302,7 +5302,7 @@
         <v>3</v>
       </c>
       <c r="B244" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
     </row>
     <row r="245">
@@ -5312,68 +5312,68 @@
     </row>
     <row r="246">
       <c r="B246" t="s">
-        <v>468</v>
+        <v>511</v>
       </c>
       <c r="C246" t="s">
-        <v>469</v>
+        <v>512</v>
       </c>
     </row>
     <row r="247">
       <c r="B247" t="s">
-        <v>470</v>
+        <v>513</v>
       </c>
       <c r="C247" t="s">
-        <v>471</v>
+        <v>514</v>
       </c>
     </row>
     <row r="248">
       <c r="B248" t="s">
-        <v>472</v>
+        <v>515</v>
       </c>
       <c r="C248" t="s">
-        <v>473</v>
+        <v>516</v>
       </c>
     </row>
     <row r="249">
-      <c r="B249" t="s">
-        <v>474</v>
-      </c>
-      <c r="C249" t="s">
-        <v>475</v>
-      </c>
+      <c r="A249" s="1"/>
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
     </row>
     <row r="250">
-      <c r="A250" s="1"/>
-      <c r="B250" s="1"/>
-      <c r="C250" s="1"/>
+      <c r="A250" t="s">
+        <v>3</v>
+      </c>
+      <c r="B250" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>3</v>
-      </c>
-      <c r="B251" t="s">
-        <v>476</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s">
-        <v>5</v>
+      <c r="B252" t="s">
+        <v>523</v>
+      </c>
+      <c r="C252" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="253">
       <c r="B253" t="s">
-        <v>477</v>
+        <v>523</v>
       </c>
       <c r="C253" t="s">
-        <v>478</v>
+        <v>525</v>
       </c>
     </row>
     <row r="254">
       <c r="B254" t="s">
-        <v>479</v>
+        <v>523</v>
       </c>
       <c r="C254" t="s">
-        <v>480</v>
+        <v>526</v>
       </c>
     </row>
     <row r="255">
@@ -5386,7 +5386,7 @@
         <v>3</v>
       </c>
       <c r="B256" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
     </row>
     <row r="257">
@@ -5396,406 +5396,412 @@
     </row>
     <row r="258">
       <c r="B258" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="C258" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
     </row>
     <row r="259">
       <c r="B259" t="s">
-        <v>562</v>
+        <v>539</v>
       </c>
       <c r="C259" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="1"/>
-      <c r="B260" s="1"/>
-      <c r="C260" s="1"/>
+      <c r="B260" t="s">
+        <v>541</v>
+      </c>
+      <c r="C260" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="261">
-      <c r="A261" t="s">
-        <v>3</v>
-      </c>
-      <c r="B261" t="s">
-        <v>565</v>
-      </c>
+      <c r="A261" s="1"/>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B262" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="263">
-      <c r="B263" t="s">
-        <v>566</v>
-      </c>
-      <c r="C263" t="s">
-        <v>567</v>
+      <c r="A263" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="264">
       <c r="B264" t="s">
-        <v>568</v>
+        <v>544</v>
       </c>
       <c r="C264" t="s">
-        <v>569</v>
+        <v>545</v>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="1"/>
-      <c r="B265" s="1"/>
-      <c r="C265" s="1"/>
+      <c r="B265" t="s">
+        <v>546</v>
+      </c>
+      <c r="C265" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="266">
-      <c r="A266" t="s">
-        <v>3</v>
-      </c>
-      <c r="B266" t="s">
-        <v>570</v>
-      </c>
+      <c r="A266" s="1"/>
+      <c r="B266" s="1"/>
+      <c r="C266" s="1"/>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B267" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s">
-        <v>571</v>
-      </c>
-      <c r="C268" t="s">
-        <v>572</v>
+      <c r="A268" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="269">
       <c r="B269" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="C269" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
     </row>
     <row r="270">
       <c r="B270" t="s">
-        <v>575</v>
+        <v>551</v>
       </c>
       <c r="C270" t="s">
-        <v>576</v>
+        <v>552</v>
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s">
-        <v>577</v>
-      </c>
-      <c r="C271" t="s">
-        <v>578</v>
-      </c>
+      <c r="A271" s="1"/>
+      <c r="B271" s="1"/>
+      <c r="C271" s="1"/>
     </row>
     <row r="272">
+      <c r="A272" t="s">
+        <v>3</v>
+      </c>
       <c r="B272" t="s">
-        <v>579</v>
-      </c>
-      <c r="C272" t="s">
-        <v>580</v>
+        <v>553</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="1"/>
-      <c r="B273" s="1"/>
-      <c r="C273" s="1"/>
+      <c r="A273" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="274">
-      <c r="A274" t="s">
-        <v>3</v>
-      </c>
       <c r="B274" t="s">
-        <v>581</v>
+        <v>554</v>
+      </c>
+      <c r="C274" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="s">
-        <v>5</v>
+      <c r="B275" t="s">
+        <v>556</v>
+      </c>
+      <c r="C275" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="276">
       <c r="B276" t="s">
-        <v>582</v>
+        <v>558</v>
       </c>
       <c r="C276" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
     </row>
     <row r="277">
       <c r="B277" t="s">
-        <v>584</v>
+        <v>558</v>
       </c>
       <c r="C277" t="s">
-        <v>585</v>
+        <v>560</v>
       </c>
     </row>
     <row r="278">
-      <c r="B278" t="s">
-        <v>586</v>
-      </c>
-      <c r="C278" t="s">
-        <v>587</v>
-      </c>
+      <c r="A278" s="1"/>
+      <c r="B278" s="1"/>
+      <c r="C278" s="1"/>
     </row>
     <row r="279">
-      <c r="A279" s="1"/>
-      <c r="B279" s="1"/>
-      <c r="C279" s="1"/>
+      <c r="A279" t="s">
+        <v>3</v>
+      </c>
+      <c r="B279" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>3</v>
-      </c>
-      <c r="B280" t="s">
-        <v>588</v>
+        <v>5</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="s">
-        <v>5</v>
+      <c r="B281" t="s">
+        <v>567</v>
+      </c>
+      <c r="C281" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="282">
       <c r="B282" t="s">
-        <v>589</v>
+        <v>567</v>
       </c>
       <c r="C282" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
     </row>
     <row r="283">
       <c r="B283" t="s">
-        <v>591</v>
+        <v>570</v>
       </c>
       <c r="C283" t="s">
-        <v>592</v>
+        <v>571</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="1"/>
-      <c r="B284" s="1"/>
-      <c r="C284" s="1"/>
+      <c r="B284" t="s">
+        <v>572</v>
+      </c>
+      <c r="C284" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="285">
-      <c r="A285" t="s">
-        <v>3</v>
-      </c>
       <c r="B285" t="s">
-        <v>593</v>
+        <v>574</v>
+      </c>
+      <c r="C285" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s">
-        <v>5</v>
+      <c r="B286" t="s">
+        <v>570</v>
+      </c>
+      <c r="C286" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="287">
-      <c r="B287" t="s">
-        <v>594</v>
-      </c>
-      <c r="C287" t="s">
+      <c r="A287" s="1"/>
+      <c r="B287" s="1"/>
+      <c r="C287" s="1"/>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>3</v>
+      </c>
+      <c r="B288" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="B290" t="s">
+        <v>586</v>
+      </c>
+      <c r="C290" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="B291" t="s">
+        <v>588</v>
+      </c>
+      <c r="C291" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1"/>
+      <c r="B292" s="1"/>
+      <c r="C292" s="1"/>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>3</v>
+      </c>
+      <c r="B293" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="288">
-      <c r="B288" t="s">
-        <v>594</v>
-      </c>
-      <c r="C288" t="s">
+    <row r="294">
+      <c r="A294" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="B295" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="1"/>
-      <c r="B289" s="1"/>
-      <c r="C289" s="1"/>
-    </row>
-    <row r="290">
-      <c r="A290" t="s">
-        <v>3</v>
-      </c>
-      <c r="B290" t="s">
+      <c r="C295" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="B292" t="s">
+    <row r="296">
+      <c r="B296" t="s">
         <v>598</v>
       </c>
-      <c r="C292" t="s">
+      <c r="C296" t="s">
         <v>599</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="B293" t="s">
-        <v>600</v>
-      </c>
-      <c r="C293" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="1"/>
-      <c r="B294" s="1"/>
-      <c r="C294" s="1"/>
-    </row>
-    <row r="295">
-      <c r="A295" t="s">
-        <v>3</v>
-      </c>
-      <c r="B295" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="297">
       <c r="B297" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C297" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="298">
-      <c r="B298" t="s">
-        <v>605</v>
-      </c>
-      <c r="C298" t="s">
-        <v>606</v>
-      </c>
+      <c r="A298" s="1"/>
+      <c r="B298" s="1"/>
+      <c r="C298" s="1"/>
     </row>
     <row r="299">
-      <c r="A299" s="1"/>
-      <c r="B299" s="1"/>
-      <c r="C299" s="1"/>
+      <c r="A299" t="s">
+        <v>3</v>
+      </c>
+      <c r="B299" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>3</v>
-      </c>
-      <c r="B300" t="s">
-        <v>607</v>
+        <v>5</v>
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="s">
-        <v>5</v>
+      <c r="B301" t="s">
+        <v>603</v>
+      </c>
+      <c r="C301" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="302">
       <c r="B302" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C302" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="303">
-      <c r="B303" t="s">
-        <v>608</v>
-      </c>
-      <c r="C303" t="s">
-        <v>610</v>
-      </c>
+      <c r="A303" s="1"/>
+      <c r="B303" s="1"/>
+      <c r="C303" s="1"/>
     </row>
     <row r="304">
-      <c r="A304" s="1"/>
-      <c r="B304" s="1"/>
-      <c r="C304" s="1"/>
+      <c r="A304" t="s">
+        <v>3</v>
+      </c>
+      <c r="B304" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>3</v>
-      </c>
-      <c r="B305" t="s">
-        <v>611</v>
+        <v>5</v>
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="s">
-        <v>5</v>
+      <c r="B306" t="s">
+        <v>608</v>
+      </c>
+      <c r="C306" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="307">
       <c r="B307" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C307" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="308">
       <c r="B308" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C308" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="309">
       <c r="B309" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C309" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="310">
       <c r="B310" t="s">
+        <v>616</v>
+      </c>
+      <c r="C310" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="B311" t="s">
         <v>618</v>
       </c>
-      <c r="C310" t="s">
+      <c r="C311" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" s="1"/>
-      <c r="B311" s="1"/>
-      <c r="C311" s="1"/>
-    </row>
     <row r="312">
-      <c r="A312" t="s">
-        <v>3</v>
-      </c>
-      <c r="B312" t="s">
-        <v>620</v>
-      </c>
+      <c r="A312" s="1"/>
+      <c r="B312" s="1"/>
+      <c r="C312" s="1"/>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B313" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="314">
-      <c r="B314" t="s">
-        <v>621</v>
-      </c>
-      <c r="C314" t="s">
-        <v>622</v>
+      <c r="A314" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="315">
       <c r="B315" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C315" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="316">
@@ -5803,46 +5809,46 @@
         <v>623</v>
       </c>
       <c r="C316" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1"/>
+      <c r="B317" s="1"/>
+      <c r="C317" s="1"/>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>3</v>
+      </c>
+      <c r="B318" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="317">
-      <c r="B317" t="s">
-        <v>626</v>
-      </c>
-      <c r="C317" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" s="1"/>
-      <c r="B318" s="1"/>
-      <c r="C318" s="1"/>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>3</v>
-      </c>
-      <c r="B319" t="s">
-        <v>628</v>
+        <v>5</v>
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="s">
-        <v>5</v>
+      <c r="B320" t="s">
+        <v>626</v>
+      </c>
+      <c r="C320" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="321">
       <c r="B321" t="s">
+        <v>628</v>
+      </c>
+      <c r="C321" t="s">
         <v>629</v>
-      </c>
-      <c r="C321" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="322">
       <c r="B322" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C322" t="s">
         <v>631</v>
@@ -5850,10 +5856,10 @@
     </row>
     <row r="323">
       <c r="B323" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="C323" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="324">
@@ -5866,7 +5872,7 @@
         <v>3</v>
       </c>
       <c r="B325" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="326">
@@ -5876,118 +5882,112 @@
     </row>
     <row r="327">
       <c r="B327" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C327" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="328">
       <c r="B328" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C328" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="329">
-      <c r="B329" t="s">
-        <v>638</v>
-      </c>
-      <c r="C329" t="s">
+      <c r="A329" s="1"/>
+      <c r="B329" s="1"/>
+      <c r="C329" s="1"/>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>3</v>
+      </c>
+      <c r="B330" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="1"/>
-      <c r="B330" s="1"/>
-      <c r="C330" s="1"/>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>3</v>
-      </c>
-      <c r="B331" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="B332" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="s">
-        <v>5</v>
+      <c r="C332" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="333">
       <c r="B333" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C333" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="334">
-      <c r="B334" t="s">
+      <c r="A334" s="1"/>
+      <c r="B334" s="1"/>
+      <c r="C334" s="1"/>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>3</v>
+      </c>
+      <c r="B335" t="s">
         <v>643</v>
       </c>
-      <c r="C334" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="B335" t="s">
-        <v>645</v>
-      </c>
-      <c r="C335" t="s">
-        <v>646</v>
-      </c>
     </row>
     <row r="336">
-      <c r="B336" t="s">
-        <v>647</v>
-      </c>
-      <c r="C336" t="s">
-        <v>648</v>
+      <c r="A336" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="337">
       <c r="B337" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="C337" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="338">
       <c r="B338" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="C338" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="1"/>
-      <c r="B339" s="1"/>
-      <c r="C339" s="1"/>
+      <c r="B339" t="s">
+        <v>648</v>
+      </c>
+      <c r="C339" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="340">
-      <c r="A340" t="s">
-        <v>3</v>
-      </c>
-      <c r="B340" t="s">
-        <v>653</v>
-      </c>
+      <c r="A340" s="1"/>
+      <c r="B340" s="1"/>
+      <c r="C340" s="1"/>
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B341" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="342">
-      <c r="B342" t="s">
-        <v>654</v>
-      </c>
-      <c r="C342" t="s">
-        <v>655</v>
+      <c r="A342" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="343">
@@ -6024,7 +6024,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -6036,7 +6036,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>481</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4">
@@ -6046,333 +6046,327 @@
     </row>
     <row r="5">
       <c r="B5" s="3" t="s">
-        <v>482</v>
+        <v>172</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>483</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="3" t="s">
-        <v>484</v>
+        <v>174</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>485</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="3" t="s">
-        <v>486</v>
+        <v>176</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>487</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="3" t="s">
-        <v>488</v>
+        <v>178</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>489</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="3" t="s">
-        <v>490</v>
+        <v>180</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>491</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="3" t="s">
-        <v>492</v>
+        <v>182</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>493</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11"/>
-    <row r="12">
-      <c r="B12" t="s">
-        <v>495</v>
-      </c>
-      <c r="C12" t="s">
-        <v>496</v>
-      </c>
-      <c r="D12" t="s">
-        <v>494</v>
-      </c>
-    </row>
+    <row r="12"/>
     <row r="13">
       <c r="B13" t="s">
-        <v>497</v>
+        <v>185</v>
       </c>
       <c r="C13" t="s">
-        <v>498</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>499</v>
+        <v>187</v>
       </c>
       <c r="C14" t="s">
-        <v>500</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>501</v>
+        <v>189</v>
       </c>
       <c r="C15" t="s">
-        <v>502</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="s">
-        <v>503</v>
+        <v>191</v>
       </c>
       <c r="C16" t="s">
-        <v>504</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="s">
-        <v>505</v>
+        <v>193</v>
       </c>
       <c r="C17" t="s">
-        <v>506</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="s">
-        <v>507</v>
+        <v>195</v>
       </c>
       <c r="C18" t="s">
-        <v>508</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="s">
-        <v>507</v>
+        <v>197</v>
       </c>
       <c r="C19" t="s">
-        <v>509</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="s">
-        <v>510</v>
+        <v>197</v>
       </c>
       <c r="C20" t="s">
-        <v>511</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="s">
-        <v>512</v>
+        <v>200</v>
       </c>
       <c r="C21" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="22"/>
-    <row r="23">
-      <c r="B23" t="s">
-        <v>484</v>
-      </c>
-      <c r="C23" t="s">
-        <v>515</v>
-      </c>
-      <c r="D23" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" t="s">
-        <v>516</v>
-      </c>
-      <c r="C24" t="s">
-        <v>517</v>
-      </c>
-    </row>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>202</v>
+      </c>
+      <c r="C22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23"/>
+    <row r="24"/>
     <row r="25">
       <c r="B25" t="s">
-        <v>518</v>
+        <v>174</v>
       </c>
       <c r="C25" t="s">
-        <v>519</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="s">
-        <v>520</v>
+        <v>206</v>
       </c>
       <c r="C26" t="s">
-        <v>521</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="s">
-        <v>522</v>
+        <v>208</v>
       </c>
       <c r="C27" t="s">
-        <v>523</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="s">
-        <v>524</v>
+        <v>210</v>
       </c>
       <c r="C28" t="s">
-        <v>525</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="s">
-        <v>526</v>
+        <v>212</v>
       </c>
       <c r="C29" t="s">
-        <v>527</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="s">
-        <v>528</v>
+        <v>214</v>
       </c>
       <c r="C30" t="s">
-        <v>529</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="s">
-        <v>530</v>
+        <v>216</v>
       </c>
       <c r="C31" t="s">
-        <v>531</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="s">
-        <v>532</v>
+        <v>218</v>
       </c>
       <c r="C32" t="s">
-        <v>533</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="s">
-        <v>534</v>
+        <v>220</v>
       </c>
       <c r="C33" t="s">
-        <v>535</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="s">
-        <v>536</v>
+        <v>222</v>
       </c>
       <c r="C34" t="s">
-        <v>537</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="s">
-        <v>538</v>
+        <v>224</v>
       </c>
       <c r="C35" t="s">
-        <v>539</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="s">
-        <v>540</v>
+        <v>226</v>
       </c>
       <c r="C36" t="s">
-        <v>541</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="s">
-        <v>542</v>
+        <v>228</v>
       </c>
       <c r="C37" t="s">
-        <v>543</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="s">
-        <v>544</v>
+        <v>230</v>
       </c>
       <c r="C38" t="s">
-        <v>545</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="s">
-        <v>546</v>
+        <v>232</v>
       </c>
       <c r="C39" t="s">
-        <v>547</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="s">
-        <v>548</v>
+        <v>234</v>
       </c>
       <c r="C40" t="s">
-        <v>549</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="s">
-        <v>550</v>
+        <v>236</v>
       </c>
       <c r="C41" t="s">
-        <v>551</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="s">
-        <v>552</v>
+        <v>238</v>
       </c>
       <c r="C42" t="s">
-        <v>553</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="s">
-        <v>554</v>
+        <v>240</v>
       </c>
       <c r="C43" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="44"/>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="s">
+        <v>242</v>
+      </c>
+      <c r="C44" t="s">
+        <v>243</v>
+      </c>
+    </row>
     <row r="45">
       <c r="B45" t="s">
-        <v>557</v>
+        <v>244</v>
       </c>
       <c r="C45" t="s">
-        <v>558</v>
-      </c>
-      <c r="D45" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" t="s">
-        <v>559</v>
-      </c>
-      <c r="C46" t="s">
-        <v>560</v>
-      </c>
-    </row>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="46"/>
     <row r="47"/>
     <row r="48">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="B48" t="s">
+        <v>247</v>
+      </c>
+      <c r="C48" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="s">
+        <v>249</v>
+      </c>
+      <c r="C49" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="50"/>
+    <row r="51">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
     </row>
   </sheetData>
 </worksheet>

--- a/test_review/06-06.xlsx
+++ b/test_review/06-06.xlsx
@@ -381,6 +381,1452 @@
     <t>https://discuss.openubmc.cn//t/topic/317/1</t>
   </si>
   <si>
+    <t>BMC开发者如何高效构建仿真测试环境</t>
+  </si>
+  <si>
+    <t>OpenUBMC社区支持仿真镜像的构建与发布</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/qemu/issues/5</t>
+  </si>
+  <si>
+    <t>OpenUBMC社区支持仿真数据的发布</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/qemu/issues/4</t>
+  </si>
+  <si>
+    <t>OpenUBMC社区支持Qemu工具的构建与发布</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/qemu/issues/3</t>
+  </si>
+  <si>
+    <t>BMC配置导出需新增产品类别和软件版本信息支持</t>
+  </si>
+  <si>
+    <t>配置导出项新增BMC软件版本信息和产品类别信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/13</t>
+  </si>
+  <si>
+    <t>配置导入导出新增产品类别信息和BMC软件版本信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/profile_schema/issues/2</t>
+  </si>
+  <si>
+    <t>提供BMC出厂配置定制指导</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/16</t>
+  </si>
+  <si>
+    <t>软件中心需要添加BMCStudio描述和下载页</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/software-center-config/issues/3</t>
+  </si>
+  <si>
+    <t>BMC开发者如何优化国密证书接口的异常提示机制</t>
+  </si>
+  <si>
+    <t>【需求】支持国密证书管理的接口优化</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/43</t>
+  </si>
+  <si>
+    <t>【需求】支持国密证书管理的北向接口配置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/23</t>
+  </si>
+  <si>
+    <t>BMC开发者如何通过Redfish和IPMI接口实现硬盘日志收集控制</t>
+  </si>
+  <si>
+    <t>【需求】支持硬盘诊断功能控制</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/106</t>
+  </si>
+  <si>
+    <t>【需求】硬盘诊断功能控制</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/112</t>
+  </si>
+  <si>
+    <t>【需求】支持服务器网络管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/25</t>
+  </si>
+  <si>
+    <t>【需求】支持存储管理能力基线</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/30</t>
+  </si>
+  <si>
+    <t>【需求】支持存储管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/35</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/7</t>
+  </si>
+  <si>
+    <t>BMC开发者如何扩展升级接口参数处理并行升级错误场景</t>
+  </si>
+  <si>
+    <t>【需求】power_mgmt组件适配升级接口参数扩展</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/10</t>
+  </si>
+  <si>
+    <t>【需求】bios组件适配升级接口参数扩展</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/10</t>
+  </si>
+  <si>
+    <t>能效管理适配升级接口参数扩展</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/5</t>
+  </si>
+  <si>
+    <t>general_hardware组件适配升级接口参数</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/11</t>
+  </si>
+  <si>
+    <t>BMC开发者需修正BIOS组件生效流程图的逻辑错误</t>
+  </si>
+  <si>
+    <t>bios组件生效流程流程图错误</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/17</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/19</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现bingo SDK版本自动化兼容性校验</t>
+  </si>
+  <si>
+    <t>应支持bingo、构建工具、sdk之间的版本配套</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/414/1</t>
+  </si>
+  <si>
+    <t>【需求】bingo支持组件的全量二进制构建</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bingo/issues/12</t>
+  </si>
+  <si>
+    <t>BMC开发者如何高效配置3000W电源的PMbus告警属性</t>
+  </si>
+  <si>
+    <t>【需求】支持3000W电源管理，新增资源树私有属性CurrentModeLogic</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/account/issues/13</t>
+  </si>
+  <si>
+    <t>【需求】支持3000W电源管理，新增资源树bmc.kepler.Systems.PowerMgmt.OnePower.Status属性CMLStatus</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/44</t>
+  </si>
+  <si>
+    <t>【需求】支持电源继电器状态管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/45</t>
+  </si>
+  <si>
+    <t>开发者在BMC Studio中需手动二次配置因器件库不完整。</t>
+  </si>
+  <si>
+    <t>BMC Studio工具使用反馈</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/714/1</t>
+  </si>
+  <si>
+    <t>[WIP]BMC Studio用户指南</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/221/1</t>
+  </si>
+  <si>
+    <t>BMC开发者需实现NVMe盘多型号识别与管理兼容性</t>
+  </si>
+  <si>
+    <t>【需求】支持新增华为厂商NVMe盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/41</t>
+  </si>
+  <si>
+    <t>【需求】支持新增Memblaze厂商NVMe盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/44</t>
+  </si>
+  <si>
+    <t>BMC开发者如何通过Redfish接口实现光模块老化预测功能开关</t>
+  </si>
+  <si>
+    <t>【需求】支持光模块老化故障预测功能开关</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/52</t>
+  </si>
+  <si>
+    <t>【修改描述】支持光模块老化预测功能开关使能</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/31</t>
+  </si>
+  <si>
+    <t>BMC开发者确保SMBIOS协议解析Structure Header Length字段准确</t>
+  </si>
+  <si>
+    <t>解析SMBIOS协议04Type时出现异常</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/1</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/363/1</t>
+  </si>
+  <si>
+    <t>BMC开发者需解决权限限制下的升级恢复接口错误问题</t>
+  </si>
+  <si>
+    <t>【变更声明】Redfish升级接口权限变更</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/732/1</t>
+  </si>
+  <si>
+    <t>Redfish 升级接口 SimpleUpdate 关于在支持升级之后清除配置功能接口变更</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/32</t>
+  </si>
+  <si>
+    <t>BMC开发者如何规避新增IPMI命令导致组件不可启动问题</t>
+  </si>
+  <si>
+    <t>pcie_device新增IPMI命令导致组件异常问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/595/1</t>
+  </si>
+  <si>
+    <t>非天池组件加载方式</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/610/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何为thermal和power管理组件实现业务场景的白名单配置基线化</t>
+  </si>
+  <si>
+    <t>【需求】power_mgmt组件明确业务场景下的白名单化配置并形成基线</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/45</t>
+  </si>
+  <si>
+    <t>【需求】thermal_mgmt组件明确业务场景下的白名单化配置并形成基线</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/25</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现CSR文件损坏的检测与自修复</t>
+  </si>
+  <si>
+    <t>CSR文件损坏之后的恢复能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/4</t>
+  </si>
+  <si>
+    <t>CSR文件损坏恢复能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/9</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现PLDM协议获取网卡信息并集成接口展示</t>
+  </si>
+  <si>
+    <t>【需求】支持使用pldm协议获取网卡相关信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/20</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/19</t>
+  </si>
+  <si>
+    <t>BMC开发者需修正VPD中position描述的映射错误</t>
+  </si>
+  <si>
+    <t>vpd仓库platform.sr.png描述有误</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/360/1</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/2</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现Power资源的Redfish新标准适配</t>
+  </si>
+  <si>
+    <t>【需求】Power资源支持redfish新标准</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/113</t>
+  </si>
+  <si>
+    <t>【需求】支持Power资源新增修改电源冗余模式</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/106</t>
+  </si>
+  <si>
+    <t>【需求】能效管理支持Chassis资源redfish新标准</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/18</t>
+  </si>
+  <si>
+    <t>【需求】【PowerStrategy】支持Web界面提示优选主用电源</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/webui/issues/39</t>
+  </si>
+  <si>
+    <t>支持web界面显示优选电源工作模式及主用电源列表</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/111</t>
+  </si>
+  <si>
+    <t>【需求】支持新增自定义用户/用户组设置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/webui/issues/38</t>
+  </si>
+  <si>
+    <t>以下讨论源属于旧话题：BMC开发中如何通过REDfish协议实现PrivilegeMap配置同步与用户校验提示优化</t>
+  </si>
+  <si>
+    <t>【需求】RAS接口支持配置PrivilegeMap信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/53</t>
+  </si>
+  <si>
+    <t>电源信息获取优化</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/4</t>
+  </si>
+  <si>
+    <t>支持节点模式设置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/5</t>
+  </si>
+  <si>
+    <t>电源转化器型号显示修改</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/3</t>
+  </si>
+  <si>
+    <t>支持新增自定义用户组设置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/account/issues/11</t>
+  </si>
+  <si>
+    <t>支持配置PrivilegeMap信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/account/issues/12</t>
+  </si>
+  <si>
+    <t>支持用户名校验定制后的用户提示优化</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/account/issues/5</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/31</t>
+  </si>
+  <si>
+    <t>文档持续更新</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/1</t>
+  </si>
+  <si>
+    <t>文档描述优化</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/6</t>
+  </si>
+  <si>
+    <t>以下讨论源属于旧话题：如何通过原子能力实现电源冗余模式配置与功率封顶参数管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/31</t>
+  </si>
+  <si>
+    <t>【需求】支持查询冗余供电信息能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/27</t>
+  </si>
+  <si>
+    <t>【需求】支持查询电源模块信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/28</t>
+  </si>
+  <si>
+    <t>【需求】支持查询系统供电信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/29</t>
+  </si>
+  <si>
+    <t>【需求】支持查询电源FRU信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/22</t>
+  </si>
+  <si>
+    <t>【需求】支持监控电源不匹配检测原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/36</t>
+  </si>
+  <si>
+    <t>【需求】支持设置功耗过高告警阈值原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/25</t>
+  </si>
+  <si>
+    <t>【需求】支持查询功耗过高告警阈值原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/20</t>
+  </si>
+  <si>
+    <t>【需求】支持采集电源FRU信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/34</t>
+  </si>
+  <si>
+    <t>【需求】支持查询指定机箱电源信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/23</t>
+  </si>
+  <si>
+    <t>【需求】支持设置冗余供电模式能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/26</t>
+  </si>
+  <si>
+    <t>【需求】支持优化供电模式切换特性</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/9</t>
+  </si>
+  <si>
+    <t>【需求】支持设置功率封顶参数原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/24</t>
+  </si>
+  <si>
+    <t>【需求】支持查询风扇信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/16</t>
+  </si>
+  <si>
+    <t>【需求】支持查询历史系统功率信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/30</t>
+  </si>
+  <si>
+    <t>【需求】支持功率采集及查询原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/37</t>
+  </si>
+  <si>
+    <t>【需求】支持查询功率封顶参数原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/21</t>
+  </si>
+  <si>
+    <t>【需求】支持查询最大风扇&amp;电源个数信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/14</t>
+  </si>
+  <si>
+    <t>【需求】支持查询温度信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/15</t>
+  </si>
+  <si>
+    <t>【需求】支持温度采集及查询原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/20</t>
+  </si>
+  <si>
+    <t>【需求】支持查询进风口历史温度信息原子能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/17</t>
+  </si>
+  <si>
+    <t>以下讨论源属于旧话题：如何验证Thermal/Power资源对Redfish新标准接口的完整兼容性及运维场景可行性</t>
+  </si>
+  <si>
+    <t>【需求】Power相关资源支持redfish新标准</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/19</t>
+  </si>
+  <si>
+    <t>【需求】Thermal相关资源支持redfish新标准</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/13</t>
+  </si>
+  <si>
+    <t>BMC开发者需解决一键部署中的Conan组件拉取机制稳定性问题</t>
+  </si>
+  <si>
+    <t>bmc studio使用问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1012/1</t>
+  </si>
+  <si>
+    <t>BMC_STUDIO仓库一键部署，丢失响应，无成功，无失败反馈</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/962/1</t>
+  </si>
+  <si>
+    <t>使用bmc_studio遇到的问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/925/1</t>
+  </si>
+  <si>
+    <t>BMC Studio问题反馈</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/707/1</t>
+  </si>
+  <si>
+    <t>BMC开发中如何解决Conan v1弃用导致的头文件缺失编译失败</t>
+  </si>
+  <si>
+    <t>社区lsw编译不过</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/979/1</t>
+  </si>
+  <si>
+    <t>开源首版本编译不过</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/lsw/issues/1</t>
+  </si>
+  <si>
+    <t>BMC多组件共享白名单配置的维护复杂度问题</t>
+  </si>
+  <si>
+    <t>【需求】基于动态插桩拦截风险接口调用日志，形成通用化命令的白名单配置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/15</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/pcie_device/issues/4</t>
+  </si>
+  <si>
+    <t>BMC开发者如何在定制传感器时确保名称与主板丝印一致？</t>
+  </si>
+  <si>
+    <t>【需求】支持Px_Cy_Dz_Status内存定制传感器</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/ByteDance/issues/19</t>
+  </si>
+  <si>
+    <t>【需求】支持CPUx_Status定制传感器</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/ByteDance/issues/18</t>
+  </si>
+  <si>
+    <t>BMC固件开发中如何确保网卡扩展与历史协议兼容</t>
+  </si>
+  <si>
+    <t>【需求】网卡适配组件兼容历史网卡功能</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/6</t>
+  </si>
+  <si>
+    <t>【需求】网卡支持南向部件驱动接口</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/17</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/18</t>
+  </si>
+  <si>
+    <t>如何避免CRPS电源适配中SlotNumber配置错误</t>
+  </si>
+  <si>
+    <t>pmbus CRPS电源适配</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/240/1</t>
+  </si>
+  <si>
+    <t>电源适配指导</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1101/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何优化RAID日志导出的时延与安全性</t>
+  </si>
+  <si>
+    <t>【需求】支持收集raid卡文本格式日志</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/32</t>
+  </si>
+  <si>
+    <t>【需求】支持一键搜集日志导出raid卡固件日志</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/31</t>
+  </si>
+  <si>
+    <t>BMC开发者如何修正ProcessorID属性类型以符合SMBIOS协议</t>
+  </si>
+  <si>
+    <t>bmc.kepler.Systems.Processor.CPU的ProcessorID为U32类型，与SMBIOS协议不一致</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/30</t>
+  </si>
+  <si>
+    <t>【问题单】CPU的ProcessorID属性定义与SMBIOS协议规定不符</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/75</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/47</t>
+  </si>
+  <si>
+    <t>CPU类的ProcessorID属性定义为U32类型，与SMBIOS协议范围（QWORD）不一致</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/362/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现FPGA自检失败的告警模拟测试</t>
+  </si>
+  <si>
+    <t>【需求】支持FPGA固件周期自检失败的告警</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/30</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/84</t>
+  </si>
+  <si>
+    <t>支持FPGA固件周期自检失败的告警</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/45</t>
+  </si>
+  <si>
+    <t>BMC开发者如何扩展Web和IPMI接口支持风扇duty/speed信息读取</t>
+  </si>
+  <si>
+    <t>【需求】支持获取所有风扇duty和speed等信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/webui/issues/37</t>
+  </si>
+  <si>
+    <t>【需求】支持散热策略规格</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/11</t>
+  </si>
+  <si>
+    <t>BMC开发者如何解决PXE阶段因POST未完成导致重启失败</t>
+  </si>
+  <si>
+    <t>【问题单】定制后bios处于PXE阶段时重启BMC失败</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/19</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/sensor/issues/10</t>
+  </si>
+  <si>
+    <t>BMC开发者如何防范开发环境中的文件访问绕过漏洞</t>
+  </si>
+  <si>
+    <t>CVE-2025-31486</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/18</t>
+  </si>
+  <si>
+    <t>CVE-2025-46565</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/21</t>
+  </si>
+  <si>
+    <t>CVE-2025-32395</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/19</t>
+  </si>
+  <si>
+    <t>CVE-2025-30208</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/16</t>
+  </si>
+  <si>
+    <t>CVE-2025-31125</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/17</t>
+  </si>
+  <si>
+    <t>BMC开发者如何提升社区UT IT测试覆盖率和工具贡献效率</t>
+  </si>
+  <si>
+    <t>openUBMC社区测试贡献规划</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/592/1</t>
+  </si>
+  <si>
+    <t>QA 运作规则讨论</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/209/1</t>
+  </si>
+  <si>
+    <t>openUBMC社区QA SIG运作</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/593/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何统一实现查询指定处理器异构资源属性的Redfish接口</t>
+  </si>
+  <si>
+    <t>【需求】支持查询指定处理器资源信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/33</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/53</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/47</t>
+  </si>
+  <si>
+    <t>BMC开发者需统一板卡和MCU一键收集信息的存储路径与命名规范</t>
+  </si>
+  <si>
+    <t>【已评审】支持一键收集导出板卡信息，mcu信息</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/628/1</t>
+  </si>
+  <si>
+    <t>【需求】支持一键收集通用硬件信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/34</t>
+  </si>
+  <si>
+    <t>openUBMC一键收集介绍</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/290/1</t>
+  </si>
+  <si>
+    <t>【问题单】支持一键收集导出板卡信息，mcu信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/10</t>
+  </si>
+  <si>
+    <t>【需求】支持板卡硬件管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/15</t>
+  </si>
+  <si>
+    <t>基础通用问题FAQ</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/292/1</t>
+  </si>
+  <si>
+    <t>openUBMC各sig组本周(2025-0421-2025-0427)关闭issue统计</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/672/1</t>
+  </si>
+  <si>
+    <t>openUBMC各sig组本周(2025-0428~2025-0505)关闭issue统计</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/733/1</t>
+  </si>
+  <si>
+    <t>bmc-core SIG 入门指南</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/167/1</t>
+  </si>
+  <si>
+    <t>openUBMC各sig组本周(2025-0506~2025-0511)关闭issue统计</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/876/1</t>
+  </si>
+  <si>
+    <t>openUBMC品牌包定制指南</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/355/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何适配BlueField系列设备的调速策略在openUBMC中</t>
+  </si>
+  <si>
+    <t>【需求】支持BlueField-3（B3220）的调速策略配置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/17</t>
+  </si>
+  <si>
+    <t>【需求】支持BlueField-2（332A）的调速策略</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/18</t>
+  </si>
+  <si>
+    <t>BMC开发者如何在lscmd中显示和调试接口执行组件自定义命令用于在线调试</t>
+  </si>
+  <si>
+    <t>支持组件自定义命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/104</t>
+  </si>
+  <si>
+    <t>【需求】支持能效管理子系统组件自定义命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/17</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/7</t>
+  </si>
+  <si>
+    <t>【需求】支持组件自定义命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/21</t>
+  </si>
+  <si>
+    <t>标签包裹。</t>
+  </si>
+  <si>
+    <t>【需求】支持NCSI边带管理功能</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/16</t>
+  </si>
+  <si>
+    <t>【需求】开源社区支持NCSI边带管理功能</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/5</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现新的遥测配置管理接口</t>
+  </si>
+  <si>
+    <t>支持遥测上报配置管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/12</t>
+  </si>
+  <si>
+    <t>【需求】 支持遥测上报配置管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/37</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/16</t>
+  </si>
+  <si>
+    <t>【需求】可观测新增redfish、web接口及属性</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/29</t>
+  </si>
+  <si>
+    <t>BMC开发者如何高效管理openTelemetry API依赖组件</t>
+  </si>
+  <si>
+    <t>提供openTelemetry及依赖开源软件API能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/3</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/conan_index/issues/3</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现CoolingRequirement中SensorName属性在资源树注册</t>
+  </si>
+  <si>
+    <t>bmc.kepler.Systems.CoolingRequirement下私有属性SensorName上树</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/34</t>
+  </si>
+  <si>
+    <t>&lt;thermal_mgmt&gt; bmc.kepler.Systems.CoolingRequirement下私有属性SensorName上树</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/101</t>
+  </si>
+  <si>
+    <t>如何解决恢复出厂设置后BMC固件升级签名验证异常</t>
+  </si>
+  <si>
+    <t>恢复出厂设置后，BMC升级失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1065/1</t>
+  </si>
+  <si>
+    <t>BMC恢复出厂设置之后无法更新固件</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/831/1</t>
+  </si>
+  <si>
+    <t>恢复出厂设置时无法升级</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/11</t>
+  </si>
+  <si>
+    <t>BMC开发者如何设计CLI并发收集NPU/CPU日志的失败处理</t>
+  </si>
+  <si>
+    <t>【需求】 支持CLI导出NPU DFX日志</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/48</t>
+  </si>
+  <si>
+    <t>【需求】支持CLI导出CPU DFX日志</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/46</t>
+  </si>
+  <si>
+    <t>BMC开发者如何在直通场景下实现NVMe SSD自定义SMART监控</t>
+  </si>
+  <si>
+    <t>【需求】支持自定义SMART信息的NVMe SSD盘写放大监控</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/28</t>
+  </si>
+  <si>
+    <t>【需求】支持从带内获取SMART NVMe SSD盘冗余块信息并监控</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/24</t>
+  </si>
+  <si>
+    <t>【需求】支持获取NVMe SSD盘自定义SMART信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/27</t>
+  </si>
+  <si>
+    <t>【需求】支持从带内获取厂商SMART NVMe SSD盘冗余块信息并监控</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/10</t>
+  </si>
+  <si>
+    <t>【需求】支持自定义的SMART NVMe SSD盘亚健康检测</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/23</t>
+  </si>
+  <si>
+    <t>【需求】支持自定义SMART信息的NVMe SSD盘预估寿命新增计算参数</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/25</t>
+  </si>
+  <si>
+    <t>BMC开发者如何统一实现多品牌新款SATA硬盘的纳管支持？</t>
+  </si>
+  <si>
+    <t>【需求】支持新增希捷SATA盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/42</t>
+  </si>
+  <si>
+    <t>【需求】支持新增西数SATA盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/43</t>
+  </si>
+  <si>
+    <t>【需求】支持新增东芝SATA盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/45</t>
+  </si>
+  <si>
+    <t>BMC开发者实现升级时多签名机制兼容性</t>
+  </si>
+  <si>
+    <t>能否实现伙伴签名的openUBMC版本直接升级华为签名的各种固件？</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/335/1</t>
+  </si>
+  <si>
+    <t>伙伴openubmc版本如何支持升级华为签名固件版本和伙伴自己签名的固件版本均能成功？</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1083/1</t>
+  </si>
+  <si>
+    <t>使用openubmc进行bios固件升级，提示无效的升级包</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/182/1</t>
+  </si>
+  <si>
+    <t>刷了华为根的机器是否可以直接刷伙伴根</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/933/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何申请使用自动化测试框架</t>
+  </si>
+  <si>
+    <t>怎么申请使用kptest框架和itestsmart工具呢</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/665/1</t>
+  </si>
+  <si>
+    <t>kptest框架与KPTestOpenFramework工程、iTestSmart工具介绍</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/832/1</t>
+  </si>
+  <si>
+    <t>如何确保BIOS测试命令在高可用环境中的兼容性</t>
+  </si>
+  <si>
+    <t>高可用环境BIOS执行test失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/800/1</t>
+  </si>
+  <si>
+    <t>组件内执行bingo test显示测试失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/594/1</t>
+  </si>
+  <si>
+    <t>BMC开发者在Redfish OEM定制中如何实现存储控制器属性查询</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish接口oem定制查询指定存储资源信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rack_mgmt/issues/2</t>
+  </si>
+  <si>
+    <t>【需求】支持厂商定制化显示存储控制器端口数</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/67</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现PCIe Switch Flash升级组件的集成</t>
+  </si>
+  <si>
+    <t>PCIe Switch 芯片的Flash升级</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/721/1</t>
+  </si>
+  <si>
+    <t>【讨论】PCIe Switch场景下如何加载PCIe卡</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/722/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何扩展UpdateService接口以实现并行固件升级和资源隔离告警</t>
+  </si>
+  <si>
+    <t>【需求】bmc.kepler.UpdateService接口新增ParallelUpdate方法、新增ConcurrentReachedLimit错误引擎</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/49</t>
+  </si>
+  <si>
+    <t>新增bmc.kepler.UpdateService.FirmwareRestor接口,接口新增InitiateRestoreAction方法</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/100</t>
+  </si>
+  <si>
+    <t>BMC开发者如何在BIOS启动阶段禁用KVM/VNC键盘输入防止密码修改</t>
+  </si>
+  <si>
+    <t>支持BIOS启动过程禁止KVM/VNC键盘输入</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/19</t>
+  </si>
+  <si>
+    <t>支持BIOS在启动阶段禁用键盘</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/20</t>
+  </si>
+  <si>
+    <t>BMC开发者如何更新通用和异构硬件适配文档资源</t>
+  </si>
+  <si>
+    <t>【需求】社区更新通用硬件相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/19</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/13</t>
+  </si>
+  <si>
+    <t>【需求】社区更新设备管理规范相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/14</t>
+  </si>
+  <si>
+    <t>【需求】社区补齐异构硬件相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/17</t>
+  </si>
+  <si>
+    <t>【需求】社区更新能效管理相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/16</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/20</t>
+  </si>
+  <si>
+    <t>解决BMC过渡包升级中签名链更新缺失导致的校验失败</t>
+  </si>
+  <si>
+    <t>制作反向过渡包时碰到的疑问</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/723/1</t>
+  </si>
+  <si>
+    <t>25.03构建出包以及伙伴签名问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/390/1</t>
+  </si>
+  <si>
+    <t>25.03版本的构建环境搭建：dockerfile创建镜像失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/409/1</t>
+  </si>
+  <si>
+    <t>如何优化BMC日志、跟踪和度量数据的采集与存储效率</t>
+  </si>
+  <si>
+    <t>提供跟踪数据采集和存储能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/4</t>
+  </si>
+  <si>
+    <t>提供度量数据采集和存储能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/2</t>
+  </si>
+  <si>
+    <t>提供日志数据采集和存储能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/5</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现日志配置与系统路径的存储隔离迁移</t>
+  </si>
+  <si>
+    <t>支持日志存放位置隔离</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rootfs_user/issues/2</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/23</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现NVMe MI over MCTP协议响应码的可靠解析</t>
+  </si>
+  <si>
+    <t>【需求】支持NVMe-mi over mctp的协议解析</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/33</t>
+  </si>
+  <si>
+    <t>【需求】支持解析nvme mi协议响应码信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/8</t>
+  </si>
+  <si>
+    <t>BMC开发者如何通过返回值0判断文件安全操作成功状态</t>
+  </si>
+  <si>
+    <t>【需求】支持文件安全操作函数返回值判断</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/31</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/51</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/36</t>
+  </si>
+  <si>
+    <t>BMC开发者如何高效实现电链路统计数据采集接口</t>
+  </si>
+  <si>
+    <t>【需求】支持NPU参数面端口电链路数据采集</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/8</t>
+  </si>
+  <si>
+    <t>【需求】支持NPU参数面光模块数据采集接口增加电链路数据</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/7</t>
+  </si>
+  <si>
+    <t>BMC开发者如何提升多模组固件升级健壮性</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组CSR固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/24</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组VRD固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/26</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组CPLD固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/25</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组MCU固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/27</t>
+  </si>
+  <si>
+    <t>CPLD 升级 MultipleSuppliersMode MIXED Mode 功能背景了解</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/886/1</t>
+  </si>
+  <si>
+    <t>【需求】支持MCU子固件升级时版本号校验</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/23</t>
+  </si>
+  <si>
+    <t>BMC开发者如何解决固件并行升级总线互斥问题</t>
+  </si>
+  <si>
+    <t>【需求】支持固件升级流程总线互斥</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/21</t>
+  </si>
+  <si>
+    <t>固件升级流程总线互斥</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/10</t>
+  </si>
+  <si>
+    <t>【需求】能效管理固件升级流程总线互斥</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/11</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/11</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现Redfish接口查询指定PCIe设备资源信息</t>
+  </si>
+  <si>
+    <t>【需求】支持查询指定PCIEDevices资源信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/pcie_device/issues/5</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/16</t>
+  </si>
+  <si>
+    <t>BMC开发者如何解决固件升级中的证书校验失败</t>
+  </si>
+  <si>
+    <t>使用社区最新出包，升级hpm失败，查看m3log get cert fail!</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/498/1</t>
+  </si>
+  <si>
+    <t>最新 source 包烧录异常问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/173/1</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>【需求】支持新浪定制化页面显示可插硬盘的槽位总数</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/webui/issues/36</t>
+  </si>
+  <si>
+    <t>支持web页面显示可插硬盘的槽位总数</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/Sina/issues/2</t>
+  </si>
+  <si>
+    <t>BMC开发者如何在Web界面实现组件粒度状态查询的权限容错机制</t>
+  </si>
+  <si>
+    <t>【需求】web界面查询升级状态及生效状态信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/114</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/99</t>
+  </si>
+  <si>
     <t>开发者实现Redfish Drive资源OEM接口时需解决NVM MI命令与硬件协议栈的兼容性整合</t>
   </si>
   <si>
@@ -417,412 +1863,52 @@
     <t>https://gitcode.com/openUBMC/storage/issues/38</t>
   </si>
   <si>
-    <t>BMC开发者如何高效构建仿真测试环境</t>
-  </si>
-  <si>
-    <t>OpenUBMC社区支持仿真镜像的构建与发布</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/qemu/issues/5</t>
-  </si>
-  <si>
-    <t>OpenUBMC社区支持仿真数据的发布</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/qemu/issues/4</t>
-  </si>
-  <si>
-    <t>OpenUBMC社区支持Qemu工具的构建与发布</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/qemu/issues/3</t>
-  </si>
-  <si>
-    <t>BMC开发者如何解决固件升级中的证书校验失败</t>
-  </si>
-  <si>
-    <t>使用社区最新出包，升级hpm失败，查看m3log get cert fail!</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/498/1</t>
-  </si>
-  <si>
-    <t>最新 source 包烧录异常问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/173/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何为thermal和power管理组件实现业务场景的白名单配置基线化</t>
-  </si>
-  <si>
-    <t>【需求】power_mgmt组件明确业务场景下的白名单化配置并形成基线</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/45</t>
-  </si>
-  <si>
-    <t>【需求】thermal_mgmt组件明确业务场景下的白名单化配置并形成基线</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/25</t>
-  </si>
-  <si>
-    <t>BMC开发中如何解决Conan v1弃用导致的头文件缺失编译失败</t>
-  </si>
-  <si>
-    <t>社区lsw编译不过</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/979/1</t>
-  </si>
-  <si>
-    <t>开源首版本编译不过</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/lsw/issues/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何在直通场景下实现NVMe SSD自定义SMART监控</t>
-  </si>
-  <si>
-    <t>【需求】支持自定义SMART信息的NVMe SSD盘写放大监控</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/28</t>
-  </si>
-  <si>
-    <t>【需求】支持从带内获取SMART NVMe SSD盘冗余块信息并监控</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/24</t>
-  </si>
-  <si>
-    <t>【需求】支持获取NVMe SSD盘自定义SMART信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/27</t>
-  </si>
-  <si>
-    <t>【需求】支持从带内获取厂商SMART NVMe SSD盘冗余块信息并监控</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/10</t>
-  </si>
-  <si>
-    <t>【需求】支持自定义的SMART NVMe SSD盘亚健康检测</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/23</t>
-  </si>
-  <si>
-    <t>【需求】支持自定义SMART信息的NVMe SSD盘预估寿命新增计算参数</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/25</t>
-  </si>
-  <si>
-    <t>BMC开发者如何解决PXE阶段因POST未完成导致重启失败</t>
-  </si>
-  <si>
-    <t>【问题单】定制后bios处于PXE阶段时重启BMC失败</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/19</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/sensor/issues/10</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现Power资源的Redfish新标准适配</t>
-  </si>
-  <si>
-    <t>【需求】Power资源支持redfish新标准</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/113</t>
-  </si>
-  <si>
-    <t>【需求】支持Power资源新增修改电源冗余模式</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/106</t>
-  </si>
-  <si>
-    <t>【需求】能效管理支持Chassis资源redfish新标准</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/18</t>
-  </si>
-  <si>
-    <t>【需求】【PowerStrategy】支持Web界面提示优选主用电源</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/webui/issues/39</t>
-  </si>
-  <si>
-    <t>支持web界面显示优选电源工作模式及主用电源列表</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/111</t>
-  </si>
-  <si>
-    <t>【需求】支持新增自定义用户/用户组设置</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/webui/issues/38</t>
-  </si>
-  <si>
-    <t>话题：BMC开发中如何通过REDfish协议实现PrivilegeMap配置同步与用户校验提示优化</t>
-  </si>
-  <si>
-    <t>【需求】RAS接口支持配置PrivilegeMap信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/53</t>
-  </si>
-  <si>
-    <t>电源信息获取优化</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/4</t>
-  </si>
-  <si>
-    <t>支持节点模式设置</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/5</t>
-  </si>
-  <si>
-    <t>电源转化器型号显示修改</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/3</t>
-  </si>
-  <si>
-    <t>支持新增自定义用户组设置</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/account/issues/11</t>
-  </si>
-  <si>
-    <t>支持配置PrivilegeMap信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/account/issues/12</t>
-  </si>
-  <si>
-    <t>支持用户名校验定制后的用户提示优化</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/account/issues/5</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/31</t>
-  </si>
-  <si>
-    <t>文档持续更新</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/1</t>
-  </si>
-  <si>
-    <t>文档描述优化</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/6</t>
-  </si>
-  <si>
-    <t>话题：如何通过原子能力实现电源冗余模式配置与功率封顶参数管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/31</t>
-  </si>
-  <si>
-    <t>【需求】支持查询冗余供电信息能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/27</t>
-  </si>
-  <si>
-    <t>【需求】支持查询电源模块信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/28</t>
-  </si>
-  <si>
-    <t>【需求】支持查询系统供电信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/29</t>
-  </si>
-  <si>
-    <t>【需求】支持查询电源FRU信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/22</t>
-  </si>
-  <si>
-    <t>【需求】支持监控电源不匹配检测原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/36</t>
-  </si>
-  <si>
-    <t>【需求】支持设置功耗过高告警阈值原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/25</t>
-  </si>
-  <si>
-    <t>【需求】支持查询功耗过高告警阈值原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/20</t>
-  </si>
-  <si>
-    <t>【需求】支持采集电源FRU信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/34</t>
-  </si>
-  <si>
-    <t>【需求】支持查询指定机箱电源信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/23</t>
-  </si>
-  <si>
-    <t>【需求】支持设置冗余供电模式能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/26</t>
-  </si>
-  <si>
-    <t>【需求】支持优化供电模式切换特性</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/9</t>
-  </si>
-  <si>
-    <t>【需求】支持设置功率封顶参数原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/24</t>
-  </si>
-  <si>
-    <t>【需求】支持查询风扇信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/16</t>
-  </si>
-  <si>
-    <t>【需求】支持查询历史系统功率信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/30</t>
-  </si>
-  <si>
-    <t>【需求】支持功率采集及查询原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/37</t>
-  </si>
-  <si>
-    <t>【需求】支持查询功率封顶参数原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/21</t>
-  </si>
-  <si>
-    <t>【需求】支持查询最大风扇&amp;电源个数信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/14</t>
-  </si>
-  <si>
-    <t>【需求】支持查询温度信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/15</t>
-  </si>
-  <si>
-    <t>【需求】支持温度采集及查询原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/20</t>
-  </si>
-  <si>
-    <t>【需求】支持查询进风口历史温度信息原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/17</t>
-  </si>
-  <si>
-    <t>话题：如何验证Thermal/Power资源对Redfish新标准接口的完整兼容性及运维场景可行性</t>
-  </si>
-  <si>
-    <t>【需求】Power相关资源支持redfish新标准</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/19</t>
-  </si>
-  <si>
-    <t>【需求】Thermal相关资源支持redfish新标准</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/13</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现NVMe MI over MCTP协议响应码的可靠解析</t>
-  </si>
-  <si>
-    <t>【需求】支持NVMe-mi over mctp的协议解析</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/33</t>
-  </si>
-  <si>
-    <t>【需求】支持解析nvme mi协议响应码信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/8</t>
-  </si>
-  <si>
-    <t>BMC开发者如何适配BlueField系列设备的调速策略在openUBMC中</t>
-  </si>
-  <si>
-    <t>【需求】支持BlueField-3（B3220）的调速策略配置</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/17</t>
-  </si>
-  <si>
-    <t>【需求】支持BlueField-2（332A）的调速策略</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/18</t>
-  </si>
-  <si>
-    <t>BMC开发者如何统一实现多品牌新款SATA硬盘的纳管支持？</t>
-  </si>
-  <si>
-    <t>【需求】支持新增希捷SATA盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/42</t>
-  </si>
-  <si>
-    <t>【需求】支持新增西数SATA盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/43</t>
-  </si>
-  <si>
-    <t>【需求】支持新增东芝SATA盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/45</t>
+    <t>BMC开发中如何实现DPU网卡启动状态的实时检测与记录</t>
+  </si>
+  <si>
+    <t>【需求】支持DPU网卡启动完成标识记录</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/28</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/15</t>
+  </si>
+  <si>
+    <t>BMC开发者亟需开源应用框架开发指导文档</t>
+  </si>
+  <si>
+    <t>提供应用框架开发指导</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/15</t>
+  </si>
+  <si>
+    <t>【需求】社区提供开源项目开发者指南</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/webui/issues/19</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现SystemInfoTable属性的持久化存储以支持IPMI标准命令</t>
+  </si>
+  <si>
+    <t>IPMI2.0标准接口能力新增私有属性保存system info信息</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1100/1</t>
+  </si>
+  <si>
+    <t>【需求】支持Get System Info标准命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/12</t>
+  </si>
+  <si>
+    <t>【需求】支持Set System Info标准命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/13</t>
   </si>
   <si>
     <t>BMC开发者在资源树协作接口中如何解决属性约束冲突与内部实现暴露问题</t>
@@ -913,1092 +1999,6 @@
   </si>
   <si>
     <t>https://gitcode.com/openUBMC/account/issues/6</t>
-  </si>
-  <si>
-    <t>BMC开发者实现升级时多签名机制兼容性</t>
-  </si>
-  <si>
-    <t>能否实现伙伴签名的openUBMC版本直接升级华为签名的各种固件？</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/335/1</t>
-  </si>
-  <si>
-    <t>伙伴openubmc版本如何支持升级华为签名固件版本和伙伴自己签名的固件版本均能成功？</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1083/1</t>
-  </si>
-  <si>
-    <t>使用openubmc进行bios固件升级，提示无效的升级包</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/182/1</t>
-  </si>
-  <si>
-    <t>刷了华为根的机器是否可以直接刷伙伴根</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/933/1</t>
-  </si>
-  <si>
-    <t>BMC多组件共享白名单配置的维护复杂度问题</t>
-  </si>
-  <si>
-    <t>【需求】基于动态插桩拦截风险接口调用日志，形成通用化命令的白名单配置</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/15</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/pcie_device/issues/4</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现FPGA自检失败的告警模拟测试</t>
-  </si>
-  <si>
-    <t>【需求】支持FPGA固件周期自检失败的告警</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/30</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/84</t>
-  </si>
-  <si>
-    <t>支持FPGA固件周期自检失败的告警</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/45</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现PLDM协议获取网卡信息并集成接口展示</t>
-  </si>
-  <si>
-    <t>【需求】支持使用pldm协议获取网卡相关信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/20</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/19</t>
-  </si>
-  <si>
-    <t>BMC配置导出需新增产品类别和软件版本信息支持</t>
-  </si>
-  <si>
-    <t>配置导出项新增BMC软件版本信息和产品类别信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/13</t>
-  </si>
-  <si>
-    <t>配置导入导出新增产品类别信息和BMC软件版本信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/profile_schema/issues/2</t>
-  </si>
-  <si>
-    <t>提供BMC出厂配置定制指导</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/16</t>
-  </si>
-  <si>
-    <t>软件中心需要添加BMCStudio描述和下载页</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/software-center-config/issues/3</t>
-  </si>
-  <si>
-    <t>BMC开发者如何规避新增IPMI命令导致组件不可启动问题</t>
-  </si>
-  <si>
-    <t>pcie_device新增IPMI命令导致组件异常问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/595/1</t>
-  </si>
-  <si>
-    <t>非天池组件加载方式</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/610/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现日志配置与系统路径的存储隔离迁移</t>
-  </si>
-  <si>
-    <t>支持日志存放位置隔离</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rootfs_user/issues/2</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/23</t>
-  </si>
-  <si>
-    <t>BMC开发者需实现NVMe盘多型号识别与管理兼容性</t>
-  </si>
-  <si>
-    <t>【需求】支持新增华为厂商NVMe盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/41</t>
-  </si>
-  <si>
-    <t>【需求】支持新增Memblaze厂商NVMe盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/44</t>
-  </si>
-  <si>
-    <t>BMC固件开发中如何确保网卡扩展与历史协议兼容</t>
-  </si>
-  <si>
-    <t>【需求】网卡适配组件兼容历史网卡功能</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/6</t>
-  </si>
-  <si>
-    <t>【需求】网卡支持南向部件驱动接口</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/17</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/18</t>
-  </si>
-  <si>
-    <t>解决BMC过渡包升级中签名链更新缺失导致的校验失败</t>
-  </si>
-  <si>
-    <t>制作反向过渡包时碰到的疑问</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/723/1</t>
-  </si>
-  <si>
-    <t>25.03构建出包以及伙伴签名问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/390/1</t>
-  </si>
-  <si>
-    <t>25.03版本的构建环境搭建：dockerfile创建镜像失败</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/409/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何申请使用自动化测试框架</t>
-  </si>
-  <si>
-    <t>怎么申请使用kptest框架和itestsmart工具呢</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/665/1</t>
-  </si>
-  <si>
-    <t>kptest框架与KPTestOpenFramework工程、iTestSmart工具介绍</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/832/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何通过Redfish接口实现光模块老化预测功能开关</t>
-  </si>
-  <si>
-    <t>【需求】支持光模块老化故障预测功能开关</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/52</t>
-  </si>
-  <si>
-    <t>【修改描述】支持光模块老化预测功能开关使能</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/31</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现SystemInfoTable属性的持久化存储以支持IPMI标准命令</t>
-  </si>
-  <si>
-    <t>IPMI2.0标准接口能力新增私有属性保存system info信息</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1100/1</t>
-  </si>
-  <si>
-    <t>【需求】支持Get System Info标准命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/12</t>
-  </si>
-  <si>
-    <t>【需求】支持Set System Info标准命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/13</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>【需求】支持新浪定制化页面显示可插硬盘的槽位总数</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/webui/issues/36</t>
-  </si>
-  <si>
-    <t>支持web页面显示可插硬盘的槽位总数</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/Sina/issues/2</t>
-  </si>
-  <si>
-    <t>BMC开发者如何修正ProcessorID属性类型以符合SMBIOS协议</t>
-  </si>
-  <si>
-    <t>bmc.kepler.Systems.Processor.CPU的ProcessorID为U32类型，与SMBIOS协议不一致</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/30</t>
-  </si>
-  <si>
-    <t>【问题单】CPU的ProcessorID属性定义与SMBIOS协议规定不符</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/75</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/47</t>
-  </si>
-  <si>
-    <t>CPU类的ProcessorID属性定义为U32类型，与SMBIOS协议范围（QWORD）不一致</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/362/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何防范开发环境中的文件访问绕过漏洞</t>
-  </si>
-  <si>
-    <t>CVE-2025-31486</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/18</t>
-  </si>
-  <si>
-    <t>CVE-2025-46565</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/21</t>
-  </si>
-  <si>
-    <t>CVE-2025-32395</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/19</t>
-  </si>
-  <si>
-    <t>CVE-2025-30208</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/16</t>
-  </si>
-  <si>
-    <t>CVE-2025-31125</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/17</t>
-  </si>
-  <si>
-    <t>BMC开发者如何高效管理openTelemetry API依赖组件</t>
-  </si>
-  <si>
-    <t>提供openTelemetry及依赖开源软件API能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/observability/issues/3</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/conan_index/issues/3</t>
-  </si>
-  <si>
-    <t>开发者在BMC Studio中需手动二次配置因器件库不完整。</t>
-  </si>
-  <si>
-    <t>BMC Studio工具使用反馈</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/714/1</t>
-  </si>
-  <si>
-    <t>[WIP]BMC Studio用户指南</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/221/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何通过Redfish和IPMI接口实现硬盘日志收集控制</t>
-  </si>
-  <si>
-    <t>【需求】支持硬盘诊断功能控制</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/106</t>
-  </si>
-  <si>
-    <t>【需求】硬盘诊断功能控制</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/112</t>
-  </si>
-  <si>
-    <t>【需求】支持服务器网络管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/25</t>
-  </si>
-  <si>
-    <t>【需求】支持存储管理能力基线</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/30</t>
-  </si>
-  <si>
-    <t>【需求】支持存储管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/35</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/7</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现Redfish接口查询指定PCIe设备资源信息</t>
-  </si>
-  <si>
-    <t>【需求】支持查询指定PCIEDevices资源信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/pcie_device/issues/5</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/16</t>
-  </si>
-  <si>
-    <t>如何确保BIOS测试命令在高可用环境中的兼容性</t>
-  </si>
-  <si>
-    <t>高可用环境BIOS执行test失败</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/800/1</t>
-  </si>
-  <si>
-    <t>组件内执行bingo test显示测试失败</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/594/1</t>
-  </si>
-  <si>
-    <t>BMC开发者需修正VPD中position描述的映射错误</t>
-  </si>
-  <si>
-    <t>vpd仓库platform.sr.png描述有误</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/360/1</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/2</t>
-  </si>
-  <si>
-    <t>标签包裹。</t>
-  </si>
-  <si>
-    <t>【需求】支持NCSI边带管理功能</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/16</t>
-  </si>
-  <si>
-    <t>【需求】开源社区支持NCSI边带管理功能</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/5</t>
-  </si>
-  <si>
-    <t>BMC开发者如何优化RAID日志导出的时延与安全性</t>
-  </si>
-  <si>
-    <t>【需求】支持收集raid卡文本格式日志</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/32</t>
-  </si>
-  <si>
-    <t>【需求】支持一键搜集日志导出raid卡固件日志</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/31</t>
-  </si>
-  <si>
-    <t>BMC开发者需解决权限限制下的升级恢复接口错误问题</t>
-  </si>
-  <si>
-    <t>【变更声明】Redfish升级接口权限变更</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/732/1</t>
-  </si>
-  <si>
-    <t>Redfish 升级接口 SimpleUpdate 关于在支持升级之后清除配置功能接口变更</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/32</t>
-  </si>
-  <si>
-    <t>BMC开发者确保SMBIOS协议解析Structure Header Length字段准确</t>
-  </si>
-  <si>
-    <t>解析SMBIOS协议04Type时出现异常</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/1</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/363/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现新的遥测配置管理接口</t>
-  </si>
-  <si>
-    <t>支持遥测上报配置管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/12</t>
-  </si>
-  <si>
-    <t>【需求】 支持遥测上报配置管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/37</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/16</t>
-  </si>
-  <si>
-    <t>【需求】可观测新增redfish、web接口及属性</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/29</t>
-  </si>
-  <si>
-    <t>BMC开发者在Redfish OEM定制中如何实现存储控制器属性查询</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish接口oem定制查询指定存储资源信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rack_mgmt/issues/2</t>
-  </si>
-  <si>
-    <t>【需求】支持厂商定制化显示存储控制器端口数</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/67</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现bingo SDK版本自动化兼容性校验</t>
-  </si>
-  <si>
-    <t>应支持bingo、构建工具、sdk之间的版本配套</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/414/1</t>
-  </si>
-  <si>
-    <t>【需求】bingo支持组件的全量二进制构建</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bingo/issues/12</t>
-  </si>
-  <si>
-    <t>BMC开发者需统一板卡和MCU一键收集信息的存储路径与命名规范</t>
-  </si>
-  <si>
-    <t>【已评审】支持一键收集导出板卡信息，mcu信息</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/628/1</t>
-  </si>
-  <si>
-    <t>【需求】支持一键收集通用硬件信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/34</t>
-  </si>
-  <si>
-    <t>openUBMC一键收集介绍</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/290/1</t>
-  </si>
-  <si>
-    <t>【问题单】支持一键收集导出板卡信息，mcu信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/10</t>
-  </si>
-  <si>
-    <t>【需求】支持板卡硬件管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/15</t>
-  </si>
-  <si>
-    <t>基础通用问题FAQ</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/292/1</t>
-  </si>
-  <si>
-    <t>openUBMC各sig组本周(2025-0421-2025-0427)关闭issue统计</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/672/1</t>
-  </si>
-  <si>
-    <t>openUBMC各sig组本周(2025-0428~2025-0505)关闭issue统计</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/733/1</t>
-  </si>
-  <si>
-    <t>bmc-core SIG 入门指南</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/167/1</t>
-  </si>
-  <si>
-    <t>openUBMC各sig组本周(2025-0506~2025-0511)关闭issue统计</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/876/1</t>
-  </si>
-  <si>
-    <t>openUBMC品牌包定制指南</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/355/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何优化国密证书接口的异常提示机制</t>
-  </si>
-  <si>
-    <t>【需求】支持国密证书管理的接口优化</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/43</t>
-  </si>
-  <si>
-    <t>【需求】支持国密证书管理的北向接口配置</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/23</t>
-  </si>
-  <si>
-    <t>BMC开发者如何扩展升级接口参数处理并行升级错误场景</t>
-  </si>
-  <si>
-    <t>【需求】power_mgmt组件适配升级接口参数扩展</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/10</t>
-  </si>
-  <si>
-    <t>【需求】bios组件适配升级接口参数扩展</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/10</t>
-  </si>
-  <si>
-    <t>能效管理适配升级接口参数扩展</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/5</t>
-  </si>
-  <si>
-    <t>general_hardware组件适配升级接口参数</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/11</t>
-  </si>
-  <si>
-    <t>BMC开发中如何实现DPU网卡启动状态的实时检测与记录</t>
-  </si>
-  <si>
-    <t>【需求】支持DPU网卡启动完成标识记录</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/28</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/15</t>
-  </si>
-  <si>
-    <t>如何解决恢复出厂设置后BMC固件升级签名验证异常</t>
-  </si>
-  <si>
-    <t>恢复出厂设置后，BMC升级失败</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1065/1</t>
-  </si>
-  <si>
-    <t>BMC恢复出厂设置之后无法更新固件</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/831/1</t>
-  </si>
-  <si>
-    <t>恢复出厂设置时无法升级</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/11</t>
-  </si>
-  <si>
-    <t>BMC开发者如何扩展Web和IPMI接口支持风扇duty/speed信息读取</t>
-  </si>
-  <si>
-    <t>【需求】支持获取所有风扇duty和speed等信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/webui/issues/37</t>
-  </si>
-  <si>
-    <t>【需求】支持散热策略规格</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/11</t>
-  </si>
-  <si>
-    <t>BMC开发者如何统一实现查询指定处理器异构资源属性的Redfish接口</t>
-  </si>
-  <si>
-    <t>【需求】支持查询指定处理器资源信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/33</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/53</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/47</t>
-  </si>
-  <si>
-    <t>BMC开发者如何在定制传感器时确保名称与主板丝印一致？</t>
-  </si>
-  <si>
-    <t>【需求】支持Px_Cy_Dz_Status内存定制传感器</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/ByteDance/issues/19</t>
-  </si>
-  <si>
-    <t>【需求】支持CPUx_Status定制传感器</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/ByteDance/issues/18</t>
-  </si>
-  <si>
-    <t>BMC开发者如何在Web界面实现组件粒度状态查询的权限容错机制</t>
-  </si>
-  <si>
-    <t>【需求】web界面查询升级状态及生效状态信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/114</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/99</t>
-  </si>
-  <si>
-    <t>如何优化BMC日志、跟踪和度量数据的采集与存储效率</t>
-  </si>
-  <si>
-    <t>提供跟踪数据采集和存储能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/observability/issues/4</t>
-  </si>
-  <si>
-    <t>提供度量数据采集和存储能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/observability/issues/2</t>
-  </si>
-  <si>
-    <t>提供日志数据采集和存储能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/observability/issues/5</t>
-  </si>
-  <si>
-    <t>BMC开发者亟需开源应用框架开发指导文档</t>
-  </si>
-  <si>
-    <t>提供应用框架开发指导</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/15</t>
-  </si>
-  <si>
-    <t>【需求】社区提供开源项目开发者指南</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/webui/issues/19</t>
-  </si>
-  <si>
-    <t>BMC开发者如何设计CLI并发收集NPU/CPU日志的失败处理</t>
-  </si>
-  <si>
-    <t>【需求】 支持CLI导出NPU DFX日志</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/48</t>
-  </si>
-  <si>
-    <t>【需求】支持CLI导出CPU DFX日志</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/46</t>
-  </si>
-  <si>
-    <t>BMC开发者如何解决固件并行升级总线互斥问题</t>
-  </si>
-  <si>
-    <t>【需求】支持固件升级流程总线互斥</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/21</t>
-  </si>
-  <si>
-    <t>固件升级流程总线互斥</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/10</t>
-  </si>
-  <si>
-    <t>【需求】能效管理固件升级流程总线互斥</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/11</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/11</t>
-  </si>
-  <si>
-    <t>BMC开发者如何扩展UpdateService接口以实现并行固件升级和资源隔离告警</t>
-  </si>
-  <si>
-    <t>【需求】bmc.kepler.UpdateService接口新增ParallelUpdate方法、新增ConcurrentReachedLimit错误引擎</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/49</t>
-  </si>
-  <si>
-    <t>新增bmc.kepler.UpdateService.FirmwareRestor接口,接口新增InitiateRestoreAction方法</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/100</t>
-  </si>
-  <si>
-    <t>BMC开发者如何更新通用和异构硬件适配文档资源</t>
-  </si>
-  <si>
-    <t>【需求】社区更新通用硬件相关文档</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/19</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/13</t>
-  </si>
-  <si>
-    <t>【需求】社区更新设备管理规范相关文档</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/14</t>
-  </si>
-  <si>
-    <t>【需求】社区补齐异构硬件相关文档</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/17</t>
-  </si>
-  <si>
-    <t>【需求】社区更新能效管理相关文档</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/16</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/20</t>
-  </si>
-  <si>
-    <t>BMC开发者如何在lscmd中显示和调试接口执行组件自定义命令用于在线调试</t>
-  </si>
-  <si>
-    <t>支持组件自定义命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/104</t>
-  </si>
-  <si>
-    <t>【需求】支持能效管理子系统组件自定义命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/17</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/7</t>
-  </si>
-  <si>
-    <t>【需求】支持组件自定义命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/21</t>
-  </si>
-  <si>
-    <t>BMC开发者如何在BIOS启动阶段禁用KVM/VNC键盘输入防止密码修改</t>
-  </si>
-  <si>
-    <t>支持BIOS启动过程禁止KVM/VNC键盘输入</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/19</t>
-  </si>
-  <si>
-    <t>支持BIOS在启动阶段禁用键盘</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/20</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现CoolingRequirement中SensorName属性在资源树注册</t>
-  </si>
-  <si>
-    <t>bmc.kepler.Systems.CoolingRequirement下私有属性SensorName上树</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/34</t>
-  </si>
-  <si>
-    <t>&lt;thermal_mgmt&gt; bmc.kepler.Systems.CoolingRequirement下私有属性SensorName上树</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/101</t>
-  </si>
-  <si>
-    <t>BMC开发者如何提升社区UT IT测试覆盖率和工具贡献效率</t>
-  </si>
-  <si>
-    <t>openUBMC社区测试贡献规划</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/592/1</t>
-  </si>
-  <si>
-    <t>QA 运作规则讨论</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/209/1</t>
-  </si>
-  <si>
-    <t>openUBMC社区QA SIG运作</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/593/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何高效实现电链路统计数据采集接口</t>
-  </si>
-  <si>
-    <t>【需求】支持NPU参数面端口电链路数据采集</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/8</t>
-  </si>
-  <si>
-    <t>【需求】支持NPU参数面光模块数据采集接口增加电链路数据</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/7</t>
-  </si>
-  <si>
-    <t>BMC开发者如何提升多模组固件升级健壮性</t>
-  </si>
-  <si>
-    <t>【需求】支持多模组CSR固件升级健壮性提升</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/24</t>
-  </si>
-  <si>
-    <t>【需求】支持多模组VRD固件升级健壮性提升</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/26</t>
-  </si>
-  <si>
-    <t>【需求】支持多模组CPLD固件升级健壮性提升</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/25</t>
-  </si>
-  <si>
-    <t>【需求】支持多模组MCU固件升级健壮性提升</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/27</t>
-  </si>
-  <si>
-    <t>CPLD 升级 MultipleSuppliersMode MIXED Mode 功能背景了解</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/886/1</t>
-  </si>
-  <si>
-    <t>【需求】支持MCU子固件升级时版本号校验</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/23</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现PCIe Switch Flash升级组件的集成</t>
-  </si>
-  <si>
-    <t>PCIe Switch 芯片的Flash升级</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/721/1</t>
-  </si>
-  <si>
-    <t>【讨论】PCIe Switch场景下如何加载PCIe卡</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/722/1</t>
-  </si>
-  <si>
-    <t>BMC开发者需解决一键部署中的Conan组件拉取机制稳定性问题</t>
-  </si>
-  <si>
-    <t>bmc studio使用问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1012/1</t>
-  </si>
-  <si>
-    <t>BMC_STUDIO仓库一键部署，丢失响应，无成功，无失败反馈</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/962/1</t>
-  </si>
-  <si>
-    <t>使用bmc_studio遇到的问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/925/1</t>
-  </si>
-  <si>
-    <t>BMC Studio问题反馈</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/707/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现CSR文件损坏的检测与自修复</t>
-  </si>
-  <si>
-    <t>CSR文件损坏之后的恢复能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/4</t>
-  </si>
-  <si>
-    <t>CSR文件损坏恢复能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/9</t>
-  </si>
-  <si>
-    <t>BMC开发者需修正BIOS组件生效流程图的逻辑错误</t>
-  </si>
-  <si>
-    <t>bios组件生效流程流程图错误</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/17</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/19</t>
-  </si>
-  <si>
-    <t>BMC开发者如何高效配置3000W电源的PMbus告警属性</t>
-  </si>
-  <si>
-    <t>【需求】支持3000W电源管理，新增资源树私有属性CurrentModeLogic</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/account/issues/13</t>
-  </si>
-  <si>
-    <t>【需求】支持3000W电源管理，新增资源树bmc.kepler.Systems.PowerMgmt.OnePower.Status属性CMLStatus</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/44</t>
-  </si>
-  <si>
-    <t>【需求】支持电源继电器状态管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/45</t>
-  </si>
-  <si>
-    <t>BMC开发者如何通过返回值0判断文件安全操作成功状态</t>
-  </si>
-  <si>
-    <t>【需求】支持文件安全操作函数返回值判断</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/31</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/51</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/36</t>
-  </si>
-  <si>
-    <t>如何避免CRPS电源适配中SlotNumber配置错误</t>
-  </si>
-  <si>
-    <t>pmbus CRPS电源适配</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/240/1</t>
-  </si>
-  <si>
-    <t>电源适配指导</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1101/1</t>
   </si>
   <si>
     <t>BMC开发者在支持Localbus与Hisport总线仿真中需解决协议交互及性能兼容性等问题</t>
@@ -2971,7 +2971,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>374</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4">
@@ -2981,18 +2981,18 @@
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>375</v>
+        <v>324</v>
       </c>
       <c r="C5" t="s">
-        <v>376</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>377</v>
+        <v>326</v>
       </c>
       <c r="C6" t="s">
-        <v>378</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7">
@@ -3005,7 +3005,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>517</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9">
@@ -3015,18 +3015,18 @@
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>518</v>
+        <v>359</v>
       </c>
       <c r="C10" t="s">
-        <v>519</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>520</v>
+        <v>361</v>
       </c>
       <c r="C11" t="s">
-        <v>521</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12">
@@ -3039,7 +3039,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>527</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14">
@@ -3049,18 +3049,18 @@
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>528</v>
+        <v>444</v>
       </c>
       <c r="C15" t="s">
-        <v>529</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="s">
-        <v>530</v>
+        <v>446</v>
       </c>
       <c r="C16" t="s">
-        <v>531</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17">
@@ -3073,7 +3073,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>532</v>
+        <v>509</v>
       </c>
     </row>
     <row r="19">
@@ -3083,18 +3083,18 @@
     </row>
     <row r="20">
       <c r="B20" t="s">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="C20" t="s">
-        <v>534</v>
+        <v>511</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="s">
-        <v>533</v>
+        <v>512</v>
       </c>
       <c r="C21" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
     </row>
     <row r="22">
@@ -3107,7 +3107,7 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
     </row>
     <row r="24">
@@ -3117,94 +3117,94 @@
     </row>
     <row r="25">
       <c r="B25" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="C25" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="C26" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="B27" t="s">
+        <v>554</v>
+      </c>
+      <c r="C27" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" t="s">
-        <v>590</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s">
-        <v>591</v>
-      </c>
-      <c r="C30" t="s">
-        <v>592</v>
+      <c r="A30" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C31" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="B32" t="s">
+        <v>596</v>
+      </c>
+      <c r="C32" t="s">
+        <v>597</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" t="s">
-        <v>650</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s">
-        <v>651</v>
-      </c>
-      <c r="C35" t="s">
-        <v>652</v>
+      <c r="A35" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="s">
-        <v>651</v>
+        <v>599</v>
       </c>
       <c r="C36" t="s">
-        <v>653</v>
+        <v>600</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="s">
-        <v>651</v>
+        <v>599</v>
       </c>
       <c r="C37" t="s">
-        <v>654</v>
+        <v>601</v>
       </c>
     </row>
     <row r="38">
@@ -3237,7 +3237,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>268</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4">
@@ -3247,262 +3247,262 @@
     </row>
     <row r="5">
       <c r="B5" s="3" t="s">
-        <v>269</v>
+        <v>142</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>270</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C6" t="s">
-        <v>272</v>
+      <c r="B6" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>273</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
-        <v>274</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>273</v>
+        <v>148</v>
       </c>
       <c r="C8" t="s">
-        <v>275</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="s">
-        <v>276</v>
+        <v>150</v>
       </c>
       <c r="C9" t="s">
-        <v>277</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>278</v>
+        <v>142</v>
       </c>
       <c r="C10" t="s">
-        <v>279</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s">
-        <v>280</v>
-      </c>
-      <c r="C11" t="s">
-        <v>281</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
       <c r="B12" t="s">
-        <v>282</v>
-      </c>
-      <c r="C12" t="s">
-        <v>283</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s">
-        <v>282</v>
-      </c>
-      <c r="C13" t="s">
-        <v>284</v>
+      <c r="A13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s">
-        <v>282</v>
-      </c>
-      <c r="C14" t="s">
-        <v>285</v>
+      <c r="B14" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>282</v>
+        <v>421</v>
       </c>
       <c r="C15" t="s">
-        <v>286</v>
+        <v>422</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="s">
-        <v>287</v>
+        <v>421</v>
       </c>
       <c r="C16" t="s">
-        <v>288</v>
+        <v>423</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="s">
-        <v>287</v>
+        <v>424</v>
       </c>
       <c r="C17" t="s">
-        <v>289</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s">
-        <v>287</v>
-      </c>
-      <c r="C18" t="s">
-        <v>290</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
       <c r="B19" t="s">
-        <v>291</v>
-      </c>
-      <c r="C19" t="s">
-        <v>292</v>
+        <v>630</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s">
-        <v>287</v>
-      </c>
-      <c r="C20" t="s">
-        <v>293</v>
+      <c r="A20" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s">
-        <v>294</v>
-      </c>
-      <c r="C21" t="s">
-        <v>295</v>
+      <c r="B21" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="s">
-        <v>296</v>
+        <v>633</v>
       </c>
       <c r="C22" t="s">
-        <v>297</v>
+        <v>634</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="B23" t="s">
+        <v>635</v>
+      </c>
+      <c r="C23" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
-        <v>3</v>
-      </c>
       <c r="B24" t="s">
-        <v>407</v>
+        <v>635</v>
+      </c>
+      <c r="C24" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
-        <v>5</v>
+      <c r="B25" t="s">
+        <v>638</v>
+      </c>
+      <c r="C25" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>409</v>
+      <c r="B26" t="s">
+        <v>640</v>
+      </c>
+      <c r="C26" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>411</v>
+      <c r="B27" t="s">
+        <v>642</v>
+      </c>
+      <c r="C27" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="s">
-        <v>412</v>
+        <v>644</v>
       </c>
       <c r="C28" t="s">
-        <v>413</v>
+        <v>645</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="s">
-        <v>414</v>
+        <v>644</v>
       </c>
       <c r="C29" t="s">
-        <v>415</v>
+        <v>646</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="s">
-        <v>416</v>
+        <v>644</v>
       </c>
       <c r="C30" t="s">
-        <v>417</v>
+        <v>647</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="s">
-        <v>408</v>
+        <v>644</v>
       </c>
       <c r="C31" t="s">
-        <v>418</v>
+        <v>648</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="B32" t="s">
+        <v>649</v>
+      </c>
+      <c r="C32" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>3</v>
-      </c>
       <c r="B33" t="s">
-        <v>577</v>
+        <v>649</v>
+      </c>
+      <c r="C33" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s">
-        <v>5</v>
+      <c r="B34" t="s">
+        <v>649</v>
+      </c>
+      <c r="C34" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="35">
-      <c r="B35" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>579</v>
+      <c r="B35" t="s">
+        <v>653</v>
+      </c>
+      <c r="C35" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="s">
-        <v>580</v>
+        <v>649</v>
       </c>
       <c r="C36" t="s">
-        <v>581</v>
+        <v>655</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="s">
-        <v>580</v>
+        <v>656</v>
       </c>
       <c r="C37" t="s">
-        <v>582</v>
+        <v>657</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="s">
-        <v>583</v>
+        <v>658</v>
       </c>
       <c r="C38" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
     <row r="39">
@@ -3653,137 +3653,137 @@
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" t="s">
-        <v>128</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
       <c r="B9" t="s">
         <v>127</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" t="s">
+    <row r="12">
+      <c r="B12" t="s">
         <v>130</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="13">
+      <c r="B13" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>5</v>
+      <c r="C13" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" t="s">
+    <row r="17">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
         <v>137</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="19">
+      <c r="B19" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>5</v>
+      <c r="C19" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s">
-        <v>140</v>
-      </c>
-      <c r="C20" t="s">
-        <v>141</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
     </row>
     <row r="21">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
       <c r="B21" t="s">
-        <v>142</v>
-      </c>
-      <c r="C21" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
       <c r="B23" t="s">
-        <v>144</v>
+        <v>154</v>
+      </c>
+      <c r="C23" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
-        <v>5</v>
+      <c r="B24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="C25" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="C26" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27">
@@ -3796,7 +3796,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29">
@@ -3806,18 +3806,18 @@
     </row>
     <row r="30">
       <c r="B30" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C30" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C31" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32">
@@ -3830,7 +3830,7 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34">
@@ -3840,1114 +3840,1120 @@
     </row>
     <row r="35">
       <c r="B35" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="C35" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="C36" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s">
-        <v>159</v>
-      </c>
-      <c r="C37" t="s">
-        <v>160</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
     </row>
     <row r="38">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
       <c r="B38" t="s">
-        <v>161</v>
-      </c>
-      <c r="C38" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="s">
-        <v>163</v>
-      </c>
-      <c r="C39" t="s">
-        <v>164</v>
+      <c r="A39" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C40" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="B41" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" t="s">
-        <v>3</v>
-      </c>
       <c r="B42" t="s">
-        <v>167</v>
+        <v>176</v>
+      </c>
+      <c r="C42" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s">
-        <v>5</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
     </row>
     <row r="44">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
       <c r="B44" t="s">
-        <v>168</v>
-      </c>
-      <c r="C44" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s">
-        <v>168</v>
-      </c>
-      <c r="C45" t="s">
-        <v>170</v>
+      <c r="A45" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="B46" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" t="s">
-        <v>3</v>
-      </c>
       <c r="B47" t="s">
-        <v>251</v>
+        <v>181</v>
+      </c>
+      <c r="C47" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s">
-        <v>5</v>
-      </c>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
     </row>
     <row r="49">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
       <c r="B49" t="s">
-        <v>252</v>
-      </c>
-      <c r="C49" t="s">
-        <v>253</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s">
-        <v>254</v>
-      </c>
-      <c r="C50" t="s">
-        <v>255</v>
+      <c r="A50" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+      <c r="B51" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" t="s">
-        <v>3</v>
-      </c>
       <c r="B52" t="s">
-        <v>256</v>
+        <v>186</v>
+      </c>
+      <c r="C52" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s">
-        <v>5</v>
-      </c>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
     </row>
     <row r="54">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
       <c r="B54" t="s">
-        <v>257</v>
-      </c>
-      <c r="C54" t="s">
-        <v>258</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s">
-        <v>259</v>
-      </c>
-      <c r="C55" t="s">
-        <v>260</v>
+      <c r="A55" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
+      <c r="B56" t="s">
+        <v>189</v>
+      </c>
+      <c r="C56" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" t="s">
-        <v>3</v>
-      </c>
       <c r="B57" t="s">
-        <v>261</v>
+        <v>191</v>
+      </c>
+      <c r="C57" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s">
-        <v>5</v>
-      </c>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
     </row>
     <row r="59">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
       <c r="B59" t="s">
-        <v>262</v>
-      </c>
-      <c r="C59" t="s">
-        <v>263</v>
+        <v>193</v>
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s">
-        <v>264</v>
-      </c>
-      <c r="C60" t="s">
-        <v>265</v>
+      <c r="A60" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="s">
-        <v>266</v>
+        <v>194</v>
       </c>
       <c r="C61" t="s">
-        <v>267</v>
+        <v>195</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
+      <c r="B62" t="s">
+        <v>194</v>
+      </c>
+      <c r="C62" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" t="s">
-        <v>3</v>
-      </c>
-      <c r="B63" t="s">
-        <v>298</v>
-      </c>
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B64" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s">
-        <v>299</v>
-      </c>
-      <c r="C65" t="s">
-        <v>300</v>
+      <c r="A65" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" t="s">
-        <v>301</v>
+        <v>198</v>
       </c>
       <c r="C66" t="s">
-        <v>302</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="s">
-        <v>303</v>
+        <v>200</v>
       </c>
       <c r="C67" t="s">
-        <v>304</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s">
-        <v>305</v>
-      </c>
-      <c r="C68" t="s">
-        <v>306</v>
-      </c>
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
     </row>
     <row r="69">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>3</v>
-      </c>
-      <c r="B70" t="s">
-        <v>307</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s">
-        <v>5</v>
+      <c r="B71" t="s">
+        <v>203</v>
+      </c>
+      <c r="C71" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="s">
-        <v>308</v>
+        <v>205</v>
       </c>
       <c r="C72" t="s">
-        <v>309</v>
+        <v>206</v>
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s">
-        <v>308</v>
-      </c>
-      <c r="C73" t="s">
-        <v>310</v>
-      </c>
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
     </row>
     <row r="74">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
+      <c r="A74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>3</v>
-      </c>
-      <c r="B75" t="s">
-        <v>311</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s">
-        <v>5</v>
+      <c r="B76" t="s">
+        <v>208</v>
+      </c>
+      <c r="C76" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="s">
-        <v>312</v>
+        <v>210</v>
       </c>
       <c r="C77" t="s">
-        <v>313</v>
+        <v>211</v>
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s">
-        <v>312</v>
-      </c>
-      <c r="C78" t="s">
-        <v>314</v>
-      </c>
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
     </row>
     <row r="79">
+      <c r="A79" t="s">
+        <v>3</v>
+      </c>
       <c r="B79" t="s">
-        <v>315</v>
-      </c>
-      <c r="C79" t="s">
-        <v>316</v>
+        <v>212</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
+      <c r="A80" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" t="s">
-        <v>3</v>
-      </c>
       <c r="B81" t="s">
-        <v>317</v>
+        <v>213</v>
+      </c>
+      <c r="C81" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s">
-        <v>5</v>
+      <c r="B82" t="s">
+        <v>215</v>
+      </c>
+      <c r="C82" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s">
-        <v>318</v>
-      </c>
-      <c r="C83" t="s">
-        <v>319</v>
-      </c>
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
     </row>
     <row r="84">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
       <c r="B84" t="s">
-        <v>318</v>
-      </c>
-      <c r="C84" t="s">
-        <v>320</v>
+        <v>217</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" t="s">
-        <v>3</v>
-      </c>
       <c r="B86" t="s">
-        <v>321</v>
+        <v>218</v>
+      </c>
+      <c r="C86" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s">
-        <v>5</v>
+      <c r="B87" t="s">
+        <v>218</v>
+      </c>
+      <c r="C87" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s">
-        <v>322</v>
-      </c>
-      <c r="C88" t="s">
-        <v>323</v>
-      </c>
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
     </row>
     <row r="89">
+      <c r="A89" t="s">
+        <v>3</v>
+      </c>
       <c r="B89" t="s">
-        <v>324</v>
-      </c>
-      <c r="C89" t="s">
-        <v>325</v>
+        <v>221</v>
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s">
-        <v>326</v>
-      </c>
-      <c r="C90" t="s">
-        <v>327</v>
+      <c r="A90" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="91">
       <c r="B91" t="s">
-        <v>328</v>
+        <v>222</v>
       </c>
       <c r="C91" t="s">
-        <v>329</v>
+        <v>223</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
+      <c r="B92" t="s">
+        <v>222</v>
+      </c>
+      <c r="C92" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" t="s">
-        <v>3</v>
-      </c>
-      <c r="B93" t="s">
-        <v>330</v>
-      </c>
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B94" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s">
-        <v>331</v>
-      </c>
-      <c r="C95" t="s">
-        <v>332</v>
+      <c r="A95" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="96">
       <c r="B96" t="s">
+        <v>306</v>
+      </c>
+      <c r="C96" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" t="s">
+        <v>308</v>
+      </c>
+      <c r="C97" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="s">
+        <v>310</v>
+      </c>
+      <c r="C98" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="s">
+        <v>312</v>
+      </c>
+      <c r="C99" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" t="s">
+        <v>315</v>
+      </c>
+      <c r="C103" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" t="s">
+        <v>317</v>
+      </c>
+      <c r="C104" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" t="s">
+        <v>320</v>
+      </c>
+      <c r="C108" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" t="s">
+        <v>320</v>
+      </c>
+      <c r="C109" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" t="s">
+        <v>329</v>
+      </c>
+      <c r="C113" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" t="s">
+        <v>331</v>
+      </c>
+      <c r="C114" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" t="s">
+        <v>331</v>
+      </c>
+      <c r="C115" t="s">
         <v>333</v>
       </c>
-      <c r="C96" t="s">
+    </row>
+    <row r="116">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>3</v>
+      </c>
+      <c r="B117" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>3</v>
-      </c>
-      <c r="B98" t="s">
+    <row r="118">
+      <c r="A118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="B100" t="s">
+      <c r="C119" t="s">
         <v>336</v>
       </c>
-      <c r="C100" t="s">
+    </row>
+    <row r="120">
+      <c r="B120" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="101">
-      <c r="B101" t="s">
-        <v>336</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="C120" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>3</v>
-      </c>
-      <c r="B103" t="s">
+    <row r="121">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>3</v>
+      </c>
+      <c r="B122" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="B105" t="s">
+    <row r="123">
+      <c r="A123" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" t="s">
         <v>340</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C124" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="106">
-      <c r="B106" t="s">
+    <row r="125">
+      <c r="B125" t="s">
         <v>342</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C125" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>3</v>
-      </c>
-      <c r="B108" t="s">
+    <row r="126">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>3</v>
+      </c>
+      <c r="B127" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="B110" t="s">
+    <row r="128">
+      <c r="A128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" t="s">
         <v>345</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C129" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="111">
-      <c r="B111" t="s">
+    <row r="130">
+      <c r="B130" t="s">
         <v>347</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C130" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="112">
-      <c r="B112" t="s">
+    <row r="131">
+      <c r="B131" t="s">
         <v>347</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C131" t="s">
         <v>349</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>3</v>
-      </c>
-      <c r="B114" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="B116" t="s">
-        <v>351</v>
-      </c>
-      <c r="C116" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="B117" t="s">
-        <v>353</v>
-      </c>
-      <c r="C117" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="B118" t="s">
-        <v>355</v>
-      </c>
-      <c r="C118" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-    </row>
-    <row r="120">
-      <c r="A120" t="s">
-        <v>3</v>
-      </c>
-      <c r="B120" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="B122" t="s">
-        <v>358</v>
-      </c>
-      <c r="C122" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="B123" t="s">
-        <v>360</v>
-      </c>
-      <c r="C123" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-    </row>
-    <row r="125">
-      <c r="A125" t="s">
-        <v>3</v>
-      </c>
-      <c r="B125" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="B127" t="s">
-        <v>363</v>
-      </c>
-      <c r="C127" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="B128" t="s">
-        <v>365</v>
-      </c>
-      <c r="C128" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-    </row>
-    <row r="130">
-      <c r="A130" t="s">
-        <v>3</v>
-      </c>
-      <c r="B130" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="132">
       <c r="B132" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="C132" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s">
-        <v>370</v>
-      </c>
-      <c r="C133" t="s">
-        <v>371</v>
-      </c>
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
     </row>
     <row r="134">
+      <c r="A134" t="s">
+        <v>3</v>
+      </c>
       <c r="B134" t="s">
-        <v>372</v>
-      </c>
-      <c r="C134" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
+      <c r="A135" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="136">
-      <c r="A136" t="s">
-        <v>3</v>
-      </c>
       <c r="B136" t="s">
-        <v>379</v>
+        <v>353</v>
+      </c>
+      <c r="C136" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s">
-        <v>5</v>
+      <c r="B137" t="s">
+        <v>353</v>
+      </c>
+      <c r="C137" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="138">
       <c r="B138" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="C138" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s">
-        <v>382</v>
-      </c>
-      <c r="C139" t="s">
-        <v>383</v>
-      </c>
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
     </row>
     <row r="140">
+      <c r="A140" t="s">
+        <v>3</v>
+      </c>
       <c r="B140" t="s">
-        <v>382</v>
-      </c>
-      <c r="C140" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s">
-        <v>385</v>
-      </c>
-      <c r="C141" t="s">
-        <v>386</v>
+      <c r="A141" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
+      <c r="B142" t="s">
+        <v>364</v>
+      </c>
+      <c r="C142" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="143">
-      <c r="A143" t="s">
-        <v>3</v>
-      </c>
       <c r="B143" t="s">
-        <v>387</v>
+        <v>364</v>
+      </c>
+      <c r="C143" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s">
-        <v>5</v>
-      </c>
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
     </row>
     <row r="145">
+      <c r="A145" t="s">
+        <v>3</v>
+      </c>
       <c r="B145" t="s">
-        <v>388</v>
-      </c>
-      <c r="C145" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s">
-        <v>390</v>
-      </c>
-      <c r="C146" t="s">
-        <v>391</v>
+      <c r="A146" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="147">
       <c r="B147" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="C147" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
     </row>
     <row r="148">
       <c r="B148" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="C148" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="149">
       <c r="B149" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="C149" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
+      <c r="B150" t="s">
+        <v>374</v>
+      </c>
+      <c r="C150" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="151">
-      <c r="A151" t="s">
-        <v>3</v>
-      </c>
       <c r="B151" t="s">
-        <v>398</v>
+        <v>376</v>
+      </c>
+      <c r="C151" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s">
-        <v>5</v>
-      </c>
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
     </row>
     <row r="153">
+      <c r="A153" t="s">
+        <v>3</v>
+      </c>
       <c r="B153" t="s">
-        <v>399</v>
-      </c>
-      <c r="C153" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s">
-        <v>399</v>
-      </c>
-      <c r="C154" t="s">
-        <v>401</v>
+      <c r="A154" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
+      <c r="B155" t="s">
+        <v>379</v>
+      </c>
+      <c r="C155" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="156">
-      <c r="A156" t="s">
-        <v>3</v>
-      </c>
       <c r="B156" t="s">
-        <v>402</v>
+        <v>381</v>
+      </c>
+      <c r="C156" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s">
-        <v>5</v>
+      <c r="B157" t="s">
+        <v>383</v>
+      </c>
+      <c r="C157" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s">
-        <v>403</v>
-      </c>
-      <c r="C158" t="s">
-        <v>404</v>
-      </c>
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
     </row>
     <row r="159">
+      <c r="A159" t="s">
+        <v>3</v>
+      </c>
       <c r="B159" t="s">
-        <v>405</v>
-      </c>
-      <c r="C159" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
+      <c r="A160" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="161">
-      <c r="A161" t="s">
-        <v>3</v>
-      </c>
       <c r="B161" t="s">
-        <v>419</v>
+        <v>386</v>
+      </c>
+      <c r="C161" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s">
-        <v>5</v>
+      <c r="B162" t="s">
+        <v>386</v>
+      </c>
+      <c r="C162" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="163">
       <c r="B163" t="s">
-        <v>420</v>
+        <v>386</v>
       </c>
       <c r="C163" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s">
-        <v>420</v>
-      </c>
-      <c r="C164" t="s">
-        <v>422</v>
-      </c>
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
     </row>
     <row r="165">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
+      <c r="A165" t="s">
+        <v>3</v>
+      </c>
+      <c r="B165" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>3</v>
-      </c>
-      <c r="B166" t="s">
-        <v>423</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s">
-        <v>5</v>
+      <c r="B167" t="s">
+        <v>391</v>
+      </c>
+      <c r="C167" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="168">
       <c r="B168" t="s">
-        <v>424</v>
+        <v>393</v>
       </c>
       <c r="C168" t="s">
-        <v>425</v>
+        <v>394</v>
       </c>
     </row>
     <row r="169">
       <c r="B169" t="s">
-        <v>426</v>
+        <v>395</v>
       </c>
       <c r="C169" t="s">
-        <v>427</v>
+        <v>396</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
+      <c r="B170" t="s">
+        <v>397</v>
+      </c>
+      <c r="C170" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="171">
-      <c r="A171" t="s">
-        <v>3</v>
-      </c>
       <c r="B171" t="s">
-        <v>428</v>
+        <v>399</v>
+      </c>
+      <c r="C171" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s">
-        <v>5</v>
+      <c r="B172" t="s">
+        <v>401</v>
+      </c>
+      <c r="C172" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="173">
       <c r="B173" t="s">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="C173" t="s">
-        <v>430</v>
+        <v>404</v>
       </c>
     </row>
     <row r="174">
       <c r="B174" t="s">
+        <v>405</v>
+      </c>
+      <c r="C174" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="B175" t="s">
+        <v>407</v>
+      </c>
+      <c r="C175" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="B176" t="s">
+        <v>409</v>
+      </c>
+      <c r="C176" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="B177" t="s">
+        <v>411</v>
+      </c>
+      <c r="C177" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>3</v>
+      </c>
+      <c r="B179" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="B181" t="s">
+        <v>414</v>
+      </c>
+      <c r="C181" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="B182" t="s">
+        <v>416</v>
+      </c>
+      <c r="C182" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>3</v>
+      </c>
+      <c r="B184" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="B186" t="s">
+        <v>427</v>
+      </c>
+      <c r="C186" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="B187" t="s">
         <v>429</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C187" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>3</v>
+      </c>
+      <c r="B189" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
-    </row>
-    <row r="176">
-      <c r="A176" t="s">
-        <v>3</v>
-      </c>
-      <c r="B176" t="s">
+    <row r="190">
+      <c r="A190" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="B191" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="B178" t="s">
+      <c r="C191" t="s">
         <v>433</v>
       </c>
-      <c r="C178" t="s">
+    </row>
+    <row r="192">
+      <c r="B192" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="179">
-      <c r="B179" t="s">
+      <c r="C192" t="s">
         <v>435</v>
-      </c>
-      <c r="C179" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
-    </row>
-    <row r="181">
-      <c r="A181" t="s">
-        <v>3</v>
-      </c>
-      <c r="B181" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="B183" t="s">
-        <v>438</v>
-      </c>
-      <c r="C183" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="B184" t="s">
-        <v>440</v>
-      </c>
-      <c r="C184" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
-    </row>
-    <row r="186">
-      <c r="A186" t="s">
-        <v>3</v>
-      </c>
-      <c r="B186" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="B188" t="s">
-        <v>443</v>
-      </c>
-      <c r="C188" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="B189" t="s">
-        <v>445</v>
-      </c>
-      <c r="C189" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
-    </row>
-    <row r="191">
-      <c r="A191" t="s">
-        <v>3</v>
-      </c>
-      <c r="B191" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="193">
       <c r="B193" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="C193" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
     </row>
     <row r="194">
       <c r="B194" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="C194" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
     </row>
     <row r="195">
@@ -4960,7 +4966,7 @@
         <v>3</v>
       </c>
       <c r="B196" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
     </row>
     <row r="197">
@@ -4970,208 +4976,202 @@
     </row>
     <row r="198">
       <c r="B198" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="C198" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
     </row>
     <row r="199">
       <c r="B199" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="C199" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>3</v>
+      </c>
+      <c r="B201" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="B203" t="s">
+        <v>449</v>
+      </c>
+      <c r="C203" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="B204" t="s">
+        <v>451</v>
+      </c>
+      <c r="C204" t="s">
         <v>452</v>
-      </c>
-      <c r="C200" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="B201" t="s">
-        <v>457</v>
-      </c>
-      <c r="C201" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
-      <c r="C202" s="1"/>
-    </row>
-    <row r="203">
-      <c r="A203" t="s">
-        <v>3</v>
-      </c>
-      <c r="B203" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="205">
       <c r="B205" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C205" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s">
-        <v>462</v>
-      </c>
-      <c r="C206" t="s">
-        <v>463</v>
-      </c>
+      <c r="A206" s="1"/>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
     </row>
     <row r="207">
-      <c r="A207" s="1"/>
-      <c r="B207" s="1"/>
-      <c r="C207" s="1"/>
+      <c r="A207" t="s">
+        <v>3</v>
+      </c>
+      <c r="B207" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>3</v>
-      </c>
-      <c r="B208" t="s">
-        <v>464</v>
+        <v>5</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s">
-        <v>5</v>
+      <c r="B209" t="s">
+        <v>456</v>
+      </c>
+      <c r="C209" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="210">
       <c r="B210" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C210" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s">
-        <v>467</v>
-      </c>
-      <c r="C211" t="s">
-        <v>468</v>
-      </c>
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
     </row>
     <row r="212">
-      <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
-      <c r="C212" s="1"/>
+      <c r="A212" t="s">
+        <v>3</v>
+      </c>
+      <c r="B212" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>3</v>
-      </c>
-      <c r="B213" t="s">
-        <v>469</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s">
-        <v>5</v>
+      <c r="B214" t="s">
+        <v>461</v>
+      </c>
+      <c r="C214" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="215">
       <c r="B215" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="C215" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="216">
       <c r="B216" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C216" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="217">
       <c r="B217" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="C217" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="218">
       <c r="B218" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="C218" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="219">
       <c r="B219" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="C219" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s">
-        <v>480</v>
-      </c>
-      <c r="C220" t="s">
-        <v>481</v>
-      </c>
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
     </row>
     <row r="221">
+      <c r="A221" t="s">
+        <v>3</v>
+      </c>
       <c r="B221" t="s">
-        <v>482</v>
-      </c>
-      <c r="C221" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
     </row>
     <row r="222">
-      <c r="B222" t="s">
-        <v>484</v>
-      </c>
-      <c r="C222" t="s">
-        <v>485</v>
+      <c r="A222" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="223">
       <c r="B223" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="C223" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
     </row>
     <row r="224">
       <c r="B224" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="C224" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
     </row>
     <row r="225">
       <c r="B225" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="C225" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="226">
@@ -5184,7 +5184,7 @@
         <v>3</v>
       </c>
       <c r="B227" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
     </row>
     <row r="228">
@@ -5194,68 +5194,68 @@
     </row>
     <row r="229">
       <c r="B229" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="C229" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
     </row>
     <row r="230">
       <c r="B230" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="C230" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="1"/>
-      <c r="B231" s="1"/>
-      <c r="C231" s="1"/>
+      <c r="B231" t="s">
+        <v>485</v>
+      </c>
+      <c r="C231" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="232">
-      <c r="A232" t="s">
-        <v>3</v>
-      </c>
       <c r="B232" t="s">
-        <v>497</v>
+        <v>487</v>
+      </c>
+      <c r="C232" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s">
-        <v>5</v>
-      </c>
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
     </row>
     <row r="234">
+      <c r="A234" t="s">
+        <v>3</v>
+      </c>
       <c r="B234" t="s">
-        <v>498</v>
-      </c>
-      <c r="C234" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="s">
-        <v>500</v>
-      </c>
-      <c r="C235" t="s">
-        <v>501</v>
+      <c r="A235" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="236">
       <c r="B236" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="C236" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
     </row>
     <row r="237">
       <c r="B237" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="C237" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
     </row>
     <row r="238">
@@ -5268,7 +5268,7 @@
         <v>3</v>
       </c>
       <c r="B239" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
     </row>
     <row r="240">
@@ -5278,18 +5278,18 @@
     </row>
     <row r="241">
       <c r="B241" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="C241" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
     </row>
     <row r="242">
       <c r="B242" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="C242" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
     </row>
     <row r="243">
@@ -5302,7 +5302,7 @@
         <v>3</v>
       </c>
       <c r="B244" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
     </row>
     <row r="245">
@@ -5312,404 +5312,404 @@
     </row>
     <row r="246">
       <c r="B246" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="C246" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
     </row>
     <row r="247">
       <c r="B247" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="C247" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="s">
-        <v>515</v>
-      </c>
-      <c r="C248" t="s">
-        <v>516</v>
-      </c>
+      <c r="A248" s="1"/>
+      <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
     </row>
     <row r="249">
-      <c r="A249" s="1"/>
-      <c r="B249" s="1"/>
-      <c r="C249" s="1"/>
+      <c r="A249" t="s">
+        <v>3</v>
+      </c>
+      <c r="B249" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>3</v>
-      </c>
-      <c r="B250" t="s">
-        <v>522</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="s">
-        <v>5</v>
+      <c r="B251" t="s">
+        <v>505</v>
+      </c>
+      <c r="C251" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="252">
       <c r="B252" t="s">
+        <v>507</v>
+      </c>
+      <c r="C252" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1"/>
+      <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>3</v>
+      </c>
+      <c r="B254" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="B256" t="s">
+        <v>515</v>
+      </c>
+      <c r="C256" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="B257" t="s">
+        <v>517</v>
+      </c>
+      <c r="C257" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1"/>
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>3</v>
+      </c>
+      <c r="B259" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="B261" t="s">
+        <v>520</v>
+      </c>
+      <c r="C261" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="B262" t="s">
+        <v>520</v>
+      </c>
+      <c r="C262" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="B263" t="s">
         <v>523</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C263" t="s">
         <v>524</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="B253" t="s">
-        <v>523</v>
-      </c>
-      <c r="C253" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="B254" t="s">
-        <v>523</v>
-      </c>
-      <c r="C254" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="1"/>
-      <c r="B255" s="1"/>
-      <c r="C255" s="1"/>
-    </row>
-    <row r="256">
-      <c r="A256" t="s">
-        <v>3</v>
-      </c>
-      <c r="B256" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="B258" t="s">
-        <v>537</v>
-      </c>
-      <c r="C258" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="B259" t="s">
-        <v>539</v>
-      </c>
-      <c r="C259" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="B260" t="s">
-        <v>541</v>
-      </c>
-      <c r="C260" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1"/>
-      <c r="B261" s="1"/>
-      <c r="C261" s="1"/>
-    </row>
-    <row r="262">
-      <c r="A262" t="s">
-        <v>3</v>
-      </c>
-      <c r="B262" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="264">
       <c r="B264" t="s">
-        <v>544</v>
+        <v>525</v>
       </c>
       <c r="C264" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
     </row>
     <row r="265">
       <c r="B265" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="C265" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="1"/>
-      <c r="B266" s="1"/>
-      <c r="C266" s="1"/>
+      <c r="B266" t="s">
+        <v>523</v>
+      </c>
+      <c r="C266" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="267">
-      <c r="A267" t="s">
-        <v>3</v>
-      </c>
-      <c r="B267" t="s">
-        <v>548</v>
-      </c>
+      <c r="A267" s="1"/>
+      <c r="B267" s="1"/>
+      <c r="C267" s="1"/>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B268" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="269">
-      <c r="B269" t="s">
-        <v>549</v>
-      </c>
-      <c r="C269" t="s">
-        <v>550</v>
+      <c r="A269" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="270">
       <c r="B270" t="s">
-        <v>551</v>
+        <v>531</v>
       </c>
       <c r="C270" t="s">
-        <v>552</v>
+        <v>532</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="1"/>
-      <c r="B271" s="1"/>
-      <c r="C271" s="1"/>
+      <c r="B271" t="s">
+        <v>533</v>
+      </c>
+      <c r="C271" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="272">
-      <c r="A272" t="s">
-        <v>3</v>
-      </c>
       <c r="B272" t="s">
-        <v>553</v>
+        <v>535</v>
+      </c>
+      <c r="C272" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="s">
-        <v>5</v>
-      </c>
+      <c r="A273" s="1"/>
+      <c r="B273" s="1"/>
+      <c r="C273" s="1"/>
     </row>
     <row r="274">
+      <c r="A274" t="s">
+        <v>3</v>
+      </c>
       <c r="B274" t="s">
-        <v>554</v>
-      </c>
-      <c r="C274" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
     </row>
     <row r="275">
-      <c r="B275" t="s">
-        <v>556</v>
-      </c>
-      <c r="C275" t="s">
-        <v>557</v>
+      <c r="A275" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="276">
       <c r="B276" t="s">
-        <v>558</v>
+        <v>538</v>
       </c>
       <c r="C276" t="s">
-        <v>559</v>
+        <v>539</v>
       </c>
     </row>
     <row r="277">
       <c r="B277" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="C277" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="1"/>
-      <c r="B278" s="1"/>
-      <c r="C278" s="1"/>
+      <c r="B278" t="s">
+        <v>542</v>
+      </c>
+      <c r="C278" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="279">
-      <c r="A279" t="s">
-        <v>3</v>
-      </c>
-      <c r="B279" t="s">
-        <v>566</v>
-      </c>
+      <c r="A279" s="1"/>
+      <c r="B279" s="1"/>
+      <c r="C279" s="1"/>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B280" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="281">
-      <c r="B281" t="s">
-        <v>567</v>
-      </c>
-      <c r="C281" t="s">
-        <v>568</v>
+      <c r="A281" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="282">
       <c r="B282" t="s">
-        <v>567</v>
+        <v>545</v>
       </c>
       <c r="C282" t="s">
-        <v>569</v>
+        <v>546</v>
       </c>
     </row>
     <row r="283">
       <c r="B283" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="C283" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
     </row>
     <row r="284">
-      <c r="B284" t="s">
-        <v>572</v>
-      </c>
-      <c r="C284" t="s">
-        <v>573</v>
-      </c>
+      <c r="A284" s="1"/>
+      <c r="B284" s="1"/>
+      <c r="C284" s="1"/>
     </row>
     <row r="285">
+      <c r="A285" t="s">
+        <v>3</v>
+      </c>
       <c r="B285" t="s">
-        <v>574</v>
-      </c>
-      <c r="C285" t="s">
-        <v>575</v>
+        <v>548</v>
       </c>
     </row>
     <row r="286">
-      <c r="B286" t="s">
-        <v>570</v>
-      </c>
-      <c r="C286" t="s">
-        <v>576</v>
+      <c r="A286" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="1"/>
-      <c r="B287" s="1"/>
-      <c r="C287" s="1"/>
+      <c r="B287" t="s">
+        <v>549</v>
+      </c>
+      <c r="C287" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="288">
-      <c r="A288" t="s">
-        <v>3</v>
-      </c>
       <c r="B288" t="s">
-        <v>585</v>
+        <v>551</v>
+      </c>
+      <c r="C288" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="s">
-        <v>5</v>
-      </c>
+      <c r="A289" s="1"/>
+      <c r="B289" s="1"/>
+      <c r="C289" s="1"/>
     </row>
     <row r="290">
+      <c r="A290" t="s">
+        <v>3</v>
+      </c>
       <c r="B290" t="s">
-        <v>586</v>
-      </c>
-      <c r="C290" t="s">
-        <v>587</v>
+        <v>558</v>
       </c>
     </row>
     <row r="291">
-      <c r="B291" t="s">
-        <v>588</v>
-      </c>
-      <c r="C291" t="s">
-        <v>589</v>
+      <c r="A291" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="1"/>
-      <c r="B292" s="1"/>
-      <c r="C292" s="1"/>
+      <c r="B292" t="s">
+        <v>559</v>
+      </c>
+      <c r="C292" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="293">
-      <c r="A293" t="s">
-        <v>3</v>
-      </c>
       <c r="B293" t="s">
-        <v>595</v>
+        <v>561</v>
+      </c>
+      <c r="C293" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="s">
-        <v>5</v>
-      </c>
+      <c r="A294" s="1"/>
+      <c r="B294" s="1"/>
+      <c r="C294" s="1"/>
     </row>
     <row r="295">
+      <c r="A295" t="s">
+        <v>3</v>
+      </c>
       <c r="B295" t="s">
-        <v>596</v>
-      </c>
-      <c r="C295" t="s">
-        <v>597</v>
+        <v>563</v>
       </c>
     </row>
     <row r="296">
-      <c r="B296" t="s">
-        <v>598</v>
-      </c>
-      <c r="C296" t="s">
-        <v>599</v>
+      <c r="A296" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="297">
       <c r="B297" t="s">
-        <v>600</v>
+        <v>564</v>
       </c>
       <c r="C297" t="s">
-        <v>601</v>
+        <v>565</v>
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="1"/>
-      <c r="B298" s="1"/>
-      <c r="C298" s="1"/>
+      <c r="B298" t="s">
+        <v>566</v>
+      </c>
+      <c r="C298" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="299">
-      <c r="A299" t="s">
-        <v>3</v>
-      </c>
       <c r="B299" t="s">
-        <v>602</v>
+        <v>568</v>
+      </c>
+      <c r="C299" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="s">
-        <v>5</v>
+      <c r="B300" t="s">
+        <v>570</v>
+      </c>
+      <c r="C300" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="301">
       <c r="B301" t="s">
-        <v>603</v>
+        <v>572</v>
       </c>
       <c r="C301" t="s">
-        <v>604</v>
+        <v>573</v>
       </c>
     </row>
     <row r="302">
       <c r="B302" t="s">
-        <v>605</v>
+        <v>574</v>
       </c>
       <c r="C302" t="s">
-        <v>606</v>
+        <v>575</v>
       </c>
     </row>
     <row r="303">
@@ -5722,7 +5722,7 @@
         <v>3</v>
       </c>
       <c r="B304" t="s">
-        <v>607</v>
+        <v>576</v>
       </c>
     </row>
     <row r="305">
@@ -5732,168 +5732,168 @@
     </row>
     <row r="306">
       <c r="B306" t="s">
-        <v>608</v>
+        <v>577</v>
       </c>
       <c r="C306" t="s">
-        <v>609</v>
+        <v>578</v>
       </c>
     </row>
     <row r="307">
       <c r="B307" t="s">
-        <v>610</v>
+        <v>579</v>
       </c>
       <c r="C307" t="s">
-        <v>611</v>
+        <v>580</v>
       </c>
     </row>
     <row r="308">
       <c r="B308" t="s">
-        <v>612</v>
+        <v>581</v>
       </c>
       <c r="C308" t="s">
-        <v>613</v>
+        <v>582</v>
       </c>
     </row>
     <row r="309">
       <c r="B309" t="s">
-        <v>614</v>
+        <v>581</v>
       </c>
       <c r="C309" t="s">
-        <v>615</v>
+        <v>583</v>
       </c>
     </row>
     <row r="310">
-      <c r="B310" t="s">
-        <v>616</v>
-      </c>
-      <c r="C310" t="s">
-        <v>617</v>
-      </c>
+      <c r="A310" s="1"/>
+      <c r="B310" s="1"/>
+      <c r="C310" s="1"/>
     </row>
     <row r="311">
+      <c r="A311" t="s">
+        <v>3</v>
+      </c>
       <c r="B311" t="s">
-        <v>618</v>
-      </c>
-      <c r="C311" t="s">
-        <v>619</v>
+        <v>584</v>
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="1"/>
-      <c r="B312" s="1"/>
-      <c r="C312" s="1"/>
+      <c r="A312" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="313">
-      <c r="A313" t="s">
-        <v>3</v>
-      </c>
       <c r="B313" t="s">
-        <v>620</v>
+        <v>585</v>
+      </c>
+      <c r="C313" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="s">
-        <v>5</v>
+      <c r="B314" t="s">
+        <v>585</v>
+      </c>
+      <c r="C314" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="315">
-      <c r="B315" t="s">
-        <v>621</v>
-      </c>
-      <c r="C315" t="s">
-        <v>622</v>
-      </c>
+      <c r="A315" s="1"/>
+      <c r="B315" s="1"/>
+      <c r="C315" s="1"/>
     </row>
     <row r="316">
+      <c r="A316" t="s">
+        <v>3</v>
+      </c>
       <c r="B316" t="s">
-        <v>623</v>
-      </c>
-      <c r="C316" t="s">
-        <v>624</v>
+        <v>588</v>
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="1"/>
-      <c r="B317" s="1"/>
-      <c r="C317" s="1"/>
+      <c r="A317" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="318">
-      <c r="A318" t="s">
-        <v>3</v>
-      </c>
       <c r="B318" t="s">
-        <v>625</v>
+        <v>589</v>
+      </c>
+      <c r="C318" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="s">
-        <v>5</v>
+      <c r="B319" t="s">
+        <v>591</v>
+      </c>
+      <c r="C319" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="320">
-      <c r="B320" t="s">
-        <v>626</v>
-      </c>
-      <c r="C320" t="s">
-        <v>627</v>
-      </c>
+      <c r="A320" s="1"/>
+      <c r="B320" s="1"/>
+      <c r="C320" s="1"/>
     </row>
     <row r="321">
+      <c r="A321" t="s">
+        <v>3</v>
+      </c>
       <c r="B321" t="s">
-        <v>628</v>
-      </c>
-      <c r="C321" t="s">
-        <v>629</v>
+        <v>602</v>
       </c>
     </row>
     <row r="322">
-      <c r="B322" t="s">
-        <v>630</v>
-      </c>
-      <c r="C322" t="s">
-        <v>631</v>
+      <c r="A322" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="323">
       <c r="B323" t="s">
-        <v>632</v>
+        <v>603</v>
       </c>
       <c r="C323" t="s">
-        <v>633</v>
+        <v>604</v>
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="1"/>
-      <c r="B324" s="1"/>
-      <c r="C324" s="1"/>
+      <c r="B324" t="s">
+        <v>605</v>
+      </c>
+      <c r="C324" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="325">
-      <c r="A325" t="s">
-        <v>3</v>
-      </c>
       <c r="B325" t="s">
-        <v>634</v>
+        <v>607</v>
+      </c>
+      <c r="C325" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="s">
-        <v>5</v>
+      <c r="B326" t="s">
+        <v>609</v>
+      </c>
+      <c r="C326" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="327">
       <c r="B327" t="s">
-        <v>635</v>
+        <v>609</v>
       </c>
       <c r="C327" t="s">
-        <v>636</v>
+        <v>611</v>
       </c>
     </row>
     <row r="328">
       <c r="B328" t="s">
-        <v>637</v>
+        <v>612</v>
       </c>
       <c r="C328" t="s">
-        <v>638</v>
+        <v>613</v>
       </c>
     </row>
     <row r="329">
@@ -5906,7 +5906,7 @@
         <v>3</v>
       </c>
       <c r="B330" t="s">
-        <v>639</v>
+        <v>614</v>
       </c>
     </row>
     <row r="331">
@@ -5916,18 +5916,18 @@
     </row>
     <row r="332">
       <c r="B332" t="s">
-        <v>640</v>
+        <v>615</v>
       </c>
       <c r="C332" t="s">
-        <v>641</v>
+        <v>616</v>
       </c>
     </row>
     <row r="333">
       <c r="B333" t="s">
-        <v>640</v>
+        <v>615</v>
       </c>
       <c r="C333" t="s">
-        <v>642</v>
+        <v>617</v>
       </c>
     </row>
     <row r="334">
@@ -5940,7 +5940,7 @@
         <v>3</v>
       </c>
       <c r="B335" t="s">
-        <v>643</v>
+        <v>618</v>
       </c>
     </row>
     <row r="336">
@@ -5950,60 +5950,60 @@
     </row>
     <row r="337">
       <c r="B337" t="s">
-        <v>644</v>
+        <v>619</v>
       </c>
       <c r="C337" t="s">
-        <v>645</v>
+        <v>620</v>
       </c>
     </row>
     <row r="338">
       <c r="B338" t="s">
-        <v>646</v>
+        <v>621</v>
       </c>
       <c r="C338" t="s">
-        <v>647</v>
+        <v>622</v>
       </c>
     </row>
     <row r="339">
-      <c r="B339" t="s">
-        <v>648</v>
-      </c>
-      <c r="C339" t="s">
-        <v>649</v>
-      </c>
+      <c r="A339" s="1"/>
+      <c r="B339" s="1"/>
+      <c r="C339" s="1"/>
     </row>
     <row r="340">
-      <c r="A340" s="1"/>
-      <c r="B340" s="1"/>
-      <c r="C340" s="1"/>
+      <c r="A340" t="s">
+        <v>3</v>
+      </c>
+      <c r="B340" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>3</v>
-      </c>
-      <c r="B341" t="s">
-        <v>655</v>
+        <v>5</v>
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="s">
-        <v>5</v>
+      <c r="B342" t="s">
+        <v>624</v>
+      </c>
+      <c r="C342" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="343">
       <c r="B343" t="s">
-        <v>656</v>
+        <v>626</v>
       </c>
       <c r="C343" t="s">
-        <v>657</v>
+        <v>627</v>
       </c>
     </row>
     <row r="344">
       <c r="B344" t="s">
-        <v>658</v>
+        <v>628</v>
       </c>
       <c r="C344" t="s">
-        <v>659</v>
+        <v>629</v>
       </c>
     </row>
     <row r="345">
@@ -6036,7 +6036,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4">
@@ -6046,327 +6046,342 @@
     </row>
     <row r="5">
       <c r="B5" s="3" t="s">
-        <v>172</v>
+        <v>226</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>173</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="3" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="3" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>177</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="3" t="s">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>179</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="3" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="3" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11"/>
     <row r="12"/>
     <row r="13">
       <c r="B13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C13" t="s">
-        <v>186</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="C14" t="s">
-        <v>188</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c r="C15" t="s">
-        <v>190</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="s">
-        <v>191</v>
+        <v>243</v>
       </c>
       <c r="C16" t="s">
-        <v>192</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="s">
-        <v>193</v>
+        <v>245</v>
       </c>
       <c r="C17" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="s">
-        <v>195</v>
+        <v>247</v>
       </c>
       <c r="C18" t="s">
-        <v>196</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="s">
-        <v>197</v>
+        <v>249</v>
       </c>
       <c r="C19" t="s">
-        <v>198</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="s">
-        <v>197</v>
+        <v>251</v>
       </c>
       <c r="C20" t="s">
-        <v>199</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="C21" t="s">
-        <v>201</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="s">
-        <v>202</v>
+        <v>254</v>
       </c>
       <c r="C22" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="23"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>256</v>
+      </c>
+      <c r="C23" t="s">
+        <v>257</v>
+      </c>
+    </row>
     <row r="24"/>
-    <row r="25">
-      <c r="B25" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25" t="s">
-        <v>205</v>
-      </c>
-    </row>
+    <row r="25"/>
     <row r="26">
       <c r="B26" t="s">
-        <v>206</v>
-      </c>
-      <c r="C26" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="C27" t="s">
-        <v>209</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="C28" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="s">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="C29" t="s">
-        <v>213</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="C30" t="s">
-        <v>215</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="s">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="C31" t="s">
-        <v>217</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="s">
-        <v>218</v>
+        <v>268</v>
       </c>
       <c r="C32" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="s">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="C33" t="s">
-        <v>221</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="s">
-        <v>222</v>
+        <v>272</v>
       </c>
       <c r="C34" t="s">
-        <v>223</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="s">
-        <v>224</v>
+        <v>274</v>
       </c>
       <c r="C35" t="s">
-        <v>225</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="s">
-        <v>226</v>
+        <v>276</v>
       </c>
       <c r="C36" t="s">
-        <v>227</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="s">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="C37" t="s">
-        <v>229</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="s">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="C38" t="s">
-        <v>231</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="C39" t="s">
-        <v>233</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="s">
-        <v>234</v>
+        <v>284</v>
       </c>
       <c r="C40" t="s">
-        <v>235</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="s">
-        <v>236</v>
+        <v>286</v>
       </c>
       <c r="C41" t="s">
-        <v>237</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="s">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="C42" t="s">
-        <v>239</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="s">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="C43" t="s">
-        <v>241</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="s">
-        <v>242</v>
+        <v>292</v>
       </c>
       <c r="C44" t="s">
-        <v>243</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="s">
-        <v>244</v>
+        <v>294</v>
       </c>
       <c r="C45" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48">
-      <c r="B48" t="s">
-        <v>247</v>
-      </c>
-      <c r="C48" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" t="s">
-        <v>249</v>
-      </c>
-      <c r="C49" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="50"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="s">
+        <v>296</v>
+      </c>
+      <c r="C46" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="s">
+        <v>298</v>
+      </c>
+      <c r="C47" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50">
+      <c r="B50" t="s">
+        <v>300</v>
+      </c>
+    </row>
     <row r="51">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+      <c r="B51" t="s">
+        <v>301</v>
+      </c>
+      <c r="C51" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="s">
+        <v>303</v>
+      </c>
+      <c r="C52" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="53"/>
+    <row r="54">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
     </row>
   </sheetData>
 </worksheet>

--- a/test_review/06-06.xlsx
+++ b/test_review/06-06.xlsx
@@ -381,6 +381,729 @@
     <t>https://discuss.openubmc.cn//t/topic/317/1</t>
   </si>
   <si>
+    <t>BMC开发者如何修正ProcessorID属性类型以符合SMBIOS协议</t>
+  </si>
+  <si>
+    <t>bmc.kepler.Systems.Processor.CPU的ProcessorID为U32类型，与SMBIOS协议不一致</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/30</t>
+  </si>
+  <si>
+    <t>【问题单】CPU的ProcessorID属性定义与SMBIOS协议规定不符</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/75</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/47</t>
+  </si>
+  <si>
+    <t>CPU类的ProcessorID属性定义为U32类型，与SMBIOS协议范围（QWORD）不一致</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/362/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何申请使用自动化测试框架</t>
+  </si>
+  <si>
+    <t>怎么申请使用kptest框架和itestsmart工具呢</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/665/1</t>
+  </si>
+  <si>
+    <t>kptest框架与KPTestOpenFramework工程、iTestSmart工具介绍</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/832/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何扩展升级接口参数处理并行升级错误场景</t>
+  </si>
+  <si>
+    <t>【需求】power_mgmt组件适配升级接口参数扩展</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/10</t>
+  </si>
+  <si>
+    <t>【需求】bios组件适配升级接口参数扩展</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/10</t>
+  </si>
+  <si>
+    <t>能效管理适配升级接口参数扩展</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/5</t>
+  </si>
+  <si>
+    <t>general_hardware组件适配升级接口参数</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/11</t>
+  </si>
+  <si>
+    <t>BMC开发者如何高效实现电链路统计数据采集接口</t>
+  </si>
+  <si>
+    <t>【需求】支持NPU参数面端口电链路数据采集</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/8</t>
+  </si>
+  <si>
+    <t>【需求】支持NPU参数面光模块数据采集接口增加电链路数据</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/7</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现新的遥测配置管理接口</t>
+  </si>
+  <si>
+    <t>支持遥测上报配置管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/12</t>
+  </si>
+  <si>
+    <t>【需求】 支持遥测上报配置管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/37</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/16</t>
+  </si>
+  <si>
+    <t>【需求】可观测新增redfish、web接口及属性</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/29</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现日志配置与系统路径的存储隔离迁移</t>
+  </si>
+  <si>
+    <t>支持日志存放位置隔离</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rootfs_user/issues/2</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/23</t>
+  </si>
+  <si>
+    <t>BMC开发者如何通过返回值0判断文件安全操作成功状态</t>
+  </si>
+  <si>
+    <t>【需求】支持文件安全操作函数返回值判断</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/31</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/51</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/36</t>
+  </si>
+  <si>
+    <t>BMC开发者如何扩展Web和IPMI接口支持风扇duty/speed信息读取</t>
+  </si>
+  <si>
+    <t>【需求】支持获取所有风扇duty和speed等信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/webui/issues/37</t>
+  </si>
+  <si>
+    <t>【需求】支持散热策略规格</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/11</t>
+  </si>
+  <si>
+    <t>标签包裹。</t>
+  </si>
+  <si>
+    <t>【需求】支持NCSI边带管理功能</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/16</t>
+  </si>
+  <si>
+    <t>【需求】开源社区支持NCSI边带管理功能</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/5</t>
+  </si>
+  <si>
+    <t>BMC开发者在资源树协作接口中如何解决属性约束冲突与内部实现暴露问题</t>
+  </si>
+  <si>
+    <t>支持通用硬件满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/98</t>
+  </si>
+  <si>
+    <t>【需求】power_mgmt组件接口支持配置PrivilegeMap信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/44</t>
+  </si>
+  <si>
+    <t>【需求】支持能效管理满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/12</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/13</t>
+  </si>
+  <si>
+    <t>【需求】thermal_mgmt组件接口支持配置PrivilegeMap信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/27</t>
+  </si>
+  <si>
+    <t>【需求】thermal_mgmt组件满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/24</t>
+  </si>
+  <si>
+    <t>支持框架资源树协作接口满足关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/38</t>
+  </si>
+  <si>
+    <t>【需求】支持异构算力满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manufacture/issues/2</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/pcie_device/issues/7</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/lsw/issues/2</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/22</t>
+  </si>
+  <si>
+    <t>【需求】支持通用硬件满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/12</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/22</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/17</t>
+  </si>
+  <si>
+    <t>支持基础服务满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/32</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/chassis/issues/3</t>
+  </si>
+  <si>
+    <t>资源树协作接口关键字满足使用原则和规范</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/6</t>
+  </si>
+  <si>
+    <t>支持安全管理满足资源树协作接口关键字规范要求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/account/issues/6</t>
+  </si>
+  <si>
+    <t>BMC开发者确保SMBIOS协议解析Structure Header Length字段准确</t>
+  </si>
+  <si>
+    <t>解析SMBIOS协议04Type时出现异常</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/1</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/363/1</t>
+  </si>
+  <si>
+    <t>开发者实现Redfish Drive资源OEM接口时需解决NVM MI命令与硬件协议栈的兼容性整合</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制SendNvmeMICommand请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/40</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetIdentifyData请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/39</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetAddSmartInfo请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/37</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetTelemetryData请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/13</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/36</t>
+  </si>
+  <si>
+    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetSmartInfo请求</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/38</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>【需求】支持新浪定制化页面显示可插硬盘的槽位总数</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/webui/issues/36</t>
+  </si>
+  <si>
+    <t>支持web页面显示可插硬盘的槽位总数</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/Sina/issues/2</t>
+  </si>
+  <si>
+    <t>BMC开发者如何在定制传感器时确保名称与主板丝印一致？</t>
+  </si>
+  <si>
+    <t>【需求】支持Px_Cy_Dz_Status内存定制传感器</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/ByteDance/issues/19</t>
+  </si>
+  <si>
+    <t>【需求】支持CPUx_Status定制传感器</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/ByteDance/issues/18</t>
+  </si>
+  <si>
+    <t>BMC固件开发中如何确保网卡扩展与历史协议兼容</t>
+  </si>
+  <si>
+    <t>【需求】网卡适配组件兼容历史网卡功能</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/6</t>
+  </si>
+  <si>
+    <t>【需求】网卡支持南向部件驱动接口</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/17</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/18</t>
+  </si>
+  <si>
+    <t>BMC开发者如何提升多模组固件升级健壮性</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组CSR固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/24</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组VRD固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/26</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组CPLD固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/25</t>
+  </si>
+  <si>
+    <t>【需求】支持多模组MCU固件升级健壮性提升</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/27</t>
+  </si>
+  <si>
+    <t>CPLD 升级 MultipleSuppliersMode MIXED Mode 功能背景了解</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/886/1</t>
+  </si>
+  <si>
+    <t>【需求】支持MCU子固件升级时版本号校验</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/23</t>
+  </si>
+  <si>
+    <t>BMC开发中如何解决Conan v1弃用导致的头文件缺失编译失败</t>
+  </si>
+  <si>
+    <t>社区lsw编译不过</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/979/1</t>
+  </si>
+  <si>
+    <t>开源首版本编译不过</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/lsw/issues/1</t>
+  </si>
+  <si>
+    <t>BMC配置导出需新增产品类别和软件版本信息支持</t>
+  </si>
+  <si>
+    <t>配置导出项新增BMC软件版本信息和产品类别信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/13</t>
+  </si>
+  <si>
+    <t>配置导入导出新增产品类别信息和BMC软件版本信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/profile_schema/issues/2</t>
+  </si>
+  <si>
+    <t>提供BMC出厂配置定制指导</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/16</t>
+  </si>
+  <si>
+    <t>软件中心需要添加BMCStudio描述和下载页</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/software-center-config/issues/3</t>
+  </si>
+  <si>
+    <t>BMC开发者需解决一键部署中的Conan组件拉取机制稳定性问题</t>
+  </si>
+  <si>
+    <t>bmc studio使用问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1012/1</t>
+  </si>
+  <si>
+    <t>BMC_STUDIO仓库一键部署，丢失响应，无成功，无失败反馈</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/962/1</t>
+  </si>
+  <si>
+    <t>使用bmc_studio遇到的问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/925/1</t>
+  </si>
+  <si>
+    <t>BMC Studio问题反馈</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/707/1</t>
+  </si>
+  <si>
+    <t>BMC开发者亟需开源应用框架开发指导文档</t>
+  </si>
+  <si>
+    <t>提供应用框架开发指导</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/15</t>
+  </si>
+  <si>
+    <t>【需求】社区提供开源项目开发者指南</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/webui/issues/19</t>
+  </si>
+  <si>
+    <t>BMC开发者实现升级时多签名机制兼容性</t>
+  </si>
+  <si>
+    <t>能否实现伙伴签名的openUBMC版本直接升级华为签名的各种固件？</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/335/1</t>
+  </si>
+  <si>
+    <t>伙伴openubmc版本如何支持升级华为签名固件版本和伙伴自己签名的固件版本均能成功？</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1083/1</t>
+  </si>
+  <si>
+    <t>使用openubmc进行bios固件升级，提示无效的升级包</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/182/1</t>
+  </si>
+  <si>
+    <t>刷了华为根的机器是否可以直接刷伙伴根</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/933/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何在直通场景下实现NVMe SSD自定义SMART监控</t>
+  </si>
+  <si>
+    <t>【需求】支持自定义SMART信息的NVMe SSD盘写放大监控</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/28</t>
+  </si>
+  <si>
+    <t>【需求】支持从带内获取SMART NVMe SSD盘冗余块信息并监控</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/24</t>
+  </si>
+  <si>
+    <t>【需求】支持获取NVMe SSD盘自定义SMART信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/27</t>
+  </si>
+  <si>
+    <t>【需求】支持从带内获取厂商SMART NVMe SSD盘冗余块信息并监控</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/10</t>
+  </si>
+  <si>
+    <t>【需求】支持自定义的SMART NVMe SSD盘亚健康检测</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/23</t>
+  </si>
+  <si>
+    <t>【需求】支持自定义SMART信息的NVMe SSD盘预估寿命新增计算参数</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/25</t>
+  </si>
+  <si>
+    <t>BMC开发者如何解决固件并行升级总线互斥问题</t>
+  </si>
+  <si>
+    <t>【需求】支持固件升级流程总线互斥</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/21</t>
+  </si>
+  <si>
+    <t>固件升级流程总线互斥</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/10</t>
+  </si>
+  <si>
+    <t>【需求】能效管理固件升级流程总线互斥</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/11</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/11</t>
+  </si>
+  <si>
+    <t>如何优化BMC日志、跟踪和度量数据的采集与存储效率</t>
+  </si>
+  <si>
+    <t>提供跟踪数据采集和存储能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/4</t>
+  </si>
+  <si>
+    <t>提供度量数据采集和存储能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/2</t>
+  </si>
+  <si>
+    <t>提供日志数据采集和存储能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/5</t>
+  </si>
+  <si>
+    <t>BMC开发者如何设计CLI并发收集NPU/CPU日志的失败处理</t>
+  </si>
+  <si>
+    <t>【需求】 支持CLI导出NPU DFX日志</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/48</t>
+  </si>
+  <si>
+    <t>【需求】支持CLI导出CPU DFX日志</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/46</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现FPGA自检失败的告警模拟测试</t>
+  </si>
+  <si>
+    <t>【需求】支持FPGA固件周期自检失败的告警</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/30</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/84</t>
+  </si>
+  <si>
+    <t>支持FPGA固件周期自检失败的告警</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/45</t>
+  </si>
+  <si>
+    <t>BMC开发者如何为thermal和power管理组件实现业务场景的白名单配置基线化</t>
+  </si>
+  <si>
+    <t>【需求】power_mgmt组件明确业务场景下的白名单化配置并形成基线</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/45</t>
+  </si>
+  <si>
+    <t>【需求】thermal_mgmt组件明确业务场景下的白名单化配置并形成基线</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/25</t>
+  </si>
+  <si>
+    <t>BMC开发中如何实现DPU网卡启动状态的实时检测与记录</t>
+  </si>
+  <si>
+    <t>【需求】支持DPU网卡启动完成标识记录</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/28</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/15</t>
+  </si>
+  <si>
+    <t>BMC开发者需修正BIOS组件生效流程图的逻辑错误</t>
+  </si>
+  <si>
+    <t>bios组件生效流程流程图错误</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/17</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/docs/issues/19</t>
+  </si>
+  <si>
+    <t>BMC开发者如何通过Redfish接口实现光模块老化预测功能开关</t>
+  </si>
+  <si>
+    <t>【需求】支持光模块老化故障预测功能开关</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/52</t>
+  </si>
+  <si>
+    <t>【修改描述】支持光模块老化预测功能开关使能</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/31</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现CoolingRequirement中SensorName属性在资源树注册</t>
+  </si>
+  <si>
+    <t>bmc.kepler.Systems.CoolingRequirement下私有属性SensorName上树</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/34</t>
+  </si>
+  <si>
+    <t>&lt;thermal_mgmt&gt; bmc.kepler.Systems.CoolingRequirement下私有属性SensorName上树</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/101</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现CSR文件损坏的检测与自修复</t>
+  </si>
+  <si>
+    <t>CSR文件损坏之后的恢复能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/4</t>
+  </si>
+  <si>
+    <t>CSR文件损坏恢复能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/9</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现PLDM协议获取网卡信息并集成接口展示</t>
+  </si>
+  <si>
+    <t>【需求】支持使用pldm协议获取网卡相关信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/20</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/19</t>
+  </si>
+  <si>
+    <t>BMC多组件共享白名单配置的维护复杂度问题</t>
+  </si>
+  <si>
+    <t>【需求】基于动态插桩拦截风险接口调用日志，形成通用化命令的白名单配置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/15</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/pcie_device/issues/4</t>
+  </si>
+  <si>
     <t>BMC开发者如何高效构建仿真测试环境</t>
   </si>
   <si>
@@ -402,31 +1125,157 @@
     <t>https://gitcode.com/openUBMC/qemu/issues/3</t>
   </si>
   <si>
-    <t>BMC配置导出需新增产品类别和软件版本信息支持</t>
-  </si>
-  <si>
-    <t>配置导出项新增BMC软件版本信息和产品类别信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/13</t>
-  </si>
-  <si>
-    <t>配置导入导出新增产品类别信息和BMC软件版本信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/profile_schema/issues/2</t>
-  </si>
-  <si>
-    <t>提供BMC出厂配置定制指导</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/16</t>
-  </si>
-  <si>
-    <t>软件中心需要添加BMCStudio描述和下载页</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/software-center-config/issues/3</t>
+    <t>BMC开发者如何规避新增IPMI命令导致组件不可启动问题</t>
+  </si>
+  <si>
+    <t>pcie_device新增IPMI命令导致组件异常问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/595/1</t>
+  </si>
+  <si>
+    <t>非天池组件加载方式</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/610/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现NVMe MI over MCTP协议响应码的可靠解析</t>
+  </si>
+  <si>
+    <t>【需求】支持NVMe-mi over mctp的协议解析</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/33</t>
+  </si>
+  <si>
+    <t>【需求】支持解析nvme mi协议响应码信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/8</t>
+  </si>
+  <si>
+    <t>解决BMC过渡包升级中签名链更新缺失导致的校验失败</t>
+  </si>
+  <si>
+    <t>制作反向过渡包时碰到的疑问</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/723/1</t>
+  </si>
+  <si>
+    <t>25.03构建出包以及伙伴签名问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/390/1</t>
+  </si>
+  <si>
+    <t>25.03版本的构建环境搭建：dockerfile创建镜像失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/409/1</t>
+  </si>
+  <si>
+    <t>开发者在BMC Studio中需手动二次配置因器件库不完整。</t>
+  </si>
+  <si>
+    <t>BMC Studio工具使用反馈</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/714/1</t>
+  </si>
+  <si>
+    <t>[WIP]BMC Studio用户指南</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/221/1</t>
+  </si>
+  <si>
+    <t>如何确保BIOS测试命令在高可用环境中的兼容性</t>
+  </si>
+  <si>
+    <t>高可用环境BIOS执行test失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/800/1</t>
+  </si>
+  <si>
+    <t>组件内执行bingo test显示测试失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/594/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何统一实现多品牌新款SATA硬盘的纳管支持？</t>
+  </si>
+  <si>
+    <t>【需求】支持新增希捷SATA盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/42</t>
+  </si>
+  <si>
+    <t>【需求】支持新增西数SATA盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/43</t>
+  </si>
+  <si>
+    <t>【需求】支持新增东芝SATA盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/45</t>
+  </si>
+  <si>
+    <t>BMC开发者如何解决固件升级中的证书校验失败</t>
+  </si>
+  <si>
+    <t>使用社区最新出包，升级hpm失败，查看m3log get cert fail!</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/498/1</t>
+  </si>
+  <si>
+    <t>最新 source 包烧录异常问题</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/173/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何高效配置3000W电源的PMbus告警属性</t>
+  </si>
+  <si>
+    <t>【需求】支持3000W电源管理，新增资源树私有属性CurrentModeLogic</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/account/issues/13</t>
+  </si>
+  <si>
+    <t>【需求】支持3000W电源管理，新增资源树bmc.kepler.Systems.PowerMgmt.OnePower.Status属性CMLStatus</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/44</t>
+  </si>
+  <si>
+    <t>【需求】支持电源继电器状态管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/45</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现PCIe Switch Flash升级组件的集成</t>
+  </si>
+  <si>
+    <t>PCIe Switch 芯片的Flash升级</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/721/1</t>
+  </si>
+  <si>
+    <t>【讨论】PCIe Switch场景下如何加载PCIe卡</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/722/1</t>
   </si>
   <si>
     <t>BMC开发者如何优化国密证书接口的异常提示机制</t>
@@ -444,6 +1293,117 @@
     <t>https://gitcode.com/openUBMC/rackmount/issues/23</t>
   </si>
   <si>
+    <t>BMC开发者如何优化RAID日志导出的时延与安全性</t>
+  </si>
+  <si>
+    <t>【需求】支持收集raid卡文本格式日志</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/32</t>
+  </si>
+  <si>
+    <t>【需求】支持一键搜集日志导出raid卡固件日志</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/31</t>
+  </si>
+  <si>
+    <t>BMC开发者需解决权限限制下的升级恢复接口错误问题</t>
+  </si>
+  <si>
+    <t>【变更声明】Redfish升级接口权限变更</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/732/1</t>
+  </si>
+  <si>
+    <t>Redfish 升级接口 SimpleUpdate 关于在支持升级之后清除配置功能接口变更</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/32</t>
+  </si>
+  <si>
+    <t>BMC开发者如何更新通用和异构硬件适配文档资源</t>
+  </si>
+  <si>
+    <t>【需求】社区更新通用硬件相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/19</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/13</t>
+  </si>
+  <si>
+    <t>【需求】社区更新设备管理规范相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/14</t>
+  </si>
+  <si>
+    <t>【需求】社区补齐异构硬件相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/17</t>
+  </si>
+  <si>
+    <t>【需求】社区更新能效管理相关文档</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/16</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/20</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现SystemInfoTable属性的持久化存储以支持IPMI标准命令</t>
+  </si>
+  <si>
+    <t>IPMI2.0标准接口能力新增私有属性保存system info信息</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1100/1</t>
+  </si>
+  <si>
+    <t>【需求】支持Get System Info标准命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/12</t>
+  </si>
+  <si>
+    <t>【需求】支持Set System Info标准命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/bios/issues/13</t>
+  </si>
+  <si>
+    <t>BMC开发者如何统一实现查询指定处理器异构资源属性的Redfish接口</t>
+  </si>
+  <si>
+    <t>【需求】支持查询指定处理器资源信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/33</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/53</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/47</t>
+  </si>
+  <si>
+    <t>BMC开发者需修正VPD中position描述的映射错误</t>
+  </si>
+  <si>
+    <t>vpd仓库platform.sr.png描述有误</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/360/1</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/2</t>
+  </si>
+  <si>
     <t>BMC开发者如何通过Redfish和IPMI接口实现硬盘日志收集控制</t>
   </si>
   <si>
@@ -480,43 +1440,124 @@
     <t>https://gitcode.com/openUBMC/storage/issues/7</t>
   </si>
   <si>
-    <t>BMC开发者如何扩展升级接口参数处理并行升级错误场景</t>
-  </si>
-  <si>
-    <t>【需求】power_mgmt组件适配升级接口参数扩展</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/10</t>
-  </si>
-  <si>
-    <t>【需求】bios组件适配升级接口参数扩展</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/10</t>
-  </si>
-  <si>
-    <t>能效管理适配升级接口参数扩展</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/5</t>
-  </si>
-  <si>
-    <t>general_hardware组件适配升级接口参数</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/11</t>
-  </si>
-  <si>
-    <t>BMC开发者需修正BIOS组件生效流程图的逻辑错误</t>
-  </si>
-  <si>
-    <t>bios组件生效流程流程图错误</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/17</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/19</t>
+    <t>BMC开发者需实现NVMe盘多型号识别与管理兼容性</t>
+  </si>
+  <si>
+    <t>【需求】支持新增华为厂商NVMe盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/41</t>
+  </si>
+  <si>
+    <t>【需求】支持新增Memblaze厂商NVMe盘的管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/44</t>
+  </si>
+  <si>
+    <t>BMC开发者如何在BIOS启动阶段禁用KVM/VNC键盘输入防止密码修改</t>
+  </si>
+  <si>
+    <t>支持BIOS启动过程禁止KVM/VNC键盘输入</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/19</t>
+  </si>
+  <si>
+    <t>支持BIOS在启动阶段禁用键盘</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/20</t>
+  </si>
+  <si>
+    <t>BMC开发者需统一板卡和MCU一键收集信息的存储路径与命名规范</t>
+  </si>
+  <si>
+    <t>【已评审】支持一键收集导出板卡信息，mcu信息</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/628/1</t>
+  </si>
+  <si>
+    <t>【需求】支持一键收集通用硬件信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/34</t>
+  </si>
+  <si>
+    <t>openUBMC一键收集介绍</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/290/1</t>
+  </si>
+  <si>
+    <t>【问题单】支持一键收集导出板卡信息，mcu信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/general_hardware/issues/10</t>
+  </si>
+  <si>
+    <t>【需求】支持板卡硬件管理</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/network_adapter/issues/15</t>
+  </si>
+  <si>
+    <t>基础通用问题FAQ</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/292/1</t>
+  </si>
+  <si>
+    <t>openUBMC各sig组本周(2025-0421-2025-0427)关闭issue统计</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/672/1</t>
+  </si>
+  <si>
+    <t>openUBMC各sig组本周(2025-0428~2025-0505)关闭issue统计</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/733/1</t>
+  </si>
+  <si>
+    <t>bmc-core SIG 入门指南</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/167/1</t>
+  </si>
+  <si>
+    <t>openUBMC各sig组本周(2025-0506~2025-0511)关闭issue统计</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/876/1</t>
+  </si>
+  <si>
+    <t>openUBMC品牌包定制指南</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/355/1</t>
+  </si>
+  <si>
+    <t>如何解决恢复出厂设置后BMC固件升级签名验证异常</t>
+  </si>
+  <si>
+    <t>恢复出厂设置后，BMC升级失败</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/1065/1</t>
+  </si>
+  <si>
+    <t>BMC恢复出厂设置之后无法更新固件</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/831/1</t>
+  </si>
+  <si>
+    <t>恢复出厂设置时无法升级</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/manifest/issues/11</t>
   </si>
   <si>
     <t>BMC开发者如何实现bingo SDK版本自动化兼容性校验</t>
@@ -534,168 +1575,6 @@
     <t>https://gitcode.com/openUBMC/bingo/issues/12</t>
   </si>
   <si>
-    <t>BMC开发者如何高效配置3000W电源的PMbus告警属性</t>
-  </si>
-  <si>
-    <t>【需求】支持3000W电源管理，新增资源树私有属性CurrentModeLogic</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/account/issues/13</t>
-  </si>
-  <si>
-    <t>【需求】支持3000W电源管理，新增资源树bmc.kepler.Systems.PowerMgmt.OnePower.Status属性CMLStatus</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/44</t>
-  </si>
-  <si>
-    <t>【需求】支持电源继电器状态管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/45</t>
-  </si>
-  <si>
-    <t>开发者在BMC Studio中需手动二次配置因器件库不完整。</t>
-  </si>
-  <si>
-    <t>BMC Studio工具使用反馈</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/714/1</t>
-  </si>
-  <si>
-    <t>[WIP]BMC Studio用户指南</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/221/1</t>
-  </si>
-  <si>
-    <t>BMC开发者需实现NVMe盘多型号识别与管理兼容性</t>
-  </si>
-  <si>
-    <t>【需求】支持新增华为厂商NVMe盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/41</t>
-  </si>
-  <si>
-    <t>【需求】支持新增Memblaze厂商NVMe盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/44</t>
-  </si>
-  <si>
-    <t>BMC开发者如何通过Redfish接口实现光模块老化预测功能开关</t>
-  </si>
-  <si>
-    <t>【需求】支持光模块老化故障预测功能开关</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/52</t>
-  </si>
-  <si>
-    <t>【修改描述】支持光模块老化预测功能开关使能</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/31</t>
-  </si>
-  <si>
-    <t>BMC开发者确保SMBIOS协议解析Structure Header Length字段准确</t>
-  </si>
-  <si>
-    <t>解析SMBIOS协议04Type时出现异常</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/1</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/363/1</t>
-  </si>
-  <si>
-    <t>BMC开发者需解决权限限制下的升级恢复接口错误问题</t>
-  </si>
-  <si>
-    <t>【变更声明】Redfish升级接口权限变更</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/732/1</t>
-  </si>
-  <si>
-    <t>Redfish 升级接口 SimpleUpdate 关于在支持升级之后清除配置功能接口变更</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/32</t>
-  </si>
-  <si>
-    <t>BMC开发者如何规避新增IPMI命令导致组件不可启动问题</t>
-  </si>
-  <si>
-    <t>pcie_device新增IPMI命令导致组件异常问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/595/1</t>
-  </si>
-  <si>
-    <t>非天池组件加载方式</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/610/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何为thermal和power管理组件实现业务场景的白名单配置基线化</t>
-  </si>
-  <si>
-    <t>【需求】power_mgmt组件明确业务场景下的白名单化配置并形成基线</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/45</t>
-  </si>
-  <si>
-    <t>【需求】thermal_mgmt组件明确业务场景下的白名单化配置并形成基线</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/25</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现CSR文件损坏的检测与自修复</t>
-  </si>
-  <si>
-    <t>CSR文件损坏之后的恢复能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/4</t>
-  </si>
-  <si>
-    <t>CSR文件损坏恢复能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/9</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现PLDM协议获取网卡信息并集成接口展示</t>
-  </si>
-  <si>
-    <t>【需求】支持使用pldm协议获取网卡相关信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/20</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/19</t>
-  </si>
-  <si>
-    <t>BMC开发者需修正VPD中position描述的映射错误</t>
-  </si>
-  <si>
-    <t>vpd仓库platform.sr.png描述有误</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/360/1</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/2</t>
-  </si>
-  <si>
     <t>BMC开发者如何实现Power资源的Redfish新标准适配</t>
   </si>
   <si>
@@ -936,91 +1815,61 @@
     <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/13</t>
   </si>
   <si>
-    <t>BMC开发者需解决一键部署中的Conan组件拉取机制稳定性问题</t>
-  </si>
-  <si>
-    <t>bmc studio使用问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1012/1</t>
-  </si>
-  <si>
-    <t>BMC_STUDIO仓库一键部署，丢失响应，无成功，无失败反馈</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/962/1</t>
-  </si>
-  <si>
-    <t>使用bmc_studio遇到的问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/925/1</t>
-  </si>
-  <si>
-    <t>BMC Studio问题反馈</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/707/1</t>
-  </si>
-  <si>
-    <t>BMC开发中如何解决Conan v1弃用导致的头文件缺失编译失败</t>
-  </si>
-  <si>
-    <t>社区lsw编译不过</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/979/1</t>
-  </si>
-  <si>
-    <t>开源首版本编译不过</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/lsw/issues/1</t>
-  </si>
-  <si>
-    <t>BMC多组件共享白名单配置的维护复杂度问题</t>
-  </si>
-  <si>
-    <t>【需求】基于动态插桩拦截风险接口调用日志，形成通用化命令的白名单配置</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/15</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/pcie_device/issues/4</t>
-  </si>
-  <si>
-    <t>BMC开发者如何在定制传感器时确保名称与主板丝印一致？</t>
-  </si>
-  <si>
-    <t>【需求】支持Px_Cy_Dz_Status内存定制传感器</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/ByteDance/issues/19</t>
-  </si>
-  <si>
-    <t>【需求】支持CPUx_Status定制传感器</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/ByteDance/issues/18</t>
-  </si>
-  <si>
-    <t>BMC固件开发中如何确保网卡扩展与历史协议兼容</t>
-  </si>
-  <si>
-    <t>【需求】网卡适配组件兼容历史网卡功能</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/6</t>
-  </si>
-  <si>
-    <t>【需求】网卡支持南向部件驱动接口</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/17</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/18</t>
+    <t>BMC开发者如何高效管理openTelemetry API依赖组件</t>
+  </si>
+  <si>
+    <t>提供openTelemetry及依赖开源软件API能力</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/observability/issues/3</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/conan_index/issues/3</t>
+  </si>
+  <si>
+    <t>BMC开发者如何提升社区UT IT测试覆盖率和工具贡献效率</t>
+  </si>
+  <si>
+    <t>openUBMC社区测试贡献规划</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/592/1</t>
+  </si>
+  <si>
+    <t>QA 运作规则讨论</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/209/1</t>
+  </si>
+  <si>
+    <t>openUBMC社区QA SIG运作</t>
+  </si>
+  <si>
+    <t>https://discuss.openubmc.cn//t/topic/593/1</t>
+  </si>
+  <si>
+    <t>BMC开发者如何在lscmd中显示和调试接口执行组件自定义命令用于在线调试</t>
+  </si>
+  <si>
+    <t>支持组件自定义命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/104</t>
+  </si>
+  <si>
+    <t>【需求】支持能效管理子系统组件自定义命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/17</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/power_mgmt/issues/7</t>
+  </si>
+  <si>
+    <t>【需求】支持组件自定义命令</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/storage/issues/21</t>
   </si>
   <si>
     <t>如何避免CRPS电源适配中SlotNumber配置错误</t>
@@ -1038,78 +1887,6 @@
     <t>https://discuss.openubmc.cn//t/topic/1101/1</t>
   </si>
   <si>
-    <t>BMC开发者如何优化RAID日志导出的时延与安全性</t>
-  </si>
-  <si>
-    <t>【需求】支持收集raid卡文本格式日志</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/32</t>
-  </si>
-  <si>
-    <t>【需求】支持一键搜集日志导出raid卡固件日志</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/31</t>
-  </si>
-  <si>
-    <t>BMC开发者如何修正ProcessorID属性类型以符合SMBIOS协议</t>
-  </si>
-  <si>
-    <t>bmc.kepler.Systems.Processor.CPU的ProcessorID为U32类型，与SMBIOS协议不一致</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/30</t>
-  </si>
-  <si>
-    <t>【问题单】CPU的ProcessorID属性定义与SMBIOS协议规定不符</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/75</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/47</t>
-  </si>
-  <si>
-    <t>CPU类的ProcessorID属性定义为U32类型，与SMBIOS协议范围（QWORD）不一致</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/362/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现FPGA自检失败的告警模拟测试</t>
-  </si>
-  <si>
-    <t>【需求】支持FPGA固件周期自检失败的告警</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/30</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/84</t>
-  </si>
-  <si>
-    <t>支持FPGA固件周期自检失败的告警</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/45</t>
-  </si>
-  <si>
-    <t>BMC开发者如何扩展Web和IPMI接口支持风扇duty/speed信息读取</t>
-  </si>
-  <si>
-    <t>【需求】支持获取所有风扇duty和speed等信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/webui/issues/37</t>
-  </si>
-  <si>
-    <t>【需求】支持散热策略规格</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/11</t>
-  </si>
-  <si>
     <t>BMC开发者如何解决PXE阶段因POST未完成导致重启失败</t>
   </si>
   <si>
@@ -1122,6 +1899,45 @@
     <t>https://gitcode.com/openUBMC/sensor/issues/10</t>
   </si>
   <si>
+    <t>BMC开发者如何适配BlueField系列设备的调速策略在openUBMC中</t>
+  </si>
+  <si>
+    <t>【需求】支持BlueField-3（B3220）的调速策略配置</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/17</t>
+  </si>
+  <si>
+    <t>【需求】支持BlueField-2（332A）的调速策略</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/vpd/issues/18</t>
+  </si>
+  <si>
+    <t>BMC开发者如何在Web界面实现组件粒度状态查询的权限容错机制</t>
+  </si>
+  <si>
+    <t>【需求】web界面查询升级状态及生效状态信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/rackmount/issues/114</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/99</t>
+  </si>
+  <si>
+    <t>BMC开发者如何实现Redfish接口查询指定PCIe设备资源信息</t>
+  </si>
+  <si>
+    <t>【需求】支持查询指定PCIEDevices资源信息</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/pcie_device/issues/5</t>
+  </si>
+  <si>
+    <t>https://gitcode.com/openUBMC/mdb_interface/issues/16</t>
+  </si>
+  <si>
     <t>BMC开发者如何防范开发环境中的文件访问绕过漏洞</t>
   </si>
   <si>
@@ -1155,369 +1971,6 @@
     <t>https://gitcode.com/openUBMC/manifest/issues/17</t>
   </si>
   <si>
-    <t>BMC开发者如何提升社区UT IT测试覆盖率和工具贡献效率</t>
-  </si>
-  <si>
-    <t>openUBMC社区测试贡献规划</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/592/1</t>
-  </si>
-  <si>
-    <t>QA 运作规则讨论</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/209/1</t>
-  </si>
-  <si>
-    <t>openUBMC社区QA SIG运作</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/593/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何统一实现查询指定处理器异构资源属性的Redfish接口</t>
-  </si>
-  <si>
-    <t>【需求】支持查询指定处理器资源信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/33</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/53</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/47</t>
-  </si>
-  <si>
-    <t>BMC开发者需统一板卡和MCU一键收集信息的存储路径与命名规范</t>
-  </si>
-  <si>
-    <t>【已评审】支持一键收集导出板卡信息，mcu信息</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/628/1</t>
-  </si>
-  <si>
-    <t>【需求】支持一键收集通用硬件信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/34</t>
-  </si>
-  <si>
-    <t>openUBMC一键收集介绍</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/290/1</t>
-  </si>
-  <si>
-    <t>【问题单】支持一键收集导出板卡信息，mcu信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/10</t>
-  </si>
-  <si>
-    <t>【需求】支持板卡硬件管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/15</t>
-  </si>
-  <si>
-    <t>基础通用问题FAQ</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/292/1</t>
-  </si>
-  <si>
-    <t>openUBMC各sig组本周(2025-0421-2025-0427)关闭issue统计</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/672/1</t>
-  </si>
-  <si>
-    <t>openUBMC各sig组本周(2025-0428~2025-0505)关闭issue统计</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/733/1</t>
-  </si>
-  <si>
-    <t>bmc-core SIG 入门指南</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/167/1</t>
-  </si>
-  <si>
-    <t>openUBMC各sig组本周(2025-0506~2025-0511)关闭issue统计</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/876/1</t>
-  </si>
-  <si>
-    <t>openUBMC品牌包定制指南</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/355/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何适配BlueField系列设备的调速策略在openUBMC中</t>
-  </si>
-  <si>
-    <t>【需求】支持BlueField-3（B3220）的调速策略配置</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/17</t>
-  </si>
-  <si>
-    <t>【需求】支持BlueField-2（332A）的调速策略</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/18</t>
-  </si>
-  <si>
-    <t>BMC开发者如何在lscmd中显示和调试接口执行组件自定义命令用于在线调试</t>
-  </si>
-  <si>
-    <t>支持组件自定义命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/104</t>
-  </si>
-  <si>
-    <t>【需求】支持能效管理子系统组件自定义命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/17</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/7</t>
-  </si>
-  <si>
-    <t>【需求】支持组件自定义命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/21</t>
-  </si>
-  <si>
-    <t>标签包裹。</t>
-  </si>
-  <si>
-    <t>【需求】支持NCSI边带管理功能</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/16</t>
-  </si>
-  <si>
-    <t>【需求】开源社区支持NCSI边带管理功能</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/5</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现新的遥测配置管理接口</t>
-  </si>
-  <si>
-    <t>支持遥测上报配置管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/12</t>
-  </si>
-  <si>
-    <t>【需求】 支持遥测上报配置管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/37</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/16</t>
-  </si>
-  <si>
-    <t>【需求】可观测新增redfish、web接口及属性</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/29</t>
-  </si>
-  <si>
-    <t>BMC开发者如何高效管理openTelemetry API依赖组件</t>
-  </si>
-  <si>
-    <t>提供openTelemetry及依赖开源软件API能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/observability/issues/3</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/conan_index/issues/3</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现CoolingRequirement中SensorName属性在资源树注册</t>
-  </si>
-  <si>
-    <t>bmc.kepler.Systems.CoolingRequirement下私有属性SensorName上树</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/34</t>
-  </si>
-  <si>
-    <t>&lt;thermal_mgmt&gt; bmc.kepler.Systems.CoolingRequirement下私有属性SensorName上树</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/101</t>
-  </si>
-  <si>
-    <t>如何解决恢复出厂设置后BMC固件升级签名验证异常</t>
-  </si>
-  <si>
-    <t>恢复出厂设置后，BMC升级失败</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1065/1</t>
-  </si>
-  <si>
-    <t>BMC恢复出厂设置之后无法更新固件</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/831/1</t>
-  </si>
-  <si>
-    <t>恢复出厂设置时无法升级</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/11</t>
-  </si>
-  <si>
-    <t>BMC开发者如何设计CLI并发收集NPU/CPU日志的失败处理</t>
-  </si>
-  <si>
-    <t>【需求】 支持CLI导出NPU DFX日志</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/48</t>
-  </si>
-  <si>
-    <t>【需求】支持CLI导出CPU DFX日志</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/46</t>
-  </si>
-  <si>
-    <t>BMC开发者如何在直通场景下实现NVMe SSD自定义SMART监控</t>
-  </si>
-  <si>
-    <t>【需求】支持自定义SMART信息的NVMe SSD盘写放大监控</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/28</t>
-  </si>
-  <si>
-    <t>【需求】支持从带内获取SMART NVMe SSD盘冗余块信息并监控</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/24</t>
-  </si>
-  <si>
-    <t>【需求】支持获取NVMe SSD盘自定义SMART信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/27</t>
-  </si>
-  <si>
-    <t>【需求】支持从带内获取厂商SMART NVMe SSD盘冗余块信息并监控</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/10</t>
-  </si>
-  <si>
-    <t>【需求】支持自定义的SMART NVMe SSD盘亚健康检测</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/23</t>
-  </si>
-  <si>
-    <t>【需求】支持自定义SMART信息的NVMe SSD盘预估寿命新增计算参数</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/25</t>
-  </si>
-  <si>
-    <t>BMC开发者如何统一实现多品牌新款SATA硬盘的纳管支持？</t>
-  </si>
-  <si>
-    <t>【需求】支持新增希捷SATA盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/42</t>
-  </si>
-  <si>
-    <t>【需求】支持新增西数SATA盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/43</t>
-  </si>
-  <si>
-    <t>【需求】支持新增东芝SATA盘的管理</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/45</t>
-  </si>
-  <si>
-    <t>BMC开发者实现升级时多签名机制兼容性</t>
-  </si>
-  <si>
-    <t>能否实现伙伴签名的openUBMC版本直接升级华为签名的各种固件？</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/335/1</t>
-  </si>
-  <si>
-    <t>伙伴openubmc版本如何支持升级华为签名固件版本和伙伴自己签名的固件版本均能成功？</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1083/1</t>
-  </si>
-  <si>
-    <t>使用openubmc进行bios固件升级，提示无效的升级包</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/182/1</t>
-  </si>
-  <si>
-    <t>刷了华为根的机器是否可以直接刷伙伴根</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/933/1</t>
-  </si>
-  <si>
-    <t>BMC开发者如何申请使用自动化测试框架</t>
-  </si>
-  <si>
-    <t>怎么申请使用kptest框架和itestsmart工具呢</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/665/1</t>
-  </si>
-  <si>
-    <t>kptest框架与KPTestOpenFramework工程、iTestSmart工具介绍</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/832/1</t>
-  </si>
-  <si>
-    <t>如何确保BIOS测试命令在高可用环境中的兼容性</t>
-  </si>
-  <si>
-    <t>高可用环境BIOS执行test失败</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/800/1</t>
-  </si>
-  <si>
-    <t>组件内执行bingo test显示测试失败</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/594/1</t>
-  </si>
-  <si>
     <t>BMC开发者在Redfish OEM定制中如何实现存储控制器属性查询</t>
   </si>
   <si>
@@ -1533,21 +1986,6 @@
     <t>https://gitcode.com/openUBMC/rackmount/issues/67</t>
   </si>
   <si>
-    <t>BMC开发者如何实现PCIe Switch Flash升级组件的集成</t>
-  </si>
-  <si>
-    <t>PCIe Switch 芯片的Flash升级</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/721/1</t>
-  </si>
-  <si>
-    <t>【讨论】PCIe Switch场景下如何加载PCIe卡</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/722/1</t>
-  </si>
-  <si>
     <t>BMC开发者如何扩展UpdateService接口以实现并行固件升级和资源隔离告警</t>
   </si>
   <si>
@@ -1563,444 +2001,6 @@
     <t>https://gitcode.com/openUBMC/mdb_interface/issues/100</t>
   </si>
   <si>
-    <t>BMC开发者如何在BIOS启动阶段禁用KVM/VNC键盘输入防止密码修改</t>
-  </si>
-  <si>
-    <t>支持BIOS启动过程禁止KVM/VNC键盘输入</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/19</t>
-  </si>
-  <si>
-    <t>支持BIOS在启动阶段禁用键盘</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/20</t>
-  </si>
-  <si>
-    <t>BMC开发者如何更新通用和异构硬件适配文档资源</t>
-  </si>
-  <si>
-    <t>【需求】社区更新通用硬件相关文档</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/19</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/13</t>
-  </si>
-  <si>
-    <t>【需求】社区更新设备管理规范相关文档</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/14</t>
-  </si>
-  <si>
-    <t>【需求】社区补齐异构硬件相关文档</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/17</t>
-  </si>
-  <si>
-    <t>【需求】社区更新能效管理相关文档</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/16</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/20</t>
-  </si>
-  <si>
-    <t>解决BMC过渡包升级中签名链更新缺失导致的校验失败</t>
-  </si>
-  <si>
-    <t>制作反向过渡包时碰到的疑问</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/723/1</t>
-  </si>
-  <si>
-    <t>25.03构建出包以及伙伴签名问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/390/1</t>
-  </si>
-  <si>
-    <t>25.03版本的构建环境搭建：dockerfile创建镜像失败</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/409/1</t>
-  </si>
-  <si>
-    <t>如何优化BMC日志、跟踪和度量数据的采集与存储效率</t>
-  </si>
-  <si>
-    <t>提供跟踪数据采集和存储能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/observability/issues/4</t>
-  </si>
-  <si>
-    <t>提供度量数据采集和存储能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/observability/issues/2</t>
-  </si>
-  <si>
-    <t>提供日志数据采集和存储能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/observability/issues/5</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现日志配置与系统路径的存储隔离迁移</t>
-  </si>
-  <si>
-    <t>支持日志存放位置隔离</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rootfs_user/issues/2</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/23</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现NVMe MI over MCTP协议响应码的可靠解析</t>
-  </si>
-  <si>
-    <t>【需求】支持NVMe-mi over mctp的协议解析</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/33</t>
-  </si>
-  <si>
-    <t>【需求】支持解析nvme mi协议响应码信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/8</t>
-  </si>
-  <si>
-    <t>BMC开发者如何通过返回值0判断文件安全操作成功状态</t>
-  </si>
-  <si>
-    <t>【需求】支持文件安全操作函数返回值判断</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/31</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/51</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/36</t>
-  </si>
-  <si>
-    <t>BMC开发者如何高效实现电链路统计数据采集接口</t>
-  </si>
-  <si>
-    <t>【需求】支持NPU参数面端口电链路数据采集</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/8</t>
-  </si>
-  <si>
-    <t>【需求】支持NPU参数面光模块数据采集接口增加电链路数据</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/7</t>
-  </si>
-  <si>
-    <t>BMC开发者如何提升多模组固件升级健壮性</t>
-  </si>
-  <si>
-    <t>【需求】支持多模组CSR固件升级健壮性提升</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/24</t>
-  </si>
-  <si>
-    <t>【需求】支持多模组VRD固件升级健壮性提升</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/26</t>
-  </si>
-  <si>
-    <t>【需求】支持多模组CPLD固件升级健壮性提升</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/25</t>
-  </si>
-  <si>
-    <t>【需求】支持多模组MCU固件升级健壮性提升</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/27</t>
-  </si>
-  <si>
-    <t>CPLD 升级 MultipleSuppliersMode MIXED Mode 功能背景了解</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/886/1</t>
-  </si>
-  <si>
-    <t>【需求】支持MCU子固件升级时版本号校验</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/23</t>
-  </si>
-  <si>
-    <t>BMC开发者如何解决固件并行升级总线互斥问题</t>
-  </si>
-  <si>
-    <t>【需求】支持固件升级流程总线互斥</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/21</t>
-  </si>
-  <si>
-    <t>固件升级流程总线互斥</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/10</t>
-  </si>
-  <si>
-    <t>【需求】能效管理固件升级流程总线互斥</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/11</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/11</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现Redfish接口查询指定PCIe设备资源信息</t>
-  </si>
-  <si>
-    <t>【需求】支持查询指定PCIEDevices资源信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/pcie_device/issues/5</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/16</t>
-  </si>
-  <si>
-    <t>BMC开发者如何解决固件升级中的证书校验失败</t>
-  </si>
-  <si>
-    <t>使用社区最新出包，升级hpm失败，查看m3log get cert fail!</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/498/1</t>
-  </si>
-  <si>
-    <t>最新 source 包烧录异常问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/173/1</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>【需求】支持新浪定制化页面显示可插硬盘的槽位总数</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/webui/issues/36</t>
-  </si>
-  <si>
-    <t>支持web页面显示可插硬盘的槽位总数</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/Sina/issues/2</t>
-  </si>
-  <si>
-    <t>BMC开发者如何在Web界面实现组件粒度状态查询的权限容错机制</t>
-  </si>
-  <si>
-    <t>【需求】web界面查询升级状态及生效状态信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/114</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/99</t>
-  </si>
-  <si>
-    <t>开发者实现Redfish Drive资源OEM接口时需解决NVM MI命令与硬件协议栈的兼容性整合</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制SendNvmeMICommand请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/40</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetIdentifyData请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/39</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetAddSmartInfo请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/37</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetTelemetryData请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/13</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/36</t>
-  </si>
-  <si>
-    <t>【需求】支持Redfish标准的Drive资源下Oem定制GetSmartInfo请求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/38</t>
-  </si>
-  <si>
-    <t>BMC开发中如何实现DPU网卡启动状态的实时检测与记录</t>
-  </si>
-  <si>
-    <t>【需求】支持DPU网卡启动完成标识记录</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/28</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/15</t>
-  </si>
-  <si>
-    <t>BMC开发者亟需开源应用框架开发指导文档</t>
-  </si>
-  <si>
-    <t>提供应用框架开发指导</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/docs/issues/15</t>
-  </si>
-  <si>
-    <t>【需求】社区提供开源项目开发者指南</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/webui/issues/19</t>
-  </si>
-  <si>
-    <t>BMC开发者如何实现SystemInfoTable属性的持久化存储以支持IPMI标准命令</t>
-  </si>
-  <si>
-    <t>IPMI2.0标准接口能力新增私有属性保存system info信息</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1100/1</t>
-  </si>
-  <si>
-    <t>【需求】支持Get System Info标准命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/12</t>
-  </si>
-  <si>
-    <t>【需求】支持Set System Info标准命令</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/13</t>
-  </si>
-  <si>
-    <t>BMC开发者在资源树协作接口中如何解决属性约束冲突与内部实现暴露问题</t>
-  </si>
-  <si>
-    <t>支持通用硬件满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/98</t>
-  </si>
-  <si>
-    <t>【需求】power_mgmt组件接口支持配置PrivilegeMap信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/44</t>
-  </si>
-  <si>
-    <t>【需求】支持能效管理满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/12</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/power_mgmt/issues/13</t>
-  </si>
-  <si>
-    <t>【需求】thermal_mgmt组件接口支持配置PrivilegeMap信息</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/27</t>
-  </si>
-  <si>
-    <t>【需求】thermal_mgmt组件满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/24</t>
-  </si>
-  <si>
-    <t>支持框架资源树协作接口满足关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/38</t>
-  </si>
-  <si>
-    <t>【需求】支持异构算力满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manufacture/issues/2</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/pcie_device/issues/7</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/lsw/issues/2</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/bios/issues/22</t>
-  </si>
-  <si>
-    <t>【需求】支持通用硬件满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/12</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/general_hardware/issues/22</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/storage/issues/17</t>
-  </si>
-  <si>
-    <t>支持基础服务满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/32</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/chassis/issues/3</t>
-  </si>
-  <si>
-    <t>资源树协作接口关键字满足使用原则和规范</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/mdb_interface/issues/6</t>
-  </si>
-  <si>
-    <t>支持安全管理满足资源树协作接口关键字规范要求</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/account/issues/6</t>
-  </si>
-  <si>
     <t>BMC开发者在支持Localbus与Hisport总线仿真中需解决协议交互及性能兼容性等问题</t>
   </si>
   <si>
@@ -2019,6 +2019,12 @@
     <t>https://gitcode.com/openUBMC/rackmount/issues/37</t>
   </si>
   <si>
+    <t>话题总数：58</t>
+  </si>
+  <si>
+    <t>话题总数：1</t>
+  </si>
+  <si>
     <t>话题总数：7</t>
   </si>
   <si>
@@ -2026,12 +2032,6 @@
   </si>
   <si>
     <t>话题总数：2</t>
-  </si>
-  <si>
-    <t>话题总数：58</t>
-  </si>
-  <si>
-    <t>话题总数：1</t>
   </si>
 </sst>
 </file>
@@ -2962,7 +2962,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="2"/>
@@ -2971,7 +2971,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>323</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4">
@@ -2981,162 +2981,162 @@
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>324</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>325</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>326</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>327</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>358</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" t="s">
-        <v>359</v>
-      </c>
-      <c r="C10" t="s">
-        <v>360</v>
+      <c r="A10" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>361</v>
+        <v>165</v>
       </c>
       <c r="C11" t="s">
-        <v>362</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>443</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s">
-        <v>444</v>
-      </c>
-      <c r="C15" t="s">
-        <v>445</v>
+      <c r="A15" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="s">
-        <v>446</v>
+        <v>221</v>
       </c>
       <c r="C16" t="s">
-        <v>447</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="B17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>509</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s">
-        <v>510</v>
-      </c>
-      <c r="C20" t="s">
-        <v>511</v>
+      <c r="A20" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="s">
-        <v>512</v>
+        <v>226</v>
       </c>
       <c r="C21" t="s">
-        <v>513</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="B22" t="s">
+        <v>228</v>
+      </c>
+      <c r="C22" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" t="s">
-        <v>553</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="s">
-        <v>554</v>
-      </c>
-      <c r="C25" t="s">
-        <v>555</v>
+      <c r="A25" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="s">
-        <v>554</v>
+        <v>344</v>
       </c>
       <c r="C26" t="s">
-        <v>556</v>
+        <v>345</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="s">
-        <v>554</v>
+        <v>346</v>
       </c>
       <c r="C27" t="s">
-        <v>557</v>
+        <v>347</v>
       </c>
     </row>
     <row r="28">
@@ -3149,7 +3149,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>593</v>
+        <v>631</v>
       </c>
     </row>
     <row r="30">
@@ -3159,18 +3159,18 @@
     </row>
     <row r="31">
       <c r="B31" t="s">
-        <v>594</v>
+        <v>632</v>
       </c>
       <c r="C31" t="s">
-        <v>595</v>
+        <v>633</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="s">
-        <v>596</v>
+        <v>632</v>
       </c>
       <c r="C32" t="s">
-        <v>597</v>
+        <v>634</v>
       </c>
     </row>
     <row r="33">
@@ -3183,7 +3183,7 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>598</v>
+        <v>655</v>
       </c>
     </row>
     <row r="35">
@@ -3193,18 +3193,18 @@
     </row>
     <row r="36">
       <c r="B36" t="s">
-        <v>599</v>
+        <v>656</v>
       </c>
       <c r="C36" t="s">
-        <v>600</v>
+        <v>657</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="s">
-        <v>599</v>
+        <v>658</v>
       </c>
       <c r="C37" t="s">
-        <v>601</v>
+        <v>659</v>
       </c>
     </row>
     <row r="38">
@@ -3225,7 +3225,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4">
@@ -3247,262 +3247,262 @@
     </row>
     <row r="5">
       <c r="B5" s="3" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>145</v>
+      <c r="B6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="B11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
       <c r="B12" t="s">
-        <v>418</v>
+        <v>188</v>
+      </c>
+      <c r="C12" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>5</v>
+      <c r="B13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>420</v>
+      <c r="B14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>421</v>
+        <v>188</v>
       </c>
       <c r="C15" t="s">
-        <v>422</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="s">
-        <v>421</v>
+        <v>193</v>
       </c>
       <c r="C16" t="s">
-        <v>423</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="s">
-        <v>424</v>
+        <v>193</v>
       </c>
       <c r="C17" t="s">
-        <v>425</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="B18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
       <c r="B19" t="s">
-        <v>630</v>
+        <v>197</v>
+      </c>
+      <c r="C19" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
-        <v>5</v>
+      <c r="B20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C20" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>632</v>
+      <c r="B21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="s">
-        <v>633</v>
+        <v>202</v>
       </c>
       <c r="C22" t="s">
-        <v>634</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s">
-        <v>635</v>
-      </c>
-      <c r="C23" t="s">
-        <v>636</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
     </row>
     <row r="24">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
       <c r="B24" t="s">
-        <v>635</v>
-      </c>
-      <c r="C24" t="s">
-        <v>637</v>
+        <v>461</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="s">
-        <v>638</v>
-      </c>
-      <c r="C25" t="s">
-        <v>639</v>
+      <c r="A25" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s">
-        <v>640</v>
-      </c>
-      <c r="C26" t="s">
-        <v>641</v>
+      <c r="B26" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s">
-        <v>642</v>
-      </c>
-      <c r="C27" t="s">
-        <v>643</v>
+      <c r="B27" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="s">
-        <v>644</v>
+        <v>466</v>
       </c>
       <c r="C28" t="s">
-        <v>645</v>
+        <v>467</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="s">
-        <v>644</v>
+        <v>468</v>
       </c>
       <c r="C29" t="s">
-        <v>646</v>
+        <v>469</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="s">
-        <v>644</v>
+        <v>470</v>
       </c>
       <c r="C30" t="s">
-        <v>647</v>
+        <v>471</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="s">
-        <v>644</v>
+        <v>462</v>
       </c>
       <c r="C31" t="s">
-        <v>648</v>
+        <v>472</v>
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s">
-        <v>649</v>
-      </c>
-      <c r="C32" t="s">
-        <v>650</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
     </row>
     <row r="33">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
       <c r="B33" t="s">
-        <v>649</v>
-      </c>
-      <c r="C33" t="s">
-        <v>651</v>
+        <v>609</v>
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s">
-        <v>649</v>
-      </c>
-      <c r="C34" t="s">
-        <v>652</v>
+      <c r="A34" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s">
-        <v>653</v>
-      </c>
-      <c r="C35" t="s">
-        <v>654</v>
+      <c r="B35" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="s">
-        <v>649</v>
+        <v>612</v>
       </c>
       <c r="C36" t="s">
-        <v>655</v>
+        <v>613</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="s">
-        <v>656</v>
+        <v>612</v>
       </c>
       <c r="C37" t="s">
-        <v>657</v>
+        <v>614</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="s">
-        <v>658</v>
+        <v>615</v>
       </c>
       <c r="C38" t="s">
-        <v>659</v>
+        <v>616</v>
       </c>
     </row>
     <row r="39">
@@ -3523,7 +3523,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -3611,7 +3611,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="2"/>
@@ -3646,254 +3646,254 @@
     </row>
     <row r="7">
       <c r="B7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" t="s">
         <v>125</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="C8" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>127</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" t="s">
-        <v>129</v>
+      <c r="A11" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" t="s">
         <v>130</v>
-      </c>
-      <c r="C12" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" t="s">
         <v>132</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="14">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="B14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>136</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
-        <v>5</v>
+      <c r="B17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" t="s">
         <v>137</v>
-      </c>
-      <c r="C18" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" t="s">
         <v>139</v>
       </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="C20" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>153</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s">
-        <v>154</v>
-      </c>
-      <c r="C23" t="s">
-        <v>155</v>
+      <c r="A23" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C24" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="C25" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s">
-        <v>160</v>
-      </c>
-      <c r="C26" t="s">
-        <v>161</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
     </row>
     <row r="27">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" t="s">
-        <v>162</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>5</v>
+      <c r="B29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="C30" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C31" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="B32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" t="s">
-        <v>166</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s">
-        <v>167</v>
-      </c>
-      <c r="C35" t="s">
-        <v>168</v>
+      <c r="A35" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C36" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="B37" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38" t="s">
-        <v>171</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s">
-        <v>172</v>
-      </c>
-      <c r="C40" t="s">
-        <v>173</v>
+      <c r="A40" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C41" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C42" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43">
@@ -3906,7 +3906,7 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45">
@@ -3916,18 +3916,18 @@
     </row>
     <row r="46">
       <c r="B46" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="C46" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="C47" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48">
@@ -3940,7 +3940,7 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50">
@@ -3950,86 +3950,92 @@
     </row>
     <row r="51">
       <c r="B51" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="C51" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="C52" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
+      <c r="B53" t="s">
+        <v>213</v>
+      </c>
+      <c r="C53" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" t="s">
-        <v>3</v>
-      </c>
       <c r="B54" t="s">
-        <v>188</v>
+        <v>215</v>
+      </c>
+      <c r="C54" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s">
-        <v>5</v>
+      <c r="B55" t="s">
+        <v>215</v>
+      </c>
+      <c r="C55" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="C56" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s">
-        <v>191</v>
-      </c>
-      <c r="C57" t="s">
-        <v>192</v>
-      </c>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
     </row>
     <row r="58">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>3</v>
-      </c>
-      <c r="B59" t="s">
-        <v>193</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s">
-        <v>5</v>
+      <c r="B60" t="s">
+        <v>231</v>
+      </c>
+      <c r="C60" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="s">
-        <v>194</v>
+        <v>233</v>
       </c>
       <c r="C61" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="s">
-        <v>194</v>
+        <v>233</v>
       </c>
       <c r="C62" t="s">
-        <v>196</v>
+        <v>235</v>
       </c>
     </row>
     <row r="63">
@@ -4042,7 +4048,7 @@
         <v>3</v>
       </c>
       <c r="B64" t="s">
-        <v>197</v>
+        <v>236</v>
       </c>
     </row>
     <row r="65">
@@ -4052,1084 +4058,1078 @@
     </row>
     <row r="66">
       <c r="B66" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="C66" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="C67" t="s">
-        <v>201</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
+      <c r="B68" t="s">
+        <v>241</v>
+      </c>
+      <c r="C68" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" t="s">
-        <v>3</v>
-      </c>
       <c r="B69" t="s">
-        <v>202</v>
+        <v>243</v>
+      </c>
+      <c r="C69" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s">
-        <v>5</v>
+      <c r="B70" t="s">
+        <v>245</v>
+      </c>
+      <c r="C70" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="s">
-        <v>203</v>
+        <v>247</v>
       </c>
       <c r="C71" t="s">
-        <v>204</v>
+        <v>248</v>
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s">
-        <v>205</v>
-      </c>
-      <c r="C72" t="s">
-        <v>206</v>
-      </c>
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
     </row>
     <row r="73">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>3</v>
-      </c>
-      <c r="B74" t="s">
-        <v>207</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s">
-        <v>5</v>
+      <c r="B75" t="s">
+        <v>250</v>
+      </c>
+      <c r="C75" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="C76" t="s">
-        <v>209</v>
+        <v>253</v>
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s">
-        <v>210</v>
-      </c>
-      <c r="C77" t="s">
-        <v>211</v>
-      </c>
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
     </row>
     <row r="78">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
+      <c r="A78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>3</v>
-      </c>
-      <c r="B79" t="s">
-        <v>212</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s">
-        <v>5</v>
+      <c r="B80" t="s">
+        <v>255</v>
+      </c>
+      <c r="C80" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="C81" t="s">
-        <v>214</v>
+        <v>258</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
       <c r="C82" t="s">
-        <v>216</v>
+        <v>260</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
+      <c r="B83" t="s">
+        <v>261</v>
+      </c>
+      <c r="C83" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" t="s">
-        <v>3</v>
-      </c>
-      <c r="B84" t="s">
-        <v>217</v>
-      </c>
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s">
-        <v>218</v>
-      </c>
-      <c r="C86" t="s">
-        <v>219</v>
+      <c r="A86" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="87">
       <c r="B87" t="s">
-        <v>218</v>
+        <v>264</v>
       </c>
       <c r="C87" t="s">
-        <v>220</v>
+        <v>265</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
+      <c r="B88" t="s">
+        <v>266</v>
+      </c>
+      <c r="C88" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" t="s">
-        <v>3</v>
-      </c>
       <c r="B89" t="s">
-        <v>221</v>
+        <v>268</v>
+      </c>
+      <c r="C89" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s">
-        <v>5</v>
+      <c r="B90" t="s">
+        <v>270</v>
+      </c>
+      <c r="C90" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s">
-        <v>222</v>
-      </c>
-      <c r="C91" t="s">
-        <v>223</v>
-      </c>
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
     </row>
     <row r="92">
+      <c r="A92" t="s">
+        <v>3</v>
+      </c>
       <c r="B92" t="s">
-        <v>222</v>
-      </c>
-      <c r="C92" t="s">
-        <v>224</v>
+        <v>272</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="94">
-      <c r="A94" t="s">
-        <v>3</v>
-      </c>
       <c r="B94" t="s">
-        <v>305</v>
+        <v>273</v>
+      </c>
+      <c r="C94" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s">
-        <v>5</v>
+      <c r="B95" t="s">
+        <v>275</v>
+      </c>
+      <c r="C95" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s">
-        <v>306</v>
-      </c>
-      <c r="C96" t="s">
-        <v>307</v>
-      </c>
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
     </row>
     <row r="97">
+      <c r="A97" t="s">
+        <v>3</v>
+      </c>
       <c r="B97" t="s">
-        <v>308</v>
-      </c>
-      <c r="C97" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s">
-        <v>310</v>
-      </c>
-      <c r="C98" t="s">
-        <v>311</v>
+      <c r="A98" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="99">
       <c r="B99" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="C99" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
+      <c r="B100" t="s">
+        <v>280</v>
+      </c>
+      <c r="C100" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" t="s">
-        <v>3</v>
-      </c>
       <c r="B101" t="s">
-        <v>314</v>
+        <v>282</v>
+      </c>
+      <c r="C101" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s">
-        <v>5</v>
+      <c r="B102" t="s">
+        <v>284</v>
+      </c>
+      <c r="C102" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s">
-        <v>315</v>
-      </c>
-      <c r="C103" t="s">
-        <v>316</v>
-      </c>
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
     </row>
     <row r="104">
+      <c r="A104" t="s">
+        <v>3</v>
+      </c>
       <c r="B104" t="s">
-        <v>317</v>
-      </c>
-      <c r="C104" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="106">
-      <c r="A106" t="s">
-        <v>3</v>
-      </c>
       <c r="B106" t="s">
-        <v>319</v>
+        <v>287</v>
+      </c>
+      <c r="C106" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s">
-        <v>5</v>
+      <c r="B107" t="s">
+        <v>289</v>
+      </c>
+      <c r="C107" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="108">
       <c r="B108" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="C108" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
     </row>
     <row r="109">
       <c r="B109" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="C109" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
+      <c r="B110" t="s">
+        <v>295</v>
+      </c>
+      <c r="C110" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" t="s">
-        <v>3</v>
-      </c>
       <c r="B111" t="s">
-        <v>328</v>
+        <v>297</v>
+      </c>
+      <c r="C111" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s">
-        <v>5</v>
-      </c>
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
     </row>
     <row r="113">
+      <c r="A113" t="s">
+        <v>3</v>
+      </c>
       <c r="B113" t="s">
-        <v>329</v>
-      </c>
-      <c r="C113" t="s">
-        <v>330</v>
+        <v>299</v>
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s">
-        <v>331</v>
-      </c>
-      <c r="C114" t="s">
-        <v>332</v>
+      <c r="A114" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="115">
       <c r="B115" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="C115" t="s">
-        <v>333</v>
+        <v>301</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
+      <c r="B116" t="s">
+        <v>302</v>
+      </c>
+      <c r="C116" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="117">
-      <c r="A117" t="s">
-        <v>3</v>
-      </c>
       <c r="B117" t="s">
-        <v>334</v>
+        <v>304</v>
+      </c>
+      <c r="C117" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s">
-        <v>5</v>
+      <c r="B118" t="s">
+        <v>304</v>
+      </c>
+      <c r="C118" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s">
-        <v>335</v>
-      </c>
-      <c r="C119" t="s">
-        <v>336</v>
-      </c>
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
     </row>
     <row r="120">
+      <c r="A120" t="s">
+        <v>3</v>
+      </c>
       <c r="B120" t="s">
-        <v>337</v>
-      </c>
-      <c r="C120" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
+      <c r="A121" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="122">
-      <c r="A122" t="s">
-        <v>3</v>
-      </c>
       <c r="B122" t="s">
-        <v>339</v>
+        <v>308</v>
+      </c>
+      <c r="C122" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s">
-        <v>5</v>
+      <c r="B123" t="s">
+        <v>310</v>
+      </c>
+      <c r="C123" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="124">
       <c r="B124" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="C124" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s">
-        <v>342</v>
-      </c>
-      <c r="C125" t="s">
-        <v>343</v>
-      </c>
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
     </row>
     <row r="126">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
+      <c r="A126" t="s">
+        <v>3</v>
+      </c>
+      <c r="B126" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>3</v>
-      </c>
-      <c r="B127" t="s">
-        <v>344</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s">
-        <v>5</v>
+      <c r="B128" t="s">
+        <v>315</v>
+      </c>
+      <c r="C128" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="129">
       <c r="B129" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="C129" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s">
-        <v>347</v>
-      </c>
-      <c r="C130" t="s">
-        <v>348</v>
-      </c>
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
     </row>
     <row r="131">
+      <c r="A131" t="s">
+        <v>3</v>
+      </c>
       <c r="B131" t="s">
-        <v>347</v>
-      </c>
-      <c r="C131" t="s">
-        <v>349</v>
+        <v>319</v>
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s">
-        <v>350</v>
-      </c>
-      <c r="C132" t="s">
-        <v>351</v>
+      <c r="A132" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
+      <c r="B133" t="s">
+        <v>320</v>
+      </c>
+      <c r="C133" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="134">
-      <c r="A134" t="s">
-        <v>3</v>
-      </c>
       <c r="B134" t="s">
-        <v>352</v>
+        <v>320</v>
+      </c>
+      <c r="C134" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s">
-        <v>5</v>
+      <c r="B135" t="s">
+        <v>323</v>
+      </c>
+      <c r="C135" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s">
-        <v>353</v>
-      </c>
-      <c r="C136" t="s">
-        <v>354</v>
-      </c>
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
     </row>
     <row r="137">
+      <c r="A137" t="s">
+        <v>3</v>
+      </c>
       <c r="B137" t="s">
-        <v>353</v>
-      </c>
-      <c r="C137" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s">
-        <v>356</v>
-      </c>
-      <c r="C138" t="s">
-        <v>357</v>
+      <c r="A138" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
+      <c r="B139" t="s">
+        <v>326</v>
+      </c>
+      <c r="C139" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="140">
-      <c r="A140" t="s">
-        <v>3</v>
-      </c>
       <c r="B140" t="s">
-        <v>363</v>
+        <v>328</v>
+      </c>
+      <c r="C140" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s">
-        <v>5</v>
-      </c>
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
     </row>
     <row r="142">
+      <c r="A142" t="s">
+        <v>3</v>
+      </c>
       <c r="B142" t="s">
-        <v>364</v>
-      </c>
-      <c r="C142" t="s">
-        <v>365</v>
+        <v>330</v>
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s">
-        <v>364</v>
-      </c>
-      <c r="C143" t="s">
-        <v>366</v>
+      <c r="A143" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
+      <c r="B144" t="s">
+        <v>331</v>
+      </c>
+      <c r="C144" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="145">
-      <c r="A145" t="s">
-        <v>3</v>
-      </c>
       <c r="B145" t="s">
-        <v>367</v>
+        <v>331</v>
+      </c>
+      <c r="C145" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s">
-        <v>5</v>
-      </c>
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
     </row>
     <row r="147">
+      <c r="A147" t="s">
+        <v>3</v>
+      </c>
       <c r="B147" t="s">
-        <v>368</v>
-      </c>
-      <c r="C147" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s">
-        <v>370</v>
-      </c>
-      <c r="C148" t="s">
-        <v>371</v>
+      <c r="A148" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="149">
       <c r="B149" t="s">
-        <v>372</v>
+        <v>335</v>
       </c>
       <c r="C149" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
     </row>
     <row r="150">
       <c r="B150" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
       <c r="C150" t="s">
-        <v>375</v>
+        <v>337</v>
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s">
-        <v>376</v>
-      </c>
-      <c r="C151" t="s">
-        <v>377</v>
-      </c>
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
     </row>
     <row r="152">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
+      <c r="A152" t="s">
+        <v>3</v>
+      </c>
+      <c r="B152" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>3</v>
-      </c>
-      <c r="B153" t="s">
-        <v>378</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s">
-        <v>5</v>
+      <c r="B154" t="s">
+        <v>339</v>
+      </c>
+      <c r="C154" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="155">
       <c r="B155" t="s">
-        <v>379</v>
+        <v>341</v>
       </c>
       <c r="C155" t="s">
-        <v>380</v>
+        <v>342</v>
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s">
-        <v>381</v>
-      </c>
-      <c r="C156" t="s">
-        <v>382</v>
-      </c>
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
     </row>
     <row r="157">
+      <c r="A157" t="s">
+        <v>3</v>
+      </c>
       <c r="B157" t="s">
-        <v>383</v>
-      </c>
-      <c r="C157" t="s">
-        <v>384</v>
+        <v>348</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
+      <c r="A158" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="159">
-      <c r="A159" t="s">
-        <v>3</v>
-      </c>
       <c r="B159" t="s">
-        <v>385</v>
+        <v>349</v>
+      </c>
+      <c r="C159" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s">
-        <v>5</v>
+      <c r="B160" t="s">
+        <v>351</v>
+      </c>
+      <c r="C160" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s">
-        <v>386</v>
-      </c>
-      <c r="C161" t="s">
-        <v>387</v>
-      </c>
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
     </row>
     <row r="162">
+      <c r="A162" t="s">
+        <v>3</v>
+      </c>
       <c r="B162" t="s">
-        <v>386</v>
-      </c>
-      <c r="C162" t="s">
-        <v>388</v>
+        <v>353</v>
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s">
-        <v>386</v>
-      </c>
-      <c r="C163" t="s">
-        <v>389</v>
+      <c r="A163" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
+      <c r="B164" t="s">
+        <v>354</v>
+      </c>
+      <c r="C164" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="165">
-      <c r="A165" t="s">
-        <v>3</v>
-      </c>
       <c r="B165" t="s">
-        <v>390</v>
+        <v>354</v>
+      </c>
+      <c r="C165" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s">
-        <v>5</v>
-      </c>
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
     </row>
     <row r="167">
+      <c r="A167" t="s">
+        <v>3</v>
+      </c>
       <c r="B167" t="s">
-        <v>391</v>
-      </c>
-      <c r="C167" t="s">
-        <v>392</v>
+        <v>357</v>
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s">
-        <v>393</v>
-      </c>
-      <c r="C168" t="s">
-        <v>394</v>
+      <c r="A168" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="169">
       <c r="B169" t="s">
-        <v>395</v>
+        <v>358</v>
       </c>
       <c r="C169" t="s">
-        <v>396</v>
+        <v>359</v>
       </c>
     </row>
     <row r="170">
       <c r="B170" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="C170" t="s">
-        <v>398</v>
+        <v>360</v>
       </c>
     </row>
     <row r="171">
-      <c r="B171" t="s">
-        <v>399</v>
-      </c>
-      <c r="C171" t="s">
-        <v>400</v>
-      </c>
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
     </row>
     <row r="172">
+      <c r="A172" t="s">
+        <v>3</v>
+      </c>
       <c r="B172" t="s">
-        <v>401</v>
-      </c>
-      <c r="C172" t="s">
-        <v>402</v>
+        <v>361</v>
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s">
-        <v>403</v>
-      </c>
-      <c r="C173" t="s">
-        <v>404</v>
+      <c r="A173" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="174">
       <c r="B174" t="s">
-        <v>405</v>
+        <v>362</v>
       </c>
       <c r="C174" t="s">
-        <v>406</v>
+        <v>363</v>
       </c>
     </row>
     <row r="175">
       <c r="B175" t="s">
-        <v>407</v>
+        <v>364</v>
       </c>
       <c r="C175" t="s">
-        <v>408</v>
+        <v>365</v>
       </c>
     </row>
     <row r="176">
       <c r="B176" t="s">
-        <v>409</v>
+        <v>366</v>
       </c>
       <c r="C176" t="s">
-        <v>410</v>
+        <v>367</v>
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s">
-        <v>411</v>
-      </c>
-      <c r="C177" t="s">
-        <v>412</v>
-      </c>
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
     </row>
     <row r="178">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
+      <c r="A178" t="s">
+        <v>3</v>
+      </c>
+      <c r="B178" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>3</v>
-      </c>
-      <c r="B179" t="s">
-        <v>413</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s">
-        <v>5</v>
+      <c r="B180" t="s">
+        <v>369</v>
+      </c>
+      <c r="C180" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="181">
       <c r="B181" t="s">
-        <v>414</v>
+        <v>371</v>
       </c>
       <c r="C181" t="s">
-        <v>415</v>
+        <v>372</v>
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s">
-        <v>416</v>
-      </c>
-      <c r="C182" t="s">
-        <v>417</v>
-      </c>
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
     </row>
     <row r="183">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
+      <c r="A183" t="s">
+        <v>3</v>
+      </c>
+      <c r="B183" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>3</v>
-      </c>
-      <c r="B184" t="s">
-        <v>426</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s">
-        <v>5</v>
+      <c r="B185" t="s">
+        <v>374</v>
+      </c>
+      <c r="C185" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="186">
       <c r="B186" t="s">
-        <v>427</v>
+        <v>376</v>
       </c>
       <c r="C186" t="s">
-        <v>428</v>
+        <v>377</v>
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s">
-        <v>429</v>
-      </c>
-      <c r="C187" t="s">
-        <v>430</v>
-      </c>
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
     </row>
     <row r="188">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
+      <c r="A188" t="s">
+        <v>3</v>
+      </c>
+      <c r="B188" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>3</v>
-      </c>
-      <c r="B189" t="s">
-        <v>431</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s">
-        <v>5</v>
+      <c r="B190" t="s">
+        <v>379</v>
+      </c>
+      <c r="C190" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="191">
       <c r="B191" t="s">
-        <v>432</v>
+        <v>381</v>
       </c>
       <c r="C191" t="s">
-        <v>433</v>
+        <v>382</v>
       </c>
     </row>
     <row r="192">
       <c r="B192" t="s">
-        <v>434</v>
+        <v>383</v>
       </c>
       <c r="C192" t="s">
-        <v>435</v>
+        <v>384</v>
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s">
-        <v>432</v>
-      </c>
-      <c r="C193" t="s">
-        <v>436</v>
-      </c>
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
     </row>
     <row r="194">
+      <c r="A194" t="s">
+        <v>3</v>
+      </c>
       <c r="B194" t="s">
-        <v>437</v>
-      </c>
-      <c r="C194" t="s">
-        <v>438</v>
+        <v>385</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
-      <c r="C195" s="1"/>
+      <c r="A195" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="196">
-      <c r="A196" t="s">
-        <v>3</v>
-      </c>
       <c r="B196" t="s">
-        <v>439</v>
+        <v>386</v>
+      </c>
+      <c r="C196" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s">
-        <v>5</v>
+      <c r="B197" t="s">
+        <v>388</v>
+      </c>
+      <c r="C197" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s">
-        <v>440</v>
-      </c>
-      <c r="C198" t="s">
-        <v>441</v>
-      </c>
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
     </row>
     <row r="199">
+      <c r="A199" t="s">
+        <v>3</v>
+      </c>
       <c r="B199" t="s">
-        <v>440</v>
-      </c>
-      <c r="C199" t="s">
-        <v>442</v>
+        <v>390</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
-      <c r="C200" s="1"/>
+      <c r="A200" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="201">
-      <c r="A201" t="s">
-        <v>3</v>
-      </c>
       <c r="B201" t="s">
-        <v>448</v>
+        <v>391</v>
+      </c>
+      <c r="C201" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s">
-        <v>5</v>
+      <c r="B202" t="s">
+        <v>393</v>
+      </c>
+      <c r="C202" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s">
-        <v>449</v>
-      </c>
-      <c r="C203" t="s">
-        <v>450</v>
-      </c>
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
     </row>
     <row r="204">
+      <c r="A204" t="s">
+        <v>3</v>
+      </c>
       <c r="B204" t="s">
-        <v>451</v>
-      </c>
-      <c r="C204" t="s">
-        <v>452</v>
+        <v>395</v>
       </c>
     </row>
     <row r="205">
-      <c r="B205" t="s">
-        <v>453</v>
-      </c>
-      <c r="C205" t="s">
-        <v>454</v>
+      <c r="A205" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="1"/>
-      <c r="B206" s="1"/>
-      <c r="C206" s="1"/>
+      <c r="B206" t="s">
+        <v>396</v>
+      </c>
+      <c r="C206" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="207">
-      <c r="A207" t="s">
-        <v>3</v>
-      </c>
       <c r="B207" t="s">
-        <v>455</v>
+        <v>398</v>
+      </c>
+      <c r="C207" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s">
-        <v>5</v>
+      <c r="B208" t="s">
+        <v>400</v>
+      </c>
+      <c r="C208" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s">
-        <v>456</v>
-      </c>
-      <c r="C209" t="s">
-        <v>457</v>
-      </c>
+      <c r="A209" s="1"/>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
     </row>
     <row r="210">
+      <c r="A210" t="s">
+        <v>3</v>
+      </c>
       <c r="B210" t="s">
-        <v>458</v>
-      </c>
-      <c r="C210" t="s">
-        <v>459</v>
+        <v>402</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
-      <c r="C211" s="1"/>
+      <c r="A211" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="212">
-      <c r="A212" t="s">
-        <v>3</v>
-      </c>
       <c r="B212" t="s">
-        <v>460</v>
+        <v>403</v>
+      </c>
+      <c r="C212" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s">
-        <v>5</v>
+      <c r="B213" t="s">
+        <v>405</v>
+      </c>
+      <c r="C213" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s">
-        <v>461</v>
-      </c>
-      <c r="C214" t="s">
-        <v>462</v>
-      </c>
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
     </row>
     <row r="215">
+      <c r="A215" t="s">
+        <v>3</v>
+      </c>
       <c r="B215" t="s">
-        <v>463</v>
-      </c>
-      <c r="C215" t="s">
-        <v>464</v>
+        <v>407</v>
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s">
-        <v>465</v>
-      </c>
-      <c r="C216" t="s">
-        <v>466</v>
+      <c r="A216" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="217">
       <c r="B217" t="s">
-        <v>467</v>
+        <v>408</v>
       </c>
       <c r="C217" t="s">
-        <v>468</v>
+        <v>409</v>
       </c>
     </row>
     <row r="218">
       <c r="B218" t="s">
-        <v>469</v>
+        <v>410</v>
       </c>
       <c r="C218" t="s">
-        <v>470</v>
+        <v>411</v>
       </c>
     </row>
     <row r="219">
       <c r="B219" t="s">
-        <v>471</v>
+        <v>412</v>
       </c>
       <c r="C219" t="s">
-        <v>472</v>
+        <v>413</v>
       </c>
     </row>
     <row r="220">
@@ -5142,7 +5142,7 @@
         <v>3</v>
       </c>
       <c r="B221" t="s">
-        <v>473</v>
+        <v>414</v>
       </c>
     </row>
     <row r="222">
@@ -5152,858 +5152,858 @@
     </row>
     <row r="223">
       <c r="B223" t="s">
-        <v>474</v>
+        <v>415</v>
       </c>
       <c r="C223" t="s">
-        <v>475</v>
+        <v>416</v>
       </c>
     </row>
     <row r="224">
       <c r="B224" t="s">
-        <v>476</v>
+        <v>417</v>
       </c>
       <c r="C224" t="s">
-        <v>477</v>
+        <v>418</v>
       </c>
     </row>
     <row r="225">
-      <c r="B225" t="s">
-        <v>478</v>
-      </c>
-      <c r="C225" t="s">
-        <v>479</v>
-      </c>
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
     </row>
     <row r="226">
-      <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
-      <c r="C226" s="1"/>
+      <c r="A226" t="s">
+        <v>3</v>
+      </c>
+      <c r="B226" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>3</v>
-      </c>
-      <c r="B227" t="s">
-        <v>480</v>
+        <v>5</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s">
-        <v>5</v>
+      <c r="B228" t="s">
+        <v>420</v>
+      </c>
+      <c r="C228" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="229">
       <c r="B229" t="s">
-        <v>481</v>
+        <v>422</v>
       </c>
       <c r="C229" t="s">
-        <v>482</v>
+        <v>423</v>
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s">
-        <v>483</v>
-      </c>
-      <c r="C230" t="s">
-        <v>484</v>
-      </c>
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
     </row>
     <row r="231">
+      <c r="A231" t="s">
+        <v>3</v>
+      </c>
       <c r="B231" t="s">
-        <v>485</v>
-      </c>
-      <c r="C231" t="s">
-        <v>486</v>
+        <v>424</v>
       </c>
     </row>
     <row r="232">
-      <c r="B232" t="s">
-        <v>487</v>
-      </c>
-      <c r="C232" t="s">
-        <v>488</v>
+      <c r="A232" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="1"/>
-      <c r="B233" s="1"/>
-      <c r="C233" s="1"/>
+      <c r="B233" t="s">
+        <v>425</v>
+      </c>
+      <c r="C233" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="234">
-      <c r="A234" t="s">
-        <v>3</v>
-      </c>
       <c r="B234" t="s">
-        <v>489</v>
+        <v>427</v>
+      </c>
+      <c r="C234" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s">
-        <v>5</v>
-      </c>
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
     </row>
     <row r="236">
+      <c r="A236" t="s">
+        <v>3</v>
+      </c>
       <c r="B236" t="s">
-        <v>490</v>
-      </c>
-      <c r="C236" t="s">
-        <v>491</v>
+        <v>429</v>
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s">
-        <v>492</v>
-      </c>
-      <c r="C237" t="s">
-        <v>493</v>
+      <c r="A237" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="1"/>
-      <c r="B238" s="1"/>
-      <c r="C238" s="1"/>
+      <c r="B238" t="s">
+        <v>430</v>
+      </c>
+      <c r="C238" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="239">
-      <c r="A239" t="s">
-        <v>3</v>
-      </c>
       <c r="B239" t="s">
-        <v>494</v>
+        <v>432</v>
+      </c>
+      <c r="C239" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s">
-        <v>5</v>
-      </c>
+      <c r="A240" s="1"/>
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
     </row>
     <row r="241">
+      <c r="A241" t="s">
+        <v>3</v>
+      </c>
       <c r="B241" t="s">
-        <v>495</v>
-      </c>
-      <c r="C241" t="s">
-        <v>496</v>
+        <v>434</v>
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s">
-        <v>497</v>
-      </c>
-      <c r="C242" t="s">
-        <v>498</v>
+      <c r="A242" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="1"/>
-      <c r="B243" s="1"/>
-      <c r="C243" s="1"/>
+      <c r="B243" t="s">
+        <v>435</v>
+      </c>
+      <c r="C243" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="244">
-      <c r="A244" t="s">
-        <v>3</v>
-      </c>
       <c r="B244" t="s">
-        <v>499</v>
+        <v>435</v>
+      </c>
+      <c r="C244" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s">
-        <v>5</v>
+      <c r="B245" t="s">
+        <v>438</v>
+      </c>
+      <c r="C245" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="246">
       <c r="B246" t="s">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="C246" t="s">
-        <v>501</v>
+        <v>441</v>
       </c>
     </row>
     <row r="247">
       <c r="B247" t="s">
-        <v>502</v>
+        <v>442</v>
       </c>
       <c r="C247" t="s">
-        <v>503</v>
+        <v>443</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="1"/>
-      <c r="B248" s="1"/>
-      <c r="C248" s="1"/>
+      <c r="B248" t="s">
+        <v>438</v>
+      </c>
+      <c r="C248" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="249">
-      <c r="A249" t="s">
-        <v>3</v>
-      </c>
-      <c r="B249" t="s">
-        <v>504</v>
-      </c>
+      <c r="A249" s="1"/>
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B250" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s">
-        <v>505</v>
-      </c>
-      <c r="C251" t="s">
-        <v>506</v>
+      <c r="A251" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="252">
       <c r="B252" t="s">
-        <v>507</v>
+        <v>446</v>
       </c>
       <c r="C252" t="s">
-        <v>508</v>
+        <v>447</v>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="1"/>
-      <c r="B253" s="1"/>
-      <c r="C253" s="1"/>
+      <c r="B253" t="s">
+        <v>448</v>
+      </c>
+      <c r="C253" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="254">
-      <c r="A254" t="s">
-        <v>3</v>
-      </c>
       <c r="B254" t="s">
-        <v>514</v>
+        <v>450</v>
+      </c>
+      <c r="C254" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="s">
-        <v>5</v>
-      </c>
+      <c r="A255" s="1"/>
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
     </row>
     <row r="256">
+      <c r="A256" t="s">
+        <v>3</v>
+      </c>
       <c r="B256" t="s">
-        <v>515</v>
-      </c>
-      <c r="C256" t="s">
-        <v>516</v>
+        <v>452</v>
       </c>
     </row>
     <row r="257">
-      <c r="B257" t="s">
-        <v>517</v>
-      </c>
-      <c r="C257" t="s">
-        <v>518</v>
+      <c r="A257" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="1"/>
-      <c r="B258" s="1"/>
-      <c r="C258" s="1"/>
+      <c r="B258" t="s">
+        <v>453</v>
+      </c>
+      <c r="C258" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="259">
-      <c r="A259" t="s">
-        <v>3</v>
-      </c>
       <c r="B259" t="s">
-        <v>519</v>
+        <v>453</v>
+      </c>
+      <c r="C259" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="s">
-        <v>5</v>
+      <c r="B260" t="s">
+        <v>453</v>
+      </c>
+      <c r="C260" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="261">
-      <c r="B261" t="s">
-        <v>520</v>
-      </c>
-      <c r="C261" t="s">
-        <v>521</v>
-      </c>
+      <c r="A261" s="1"/>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
     </row>
     <row r="262">
+      <c r="A262" t="s">
+        <v>3</v>
+      </c>
       <c r="B262" t="s">
-        <v>520</v>
-      </c>
-      <c r="C262" t="s">
-        <v>522</v>
+        <v>457</v>
       </c>
     </row>
     <row r="263">
-      <c r="B263" t="s">
-        <v>523</v>
-      </c>
-      <c r="C263" t="s">
-        <v>524</v>
+      <c r="A263" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="264">
       <c r="B264" t="s">
-        <v>525</v>
+        <v>458</v>
       </c>
       <c r="C264" t="s">
-        <v>526</v>
+        <v>459</v>
       </c>
     </row>
     <row r="265">
       <c r="B265" t="s">
-        <v>527</v>
+        <v>458</v>
       </c>
       <c r="C265" t="s">
-        <v>528</v>
+        <v>460</v>
       </c>
     </row>
     <row r="266">
-      <c r="B266" t="s">
-        <v>523</v>
-      </c>
-      <c r="C266" t="s">
-        <v>529</v>
-      </c>
+      <c r="A266" s="1"/>
+      <c r="B266" s="1"/>
+      <c r="C266" s="1"/>
     </row>
     <row r="267">
-      <c r="A267" s="1"/>
-      <c r="B267" s="1"/>
-      <c r="C267" s="1"/>
+      <c r="A267" t="s">
+        <v>3</v>
+      </c>
+      <c r="B267" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>3</v>
-      </c>
-      <c r="B268" t="s">
-        <v>530</v>
+        <v>5</v>
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s">
-        <v>5</v>
+      <c r="B269" t="s">
+        <v>474</v>
+      </c>
+      <c r="C269" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="270">
       <c r="B270" t="s">
-        <v>531</v>
+        <v>476</v>
       </c>
       <c r="C270" t="s">
-        <v>532</v>
+        <v>477</v>
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s">
-        <v>533</v>
-      </c>
-      <c r="C271" t="s">
-        <v>534</v>
-      </c>
+      <c r="A271" s="1"/>
+      <c r="B271" s="1"/>
+      <c r="C271" s="1"/>
     </row>
     <row r="272">
+      <c r="A272" t="s">
+        <v>3</v>
+      </c>
       <c r="B272" t="s">
-        <v>535</v>
-      </c>
-      <c r="C272" t="s">
-        <v>536</v>
+        <v>478</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="1"/>
-      <c r="B273" s="1"/>
-      <c r="C273" s="1"/>
+      <c r="A273" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="274">
-      <c r="A274" t="s">
-        <v>3</v>
-      </c>
       <c r="B274" t="s">
-        <v>537</v>
+        <v>479</v>
+      </c>
+      <c r="C274" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="s">
-        <v>5</v>
+      <c r="B275" t="s">
+        <v>481</v>
+      </c>
+      <c r="C275" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="276">
-      <c r="B276" t="s">
-        <v>538</v>
-      </c>
-      <c r="C276" t="s">
-        <v>539</v>
-      </c>
+      <c r="A276" s="1"/>
+      <c r="B276" s="1"/>
+      <c r="C276" s="1"/>
     </row>
     <row r="277">
+      <c r="A277" t="s">
+        <v>3</v>
+      </c>
       <c r="B277" t="s">
-        <v>540</v>
-      </c>
-      <c r="C277" t="s">
-        <v>541</v>
+        <v>483</v>
       </c>
     </row>
     <row r="278">
-      <c r="B278" t="s">
-        <v>542</v>
-      </c>
-      <c r="C278" t="s">
-        <v>543</v>
+      <c r="A278" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="1"/>
-      <c r="B279" s="1"/>
-      <c r="C279" s="1"/>
+      <c r="B279" t="s">
+        <v>484</v>
+      </c>
+      <c r="C279" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="280">
-      <c r="A280" t="s">
-        <v>3</v>
-      </c>
       <c r="B280" t="s">
-        <v>544</v>
+        <v>486</v>
+      </c>
+      <c r="C280" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="s">
-        <v>5</v>
+      <c r="B281" t="s">
+        <v>488</v>
+      </c>
+      <c r="C281" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="282">
       <c r="B282" t="s">
-        <v>545</v>
+        <v>490</v>
       </c>
       <c r="C282" t="s">
-        <v>546</v>
+        <v>491</v>
       </c>
     </row>
     <row r="283">
       <c r="B283" t="s">
-        <v>545</v>
+        <v>492</v>
       </c>
       <c r="C283" t="s">
-        <v>547</v>
+        <v>493</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="1"/>
-      <c r="B284" s="1"/>
-      <c r="C284" s="1"/>
+      <c r="B284" t="s">
+        <v>494</v>
+      </c>
+      <c r="C284" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="285">
-      <c r="A285" t="s">
-        <v>3</v>
-      </c>
       <c r="B285" t="s">
-        <v>548</v>
+        <v>496</v>
+      </c>
+      <c r="C285" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s">
-        <v>5</v>
+      <c r="B286" t="s">
+        <v>498</v>
+      </c>
+      <c r="C286" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="287">
       <c r="B287" t="s">
-        <v>549</v>
+        <v>500</v>
       </c>
       <c r="C287" t="s">
-        <v>550</v>
+        <v>501</v>
       </c>
     </row>
     <row r="288">
       <c r="B288" t="s">
-        <v>551</v>
+        <v>502</v>
       </c>
       <c r="C288" t="s">
-        <v>552</v>
+        <v>503</v>
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="1"/>
-      <c r="B289" s="1"/>
-      <c r="C289" s="1"/>
+      <c r="B289" t="s">
+        <v>504</v>
+      </c>
+      <c r="C289" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="290">
-      <c r="A290" t="s">
-        <v>3</v>
-      </c>
-      <c r="B290" t="s">
-        <v>558</v>
-      </c>
+      <c r="A290" s="1"/>
+      <c r="B290" s="1"/>
+      <c r="C290" s="1"/>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B291" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="292">
-      <c r="B292" t="s">
-        <v>559</v>
-      </c>
-      <c r="C292" t="s">
-        <v>560</v>
+      <c r="A292" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="293">
       <c r="B293" t="s">
-        <v>561</v>
+        <v>507</v>
       </c>
       <c r="C293" t="s">
-        <v>562</v>
+        <v>508</v>
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="1"/>
-      <c r="B294" s="1"/>
-      <c r="C294" s="1"/>
+      <c r="B294" t="s">
+        <v>509</v>
+      </c>
+      <c r="C294" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="295">
-      <c r="A295" t="s">
-        <v>3</v>
-      </c>
       <c r="B295" t="s">
-        <v>563</v>
+        <v>511</v>
+      </c>
+      <c r="C295" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="s">
-        <v>5</v>
-      </c>
+      <c r="A296" s="1"/>
+      <c r="B296" s="1"/>
+      <c r="C296" s="1"/>
     </row>
     <row r="297">
+      <c r="A297" t="s">
+        <v>3</v>
+      </c>
       <c r="B297" t="s">
-        <v>564</v>
-      </c>
-      <c r="C297" t="s">
-        <v>565</v>
+        <v>513</v>
       </c>
     </row>
     <row r="298">
-      <c r="B298" t="s">
-        <v>566</v>
-      </c>
-      <c r="C298" t="s">
-        <v>567</v>
+      <c r="A298" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="299">
       <c r="B299" t="s">
-        <v>568</v>
+        <v>514</v>
       </c>
       <c r="C299" t="s">
-        <v>569</v>
+        <v>515</v>
       </c>
     </row>
     <row r="300">
       <c r="B300" t="s">
-        <v>570</v>
+        <v>516</v>
       </c>
       <c r="C300" t="s">
-        <v>571</v>
+        <v>517</v>
       </c>
     </row>
     <row r="301">
-      <c r="B301" t="s">
-        <v>572</v>
-      </c>
-      <c r="C301" t="s">
-        <v>573</v>
-      </c>
+      <c r="A301" s="1"/>
+      <c r="B301" s="1"/>
+      <c r="C301" s="1"/>
     </row>
     <row r="302">
+      <c r="A302" t="s">
+        <v>3</v>
+      </c>
       <c r="B302" t="s">
-        <v>574</v>
-      </c>
-      <c r="C302" t="s">
-        <v>575</v>
+        <v>598</v>
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="1"/>
-      <c r="B303" s="1"/>
-      <c r="C303" s="1"/>
+      <c r="A303" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="304">
-      <c r="A304" t="s">
-        <v>3</v>
-      </c>
       <c r="B304" t="s">
-        <v>576</v>
+        <v>599</v>
+      </c>
+      <c r="C304" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="s">
-        <v>5</v>
+      <c r="B305" t="s">
+        <v>599</v>
+      </c>
+      <c r="C305" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="306">
-      <c r="B306" t="s">
-        <v>577</v>
-      </c>
-      <c r="C306" t="s">
-        <v>578</v>
-      </c>
+      <c r="A306" s="1"/>
+      <c r="B306" s="1"/>
+      <c r="C306" s="1"/>
     </row>
     <row r="307">
+      <c r="A307" t="s">
+        <v>3</v>
+      </c>
       <c r="B307" t="s">
-        <v>579</v>
-      </c>
-      <c r="C307" t="s">
-        <v>580</v>
+        <v>602</v>
       </c>
     </row>
     <row r="308">
-      <c r="B308" t="s">
-        <v>581</v>
-      </c>
-      <c r="C308" t="s">
-        <v>582</v>
+      <c r="A308" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="309">
       <c r="B309" t="s">
-        <v>581</v>
+        <v>603</v>
       </c>
       <c r="C309" t="s">
-        <v>583</v>
+        <v>604</v>
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="1"/>
-      <c r="B310" s="1"/>
-      <c r="C310" s="1"/>
+      <c r="B310" t="s">
+        <v>605</v>
+      </c>
+      <c r="C310" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="311">
-      <c r="A311" t="s">
-        <v>3</v>
-      </c>
       <c r="B311" t="s">
-        <v>584</v>
+        <v>607</v>
+      </c>
+      <c r="C311" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="s">
-        <v>5</v>
-      </c>
+      <c r="A312" s="1"/>
+      <c r="B312" s="1"/>
+      <c r="C312" s="1"/>
     </row>
     <row r="313">
+      <c r="A313" t="s">
+        <v>3</v>
+      </c>
       <c r="B313" t="s">
-        <v>585</v>
-      </c>
-      <c r="C313" t="s">
-        <v>586</v>
+        <v>617</v>
       </c>
     </row>
     <row r="314">
-      <c r="B314" t="s">
-        <v>585</v>
-      </c>
-      <c r="C314" t="s">
-        <v>587</v>
+      <c r="A314" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="1"/>
-      <c r="B315" s="1"/>
-      <c r="C315" s="1"/>
+      <c r="B315" t="s">
+        <v>618</v>
+      </c>
+      <c r="C315" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="316">
-      <c r="A316" t="s">
-        <v>3</v>
-      </c>
       <c r="B316" t="s">
-        <v>588</v>
+        <v>620</v>
+      </c>
+      <c r="C316" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="s">
-        <v>5</v>
-      </c>
+      <c r="A317" s="1"/>
+      <c r="B317" s="1"/>
+      <c r="C317" s="1"/>
     </row>
     <row r="318">
+      <c r="A318" t="s">
+        <v>3</v>
+      </c>
       <c r="B318" t="s">
-        <v>589</v>
-      </c>
-      <c r="C318" t="s">
-        <v>590</v>
+        <v>622</v>
       </c>
     </row>
     <row r="319">
-      <c r="B319" t="s">
-        <v>591</v>
-      </c>
-      <c r="C319" t="s">
-        <v>592</v>
+      <c r="A319" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="1"/>
-      <c r="B320" s="1"/>
-      <c r="C320" s="1"/>
+      <c r="B320" t="s">
+        <v>623</v>
+      </c>
+      <c r="C320" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="321">
-      <c r="A321" t="s">
-        <v>3</v>
-      </c>
       <c r="B321" t="s">
-        <v>602</v>
+        <v>623</v>
+      </c>
+      <c r="C321" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="s">
-        <v>5</v>
-      </c>
+      <c r="A322" s="1"/>
+      <c r="B322" s="1"/>
+      <c r="C322" s="1"/>
     </row>
     <row r="323">
+      <c r="A323" t="s">
+        <v>3</v>
+      </c>
       <c r="B323" t="s">
-        <v>603</v>
-      </c>
-      <c r="C323" t="s">
-        <v>604</v>
+        <v>626</v>
       </c>
     </row>
     <row r="324">
-      <c r="B324" t="s">
-        <v>605</v>
-      </c>
-      <c r="C324" t="s">
-        <v>606</v>
+      <c r="A324" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="325">
       <c r="B325" t="s">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="C325" t="s">
-        <v>608</v>
+        <v>628</v>
       </c>
     </row>
     <row r="326">
       <c r="B326" t="s">
-        <v>609</v>
+        <v>629</v>
       </c>
       <c r="C326" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
     </row>
     <row r="327">
-      <c r="B327" t="s">
-        <v>609</v>
-      </c>
-      <c r="C327" t="s">
-        <v>611</v>
-      </c>
+      <c r="A327" s="1"/>
+      <c r="B327" s="1"/>
+      <c r="C327" s="1"/>
     </row>
     <row r="328">
+      <c r="A328" t="s">
+        <v>3</v>
+      </c>
       <c r="B328" t="s">
-        <v>612</v>
-      </c>
-      <c r="C328" t="s">
-        <v>613</v>
+        <v>635</v>
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="1"/>
-      <c r="B329" s="1"/>
-      <c r="C329" s="1"/>
+      <c r="A329" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="330">
-      <c r="A330" t="s">
-        <v>3</v>
-      </c>
       <c r="B330" t="s">
-        <v>614</v>
+        <v>636</v>
+      </c>
+      <c r="C330" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="s">
-        <v>5</v>
+      <c r="B331" t="s">
+        <v>636</v>
+      </c>
+      <c r="C331" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="332">
-      <c r="B332" t="s">
-        <v>615</v>
-      </c>
-      <c r="C332" t="s">
-        <v>616</v>
-      </c>
+      <c r="A332" s="1"/>
+      <c r="B332" s="1"/>
+      <c r="C332" s="1"/>
     </row>
     <row r="333">
+      <c r="A333" t="s">
+        <v>3</v>
+      </c>
       <c r="B333" t="s">
-        <v>615</v>
-      </c>
-      <c r="C333" t="s">
-        <v>617</v>
+        <v>639</v>
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="1"/>
-      <c r="B334" s="1"/>
-      <c r="C334" s="1"/>
+      <c r="A334" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="335">
-      <c r="A335" t="s">
-        <v>3</v>
-      </c>
       <c r="B335" t="s">
-        <v>618</v>
+        <v>640</v>
+      </c>
+      <c r="C335" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="s">
-        <v>5</v>
+      <c r="B336" t="s">
+        <v>642</v>
+      </c>
+      <c r="C336" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="337">
       <c r="B337" t="s">
-        <v>619</v>
+        <v>644</v>
       </c>
       <c r="C337" t="s">
-        <v>620</v>
+        <v>645</v>
       </c>
     </row>
     <row r="338">
       <c r="B338" t="s">
-        <v>621</v>
+        <v>646</v>
       </c>
       <c r="C338" t="s">
-        <v>622</v>
+        <v>647</v>
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="1"/>
-      <c r="B339" s="1"/>
-      <c r="C339" s="1"/>
+      <c r="B339" t="s">
+        <v>648</v>
+      </c>
+      <c r="C339" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="340">
-      <c r="A340" t="s">
-        <v>3</v>
-      </c>
-      <c r="B340" t="s">
-        <v>623</v>
-      </c>
+      <c r="A340" s="1"/>
+      <c r="B340" s="1"/>
+      <c r="C340" s="1"/>
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B341" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="342">
-      <c r="B342" t="s">
-        <v>624</v>
-      </c>
-      <c r="C342" t="s">
-        <v>625</v>
+      <c r="A342" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="343">
       <c r="B343" t="s">
-        <v>626</v>
+        <v>651</v>
       </c>
       <c r="C343" t="s">
-        <v>627</v>
+        <v>652</v>
       </c>
     </row>
     <row r="344">
       <c r="B344" t="s">
-        <v>628</v>
+        <v>653</v>
       </c>
       <c r="C344" t="s">
-        <v>629</v>
+        <v>654</v>
       </c>
     </row>
     <row r="345">
@@ -6024,7 +6024,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -6036,7 +6036,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>225</v>
+        <v>518</v>
       </c>
     </row>
     <row r="4">
@@ -6046,342 +6046,333 @@
     </row>
     <row r="5">
       <c r="B5" s="3" t="s">
-        <v>226</v>
+        <v>519</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>227</v>
+        <v>520</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="3" t="s">
-        <v>228</v>
+        <v>521</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>229</v>
+        <v>522</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="3" t="s">
-        <v>230</v>
+        <v>523</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>231</v>
+        <v>524</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="3" t="s">
-        <v>232</v>
+        <v>525</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>233</v>
+        <v>526</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="3" t="s">
-        <v>234</v>
+        <v>527</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>235</v>
+        <v>528</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="3" t="s">
-        <v>236</v>
+        <v>529</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>237</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11"/>
-    <row r="12"/>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>531</v>
+      </c>
+      <c r="B12" t="s">
+        <v>532</v>
+      </c>
+      <c r="C12" t="s">
+        <v>533</v>
+      </c>
+    </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>238</v>
+        <v>534</v>
+      </c>
+      <c r="C13" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>239</v>
+        <v>536</v>
       </c>
       <c r="C14" t="s">
-        <v>240</v>
+        <v>537</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>241</v>
+        <v>538</v>
       </c>
       <c r="C15" t="s">
-        <v>242</v>
+        <v>539</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="s">
-        <v>243</v>
+        <v>540</v>
       </c>
       <c r="C16" t="s">
-        <v>244</v>
+        <v>541</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="s">
-        <v>245</v>
+        <v>542</v>
       </c>
       <c r="C17" t="s">
-        <v>246</v>
+        <v>543</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="s">
-        <v>247</v>
+        <v>544</v>
       </c>
       <c r="C18" t="s">
-        <v>248</v>
+        <v>545</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="s">
-        <v>249</v>
+        <v>544</v>
       </c>
       <c r="C19" t="s">
-        <v>250</v>
+        <v>546</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="s">
-        <v>251</v>
+        <v>547</v>
       </c>
       <c r="C20" t="s">
-        <v>252</v>
+        <v>548</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="s">
-        <v>251</v>
+        <v>549</v>
       </c>
       <c r="C21" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" t="s">
-        <v>254</v>
-      </c>
-      <c r="C22" t="s">
-        <v>255</v>
-      </c>
-    </row>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="22"/>
     <row r="23">
+      <c r="A23" t="s">
+        <v>551</v>
+      </c>
       <c r="B23" t="s">
-        <v>256</v>
+        <v>521</v>
       </c>
       <c r="C23" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="24"/>
-    <row r="25"/>
+        <v>552</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>553</v>
+      </c>
+      <c r="C24" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s">
+        <v>555</v>
+      </c>
+      <c r="C25" t="s">
+        <v>556</v>
+      </c>
+    </row>
     <row r="26">
       <c r="B26" t="s">
-        <v>258</v>
+        <v>557</v>
+      </c>
+      <c r="C26" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="s">
-        <v>228</v>
+        <v>559</v>
       </c>
       <c r="C27" t="s">
-        <v>259</v>
+        <v>560</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="s">
-        <v>260</v>
+        <v>561</v>
       </c>
       <c r="C28" t="s">
-        <v>261</v>
+        <v>562</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="s">
-        <v>262</v>
+        <v>563</v>
       </c>
       <c r="C29" t="s">
-        <v>263</v>
+        <v>564</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="s">
-        <v>264</v>
+        <v>565</v>
       </c>
       <c r="C30" t="s">
-        <v>265</v>
+        <v>566</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="s">
-        <v>266</v>
+        <v>567</v>
       </c>
       <c r="C31" t="s">
-        <v>267</v>
+        <v>568</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="s">
-        <v>268</v>
+        <v>569</v>
       </c>
       <c r="C32" t="s">
-        <v>269</v>
+        <v>570</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="s">
-        <v>270</v>
+        <v>571</v>
       </c>
       <c r="C33" t="s">
-        <v>271</v>
+        <v>572</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="s">
-        <v>272</v>
+        <v>573</v>
       </c>
       <c r="C34" t="s">
-        <v>273</v>
+        <v>574</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="s">
-        <v>274</v>
+        <v>575</v>
       </c>
       <c r="C35" t="s">
-        <v>275</v>
+        <v>576</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="s">
-        <v>276</v>
+        <v>577</v>
       </c>
       <c r="C36" t="s">
-        <v>277</v>
+        <v>578</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="s">
-        <v>278</v>
+        <v>579</v>
       </c>
       <c r="C37" t="s">
-        <v>279</v>
+        <v>580</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="s">
-        <v>280</v>
+        <v>581</v>
       </c>
       <c r="C38" t="s">
-        <v>281</v>
+        <v>582</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="s">
-        <v>282</v>
+        <v>583</v>
       </c>
       <c r="C39" t="s">
-        <v>283</v>
+        <v>584</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="s">
-        <v>284</v>
+        <v>585</v>
       </c>
       <c r="C40" t="s">
-        <v>285</v>
+        <v>586</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="s">
-        <v>286</v>
+        <v>587</v>
       </c>
       <c r="C41" t="s">
-        <v>287</v>
+        <v>588</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="s">
-        <v>288</v>
+        <v>589</v>
       </c>
       <c r="C42" t="s">
-        <v>289</v>
+        <v>590</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="s">
-        <v>290</v>
+        <v>591</v>
       </c>
       <c r="C43" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" t="s">
-        <v>292</v>
-      </c>
-      <c r="C44" t="s">
-        <v>293</v>
-      </c>
-    </row>
+        <v>592</v>
+      </c>
+    </row>
+    <row r="44"/>
     <row r="45">
+      <c r="A45" t="s">
+        <v>593</v>
+      </c>
       <c r="B45" t="s">
-        <v>294</v>
+        <v>594</v>
       </c>
       <c r="C45" t="s">
-        <v>295</v>
+        <v>595</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="s">
-        <v>296</v>
+        <v>596</v>
       </c>
       <c r="C46" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" t="s">
-        <v>298</v>
-      </c>
-      <c r="C47" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50">
-      <c r="B50" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" t="s">
-        <v>301</v>
-      </c>
-      <c r="C51" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="B52" t="s">
-        <v>303</v>
-      </c>
-      <c r="C52" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="53"/>
-    <row r="54">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+        <v>597</v>
+      </c>
+    </row>
+    <row r="47"/>
+    <row r="48">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
     </row>
   </sheetData>
 </worksheet>
